--- a/Antonio-Feed/__FeedPartsInventory.xlsx
+++ b/Antonio-Feed/__FeedPartsInventory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pollak/Documents/GitHub/Front-Page/Antonio-Feed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E30736B-6478-DB43-9319-4F14526FA2C8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{540FC6D6-4375-414C-9102-226F90EC5B5E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="48180" yWindow="460" windowWidth="35840" windowHeight="19760" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1581,6 +1581,7 @@
     <font>
       <sz val="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1590,7 +1591,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1679,6 +1680,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor rgb="FFFF9900"/>
       </patternFill>
     </fill>
   </fills>
@@ -1885,7 +1892,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2047,6 +2054,49 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2071,58 +2121,16 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2366,25 +2374,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="124" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104"/>
-      <c r="K1" s="103"/>
-      <c r="L1" s="104"/>
-      <c r="M1" s="104"/>
-      <c r="N1" s="104"/>
-      <c r="O1" s="104"/>
-      <c r="P1" s="104"/>
-      <c r="Q1" s="104"/>
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="125"/>
+      <c r="G1" s="125"/>
+      <c r="H1" s="126"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="127"/>
+      <c r="K1" s="126"/>
+      <c r="L1" s="127"/>
+      <c r="M1" s="127"/>
+      <c r="N1" s="127"/>
+      <c r="O1" s="127"/>
+      <c r="P1" s="127"/>
+      <c r="Q1" s="127"/>
     </row>
     <row r="2" spans="1:17" ht="16">
       <c r="A2" s="1" t="s">
@@ -3678,38 +3686,38 @@
       <c r="A58" s="9"/>
     </row>
     <row r="59" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A59" s="105" t="s">
+      <c r="A59" s="128" t="s">
         <v>158</v>
       </c>
-      <c r="B59" s="100"/>
-      <c r="C59" s="100"/>
+      <c r="B59" s="123"/>
+      <c r="C59" s="123"/>
     </row>
     <row r="60" spans="1:6" ht="15.75" customHeight="1">
       <c r="A60" s="12"/>
     </row>
     <row r="61" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A61" s="99" t="s">
+      <c r="A61" s="122" t="s">
         <v>150</v>
       </c>
-      <c r="B61" s="100"/>
-      <c r="C61" s="99" t="s">
+      <c r="B61" s="123"/>
+      <c r="C61" s="122" t="s">
         <v>159</v>
       </c>
-      <c r="D61" s="100"/>
-      <c r="E61" s="100"/>
-      <c r="F61" s="100"/>
+      <c r="D61" s="123"/>
+      <c r="E61" s="123"/>
+      <c r="F61" s="123"/>
     </row>
     <row r="62" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A62" s="99" t="s">
+      <c r="A62" s="122" t="s">
         <v>160</v>
       </c>
-      <c r="B62" s="100"/>
-      <c r="C62" s="99" t="s">
+      <c r="B62" s="123"/>
+      <c r="C62" s="122" t="s">
         <v>161</v>
       </c>
-      <c r="D62" s="100"/>
-      <c r="E62" s="100"/>
-      <c r="F62" s="100"/>
+      <c r="D62" s="123"/>
+      <c r="E62" s="123"/>
+      <c r="F62" s="123"/>
     </row>
     <row r="63" spans="1:6" ht="15.75" customHeight="1"/>
     <row r="64" spans="1:6" ht="15.75" customHeight="1"/>
@@ -4677,7 +4685,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection sqref="A1:J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
@@ -4690,20 +4698,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1" thickBot="1">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="124" t="s">
         <v>162</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="107" t="s">
+      <c r="B1" s="129"/>
+      <c r="C1" s="130" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="126"/>
+      <c r="G1" s="126"/>
+      <c r="H1" s="126"/>
+      <c r="I1" s="126"/>
+      <c r="J1" s="126"/>
       <c r="K1" s="86"/>
       <c r="L1" s="86"/>
     </row>
@@ -4856,7 +4864,7 @@
       <c r="H6" s="25"/>
       <c r="I6" s="25"/>
       <c r="J6" s="25"/>
-      <c r="K6" s="123" t="s">
+      <c r="K6" s="108" t="s">
         <v>438</v>
       </c>
       <c r="L6" s="81"/>
@@ -5110,7 +5118,7 @@
       <c r="J13" s="30" t="s">
         <v>176</v>
       </c>
-      <c r="K13" s="123" t="s">
+      <c r="K13" s="108" t="s">
         <v>435</v>
       </c>
       <c r="L13" s="81"/>
@@ -5228,7 +5236,7 @@
       <c r="A17" s="31" t="s">
         <v>179</v>
       </c>
-      <c r="B17" s="87" t="s">
+      <c r="B17" s="137" t="s">
         <v>166</v>
       </c>
       <c r="C17" s="27" t="s">
@@ -5421,20 +5429,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="17" thickBot="1">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="131" t="s">
         <v>162</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="108" t="s">
+      <c r="B1" s="132"/>
+      <c r="C1" s="131" t="s">
         <v>367</v>
       </c>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="109"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="133"/>
+      <c r="J1" s="132"/>
     </row>
     <row r="2" spans="1:10" ht="17" thickBot="1">
       <c r="A2" s="75" t="s">
@@ -7208,7 +7216,7 @@
   </sheetPr>
   <dimension ref="A1:I1021"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
       <selection activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
@@ -7220,386 +7228,386 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="16">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="100" t="s">
         <v>409</v>
       </c>
-      <c r="B1" s="113" t="s">
+      <c r="B1" s="101" t="s">
         <v>430</v>
       </c>
-      <c r="C1" s="113" t="s">
+      <c r="C1" s="101" t="s">
         <v>429</v>
       </c>
-      <c r="D1" s="117" t="s">
+      <c r="D1" s="136" t="s">
         <v>272</v>
       </c>
-      <c r="E1" s="117"/>
-      <c r="F1" s="125" t="s">
+      <c r="E1" s="136"/>
+      <c r="F1" s="110" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="98" customFormat="1" ht="16">
       <c r="A2" s="9"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="G2" s="118"/>
-      <c r="H2" s="118"/>
-      <c r="I2" s="118"/>
+      <c r="D2" s="135"/>
+      <c r="E2" s="135"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
     </row>
     <row r="3" spans="1:9" s="98" customFormat="1" ht="16">
-      <c r="A3" s="111" t="s">
+      <c r="A3" s="99" t="s">
         <v>410</v>
       </c>
-      <c r="B3" s="119">
+      <c r="B3" s="105">
         <v>62</v>
       </c>
-      <c r="C3" s="119">
+      <c r="C3" s="105">
         <v>55</v>
       </c>
-      <c r="D3" s="116" t="s">
+      <c r="D3" s="134" t="s">
         <v>431</v>
       </c>
-      <c r="E3" s="122"/>
-      <c r="F3" s="114" t="s">
+      <c r="E3" s="135"/>
+      <c r="F3" s="102" t="s">
         <v>262</v>
       </c>
-      <c r="G3" s="118"/>
+      <c r="G3" s="104"/>
       <c r="H3" s="78"/>
-      <c r="I3" s="118"/>
+      <c r="I3" s="104"/>
     </row>
     <row r="4" spans="1:9" s="98" customFormat="1" ht="16">
-      <c r="A4" s="111" t="s">
+      <c r="A4" s="99" t="s">
         <v>411</v>
       </c>
-      <c r="D4" s="122"/>
-      <c r="E4" s="122"/>
-      <c r="F4" s="115"/>
-      <c r="G4" s="118"/>
-      <c r="H4" s="121"/>
-      <c r="I4" s="118"/>
+      <c r="D4" s="135"/>
+      <c r="E4" s="135"/>
+      <c r="F4" s="103"/>
+      <c r="G4" s="104"/>
+      <c r="H4" s="107"/>
+      <c r="I4" s="104"/>
     </row>
     <row r="5" spans="1:9" s="98" customFormat="1" ht="16">
-      <c r="A5" s="111" t="s">
+      <c r="A5" s="99" t="s">
         <v>412</v>
       </c>
-      <c r="B5" s="119">
+      <c r="B5" s="105">
         <v>44</v>
       </c>
-      <c r="C5" s="119">
+      <c r="C5" s="105">
         <v>43</v>
       </c>
-      <c r="D5" s="122"/>
-      <c r="E5" s="122"/>
-      <c r="F5" s="114" t="s">
+      <c r="D5" s="135"/>
+      <c r="E5" s="135"/>
+      <c r="F5" s="102" t="s">
         <v>262</v>
       </c>
-      <c r="G5" s="118"/>
-      <c r="H5" s="121"/>
-      <c r="I5" s="118"/>
+      <c r="G5" s="104"/>
+      <c r="H5" s="107"/>
+      <c r="I5" s="104"/>
     </row>
     <row r="6" spans="1:9" s="98" customFormat="1" ht="16">
-      <c r="A6" s="111" t="s">
+      <c r="A6" s="99" t="s">
         <v>413</v>
       </c>
-      <c r="B6" s="119">
+      <c r="B6" s="105">
         <v>47</v>
       </c>
-      <c r="C6" s="119">
+      <c r="C6" s="105">
         <v>52</v>
       </c>
-      <c r="D6" s="116" t="s">
+      <c r="D6" s="134" t="s">
         <v>433</v>
       </c>
-      <c r="E6" s="122"/>
-      <c r="F6" s="114" t="s">
+      <c r="E6" s="135"/>
+      <c r="F6" s="102" t="s">
         <v>262</v>
       </c>
-      <c r="G6" s="118"/>
-      <c r="H6" s="124"/>
-      <c r="I6" s="118"/>
+      <c r="G6" s="104"/>
+      <c r="H6" s="109"/>
+      <c r="I6" s="104"/>
     </row>
     <row r="7" spans="1:9" s="98" customFormat="1" ht="16">
-      <c r="A7" s="111" t="s">
+      <c r="A7" s="99" t="s">
         <v>414</v>
       </c>
-      <c r="B7" s="119">
+      <c r="B7" s="105">
         <v>75</v>
       </c>
-      <c r="C7" s="119">
+      <c r="C7" s="105">
         <v>82</v>
       </c>
-      <c r="D7" s="116" t="s">
+      <c r="D7" s="134" t="s">
         <v>433</v>
       </c>
-      <c r="E7" s="122"/>
-      <c r="F7" s="114" t="s">
+      <c r="E7" s="135"/>
+      <c r="F7" s="102" t="s">
         <v>262</v>
       </c>
-      <c r="G7" s="118"/>
-      <c r="H7" s="121"/>
-      <c r="I7" s="118"/>
+      <c r="G7" s="104"/>
+      <c r="H7" s="107"/>
+      <c r="I7" s="104"/>
     </row>
     <row r="8" spans="1:9" s="98" customFormat="1" ht="16">
-      <c r="A8" s="111" t="s">
+      <c r="A8" s="99" t="s">
         <v>415</v>
       </c>
-      <c r="B8" s="119">
+      <c r="B8" s="105">
         <v>85</v>
       </c>
-      <c r="C8" s="119">
+      <c r="C8" s="105">
         <v>99</v>
       </c>
-      <c r="D8" s="116" t="s">
+      <c r="D8" s="134" t="s">
         <v>432</v>
       </c>
-      <c r="E8" s="122"/>
-      <c r="F8" s="115"/>
-      <c r="G8" s="118"/>
-      <c r="H8" s="121"/>
-      <c r="I8" s="118"/>
+      <c r="E8" s="135"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="104"/>
+      <c r="H8" s="107"/>
+      <c r="I8" s="104"/>
     </row>
     <row r="9" spans="1:9" ht="15" customHeight="1">
-      <c r="A9" s="111" t="s">
+      <c r="A9" s="99" t="s">
         <v>416</v>
       </c>
-      <c r="B9" s="119">
+      <c r="B9" s="105">
         <v>15</v>
       </c>
-      <c r="C9" s="119">
+      <c r="C9" s="105">
         <v>23</v>
       </c>
-      <c r="D9" s="116" t="s">
+      <c r="D9" s="134" t="s">
         <v>431</v>
       </c>
-      <c r="E9" s="122"/>
-      <c r="F9" s="114" t="s">
+      <c r="E9" s="135"/>
+      <c r="F9" s="102" t="s">
         <v>262</v>
       </c>
-      <c r="G9" s="118"/>
-      <c r="H9" s="121"/>
-      <c r="I9" s="118"/>
+      <c r="G9" s="104"/>
+      <c r="H9" s="107"/>
+      <c r="I9" s="104"/>
     </row>
     <row r="10" spans="1:9" ht="16">
-      <c r="A10" s="111" t="s">
+      <c r="A10" s="99" t="s">
         <v>417</v>
       </c>
-      <c r="B10" s="120"/>
-      <c r="C10" s="119"/>
-      <c r="D10" s="122"/>
-      <c r="E10" s="122"/>
-      <c r="F10" s="115"/>
-      <c r="G10" s="118"/>
-      <c r="H10" s="121"/>
-      <c r="I10" s="118"/>
+      <c r="B10" s="106"/>
+      <c r="C10" s="105"/>
+      <c r="D10" s="135"/>
+      <c r="E10" s="135"/>
+      <c r="F10" s="103"/>
+      <c r="G10" s="104"/>
+      <c r="H10" s="107"/>
+      <c r="I10" s="104"/>
     </row>
     <row r="11" spans="1:9" ht="16">
-      <c r="A11" s="111" t="s">
+      <c r="A11" s="99" t="s">
         <v>418</v>
       </c>
-      <c r="B11" s="121"/>
-      <c r="C11" s="119"/>
-      <c r="D11" s="122"/>
-      <c r="E11" s="122"/>
-      <c r="F11" s="115"/>
-      <c r="G11" s="118"/>
-      <c r="H11" s="121"/>
-      <c r="I11" s="118"/>
+      <c r="B11" s="107"/>
+      <c r="C11" s="105"/>
+      <c r="D11" s="135"/>
+      <c r="E11" s="135"/>
+      <c r="F11" s="103"/>
+      <c r="G11" s="104"/>
+      <c r="H11" s="107"/>
+      <c r="I11" s="104"/>
     </row>
     <row r="12" spans="1:9" ht="16">
-      <c r="A12" s="111" t="s">
+      <c r="A12" s="99" t="s">
         <v>419</v>
       </c>
-      <c r="B12" s="121">
+      <c r="B12" s="107">
         <v>57</v>
       </c>
-      <c r="C12" s="119">
+      <c r="C12" s="105">
         <v>59</v>
       </c>
-      <c r="D12" s="116" t="s">
+      <c r="D12" s="134" t="s">
         <v>431</v>
       </c>
-      <c r="E12" s="122"/>
-      <c r="F12" s="114" t="s">
+      <c r="E12" s="135"/>
+      <c r="F12" s="102" t="s">
         <v>262</v>
       </c>
-      <c r="G12" s="118"/>
-      <c r="H12" s="121"/>
-      <c r="I12" s="118"/>
+      <c r="G12" s="104"/>
+      <c r="H12" s="107"/>
+      <c r="I12" s="104"/>
     </row>
     <row r="13" spans="1:9" ht="16">
-      <c r="A13" s="111" t="s">
+      <c r="A13" s="99" t="s">
         <v>420</v>
       </c>
-      <c r="B13" s="121">
+      <c r="B13" s="107">
         <v>37</v>
       </c>
-      <c r="C13" s="119">
+      <c r="C13" s="105">
         <v>56</v>
       </c>
-      <c r="D13" s="116" t="s">
+      <c r="D13" s="134" t="s">
         <v>433</v>
       </c>
-      <c r="E13" s="122"/>
-      <c r="F13" s="114" t="s">
+      <c r="E13" s="135"/>
+      <c r="F13" s="102" t="s">
         <v>262</v>
       </c>
-      <c r="G13" s="118"/>
-      <c r="H13" s="124"/>
-      <c r="I13" s="118"/>
+      <c r="G13" s="104"/>
+      <c r="H13" s="109"/>
+      <c r="I13" s="104"/>
     </row>
     <row r="14" spans="1:9" ht="16">
-      <c r="A14" s="111" t="s">
+      <c r="A14" s="99" t="s">
         <v>421</v>
       </c>
-      <c r="B14" s="121">
+      <c r="B14" s="107">
         <v>53</v>
       </c>
-      <c r="C14" s="119">
+      <c r="C14" s="105">
         <v>72</v>
       </c>
-      <c r="D14" s="116" t="s">
+      <c r="D14" s="134" t="s">
         <v>433</v>
       </c>
-      <c r="E14" s="122"/>
-      <c r="F14" s="114" t="s">
+      <c r="E14" s="135"/>
+      <c r="F14" s="102" t="s">
         <v>262</v>
       </c>
-      <c r="G14" s="118"/>
-      <c r="H14" s="121"/>
-      <c r="I14" s="118"/>
+      <c r="G14" s="104"/>
+      <c r="H14" s="107"/>
+      <c r="I14" s="104"/>
     </row>
     <row r="15" spans="1:9" ht="16">
-      <c r="A15" s="111" t="s">
+      <c r="A15" s="99" t="s">
         <v>422</v>
       </c>
-      <c r="B15" s="121">
+      <c r="B15" s="107">
         <v>60</v>
       </c>
-      <c r="C15" s="119">
+      <c r="C15" s="105">
         <v>64</v>
       </c>
-      <c r="D15" s="122"/>
-      <c r="E15" s="122"/>
-      <c r="F15" s="114" t="s">
+      <c r="D15" s="135"/>
+      <c r="E15" s="135"/>
+      <c r="F15" s="102" t="s">
         <v>262</v>
       </c>
-      <c r="G15" s="118"/>
-      <c r="H15" s="121"/>
-      <c r="I15" s="118"/>
+      <c r="G15" s="104"/>
+      <c r="H15" s="107"/>
+      <c r="I15" s="104"/>
     </row>
     <row r="16" spans="1:9" ht="16">
-      <c r="A16" s="111" t="s">
+      <c r="A16" s="99" t="s">
         <v>423</v>
       </c>
-      <c r="B16" s="119"/>
-      <c r="C16" s="119"/>
-      <c r="D16" s="122"/>
-      <c r="E16" s="122"/>
-      <c r="F16" s="115"/>
-      <c r="G16" s="118"/>
-      <c r="H16" s="121"/>
-      <c r="I16" s="118"/>
+      <c r="B16" s="105"/>
+      <c r="C16" s="105"/>
+      <c r="D16" s="135"/>
+      <c r="E16" s="135"/>
+      <c r="F16" s="103"/>
+      <c r="G16" s="104"/>
+      <c r="H16" s="107"/>
+      <c r="I16" s="104"/>
     </row>
     <row r="17" spans="1:9" s="98" customFormat="1" ht="16">
-      <c r="A17" s="111" t="s">
+      <c r="A17" s="99" t="s">
         <v>424</v>
       </c>
-      <c r="B17" s="119"/>
-      <c r="C17" s="119"/>
-      <c r="D17" s="122"/>
-      <c r="E17" s="122"/>
-      <c r="F17" s="115"/>
-      <c r="G17" s="118"/>
-      <c r="H17" s="121"/>
-      <c r="I17" s="118"/>
+      <c r="B17" s="105"/>
+      <c r="C17" s="105"/>
+      <c r="D17" s="135"/>
+      <c r="E17" s="135"/>
+      <c r="F17" s="103"/>
+      <c r="G17" s="104"/>
+      <c r="H17" s="107"/>
+      <c r="I17" s="104"/>
     </row>
     <row r="18" spans="1:9" s="98" customFormat="1" ht="16">
-      <c r="A18" s="111" t="s">
+      <c r="A18" s="99" t="s">
         <v>425</v>
       </c>
-      <c r="B18" s="119"/>
-      <c r="C18" s="119"/>
-      <c r="D18" s="122"/>
-      <c r="E18" s="122"/>
-      <c r="F18" s="115"/>
-      <c r="G18" s="118"/>
-      <c r="H18" s="121"/>
-      <c r="I18" s="118"/>
+      <c r="B18" s="105"/>
+      <c r="C18" s="105"/>
+      <c r="D18" s="135"/>
+      <c r="E18" s="135"/>
+      <c r="F18" s="103"/>
+      <c r="G18" s="104"/>
+      <c r="H18" s="107"/>
+      <c r="I18" s="104"/>
     </row>
     <row r="19" spans="1:9" s="98" customFormat="1" ht="16">
-      <c r="A19" s="111" t="s">
+      <c r="A19" s="99" t="s">
         <v>426</v>
       </c>
-      <c r="B19" s="119">
+      <c r="B19" s="105">
         <v>18</v>
       </c>
-      <c r="C19" s="119">
+      <c r="C19" s="105">
         <v>40</v>
       </c>
-      <c r="D19" s="116" t="s">
+      <c r="D19" s="134" t="s">
         <v>433</v>
       </c>
-      <c r="E19" s="122"/>
-      <c r="F19" s="114" t="s">
+      <c r="E19" s="135"/>
+      <c r="F19" s="102" t="s">
         <v>262</v>
       </c>
-      <c r="G19" s="118"/>
-      <c r="H19" s="121"/>
-      <c r="I19" s="118"/>
+      <c r="G19" s="104"/>
+      <c r="H19" s="107"/>
+      <c r="I19" s="104"/>
     </row>
     <row r="20" spans="1:9" s="98" customFormat="1" ht="16">
-      <c r="A20" s="111" t="s">
+      <c r="A20" s="99" t="s">
         <v>427</v>
       </c>
-      <c r="B20" s="119">
+      <c r="B20" s="105">
         <v>34</v>
       </c>
-      <c r="C20" s="119">
+      <c r="C20" s="105">
         <v>46</v>
       </c>
-      <c r="D20" s="116" t="s">
+      <c r="D20" s="134" t="s">
         <v>433</v>
       </c>
-      <c r="E20" s="122"/>
-      <c r="F20" s="114" t="s">
+      <c r="E20" s="135"/>
+      <c r="F20" s="102" t="s">
         <v>262</v>
       </c>
-      <c r="G20" s="118"/>
-      <c r="H20" s="121"/>
-      <c r="I20" s="118"/>
+      <c r="G20" s="104"/>
+      <c r="H20" s="107"/>
+      <c r="I20" s="104"/>
     </row>
     <row r="21" spans="1:9" s="98" customFormat="1" ht="16">
-      <c r="A21" s="111" t="s">
+      <c r="A21" s="99" t="s">
         <v>428</v>
       </c>
-      <c r="B21" s="119">
+      <c r="B21" s="105">
         <v>83</v>
       </c>
-      <c r="C21" s="119">
+      <c r="C21" s="105">
         <v>84</v>
       </c>
-      <c r="D21" s="116" t="s">
+      <c r="D21" s="134" t="s">
         <v>433</v>
       </c>
-      <c r="E21" s="122"/>
-      <c r="F21" s="114" t="s">
+      <c r="E21" s="135"/>
+      <c r="F21" s="102" t="s">
         <v>443</v>
       </c>
-      <c r="G21" s="118"/>
-      <c r="H21" s="121"/>
-      <c r="I21" s="118"/>
+      <c r="G21" s="104"/>
+      <c r="H21" s="107"/>
+      <c r="I21" s="104"/>
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1">
-      <c r="G22" s="118"/>
-      <c r="H22" s="118"/>
-      <c r="I22" s="118"/>
+      <c r="G22" s="104"/>
+      <c r="H22" s="104"/>
+      <c r="I22" s="104"/>
     </row>
     <row r="23" spans="1:9" ht="16">
       <c r="A23" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="G23" s="118"/>
-      <c r="H23" s="118"/>
-      <c r="I23" s="118"/>
+      <c r="G23" s="104"/>
+      <c r="H23" s="104"/>
+      <c r="I23" s="104"/>
     </row>
     <row r="25" spans="1:9" ht="16">
       <c r="A25" s="3" t="s">
@@ -7754,218 +7762,218 @@
       </c>
     </row>
     <row r="44" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A44" s="130"/>
-      <c r="B44" s="130"/>
-      <c r="C44" s="130"/>
-      <c r="D44" s="126"/>
-      <c r="E44" s="126"/>
+      <c r="A44" s="115"/>
+      <c r="B44" s="115"/>
+      <c r="C44" s="115"/>
+      <c r="D44" s="111"/>
+      <c r="E44" s="111"/>
     </row>
     <row r="45" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A45" s="131"/>
-      <c r="B45" s="130"/>
-      <c r="C45" s="132"/>
-      <c r="D45" s="126"/>
-      <c r="E45" s="126"/>
+      <c r="A45" s="116"/>
+      <c r="B45" s="115"/>
+      <c r="C45" s="117"/>
+      <c r="D45" s="111"/>
+      <c r="E45" s="111"/>
     </row>
     <row r="46" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A46" s="131" t="s">
+      <c r="A46" s="116" t="s">
         <v>411</v>
       </c>
-      <c r="B46" s="130" t="s">
+      <c r="B46" s="115" t="s">
         <v>450</v>
       </c>
-      <c r="C46" s="132"/>
-      <c r="D46" s="126"/>
-      <c r="E46" s="126"/>
+      <c r="C46" s="117"/>
+      <c r="D46" s="111"/>
+      <c r="E46" s="111"/>
     </row>
     <row r="47" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A47" s="133" t="s">
+      <c r="A47" s="118" t="s">
         <v>411</v>
       </c>
-      <c r="B47" s="130" t="s">
+      <c r="B47" s="115" t="s">
         <v>451</v>
       </c>
-      <c r="C47" s="130"/>
-      <c r="D47" s="126"/>
-      <c r="E47" s="126"/>
+      <c r="C47" s="115"/>
+      <c r="D47" s="111"/>
+      <c r="E47" s="111"/>
     </row>
     <row r="48" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A48" s="131"/>
-      <c r="B48" s="130"/>
-      <c r="C48" s="132"/>
-      <c r="D48" s="126"/>
-      <c r="E48" s="126"/>
+      <c r="A48" s="116"/>
+      <c r="B48" s="115"/>
+      <c r="C48" s="117"/>
+      <c r="D48" s="111"/>
+      <c r="E48" s="111"/>
     </row>
     <row r="49" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A49" s="131" t="s">
+      <c r="A49" s="116" t="s">
         <v>417</v>
       </c>
-      <c r="B49" s="130" t="s">
+      <c r="B49" s="115" t="s">
         <v>452</v>
       </c>
-      <c r="C49" s="132"/>
-      <c r="D49" s="126"/>
-      <c r="E49" s="126"/>
+      <c r="C49" s="117"/>
+      <c r="D49" s="111"/>
+      <c r="E49" s="111"/>
     </row>
     <row r="50" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A50" s="133" t="s">
+      <c r="A50" s="118" t="s">
         <v>417</v>
       </c>
-      <c r="B50" s="130" t="s">
+      <c r="B50" s="115" t="s">
         <v>453</v>
       </c>
-      <c r="C50" s="130"/>
-      <c r="D50" s="126"/>
-      <c r="E50" s="126"/>
+      <c r="C50" s="115"/>
+      <c r="D50" s="111"/>
+      <c r="E50" s="111"/>
     </row>
     <row r="51" spans="1:5" s="98" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A51" s="133"/>
-      <c r="B51" s="130"/>
-      <c r="C51" s="130"/>
-      <c r="D51" s="126"/>
-      <c r="E51" s="126"/>
+      <c r="A51" s="118"/>
+      <c r="B51" s="115"/>
+      <c r="C51" s="115"/>
+      <c r="D51" s="111"/>
+      <c r="E51" s="111"/>
     </row>
     <row r="52" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A52" s="131" t="s">
+      <c r="A52" s="116" t="s">
         <v>418</v>
       </c>
-      <c r="B52" s="130" t="s">
+      <c r="B52" s="115" t="s">
         <v>263</v>
       </c>
-      <c r="C52" s="130"/>
-      <c r="D52" s="126"/>
-      <c r="E52" s="126"/>
+      <c r="C52" s="115"/>
+      <c r="D52" s="111"/>
+      <c r="E52" s="111"/>
     </row>
     <row r="53" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A53" s="131" t="s">
+      <c r="A53" s="116" t="s">
         <v>418</v>
       </c>
-      <c r="B53" s="130" t="s">
+      <c r="B53" s="115" t="s">
         <v>264</v>
       </c>
-      <c r="C53" s="130"/>
-      <c r="D53" s="126"/>
-      <c r="E53" s="126"/>
+      <c r="C53" s="115"/>
+      <c r="D53" s="111"/>
+      <c r="E53" s="111"/>
     </row>
     <row r="54" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A54" s="133"/>
-      <c r="B54" s="130"/>
-      <c r="C54" s="130"/>
-      <c r="D54" s="126"/>
-      <c r="E54" s="126"/>
+      <c r="A54" s="118"/>
+      <c r="B54" s="115"/>
+      <c r="C54" s="115"/>
+      <c r="D54" s="111"/>
+      <c r="E54" s="111"/>
     </row>
     <row r="55" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A55" s="128" t="s">
+      <c r="A55" s="113" t="s">
         <v>423</v>
       </c>
-      <c r="B55" s="127" t="s">
+      <c r="B55" s="112" t="s">
         <v>247</v>
       </c>
       <c r="C55" s="94"/>
-      <c r="D55" s="126"/>
-      <c r="E55" s="126"/>
+      <c r="D55" s="111"/>
+      <c r="E55" s="111"/>
     </row>
     <row r="56" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A56" s="128" t="s">
+      <c r="A56" s="113" t="s">
         <v>423</v>
       </c>
-      <c r="B56" s="127" t="s">
+      <c r="B56" s="112" t="s">
         <v>249</v>
       </c>
       <c r="C56" s="94"/>
-      <c r="D56" s="126"/>
-      <c r="E56" s="126"/>
+      <c r="D56" s="111"/>
+      <c r="E56" s="111"/>
     </row>
     <row r="57" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A57" s="129"/>
-      <c r="B57" s="126"/>
-      <c r="C57" s="126"/>
-      <c r="D57" s="126"/>
-      <c r="E57" s="126"/>
+      <c r="A57" s="114"/>
+      <c r="B57" s="111"/>
+      <c r="C57" s="111"/>
+      <c r="D57" s="111"/>
+      <c r="E57" s="111"/>
     </row>
     <row r="58" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A58" s="128" t="s">
+      <c r="A58" s="113" t="s">
         <v>424</v>
       </c>
-      <c r="B58" s="127" t="s">
+      <c r="B58" s="112" t="s">
         <v>456</v>
       </c>
       <c r="C58" s="94"/>
-      <c r="D58" s="126"/>
-      <c r="E58" s="126"/>
+      <c r="D58" s="111"/>
+      <c r="E58" s="111"/>
     </row>
     <row r="59" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A59" s="128" t="s">
+      <c r="A59" s="113" t="s">
         <v>424</v>
       </c>
-      <c r="B59" s="127" t="s">
+      <c r="B59" s="112" t="s">
         <v>457</v>
       </c>
       <c r="C59" s="94"/>
-      <c r="D59" s="126"/>
-      <c r="E59" s="126"/>
+      <c r="D59" s="111"/>
+      <c r="E59" s="111"/>
     </row>
     <row r="60" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A60" s="129"/>
-      <c r="B60" s="126"/>
-      <c r="C60" s="126"/>
-      <c r="D60" s="126"/>
-      <c r="E60" s="126"/>
+      <c r="A60" s="114"/>
+      <c r="B60" s="111"/>
+      <c r="C60" s="111"/>
+      <c r="D60" s="111"/>
+      <c r="E60" s="111"/>
     </row>
     <row r="61" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A61" s="128" t="s">
+      <c r="A61" s="113" t="s">
         <v>425</v>
       </c>
-      <c r="B61" s="127" t="s">
+      <c r="B61" s="112" t="s">
         <v>265</v>
       </c>
       <c r="C61" s="94"/>
-      <c r="D61" s="126"/>
-      <c r="E61" s="126"/>
+      <c r="D61" s="111"/>
+      <c r="E61" s="111"/>
     </row>
     <row r="62" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A62" s="128" t="s">
+      <c r="A62" s="113" t="s">
         <v>425</v>
       </c>
-      <c r="B62" s="127" t="s">
+      <c r="B62" s="112" t="s">
         <v>266</v>
       </c>
       <c r="C62" s="94"/>
-      <c r="D62" s="126"/>
-      <c r="E62" s="126"/>
+      <c r="D62" s="111"/>
+      <c r="E62" s="111"/>
     </row>
     <row r="63" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A63" s="129"/>
-      <c r="B63" s="126"/>
-      <c r="C63" s="126"/>
-      <c r="D63" s="126"/>
-      <c r="E63" s="126"/>
+      <c r="A63" s="114"/>
+      <c r="B63" s="111"/>
+      <c r="C63" s="111"/>
+      <c r="D63" s="111"/>
+      <c r="E63" s="111"/>
     </row>
     <row r="64" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A64" s="129"/>
-      <c r="B64" s="126"/>
-      <c r="C64" s="126"/>
-      <c r="D64" s="126"/>
-      <c r="E64" s="126"/>
+      <c r="A64" s="114"/>
+      <c r="B64" s="111"/>
+      <c r="C64" s="111"/>
+      <c r="D64" s="111"/>
+      <c r="E64" s="111"/>
     </row>
     <row r="65" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A65" s="134"/>
-      <c r="B65" s="126"/>
-      <c r="C65" s="126"/>
-      <c r="D65" s="126"/>
-      <c r="E65" s="126"/>
+      <c r="A65" s="119"/>
+      <c r="B65" s="111"/>
+      <c r="C65" s="111"/>
+      <c r="D65" s="111"/>
+      <c r="E65" s="111"/>
     </row>
     <row r="66" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A66" s="135"/>
+      <c r="A66" s="120"/>
     </row>
     <row r="67" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A67" s="136"/>
+      <c r="A67" s="121"/>
     </row>
     <row r="68" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A68" s="136"/>
+      <c r="A68" s="121"/>
     </row>
     <row r="69" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A69" s="135"/>
+      <c r="A69" s="120"/>
     </row>
     <row r="70" spans="1:5" ht="15.75" customHeight="1"/>
     <row r="71" spans="1:5" ht="15.75" customHeight="1"/>
@@ -8921,6 +8929,11 @@
     <row r="1021" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="D2:E2"/>
@@ -8936,11 +8949,6 @@
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
     <mergeCell ref="D7:E7"/>
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>

--- a/Antonio-Feed/__FeedPartsInventory.xlsx
+++ b/Antonio-Feed/__FeedPartsInventory.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pollak/Documents/GitHub/Front-Page/Antonio-Feed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{540FC6D6-4375-414C-9102-226F90EC5B5E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C16661E-6B39-9F43-A4D6-AC2DBB534B4D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="48180" yWindow="460" windowWidth="35840" windowHeight="19760" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="69100" yWindow="460" windowWidth="35840" windowHeight="19760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parts At ATA" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="458">
   <si>
     <t>Antenna Inventory</t>
   </si>
@@ -1892,7 +1892,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1918,9 +1918,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2097,6 +2094,7 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2121,16 +2119,15 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2416,16 +2413,16 @@
       <c r="G2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="79"/>
-      <c r="N2" s="79"/>
-      <c r="O2" s="79"/>
-      <c r="P2" s="79"/>
-      <c r="Q2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="78"/>
+      <c r="N2" s="78"/>
+      <c r="O2" s="78"/>
+      <c r="P2" s="78"/>
+      <c r="Q2" s="78"/>
     </row>
     <row r="3" spans="1:17" ht="16">
       <c r="A3" s="2" t="str">
@@ -2447,16 +2444,16 @@
       <c r="F3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="78"/>
-      <c r="L3" s="78"/>
-      <c r="M3" s="78"/>
-      <c r="N3" s="78"/>
-      <c r="O3" s="78"/>
-      <c r="P3" s="78"/>
-      <c r="Q3" s="78"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="77"/>
+      <c r="L3" s="77"/>
+      <c r="M3" s="77"/>
+      <c r="N3" s="77"/>
+      <c r="O3" s="77"/>
+      <c r="P3" s="77"/>
+      <c r="Q3" s="77"/>
     </row>
     <row r="4" spans="1:17" ht="16">
       <c r="A4" s="2" t="str">
@@ -2472,16 +2469,16 @@
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78"/>
-      <c r="K4" s="78"/>
-      <c r="L4" s="78"/>
-      <c r="M4" s="78"/>
-      <c r="N4" s="78"/>
-      <c r="O4" s="78"/>
-      <c r="P4" s="78"/>
-      <c r="Q4" s="78"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77"/>
+      <c r="K4" s="77"/>
+      <c r="L4" s="77"/>
+      <c r="M4" s="77"/>
+      <c r="N4" s="77"/>
+      <c r="O4" s="77"/>
+      <c r="P4" s="77"/>
+      <c r="Q4" s="77"/>
     </row>
     <row r="5" spans="1:17" ht="16">
       <c r="A5" s="7" t="str">
@@ -2505,16 +2502,16 @@
         <v>27</v>
       </c>
       <c r="G5" s="9"/>
-      <c r="H5" s="78"/>
-      <c r="I5" s="78"/>
-      <c r="J5" s="78"/>
-      <c r="K5" s="78"/>
-      <c r="L5" s="78"/>
-      <c r="M5" s="78"/>
-      <c r="N5" s="78"/>
-      <c r="O5" s="78"/>
-      <c r="P5" s="78"/>
-      <c r="Q5" s="78"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="77"/>
+      <c r="K5" s="77"/>
+      <c r="L5" s="77"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="77"/>
     </row>
     <row r="6" spans="1:17" ht="16">
       <c r="A6" s="7" t="str">
@@ -2527,19 +2524,19 @@
       <c r="C6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="92"/>
-      <c r="E6" s="92"/>
-      <c r="F6" s="92"/>
-      <c r="H6" s="78"/>
-      <c r="I6" s="78"/>
-      <c r="J6" s="78"/>
-      <c r="K6" s="78"/>
-      <c r="L6" s="78"/>
-      <c r="M6" s="78"/>
-      <c r="N6" s="78"/>
-      <c r="O6" s="78"/>
-      <c r="P6" s="78"/>
-      <c r="Q6" s="78"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="91"/>
+      <c r="F6" s="91"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="77"/>
+      <c r="K6" s="77"/>
+      <c r="L6" s="77"/>
+      <c r="M6" s="77"/>
+      <c r="N6" s="77"/>
+      <c r="O6" s="77"/>
+      <c r="P6" s="77"/>
+      <c r="Q6" s="77"/>
     </row>
     <row r="7" spans="1:17" ht="16">
       <c r="A7" s="7" t="str">
@@ -2552,20 +2549,20 @@
       <c r="C7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="93"/>
-      <c r="E7" s="92"/>
-      <c r="F7" s="92"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="91"/>
+      <c r="F7" s="91"/>
       <c r="G7" s="9"/>
-      <c r="H7" s="78"/>
-      <c r="I7" s="78"/>
-      <c r="J7" s="78"/>
-      <c r="K7" s="78"/>
-      <c r="L7" s="78"/>
-      <c r="M7" s="78"/>
-      <c r="N7" s="78"/>
-      <c r="O7" s="78"/>
-      <c r="P7" s="78"/>
-      <c r="Q7" s="78"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="77"/>
+      <c r="K7" s="77"/>
+      <c r="L7" s="77"/>
+      <c r="M7" s="77"/>
+      <c r="N7" s="77"/>
+      <c r="O7" s="77"/>
+      <c r="P7" s="77"/>
+      <c r="Q7" s="77"/>
     </row>
     <row r="8" spans="1:17" ht="16">
       <c r="A8" s="7" t="str">
@@ -2587,16 +2584,16 @@
       <c r="F8" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="78"/>
-      <c r="I8" s="78"/>
-      <c r="J8" s="78"/>
-      <c r="K8" s="78"/>
-      <c r="L8" s="78"/>
-      <c r="M8" s="78"/>
-      <c r="N8" s="78"/>
-      <c r="O8" s="78"/>
-      <c r="P8" s="78"/>
-      <c r="Q8" s="78"/>
+      <c r="H8" s="77"/>
+      <c r="I8" s="77"/>
+      <c r="J8" s="77"/>
+      <c r="K8" s="77"/>
+      <c r="L8" s="77"/>
+      <c r="M8" s="77"/>
+      <c r="N8" s="77"/>
+      <c r="O8" s="77"/>
+      <c r="P8" s="77"/>
+      <c r="Q8" s="77"/>
     </row>
     <row r="9" spans="1:17" ht="16">
       <c r="A9" s="2" t="str">
@@ -2613,16 +2610,16 @@
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
-      <c r="H9" s="78"/>
-      <c r="I9" s="78"/>
-      <c r="J9" s="78"/>
-      <c r="K9" s="78"/>
-      <c r="L9" s="78"/>
-      <c r="M9" s="78"/>
-      <c r="N9" s="78"/>
-      <c r="O9" s="78"/>
-      <c r="P9" s="78"/>
-      <c r="Q9" s="78"/>
+      <c r="H9" s="77"/>
+      <c r="I9" s="77"/>
+      <c r="J9" s="77"/>
+      <c r="K9" s="77"/>
+      <c r="L9" s="77"/>
+      <c r="M9" s="77"/>
+      <c r="N9" s="77"/>
+      <c r="O9" s="77"/>
+      <c r="P9" s="77"/>
+      <c r="Q9" s="77"/>
     </row>
     <row r="10" spans="1:17" ht="16">
       <c r="A10" s="2" t="str">
@@ -2645,16 +2642,16 @@
       <c r="F10" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H10" s="78"/>
-      <c r="I10" s="78"/>
-      <c r="J10" s="78"/>
-      <c r="K10" s="78"/>
-      <c r="L10" s="78"/>
-      <c r="M10" s="78"/>
-      <c r="N10" s="78"/>
-      <c r="O10" s="78"/>
-      <c r="P10" s="78"/>
-      <c r="Q10" s="78"/>
+      <c r="H10" s="77"/>
+      <c r="I10" s="77"/>
+      <c r="J10" s="77"/>
+      <c r="K10" s="77"/>
+      <c r="L10" s="77"/>
+      <c r="M10" s="77"/>
+      <c r="N10" s="77"/>
+      <c r="O10" s="77"/>
+      <c r="P10" s="77"/>
+      <c r="Q10" s="77"/>
     </row>
     <row r="11" spans="1:17" ht="16">
       <c r="A11" s="2" t="str">
@@ -2671,16 +2668,16 @@
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
-      <c r="H11" s="78"/>
-      <c r="I11" s="78"/>
-      <c r="J11" s="78"/>
-      <c r="K11" s="78"/>
-      <c r="L11" s="78"/>
-      <c r="M11" s="78"/>
-      <c r="N11" s="78"/>
-      <c r="O11" s="78"/>
-      <c r="P11" s="78"/>
-      <c r="Q11" s="78"/>
+      <c r="H11" s="77"/>
+      <c r="I11" s="77"/>
+      <c r="J11" s="77"/>
+      <c r="K11" s="77"/>
+      <c r="L11" s="77"/>
+      <c r="M11" s="77"/>
+      <c r="N11" s="77"/>
+      <c r="O11" s="77"/>
+      <c r="P11" s="77"/>
+      <c r="Q11" s="77"/>
     </row>
     <row r="12" spans="1:17" ht="16">
       <c r="A12" s="2" t="str">
@@ -2703,16 +2700,16 @@
       <c r="F12" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="H12" s="78"/>
-      <c r="I12" s="78"/>
-      <c r="J12" s="78"/>
-      <c r="K12" s="78"/>
-      <c r="L12" s="78"/>
-      <c r="M12" s="78"/>
-      <c r="N12" s="78"/>
-      <c r="O12" s="78"/>
-      <c r="P12" s="78"/>
-      <c r="Q12" s="78"/>
+      <c r="H12" s="77"/>
+      <c r="I12" s="77"/>
+      <c r="J12" s="77"/>
+      <c r="K12" s="77"/>
+      <c r="L12" s="77"/>
+      <c r="M12" s="77"/>
+      <c r="N12" s="77"/>
+      <c r="O12" s="77"/>
+      <c r="P12" s="77"/>
+      <c r="Q12" s="77"/>
     </row>
     <row r="13" spans="1:17" ht="16">
       <c r="A13" s="2" t="str">
@@ -2735,16 +2732,16 @@
       <c r="F13" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="H13" s="78"/>
-      <c r="I13" s="78"/>
-      <c r="J13" s="78"/>
-      <c r="K13" s="78"/>
-      <c r="L13" s="78"/>
-      <c r="M13" s="78"/>
-      <c r="N13" s="78"/>
-      <c r="O13" s="78"/>
-      <c r="P13" s="78"/>
-      <c r="Q13" s="78"/>
+      <c r="H13" s="77"/>
+      <c r="I13" s="77"/>
+      <c r="J13" s="77"/>
+      <c r="K13" s="77"/>
+      <c r="L13" s="77"/>
+      <c r="M13" s="77"/>
+      <c r="N13" s="77"/>
+      <c r="O13" s="77"/>
+      <c r="P13" s="77"/>
+      <c r="Q13" s="77"/>
     </row>
     <row r="14" spans="1:17" ht="16">
       <c r="A14" s="2" t="str">
@@ -2767,16 +2764,16 @@
       <c r="F14" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="H14" s="78"/>
-      <c r="I14" s="78"/>
-      <c r="J14" s="78"/>
-      <c r="K14" s="78"/>
-      <c r="L14" s="78"/>
-      <c r="M14" s="78"/>
-      <c r="N14" s="78"/>
-      <c r="O14" s="78"/>
-      <c r="P14" s="78"/>
-      <c r="Q14" s="78"/>
+      <c r="H14" s="77"/>
+      <c r="I14" s="77"/>
+      <c r="J14" s="77"/>
+      <c r="K14" s="77"/>
+      <c r="L14" s="77"/>
+      <c r="M14" s="77"/>
+      <c r="N14" s="77"/>
+      <c r="O14" s="77"/>
+      <c r="P14" s="77"/>
+      <c r="Q14" s="77"/>
     </row>
     <row r="15" spans="1:17" ht="16">
       <c r="A15" s="2" t="str">
@@ -2792,16 +2789,16 @@
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
-      <c r="H15" s="78"/>
-      <c r="I15" s="78"/>
-      <c r="J15" s="78"/>
-      <c r="K15" s="78"/>
-      <c r="L15" s="78"/>
-      <c r="M15" s="78"/>
-      <c r="N15" s="78"/>
-      <c r="O15" s="78"/>
-      <c r="P15" s="78"/>
-      <c r="Q15" s="78"/>
+      <c r="H15" s="77"/>
+      <c r="I15" s="77"/>
+      <c r="J15" s="77"/>
+      <c r="K15" s="77"/>
+      <c r="L15" s="77"/>
+      <c r="M15" s="77"/>
+      <c r="N15" s="77"/>
+      <c r="O15" s="77"/>
+      <c r="P15" s="77"/>
+      <c r="Q15" s="77"/>
     </row>
     <row r="16" spans="1:17" ht="16">
       <c r="A16" s="2" t="str">
@@ -2817,16 +2814,16 @@
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
-      <c r="H16" s="78"/>
-      <c r="I16" s="78"/>
-      <c r="J16" s="78"/>
-      <c r="K16" s="78"/>
-      <c r="L16" s="78"/>
-      <c r="M16" s="78"/>
-      <c r="N16" s="78"/>
-      <c r="O16" s="78"/>
-      <c r="P16" s="78"/>
-      <c r="Q16" s="78"/>
+      <c r="H16" s="77"/>
+      <c r="I16" s="77"/>
+      <c r="J16" s="77"/>
+      <c r="K16" s="77"/>
+      <c r="L16" s="77"/>
+      <c r="M16" s="77"/>
+      <c r="N16" s="77"/>
+      <c r="O16" s="77"/>
+      <c r="P16" s="77"/>
+      <c r="Q16" s="77"/>
     </row>
     <row r="17" spans="1:17" ht="16">
       <c r="A17" s="2" t="str">
@@ -2848,16 +2845,16 @@
       <c r="F17" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="H17" s="78"/>
-      <c r="I17" s="78"/>
-      <c r="J17" s="78"/>
-      <c r="K17" s="78"/>
-      <c r="L17" s="78"/>
-      <c r="M17" s="78"/>
-      <c r="N17" s="78"/>
-      <c r="O17" s="78"/>
-      <c r="P17" s="78"/>
-      <c r="Q17" s="78"/>
+      <c r="H17" s="77"/>
+      <c r="I17" s="77"/>
+      <c r="J17" s="77"/>
+      <c r="K17" s="77"/>
+      <c r="L17" s="77"/>
+      <c r="M17" s="77"/>
+      <c r="N17" s="77"/>
+      <c r="O17" s="77"/>
+      <c r="P17" s="77"/>
+      <c r="Q17" s="77"/>
     </row>
     <row r="18" spans="1:17" ht="16">
       <c r="A18" s="2" t="str">
@@ -2873,16 +2870,16 @@
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
-      <c r="H18" s="78"/>
-      <c r="I18" s="78"/>
-      <c r="J18" s="78"/>
-      <c r="K18" s="78"/>
-      <c r="L18" s="78"/>
-      <c r="M18" s="78"/>
-      <c r="N18" s="78"/>
-      <c r="O18" s="78"/>
-      <c r="P18" s="78"/>
-      <c r="Q18" s="78"/>
+      <c r="H18" s="77"/>
+      <c r="I18" s="77"/>
+      <c r="J18" s="77"/>
+      <c r="K18" s="77"/>
+      <c r="L18" s="77"/>
+      <c r="M18" s="77"/>
+      <c r="N18" s="77"/>
+      <c r="O18" s="77"/>
+      <c r="P18" s="77"/>
+      <c r="Q18" s="77"/>
     </row>
     <row r="19" spans="1:17" ht="16">
       <c r="A19" s="2" t="str">
@@ -2899,16 +2896,16 @@
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
-      <c r="H19" s="78"/>
-      <c r="I19" s="78"/>
-      <c r="J19" s="78"/>
-      <c r="K19" s="78"/>
-      <c r="L19" s="78"/>
-      <c r="M19" s="78"/>
-      <c r="N19" s="78"/>
-      <c r="O19" s="78"/>
-      <c r="P19" s="78"/>
-      <c r="Q19" s="78"/>
+      <c r="H19" s="77"/>
+      <c r="I19" s="77"/>
+      <c r="J19" s="77"/>
+      <c r="K19" s="77"/>
+      <c r="L19" s="77"/>
+      <c r="M19" s="77"/>
+      <c r="N19" s="77"/>
+      <c r="O19" s="77"/>
+      <c r="P19" s="77"/>
+      <c r="Q19" s="77"/>
     </row>
     <row r="20" spans="1:17" ht="16">
       <c r="A20" s="2" t="str">
@@ -2930,16 +2927,16 @@
       <c r="F20" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="H20" s="78"/>
-      <c r="I20" s="78"/>
-      <c r="J20" s="78"/>
-      <c r="K20" s="78"/>
-      <c r="L20" s="78"/>
-      <c r="M20" s="78"/>
-      <c r="N20" s="78"/>
-      <c r="O20" s="78"/>
-      <c r="P20" s="78"/>
-      <c r="Q20" s="78"/>
+      <c r="H20" s="77"/>
+      <c r="I20" s="77"/>
+      <c r="J20" s="77"/>
+      <c r="K20" s="77"/>
+      <c r="L20" s="77"/>
+      <c r="M20" s="77"/>
+      <c r="N20" s="77"/>
+      <c r="O20" s="77"/>
+      <c r="P20" s="77"/>
+      <c r="Q20" s="77"/>
     </row>
     <row r="21" spans="1:17" ht="16">
       <c r="A21" s="2" t="str">
@@ -2952,23 +2949,23 @@
       <c r="C21" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D21" s="96" t="s">
+      <c r="D21" s="95" t="s">
         <v>361</v>
       </c>
-      <c r="E21" s="92" t="s">
+      <c r="E21" s="91" t="s">
         <v>131</v>
       </c>
-      <c r="F21" s="92"/>
-      <c r="H21" s="78"/>
-      <c r="I21" s="78"/>
-      <c r="J21" s="78"/>
-      <c r="K21" s="78"/>
-      <c r="L21" s="78"/>
-      <c r="M21" s="78"/>
-      <c r="N21" s="78"/>
-      <c r="O21" s="78"/>
-      <c r="P21" s="78"/>
-      <c r="Q21" s="78"/>
+      <c r="F21" s="91"/>
+      <c r="H21" s="77"/>
+      <c r="I21" s="77"/>
+      <c r="J21" s="77"/>
+      <c r="K21" s="77"/>
+      <c r="L21" s="77"/>
+      <c r="M21" s="77"/>
+      <c r="N21" s="77"/>
+      <c r="O21" s="77"/>
+      <c r="P21" s="77"/>
+      <c r="Q21" s="77"/>
     </row>
     <row r="22" spans="1:17" ht="15.75" customHeight="1">
       <c r="A22" s="2" t="str">
@@ -2981,19 +2978,19 @@
       <c r="C22" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D22" s="92"/>
-      <c r="E22" s="92"/>
-      <c r="F22" s="92"/>
-      <c r="H22" s="78"/>
-      <c r="I22" s="78"/>
-      <c r="J22" s="78"/>
-      <c r="K22" s="78"/>
-      <c r="L22" s="78"/>
-      <c r="M22" s="78"/>
-      <c r="N22" s="78"/>
-      <c r="O22" s="78"/>
-      <c r="P22" s="78"/>
-      <c r="Q22" s="78"/>
+      <c r="D22" s="91"/>
+      <c r="E22" s="91"/>
+      <c r="F22" s="91"/>
+      <c r="H22" s="77"/>
+      <c r="I22" s="77"/>
+      <c r="J22" s="77"/>
+      <c r="K22" s="77"/>
+      <c r="L22" s="77"/>
+      <c r="M22" s="77"/>
+      <c r="N22" s="77"/>
+      <c r="O22" s="77"/>
+      <c r="P22" s="77"/>
+      <c r="Q22" s="77"/>
     </row>
     <row r="23" spans="1:17" ht="15.75" customHeight="1">
       <c r="A23" s="2" t="str">
@@ -3006,19 +3003,19 @@
       <c r="C23" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D23" s="92"/>
-      <c r="E23" s="92"/>
-      <c r="F23" s="92"/>
-      <c r="H23" s="78"/>
-      <c r="I23" s="78"/>
-      <c r="J23" s="78"/>
-      <c r="K23" s="78"/>
-      <c r="L23" s="78"/>
-      <c r="M23" s="78"/>
-      <c r="N23" s="78"/>
-      <c r="O23" s="78"/>
-      <c r="P23" s="78"/>
-      <c r="Q23" s="78"/>
+      <c r="D23" s="91"/>
+      <c r="E23" s="91"/>
+      <c r="F23" s="91"/>
+      <c r="H23" s="77"/>
+      <c r="I23" s="77"/>
+      <c r="J23" s="77"/>
+      <c r="K23" s="77"/>
+      <c r="L23" s="77"/>
+      <c r="M23" s="77"/>
+      <c r="N23" s="77"/>
+      <c r="O23" s="77"/>
+      <c r="P23" s="77"/>
+      <c r="Q23" s="77"/>
     </row>
     <row r="24" spans="1:17" ht="15.75" customHeight="1">
       <c r="A24" s="2" t="str">
@@ -3031,24 +3028,24 @@
       <c r="C24" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D24" s="96" t="s">
+      <c r="D24" s="95" t="s">
         <v>358</v>
       </c>
-      <c r="E24" s="95" t="s">
+      <c r="E24" s="94" t="s">
         <v>305</v>
       </c>
-      <c r="F24" s="92"/>
+      <c r="F24" s="91"/>
       <c r="G24" s="9"/>
-      <c r="H24" s="78"/>
-      <c r="I24" s="78"/>
-      <c r="J24" s="78"/>
-      <c r="K24" s="78"/>
-      <c r="L24" s="78"/>
-      <c r="M24" s="78"/>
-      <c r="N24" s="78"/>
-      <c r="O24" s="78"/>
-      <c r="P24" s="78"/>
-      <c r="Q24" s="78"/>
+      <c r="H24" s="77"/>
+      <c r="I24" s="77"/>
+      <c r="J24" s="77"/>
+      <c r="K24" s="77"/>
+      <c r="L24" s="77"/>
+      <c r="M24" s="77"/>
+      <c r="N24" s="77"/>
+      <c r="O24" s="77"/>
+      <c r="P24" s="77"/>
+      <c r="Q24" s="77"/>
     </row>
     <row r="25" spans="1:17" ht="15.75" customHeight="1">
       <c r="A25" s="2" t="str">
@@ -3071,16 +3068,16 @@
       <c r="F25" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H25" s="78"/>
-      <c r="I25" s="78"/>
-      <c r="J25" s="78"/>
-      <c r="K25" s="78"/>
-      <c r="L25" s="78"/>
-      <c r="M25" s="78"/>
-      <c r="N25" s="78"/>
-      <c r="O25" s="78"/>
-      <c r="P25" s="78"/>
-      <c r="Q25" s="78"/>
+      <c r="H25" s="77"/>
+      <c r="I25" s="77"/>
+      <c r="J25" s="77"/>
+      <c r="K25" s="77"/>
+      <c r="L25" s="77"/>
+      <c r="M25" s="77"/>
+      <c r="N25" s="77"/>
+      <c r="O25" s="77"/>
+      <c r="P25" s="77"/>
+      <c r="Q25" s="77"/>
     </row>
     <row r="26" spans="1:17" ht="15.75" customHeight="1">
       <c r="A26" s="2" t="str">
@@ -3093,20 +3090,20 @@
       <c r="C26" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D26" s="93"/>
-      <c r="E26" s="92"/>
-      <c r="F26" s="92"/>
+      <c r="D26" s="92"/>
+      <c r="E26" s="91"/>
+      <c r="F26" s="91"/>
       <c r="G26" s="9"/>
-      <c r="H26" s="78"/>
-      <c r="I26" s="78"/>
-      <c r="J26" s="78"/>
-      <c r="K26" s="78"/>
-      <c r="L26" s="78"/>
-      <c r="M26" s="78"/>
-      <c r="N26" s="78"/>
-      <c r="O26" s="78"/>
-      <c r="P26" s="78"/>
-      <c r="Q26" s="78"/>
+      <c r="H26" s="77"/>
+      <c r="I26" s="77"/>
+      <c r="J26" s="77"/>
+      <c r="K26" s="77"/>
+      <c r="L26" s="77"/>
+      <c r="M26" s="77"/>
+      <c r="N26" s="77"/>
+      <c r="O26" s="77"/>
+      <c r="P26" s="77"/>
+      <c r="Q26" s="77"/>
     </row>
     <row r="27" spans="1:17" ht="15.75" customHeight="1">
       <c r="A27" s="2" t="str">
@@ -3119,19 +3116,19 @@
       <c r="C27" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D27" s="92"/>
-      <c r="E27" s="92"/>
-      <c r="F27" s="94"/>
-      <c r="H27" s="78"/>
-      <c r="I27" s="78"/>
-      <c r="J27" s="78"/>
-      <c r="K27" s="78"/>
-      <c r="L27" s="78"/>
-      <c r="M27" s="78"/>
-      <c r="N27" s="78"/>
-      <c r="O27" s="78"/>
-      <c r="P27" s="78"/>
-      <c r="Q27" s="78"/>
+      <c r="D27" s="91"/>
+      <c r="E27" s="91"/>
+      <c r="F27" s="93"/>
+      <c r="H27" s="77"/>
+      <c r="I27" s="77"/>
+      <c r="J27" s="77"/>
+      <c r="K27" s="77"/>
+      <c r="L27" s="77"/>
+      <c r="M27" s="77"/>
+      <c r="N27" s="77"/>
+      <c r="O27" s="77"/>
+      <c r="P27" s="77"/>
+      <c r="Q27" s="77"/>
     </row>
     <row r="28" spans="1:17" ht="15.75" customHeight="1">
       <c r="A28" s="2" t="str">
@@ -3154,16 +3151,16 @@
         <v>48</v>
       </c>
       <c r="G28" s="3"/>
-      <c r="H28" s="78"/>
-      <c r="I28" s="78"/>
-      <c r="J28" s="78"/>
-      <c r="K28" s="78"/>
-      <c r="L28" s="78"/>
-      <c r="M28" s="78"/>
-      <c r="N28" s="78"/>
-      <c r="O28" s="78"/>
-      <c r="P28" s="78"/>
-      <c r="Q28" s="78"/>
+      <c r="H28" s="77"/>
+      <c r="I28" s="77"/>
+      <c r="J28" s="77"/>
+      <c r="K28" s="77"/>
+      <c r="L28" s="77"/>
+      <c r="M28" s="77"/>
+      <c r="N28" s="77"/>
+      <c r="O28" s="77"/>
+      <c r="P28" s="77"/>
+      <c r="Q28" s="77"/>
     </row>
     <row r="29" spans="1:17" ht="15.75" customHeight="1">
       <c r="A29" s="2" t="str">
@@ -3186,16 +3183,16 @@
         <v>48</v>
       </c>
       <c r="G29" s="4"/>
-      <c r="H29" s="78"/>
-      <c r="I29" s="78"/>
-      <c r="J29" s="78"/>
-      <c r="K29" s="78"/>
-      <c r="L29" s="78"/>
-      <c r="M29" s="78"/>
-      <c r="N29" s="78"/>
-      <c r="O29" s="78"/>
-      <c r="P29" s="78"/>
-      <c r="Q29" s="78"/>
+      <c r="H29" s="77"/>
+      <c r="I29" s="77"/>
+      <c r="J29" s="77"/>
+      <c r="K29" s="77"/>
+      <c r="L29" s="77"/>
+      <c r="M29" s="77"/>
+      <c r="N29" s="77"/>
+      <c r="O29" s="77"/>
+      <c r="P29" s="77"/>
+      <c r="Q29" s="77"/>
     </row>
     <row r="30" spans="1:17" ht="15.75" customHeight="1">
       <c r="A30" s="2" t="str">
@@ -3218,16 +3215,16 @@
         <v>48</v>
       </c>
       <c r="G30" s="4"/>
-      <c r="H30" s="78"/>
-      <c r="I30" s="78"/>
-      <c r="J30" s="78"/>
-      <c r="K30" s="78"/>
-      <c r="L30" s="78"/>
-      <c r="M30" s="78"/>
-      <c r="N30" s="78"/>
-      <c r="O30" s="78"/>
-      <c r="P30" s="78"/>
-      <c r="Q30" s="78"/>
+      <c r="H30" s="77"/>
+      <c r="I30" s="77"/>
+      <c r="J30" s="77"/>
+      <c r="K30" s="77"/>
+      <c r="L30" s="77"/>
+      <c r="M30" s="77"/>
+      <c r="N30" s="77"/>
+      <c r="O30" s="77"/>
+      <c r="P30" s="77"/>
+      <c r="Q30" s="77"/>
     </row>
     <row r="31" spans="1:17" ht="15.75" customHeight="1">
       <c r="A31" s="2" t="str">
@@ -3243,16 +3240,16 @@
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
-      <c r="H31" s="78"/>
-      <c r="I31" s="78"/>
-      <c r="J31" s="78"/>
-      <c r="K31" s="78"/>
-      <c r="L31" s="78"/>
-      <c r="M31" s="78"/>
-      <c r="N31" s="78"/>
-      <c r="O31" s="78"/>
-      <c r="P31" s="78"/>
-      <c r="Q31" s="78"/>
+      <c r="H31" s="77"/>
+      <c r="I31" s="77"/>
+      <c r="J31" s="77"/>
+      <c r="K31" s="77"/>
+      <c r="L31" s="77"/>
+      <c r="M31" s="77"/>
+      <c r="N31" s="77"/>
+      <c r="O31" s="77"/>
+      <c r="P31" s="77"/>
+      <c r="Q31" s="77"/>
     </row>
     <row r="32" spans="1:17" ht="15.75" customHeight="1">
       <c r="A32" s="2" t="str">
@@ -3274,16 +3271,16 @@
       <c r="F32" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="H32" s="78"/>
-      <c r="I32" s="78"/>
-      <c r="J32" s="78"/>
-      <c r="K32" s="78"/>
-      <c r="L32" s="78"/>
-      <c r="M32" s="78"/>
-      <c r="N32" s="78"/>
-      <c r="O32" s="78"/>
-      <c r="P32" s="78"/>
-      <c r="Q32" s="78"/>
+      <c r="H32" s="77"/>
+      <c r="I32" s="77"/>
+      <c r="J32" s="77"/>
+      <c r="K32" s="77"/>
+      <c r="L32" s="77"/>
+      <c r="M32" s="77"/>
+      <c r="N32" s="77"/>
+      <c r="O32" s="77"/>
+      <c r="P32" s="77"/>
+      <c r="Q32" s="77"/>
     </row>
     <row r="33" spans="1:17" ht="15.75" customHeight="1">
       <c r="A33" s="2" t="str">
@@ -3300,16 +3297,16 @@
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
-      <c r="H33" s="78"/>
-      <c r="I33" s="78"/>
-      <c r="J33" s="78"/>
-      <c r="K33" s="78"/>
-      <c r="L33" s="78"/>
-      <c r="M33" s="78"/>
-      <c r="N33" s="78"/>
-      <c r="O33" s="78"/>
-      <c r="P33" s="78"/>
-      <c r="Q33" s="78"/>
+      <c r="H33" s="77"/>
+      <c r="I33" s="77"/>
+      <c r="J33" s="77"/>
+      <c r="K33" s="77"/>
+      <c r="L33" s="77"/>
+      <c r="M33" s="77"/>
+      <c r="N33" s="77"/>
+      <c r="O33" s="77"/>
+      <c r="P33" s="77"/>
+      <c r="Q33" s="77"/>
     </row>
     <row r="34" spans="1:17" ht="15.75" customHeight="1">
       <c r="A34" s="2" t="str">
@@ -3326,16 +3323,16 @@
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
-      <c r="H34" s="78"/>
-      <c r="I34" s="78"/>
-      <c r="J34" s="78"/>
-      <c r="K34" s="78"/>
-      <c r="L34" s="78"/>
-      <c r="M34" s="78"/>
-      <c r="N34" s="78"/>
-      <c r="O34" s="78"/>
-      <c r="P34" s="78"/>
-      <c r="Q34" s="78"/>
+      <c r="H34" s="77"/>
+      <c r="I34" s="77"/>
+      <c r="J34" s="77"/>
+      <c r="K34" s="77"/>
+      <c r="L34" s="77"/>
+      <c r="M34" s="77"/>
+      <c r="N34" s="77"/>
+      <c r="O34" s="77"/>
+      <c r="P34" s="77"/>
+      <c r="Q34" s="77"/>
     </row>
     <row r="35" spans="1:17" ht="15.75" customHeight="1">
       <c r="A35" s="2" t="str">
@@ -3357,16 +3354,16 @@
       <c r="F35" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="H35" s="78"/>
-      <c r="I35" s="78"/>
-      <c r="J35" s="78"/>
-      <c r="K35" s="78"/>
-      <c r="L35" s="78"/>
-      <c r="M35" s="78"/>
-      <c r="N35" s="78"/>
-      <c r="O35" s="78"/>
-      <c r="P35" s="78"/>
-      <c r="Q35" s="78"/>
+      <c r="H35" s="77"/>
+      <c r="I35" s="77"/>
+      <c r="J35" s="77"/>
+      <c r="K35" s="77"/>
+      <c r="L35" s="77"/>
+      <c r="M35" s="77"/>
+      <c r="N35" s="77"/>
+      <c r="O35" s="77"/>
+      <c r="P35" s="77"/>
+      <c r="Q35" s="77"/>
     </row>
     <row r="36" spans="1:17" ht="15.75" customHeight="1">
       <c r="A36" s="2" t="str">
@@ -3383,16 +3380,16 @@
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
-      <c r="H36" s="78"/>
-      <c r="I36" s="78"/>
-      <c r="J36" s="78"/>
-      <c r="K36" s="78"/>
-      <c r="L36" s="78"/>
-      <c r="M36" s="78"/>
-      <c r="N36" s="78"/>
-      <c r="O36" s="78"/>
-      <c r="P36" s="78"/>
-      <c r="Q36" s="78"/>
+      <c r="H36" s="77"/>
+      <c r="I36" s="77"/>
+      <c r="J36" s="77"/>
+      <c r="K36" s="77"/>
+      <c r="L36" s="77"/>
+      <c r="M36" s="77"/>
+      <c r="N36" s="77"/>
+      <c r="O36" s="77"/>
+      <c r="P36" s="77"/>
+      <c r="Q36" s="77"/>
     </row>
     <row r="37" spans="1:17" ht="15.75" customHeight="1">
       <c r="A37" s="2" t="str">
@@ -3415,16 +3412,16 @@
       <c r="F37" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="H37" s="78"/>
-      <c r="I37" s="78"/>
-      <c r="J37" s="78"/>
-      <c r="K37" s="78"/>
-      <c r="L37" s="78"/>
-      <c r="M37" s="78"/>
-      <c r="N37" s="78"/>
-      <c r="O37" s="78"/>
-      <c r="P37" s="78"/>
-      <c r="Q37" s="78"/>
+      <c r="H37" s="77"/>
+      <c r="I37" s="77"/>
+      <c r="J37" s="77"/>
+      <c r="K37" s="77"/>
+      <c r="L37" s="77"/>
+      <c r="M37" s="77"/>
+      <c r="N37" s="77"/>
+      <c r="O37" s="77"/>
+      <c r="P37" s="77"/>
+      <c r="Q37" s="77"/>
     </row>
     <row r="38" spans="1:17" ht="15.75" customHeight="1">
       <c r="A38" s="2" t="str">
@@ -3440,16 +3437,16 @@
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
-      <c r="H38" s="78"/>
-      <c r="I38" s="78"/>
-      <c r="J38" s="78"/>
-      <c r="K38" s="78"/>
-      <c r="L38" s="78"/>
-      <c r="M38" s="78"/>
-      <c r="N38" s="78"/>
-      <c r="O38" s="78"/>
-      <c r="P38" s="78"/>
-      <c r="Q38" s="78"/>
+      <c r="H38" s="77"/>
+      <c r="I38" s="77"/>
+      <c r="J38" s="77"/>
+      <c r="K38" s="77"/>
+      <c r="L38" s="77"/>
+      <c r="M38" s="77"/>
+      <c r="N38" s="77"/>
+      <c r="O38" s="77"/>
+      <c r="P38" s="77"/>
+      <c r="Q38" s="77"/>
     </row>
     <row r="39" spans="1:17" ht="15.75" customHeight="1">
       <c r="A39" s="2" t="str">
@@ -3465,16 +3462,16 @@
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
-      <c r="H39" s="78"/>
-      <c r="I39" s="78"/>
-      <c r="J39" s="78"/>
-      <c r="K39" s="78"/>
-      <c r="L39" s="78"/>
-      <c r="M39" s="78"/>
-      <c r="N39" s="78"/>
-      <c r="O39" s="78"/>
-      <c r="P39" s="78"/>
-      <c r="Q39" s="78"/>
+      <c r="H39" s="77"/>
+      <c r="I39" s="77"/>
+      <c r="J39" s="77"/>
+      <c r="K39" s="77"/>
+      <c r="L39" s="77"/>
+      <c r="M39" s="77"/>
+      <c r="N39" s="77"/>
+      <c r="O39" s="77"/>
+      <c r="P39" s="77"/>
+      <c r="Q39" s="77"/>
     </row>
     <row r="40" spans="1:17" ht="15.75" customHeight="1">
       <c r="A40" s="2" t="str">
@@ -3490,16 +3487,16 @@
       <c r="D40" s="10"/>
       <c r="E40" s="3"/>
       <c r="F40" s="4"/>
-      <c r="H40" s="78"/>
-      <c r="I40" s="78"/>
-      <c r="J40" s="78"/>
-      <c r="K40" s="78"/>
-      <c r="L40" s="78"/>
-      <c r="M40" s="78"/>
-      <c r="N40" s="78"/>
-      <c r="O40" s="78"/>
-      <c r="P40" s="78"/>
-      <c r="Q40" s="78"/>
+      <c r="H40" s="77"/>
+      <c r="I40" s="77"/>
+      <c r="J40" s="77"/>
+      <c r="K40" s="77"/>
+      <c r="L40" s="77"/>
+      <c r="M40" s="77"/>
+      <c r="N40" s="77"/>
+      <c r="O40" s="77"/>
+      <c r="P40" s="77"/>
+      <c r="Q40" s="77"/>
     </row>
     <row r="41" spans="1:17" ht="15.75" customHeight="1">
       <c r="A41" s="2" t="str">
@@ -3521,16 +3518,16 @@
       <c r="F41" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="H41" s="78"/>
-      <c r="I41" s="78"/>
-      <c r="J41" s="78"/>
-      <c r="K41" s="78"/>
-      <c r="L41" s="78"/>
-      <c r="M41" s="78"/>
-      <c r="N41" s="78"/>
-      <c r="O41" s="78"/>
-      <c r="P41" s="78"/>
-      <c r="Q41" s="78"/>
+      <c r="H41" s="77"/>
+      <c r="I41" s="77"/>
+      <c r="J41" s="77"/>
+      <c r="K41" s="77"/>
+      <c r="L41" s="77"/>
+      <c r="M41" s="77"/>
+      <c r="N41" s="77"/>
+      <c r="O41" s="77"/>
+      <c r="P41" s="77"/>
+      <c r="Q41" s="77"/>
     </row>
     <row r="42" spans="1:17" ht="15.75" customHeight="1">
       <c r="A42" s="2" t="str">
@@ -3546,16 +3543,16 @@
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
-      <c r="H42" s="78"/>
-      <c r="I42" s="78"/>
-      <c r="J42" s="78"/>
-      <c r="K42" s="78"/>
-      <c r="L42" s="78"/>
-      <c r="M42" s="78"/>
-      <c r="N42" s="78"/>
-      <c r="O42" s="78"/>
-      <c r="P42" s="78"/>
-      <c r="Q42" s="78"/>
+      <c r="H42" s="77"/>
+      <c r="I42" s="77"/>
+      <c r="J42" s="77"/>
+      <c r="K42" s="77"/>
+      <c r="L42" s="77"/>
+      <c r="M42" s="77"/>
+      <c r="N42" s="77"/>
+      <c r="O42" s="77"/>
+      <c r="P42" s="77"/>
+      <c r="Q42" s="77"/>
     </row>
     <row r="43" spans="1:17" ht="15.75" customHeight="1">
       <c r="A43" s="2" t="str">
@@ -3571,16 +3568,16 @@
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
-      <c r="H43" s="78"/>
-      <c r="I43" s="78"/>
-      <c r="J43" s="78"/>
-      <c r="K43" s="78"/>
-      <c r="L43" s="78"/>
-      <c r="M43" s="78"/>
-      <c r="N43" s="78"/>
-      <c r="O43" s="78"/>
-      <c r="P43" s="78"/>
-      <c r="Q43" s="78"/>
+      <c r="H43" s="77"/>
+      <c r="I43" s="77"/>
+      <c r="J43" s="77"/>
+      <c r="K43" s="77"/>
+      <c r="L43" s="77"/>
+      <c r="M43" s="77"/>
+      <c r="N43" s="77"/>
+      <c r="O43" s="77"/>
+      <c r="P43" s="77"/>
+      <c r="Q43" s="77"/>
     </row>
     <row r="44" spans="1:17" ht="15.75" customHeight="1">
       <c r="A44" s="2" t="str">
@@ -3596,16 +3593,16 @@
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
-      <c r="H44" s="78"/>
-      <c r="I44" s="78"/>
-      <c r="J44" s="78"/>
-      <c r="K44" s="78"/>
-      <c r="L44" s="78"/>
-      <c r="M44" s="78"/>
-      <c r="N44" s="78"/>
-      <c r="O44" s="78"/>
-      <c r="P44" s="78"/>
-      <c r="Q44" s="78"/>
+      <c r="H44" s="77"/>
+      <c r="I44" s="77"/>
+      <c r="J44" s="77"/>
+      <c r="K44" s="77"/>
+      <c r="L44" s="77"/>
+      <c r="M44" s="77"/>
+      <c r="N44" s="77"/>
+      <c r="O44" s="77"/>
+      <c r="P44" s="77"/>
+      <c r="Q44" s="77"/>
     </row>
     <row r="45" spans="1:17" ht="15.75" customHeight="1">
       <c r="K45" s="5"/>
@@ -4684,8 +4681,8 @@
   </sheetPr>
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection sqref="A1:J21"/>
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
@@ -4712,8 +4709,8 @@
       <c r="H1" s="126"/>
       <c r="I1" s="126"/>
       <c r="J1" s="126"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
     </row>
     <row r="2" spans="1:12" ht="17" thickBot="1">
       <c r="A2" s="15" t="s">
@@ -4758,650 +4755,662 @@
         <f>HYPERLINK("https://drive.google.com/drive/folders/1G8ecO5ODQmn8FX8jzQ962D928BpQ6iUm","5C4-002")</f>
         <v>5C4-002</v>
       </c>
-      <c r="B3" s="88" t="s">
+      <c r="B3" s="87" t="s">
         <v>172</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="24" t="s">
+      <c r="C3" s="23" t="s">
         <v>167</v>
       </c>
-      <c r="J3" s="24" t="s">
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="23" t="s">
         <v>167</v>
       </c>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
     </row>
     <row r="4" spans="1:12" ht="16">
-      <c r="A4" s="21" t="str">
+      <c r="A4" s="20" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1X_yNido1T9NRAtsXoJ-h2bFXlpLfFW-N","5C4-003")</f>
         <v>5C4-003</v>
       </c>
-      <c r="B4" s="90" t="s">
+      <c r="B4" s="89" t="s">
         <v>166</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" s="24" t="s">
+      <c r="C4" s="23" t="s">
         <v>167</v>
       </c>
-      <c r="J4" s="24" t="s">
+      <c r="D4" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="23" t="s">
         <v>167</v>
       </c>
-      <c r="K4" s="81"/>
-      <c r="L4" s="81"/>
+      <c r="K4" s="80"/>
+      <c r="L4" s="80"/>
     </row>
     <row r="5" spans="1:12" ht="16">
-      <c r="A5" s="21" t="str">
+      <c r="A5" s="20" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1WeIiiMAp6TYYdsybsr5MvXeiX_cVX9j0","5C4-004")</f>
         <v>5C4-004</v>
       </c>
-      <c r="B5" s="82" t="s">
+      <c r="B5" s="81" t="s">
         <v>285</v>
       </c>
-      <c r="C5" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="K5" s="81" t="s">
+      <c r="C5" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="80" t="s">
         <v>441</v>
       </c>
-      <c r="L5" s="81" t="s">
+      <c r="L5" s="80" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="16">
-      <c r="A6" s="21" t="str">
+      <c r="A6" s="20" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1rFsrgDjf_nAuKofi6JoxLvoaGo8A4adh","5C4-005")</f>
         <v>5C4-005</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="25" t="s">
         <v>168</v>
       </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="108" t="s">
+      <c r="C6" s="22"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="107" t="s">
         <v>438</v>
       </c>
-      <c r="L6" s="81"/>
+      <c r="L6" s="80"/>
     </row>
     <row r="7" spans="1:12" ht="16">
-      <c r="A7" s="21" t="str">
+      <c r="A7" s="20" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1vHgkPcaz684Ip98C0QpWVB-bTK7EvvdW","5C4-006")</f>
         <v>5C4-006</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="25" t="s">
         <v>169</v>
       </c>
-      <c r="C7" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="I7" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="J7" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="K7" s="81" t="s">
+      <c r="C7" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="80" t="s">
         <v>404</v>
       </c>
-      <c r="L7" s="81"/>
+      <c r="L7" s="80"/>
     </row>
     <row r="8" spans="1:12" ht="16">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="27" t="s">
         <v>170</v>
       </c>
-      <c r="B8" s="89" t="s">
+      <c r="B8" s="88" t="s">
         <v>293</v>
       </c>
-      <c r="C8" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="I8" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="J8" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="K8" s="81" t="s">
+      <c r="C8" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" s="80" t="s">
         <v>442</v>
       </c>
-      <c r="L8" s="81"/>
+      <c r="L8" s="80"/>
     </row>
     <row r="9" spans="1:12" ht="16">
-      <c r="A9" s="21" t="str">
+      <c r="A9" s="20" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1-3h2_HbCYYPIJxLORcasFd7NqbLvOw-C","5C4-008")</f>
         <v>5C4-008</v>
       </c>
-      <c r="B9" s="82" t="s">
+      <c r="B9" s="81" t="s">
         <v>408</v>
       </c>
-      <c r="C9" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="I9" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="J9" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="K9" s="81" t="s">
+      <c r="C9" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="J9" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" s="80" t="s">
         <v>407</v>
       </c>
-      <c r="L9" s="81" t="s">
+      <c r="L9" s="80" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="16">
-      <c r="A10" s="21" t="str">
+      <c r="A10" s="20" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1EhIIjKRxAQ858Wo2OYQq3GdqbI2ok5Af","5C4-009")</f>
         <v>5C4-009</v>
       </c>
-      <c r="B10" s="87" t="s">
+      <c r="B10" s="86" t="s">
         <v>166</v>
       </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="I10" s="24" t="s">
+      <c r="C10" s="23" t="s">
         <v>167</v>
       </c>
-      <c r="J10" s="24" t="s">
+      <c r="D10" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="J10" s="23" t="s">
         <v>167</v>
       </c>
-      <c r="K10" s="81"/>
-      <c r="L10" s="81"/>
+      <c r="K10" s="80"/>
+      <c r="L10" s="80"/>
     </row>
     <row r="11" spans="1:12" ht="16">
-      <c r="A11" s="21" t="str">
+      <c r="A11" s="20" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1FrnQUGPHDhAq4DHWLuBTTfQpLNsdUckc","5C4-010")</f>
         <v>5C4-010</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="21" t="s">
         <v>377</v>
       </c>
-      <c r="C11" s="81"/>
-      <c r="D11" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="H11" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="I11" s="24" t="s">
+      <c r="C11" s="23" t="s">
         <v>167</v>
       </c>
-      <c r="J11" s="24" t="s">
+      <c r="D11" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="J11" s="23" t="s">
         <v>167</v>
       </c>
-      <c r="K11" s="81"/>
-      <c r="L11" s="81"/>
+      <c r="K11" s="80"/>
+      <c r="L11" s="80"/>
     </row>
     <row r="12" spans="1:12" ht="16">
-      <c r="A12" s="21" t="str">
+      <c r="A12" s="20" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1hJ1DyO35m4DO0phNhkoobK76R8Ql-DTn","5C4-011")</f>
         <v>5C4-011</v>
       </c>
-      <c r="B12" s="82" t="s">
+      <c r="B12" s="81" t="s">
         <v>298</v>
       </c>
-      <c r="C12" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="H12" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="I12" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="J12" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="K12" s="81" t="s">
+      <c r="C12" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="J12" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12" s="80" t="s">
         <v>399</v>
       </c>
-      <c r="L12" s="81" t="s">
+      <c r="L12" s="80" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="16">
-      <c r="A13" s="21" t="str">
+      <c r="A13" s="20" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1MyuBrs08Ryi2pvVUeI0hW4p24qsMsUL4","5C4-012")</f>
         <v>5C4-012</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="25" t="s">
         <v>175</v>
       </c>
-      <c r="C13" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="H13" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="I13" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="J13" s="30" t="s">
+      <c r="C13" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="J13" s="29" t="s">
         <v>176</v>
       </c>
-      <c r="K13" s="108" t="s">
+      <c r="K13" s="107" t="s">
         <v>435</v>
       </c>
-      <c r="L13" s="81"/>
+      <c r="L13" s="80"/>
     </row>
     <row r="14" spans="1:12" ht="16">
-      <c r="A14" s="21" t="str">
+      <c r="A14" s="20" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/19GonN6xbnfrGARLvh-LLFUsxF-EngP3u","5C4-013")</f>
         <v>5C4-013</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="25" t="s">
         <v>346</v>
       </c>
-      <c r="C14" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="G14" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="H14" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="I14" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="J14" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="K14" s="81" t="s">
+      <c r="C14" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="J14" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="K14" s="80" t="s">
         <v>434</v>
       </c>
-      <c r="L14" s="81"/>
+      <c r="L14" s="80"/>
     </row>
     <row r="15" spans="1:12" ht="16">
-      <c r="A15" s="21" t="str">
+      <c r="A15" s="20" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1LUZSYEAIfX8EFKKfjUSeyrC0JCfBfe8h","5C4-014")</f>
         <v>5C4-014</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="25" t="s">
         <v>329</v>
       </c>
-      <c r="C15" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="H15" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="I15" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="J15" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="K15" s="81" t="s">
+      <c r="C15" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="J15" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="K15" s="80" t="s">
         <v>403</v>
       </c>
-      <c r="L15" s="81" t="s">
+      <c r="L15" s="80" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="16">
-      <c r="A16" s="21" t="str">
+      <c r="A16" s="20" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1GhnG5G_BN5lBSXzegcxU-3TuUUTEd6xm","5C4-015")</f>
         <v>5C4-015</v>
       </c>
-      <c r="B16" s="87" t="s">
+      <c r="B16" s="86" t="s">
         <v>166</v>
       </c>
-      <c r="C16" s="23"/>
-      <c r="D16" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="F16" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="G16" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="H16" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="I16" s="24" t="s">
+      <c r="C16" s="23" t="s">
         <v>167</v>
       </c>
-      <c r="J16" s="24" t="s">
+      <c r="D16" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="J16" s="23" t="s">
         <v>167</v>
       </c>
-      <c r="K16" s="81"/>
-      <c r="L16" s="81"/>
+      <c r="K16" s="80"/>
+      <c r="L16" s="80"/>
     </row>
     <row r="17" spans="1:12" ht="16">
-      <c r="A17" s="31" t="s">
+      <c r="A17" s="30" t="s">
         <v>179</v>
       </c>
-      <c r="B17" s="137" t="s">
+      <c r="B17" s="121" t="s">
         <v>166</v>
       </c>
-      <c r="C17" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="F17" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="G17" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="H17" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="I17" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="J17" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="K17" s="81" t="s">
+      <c r="C17" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="J17" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="K17" s="80" t="s">
         <v>379</v>
       </c>
-      <c r="L17" s="81"/>
+      <c r="L17" s="80"/>
     </row>
     <row r="18" spans="1:12" ht="16">
-      <c r="A18" s="21" t="str">
+      <c r="A18" s="20" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1wcHyiuVUbBeL9ODgyYP-lyy7yM1vMH3u","5C4-017")</f>
         <v>5C4-017</v>
       </c>
-      <c r="B18" s="87" t="s">
+      <c r="B18" s="86" t="s">
         <v>166</v>
       </c>
-      <c r="C18" s="23"/>
-      <c r="D18" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="E18" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="F18" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="G18" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="H18" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="I18" s="24" t="s">
+      <c r="C18" s="23" t="s">
         <v>167</v>
       </c>
-      <c r="J18" s="24" t="s">
+      <c r="D18" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="H18" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="J18" s="23" t="s">
         <v>167</v>
       </c>
-      <c r="K18" s="81"/>
-      <c r="L18" s="81"/>
+      <c r="K18" s="80"/>
+      <c r="L18" s="80"/>
     </row>
     <row r="19" spans="1:12" ht="16">
-      <c r="A19" s="32" t="s">
+      <c r="A19" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="25" t="s">
         <v>180</v>
       </c>
-      <c r="C19" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="E19" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="F19" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="G19" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="H19" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="I19" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="J19" s="33" t="s">
+      <c r="C19" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="H19" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="J19" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="K19" s="81" t="s">
+      <c r="K19" s="80" t="s">
         <v>437</v>
       </c>
-      <c r="L19" s="81"/>
+      <c r="L19" s="80"/>
     </row>
     <row r="20" spans="1:12" ht="16">
-      <c r="A20" s="21" t="str">
+      <c r="A20" s="20" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1x-FjLa7p2gJDSbRaODzjs8ijaA9SGLtW","5C4-019")</f>
         <v>5C4-019</v>
       </c>
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="C20" s="33"/>
-      <c r="D20" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="E20" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="F20" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="G20" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="H20" s="33"/>
-      <c r="I20" s="33"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="81" t="s">
+      <c r="C20" s="32"/>
+      <c r="D20" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="80" t="s">
         <v>436</v>
       </c>
-      <c r="L20" s="81"/>
+      <c r="L20" s="80"/>
     </row>
     <row r="21" spans="1:12" ht="16">
-      <c r="A21" s="21" t="str">
+      <c r="A21" s="20" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1wMVARUxnYHeiTbbEodCmZFb_vx9FkRVr","5C4-020")</f>
         <v>5C4-020</v>
       </c>
-      <c r="B21" s="83" t="s">
+      <c r="B21" s="82" t="s">
         <v>182</v>
       </c>
-      <c r="C21" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="D21" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="E21" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="F21" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="G21" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="H21" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="I21" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="J21" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="K21" s="81" t="s">
+      <c r="C21" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="G21" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="H21" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="I21" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="J21" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="K21" s="80" t="s">
         <v>376</v>
       </c>
-      <c r="L21" s="81"/>
+      <c r="L21" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5445,380 +5454,380 @@
       <c r="J1" s="132"/>
     </row>
     <row r="2" spans="1:10" ht="17" thickBot="1">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="74" t="s">
         <v>163</v>
       </c>
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="74" t="s">
         <v>164</v>
       </c>
-      <c r="C2" s="75" t="s">
+      <c r="C2" s="74" t="s">
         <v>368</v>
       </c>
-      <c r="D2" s="75" t="s">
+      <c r="D2" s="74" t="s">
         <v>369</v>
       </c>
-      <c r="E2" s="75" t="s">
+      <c r="E2" s="74" t="s">
         <v>370</v>
       </c>
-      <c r="F2" s="75"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="61" t="s">
         <v>242</v>
       </c>
-      <c r="B3" s="63" t="s">
+      <c r="B3" s="62" t="s">
         <v>166</v>
       </c>
-      <c r="C3" s="74"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="70"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="61" t="s">
         <v>354</v>
       </c>
-      <c r="B4" s="63" t="s">
+      <c r="B4" s="62" t="s">
         <v>166</v>
       </c>
-      <c r="C4" s="72" t="s">
+      <c r="C4" s="71" t="s">
         <v>396</v>
       </c>
-      <c r="D4" s="70" t="s">
+      <c r="D4" s="69" t="s">
         <v>378</v>
       </c>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="61" t="s">
         <v>355</v>
       </c>
-      <c r="B5" s="84" t="s">
+      <c r="B5" s="83" t="s">
         <v>285</v>
       </c>
-      <c r="C5" s="72" t="s">
+      <c r="C5" s="71" t="s">
         <v>395</v>
       </c>
-      <c r="D5" s="70" t="s">
+      <c r="D5" s="69" t="s">
         <v>390</v>
       </c>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70"/>
-      <c r="I5" s="70"/>
-      <c r="J5" s="70"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="69"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="61" t="s">
         <v>356</v>
       </c>
-      <c r="B6" s="64" t="s">
+      <c r="B6" s="63" t="s">
         <v>168</v>
       </c>
-      <c r="C6" s="74"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="70"/>
-      <c r="J6" s="70"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="69"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="61" t="s">
         <v>357</v>
       </c>
-      <c r="B7" s="64" t="s">
+      <c r="B7" s="63" t="s">
         <v>169</v>
       </c>
-      <c r="C7" s="72"/>
-      <c r="D7" s="70" t="s">
+      <c r="C7" s="71"/>
+      <c r="D7" s="69" t="s">
         <v>373</v>
       </c>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="70"/>
-      <c r="J7" s="70"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="69"/>
+      <c r="J7" s="69"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="65" t="s">
+      <c r="A8" s="64" t="s">
         <v>170</v>
       </c>
-      <c r="B8" s="63" t="s">
+      <c r="B8" s="62" t="s">
         <v>166</v>
       </c>
-      <c r="C8" s="70" t="s">
+      <c r="C8" s="69" t="s">
         <v>382</v>
       </c>
-      <c r="D8" s="70" t="s">
+      <c r="D8" s="69" t="s">
         <v>383</v>
       </c>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="71"/>
-      <c r="J8" s="72"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="69"/>
+      <c r="H8" s="69"/>
+      <c r="I8" s="70"/>
+      <c r="J8" s="71"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="62" t="s">
+      <c r="A9" s="61" t="s">
         <v>358</v>
       </c>
-      <c r="B9" s="63" t="s">
+      <c r="B9" s="62" t="s">
         <v>171</v>
       </c>
-      <c r="C9" s="70" t="s">
+      <c r="C9" s="69" t="s">
         <v>374</v>
       </c>
-      <c r="D9" s="77" t="s">
+      <c r="D9" s="76" t="s">
         <v>375</v>
       </c>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="73"/>
-      <c r="J9" s="70"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="69"/>
+      <c r="I9" s="72"/>
+      <c r="J9" s="69"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="62" t="s">
+      <c r="A10" s="61" t="s">
         <v>359</v>
       </c>
-      <c r="B10" s="66" t="s">
+      <c r="B10" s="65" t="s">
         <v>172</v>
       </c>
-      <c r="C10" s="70" t="s">
+      <c r="C10" s="69" t="s">
         <v>380</v>
       </c>
-      <c r="D10" s="77" t="s">
+      <c r="D10" s="76" t="s">
         <v>381</v>
       </c>
-      <c r="E10" s="70"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="70"/>
-      <c r="H10" s="70"/>
-      <c r="I10" s="70"/>
-      <c r="J10" s="70"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="69"/>
+      <c r="J10" s="69"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="62" t="s">
+      <c r="A11" s="61" t="s">
         <v>360</v>
       </c>
-      <c r="B11" s="63" t="s">
+      <c r="B11" s="62" t="s">
         <v>173</v>
       </c>
-      <c r="C11" s="72" t="s">
+      <c r="C11" s="71" t="s">
         <v>394</v>
       </c>
-      <c r="D11" s="70" t="s">
+      <c r="D11" s="69" t="s">
         <v>389</v>
       </c>
-      <c r="E11" s="70"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="70"/>
-      <c r="H11" s="70"/>
-      <c r="I11" s="70"/>
-      <c r="J11" s="70"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="69"/>
+      <c r="H11" s="69"/>
+      <c r="I11" s="69"/>
+      <c r="J11" s="69"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="62" t="s">
+      <c r="A12" s="61" t="s">
         <v>361</v>
       </c>
-      <c r="B12" s="63" t="s">
+      <c r="B12" s="62" t="s">
         <v>174</v>
       </c>
-      <c r="C12" s="72" t="s">
+      <c r="C12" s="71" t="s">
         <v>393</v>
       </c>
-      <c r="D12" s="70" t="s">
+      <c r="D12" s="69" t="s">
         <v>388</v>
       </c>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="70"/>
-      <c r="I12" s="70"/>
-      <c r="J12" s="70"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="69"/>
+      <c r="H12" s="69"/>
+      <c r="I12" s="69"/>
+      <c r="J12" s="69"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="62" t="s">
+      <c r="A13" s="61" t="s">
         <v>362</v>
       </c>
-      <c r="B13" s="64" t="s">
+      <c r="B13" s="63" t="s">
         <v>175</v>
       </c>
-      <c r="C13" s="74"/>
-      <c r="D13" s="70" t="s">
+      <c r="C13" s="73"/>
+      <c r="D13" s="69" t="s">
         <v>371</v>
       </c>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
-      <c r="I13" s="70"/>
-      <c r="J13" s="70"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="69"/>
+      <c r="I13" s="69"/>
+      <c r="J13" s="69"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="62" t="s">
+      <c r="A14" s="61" t="s">
         <v>363</v>
       </c>
-      <c r="B14" s="64" t="s">
+      <c r="B14" s="63" t="s">
         <v>177</v>
       </c>
-      <c r="C14" s="72"/>
-      <c r="D14" s="70" t="s">
+      <c r="C14" s="71"/>
+      <c r="D14" s="69" t="s">
         <v>372</v>
       </c>
-      <c r="E14" s="70"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="70"/>
-      <c r="H14" s="70"/>
-      <c r="I14" s="70"/>
-      <c r="J14" s="70"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="69"/>
+      <c r="H14" s="69"/>
+      <c r="I14" s="69"/>
+      <c r="J14" s="69"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="62" t="s">
+      <c r="A15" s="61" t="s">
         <v>364</v>
       </c>
-      <c r="B15" s="63" t="s">
+      <c r="B15" s="62" t="s">
         <v>178</v>
       </c>
-      <c r="C15" s="72" t="s">
+      <c r="C15" s="71" t="s">
         <v>392</v>
       </c>
-      <c r="D15" s="72" t="s">
+      <c r="D15" s="71" t="s">
         <v>387</v>
       </c>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="70"/>
-      <c r="I15" s="70"/>
-      <c r="J15" s="70"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="69"/>
+      <c r="I15" s="69"/>
+      <c r="J15" s="69"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="62" t="s">
+      <c r="A16" s="61" t="s">
         <v>243</v>
       </c>
-      <c r="B16" s="66" t="s">
+      <c r="B16" s="65" t="s">
         <v>172</v>
       </c>
-      <c r="C16" s="72" t="s">
+      <c r="C16" s="71" t="s">
         <v>384</v>
       </c>
-      <c r="D16" s="91" t="s">
+      <c r="D16" s="90" t="s">
         <v>385</v>
       </c>
-      <c r="E16" s="70"/>
-      <c r="F16" s="70"/>
-      <c r="G16" s="70"/>
-      <c r="H16" s="70"/>
-      <c r="I16" s="70"/>
-      <c r="J16" s="70"/>
+      <c r="E16" s="69"/>
+      <c r="F16" s="69"/>
+      <c r="G16" s="69"/>
+      <c r="H16" s="69"/>
+      <c r="I16" s="69"/>
+      <c r="J16" s="69"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="67" t="s">
+      <c r="A17" s="66" t="s">
         <v>179</v>
       </c>
-      <c r="B17" s="66" t="s">
+      <c r="B17" s="65" t="s">
         <v>172</v>
       </c>
-      <c r="C17" s="72" t="s">
+      <c r="C17" s="71" t="s">
         <v>391</v>
       </c>
-      <c r="D17" s="72" t="s">
+      <c r="D17" s="71" t="s">
         <v>386</v>
       </c>
-      <c r="E17" s="70"/>
-      <c r="F17" s="70"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="70"/>
-      <c r="I17" s="70"/>
-      <c r="J17" s="70"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="69"/>
+      <c r="H17" s="69"/>
+      <c r="I17" s="69"/>
+      <c r="J17" s="69"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="62" t="s">
+      <c r="A18" s="61" t="s">
         <v>244</v>
       </c>
-      <c r="B18" s="66" t="s">
+      <c r="B18" s="65" t="s">
         <v>172</v>
       </c>
-      <c r="C18" s="72" t="s">
+      <c r="C18" s="71" t="s">
         <v>398</v>
       </c>
-      <c r="D18" s="70" t="s">
+      <c r="D18" s="69" t="s">
         <v>397</v>
       </c>
-      <c r="E18" s="70"/>
-      <c r="F18" s="70"/>
-      <c r="G18" s="70"/>
-      <c r="H18" s="70"/>
-      <c r="I18" s="70"/>
-      <c r="J18" s="70"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="69"/>
+      <c r="H18" s="69"/>
+      <c r="I18" s="69"/>
+      <c r="J18" s="69"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="65" t="s">
+      <c r="A19" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="B19" s="64" t="s">
+      <c r="B19" s="63" t="s">
         <v>180</v>
       </c>
-      <c r="C19" s="74"/>
-      <c r="D19" s="70"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="70"/>
-      <c r="H19" s="70"/>
-      <c r="I19" s="70"/>
-      <c r="J19" s="70"/>
+      <c r="C19" s="73"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="69"/>
+      <c r="H19" s="69"/>
+      <c r="I19" s="69"/>
+      <c r="J19" s="69"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="62" t="s">
+      <c r="A20" s="61" t="s">
         <v>365</v>
       </c>
-      <c r="B20" s="64" t="s">
+      <c r="B20" s="63" t="s">
         <v>181</v>
       </c>
-      <c r="C20" s="74"/>
-      <c r="D20" s="70"/>
-      <c r="E20" s="70"/>
-      <c r="F20" s="70"/>
-      <c r="G20" s="70"/>
-      <c r="H20" s="70"/>
-      <c r="I20" s="70"/>
-      <c r="J20" s="70"/>
+      <c r="C20" s="73"/>
+      <c r="D20" s="69"/>
+      <c r="E20" s="69"/>
+      <c r="F20" s="69"/>
+      <c r="G20" s="69"/>
+      <c r="H20" s="69"/>
+      <c r="I20" s="69"/>
+      <c r="J20" s="69"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="62" t="s">
+      <c r="A21" s="61" t="s">
         <v>366</v>
       </c>
-      <c r="B21" s="85" t="s">
+      <c r="B21" s="84" t="s">
         <v>182</v>
       </c>
-      <c r="C21" s="74"/>
-      <c r="D21" s="70"/>
-      <c r="E21" s="70"/>
-      <c r="F21" s="70"/>
-      <c r="G21" s="70"/>
-      <c r="H21" s="70"/>
-      <c r="I21" s="70"/>
-      <c r="J21" s="70"/>
+      <c r="C21" s="73"/>
+      <c r="D21" s="69"/>
+      <c r="E21" s="69"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="69"/>
+      <c r="H21" s="69"/>
+      <c r="I21" s="69"/>
+      <c r="J21" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5869,16 +5878,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="33" t="s">
         <v>183</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="33" t="s">
         <v>184</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="33" t="s">
         <v>185</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="33" t="s">
         <v>186</v>
       </c>
       <c r="E1" s="9" t="s">
@@ -5886,299 +5895,299 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="16">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="34" t="s">
         <v>188</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="34" t="s">
         <v>189</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
       <c r="E2" s="9" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="35" t="s">
         <v>191</v>
       </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="38" t="s">
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="37" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="35" t="s">
         <v>193</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="35" t="s">
         <v>191</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="38" t="s">
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="37" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="16">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="35" t="s">
         <v>191</v>
       </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="38" t="s">
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="37" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="16">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="38" t="s">
         <v>194</v>
       </c>
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="38" t="s">
         <v>195</v>
       </c>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="40"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="39"/>
     </row>
     <row r="7" spans="1:5" ht="16">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="38" t="s">
         <v>196</v>
       </c>
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="38" t="s">
         <v>197</v>
       </c>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="40"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="39"/>
     </row>
     <row r="8" spans="1:5" ht="16">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="38" t="s">
         <v>198</v>
       </c>
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="38" t="s">
         <v>199</v>
       </c>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="40"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="39"/>
     </row>
     <row r="9" spans="1:5" ht="16">
-      <c r="A9" s="35"/>
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="40"/>
+      <c r="A9" s="34"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="39"/>
     </row>
     <row r="10" spans="1:5" ht="16">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="36" t="s">
         <v>200</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="35" t="s">
         <v>191</v>
       </c>
-      <c r="C10" s="37" t="s">
+      <c r="C10" s="36" t="s">
         <v>201</v>
       </c>
-      <c r="D10" s="37" t="s">
+      <c r="D10" s="36" t="s">
         <v>202</v>
       </c>
-      <c r="E10" s="41"/>
+      <c r="E10" s="40"/>
     </row>
     <row r="11" spans="1:5" ht="16">
-      <c r="A11" s="37" t="s">
+      <c r="A11" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="35" t="s">
         <v>191</v>
       </c>
-      <c r="C11" s="37" t="s">
+      <c r="C11" s="36" t="s">
         <v>203</v>
       </c>
-      <c r="D11" s="37" t="s">
+      <c r="D11" s="36" t="s">
         <v>204</v>
       </c>
-      <c r="E11" s="42" t="s">
+      <c r="E11" s="41" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="16">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="36" t="s">
         <v>206</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="35" t="s">
         <v>191</v>
       </c>
-      <c r="C12" s="37" t="s">
+      <c r="C12" s="36" t="s">
         <v>201</v>
       </c>
-      <c r="D12" s="37" t="s">
+      <c r="D12" s="36" t="s">
         <v>207</v>
       </c>
-      <c r="E12" s="42" t="s">
+      <c r="E12" s="41" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="16" outlineLevel="1">
-      <c r="A13" s="37" t="s">
+      <c r="A13" s="36" t="s">
         <v>209</v>
       </c>
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="35" t="s">
         <v>191</v>
       </c>
-      <c r="C13" s="37" t="s">
+      <c r="C13" s="36" t="s">
         <v>210</v>
       </c>
-      <c r="D13" s="37" t="s">
+      <c r="D13" s="36" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="16">
-      <c r="A14" s="35" t="s">
+      <c r="A14" s="34" t="s">
         <v>212</v>
       </c>
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="38" t="s">
         <v>213</v>
       </c>
-      <c r="C14" s="35" t="s">
+      <c r="C14" s="34" t="s">
         <v>214</v>
       </c>
-      <c r="D14" s="35" t="s">
+      <c r="D14" s="34" t="s">
         <v>215</v>
       </c>
-      <c r="E14" s="40" t="s">
+      <c r="E14" s="39" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="16">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="36" t="s">
         <v>217</v>
       </c>
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="35" t="s">
         <v>191</v>
       </c>
-      <c r="C15" s="37" t="s">
+      <c r="C15" s="36" t="s">
         <v>201</v>
       </c>
-      <c r="D15" s="37" t="s">
+      <c r="D15" s="36" t="s">
         <v>202</v>
       </c>
-      <c r="E15" s="41"/>
+      <c r="E15" s="40"/>
     </row>
     <row r="16" spans="1:5" ht="16">
-      <c r="A16" s="37" t="s">
+      <c r="A16" s="36" t="s">
         <v>218</v>
       </c>
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="35" t="s">
         <v>191</v>
       </c>
-      <c r="C16" s="37" t="s">
+      <c r="C16" s="36" t="s">
         <v>219</v>
       </c>
-      <c r="D16" s="37" t="s">
+      <c r="D16" s="36" t="s">
         <v>220</v>
       </c>
-      <c r="E16" s="43" t="s">
+      <c r="E16" s="42" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="30" customHeight="1">
-      <c r="A17" s="37" t="s">
+      <c r="A17" s="36" t="s">
         <v>200</v>
       </c>
-      <c r="B17" s="36" t="s">
+      <c r="B17" s="35" t="s">
         <v>191</v>
       </c>
-      <c r="C17" s="44" t="s">
+      <c r="C17" s="43" t="s">
         <v>222</v>
       </c>
-      <c r="D17" s="37" t="s">
+      <c r="D17" s="36" t="s">
         <v>223</v>
       </c>
-      <c r="E17" s="45" t="s">
+      <c r="E17" s="44" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15" customHeight="1">
-      <c r="A18" s="36" t="s">
+      <c r="A18" s="35" t="s">
         <v>225</v>
       </c>
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="35" t="s">
         <v>191</v>
       </c>
-      <c r="C18" s="46"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="47"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="46"/>
     </row>
     <row r="19" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A19" s="36" t="s">
+      <c r="A19" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="B19" s="48" t="s">
+      <c r="B19" s="47" t="s">
         <v>191</v>
       </c>
-      <c r="C19" s="49" t="s">
+      <c r="C19" s="48" t="s">
         <v>226</v>
       </c>
-      <c r="D19" s="36" t="s">
+      <c r="D19" s="35" t="s">
         <v>227</v>
       </c>
-      <c r="E19" s="50" t="s">
+      <c r="E19" s="49" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="16">
-      <c r="A20" s="35"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="47"/>
+      <c r="A20" s="34"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="46"/>
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A21" s="52" t="s">
+      <c r="A21" s="51" t="s">
         <v>229</v>
       </c>
-      <c r="B21" s="39" t="s">
+      <c r="B21" s="38" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A22" s="52" t="s">
+      <c r="A22" s="51" t="s">
         <v>231</v>
       </c>
-      <c r="B22" s="39" t="s">
+      <c r="B22" s="38" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A23" s="53"/>
-      <c r="B23" s="36"/>
+      <c r="A23" s="52"/>
+      <c r="B23" s="35"/>
     </row>
     <row r="24" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A24" s="53" t="s">
+      <c r="A24" s="52" t="s">
         <v>232</v>
       </c>
-      <c r="B24" s="36" t="s">
+      <c r="B24" s="35" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A25" s="42" t="s">
+      <c r="A25" s="41" t="s">
         <v>233</v>
       </c>
-      <c r="B25" s="36" t="s">
+      <c r="B25" s="35" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A26" s="40" t="s">
+      <c r="A26" s="39" t="s">
         <v>234</v>
       </c>
       <c r="B26" s="3" t="s">
@@ -6186,7 +6195,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A27" s="40" t="s">
+      <c r="A27" s="39" t="s">
         <v>236</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -6194,7 +6203,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A28" s="40" t="s">
+      <c r="A28" s="39" t="s">
         <v>237</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -6202,7 +6211,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A29" s="40" t="s">
+      <c r="A29" s="39" t="s">
         <v>238</v>
       </c>
       <c r="B29" s="3" t="s">
@@ -6210,7 +6219,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A30" s="40" t="s">
+      <c r="A30" s="39" t="s">
         <v>239</v>
       </c>
       <c r="B30" s="3" t="s">
@@ -6218,7 +6227,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A31" s="40" t="s">
+      <c r="A31" s="39" t="s">
         <v>240</v>
       </c>
       <c r="B31" s="3" t="s">
@@ -6226,7 +6235,7 @@
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A32" s="40" t="s">
+      <c r="A32" s="39" t="s">
         <v>241</v>
       </c>
       <c r="B32" s="3" t="s">
@@ -7216,7 +7225,7 @@
   </sheetPr>
   <dimension ref="A1:I1021"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
@@ -7228,386 +7237,386 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="16">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="99" t="s">
         <v>409</v>
       </c>
-      <c r="B1" s="101" t="s">
+      <c r="B1" s="100" t="s">
         <v>430</v>
       </c>
-      <c r="C1" s="101" t="s">
+      <c r="C1" s="100" t="s">
         <v>429</v>
       </c>
-      <c r="D1" s="136" t="s">
+      <c r="D1" s="134" t="s">
         <v>272</v>
       </c>
-      <c r="E1" s="136"/>
-      <c r="F1" s="110" t="s">
+      <c r="E1" s="134"/>
+      <c r="F1" s="109" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="98" customFormat="1" ht="16">
+    <row r="2" spans="1:9" s="97" customFormat="1" ht="16">
       <c r="A2" s="9"/>
-      <c r="D2" s="135"/>
-      <c r="E2" s="135"/>
-      <c r="G2" s="104"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="104"/>
-    </row>
-    <row r="3" spans="1:9" s="98" customFormat="1" ht="16">
-      <c r="A3" s="99" t="s">
+      <c r="D2" s="136"/>
+      <c r="E2" s="136"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+    </row>
+    <row r="3" spans="1:9" s="97" customFormat="1" ht="16">
+      <c r="A3" s="98" t="s">
         <v>410</v>
       </c>
-      <c r="B3" s="105">
+      <c r="B3" s="104">
         <v>62</v>
       </c>
-      <c r="C3" s="105">
+      <c r="C3" s="104">
         <v>55</v>
       </c>
-      <c r="D3" s="134" t="s">
+      <c r="D3" s="135" t="s">
         <v>431</v>
       </c>
-      <c r="E3" s="135"/>
-      <c r="F3" s="102" t="s">
+      <c r="E3" s="136"/>
+      <c r="F3" s="101" t="s">
         <v>262</v>
       </c>
-      <c r="G3" s="104"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="104"/>
-    </row>
-    <row r="4" spans="1:9" s="98" customFormat="1" ht="16">
-      <c r="A4" s="99" t="s">
+      <c r="G3" s="103"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="103"/>
+    </row>
+    <row r="4" spans="1:9" s="97" customFormat="1" ht="16">
+      <c r="A4" s="98" t="s">
         <v>411</v>
       </c>
-      <c r="D4" s="135"/>
-      <c r="E4" s="135"/>
-      <c r="F4" s="103"/>
-      <c r="G4" s="104"/>
-      <c r="H4" s="107"/>
-      <c r="I4" s="104"/>
-    </row>
-    <row r="5" spans="1:9" s="98" customFormat="1" ht="16">
-      <c r="A5" s="99" t="s">
+      <c r="D4" s="136"/>
+      <c r="E4" s="136"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="103"/>
+      <c r="H4" s="106"/>
+      <c r="I4" s="103"/>
+    </row>
+    <row r="5" spans="1:9" s="97" customFormat="1" ht="16">
+      <c r="A5" s="98" t="s">
         <v>412</v>
       </c>
-      <c r="B5" s="105">
+      <c r="B5" s="104">
         <v>44</v>
       </c>
-      <c r="C5" s="105">
+      <c r="C5" s="104">
         <v>43</v>
       </c>
-      <c r="D5" s="135"/>
-      <c r="E5" s="135"/>
-      <c r="F5" s="102" t="s">
+      <c r="D5" s="136"/>
+      <c r="E5" s="136"/>
+      <c r="F5" s="101" t="s">
         <v>262</v>
       </c>
-      <c r="G5" s="104"/>
-      <c r="H5" s="107"/>
-      <c r="I5" s="104"/>
-    </row>
-    <row r="6" spans="1:9" s="98" customFormat="1" ht="16">
-      <c r="A6" s="99" t="s">
+      <c r="G5" s="103"/>
+      <c r="H5" s="106"/>
+      <c r="I5" s="103"/>
+    </row>
+    <row r="6" spans="1:9" s="97" customFormat="1" ht="16">
+      <c r="A6" s="98" t="s">
         <v>413</v>
       </c>
-      <c r="B6" s="105">
+      <c r="B6" s="104">
         <v>47</v>
       </c>
-      <c r="C6" s="105">
+      <c r="C6" s="104">
         <v>52</v>
       </c>
-      <c r="D6" s="134" t="s">
+      <c r="D6" s="135" t="s">
         <v>433</v>
       </c>
-      <c r="E6" s="135"/>
-      <c r="F6" s="102" t="s">
+      <c r="E6" s="136"/>
+      <c r="F6" s="101" t="s">
         <v>262</v>
       </c>
-      <c r="G6" s="104"/>
-      <c r="H6" s="109"/>
-      <c r="I6" s="104"/>
-    </row>
-    <row r="7" spans="1:9" s="98" customFormat="1" ht="16">
-      <c r="A7" s="99" t="s">
+      <c r="G6" s="103"/>
+      <c r="H6" s="108"/>
+      <c r="I6" s="103"/>
+    </row>
+    <row r="7" spans="1:9" s="97" customFormat="1" ht="16">
+      <c r="A7" s="98" t="s">
         <v>414</v>
       </c>
-      <c r="B7" s="105">
+      <c r="B7" s="104">
         <v>75</v>
       </c>
-      <c r="C7" s="105">
+      <c r="C7" s="104">
         <v>82</v>
       </c>
-      <c r="D7" s="134" t="s">
+      <c r="D7" s="135" t="s">
         <v>433</v>
       </c>
-      <c r="E7" s="135"/>
-      <c r="F7" s="102" t="s">
+      <c r="E7" s="136"/>
+      <c r="F7" s="101" t="s">
         <v>262</v>
       </c>
-      <c r="G7" s="104"/>
-      <c r="H7" s="107"/>
-      <c r="I7" s="104"/>
-    </row>
-    <row r="8" spans="1:9" s="98" customFormat="1" ht="16">
-      <c r="A8" s="99" t="s">
+      <c r="G7" s="103"/>
+      <c r="H7" s="106"/>
+      <c r="I7" s="103"/>
+    </row>
+    <row r="8" spans="1:9" s="97" customFormat="1" ht="16">
+      <c r="A8" s="98" t="s">
         <v>415</v>
       </c>
-      <c r="B8" s="105">
+      <c r="B8" s="104">
         <v>85</v>
       </c>
-      <c r="C8" s="105">
+      <c r="C8" s="104">
         <v>99</v>
       </c>
-      <c r="D8" s="134" t="s">
+      <c r="D8" s="135" t="s">
         <v>432</v>
       </c>
-      <c r="E8" s="135"/>
-      <c r="F8" s="103"/>
-      <c r="G8" s="104"/>
-      <c r="H8" s="107"/>
-      <c r="I8" s="104"/>
+      <c r="E8" s="136"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="106"/>
+      <c r="I8" s="103"/>
     </row>
     <row r="9" spans="1:9" ht="15" customHeight="1">
-      <c r="A9" s="99" t="s">
+      <c r="A9" s="98" t="s">
         <v>416</v>
       </c>
-      <c r="B9" s="105">
+      <c r="B9" s="104">
         <v>15</v>
       </c>
-      <c r="C9" s="105">
+      <c r="C9" s="104">
         <v>23</v>
       </c>
-      <c r="D9" s="134" t="s">
+      <c r="D9" s="135" t="s">
         <v>431</v>
       </c>
-      <c r="E9" s="135"/>
-      <c r="F9" s="102" t="s">
+      <c r="E9" s="136"/>
+      <c r="F9" s="101" t="s">
         <v>262</v>
       </c>
-      <c r="G9" s="104"/>
-      <c r="H9" s="107"/>
-      <c r="I9" s="104"/>
+      <c r="G9" s="103"/>
+      <c r="H9" s="106"/>
+      <c r="I9" s="103"/>
     </row>
     <row r="10" spans="1:9" ht="16">
-      <c r="A10" s="99" t="s">
+      <c r="A10" s="98" t="s">
         <v>417</v>
       </c>
-      <c r="B10" s="106"/>
-      <c r="C10" s="105"/>
-      <c r="D10" s="135"/>
-      <c r="E10" s="135"/>
-      <c r="F10" s="103"/>
-      <c r="G10" s="104"/>
-      <c r="H10" s="107"/>
-      <c r="I10" s="104"/>
+      <c r="B10" s="105"/>
+      <c r="C10" s="104"/>
+      <c r="D10" s="136"/>
+      <c r="E10" s="136"/>
+      <c r="F10" s="102"/>
+      <c r="G10" s="103"/>
+      <c r="H10" s="106"/>
+      <c r="I10" s="103"/>
     </row>
     <row r="11" spans="1:9" ht="16">
-      <c r="A11" s="99" t="s">
+      <c r="A11" s="98" t="s">
         <v>418</v>
       </c>
-      <c r="B11" s="107"/>
-      <c r="C11" s="105"/>
-      <c r="D11" s="135"/>
-      <c r="E11" s="135"/>
-      <c r="F11" s="103"/>
-      <c r="G11" s="104"/>
-      <c r="H11" s="107"/>
-      <c r="I11" s="104"/>
+      <c r="B11" s="106"/>
+      <c r="C11" s="104"/>
+      <c r="D11" s="136"/>
+      <c r="E11" s="136"/>
+      <c r="F11" s="102"/>
+      <c r="G11" s="103"/>
+      <c r="H11" s="106"/>
+      <c r="I11" s="103"/>
     </row>
     <row r="12" spans="1:9" ht="16">
-      <c r="A12" s="99" t="s">
+      <c r="A12" s="98" t="s">
         <v>419</v>
       </c>
-      <c r="B12" s="107">
+      <c r="B12" s="106">
         <v>57</v>
       </c>
-      <c r="C12" s="105">
+      <c r="C12" s="104">
         <v>59</v>
       </c>
-      <c r="D12" s="134" t="s">
+      <c r="D12" s="135" t="s">
         <v>431</v>
       </c>
-      <c r="E12" s="135"/>
-      <c r="F12" s="102" t="s">
+      <c r="E12" s="136"/>
+      <c r="F12" s="101" t="s">
         <v>262</v>
       </c>
-      <c r="G12" s="104"/>
-      <c r="H12" s="107"/>
-      <c r="I12" s="104"/>
+      <c r="G12" s="103"/>
+      <c r="H12" s="106"/>
+      <c r="I12" s="103"/>
     </row>
     <row r="13" spans="1:9" ht="16">
-      <c r="A13" s="99" t="s">
+      <c r="A13" s="98" t="s">
         <v>420</v>
       </c>
-      <c r="B13" s="107">
+      <c r="B13" s="106">
         <v>37</v>
       </c>
-      <c r="C13" s="105">
+      <c r="C13" s="104">
         <v>56</v>
       </c>
-      <c r="D13" s="134" t="s">
+      <c r="D13" s="135" t="s">
         <v>433</v>
       </c>
-      <c r="E13" s="135"/>
-      <c r="F13" s="102" t="s">
+      <c r="E13" s="136"/>
+      <c r="F13" s="101" t="s">
         <v>262</v>
       </c>
-      <c r="G13" s="104"/>
-      <c r="H13" s="109"/>
-      <c r="I13" s="104"/>
+      <c r="G13" s="103"/>
+      <c r="H13" s="108"/>
+      <c r="I13" s="103"/>
     </row>
     <row r="14" spans="1:9" ht="16">
-      <c r="A14" s="99" t="s">
+      <c r="A14" s="98" t="s">
         <v>421</v>
       </c>
-      <c r="B14" s="107">
+      <c r="B14" s="106">
         <v>53</v>
       </c>
-      <c r="C14" s="105">
+      <c r="C14" s="104">
         <v>72</v>
       </c>
-      <c r="D14" s="134" t="s">
+      <c r="D14" s="135" t="s">
         <v>433</v>
       </c>
-      <c r="E14" s="135"/>
-      <c r="F14" s="102" t="s">
+      <c r="E14" s="136"/>
+      <c r="F14" s="101" t="s">
         <v>262</v>
       </c>
-      <c r="G14" s="104"/>
-      <c r="H14" s="107"/>
-      <c r="I14" s="104"/>
+      <c r="G14" s="103"/>
+      <c r="H14" s="106"/>
+      <c r="I14" s="103"/>
     </row>
     <row r="15" spans="1:9" ht="16">
-      <c r="A15" s="99" t="s">
+      <c r="A15" s="98" t="s">
         <v>422</v>
       </c>
-      <c r="B15" s="107">
+      <c r="B15" s="106">
         <v>60</v>
       </c>
-      <c r="C15" s="105">
+      <c r="C15" s="104">
         <v>64</v>
       </c>
-      <c r="D15" s="135"/>
-      <c r="E15" s="135"/>
-      <c r="F15" s="102" t="s">
+      <c r="D15" s="136"/>
+      <c r="E15" s="136"/>
+      <c r="F15" s="101" t="s">
         <v>262</v>
       </c>
-      <c r="G15" s="104"/>
-      <c r="H15" s="107"/>
-      <c r="I15" s="104"/>
+      <c r="G15" s="103"/>
+      <c r="H15" s="106"/>
+      <c r="I15" s="103"/>
     </row>
     <row r="16" spans="1:9" ht="16">
-      <c r="A16" s="99" t="s">
+      <c r="A16" s="98" t="s">
         <v>423</v>
       </c>
-      <c r="B16" s="105"/>
-      <c r="C16" s="105"/>
-      <c r="D16" s="135"/>
-      <c r="E16" s="135"/>
-      <c r="F16" s="103"/>
-      <c r="G16" s="104"/>
-      <c r="H16" s="107"/>
-      <c r="I16" s="104"/>
-    </row>
-    <row r="17" spans="1:9" s="98" customFormat="1" ht="16">
-      <c r="A17" s="99" t="s">
+      <c r="B16" s="104"/>
+      <c r="C16" s="104"/>
+      <c r="D16" s="136"/>
+      <c r="E16" s="136"/>
+      <c r="F16" s="102"/>
+      <c r="G16" s="103"/>
+      <c r="H16" s="106"/>
+      <c r="I16" s="103"/>
+    </row>
+    <row r="17" spans="1:9" s="97" customFormat="1" ht="16">
+      <c r="A17" s="98" t="s">
         <v>424</v>
       </c>
-      <c r="B17" s="105"/>
-      <c r="C17" s="105"/>
-      <c r="D17" s="135"/>
-      <c r="E17" s="135"/>
-      <c r="F17" s="103"/>
-      <c r="G17" s="104"/>
-      <c r="H17" s="107"/>
-      <c r="I17" s="104"/>
-    </row>
-    <row r="18" spans="1:9" s="98" customFormat="1" ht="16">
-      <c r="A18" s="99" t="s">
+      <c r="B17" s="104"/>
+      <c r="C17" s="104"/>
+      <c r="D17" s="136"/>
+      <c r="E17" s="136"/>
+      <c r="F17" s="102"/>
+      <c r="G17" s="103"/>
+      <c r="H17" s="106"/>
+      <c r="I17" s="103"/>
+    </row>
+    <row r="18" spans="1:9" s="97" customFormat="1" ht="16">
+      <c r="A18" s="98" t="s">
         <v>425</v>
       </c>
-      <c r="B18" s="105"/>
-      <c r="C18" s="105"/>
-      <c r="D18" s="135"/>
-      <c r="E18" s="135"/>
-      <c r="F18" s="103"/>
-      <c r="G18" s="104"/>
-      <c r="H18" s="107"/>
-      <c r="I18" s="104"/>
-    </row>
-    <row r="19" spans="1:9" s="98" customFormat="1" ht="16">
-      <c r="A19" s="99" t="s">
+      <c r="B18" s="104"/>
+      <c r="C18" s="104"/>
+      <c r="D18" s="136"/>
+      <c r="E18" s="136"/>
+      <c r="F18" s="102"/>
+      <c r="G18" s="103"/>
+      <c r="H18" s="106"/>
+      <c r="I18" s="103"/>
+    </row>
+    <row r="19" spans="1:9" s="97" customFormat="1" ht="16">
+      <c r="A19" s="98" t="s">
         <v>426</v>
       </c>
-      <c r="B19" s="105">
+      <c r="B19" s="104">
         <v>18</v>
       </c>
-      <c r="C19" s="105">
+      <c r="C19" s="104">
         <v>40</v>
       </c>
-      <c r="D19" s="134" t="s">
+      <c r="D19" s="135" t="s">
         <v>433</v>
       </c>
-      <c r="E19" s="135"/>
-      <c r="F19" s="102" t="s">
+      <c r="E19" s="136"/>
+      <c r="F19" s="101" t="s">
         <v>262</v>
       </c>
-      <c r="G19" s="104"/>
-      <c r="H19" s="107"/>
-      <c r="I19" s="104"/>
-    </row>
-    <row r="20" spans="1:9" s="98" customFormat="1" ht="16">
-      <c r="A20" s="99" t="s">
+      <c r="G19" s="103"/>
+      <c r="H19" s="106"/>
+      <c r="I19" s="103"/>
+    </row>
+    <row r="20" spans="1:9" s="97" customFormat="1" ht="16">
+      <c r="A20" s="98" t="s">
         <v>427</v>
       </c>
-      <c r="B20" s="105">
+      <c r="B20" s="104">
         <v>34</v>
       </c>
-      <c r="C20" s="105">
+      <c r="C20" s="104">
         <v>46</v>
       </c>
-      <c r="D20" s="134" t="s">
+      <c r="D20" s="135" t="s">
         <v>433</v>
       </c>
-      <c r="E20" s="135"/>
-      <c r="F20" s="102" t="s">
+      <c r="E20" s="136"/>
+      <c r="F20" s="101" t="s">
         <v>262</v>
       </c>
-      <c r="G20" s="104"/>
-      <c r="H20" s="107"/>
-      <c r="I20" s="104"/>
-    </row>
-    <row r="21" spans="1:9" s="98" customFormat="1" ht="16">
-      <c r="A21" s="99" t="s">
+      <c r="G20" s="103"/>
+      <c r="H20" s="106"/>
+      <c r="I20" s="103"/>
+    </row>
+    <row r="21" spans="1:9" s="97" customFormat="1" ht="16">
+      <c r="A21" s="98" t="s">
         <v>428</v>
       </c>
-      <c r="B21" s="105">
+      <c r="B21" s="104">
         <v>83</v>
       </c>
-      <c r="C21" s="105">
+      <c r="C21" s="104">
         <v>84</v>
       </c>
-      <c r="D21" s="134" t="s">
+      <c r="D21" s="135" t="s">
         <v>433</v>
       </c>
-      <c r="E21" s="135"/>
-      <c r="F21" s="102" t="s">
+      <c r="E21" s="136"/>
+      <c r="F21" s="101" t="s">
         <v>443</v>
       </c>
-      <c r="G21" s="104"/>
-      <c r="H21" s="107"/>
-      <c r="I21" s="104"/>
+      <c r="G21" s="103"/>
+      <c r="H21" s="106"/>
+      <c r="I21" s="103"/>
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1">
-      <c r="G22" s="104"/>
-      <c r="H22" s="104"/>
-      <c r="I22" s="104"/>
+      <c r="G22" s="103"/>
+      <c r="H22" s="103"/>
+      <c r="I22" s="103"/>
     </row>
     <row r="23" spans="1:9" ht="16">
       <c r="A23" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="G23" s="104"/>
-      <c r="H23" s="104"/>
-      <c r="I23" s="104"/>
+      <c r="G23" s="103"/>
+      <c r="H23" s="103"/>
+      <c r="I23" s="103"/>
     </row>
     <row r="25" spans="1:9" ht="16">
       <c r="A25" s="3" t="s">
@@ -7691,69 +7700,69 @@
         <v>261</v>
       </c>
     </row>
-    <row r="34" spans="1:5" s="98" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A34" s="97"/>
-      <c r="B34" s="97"/>
-      <c r="C34" s="97"/>
-    </row>
-    <row r="35" spans="1:5" s="98" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A35" s="97" t="s">
+    <row r="34" spans="1:5" s="97" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A34" s="96"/>
+      <c r="B34" s="96"/>
+      <c r="C34" s="96"/>
+    </row>
+    <row r="35" spans="1:5" s="97" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A35" s="96" t="s">
         <v>235</v>
       </c>
-      <c r="B35" s="97" t="s">
+      <c r="B35" s="96" t="s">
         <v>444</v>
       </c>
-      <c r="C35" s="97" t="s">
+      <c r="C35" s="96" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="36" spans="1:5" s="98" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A36" s="97" t="s">
+    <row r="36" spans="1:5" s="97" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A36" s="96" t="s">
         <v>235</v>
       </c>
-      <c r="B36" s="97" t="s">
+      <c r="B36" s="96" t="s">
         <v>445</v>
       </c>
-      <c r="C36" s="97" t="s">
+      <c r="C36" s="96" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="37" spans="1:5" s="98" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A37" s="97"/>
-      <c r="B37" s="97"/>
-      <c r="C37" s="97"/>
-    </row>
-    <row r="38" spans="1:5" s="98" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A38" s="97" t="s">
+    <row r="37" spans="1:5" s="97" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A37" s="96"/>
+      <c r="B37" s="96"/>
+      <c r="C37" s="96"/>
+    </row>
+    <row r="38" spans="1:5" s="97" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A38" s="96" t="s">
         <v>447</v>
       </c>
-      <c r="B38" s="97" t="s">
+      <c r="B38" s="96" t="s">
         <v>454</v>
       </c>
-      <c r="C38" s="97" t="s">
+      <c r="C38" s="96" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="98" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A39" s="97" t="s">
+    <row r="39" spans="1:5" s="97" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A39" s="96" t="s">
         <v>447</v>
       </c>
-      <c r="B39" s="97" t="s">
+      <c r="B39" s="96" t="s">
         <v>455</v>
       </c>
-      <c r="C39" s="97" t="s">
+      <c r="C39" s="96" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="40" spans="1:5" s="98" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A40" s="97"/>
-      <c r="B40" s="97"/>
-      <c r="C40" s="97"/>
-    </row>
-    <row r="41" spans="1:5" s="98" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A41" s="97"/>
-      <c r="B41" s="97"/>
-      <c r="C41" s="97"/>
+    <row r="40" spans="1:5" s="97" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A40" s="96"/>
+      <c r="B40" s="96"/>
+      <c r="C40" s="96"/>
+    </row>
+    <row r="41" spans="1:5" s="97" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A41" s="96"/>
+      <c r="B41" s="96"/>
+      <c r="C41" s="96"/>
     </row>
     <row r="42" spans="1:5" ht="15.75" customHeight="1"/>
     <row r="43" spans="1:5" ht="15.75" customHeight="1">
@@ -7762,218 +7771,218 @@
       </c>
     </row>
     <row r="44" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A44" s="115"/>
-      <c r="B44" s="115"/>
-      <c r="C44" s="115"/>
-      <c r="D44" s="111"/>
-      <c r="E44" s="111"/>
+      <c r="A44" s="114"/>
+      <c r="B44" s="114"/>
+      <c r="C44" s="114"/>
+      <c r="D44" s="110"/>
+      <c r="E44" s="110"/>
     </row>
     <row r="45" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A45" s="116"/>
-      <c r="B45" s="115"/>
-      <c r="C45" s="117"/>
-      <c r="D45" s="111"/>
-      <c r="E45" s="111"/>
+      <c r="A45" s="115"/>
+      <c r="B45" s="114"/>
+      <c r="C45" s="116"/>
+      <c r="D45" s="110"/>
+      <c r="E45" s="110"/>
     </row>
     <row r="46" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A46" s="116" t="s">
+      <c r="A46" s="115" t="s">
         <v>411</v>
       </c>
-      <c r="B46" s="115" t="s">
+      <c r="B46" s="114" t="s">
         <v>450</v>
       </c>
-      <c r="C46" s="117"/>
-      <c r="D46" s="111"/>
-      <c r="E46" s="111"/>
+      <c r="C46" s="116"/>
+      <c r="D46" s="110"/>
+      <c r="E46" s="110"/>
     </row>
     <row r="47" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A47" s="118" t="s">
+      <c r="A47" s="117" t="s">
         <v>411</v>
       </c>
-      <c r="B47" s="115" t="s">
+      <c r="B47" s="114" t="s">
         <v>451</v>
       </c>
-      <c r="C47" s="115"/>
-      <c r="D47" s="111"/>
-      <c r="E47" s="111"/>
+      <c r="C47" s="114"/>
+      <c r="D47" s="110"/>
+      <c r="E47" s="110"/>
     </row>
     <row r="48" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A48" s="116"/>
-      <c r="B48" s="115"/>
-      <c r="C48" s="117"/>
-      <c r="D48" s="111"/>
-      <c r="E48" s="111"/>
+      <c r="A48" s="115"/>
+      <c r="B48" s="114"/>
+      <c r="C48" s="116"/>
+      <c r="D48" s="110"/>
+      <c r="E48" s="110"/>
     </row>
     <row r="49" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A49" s="116" t="s">
+      <c r="A49" s="115" t="s">
         <v>417</v>
       </c>
-      <c r="B49" s="115" t="s">
+      <c r="B49" s="114" t="s">
         <v>452</v>
       </c>
-      <c r="C49" s="117"/>
-      <c r="D49" s="111"/>
-      <c r="E49" s="111"/>
+      <c r="C49" s="116"/>
+      <c r="D49" s="110"/>
+      <c r="E49" s="110"/>
     </row>
     <row r="50" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A50" s="118" t="s">
+      <c r="A50" s="117" t="s">
         <v>417</v>
       </c>
-      <c r="B50" s="115" t="s">
+      <c r="B50" s="114" t="s">
         <v>453</v>
       </c>
-      <c r="C50" s="115"/>
-      <c r="D50" s="111"/>
-      <c r="E50" s="111"/>
-    </row>
-    <row r="51" spans="1:5" s="98" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A51" s="118"/>
-      <c r="B51" s="115"/>
-      <c r="C51" s="115"/>
-      <c r="D51" s="111"/>
-      <c r="E51" s="111"/>
+      <c r="C50" s="114"/>
+      <c r="D50" s="110"/>
+      <c r="E50" s="110"/>
+    </row>
+    <row r="51" spans="1:5" s="97" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A51" s="117"/>
+      <c r="B51" s="114"/>
+      <c r="C51" s="114"/>
+      <c r="D51" s="110"/>
+      <c r="E51" s="110"/>
     </row>
     <row r="52" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A52" s="116" t="s">
+      <c r="A52" s="115" t="s">
         <v>418</v>
       </c>
-      <c r="B52" s="115" t="s">
+      <c r="B52" s="114" t="s">
         <v>263</v>
       </c>
-      <c r="C52" s="115"/>
-      <c r="D52" s="111"/>
-      <c r="E52" s="111"/>
+      <c r="C52" s="114"/>
+      <c r="D52" s="110"/>
+      <c r="E52" s="110"/>
     </row>
     <row r="53" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A53" s="116" t="s">
+      <c r="A53" s="115" t="s">
         <v>418</v>
       </c>
-      <c r="B53" s="115" t="s">
+      <c r="B53" s="114" t="s">
         <v>264</v>
       </c>
-      <c r="C53" s="115"/>
-      <c r="D53" s="111"/>
-      <c r="E53" s="111"/>
+      <c r="C53" s="114"/>
+      <c r="D53" s="110"/>
+      <c r="E53" s="110"/>
     </row>
     <row r="54" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A54" s="118"/>
-      <c r="B54" s="115"/>
-      <c r="C54" s="115"/>
-      <c r="D54" s="111"/>
-      <c r="E54" s="111"/>
+      <c r="A54" s="117"/>
+      <c r="B54" s="114"/>
+      <c r="C54" s="114"/>
+      <c r="D54" s="110"/>
+      <c r="E54" s="110"/>
     </row>
     <row r="55" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A55" s="113" t="s">
+      <c r="A55" s="112" t="s">
         <v>423</v>
       </c>
-      <c r="B55" s="112" t="s">
+      <c r="B55" s="111" t="s">
         <v>247</v>
       </c>
-      <c r="C55" s="94"/>
-      <c r="D55" s="111"/>
-      <c r="E55" s="111"/>
+      <c r="C55" s="93"/>
+      <c r="D55" s="110"/>
+      <c r="E55" s="110"/>
     </row>
     <row r="56" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A56" s="113" t="s">
+      <c r="A56" s="112" t="s">
         <v>423</v>
       </c>
-      <c r="B56" s="112" t="s">
+      <c r="B56" s="111" t="s">
         <v>249</v>
       </c>
-      <c r="C56" s="94"/>
-      <c r="D56" s="111"/>
-      <c r="E56" s="111"/>
+      <c r="C56" s="93"/>
+      <c r="D56" s="110"/>
+      <c r="E56" s="110"/>
     </row>
     <row r="57" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A57" s="114"/>
-      <c r="B57" s="111"/>
-      <c r="C57" s="111"/>
-      <c r="D57" s="111"/>
-      <c r="E57" s="111"/>
+      <c r="A57" s="113"/>
+      <c r="B57" s="110"/>
+      <c r="C57" s="110"/>
+      <c r="D57" s="110"/>
+      <c r="E57" s="110"/>
     </row>
     <row r="58" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A58" s="113" t="s">
+      <c r="A58" s="112" t="s">
         <v>424</v>
       </c>
-      <c r="B58" s="112" t="s">
+      <c r="B58" s="111" t="s">
         <v>456</v>
       </c>
-      <c r="C58" s="94"/>
-      <c r="D58" s="111"/>
-      <c r="E58" s="111"/>
+      <c r="C58" s="93"/>
+      <c r="D58" s="110"/>
+      <c r="E58" s="110"/>
     </row>
     <row r="59" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A59" s="113" t="s">
+      <c r="A59" s="112" t="s">
         <v>424</v>
       </c>
-      <c r="B59" s="112" t="s">
+      <c r="B59" s="111" t="s">
         <v>457</v>
       </c>
-      <c r="C59" s="94"/>
-      <c r="D59" s="111"/>
-      <c r="E59" s="111"/>
+      <c r="C59" s="93"/>
+      <c r="D59" s="110"/>
+      <c r="E59" s="110"/>
     </row>
     <row r="60" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A60" s="114"/>
-      <c r="B60" s="111"/>
-      <c r="C60" s="111"/>
-      <c r="D60" s="111"/>
-      <c r="E60" s="111"/>
+      <c r="A60" s="113"/>
+      <c r="B60" s="110"/>
+      <c r="C60" s="110"/>
+      <c r="D60" s="110"/>
+      <c r="E60" s="110"/>
     </row>
     <row r="61" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A61" s="113" t="s">
+      <c r="A61" s="112" t="s">
         <v>425</v>
       </c>
-      <c r="B61" s="112" t="s">
+      <c r="B61" s="111" t="s">
         <v>265</v>
       </c>
-      <c r="C61" s="94"/>
-      <c r="D61" s="111"/>
-      <c r="E61" s="111"/>
+      <c r="C61" s="93"/>
+      <c r="D61" s="110"/>
+      <c r="E61" s="110"/>
     </row>
     <row r="62" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A62" s="113" t="s">
+      <c r="A62" s="112" t="s">
         <v>425</v>
       </c>
-      <c r="B62" s="112" t="s">
+      <c r="B62" s="111" t="s">
         <v>266</v>
       </c>
-      <c r="C62" s="94"/>
-      <c r="D62" s="111"/>
-      <c r="E62" s="111"/>
+      <c r="C62" s="93"/>
+      <c r="D62" s="110"/>
+      <c r="E62" s="110"/>
     </row>
     <row r="63" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A63" s="114"/>
-      <c r="B63" s="111"/>
-      <c r="C63" s="111"/>
-      <c r="D63" s="111"/>
-      <c r="E63" s="111"/>
+      <c r="A63" s="113"/>
+      <c r="B63" s="110"/>
+      <c r="C63" s="110"/>
+      <c r="D63" s="110"/>
+      <c r="E63" s="110"/>
     </row>
     <row r="64" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A64" s="114"/>
-      <c r="B64" s="111"/>
-      <c r="C64" s="111"/>
-      <c r="D64" s="111"/>
-      <c r="E64" s="111"/>
+      <c r="A64" s="113"/>
+      <c r="B64" s="110"/>
+      <c r="C64" s="110"/>
+      <c r="D64" s="110"/>
+      <c r="E64" s="110"/>
     </row>
     <row r="65" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A65" s="119"/>
-      <c r="B65" s="111"/>
-      <c r="C65" s="111"/>
-      <c r="D65" s="111"/>
-      <c r="E65" s="111"/>
+      <c r="A65" s="118"/>
+      <c r="B65" s="110"/>
+      <c r="C65" s="110"/>
+      <c r="D65" s="110"/>
+      <c r="E65" s="110"/>
     </row>
     <row r="66" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A66" s="120"/>
+      <c r="A66" s="119"/>
     </row>
     <row r="67" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A67" s="121"/>
+      <c r="A67" s="120"/>
     </row>
     <row r="68" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A68" s="121"/>
+      <c r="A68" s="120"/>
     </row>
     <row r="69" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A69" s="120"/>
+      <c r="A69" s="119"/>
     </row>
     <row r="70" spans="1:5" ht="15.75" customHeight="1"/>
     <row r="71" spans="1:5" ht="15.75" customHeight="1"/>
@@ -8929,11 +8938,6 @@
     <row r="1021" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="D2:E2"/>
@@ -8950,6 +8954,11 @@
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8979,883 +8988,883 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="53" t="s">
         <v>267</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="53" t="s">
         <v>268</v>
       </c>
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="53" t="s">
         <v>269</v>
       </c>
-      <c r="D1" s="54" t="s">
+      <c r="D1" s="53" t="s">
         <v>270</v>
       </c>
-      <c r="E1" s="54" t="s">
+      <c r="E1" s="53" t="s">
         <v>271</v>
       </c>
-      <c r="F1" s="54" t="s">
+      <c r="F1" s="53" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="53" t="s">
         <v>273</v>
       </c>
-      <c r="C2" s="54" t="s">
+      <c r="C2" s="53" t="s">
         <v>274</v>
       </c>
-      <c r="D2" s="54" t="s">
+      <c r="D2" s="53" t="s">
         <v>275</v>
       </c>
-      <c r="E2" s="54" t="s">
+      <c r="E2" s="53" t="s">
         <v>276</v>
       </c>
-      <c r="F2" s="54" t="s">
+      <c r="F2" s="53" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="54" t="s">
         <v>278</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="54" t="s">
         <v>279</v>
       </c>
-      <c r="D3" s="55" t="s">
+      <c r="D3" s="54" t="s">
         <v>280</v>
       </c>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="53" t="s">
         <v>281</v>
       </c>
-      <c r="C4" s="54" t="s">
+      <c r="C4" s="53" t="s">
         <v>274</v>
       </c>
-      <c r="D4" s="54" t="s">
+      <c r="D4" s="53" t="s">
         <v>275</v>
       </c>
-      <c r="E4" s="54" t="s">
+      <c r="E4" s="53" t="s">
         <v>282</v>
       </c>
-      <c r="F4" s="54" t="s">
+      <c r="F4" s="53" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="53" t="s">
         <v>143</v>
       </c>
-      <c r="B5" s="54" t="s">
+      <c r="B5" s="53" t="s">
         <v>284</v>
       </c>
-      <c r="C5" s="54" t="s">
+      <c r="C5" s="53" t="s">
         <v>279</v>
       </c>
-      <c r="D5" s="54" t="s">
+      <c r="D5" s="53" t="s">
         <v>275</v>
       </c>
-      <c r="E5" s="54" t="s">
+      <c r="E5" s="53" t="s">
         <v>276</v>
       </c>
-      <c r="F5" s="57"/>
+      <c r="F5" s="56"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="54" t="s">
+      <c r="A6" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="54" t="s">
+      <c r="B6" s="53" t="s">
         <v>285</v>
       </c>
-      <c r="C6" s="54" t="s">
+      <c r="C6" s="53" t="s">
         <v>279</v>
       </c>
-      <c r="D6" s="54" t="s">
+      <c r="D6" s="53" t="s">
         <v>285</v>
       </c>
-      <c r="E6" s="54" t="s">
+      <c r="E6" s="53" t="s">
         <v>286</v>
       </c>
-      <c r="F6" s="57"/>
+      <c r="F6" s="56"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="54" t="s">
+      <c r="A7" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="B7" s="54" t="s">
+      <c r="B7" s="53" t="s">
         <v>180</v>
       </c>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="53" t="s">
         <v>279</v>
       </c>
-      <c r="D7" s="54" t="s">
+      <c r="D7" s="53" t="s">
         <v>180</v>
       </c>
-      <c r="E7" s="54" t="s">
+      <c r="E7" s="53" t="s">
         <v>286</v>
       </c>
-      <c r="F7" s="57"/>
+      <c r="F7" s="56"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="54" t="s">
+      <c r="A8" s="53" t="s">
         <v>287</v>
       </c>
-      <c r="B8" s="54" t="s">
+      <c r="B8" s="53" t="s">
         <v>288</v>
       </c>
-      <c r="C8" s="54" t="s">
+      <c r="C8" s="53" t="s">
         <v>289</v>
       </c>
-      <c r="D8" s="54" t="s">
+      <c r="D8" s="53" t="s">
         <v>290</v>
       </c>
-      <c r="E8" s="54" t="s">
+      <c r="E8" s="53" t="s">
         <v>291</v>
       </c>
-      <c r="F8" s="54" t="s">
+      <c r="F8" s="53" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="54" t="s">
+      <c r="A9" s="53" t="s">
         <v>107</v>
       </c>
-      <c r="B9" s="54" t="s">
+      <c r="B9" s="53" t="s">
         <v>293</v>
       </c>
-      <c r="C9" s="54" t="s">
+      <c r="C9" s="53" t="s">
         <v>279</v>
       </c>
-      <c r="D9" s="54" t="s">
+      <c r="D9" s="53" t="s">
         <v>275</v>
       </c>
-      <c r="E9" s="54" t="s">
+      <c r="E9" s="53" t="s">
         <v>276</v>
       </c>
-      <c r="F9" s="57"/>
+      <c r="F9" s="56"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="54" t="s">
+      <c r="A10" s="53" t="s">
         <v>294</v>
       </c>
-      <c r="B10" s="54" t="s">
+      <c r="B10" s="53" t="s">
         <v>182</v>
       </c>
-      <c r="C10" s="54" t="s">
+      <c r="C10" s="53" t="s">
         <v>279</v>
       </c>
-      <c r="D10" s="54" t="s">
+      <c r="D10" s="53" t="s">
         <v>290</v>
       </c>
-      <c r="E10" s="54" t="s">
+      <c r="E10" s="53" t="s">
         <v>276</v>
       </c>
-      <c r="F10" s="54" t="s">
+      <c r="F10" s="53" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="54" t="s">
+      <c r="A11" s="53" t="s">
         <v>296</v>
       </c>
-      <c r="B11" s="54" t="s">
+      <c r="B11" s="53" t="s">
         <v>288</v>
       </c>
-      <c r="C11" s="54" t="s">
+      <c r="C11" s="53" t="s">
         <v>289</v>
       </c>
-      <c r="D11" s="54" t="s">
+      <c r="D11" s="53" t="s">
         <v>275</v>
       </c>
-      <c r="E11" s="54" t="s">
+      <c r="E11" s="53" t="s">
         <v>276</v>
       </c>
-      <c r="F11" s="54" t="s">
+      <c r="F11" s="53" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="54" t="s">
+      <c r="A12" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="B12" s="54" t="s">
+      <c r="B12" s="53" t="s">
         <v>298</v>
       </c>
-      <c r="C12" s="54" t="s">
+      <c r="C12" s="53" t="s">
         <v>279</v>
       </c>
-      <c r="D12" s="54" t="s">
+      <c r="D12" s="53" t="s">
         <v>275</v>
       </c>
-      <c r="E12" s="54" t="s">
+      <c r="E12" s="53" t="s">
         <v>299</v>
       </c>
-      <c r="F12" s="54" t="s">
+      <c r="F12" s="53" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="55" t="s">
+      <c r="A13" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="55" t="s">
+      <c r="B13" s="54" t="s">
         <v>301</v>
       </c>
-      <c r="C13" s="55" t="s">
+      <c r="C13" s="54" t="s">
         <v>279</v>
       </c>
-      <c r="D13" s="55" t="s">
+      <c r="D13" s="54" t="s">
         <v>280</v>
       </c>
-      <c r="E13" s="55" t="s">
+      <c r="E13" s="54" t="s">
         <v>302</v>
       </c>
-      <c r="F13" s="56"/>
+      <c r="F13" s="55"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="54" t="s">
+      <c r="A14" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="B14" s="54" t="s">
+      <c r="B14" s="53" t="s">
         <v>168</v>
       </c>
-      <c r="C14" s="54" t="s">
+      <c r="C14" s="53" t="s">
         <v>279</v>
       </c>
-      <c r="D14" s="54" t="s">
+      <c r="D14" s="53" t="s">
         <v>168</v>
       </c>
-      <c r="E14" s="54" t="s">
+      <c r="E14" s="53" t="s">
         <v>286</v>
       </c>
-      <c r="F14" s="54" t="s">
+      <c r="F14" s="53" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="54" t="s">
+      <c r="A15" s="53" t="s">
         <v>86</v>
       </c>
-      <c r="B15" s="54" t="s">
+      <c r="B15" s="53" t="s">
         <v>304</v>
       </c>
-      <c r="C15" s="54" t="s">
+      <c r="C15" s="53" t="s">
         <v>274</v>
       </c>
-      <c r="D15" s="54" t="s">
+      <c r="D15" s="53" t="s">
         <v>275</v>
       </c>
-      <c r="E15" s="54" t="s">
+      <c r="E15" s="53" t="s">
         <v>276</v>
       </c>
-      <c r="F15" s="57"/>
+      <c r="F15" s="56"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="54" t="s">
+      <c r="A16" s="53" t="s">
         <v>305</v>
       </c>
-      <c r="B16" s="54" t="s">
+      <c r="B16" s="53" t="s">
         <v>288</v>
       </c>
-      <c r="C16" s="54" t="s">
+      <c r="C16" s="53" t="s">
         <v>289</v>
       </c>
-      <c r="D16" s="54" t="s">
+      <c r="D16" s="53" t="s">
         <v>275</v>
       </c>
-      <c r="E16" s="54" t="s">
+      <c r="E16" s="53" t="s">
         <v>276</v>
       </c>
-      <c r="F16" s="54" t="s">
+      <c r="F16" s="53" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="54" t="s">
+      <c r="A17" s="53" t="s">
         <v>94</v>
       </c>
-      <c r="B17" s="54" t="s">
+      <c r="B17" s="53" t="s">
         <v>307</v>
       </c>
-      <c r="C17" s="54" t="s">
+      <c r="C17" s="53" t="s">
         <v>279</v>
       </c>
-      <c r="D17" s="54" t="s">
+      <c r="D17" s="53" t="s">
         <v>308</v>
       </c>
-      <c r="E17" s="54" t="s">
+      <c r="E17" s="53" t="s">
         <v>276</v>
       </c>
-      <c r="F17" s="54" t="s">
+      <c r="F17" s="53" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="54" t="s">
+      <c r="A18" s="53" t="s">
         <v>310</v>
       </c>
-      <c r="B18" s="54" t="s">
+      <c r="B18" s="53" t="s">
         <v>169</v>
       </c>
-      <c r="C18" s="54" t="s">
+      <c r="C18" s="53" t="s">
         <v>311</v>
       </c>
-      <c r="D18" s="54" t="s">
+      <c r="D18" s="53" t="s">
         <v>290</v>
       </c>
-      <c r="E18" s="54" t="s">
+      <c r="E18" s="53" t="s">
         <v>291</v>
       </c>
-      <c r="F18" s="54" t="s">
+      <c r="F18" s="53" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="58" t="s">
+      <c r="A19" s="57" t="s">
         <v>312</v>
       </c>
-      <c r="B19" s="58" t="s">
+      <c r="B19" s="57" t="s">
         <v>288</v>
       </c>
-      <c r="C19" s="58" t="s">
+      <c r="C19" s="57" t="s">
         <v>289</v>
       </c>
-      <c r="D19" s="58" t="s">
+      <c r="D19" s="57" t="s">
         <v>313</v>
       </c>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="58"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="54" t="s">
+      <c r="A20" s="53" t="s">
         <v>141</v>
       </c>
-      <c r="B20" s="54" t="s">
+      <c r="B20" s="53" t="s">
         <v>314</v>
       </c>
-      <c r="C20" s="54" t="s">
+      <c r="C20" s="53" t="s">
         <v>279</v>
       </c>
-      <c r="D20" s="54" t="s">
+      <c r="D20" s="53" t="s">
         <v>275</v>
       </c>
-      <c r="E20" s="54" t="s">
+      <c r="E20" s="53" t="s">
         <v>276</v>
       </c>
-      <c r="F20" s="54" t="s">
+      <c r="F20" s="53" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="54" t="s">
+      <c r="A21" s="53" t="s">
         <v>315</v>
       </c>
-      <c r="B21" s="54" t="s">
+      <c r="B21" s="53" t="s">
         <v>288</v>
       </c>
-      <c r="C21" s="54" t="s">
+      <c r="C21" s="53" t="s">
         <v>289</v>
       </c>
-      <c r="D21" s="54" t="s">
+      <c r="D21" s="53" t="s">
         <v>172</v>
       </c>
-      <c r="E21" s="57"/>
-      <c r="F21" s="57"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="56"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="54" t="s">
+      <c r="A22" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="B22" s="54" t="s">
+      <c r="B22" s="53" t="s">
         <v>316</v>
       </c>
-      <c r="C22" s="54" t="s">
+      <c r="C22" s="53" t="s">
         <v>274</v>
       </c>
-      <c r="D22" s="54" t="s">
+      <c r="D22" s="53" t="s">
         <v>290</v>
       </c>
-      <c r="E22" s="54" t="s">
+      <c r="E22" s="53" t="s">
         <v>317</v>
       </c>
-      <c r="F22" s="54" t="s">
+      <c r="F22" s="53" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="54" t="s">
+      <c r="A23" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="54" t="s">
+      <c r="B23" s="53" t="s">
         <v>318</v>
       </c>
-      <c r="C23" s="54" t="s">
+      <c r="C23" s="53" t="s">
         <v>279</v>
       </c>
-      <c r="D23" s="54" t="s">
+      <c r="D23" s="53" t="s">
         <v>318</v>
       </c>
-      <c r="E23" s="54" t="s">
+      <c r="E23" s="53" t="s">
         <v>286</v>
       </c>
-      <c r="F23" s="54" t="s">
+      <c r="F23" s="53" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="58" t="s">
+      <c r="A24" s="57" t="s">
         <v>320</v>
       </c>
-      <c r="B24" s="58" t="s">
+      <c r="B24" s="57" t="s">
         <v>288</v>
       </c>
-      <c r="C24" s="58" t="s">
+      <c r="C24" s="57" t="s">
         <v>289</v>
       </c>
-      <c r="D24" s="58" t="s">
+      <c r="D24" s="57" t="s">
         <v>313</v>
       </c>
-      <c r="E24" s="59"/>
-      <c r="F24" s="59"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="58"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="54" t="s">
+      <c r="A25" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="54" t="s">
+      <c r="B25" s="53" t="s">
         <v>321</v>
       </c>
-      <c r="C25" s="54" t="s">
+      <c r="C25" s="53" t="s">
         <v>274</v>
       </c>
-      <c r="D25" s="54" t="s">
+      <c r="D25" s="53" t="s">
         <v>275</v>
       </c>
-      <c r="E25" s="54" t="s">
+      <c r="E25" s="53" t="s">
         <v>276</v>
       </c>
-      <c r="F25" s="54" t="s">
+      <c r="F25" s="53" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="54" t="s">
+      <c r="A26" s="53" t="s">
         <v>323</v>
       </c>
-      <c r="B26" s="54" t="s">
+      <c r="B26" s="53" t="s">
         <v>288</v>
       </c>
-      <c r="C26" s="54" t="s">
+      <c r="C26" s="53" t="s">
         <v>289</v>
       </c>
-      <c r="D26" s="54" t="s">
+      <c r="D26" s="53" t="s">
         <v>275</v>
       </c>
-      <c r="E26" s="54" t="s">
+      <c r="E26" s="53" t="s">
         <v>299</v>
       </c>
-      <c r="F26" s="54" t="s">
+      <c r="F26" s="53" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="54" t="s">
+      <c r="A27" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="B27" s="54" t="s">
+      <c r="B27" s="53" t="s">
         <v>175</v>
       </c>
-      <c r="C27" s="54" t="s">
+      <c r="C27" s="53" t="s">
         <v>279</v>
       </c>
-      <c r="D27" s="54" t="s">
+      <c r="D27" s="53" t="s">
         <v>175</v>
       </c>
-      <c r="E27" s="54" t="s">
+      <c r="E27" s="53" t="s">
         <v>286</v>
       </c>
-      <c r="F27" s="57"/>
+      <c r="F27" s="56"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="54" t="s">
+      <c r="A28" s="53" t="s">
         <v>104</v>
       </c>
-      <c r="B28" s="54" t="s">
+      <c r="B28" s="53" t="s">
         <v>325</v>
       </c>
-      <c r="C28" s="54" t="s">
+      <c r="C28" s="53" t="s">
         <v>274</v>
       </c>
-      <c r="D28" s="54" t="s">
+      <c r="D28" s="53" t="s">
         <v>290</v>
       </c>
-      <c r="E28" s="54" t="s">
+      <c r="E28" s="53" t="s">
         <v>299</v>
       </c>
-      <c r="F28" s="54" t="s">
+      <c r="F28" s="53" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="54" t="s">
+      <c r="A29" s="53" t="s">
         <v>327</v>
       </c>
-      <c r="B29" s="54" t="s">
+      <c r="B29" s="53" t="s">
         <v>288</v>
       </c>
-      <c r="C29" s="54" t="s">
+      <c r="C29" s="53" t="s">
         <v>289</v>
       </c>
-      <c r="D29" s="54" t="s">
+      <c r="D29" s="53" t="s">
         <v>275</v>
       </c>
-      <c r="E29" s="54" t="s">
+      <c r="E29" s="53" t="s">
         <v>299</v>
       </c>
-      <c r="F29" s="54" t="s">
+      <c r="F29" s="53" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="54" t="s">
+      <c r="A30" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="B30" s="54" t="s">
+      <c r="B30" s="53" t="s">
         <v>329</v>
       </c>
-      <c r="C30" s="54" t="s">
+      <c r="C30" s="53" t="s">
         <v>279</v>
       </c>
-      <c r="D30" s="54" t="s">
+      <c r="D30" s="53" t="s">
         <v>275</v>
       </c>
-      <c r="E30" s="54" t="s">
+      <c r="E30" s="53" t="s">
         <v>276</v>
       </c>
-      <c r="F30" s="54" t="s">
+      <c r="F30" s="53" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="54" t="s">
+      <c r="A31" s="53" t="s">
         <v>331</v>
       </c>
-      <c r="B31" s="54" t="s">
+      <c r="B31" s="53" t="s">
         <v>288</v>
       </c>
-      <c r="C31" s="54" t="s">
+      <c r="C31" s="53" t="s">
         <v>289</v>
       </c>
-      <c r="D31" s="54" t="s">
+      <c r="D31" s="53" t="s">
         <v>275</v>
       </c>
-      <c r="E31" s="54" t="s">
+      <c r="E31" s="53" t="s">
         <v>276</v>
       </c>
-      <c r="F31" s="54" t="s">
+      <c r="F31" s="53" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="54" t="s">
+      <c r="A32" s="53" t="s">
         <v>135</v>
       </c>
-      <c r="B32" s="54" t="s">
+      <c r="B32" s="53" t="s">
         <v>333</v>
       </c>
-      <c r="C32" s="54" t="s">
+      <c r="C32" s="53" t="s">
         <v>279</v>
       </c>
-      <c r="D32" s="54" t="s">
+      <c r="D32" s="53" t="s">
         <v>333</v>
       </c>
-      <c r="E32" s="54" t="s">
+      <c r="E32" s="53" t="s">
         <v>286</v>
       </c>
-      <c r="F32" s="54" t="s">
+      <c r="F32" s="53" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="54" t="s">
+      <c r="A33" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="B33" s="54" t="s">
+      <c r="B33" s="53" t="s">
         <v>335</v>
       </c>
-      <c r="C33" s="54" t="s">
+      <c r="C33" s="53" t="s">
         <v>274</v>
       </c>
-      <c r="D33" s="54" t="s">
+      <c r="D33" s="53" t="s">
         <v>290</v>
       </c>
-      <c r="E33" s="60"/>
-      <c r="F33" s="54" t="s">
+      <c r="E33" s="59"/>
+      <c r="F33" s="53" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="54" t="s">
+      <c r="A34" s="53" t="s">
         <v>128</v>
       </c>
-      <c r="B34" s="54" t="s">
+      <c r="B34" s="53" t="s">
         <v>337</v>
       </c>
-      <c r="C34" s="54" t="s">
+      <c r="C34" s="53" t="s">
         <v>274</v>
       </c>
-      <c r="D34" s="54" t="s">
+      <c r="D34" s="53" t="s">
         <v>275</v>
       </c>
-      <c r="E34" s="54" t="s">
+      <c r="E34" s="53" t="s">
         <v>276</v>
       </c>
-      <c r="F34" s="57"/>
+      <c r="F34" s="56"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="54" t="s">
+      <c r="A35" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="B35" s="54" t="s">
+      <c r="B35" s="53" t="s">
         <v>338</v>
       </c>
-      <c r="C35" s="54" t="s">
+      <c r="C35" s="53" t="s">
         <v>279</v>
       </c>
-      <c r="D35" s="54" t="s">
+      <c r="D35" s="53" t="s">
         <v>275</v>
       </c>
-      <c r="E35" s="54" t="s">
+      <c r="E35" s="53" t="s">
         <v>276</v>
       </c>
-      <c r="F35" s="54" t="s">
+      <c r="F35" s="53" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="54" t="s">
+      <c r="A36" s="53" t="s">
         <v>101</v>
       </c>
-      <c r="B36" s="54" t="s">
+      <c r="B36" s="53" t="s">
         <v>339</v>
       </c>
-      <c r="C36" s="54" t="s">
+      <c r="C36" s="53" t="s">
         <v>274</v>
       </c>
-      <c r="D36" s="54" t="s">
+      <c r="D36" s="53" t="s">
         <v>275</v>
       </c>
-      <c r="E36" s="54" t="s">
+      <c r="E36" s="53" t="s">
         <v>276</v>
       </c>
-      <c r="F36" s="54" t="s">
+      <c r="F36" s="53" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="58" t="s">
+      <c r="A37" s="57" t="s">
         <v>341</v>
       </c>
-      <c r="B37" s="58" t="s">
+      <c r="B37" s="57" t="s">
         <v>288</v>
       </c>
-      <c r="C37" s="58" t="s">
+      <c r="C37" s="57" t="s">
         <v>289</v>
       </c>
-      <c r="D37" s="58" t="s">
+      <c r="D37" s="57" t="s">
         <v>313</v>
       </c>
-      <c r="E37" s="59"/>
-      <c r="F37" s="59"/>
+      <c r="E37" s="58"/>
+      <c r="F37" s="58"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="54" t="s">
+      <c r="A38" s="53" t="s">
         <v>116</v>
       </c>
-      <c r="B38" s="54" t="s">
+      <c r="B38" s="53" t="s">
         <v>342</v>
       </c>
-      <c r="C38" s="54" t="s">
+      <c r="C38" s="53" t="s">
         <v>279</v>
       </c>
-      <c r="D38" s="54" t="s">
+      <c r="D38" s="53" t="s">
         <v>342</v>
       </c>
-      <c r="E38" s="54" t="s">
+      <c r="E38" s="53" t="s">
         <v>286</v>
       </c>
-      <c r="F38" s="54" t="s">
+      <c r="F38" s="53" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="54" t="s">
+      <c r="A39" s="53" t="s">
         <v>344</v>
       </c>
-      <c r="B39" s="54" t="s">
+      <c r="B39" s="53" t="s">
         <v>288</v>
       </c>
-      <c r="C39" s="54" t="s">
+      <c r="C39" s="53" t="s">
         <v>289</v>
       </c>
-      <c r="D39" s="54" t="s">
+      <c r="D39" s="53" t="s">
         <v>275</v>
       </c>
-      <c r="E39" s="54" t="s">
+      <c r="E39" s="53" t="s">
         <v>276</v>
       </c>
-      <c r="F39" s="54" t="s">
+      <c r="F39" s="53" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="54" t="s">
+      <c r="A40" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="B40" s="54" t="s">
+      <c r="B40" s="53" t="s">
         <v>346</v>
       </c>
-      <c r="C40" s="54" t="s">
+      <c r="C40" s="53" t="s">
         <v>279</v>
       </c>
-      <c r="D40" s="54" t="s">
+      <c r="D40" s="53" t="s">
         <v>275</v>
       </c>
-      <c r="E40" s="54" t="s">
+      <c r="E40" s="53" t="s">
         <v>276</v>
       </c>
-      <c r="F40" s="57"/>
+      <c r="F40" s="56"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="54" t="s">
+      <c r="A41" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="B41" s="54" t="s">
+      <c r="B41" s="53" t="s">
         <v>181</v>
       </c>
-      <c r="C41" s="54" t="s">
+      <c r="C41" s="53" t="s">
         <v>279</v>
       </c>
-      <c r="D41" s="54" t="s">
+      <c r="D41" s="53" t="s">
         <v>181</v>
       </c>
-      <c r="E41" s="54" t="s">
+      <c r="E41" s="53" t="s">
         <v>286</v>
       </c>
-      <c r="F41" s="54" t="s">
+      <c r="F41" s="53" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="54" t="s">
+      <c r="A42" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="B42" s="54" t="s">
+      <c r="B42" s="53" t="s">
         <v>348</v>
       </c>
-      <c r="C42" s="54" t="s">
+      <c r="C42" s="53" t="s">
         <v>274</v>
       </c>
-      <c r="D42" s="54" t="s">
+      <c r="D42" s="53" t="s">
         <v>290</v>
       </c>
-      <c r="E42" s="54" t="s">
+      <c r="E42" s="53" t="s">
         <v>317</v>
       </c>
-      <c r="F42" s="54" t="s">
+      <c r="F42" s="53" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="54" t="s">
+      <c r="A43" s="53" t="s">
         <v>125</v>
       </c>
-      <c r="B43" s="54" t="s">
+      <c r="B43" s="53" t="s">
         <v>349</v>
       </c>
-      <c r="C43" s="54" t="s">
+      <c r="C43" s="53" t="s">
         <v>274</v>
       </c>
-      <c r="D43" s="54" t="s">
+      <c r="D43" s="53" t="s">
         <v>275</v>
       </c>
-      <c r="E43" s="54" t="s">
+      <c r="E43" s="53" t="s">
         <v>276</v>
       </c>
-      <c r="F43" s="57"/>
+      <c r="F43" s="56"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="54" t="s">
+      <c r="A44" s="53" t="s">
         <v>350</v>
       </c>
-      <c r="B44" s="54" t="s">
+      <c r="B44" s="53" t="s">
         <v>288</v>
       </c>
-      <c r="C44" s="54" t="s">
+      <c r="C44" s="53" t="s">
         <v>289</v>
       </c>
-      <c r="D44" s="54" t="s">
+      <c r="D44" s="53" t="s">
         <v>275</v>
       </c>
-      <c r="E44" s="54" t="s">
+      <c r="E44" s="53" t="s">
         <v>276</v>
       </c>
-      <c r="F44" s="57"/>
+      <c r="F44" s="56"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="54" t="s">
+      <c r="A45" s="53" t="s">
         <v>89</v>
       </c>
-      <c r="B45" s="54" t="s">
+      <c r="B45" s="53" t="s">
         <v>351</v>
       </c>
-      <c r="C45" s="54" t="s">
+      <c r="C45" s="53" t="s">
         <v>274</v>
       </c>
-      <c r="D45" s="54" t="s">
+      <c r="D45" s="53" t="s">
         <v>275</v>
       </c>
-      <c r="E45" s="54" t="s">
+      <c r="E45" s="53" t="s">
         <v>276</v>
       </c>
-      <c r="F45" s="54" t="s">
+      <c r="F45" s="53" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="54" t="s">
+      <c r="A46" s="53" t="s">
         <v>131</v>
       </c>
-      <c r="B46" s="54" t="s">
+      <c r="B46" s="53" t="s">
         <v>353</v>
       </c>
-      <c r="C46" s="54" t="s">
+      <c r="C46" s="53" t="s">
         <v>279</v>
       </c>
-      <c r="D46" s="54" t="s">
+      <c r="D46" s="53" t="s">
         <v>275</v>
       </c>
-      <c r="E46" s="54" t="s">
+      <c r="E46" s="53" t="s">
         <v>276</v>
       </c>
-      <c r="F46" s="54" t="s">
+      <c r="F46" s="53" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="61"/>
+      <c r="A47" s="60"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Antonio-Feed/__FeedPartsInventory.xlsx
+++ b/Antonio-Feed/__FeedPartsInventory.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pollak/Documents/GitHub/Front-Page/Antonio-Feed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C16661E-6B39-9F43-A4D6-AC2DBB534B4D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3951ED3A-4C9D-A34F-8B23-77E209CDD181}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="69100" yWindow="460" windowWidth="35840" windowHeight="19760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="45600" yWindow="460" windowWidth="35840" windowHeight="19760" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parts At ATA" sheetId="1" r:id="rId1"/>
     <sheet name="Feed Retrofit Overview" sheetId="2" r:id="rId2"/>
     <sheet name="Vibration Measurements" sheetId="7" r:id="rId3"/>
     <sheet name="Parts at SRI" sheetId="3" r:id="rId4"/>
-    <sheet name="LNAs" sheetId="4" r:id="rId5"/>
-    <sheet name="PAX Boxes" sheetId="6" r:id="rId6"/>
+    <sheet name="Antenna Retrofit" sheetId="8" r:id="rId5"/>
+    <sheet name="LNAs" sheetId="4" r:id="rId6"/>
+    <sheet name="PAX Boxes" sheetId="6" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="xx_1" localSheetId="0">'Parts At ATA'!$A$2:$G$44</definedName>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="465">
   <si>
     <t>Antenna Inventory</t>
   </si>
@@ -1421,6 +1422,27 @@
   </si>
   <si>
     <t>sn0017A</t>
+  </si>
+  <si>
+    <t>5C4-001</t>
+  </si>
+  <si>
+    <t>Antennas</t>
+  </si>
+  <si>
+    <t>Feed installed</t>
+  </si>
+  <si>
+    <t>Feed Version</t>
+  </si>
+  <si>
+    <t>V1</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>YES</t>
   </si>
 </sst>
 </file>
@@ -1591,7 +1613,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1660,12 +1682,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor rgb="FFFF9900"/>
       </patternFill>
@@ -1688,8 +1704,44 @@
         <bgColor rgb="FFFF9900"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FF00FF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -1887,12 +1939,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="150">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2037,10 +2113,9 @@
     <xf numFmtId="0" fontId="21" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2094,7 +2169,9 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2119,13 +2196,41 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2347,7 +2452,7 @@
   <dimension ref="A1:Q1001"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection sqref="A1:G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
@@ -2371,25 +2476,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16">
-      <c r="A1" s="124" t="s">
+      <c r="A1" s="125" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="125"/>
-      <c r="C1" s="125"/>
-      <c r="D1" s="125"/>
-      <c r="E1" s="125"/>
-      <c r="F1" s="125"/>
-      <c r="G1" s="125"/>
-      <c r="H1" s="126"/>
-      <c r="I1" s="127"/>
-      <c r="J1" s="127"/>
-      <c r="K1" s="126"/>
-      <c r="L1" s="127"/>
-      <c r="M1" s="127"/>
-      <c r="N1" s="127"/>
-      <c r="O1" s="127"/>
-      <c r="P1" s="127"/>
-      <c r="Q1" s="127"/>
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="126"/>
+      <c r="G1" s="126"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="128"/>
+      <c r="J1" s="128"/>
+      <c r="K1" s="127"/>
+      <c r="L1" s="128"/>
+      <c r="M1" s="128"/>
+      <c r="N1" s="128"/>
+      <c r="O1" s="128"/>
+      <c r="P1" s="128"/>
+      <c r="Q1" s="128"/>
     </row>
     <row r="2" spans="1:17" ht="16">
       <c r="A2" s="1" t="s">
@@ -2524,9 +2629,9 @@
       <c r="C6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="91"/>
-      <c r="E6" s="91"/>
-      <c r="F6" s="91"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="90"/>
+      <c r="F6" s="90"/>
       <c r="H6" s="77"/>
       <c r="I6" s="77"/>
       <c r="J6" s="77"/>
@@ -2549,9 +2654,9 @@
       <c r="C7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="92"/>
-      <c r="E7" s="91"/>
-      <c r="F7" s="91"/>
+      <c r="D7" s="91"/>
+      <c r="E7" s="90"/>
+      <c r="F7" s="90"/>
       <c r="G7" s="9"/>
       <c r="H7" s="77"/>
       <c r="I7" s="77"/>
@@ -2949,13 +3054,13 @@
       <c r="C21" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D21" s="95" t="s">
+      <c r="D21" s="94" t="s">
         <v>361</v>
       </c>
-      <c r="E21" s="91" t="s">
+      <c r="E21" s="90" t="s">
         <v>131</v>
       </c>
-      <c r="F21" s="91"/>
+      <c r="F21" s="90"/>
       <c r="H21" s="77"/>
       <c r="I21" s="77"/>
       <c r="J21" s="77"/>
@@ -2978,9 +3083,9 @@
       <c r="C22" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D22" s="91"/>
-      <c r="E22" s="91"/>
-      <c r="F22" s="91"/>
+      <c r="D22" s="90"/>
+      <c r="E22" s="90"/>
+      <c r="F22" s="90"/>
       <c r="H22" s="77"/>
       <c r="I22" s="77"/>
       <c r="J22" s="77"/>
@@ -3003,9 +3108,9 @@
       <c r="C23" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D23" s="91"/>
-      <c r="E23" s="91"/>
-      <c r="F23" s="91"/>
+      <c r="D23" s="90"/>
+      <c r="E23" s="90"/>
+      <c r="F23" s="90"/>
       <c r="H23" s="77"/>
       <c r="I23" s="77"/>
       <c r="J23" s="77"/>
@@ -3028,13 +3133,13 @@
       <c r="C24" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D24" s="95" t="s">
+      <c r="D24" s="94" t="s">
         <v>358</v>
       </c>
-      <c r="E24" s="94" t="s">
+      <c r="E24" s="93" t="s">
         <v>305</v>
       </c>
-      <c r="F24" s="91"/>
+      <c r="F24" s="90"/>
       <c r="G24" s="9"/>
       <c r="H24" s="77"/>
       <c r="I24" s="77"/>
@@ -3090,9 +3195,9 @@
       <c r="C26" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D26" s="92"/>
-      <c r="E26" s="91"/>
-      <c r="F26" s="91"/>
+      <c r="D26" s="91"/>
+      <c r="E26" s="90"/>
+      <c r="F26" s="90"/>
       <c r="G26" s="9"/>
       <c r="H26" s="77"/>
       <c r="I26" s="77"/>
@@ -3116,9 +3221,9 @@
       <c r="C27" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D27" s="91"/>
-      <c r="E27" s="91"/>
-      <c r="F27" s="93"/>
+      <c r="D27" s="90"/>
+      <c r="E27" s="90"/>
+      <c r="F27" s="92"/>
       <c r="H27" s="77"/>
       <c r="I27" s="77"/>
       <c r="J27" s="77"/>
@@ -3683,38 +3788,38 @@
       <c r="A58" s="9"/>
     </row>
     <row r="59" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A59" s="128" t="s">
+      <c r="A59" s="129" t="s">
         <v>158</v>
       </c>
-      <c r="B59" s="123"/>
-      <c r="C59" s="123"/>
+      <c r="B59" s="124"/>
+      <c r="C59" s="124"/>
     </row>
     <row r="60" spans="1:6" ht="15.75" customHeight="1">
       <c r="A60" s="12"/>
     </row>
     <row r="61" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A61" s="122" t="s">
+      <c r="A61" s="123" t="s">
         <v>150</v>
       </c>
-      <c r="B61" s="123"/>
-      <c r="C61" s="122" t="s">
+      <c r="B61" s="124"/>
+      <c r="C61" s="123" t="s">
         <v>159</v>
       </c>
-      <c r="D61" s="123"/>
-      <c r="E61" s="123"/>
-      <c r="F61" s="123"/>
+      <c r="D61" s="124"/>
+      <c r="E61" s="124"/>
+      <c r="F61" s="124"/>
     </row>
     <row r="62" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A62" s="122" t="s">
+      <c r="A62" s="123" t="s">
         <v>160</v>
       </c>
-      <c r="B62" s="123"/>
-      <c r="C62" s="122" t="s">
+      <c r="B62" s="124"/>
+      <c r="C62" s="123" t="s">
         <v>161</v>
       </c>
-      <c r="D62" s="123"/>
-      <c r="E62" s="123"/>
-      <c r="F62" s="123"/>
+      <c r="D62" s="124"/>
+      <c r="E62" s="124"/>
+      <c r="F62" s="124"/>
     </row>
     <row r="63" spans="1:6" ht="15.75" customHeight="1"/>
     <row r="64" spans="1:6" ht="15.75" customHeight="1"/>
@@ -4679,10 +4784,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="J22" sqref="A1:J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
@@ -4695,20 +4800,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1" thickBot="1">
-      <c r="A1" s="124" t="s">
+      <c r="A1" s="125" t="s">
         <v>162</v>
       </c>
-      <c r="B1" s="129"/>
-      <c r="C1" s="130" t="s">
+      <c r="B1" s="130"/>
+      <c r="C1" s="131" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="126"/>
-      <c r="E1" s="126"/>
-      <c r="F1" s="126"/>
-      <c r="G1" s="126"/>
-      <c r="H1" s="126"/>
-      <c r="I1" s="126"/>
-      <c r="J1" s="126"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="127"/>
       <c r="K1" s="85"/>
       <c r="L1" s="85"/>
     </row>
@@ -4750,667 +4855,685 @@
         <v>400</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="16">
-      <c r="A3" s="18" t="str">
+    <row r="3" spans="1:12" s="122" customFormat="1" ht="16">
+      <c r="A3" s="27" t="s">
+        <v>458</v>
+      </c>
+      <c r="B3" s="140" t="s">
+        <v>172</v>
+      </c>
+      <c r="C3" s="138"/>
+      <c r="D3" s="139"/>
+      <c r="E3" s="139"/>
+      <c r="F3" s="139"/>
+      <c r="G3" s="139"/>
+      <c r="H3" s="139"/>
+      <c r="I3" s="139"/>
+      <c r="J3" s="139"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="80"/>
+    </row>
+    <row r="4" spans="1:12" ht="16">
+      <c r="A4" s="18" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1G8ecO5ODQmn8FX8jzQ962D928BpQ6iUm","5C4-002")</f>
         <v>5C4-002</v>
       </c>
-      <c r="B3" s="87" t="s">
+      <c r="B4" s="140" t="s">
         <v>172</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C4" s="23" t="s">
         <v>167</v>
       </c>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-    </row>
-    <row r="4" spans="1:12" ht="16">
-      <c r="A4" s="20" t="str">
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+    </row>
+    <row r="5" spans="1:12" ht="16">
+      <c r="A5" s="20" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1X_yNido1T9NRAtsXoJ-h2bFXlpLfFW-N","5C4-003")</f>
         <v>5C4-003</v>
       </c>
-      <c r="B4" s="89" t="s">
+      <c r="B5" s="88" t="s">
         <v>166</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C5" s="23" t="s">
         <v>167</v>
       </c>
-      <c r="D4" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="K4" s="80"/>
-      <c r="L4" s="80"/>
-    </row>
-    <row r="5" spans="1:12" ht="16">
-      <c r="A5" s="20" t="str">
+      <c r="D5" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="80"/>
+      <c r="L5" s="80"/>
+    </row>
+    <row r="6" spans="1:12" ht="16">
+      <c r="A6" s="20" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1WeIiiMAp6TYYdsybsr5MvXeiX_cVX9j0","5C4-004")</f>
         <v>5C4-004</v>
       </c>
-      <c r="B5" s="81" t="s">
+      <c r="B6" s="81" t="s">
         <v>285</v>
       </c>
-      <c r="C5" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="K5" s="80" t="s">
+      <c r="C6" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="80" t="s">
         <v>441</v>
       </c>
-      <c r="L5" s="80" t="s">
+      <c r="L6" s="80" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="16">
-      <c r="A6" s="20" t="str">
+    <row r="7" spans="1:12" ht="16">
+      <c r="A7" s="20" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1rFsrgDjf_nAuKofi6JoxLvoaGo8A4adh","5C4-005")</f>
         <v>5C4-005</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B7" s="25" t="s">
         <v>168</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="107" t="s">
+      <c r="C7" s="22"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="106" t="s">
         <v>438</v>
       </c>
-      <c r="L6" s="80"/>
-    </row>
-    <row r="7" spans="1:12" ht="16">
-      <c r="A7" s="20" t="str">
+      <c r="L7" s="80"/>
+    </row>
+    <row r="8" spans="1:12" ht="16">
+      <c r="A8" s="20" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1vHgkPcaz684Ip98C0QpWVB-bTK7EvvdW","5C4-006")</f>
         <v>5C4-006</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B8" s="25" t="s">
         <v>169</v>
       </c>
-      <c r="C7" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="I7" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="J7" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="K7" s="80" t="s">
+      <c r="C8" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" s="80" t="s">
         <v>404</v>
       </c>
-      <c r="L7" s="80"/>
-    </row>
-    <row r="8" spans="1:12" ht="16">
-      <c r="A8" s="27" t="s">
+      <c r="L8" s="80"/>
+    </row>
+    <row r="9" spans="1:12" ht="16">
+      <c r="A9" s="27" t="s">
         <v>170</v>
       </c>
-      <c r="B8" s="88" t="s">
+      <c r="B9" s="87" t="s">
         <v>293</v>
       </c>
-      <c r="C8" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="I8" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="J8" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="K8" s="80" t="s">
+      <c r="C9" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="J9" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" s="80" t="s">
         <v>442</v>
       </c>
-      <c r="L8" s="80"/>
-    </row>
-    <row r="9" spans="1:12" ht="16">
-      <c r="A9" s="20" t="str">
+      <c r="L9" s="80"/>
+    </row>
+    <row r="10" spans="1:12" ht="16">
+      <c r="A10" s="20" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1-3h2_HbCYYPIJxLORcasFd7NqbLvOw-C","5C4-008")</f>
         <v>5C4-008</v>
       </c>
-      <c r="B9" s="81" t="s">
+      <c r="B10" s="81" t="s">
         <v>408</v>
       </c>
-      <c r="C9" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="I9" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="J9" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="K9" s="80" t="s">
+      <c r="C10" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="J10" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10" s="80" t="s">
         <v>407</v>
       </c>
-      <c r="L9" s="80" t="s">
+      <c r="L10" s="80" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="16">
-      <c r="A10" s="20" t="str">
+    <row r="11" spans="1:12" ht="16">
+      <c r="A11" s="20" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1EhIIjKRxAQ858Wo2OYQq3GdqbI2ok5Af","5C4-009")</f>
         <v>5C4-009</v>
       </c>
-      <c r="B10" s="86" t="s">
+      <c r="B11" s="86" t="s">
         <v>166</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C11" s="23" t="s">
         <v>167</v>
       </c>
-      <c r="D10" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="I10" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="J10" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="K10" s="80"/>
-      <c r="L10" s="80"/>
-    </row>
-    <row r="11" spans="1:12" ht="16">
-      <c r="A11" s="20" t="str">
+      <c r="D11" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="J11" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="K11" s="80"/>
+      <c r="L11" s="80"/>
+    </row>
+    <row r="12" spans="1:12" ht="16">
+      <c r="A12" s="20" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1FrnQUGPHDhAq4DHWLuBTTfQpLNsdUckc","5C4-010")</f>
         <v>5C4-010</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B12" s="21" t="s">
         <v>377</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C12" s="23" t="s">
         <v>167</v>
       </c>
-      <c r="D11" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="H11" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="I11" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="J11" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="K11" s="80"/>
-      <c r="L11" s="80"/>
-    </row>
-    <row r="12" spans="1:12" ht="16">
-      <c r="A12" s="20" t="str">
+      <c r="D12" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="J12" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12" s="80"/>
+      <c r="L12" s="80"/>
+    </row>
+    <row r="13" spans="1:12" ht="16">
+      <c r="A13" s="20" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1hJ1DyO35m4DO0phNhkoobK76R8Ql-DTn","5C4-011")</f>
         <v>5C4-011</v>
       </c>
-      <c r="B12" s="81" t="s">
+      <c r="B13" s="81" t="s">
         <v>298</v>
       </c>
-      <c r="C12" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="H12" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="I12" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="J12" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="K12" s="80" t="s">
+      <c r="C13" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="J13" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="K13" s="80" t="s">
         <v>399</v>
       </c>
-      <c r="L12" s="80" t="s">
+      <c r="L13" s="80" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="16">
-      <c r="A13" s="20" t="str">
+    <row r="14" spans="1:12" ht="16">
+      <c r="A14" s="20" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1MyuBrs08Ryi2pvVUeI0hW4p24qsMsUL4","5C4-012")</f>
         <v>5C4-012</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B14" s="25" t="s">
         <v>175</v>
       </c>
-      <c r="C13" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="H13" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="I13" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="J13" s="29" t="s">
+      <c r="C14" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="J14" s="29" t="s">
         <v>176</v>
       </c>
-      <c r="K13" s="107" t="s">
+      <c r="K14" s="106" t="s">
         <v>435</v>
       </c>
-      <c r="L13" s="80"/>
-    </row>
-    <row r="14" spans="1:12" ht="16">
-      <c r="A14" s="20" t="str">
+      <c r="L14" s="80"/>
+    </row>
+    <row r="15" spans="1:12" ht="16">
+      <c r="A15" s="20" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/19GonN6xbnfrGARLvh-LLFUsxF-EngP3u","5C4-013")</f>
         <v>5C4-013</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B15" s="25" t="s">
         <v>346</v>
       </c>
-      <c r="C14" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="G14" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="H14" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="I14" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="J14" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="K14" s="80" t="s">
+      <c r="C15" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="J15" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="K15" s="80" t="s">
         <v>434</v>
       </c>
-      <c r="L14" s="80"/>
-    </row>
-    <row r="15" spans="1:12" ht="16">
-      <c r="A15" s="20" t="str">
+      <c r="L15" s="80"/>
+    </row>
+    <row r="16" spans="1:12" ht="16">
+      <c r="A16" s="20" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1LUZSYEAIfX8EFKKfjUSeyrC0JCfBfe8h","5C4-014")</f>
         <v>5C4-014</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B16" s="25" t="s">
         <v>329</v>
       </c>
-      <c r="C15" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="H15" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="I15" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="J15" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="K15" s="80" t="s">
+      <c r="C16" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="J16" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="K16" s="80" t="s">
         <v>403</v>
       </c>
-      <c r="L15" s="80" t="s">
+      <c r="L16" s="80" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="16">
-      <c r="A16" s="20" t="str">
+    <row r="17" spans="1:12" ht="16">
+      <c r="A17" s="20" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1GhnG5G_BN5lBSXzegcxU-3TuUUTEd6xm","5C4-015")</f>
         <v>5C4-015</v>
       </c>
-      <c r="B16" s="86" t="s">
+      <c r="B17" s="86" t="s">
         <v>166</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C17" s="23" t="s">
         <v>167</v>
       </c>
-      <c r="D16" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="F16" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="G16" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="H16" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="I16" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="J16" s="23" t="s">
+      <c r="D17" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="J17" s="23" t="s">
         <v>167</v>
       </c>
-      <c r="K16" s="80"/>
-      <c r="L16" s="80"/>
-    </row>
-    <row r="17" spans="1:12" ht="16">
-      <c r="A17" s="30" t="s">
+      <c r="K17" s="80"/>
+      <c r="L17" s="80"/>
+    </row>
+    <row r="18" spans="1:12" ht="16">
+      <c r="A18" s="30" t="s">
         <v>179</v>
       </c>
-      <c r="B17" s="121" t="s">
+      <c r="B18" s="120" t="s">
         <v>166</v>
       </c>
-      <c r="C17" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="F17" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="G17" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="H17" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="I17" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="J17" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="K17" s="80" t="s">
+      <c r="C18" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="H18" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="J18" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="K18" s="80" t="s">
         <v>379</v>
       </c>
-      <c r="L17" s="80"/>
-    </row>
-    <row r="18" spans="1:12" ht="16">
-      <c r="A18" s="20" t="str">
+      <c r="L18" s="80"/>
+    </row>
+    <row r="19" spans="1:12" ht="16">
+      <c r="A19" s="20" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1wcHyiuVUbBeL9ODgyYP-lyy7yM1vMH3u","5C4-017")</f>
         <v>5C4-017</v>
       </c>
-      <c r="B18" s="86" t="s">
+      <c r="B19" s="86" t="s">
         <v>166</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C19" s="23" t="s">
         <v>167</v>
       </c>
-      <c r="D18" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="E18" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="F18" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="G18" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="H18" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="I18" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="J18" s="23" t="s">
+      <c r="D19" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="H19" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="J19" s="23" t="s">
         <v>167</v>
       </c>
-      <c r="K18" s="80"/>
-      <c r="L18" s="80"/>
-    </row>
-    <row r="19" spans="1:12" ht="16">
-      <c r="A19" s="31" t="s">
+      <c r="K19" s="80"/>
+      <c r="L19" s="80"/>
+    </row>
+    <row r="20" spans="1:12" ht="16">
+      <c r="A20" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="B19" s="25" t="s">
+      <c r="B20" s="25" t="s">
         <v>180</v>
       </c>
-      <c r="C19" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="E19" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="F19" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="G19" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="H19" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="I19" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="J19" s="32" t="s">
+      <c r="C20" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="H20" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="I20" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="J20" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="K19" s="80" t="s">
+      <c r="K20" s="80" t="s">
         <v>437</v>
       </c>
-      <c r="L19" s="80"/>
-    </row>
-    <row r="20" spans="1:12" ht="16">
-      <c r="A20" s="20" t="str">
+      <c r="L20" s="80"/>
+    </row>
+    <row r="21" spans="1:12" ht="16">
+      <c r="A21" s="20" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1x-FjLa7p2gJDSbRaODzjs8ijaA9SGLtW","5C4-019")</f>
         <v>5C4-019</v>
       </c>
-      <c r="B20" s="25" t="s">
+      <c r="B21" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="C20" s="32"/>
-      <c r="D20" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="E20" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="F20" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="G20" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="80" t="s">
+      <c r="C21" s="32"/>
+      <c r="D21" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="G21" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="80" t="s">
         <v>436</v>
       </c>
-      <c r="L20" s="80"/>
-    </row>
-    <row r="21" spans="1:12" ht="16">
-      <c r="A21" s="20" t="str">
+      <c r="L21" s="80"/>
+    </row>
+    <row r="22" spans="1:12" ht="16">
+      <c r="A22" s="20" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1wMVARUxnYHeiTbbEodCmZFb_vx9FkRVr","5C4-020")</f>
         <v>5C4-020</v>
       </c>
-      <c r="B21" s="82" t="s">
+      <c r="B22" s="82" t="s">
         <v>182</v>
       </c>
-      <c r="C21" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="D21" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="E21" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="F21" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="G21" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="H21" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="I21" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="J21" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="K21" s="80" t="s">
+      <c r="C22" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="G22" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="H22" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="I22" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="J22" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="K22" s="80" t="s">
         <v>376</v>
       </c>
-      <c r="L21" s="80"/>
+      <c r="L22" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5438,20 +5561,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="17" thickBot="1">
-      <c r="A1" s="131" t="s">
+      <c r="A1" s="132" t="s">
         <v>162</v>
       </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="131" t="s">
+      <c r="B1" s="133"/>
+      <c r="C1" s="132" t="s">
         <v>367</v>
       </c>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133"/>
-      <c r="G1" s="133"/>
-      <c r="H1" s="133"/>
-      <c r="I1" s="133"/>
-      <c r="J1" s="132"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
+      <c r="G1" s="134"/>
+      <c r="H1" s="134"/>
+      <c r="I1" s="134"/>
+      <c r="J1" s="133"/>
     </row>
     <row r="2" spans="1:10" ht="17" thickBot="1">
       <c r="A2" s="74" t="s">
@@ -5731,7 +5854,7 @@
       <c r="C16" s="71" t="s">
         <v>384</v>
       </c>
-      <c r="D16" s="90" t="s">
+      <c r="D16" s="89" t="s">
         <v>385</v>
       </c>
       <c r="E16" s="69"/>
@@ -7219,6 +7342,682 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFF4910D-2B19-014E-928F-E015E5BABD78}">
+  <dimension ref="A1:F44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="17" thickBot="1">
+      <c r="A1" s="125" t="s">
+        <v>459</v>
+      </c>
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="79" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="79" t="s">
+        <v>461</v>
+      </c>
+      <c r="C2" s="79" t="s">
+        <v>460</v>
+      </c>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="143" t="str">
+        <f>HYPERLINK("https://drive.google.com/open?id=1h79fqthLoRJDjhC2klnjbkG8MB2JL2Hy","1A")</f>
+        <v>1A</v>
+      </c>
+      <c r="B3" s="145" t="s">
+        <v>462</v>
+      </c>
+      <c r="C3" s="148" t="s">
+        <v>464</v>
+      </c>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="102"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="143" t="str">
+        <f>HYPERLINK("https://drive.google.com/open?id=1OPl2VmHH1ZeMZjQWNCCkQkA6bOfyIeqj","1B")</f>
+        <v>1B</v>
+      </c>
+      <c r="B4" s="145" t="s">
+        <v>462</v>
+      </c>
+      <c r="C4" s="148" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="122"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="144" t="str">
+        <f>HYPERLINK("https://drive.google.com/open?id=1_67Lwh4ATjaUkKTpdhqNA2vhhSxMhfoh","1C")</f>
+        <v>1C</v>
+      </c>
+      <c r="B5" s="146" t="s">
+        <v>463</v>
+      </c>
+      <c r="C5" s="148" t="s">
+        <v>464</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="144" t="str">
+        <f>HYPERLINK("https://drive.google.com/open?id=1RDZathABUe1AxNllos18oBRUGkUw-BAb","1D")</f>
+        <v>1D</v>
+      </c>
+      <c r="B6" s="145" t="s">
+        <v>462</v>
+      </c>
+      <c r="C6" s="148" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="90"/>
+      <c r="E6" s="90"/>
+      <c r="F6" s="122"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="144" t="str">
+        <f>HYPERLINK("https://drive.google.com/open?id=1B7jEgQfvgjZIKbfW8eR9qm2PDLYRcFFX","1E")</f>
+        <v>1E</v>
+      </c>
+      <c r="B7" s="146" t="s">
+        <v>463</v>
+      </c>
+      <c r="C7" s="149" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="90"/>
+      <c r="E7" s="90"/>
+      <c r="F7" s="9"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="144" t="str">
+        <f>HYPERLINK("https://drive.google.com/open?id=1y8psJsldf8GOPKXdI3_7jAN-0VefmuVb","1F")</f>
+        <v>1F</v>
+      </c>
+      <c r="B8" s="145" t="s">
+        <v>462</v>
+      </c>
+      <c r="C8" s="148" t="s">
+        <v>464</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="122"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="143" t="str">
+        <f>HYPERLINK("https://drive.google.com/open?id=1Ak0bagtonjeBe0T45ml7mh9V5vKH_FoI","1G")</f>
+        <v>1G</v>
+      </c>
+      <c r="B9" s="146" t="s">
+        <v>463</v>
+      </c>
+      <c r="C9" s="149" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="143" t="str">
+        <f>HYPERLINK("https://drive.google.com/open?id=15tp_vGgbK5-4zzthz0W8wuq2zgKokja6","1H")</f>
+        <v>1H</v>
+      </c>
+      <c r="B10" s="146" t="s">
+        <v>463</v>
+      </c>
+      <c r="C10" s="148" t="s">
+        <v>464</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="122"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="143" t="str">
+        <f>HYPERLINK("https://drive.google.com/open?id=1EMft8Du0dvrSSlstsShqV16Nnrlb4EO_","1J")</f>
+        <v>1J</v>
+      </c>
+      <c r="B11" s="145" t="s">
+        <v>462</v>
+      </c>
+      <c r="C11" s="148" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="143" t="str">
+        <f>HYPERLINK("https://drive.google.com/open?id=1B-AwkTkUdHQS0dThuP6mM5L_0XIFZ2QS","1K")</f>
+        <v>1K</v>
+      </c>
+      <c r="B12" s="146" t="s">
+        <v>463</v>
+      </c>
+      <c r="C12" s="148" t="s">
+        <v>464</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="122"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="143" t="str">
+        <f>HYPERLINK("https://drive.google.com/open?id=1XILFfrJerwAeHeN4xKdQH-99VN9y0QS7","2A")</f>
+        <v>2A</v>
+      </c>
+      <c r="B13" s="146" t="s">
+        <v>463</v>
+      </c>
+      <c r="C13" s="148" t="s">
+        <v>464</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="122"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="143" t="str">
+        <f>HYPERLINK("https://drive.google.com/open?id=1i7lErxBcw13LxRubiAB_0upxTGrTLBvi","2B")</f>
+        <v>2B</v>
+      </c>
+      <c r="B14" s="146" t="s">
+        <v>463</v>
+      </c>
+      <c r="C14" s="148" t="s">
+        <v>464</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="122"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="143" t="str">
+        <f>HYPERLINK("https://drive.google.com/open?id=1HmSkhlRiy_w_xIcPrlD-Gu21Q1sHCajk","2C")</f>
+        <v>2C</v>
+      </c>
+      <c r="B15" s="147" t="s">
+        <v>463</v>
+      </c>
+      <c r="C15" s="148" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="122"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="143" t="str">
+        <f>HYPERLINK("https://drive.google.com/open?id=1ih9AM9nSu6WpURV8EnXu6Q1HkOh5dSXM","2D")</f>
+        <v>2D</v>
+      </c>
+      <c r="B16" s="145" t="s">
+        <v>462</v>
+      </c>
+      <c r="C16" s="148" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="122"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="143" t="str">
+        <f>HYPERLINK("https://drive.google.com/open?id=1ilbwUzFLn2Zr9CQ_v673T9KjSALf_GzB","2E")</f>
+        <v>2E</v>
+      </c>
+      <c r="B17" s="146" t="s">
+        <v>463</v>
+      </c>
+      <c r="C17" s="148" t="s">
+        <v>464</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="122"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="143" t="str">
+        <f>HYPERLINK("https://drive.google.com/open?id=1H2B7fJmOymk8ZeyITqVgqJIR9EbewGjs","2F")</f>
+        <v>2F</v>
+      </c>
+      <c r="B18" s="145" t="s">
+        <v>462</v>
+      </c>
+      <c r="C18" s="148" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="122"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="143" t="str">
+        <f>HYPERLINK("https://drive.google.com/open?id=1GXDi1coA9HtIo5F2GTLcPhpAh_IiHrmJ","2G")</f>
+        <v>2G</v>
+      </c>
+      <c r="B19" s="145" t="s">
+        <v>462</v>
+      </c>
+      <c r="C19" s="148" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="143" t="str">
+        <f>HYPERLINK("https://drive.google.com/open?id=18itspidwzvb4KFHkqj1122TxuhHxILwX","2H")</f>
+        <v>2H</v>
+      </c>
+      <c r="B20" s="146" t="s">
+        <v>463</v>
+      </c>
+      <c r="C20" s="148" t="s">
+        <v>464</v>
+      </c>
+      <c r="D20" s="121"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="122"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="143" t="str">
+        <f>HYPERLINK("https://drive.google.com/open?id=12YgGEJrua5a-agu15lV4vezflw1cOjQ4","2J")</f>
+        <v>2J</v>
+      </c>
+      <c r="B21" s="146" t="s">
+        <v>463</v>
+      </c>
+      <c r="C21" s="148" t="s">
+        <v>464</v>
+      </c>
+      <c r="D21" s="90"/>
+      <c r="E21" s="90"/>
+      <c r="F21" s="122"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="143" t="str">
+        <f>HYPERLINK("https://drive.google.com/open?id=1mdMrKj4CCNPy7BlChSDOU2hQAJONhZzU","2K")</f>
+        <v>2K</v>
+      </c>
+      <c r="B22" s="147" t="s">
+        <v>463</v>
+      </c>
+      <c r="C22" s="148" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="90"/>
+      <c r="E22" s="90"/>
+      <c r="F22" s="122"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="143" t="str">
+        <f>HYPERLINK("https://drive.google.com/open?id=14mzIl-szkFL_WWXlsFZ9T_x3Mt5RAOn0","2L")</f>
+        <v>2L</v>
+      </c>
+      <c r="B23" s="147" t="s">
+        <v>463</v>
+      </c>
+      <c r="C23" s="148" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="90"/>
+      <c r="E23" s="90"/>
+      <c r="F23" s="122"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="143" t="str">
+        <f>HYPERLINK("https://drive.google.com/open?id=1-X_VRvOqUUm_bcQ792NJw8TTxR5Kl3lr","2M")</f>
+        <v>2M</v>
+      </c>
+      <c r="B24" s="146" t="s">
+        <v>463</v>
+      </c>
+      <c r="C24" s="148" t="s">
+        <v>464</v>
+      </c>
+      <c r="D24" s="121"/>
+      <c r="E24" s="90"/>
+      <c r="F24" s="9"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="143" t="str">
+        <f>HYPERLINK("https://drive.google.com/open?id=1ofYuI7zJYOx0Em5kOgymDe9L2TWaIZ-_","3C")</f>
+        <v>3C</v>
+      </c>
+      <c r="B25" s="146" t="s">
+        <v>463</v>
+      </c>
+      <c r="C25" s="148" t="s">
+        <v>464</v>
+      </c>
+      <c r="D25" s="121"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="122"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="143" t="str">
+        <f>HYPERLINK("https://drive.google.com/open?id=1X9eTLHcdh-lSX2OXG4OLDNwPRG5eoz9l","3D")</f>
+        <v>3D</v>
+      </c>
+      <c r="B26" s="146" t="s">
+        <v>463</v>
+      </c>
+      <c r="C26" s="149" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" s="90"/>
+      <c r="E26" s="90"/>
+      <c r="F26" s="9"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="143" t="str">
+        <f>HYPERLINK("https://drive.google.com/open?id=1m_ACLfEw9sFFcCd16wQnkI9wa3WI7gK9","3E")</f>
+        <v>3E</v>
+      </c>
+      <c r="B27" s="145" t="s">
+        <v>462</v>
+      </c>
+      <c r="C27" s="148" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27" s="90"/>
+      <c r="E27" s="92"/>
+      <c r="F27" s="122"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="143" t="str">
+        <f>HYPERLINK("https://drive.google.com/open?id=1CIBdXiHhWBrM6LwlY-yGooPill1DRTQ7","3F")</f>
+        <v>3F</v>
+      </c>
+      <c r="B28" s="148" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="148" t="s">
+        <v>48</v>
+      </c>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="121"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="143" t="str">
+        <f>HYPERLINK("https://drive.google.com/open?id=1c2xmouFbs4cNAvpeHuAdgNreh8kFEC2V","3G")</f>
+        <v>3G</v>
+      </c>
+      <c r="B29" s="148" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="148" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="143" t="str">
+        <f>HYPERLINK("https://drive.google.com/open?id=1t7wkFvS4sGjdMU60zYacdFSrl4pYayl_","3H")</f>
+        <v>3H</v>
+      </c>
+      <c r="B30" s="148" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" s="148" t="s">
+        <v>48</v>
+      </c>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="143" t="str">
+        <f>HYPERLINK("https://drive.google.com/open?id=1N0-R1KTkpoZjXWmN7r0U_myR9XBY5SDj","3J")</f>
+        <v>3J</v>
+      </c>
+      <c r="B31" s="145" t="s">
+        <v>462</v>
+      </c>
+      <c r="C31" s="148" t="s">
+        <v>48</v>
+      </c>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="122"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="143" t="str">
+        <f>HYPERLINK("https://drive.google.com/open?id=13pmWKIsTMFsSuBTJ-HZb5DVIowIXTS_s","3L")</f>
+        <v>3L</v>
+      </c>
+      <c r="B32" s="146" t="s">
+        <v>463</v>
+      </c>
+      <c r="C32" s="148" t="s">
+        <v>464</v>
+      </c>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="122"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="143" t="str">
+        <f>HYPERLINK("https://drive.google.com/open?id=16nGNQgv2r19h9agxYjXmQ8rC4v330dYf","4E")</f>
+        <v>4E</v>
+      </c>
+      <c r="B33" s="145" t="s">
+        <v>462</v>
+      </c>
+      <c r="C33" s="148" t="s">
+        <v>48</v>
+      </c>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="143" t="str">
+        <f>HYPERLINK("https://drive.google.com/open?id=1bmJc7h6PrfobWHjtATEPhVDZqxi3ORaa","4F")</f>
+        <v>4F</v>
+      </c>
+      <c r="B34" s="145" t="s">
+        <v>462</v>
+      </c>
+      <c r="C34" s="148" t="s">
+        <v>48</v>
+      </c>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="143" t="str">
+        <f>HYPERLINK("https://drive.google.com/open?id=1nHAP6VZOPX4PWClDeQpEHh4MuzIQchEa","4G")</f>
+        <v>4G</v>
+      </c>
+      <c r="B35" s="145" t="s">
+        <v>462</v>
+      </c>
+      <c r="C35" s="148" t="s">
+        <v>464</v>
+      </c>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="122"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="143" t="str">
+        <f>HYPERLINK("https://drive.google.com/open?id=1a78u8iOyRFbuJtQlj9X51FknS9EfCDih","4H")</f>
+        <v>4H</v>
+      </c>
+      <c r="B36" s="145" t="s">
+        <v>462</v>
+      </c>
+      <c r="C36" s="148" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="143" t="str">
+        <f>HYPERLINK("https://drive.google.com/open?id=1zZjefBVzFC9BP-YmMKfQZMWa1XGkqomj","4J")</f>
+        <v>4J</v>
+      </c>
+      <c r="B37" s="146" t="s">
+        <v>463</v>
+      </c>
+      <c r="C37" s="148" t="s">
+        <v>464</v>
+      </c>
+      <c r="D37" s="121"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="122"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="143" t="str">
+        <f>HYPERLINK("https://drive.google.com/open?id=1qWFlabv0TeVOBvOIJQuvHlR1H3AMOPvN","4K")</f>
+        <v>4K</v>
+      </c>
+      <c r="B38" s="145" t="s">
+        <v>462</v>
+      </c>
+      <c r="C38" s="148" t="s">
+        <v>48</v>
+      </c>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="122"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="143" t="str">
+        <f>HYPERLINK("https://drive.google.com/open?id=176NV2NM9yvfuW1EMU3iBS768FxgmXjUS","4L")</f>
+        <v>4L</v>
+      </c>
+      <c r="B39" s="145" t="s">
+        <v>462</v>
+      </c>
+      <c r="C39" s="148" t="s">
+        <v>48</v>
+      </c>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="122"/>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="143" t="str">
+        <f>HYPERLINK("https://drive.google.com/open?id=1cC0P-G66cPSNnf6v6z8opZCNyporo74Y","5B")</f>
+        <v>5B</v>
+      </c>
+      <c r="B40" s="146" t="s">
+        <v>463</v>
+      </c>
+      <c r="C40" s="149" t="s">
+        <v>48</v>
+      </c>
+      <c r="D40" s="121"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="122"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="143" t="str">
+        <f>HYPERLINK("https://drive.google.com/open?id=1q_N74b1OZrCze7zuXy5fm0ASU07tWzh3","5C")</f>
+        <v>5C</v>
+      </c>
+      <c r="B41" s="145" t="s">
+        <v>462</v>
+      </c>
+      <c r="C41" s="148" t="s">
+        <v>464</v>
+      </c>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="122"/>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="143" t="str">
+        <f>HYPERLINK("https://drive.google.com/open?id=1aKSCelAY002Ihje9mdJi7jFh0OB4j8XZ","5E")</f>
+        <v>5E</v>
+      </c>
+      <c r="B42" s="145" t="s">
+        <v>462</v>
+      </c>
+      <c r="C42" s="148" t="s">
+        <v>48</v>
+      </c>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="122"/>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="143" t="str">
+        <f>HYPERLINK("https://drive.google.com/open?id=1ghdX_COwJq4oYlhj-qYPypK_2GlrWyQZ","5G")</f>
+        <v>5G</v>
+      </c>
+      <c r="B43" s="145" t="s">
+        <v>462</v>
+      </c>
+      <c r="C43" s="148" t="s">
+        <v>48</v>
+      </c>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="122"/>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="143" t="str">
+        <f>HYPERLINK("https://drive.google.com/open?id=1MR24L4GDI5x861k8SMrgm71xRfm55Hiv","5H")</f>
+        <v>5H</v>
+      </c>
+      <c r="B44" s="145" t="s">
+        <v>462</v>
+      </c>
+      <c r="C44" s="148" t="s">
+        <v>48</v>
+      </c>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="122"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -7237,386 +8036,386 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="16">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="98" t="s">
         <v>409</v>
       </c>
-      <c r="B1" s="100" t="s">
+      <c r="B1" s="99" t="s">
         <v>430</v>
       </c>
-      <c r="C1" s="100" t="s">
+      <c r="C1" s="99" t="s">
         <v>429</v>
       </c>
-      <c r="D1" s="134" t="s">
+      <c r="D1" s="137" t="s">
         <v>272</v>
       </c>
-      <c r="E1" s="134"/>
-      <c r="F1" s="109" t="s">
+      <c r="E1" s="137"/>
+      <c r="F1" s="108" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="97" customFormat="1" ht="16">
+    <row r="2" spans="1:9" s="96" customFormat="1" ht="16">
       <c r="A2" s="9"/>
       <c r="D2" s="136"/>
       <c r="E2" s="136"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="103"/>
-    </row>
-    <row r="3" spans="1:9" s="97" customFormat="1" ht="16">
-      <c r="A3" s="98" t="s">
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+    </row>
+    <row r="3" spans="1:9" s="96" customFormat="1" ht="16">
+      <c r="A3" s="97" t="s">
         <v>410</v>
       </c>
-      <c r="B3" s="104">
+      <c r="B3" s="103">
         <v>62</v>
       </c>
-      <c r="C3" s="104">
+      <c r="C3" s="103">
         <v>55</v>
       </c>
       <c r="D3" s="135" t="s">
         <v>431</v>
       </c>
       <c r="E3" s="136"/>
-      <c r="F3" s="101" t="s">
+      <c r="F3" s="100" t="s">
         <v>262</v>
       </c>
-      <c r="G3" s="103"/>
+      <c r="G3" s="102"/>
       <c r="H3" s="77"/>
-      <c r="I3" s="103"/>
-    </row>
-    <row r="4" spans="1:9" s="97" customFormat="1" ht="16">
-      <c r="A4" s="98" t="s">
+      <c r="I3" s="102"/>
+    </row>
+    <row r="4" spans="1:9" s="96" customFormat="1" ht="16">
+      <c r="A4" s="97" t="s">
         <v>411</v>
       </c>
       <c r="D4" s="136"/>
       <c r="E4" s="136"/>
-      <c r="F4" s="102"/>
-      <c r="G4" s="103"/>
-      <c r="H4" s="106"/>
-      <c r="I4" s="103"/>
-    </row>
-    <row r="5" spans="1:9" s="97" customFormat="1" ht="16">
-      <c r="A5" s="98" t="s">
+      <c r="F4" s="101"/>
+      <c r="G4" s="102"/>
+      <c r="H4" s="105"/>
+      <c r="I4" s="102"/>
+    </row>
+    <row r="5" spans="1:9" s="96" customFormat="1" ht="16">
+      <c r="A5" s="97" t="s">
         <v>412</v>
       </c>
-      <c r="B5" s="104">
+      <c r="B5" s="103">
         <v>44</v>
       </c>
-      <c r="C5" s="104">
+      <c r="C5" s="103">
         <v>43</v>
       </c>
       <c r="D5" s="136"/>
       <c r="E5" s="136"/>
-      <c r="F5" s="101" t="s">
+      <c r="F5" s="100" t="s">
         <v>262</v>
       </c>
-      <c r="G5" s="103"/>
-      <c r="H5" s="106"/>
-      <c r="I5" s="103"/>
-    </row>
-    <row r="6" spans="1:9" s="97" customFormat="1" ht="16">
-      <c r="A6" s="98" t="s">
+      <c r="G5" s="102"/>
+      <c r="H5" s="105"/>
+      <c r="I5" s="102"/>
+    </row>
+    <row r="6" spans="1:9" s="96" customFormat="1" ht="16">
+      <c r="A6" s="97" t="s">
         <v>413</v>
       </c>
-      <c r="B6" s="104">
+      <c r="B6" s="103">
         <v>47</v>
       </c>
-      <c r="C6" s="104">
+      <c r="C6" s="103">
         <v>52</v>
       </c>
       <c r="D6" s="135" t="s">
         <v>433</v>
       </c>
       <c r="E6" s="136"/>
-      <c r="F6" s="101" t="s">
+      <c r="F6" s="100" t="s">
         <v>262</v>
       </c>
-      <c r="G6" s="103"/>
-      <c r="H6" s="108"/>
-      <c r="I6" s="103"/>
-    </row>
-    <row r="7" spans="1:9" s="97" customFormat="1" ht="16">
-      <c r="A7" s="98" t="s">
+      <c r="G6" s="102"/>
+      <c r="H6" s="107"/>
+      <c r="I6" s="102"/>
+    </row>
+    <row r="7" spans="1:9" s="96" customFormat="1" ht="16">
+      <c r="A7" s="97" t="s">
         <v>414</v>
       </c>
-      <c r="B7" s="104">
+      <c r="B7" s="103">
         <v>75</v>
       </c>
-      <c r="C7" s="104">
+      <c r="C7" s="103">
         <v>82</v>
       </c>
       <c r="D7" s="135" t="s">
         <v>433</v>
       </c>
       <c r="E7" s="136"/>
-      <c r="F7" s="101" t="s">
+      <c r="F7" s="100" t="s">
         <v>262</v>
       </c>
-      <c r="G7" s="103"/>
-      <c r="H7" s="106"/>
-      <c r="I7" s="103"/>
-    </row>
-    <row r="8" spans="1:9" s="97" customFormat="1" ht="16">
-      <c r="A8" s="98" t="s">
+      <c r="G7" s="102"/>
+      <c r="H7" s="105"/>
+      <c r="I7" s="102"/>
+    </row>
+    <row r="8" spans="1:9" s="96" customFormat="1" ht="16">
+      <c r="A8" s="97" t="s">
         <v>415</v>
       </c>
-      <c r="B8" s="104">
+      <c r="B8" s="103">
         <v>85</v>
       </c>
-      <c r="C8" s="104">
+      <c r="C8" s="103">
         <v>99</v>
       </c>
       <c r="D8" s="135" t="s">
         <v>432</v>
       </c>
       <c r="E8" s="136"/>
-      <c r="F8" s="102"/>
-      <c r="G8" s="103"/>
-      <c r="H8" s="106"/>
-      <c r="I8" s="103"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="105"/>
+      <c r="I8" s="102"/>
     </row>
     <row r="9" spans="1:9" ht="15" customHeight="1">
-      <c r="A9" s="98" t="s">
+      <c r="A9" s="97" t="s">
         <v>416</v>
       </c>
-      <c r="B9" s="104">
+      <c r="B9" s="103">
         <v>15</v>
       </c>
-      <c r="C9" s="104">
+      <c r="C9" s="103">
         <v>23</v>
       </c>
       <c r="D9" s="135" t="s">
         <v>431</v>
       </c>
       <c r="E9" s="136"/>
-      <c r="F9" s="101" t="s">
+      <c r="F9" s="100" t="s">
         <v>262</v>
       </c>
-      <c r="G9" s="103"/>
-      <c r="H9" s="106"/>
-      <c r="I9" s="103"/>
+      <c r="G9" s="102"/>
+      <c r="H9" s="105"/>
+      <c r="I9" s="102"/>
     </row>
     <row r="10" spans="1:9" ht="16">
-      <c r="A10" s="98" t="s">
+      <c r="A10" s="97" t="s">
         <v>417</v>
       </c>
-      <c r="B10" s="105"/>
-      <c r="C10" s="104"/>
+      <c r="B10" s="104"/>
+      <c r="C10" s="103"/>
       <c r="D10" s="136"/>
       <c r="E10" s="136"/>
-      <c r="F10" s="102"/>
-      <c r="G10" s="103"/>
-      <c r="H10" s="106"/>
-      <c r="I10" s="103"/>
+      <c r="F10" s="101"/>
+      <c r="G10" s="102"/>
+      <c r="H10" s="105"/>
+      <c r="I10" s="102"/>
     </row>
     <row r="11" spans="1:9" ht="16">
-      <c r="A11" s="98" t="s">
+      <c r="A11" s="97" t="s">
         <v>418</v>
       </c>
-      <c r="B11" s="106"/>
-      <c r="C11" s="104"/>
+      <c r="B11" s="105"/>
+      <c r="C11" s="103"/>
       <c r="D11" s="136"/>
       <c r="E11" s="136"/>
-      <c r="F11" s="102"/>
-      <c r="G11" s="103"/>
-      <c r="H11" s="106"/>
-      <c r="I11" s="103"/>
+      <c r="F11" s="101"/>
+      <c r="G11" s="102"/>
+      <c r="H11" s="105"/>
+      <c r="I11" s="102"/>
     </row>
     <row r="12" spans="1:9" ht="16">
-      <c r="A12" s="98" t="s">
+      <c r="A12" s="97" t="s">
         <v>419</v>
       </c>
-      <c r="B12" s="106">
+      <c r="B12" s="105">
         <v>57</v>
       </c>
-      <c r="C12" s="104">
+      <c r="C12" s="103">
         <v>59</v>
       </c>
       <c r="D12" s="135" t="s">
         <v>431</v>
       </c>
       <c r="E12" s="136"/>
-      <c r="F12" s="101" t="s">
+      <c r="F12" s="100" t="s">
         <v>262</v>
       </c>
-      <c r="G12" s="103"/>
-      <c r="H12" s="106"/>
-      <c r="I12" s="103"/>
+      <c r="G12" s="102"/>
+      <c r="H12" s="105"/>
+      <c r="I12" s="102"/>
     </row>
     <row r="13" spans="1:9" ht="16">
-      <c r="A13" s="98" t="s">
+      <c r="A13" s="97" t="s">
         <v>420</v>
       </c>
-      <c r="B13" s="106">
+      <c r="B13" s="105">
         <v>37</v>
       </c>
-      <c r="C13" s="104">
+      <c r="C13" s="103">
         <v>56</v>
       </c>
       <c r="D13" s="135" t="s">
         <v>433</v>
       </c>
       <c r="E13" s="136"/>
-      <c r="F13" s="101" t="s">
+      <c r="F13" s="100" t="s">
         <v>262</v>
       </c>
-      <c r="G13" s="103"/>
-      <c r="H13" s="108"/>
-      <c r="I13" s="103"/>
+      <c r="G13" s="102"/>
+      <c r="H13" s="107"/>
+      <c r="I13" s="102"/>
     </row>
     <row r="14" spans="1:9" ht="16">
-      <c r="A14" s="98" t="s">
+      <c r="A14" s="97" t="s">
         <v>421</v>
       </c>
-      <c r="B14" s="106">
+      <c r="B14" s="105">
         <v>53</v>
       </c>
-      <c r="C14" s="104">
+      <c r="C14" s="103">
         <v>72</v>
       </c>
       <c r="D14" s="135" t="s">
         <v>433</v>
       </c>
       <c r="E14" s="136"/>
-      <c r="F14" s="101" t="s">
+      <c r="F14" s="100" t="s">
         <v>262</v>
       </c>
-      <c r="G14" s="103"/>
-      <c r="H14" s="106"/>
-      <c r="I14" s="103"/>
+      <c r="G14" s="102"/>
+      <c r="H14" s="105"/>
+      <c r="I14" s="102"/>
     </row>
     <row r="15" spans="1:9" ht="16">
-      <c r="A15" s="98" t="s">
+      <c r="A15" s="97" t="s">
         <v>422</v>
       </c>
-      <c r="B15" s="106">
+      <c r="B15" s="105">
         <v>60</v>
       </c>
-      <c r="C15" s="104">
+      <c r="C15" s="103">
         <v>64</v>
       </c>
       <c r="D15" s="136"/>
       <c r="E15" s="136"/>
-      <c r="F15" s="101" t="s">
+      <c r="F15" s="100" t="s">
         <v>262</v>
       </c>
-      <c r="G15" s="103"/>
-      <c r="H15" s="106"/>
-      <c r="I15" s="103"/>
+      <c r="G15" s="102"/>
+      <c r="H15" s="105"/>
+      <c r="I15" s="102"/>
     </row>
     <row r="16" spans="1:9" ht="16">
-      <c r="A16" s="98" t="s">
+      <c r="A16" s="97" t="s">
         <v>423</v>
       </c>
-      <c r="B16" s="104"/>
-      <c r="C16" s="104"/>
+      <c r="B16" s="103"/>
+      <c r="C16" s="103"/>
       <c r="D16" s="136"/>
       <c r="E16" s="136"/>
-      <c r="F16" s="102"/>
-      <c r="G16" s="103"/>
-      <c r="H16" s="106"/>
-      <c r="I16" s="103"/>
-    </row>
-    <row r="17" spans="1:9" s="97" customFormat="1" ht="16">
-      <c r="A17" s="98" t="s">
+      <c r="F16" s="101"/>
+      <c r="G16" s="102"/>
+      <c r="H16" s="105"/>
+      <c r="I16" s="102"/>
+    </row>
+    <row r="17" spans="1:9" s="96" customFormat="1" ht="16">
+      <c r="A17" s="97" t="s">
         <v>424</v>
       </c>
-      <c r="B17" s="104"/>
-      <c r="C17" s="104"/>
+      <c r="B17" s="103"/>
+      <c r="C17" s="103"/>
       <c r="D17" s="136"/>
       <c r="E17" s="136"/>
-      <c r="F17" s="102"/>
-      <c r="G17" s="103"/>
-      <c r="H17" s="106"/>
-      <c r="I17" s="103"/>
-    </row>
-    <row r="18" spans="1:9" s="97" customFormat="1" ht="16">
-      <c r="A18" s="98" t="s">
+      <c r="F17" s="101"/>
+      <c r="G17" s="102"/>
+      <c r="H17" s="105"/>
+      <c r="I17" s="102"/>
+    </row>
+    <row r="18" spans="1:9" s="96" customFormat="1" ht="16">
+      <c r="A18" s="97" t="s">
         <v>425</v>
       </c>
-      <c r="B18" s="104"/>
-      <c r="C18" s="104"/>
+      <c r="B18" s="103"/>
+      <c r="C18" s="103"/>
       <c r="D18" s="136"/>
       <c r="E18" s="136"/>
-      <c r="F18" s="102"/>
-      <c r="G18" s="103"/>
-      <c r="H18" s="106"/>
-      <c r="I18" s="103"/>
-    </row>
-    <row r="19" spans="1:9" s="97" customFormat="1" ht="16">
-      <c r="A19" s="98" t="s">
+      <c r="F18" s="101"/>
+      <c r="G18" s="102"/>
+      <c r="H18" s="105"/>
+      <c r="I18" s="102"/>
+    </row>
+    <row r="19" spans="1:9" s="96" customFormat="1" ht="16">
+      <c r="A19" s="97" t="s">
         <v>426</v>
       </c>
-      <c r="B19" s="104">
+      <c r="B19" s="103">
         <v>18</v>
       </c>
-      <c r="C19" s="104">
+      <c r="C19" s="103">
         <v>40</v>
       </c>
       <c r="D19" s="135" t="s">
         <v>433</v>
       </c>
       <c r="E19" s="136"/>
-      <c r="F19" s="101" t="s">
+      <c r="F19" s="100" t="s">
         <v>262</v>
       </c>
-      <c r="G19" s="103"/>
-      <c r="H19" s="106"/>
-      <c r="I19" s="103"/>
-    </row>
-    <row r="20" spans="1:9" s="97" customFormat="1" ht="16">
-      <c r="A20" s="98" t="s">
+      <c r="G19" s="102"/>
+      <c r="H19" s="105"/>
+      <c r="I19" s="102"/>
+    </row>
+    <row r="20" spans="1:9" s="96" customFormat="1" ht="16">
+      <c r="A20" s="97" t="s">
         <v>427</v>
       </c>
-      <c r="B20" s="104">
+      <c r="B20" s="103">
         <v>34</v>
       </c>
-      <c r="C20" s="104">
+      <c r="C20" s="103">
         <v>46</v>
       </c>
       <c r="D20" s="135" t="s">
         <v>433</v>
       </c>
       <c r="E20" s="136"/>
-      <c r="F20" s="101" t="s">
+      <c r="F20" s="100" t="s">
         <v>262</v>
       </c>
-      <c r="G20" s="103"/>
-      <c r="H20" s="106"/>
-      <c r="I20" s="103"/>
-    </row>
-    <row r="21" spans="1:9" s="97" customFormat="1" ht="16">
-      <c r="A21" s="98" t="s">
+      <c r="G20" s="102"/>
+      <c r="H20" s="105"/>
+      <c r="I20" s="102"/>
+    </row>
+    <row r="21" spans="1:9" s="96" customFormat="1" ht="16">
+      <c r="A21" s="97" t="s">
         <v>428</v>
       </c>
-      <c r="B21" s="104">
+      <c r="B21" s="103">
         <v>83</v>
       </c>
-      <c r="C21" s="104">
+      <c r="C21" s="103">
         <v>84</v>
       </c>
       <c r="D21" s="135" t="s">
         <v>433</v>
       </c>
       <c r="E21" s="136"/>
-      <c r="F21" s="101" t="s">
+      <c r="F21" s="100" t="s">
         <v>443</v>
       </c>
-      <c r="G21" s="103"/>
-      <c r="H21" s="106"/>
-      <c r="I21" s="103"/>
+      <c r="G21" s="102"/>
+      <c r="H21" s="105"/>
+      <c r="I21" s="102"/>
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1">
-      <c r="G22" s="103"/>
-      <c r="H22" s="103"/>
-      <c r="I22" s="103"/>
+      <c r="G22" s="102"/>
+      <c r="H22" s="102"/>
+      <c r="I22" s="102"/>
     </row>
     <row r="23" spans="1:9" ht="16">
       <c r="A23" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="G23" s="103"/>
-      <c r="H23" s="103"/>
-      <c r="I23" s="103"/>
+      <c r="G23" s="102"/>
+      <c r="H23" s="102"/>
+      <c r="I23" s="102"/>
     </row>
     <row r="25" spans="1:9" ht="16">
       <c r="A25" s="3" t="s">
@@ -7700,69 +8499,69 @@
         <v>261</v>
       </c>
     </row>
-    <row r="34" spans="1:5" s="97" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A34" s="96"/>
-      <c r="B34" s="96"/>
-      <c r="C34" s="96"/>
-    </row>
-    <row r="35" spans="1:5" s="97" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A35" s="96" t="s">
+    <row r="34" spans="1:5" s="96" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A34" s="95"/>
+      <c r="B34" s="95"/>
+      <c r="C34" s="95"/>
+    </row>
+    <row r="35" spans="1:5" s="96" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A35" s="95" t="s">
         <v>235</v>
       </c>
-      <c r="B35" s="96" t="s">
+      <c r="B35" s="95" t="s">
         <v>444</v>
       </c>
-      <c r="C35" s="96" t="s">
+      <c r="C35" s="95" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="36" spans="1:5" s="97" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A36" s="96" t="s">
+    <row r="36" spans="1:5" s="96" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A36" s="95" t="s">
         <v>235</v>
       </c>
-      <c r="B36" s="96" t="s">
+      <c r="B36" s="95" t="s">
         <v>445</v>
       </c>
-      <c r="C36" s="96" t="s">
+      <c r="C36" s="95" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="37" spans="1:5" s="97" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A37" s="96"/>
-      <c r="B37" s="96"/>
-      <c r="C37" s="96"/>
-    </row>
-    <row r="38" spans="1:5" s="97" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A38" s="96" t="s">
+    <row r="37" spans="1:5" s="96" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A37" s="95"/>
+      <c r="B37" s="95"/>
+      <c r="C37" s="95"/>
+    </row>
+    <row r="38" spans="1:5" s="96" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A38" s="95" t="s">
         <v>447</v>
       </c>
-      <c r="B38" s="96" t="s">
+      <c r="B38" s="95" t="s">
         <v>454</v>
       </c>
-      <c r="C38" s="96" t="s">
+      <c r="C38" s="95" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="97" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A39" s="96" t="s">
+    <row r="39" spans="1:5" s="96" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A39" s="95" t="s">
         <v>447</v>
       </c>
-      <c r="B39" s="96" t="s">
+      <c r="B39" s="95" t="s">
         <v>455</v>
       </c>
-      <c r="C39" s="96" t="s">
+      <c r="C39" s="95" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="40" spans="1:5" s="97" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A40" s="96"/>
-      <c r="B40" s="96"/>
-      <c r="C40" s="96"/>
-    </row>
-    <row r="41" spans="1:5" s="97" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A41" s="96"/>
-      <c r="B41" s="96"/>
-      <c r="C41" s="96"/>
+    <row r="40" spans="1:5" s="96" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A40" s="95"/>
+      <c r="B40" s="95"/>
+      <c r="C40" s="95"/>
+    </row>
+    <row r="41" spans="1:5" s="96" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A41" s="95"/>
+      <c r="B41" s="95"/>
+      <c r="C41" s="95"/>
     </row>
     <row r="42" spans="1:5" ht="15.75" customHeight="1"/>
     <row r="43" spans="1:5" ht="15.75" customHeight="1">
@@ -7771,218 +8570,218 @@
       </c>
     </row>
     <row r="44" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A44" s="114"/>
-      <c r="B44" s="114"/>
-      <c r="C44" s="114"/>
-      <c r="D44" s="110"/>
-      <c r="E44" s="110"/>
+      <c r="A44" s="113"/>
+      <c r="B44" s="113"/>
+      <c r="C44" s="113"/>
+      <c r="D44" s="109"/>
+      <c r="E44" s="109"/>
     </row>
     <row r="45" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A45" s="115"/>
-      <c r="B45" s="114"/>
-      <c r="C45" s="116"/>
-      <c r="D45" s="110"/>
-      <c r="E45" s="110"/>
+      <c r="A45" s="114"/>
+      <c r="B45" s="113"/>
+      <c r="C45" s="115"/>
+      <c r="D45" s="109"/>
+      <c r="E45" s="109"/>
     </row>
     <row r="46" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A46" s="115" t="s">
+      <c r="A46" s="114" t="s">
         <v>411</v>
       </c>
-      <c r="B46" s="114" t="s">
+      <c r="B46" s="113" t="s">
         <v>450</v>
       </c>
-      <c r="C46" s="116"/>
-      <c r="D46" s="110"/>
-      <c r="E46" s="110"/>
+      <c r="C46" s="115"/>
+      <c r="D46" s="109"/>
+      <c r="E46" s="109"/>
     </row>
     <row r="47" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A47" s="117" t="s">
+      <c r="A47" s="116" t="s">
         <v>411</v>
       </c>
-      <c r="B47" s="114" t="s">
+      <c r="B47" s="113" t="s">
         <v>451</v>
       </c>
-      <c r="C47" s="114"/>
-      <c r="D47" s="110"/>
-      <c r="E47" s="110"/>
+      <c r="C47" s="113"/>
+      <c r="D47" s="109"/>
+      <c r="E47" s="109"/>
     </row>
     <row r="48" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A48" s="115"/>
-      <c r="B48" s="114"/>
-      <c r="C48" s="116"/>
-      <c r="D48" s="110"/>
-      <c r="E48" s="110"/>
+      <c r="A48" s="114"/>
+      <c r="B48" s="113"/>
+      <c r="C48" s="115"/>
+      <c r="D48" s="109"/>
+      <c r="E48" s="109"/>
     </row>
     <row r="49" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A49" s="115" t="s">
+      <c r="A49" s="114" t="s">
         <v>417</v>
       </c>
-      <c r="B49" s="114" t="s">
+      <c r="B49" s="113" t="s">
         <v>452</v>
       </c>
-      <c r="C49" s="116"/>
-      <c r="D49" s="110"/>
-      <c r="E49" s="110"/>
+      <c r="C49" s="115"/>
+      <c r="D49" s="109"/>
+      <c r="E49" s="109"/>
     </row>
     <row r="50" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A50" s="117" t="s">
+      <c r="A50" s="116" t="s">
         <v>417</v>
       </c>
-      <c r="B50" s="114" t="s">
+      <c r="B50" s="113" t="s">
         <v>453</v>
       </c>
-      <c r="C50" s="114"/>
-      <c r="D50" s="110"/>
-      <c r="E50" s="110"/>
-    </row>
-    <row r="51" spans="1:5" s="97" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A51" s="117"/>
-      <c r="B51" s="114"/>
-      <c r="C51" s="114"/>
-      <c r="D51" s="110"/>
-      <c r="E51" s="110"/>
+      <c r="C50" s="113"/>
+      <c r="D50" s="109"/>
+      <c r="E50" s="109"/>
+    </row>
+    <row r="51" spans="1:5" s="96" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A51" s="116"/>
+      <c r="B51" s="113"/>
+      <c r="C51" s="113"/>
+      <c r="D51" s="109"/>
+      <c r="E51" s="109"/>
     </row>
     <row r="52" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A52" s="115" t="s">
+      <c r="A52" s="114" t="s">
         <v>418</v>
       </c>
-      <c r="B52" s="114" t="s">
+      <c r="B52" s="113" t="s">
         <v>263</v>
       </c>
-      <c r="C52" s="114"/>
-      <c r="D52" s="110"/>
-      <c r="E52" s="110"/>
+      <c r="C52" s="113"/>
+      <c r="D52" s="109"/>
+      <c r="E52" s="109"/>
     </row>
     <row r="53" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A53" s="115" t="s">
+      <c r="A53" s="114" t="s">
         <v>418</v>
       </c>
-      <c r="B53" s="114" t="s">
+      <c r="B53" s="113" t="s">
         <v>264</v>
       </c>
-      <c r="C53" s="114"/>
-      <c r="D53" s="110"/>
-      <c r="E53" s="110"/>
+      <c r="C53" s="113"/>
+      <c r="D53" s="109"/>
+      <c r="E53" s="109"/>
     </row>
     <row r="54" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A54" s="117"/>
-      <c r="B54" s="114"/>
-      <c r="C54" s="114"/>
-      <c r="D54" s="110"/>
-      <c r="E54" s="110"/>
+      <c r="A54" s="116"/>
+      <c r="B54" s="113"/>
+      <c r="C54" s="113"/>
+      <c r="D54" s="109"/>
+      <c r="E54" s="109"/>
     </row>
     <row r="55" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A55" s="112" t="s">
+      <c r="A55" s="111" t="s">
         <v>423</v>
       </c>
-      <c r="B55" s="111" t="s">
+      <c r="B55" s="110" t="s">
         <v>247</v>
       </c>
-      <c r="C55" s="93"/>
-      <c r="D55" s="110"/>
-      <c r="E55" s="110"/>
+      <c r="C55" s="92"/>
+      <c r="D55" s="109"/>
+      <c r="E55" s="109"/>
     </row>
     <row r="56" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A56" s="112" t="s">
+      <c r="A56" s="111" t="s">
         <v>423</v>
       </c>
-      <c r="B56" s="111" t="s">
+      <c r="B56" s="110" t="s">
         <v>249</v>
       </c>
-      <c r="C56" s="93"/>
-      <c r="D56" s="110"/>
-      <c r="E56" s="110"/>
+      <c r="C56" s="92"/>
+      <c r="D56" s="109"/>
+      <c r="E56" s="109"/>
     </row>
     <row r="57" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A57" s="113"/>
-      <c r="B57" s="110"/>
-      <c r="C57" s="110"/>
-      <c r="D57" s="110"/>
-      <c r="E57" s="110"/>
+      <c r="A57" s="112"/>
+      <c r="B57" s="109"/>
+      <c r="C57" s="109"/>
+      <c r="D57" s="109"/>
+      <c r="E57" s="109"/>
     </row>
     <row r="58" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A58" s="112" t="s">
+      <c r="A58" s="111" t="s">
         <v>424</v>
       </c>
-      <c r="B58" s="111" t="s">
+      <c r="B58" s="110" t="s">
         <v>456</v>
       </c>
-      <c r="C58" s="93"/>
-      <c r="D58" s="110"/>
-      <c r="E58" s="110"/>
+      <c r="C58" s="92"/>
+      <c r="D58" s="109"/>
+      <c r="E58" s="109"/>
     </row>
     <row r="59" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A59" s="112" t="s">
+      <c r="A59" s="111" t="s">
         <v>424</v>
       </c>
-      <c r="B59" s="111" t="s">
+      <c r="B59" s="110" t="s">
         <v>457</v>
       </c>
-      <c r="C59" s="93"/>
-      <c r="D59" s="110"/>
-      <c r="E59" s="110"/>
+      <c r="C59" s="92"/>
+      <c r="D59" s="109"/>
+      <c r="E59" s="109"/>
     </row>
     <row r="60" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A60" s="113"/>
-      <c r="B60" s="110"/>
-      <c r="C60" s="110"/>
-      <c r="D60" s="110"/>
-      <c r="E60" s="110"/>
+      <c r="A60" s="112"/>
+      <c r="B60" s="109"/>
+      <c r="C60" s="109"/>
+      <c r="D60" s="109"/>
+      <c r="E60" s="109"/>
     </row>
     <row r="61" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A61" s="112" t="s">
+      <c r="A61" s="111" t="s">
         <v>425</v>
       </c>
-      <c r="B61" s="111" t="s">
+      <c r="B61" s="110" t="s">
         <v>265</v>
       </c>
-      <c r="C61" s="93"/>
-      <c r="D61" s="110"/>
-      <c r="E61" s="110"/>
+      <c r="C61" s="92"/>
+      <c r="D61" s="109"/>
+      <c r="E61" s="109"/>
     </row>
     <row r="62" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A62" s="112" t="s">
+      <c r="A62" s="111" t="s">
         <v>425</v>
       </c>
-      <c r="B62" s="111" t="s">
+      <c r="B62" s="110" t="s">
         <v>266</v>
       </c>
-      <c r="C62" s="93"/>
-      <c r="D62" s="110"/>
-      <c r="E62" s="110"/>
+      <c r="C62" s="92"/>
+      <c r="D62" s="109"/>
+      <c r="E62" s="109"/>
     </row>
     <row r="63" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A63" s="113"/>
-      <c r="B63" s="110"/>
-      <c r="C63" s="110"/>
-      <c r="D63" s="110"/>
-      <c r="E63" s="110"/>
+      <c r="A63" s="112"/>
+      <c r="B63" s="109"/>
+      <c r="C63" s="109"/>
+      <c r="D63" s="109"/>
+      <c r="E63" s="109"/>
     </row>
     <row r="64" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A64" s="113"/>
-      <c r="B64" s="110"/>
-      <c r="C64" s="110"/>
-      <c r="D64" s="110"/>
-      <c r="E64" s="110"/>
+      <c r="A64" s="112"/>
+      <c r="B64" s="109"/>
+      <c r="C64" s="109"/>
+      <c r="D64" s="109"/>
+      <c r="E64" s="109"/>
     </row>
     <row r="65" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A65" s="118"/>
-      <c r="B65" s="110"/>
-      <c r="C65" s="110"/>
-      <c r="D65" s="110"/>
-      <c r="E65" s="110"/>
+      <c r="A65" s="117"/>
+      <c r="B65" s="109"/>
+      <c r="C65" s="109"/>
+      <c r="D65" s="109"/>
+      <c r="E65" s="109"/>
     </row>
     <row r="66" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A66" s="119"/>
+      <c r="A66" s="118"/>
     </row>
     <row r="67" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A67" s="120"/>
+      <c r="A67" s="119"/>
     </row>
     <row r="68" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A68" s="120"/>
+      <c r="A68" s="119"/>
     </row>
     <row r="69" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A69" s="119"/>
+      <c r="A69" s="118"/>
     </row>
     <row r="70" spans="1:5" ht="15.75" customHeight="1"/>
     <row r="71" spans="1:5" ht="15.75" customHeight="1"/>
@@ -8938,6 +9737,11 @@
     <row r="1021" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="D2:E2"/>
@@ -8954,11 +9758,6 @@
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8969,7 +9768,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>

--- a/Antonio-Feed/__FeedPartsInventory.xlsx
+++ b/Antonio-Feed/__FeedPartsInventory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pollak/Documents/GitHub/Front-Page/Antonio-Feed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3951ED3A-4C9D-A34F-8B23-77E209CDD181}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{534B30B3-7476-F945-A6FD-C37E43973874}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45600" yWindow="460" windowWidth="35840" windowHeight="19760" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parts At ATA" sheetId="1" r:id="rId1"/>
@@ -1358,9 +1358,6 @@
     <t>(---) 37 / 56</t>
   </si>
   <si>
-    <t>(---) 34 / 46</t>
-  </si>
-  <si>
     <t>(---) 18 / 40</t>
   </si>
   <si>
@@ -1443,6 +1440,9 @@
   </si>
   <si>
     <t>YES</t>
+  </si>
+  <si>
+    <t>(---) 45 / 48</t>
   </si>
 </sst>
 </file>
@@ -2172,6 +2172,31 @@
     <xf numFmtId="0" fontId="4" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2196,41 +2221,16 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2476,25 +2476,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16">
-      <c r="A1" s="125" t="s">
+      <c r="A1" s="136" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="126"/>
-      <c r="C1" s="126"/>
-      <c r="D1" s="126"/>
-      <c r="E1" s="126"/>
-      <c r="F1" s="126"/>
-      <c r="G1" s="126"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="128"/>
-      <c r="J1" s="128"/>
-      <c r="K1" s="127"/>
-      <c r="L1" s="128"/>
-      <c r="M1" s="128"/>
-      <c r="N1" s="128"/>
-      <c r="O1" s="128"/>
-      <c r="P1" s="128"/>
-      <c r="Q1" s="128"/>
+      <c r="B1" s="137"/>
+      <c r="C1" s="137"/>
+      <c r="D1" s="137"/>
+      <c r="E1" s="137"/>
+      <c r="F1" s="137"/>
+      <c r="G1" s="137"/>
+      <c r="H1" s="138"/>
+      <c r="I1" s="139"/>
+      <c r="J1" s="139"/>
+      <c r="K1" s="138"/>
+      <c r="L1" s="139"/>
+      <c r="M1" s="139"/>
+      <c r="N1" s="139"/>
+      <c r="O1" s="139"/>
+      <c r="P1" s="139"/>
+      <c r="Q1" s="139"/>
     </row>
     <row r="2" spans="1:17" ht="16">
       <c r="A2" s="1" t="s">
@@ -3788,38 +3788,38 @@
       <c r="A58" s="9"/>
     </row>
     <row r="59" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A59" s="129" t="s">
+      <c r="A59" s="140" t="s">
         <v>158</v>
       </c>
-      <c r="B59" s="124"/>
-      <c r="C59" s="124"/>
+      <c r="B59" s="135"/>
+      <c r="C59" s="135"/>
     </row>
     <row r="60" spans="1:6" ht="15.75" customHeight="1">
       <c r="A60" s="12"/>
     </row>
     <row r="61" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A61" s="123" t="s">
+      <c r="A61" s="134" t="s">
         <v>150</v>
       </c>
-      <c r="B61" s="124"/>
-      <c r="C61" s="123" t="s">
+      <c r="B61" s="135"/>
+      <c r="C61" s="134" t="s">
         <v>159</v>
       </c>
-      <c r="D61" s="124"/>
-      <c r="E61" s="124"/>
-      <c r="F61" s="124"/>
+      <c r="D61" s="135"/>
+      <c r="E61" s="135"/>
+      <c r="F61" s="135"/>
     </row>
     <row r="62" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A62" s="123" t="s">
+      <c r="A62" s="134" t="s">
         <v>160</v>
       </c>
-      <c r="B62" s="124"/>
-      <c r="C62" s="123" t="s">
+      <c r="B62" s="135"/>
+      <c r="C62" s="134" t="s">
         <v>161</v>
       </c>
-      <c r="D62" s="124"/>
-      <c r="E62" s="124"/>
-      <c r="F62" s="124"/>
+      <c r="D62" s="135"/>
+      <c r="E62" s="135"/>
+      <c r="F62" s="135"/>
     </row>
     <row r="63" spans="1:6" ht="15.75" customHeight="1"/>
     <row r="64" spans="1:6" ht="15.75" customHeight="1"/>
@@ -4786,8 +4786,8 @@
   </sheetPr>
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="J22" sqref="A1:J22"/>
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
@@ -4800,20 +4800,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1" thickBot="1">
-      <c r="A1" s="125" t="s">
+      <c r="A1" s="136" t="s">
         <v>162</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="131" t="s">
+      <c r="B1" s="141"/>
+      <c r="C1" s="142" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="127"/>
-      <c r="E1" s="127"/>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="127"/>
-      <c r="J1" s="127"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
+      <c r="G1" s="138"/>
+      <c r="H1" s="138"/>
+      <c r="I1" s="138"/>
+      <c r="J1" s="138"/>
       <c r="K1" s="85"/>
       <c r="L1" s="85"/>
     </row>
@@ -4849,7 +4849,7 @@
         <v>165</v>
       </c>
       <c r="K2" s="17" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="L2" s="17" t="s">
         <v>400</v>
@@ -4857,19 +4857,19 @@
     </row>
     <row r="3" spans="1:12" s="122" customFormat="1" ht="16">
       <c r="A3" s="27" t="s">
-        <v>458</v>
-      </c>
-      <c r="B3" s="140" t="s">
+        <v>457</v>
+      </c>
+      <c r="B3" s="125" t="s">
         <v>172</v>
       </c>
-      <c r="C3" s="138"/>
-      <c r="D3" s="139"/>
-      <c r="E3" s="139"/>
-      <c r="F3" s="139"/>
-      <c r="G3" s="139"/>
-      <c r="H3" s="139"/>
-      <c r="I3" s="139"/>
-      <c r="J3" s="139"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="124"/>
+      <c r="G3" s="124"/>
+      <c r="H3" s="124"/>
+      <c r="I3" s="124"/>
+      <c r="J3" s="124"/>
       <c r="K3" s="80"/>
       <c r="L3" s="80"/>
     </row>
@@ -4878,7 +4878,7 @@
         <f>HYPERLINK("https://drive.google.com/drive/folders/1G8ecO5ODQmn8FX8jzQ962D928BpQ6iUm","5C4-002")</f>
         <v>5C4-002</v>
       </c>
-      <c r="B4" s="140" t="s">
+      <c r="B4" s="125" t="s">
         <v>172</v>
       </c>
       <c r="C4" s="23" t="s">
@@ -4966,7 +4966,7 @@
         <v>28</v>
       </c>
       <c r="K6" s="80" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="L6" s="80" t="s">
         <v>401</v>
@@ -4989,7 +4989,7 @@
       <c r="I7" s="24"/>
       <c r="J7" s="24"/>
       <c r="K7" s="106" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L7" s="80"/>
     </row>
@@ -5062,7 +5062,7 @@
         <v>28</v>
       </c>
       <c r="K9" s="80" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="L9" s="80"/>
     </row>
@@ -5465,7 +5465,7 @@
         <v>176</v>
       </c>
       <c r="K20" s="80" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="L20" s="80"/>
     </row>
@@ -5494,7 +5494,7 @@
       <c r="I21" s="32"/>
       <c r="J21" s="32"/>
       <c r="K21" s="80" t="s">
-        <v>436</v>
+        <v>464</v>
       </c>
       <c r="L21" s="80"/>
     </row>
@@ -5561,20 +5561,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="17" thickBot="1">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="143" t="s">
         <v>162</v>
       </c>
-      <c r="B1" s="133"/>
-      <c r="C1" s="132" t="s">
+      <c r="B1" s="144"/>
+      <c r="C1" s="143" t="s">
         <v>367</v>
       </c>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
-      <c r="G1" s="134"/>
-      <c r="H1" s="134"/>
-      <c r="I1" s="134"/>
-      <c r="J1" s="133"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="145"/>
+      <c r="I1" s="145"/>
+      <c r="J1" s="144"/>
     </row>
     <row r="2" spans="1:10" ht="17" thickBot="1">
       <c r="A2" s="74" t="s">
@@ -7345,7 +7345,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFF4910D-2B19-014E-928F-E015E5BABD78}">
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
@@ -7356,53 +7356,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="17" thickBot="1">
-      <c r="A1" s="125" t="s">
-        <v>459</v>
-      </c>
-      <c r="B1" s="142"/>
-      <c r="C1" s="142"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
+      <c r="A1" s="136" t="s">
+        <v>458</v>
+      </c>
+      <c r="B1" s="146"/>
+      <c r="C1" s="146"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="126"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="79" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="79" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C2" s="79" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D2" s="79"/>
       <c r="E2" s="79"/>
       <c r="F2" s="79"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="143" t="str">
+      <c r="A3" s="127" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1h79fqthLoRJDjhC2klnjbkG8MB2JL2Hy","1A")</f>
         <v>1A</v>
       </c>
-      <c r="B3" s="145" t="s">
-        <v>462</v>
-      </c>
-      <c r="C3" s="148" t="s">
-        <v>464</v>
+      <c r="B3" s="129" t="s">
+        <v>461</v>
+      </c>
+      <c r="C3" s="132" t="s">
+        <v>463</v>
       </c>
       <c r="D3" s="79"/>
       <c r="E3" s="79"/>
       <c r="F3" s="102"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="143" t="str">
+      <c r="A4" s="127" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1OPl2VmHH1ZeMZjQWNCCkQkA6bOfyIeqj","1B")</f>
         <v>1B</v>
       </c>
-      <c r="B4" s="145" t="s">
-        <v>462</v>
-      </c>
-      <c r="C4" s="148" t="s">
+      <c r="B4" s="129" t="s">
+        <v>461</v>
+      </c>
+      <c r="C4" s="132" t="s">
         <v>48</v>
       </c>
       <c r="D4" s="9"/>
@@ -7410,29 +7410,29 @@
       <c r="F4" s="122"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="144" t="str">
+      <c r="A5" s="128" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1_67Lwh4ATjaUkKTpdhqNA2vhhSxMhfoh","1C")</f>
         <v>1C</v>
       </c>
-      <c r="B5" s="146" t="s">
+      <c r="B5" s="130" t="s">
+        <v>462</v>
+      </c>
+      <c r="C5" s="132" t="s">
         <v>463</v>
-      </c>
-      <c r="C5" s="148" t="s">
-        <v>464</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="144" t="str">
+      <c r="A6" s="128" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1RDZathABUe1AxNllos18oBRUGkUw-BAb","1D")</f>
         <v>1D</v>
       </c>
-      <c r="B6" s="145" t="s">
-        <v>462</v>
-      </c>
-      <c r="C6" s="148" t="s">
+      <c r="B6" s="129" t="s">
+        <v>461</v>
+      </c>
+      <c r="C6" s="132" t="s">
         <v>48</v>
       </c>
       <c r="D6" s="90"/>
@@ -7440,14 +7440,14 @@
       <c r="F6" s="122"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="144" t="str">
+      <c r="A7" s="128" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1B7jEgQfvgjZIKbfW8eR9qm2PDLYRcFFX","1E")</f>
         <v>1E</v>
       </c>
-      <c r="B7" s="146" t="s">
-        <v>463</v>
-      </c>
-      <c r="C7" s="149" t="s">
+      <c r="B7" s="130" t="s">
+        <v>462</v>
+      </c>
+      <c r="C7" s="133" t="s">
         <v>48</v>
       </c>
       <c r="D7" s="90"/>
@@ -7455,29 +7455,29 @@
       <c r="F7" s="9"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="144" t="str">
+      <c r="A8" s="128" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1y8psJsldf8GOPKXdI3_7jAN-0VefmuVb","1F")</f>
         <v>1F</v>
       </c>
-      <c r="B8" s="145" t="s">
-        <v>462</v>
-      </c>
-      <c r="C8" s="148" t="s">
-        <v>464</v>
+      <c r="B8" s="129" t="s">
+        <v>461</v>
+      </c>
+      <c r="C8" s="132" t="s">
+        <v>463</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="122"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="143" t="str">
+      <c r="A9" s="127" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1Ak0bagtonjeBe0T45ml7mh9V5vKH_FoI","1G")</f>
         <v>1G</v>
       </c>
-      <c r="B9" s="146" t="s">
-        <v>463</v>
-      </c>
-      <c r="C9" s="149" t="s">
+      <c r="B9" s="130" t="s">
+        <v>462</v>
+      </c>
+      <c r="C9" s="133" t="s">
         <v>48</v>
       </c>
       <c r="D9" s="9"/>
@@ -7485,29 +7485,29 @@
       <c r="F9" s="9"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="143" t="str">
+      <c r="A10" s="127" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=15tp_vGgbK5-4zzthz0W8wuq2zgKokja6","1H")</f>
         <v>1H</v>
       </c>
-      <c r="B10" s="146" t="s">
+      <c r="B10" s="130" t="s">
+        <v>462</v>
+      </c>
+      <c r="C10" s="132" t="s">
         <v>463</v>
-      </c>
-      <c r="C10" s="148" t="s">
-        <v>464</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="122"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="143" t="str">
+      <c r="A11" s="127" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1EMft8Du0dvrSSlstsShqV16Nnrlb4EO_","1J")</f>
         <v>1J</v>
       </c>
-      <c r="B11" s="145" t="s">
-        <v>462</v>
-      </c>
-      <c r="C11" s="148" t="s">
+      <c r="B11" s="129" t="s">
+        <v>461</v>
+      </c>
+      <c r="C11" s="132" t="s">
         <v>48</v>
       </c>
       <c r="D11" s="9"/>
@@ -7515,59 +7515,59 @@
       <c r="F11" s="9"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="143" t="str">
+      <c r="A12" s="127" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1B-AwkTkUdHQS0dThuP6mM5L_0XIFZ2QS","1K")</f>
         <v>1K</v>
       </c>
-      <c r="B12" s="146" t="s">
+      <c r="B12" s="130" t="s">
+        <v>462</v>
+      </c>
+      <c r="C12" s="132" t="s">
         <v>463</v>
-      </c>
-      <c r="C12" s="148" t="s">
-        <v>464</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="122"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="143" t="str">
+      <c r="A13" s="127" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1XILFfrJerwAeHeN4xKdQH-99VN9y0QS7","2A")</f>
         <v>2A</v>
       </c>
-      <c r="B13" s="146" t="s">
+      <c r="B13" s="130" t="s">
+        <v>462</v>
+      </c>
+      <c r="C13" s="132" t="s">
         <v>463</v>
-      </c>
-      <c r="C13" s="148" t="s">
-        <v>464</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="122"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="143" t="str">
+      <c r="A14" s="127" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1i7lErxBcw13LxRubiAB_0upxTGrTLBvi","2B")</f>
         <v>2B</v>
       </c>
-      <c r="B14" s="146" t="s">
+      <c r="B14" s="130" t="s">
+        <v>462</v>
+      </c>
+      <c r="C14" s="132" t="s">
         <v>463</v>
-      </c>
-      <c r="C14" s="148" t="s">
-        <v>464</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
       <c r="F14" s="122"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="143" t="str">
+      <c r="A15" s="127" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1HmSkhlRiy_w_xIcPrlD-Gu21Q1sHCajk","2C")</f>
         <v>2C</v>
       </c>
-      <c r="B15" s="147" t="s">
-        <v>463</v>
-      </c>
-      <c r="C15" s="148" t="s">
+      <c r="B15" s="131" t="s">
+        <v>462</v>
+      </c>
+      <c r="C15" s="132" t="s">
         <v>48</v>
       </c>
       <c r="D15" s="9"/>
@@ -7575,14 +7575,14 @@
       <c r="F15" s="122"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="143" t="str">
+      <c r="A16" s="127" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1ih9AM9nSu6WpURV8EnXu6Q1HkOh5dSXM","2D")</f>
         <v>2D</v>
       </c>
-      <c r="B16" s="145" t="s">
-        <v>462</v>
-      </c>
-      <c r="C16" s="148" t="s">
+      <c r="B16" s="129" t="s">
+        <v>461</v>
+      </c>
+      <c r="C16" s="132" t="s">
         <v>48</v>
       </c>
       <c r="D16" s="9"/>
@@ -7590,29 +7590,29 @@
       <c r="F16" s="122"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="143" t="str">
+      <c r="A17" s="127" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1ilbwUzFLn2Zr9CQ_v673T9KjSALf_GzB","2E")</f>
         <v>2E</v>
       </c>
-      <c r="B17" s="146" t="s">
+      <c r="B17" s="130" t="s">
+        <v>462</v>
+      </c>
+      <c r="C17" s="132" t="s">
         <v>463</v>
-      </c>
-      <c r="C17" s="148" t="s">
-        <v>464</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
       <c r="F17" s="122"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="143" t="str">
+      <c r="A18" s="127" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1H2B7fJmOymk8ZeyITqVgqJIR9EbewGjs","2F")</f>
         <v>2F</v>
       </c>
-      <c r="B18" s="145" t="s">
-        <v>462</v>
-      </c>
-      <c r="C18" s="148" t="s">
+      <c r="B18" s="129" t="s">
+        <v>461</v>
+      </c>
+      <c r="C18" s="132" t="s">
         <v>48</v>
       </c>
       <c r="D18" s="9"/>
@@ -7620,14 +7620,14 @@
       <c r="F18" s="122"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="143" t="str">
+      <c r="A19" s="127" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1GXDi1coA9HtIo5F2GTLcPhpAh_IiHrmJ","2G")</f>
         <v>2G</v>
       </c>
-      <c r="B19" s="145" t="s">
-        <v>462</v>
-      </c>
-      <c r="C19" s="148" t="s">
+      <c r="B19" s="129" t="s">
+        <v>461</v>
+      </c>
+      <c r="C19" s="132" t="s">
         <v>48</v>
       </c>
       <c r="D19" s="9"/>
@@ -7635,44 +7635,44 @@
       <c r="F19" s="9"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="143" t="str">
+      <c r="A20" s="127" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=18itspidwzvb4KFHkqj1122TxuhHxILwX","2H")</f>
         <v>2H</v>
       </c>
-      <c r="B20" s="146" t="s">
+      <c r="B20" s="130" t="s">
+        <v>462</v>
+      </c>
+      <c r="C20" s="132" t="s">
         <v>463</v>
-      </c>
-      <c r="C20" s="148" t="s">
-        <v>464</v>
       </c>
       <c r="D20" s="121"/>
       <c r="E20" s="9"/>
       <c r="F20" s="122"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="143" t="str">
+      <c r="A21" s="127" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=12YgGEJrua5a-agu15lV4vezflw1cOjQ4","2J")</f>
         <v>2J</v>
       </c>
-      <c r="B21" s="146" t="s">
+      <c r="B21" s="130" t="s">
+        <v>462</v>
+      </c>
+      <c r="C21" s="132" t="s">
         <v>463</v>
-      </c>
-      <c r="C21" s="148" t="s">
-        <v>464</v>
       </c>
       <c r="D21" s="90"/>
       <c r="E21" s="90"/>
       <c r="F21" s="122"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="143" t="str">
+      <c r="A22" s="127" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1mdMrKj4CCNPy7BlChSDOU2hQAJONhZzU","2K")</f>
         <v>2K</v>
       </c>
-      <c r="B22" s="147" t="s">
-        <v>463</v>
-      </c>
-      <c r="C22" s="148" t="s">
+      <c r="B22" s="131" t="s">
+        <v>462</v>
+      </c>
+      <c r="C22" s="132" t="s">
         <v>48</v>
       </c>
       <c r="D22" s="90"/>
@@ -7680,14 +7680,14 @@
       <c r="F22" s="122"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="143" t="str">
+      <c r="A23" s="127" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=14mzIl-szkFL_WWXlsFZ9T_x3Mt5RAOn0","2L")</f>
         <v>2L</v>
       </c>
-      <c r="B23" s="147" t="s">
-        <v>463</v>
-      </c>
-      <c r="C23" s="148" t="s">
+      <c r="B23" s="131" t="s">
+        <v>462</v>
+      </c>
+      <c r="C23" s="132" t="s">
         <v>48</v>
       </c>
       <c r="D23" s="90"/>
@@ -7695,44 +7695,44 @@
       <c r="F23" s="122"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="143" t="str">
+      <c r="A24" s="127" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1-X_VRvOqUUm_bcQ792NJw8TTxR5Kl3lr","2M")</f>
         <v>2M</v>
       </c>
-      <c r="B24" s="146" t="s">
+      <c r="B24" s="130" t="s">
+        <v>462</v>
+      </c>
+      <c r="C24" s="132" t="s">
         <v>463</v>
-      </c>
-      <c r="C24" s="148" t="s">
-        <v>464</v>
       </c>
       <c r="D24" s="121"/>
       <c r="E24" s="90"/>
       <c r="F24" s="9"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="143" t="str">
+      <c r="A25" s="127" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1ofYuI7zJYOx0Em5kOgymDe9L2TWaIZ-_","3C")</f>
         <v>3C</v>
       </c>
-      <c r="B25" s="146" t="s">
+      <c r="B25" s="130" t="s">
+        <v>462</v>
+      </c>
+      <c r="C25" s="132" t="s">
         <v>463</v>
-      </c>
-      <c r="C25" s="148" t="s">
-        <v>464</v>
       </c>
       <c r="D25" s="121"/>
       <c r="E25" s="9"/>
       <c r="F25" s="122"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="143" t="str">
+      <c r="A26" s="127" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1X9eTLHcdh-lSX2OXG4OLDNwPRG5eoz9l","3D")</f>
         <v>3D</v>
       </c>
-      <c r="B26" s="146" t="s">
-        <v>463</v>
-      </c>
-      <c r="C26" s="149" t="s">
+      <c r="B26" s="130" t="s">
+        <v>462</v>
+      </c>
+      <c r="C26" s="133" t="s">
         <v>48</v>
       </c>
       <c r="D26" s="90"/>
@@ -7740,14 +7740,14 @@
       <c r="F26" s="9"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="143" t="str">
+      <c r="A27" s="127" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1m_ACLfEw9sFFcCd16wQnkI9wa3WI7gK9","3E")</f>
         <v>3E</v>
       </c>
-      <c r="B27" s="145" t="s">
-        <v>462</v>
-      </c>
-      <c r="C27" s="148" t="s">
+      <c r="B27" s="129" t="s">
+        <v>461</v>
+      </c>
+      <c r="C27" s="132" t="s">
         <v>48</v>
       </c>
       <c r="D27" s="90"/>
@@ -7755,14 +7755,14 @@
       <c r="F27" s="122"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="143" t="str">
+      <c r="A28" s="127" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1CIBdXiHhWBrM6LwlY-yGooPill1DRTQ7","3F")</f>
         <v>3F</v>
       </c>
-      <c r="B28" s="148" t="s">
+      <c r="B28" s="132" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="148" t="s">
+      <c r="C28" s="132" t="s">
         <v>48</v>
       </c>
       <c r="D28" s="9"/>
@@ -7770,14 +7770,14 @@
       <c r="F28" s="121"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="143" t="str">
+      <c r="A29" s="127" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1c2xmouFbs4cNAvpeHuAdgNreh8kFEC2V","3G")</f>
         <v>3G</v>
       </c>
-      <c r="B29" s="148" t="s">
+      <c r="B29" s="132" t="s">
         <v>48</v>
       </c>
-      <c r="C29" s="148" t="s">
+      <c r="C29" s="132" t="s">
         <v>48</v>
       </c>
       <c r="D29" s="9"/>
@@ -7785,14 +7785,14 @@
       <c r="F29" s="9"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="143" t="str">
+      <c r="A30" s="127" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1t7wkFvS4sGjdMU60zYacdFSrl4pYayl_","3H")</f>
         <v>3H</v>
       </c>
-      <c r="B30" s="148" t="s">
+      <c r="B30" s="132" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="148" t="s">
+      <c r="C30" s="132" t="s">
         <v>48</v>
       </c>
       <c r="D30" s="9"/>
@@ -7800,14 +7800,14 @@
       <c r="F30" s="9"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="143" t="str">
+      <c r="A31" s="127" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1N0-R1KTkpoZjXWmN7r0U_myR9XBY5SDj","3J")</f>
         <v>3J</v>
       </c>
-      <c r="B31" s="145" t="s">
-        <v>462</v>
-      </c>
-      <c r="C31" s="148" t="s">
+      <c r="B31" s="129" t="s">
+        <v>461</v>
+      </c>
+      <c r="C31" s="132" t="s">
         <v>48</v>
       </c>
       <c r="D31" s="9"/>
@@ -7815,29 +7815,29 @@
       <c r="F31" s="122"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="143" t="str">
+      <c r="A32" s="127" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=13pmWKIsTMFsSuBTJ-HZb5DVIowIXTS_s","3L")</f>
         <v>3L</v>
       </c>
-      <c r="B32" s="146" t="s">
+      <c r="B32" s="130" t="s">
+        <v>462</v>
+      </c>
+      <c r="C32" s="132" t="s">
         <v>463</v>
-      </c>
-      <c r="C32" s="148" t="s">
-        <v>464</v>
       </c>
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
       <c r="F32" s="122"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="143" t="str">
+      <c r="A33" s="127" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=16nGNQgv2r19h9agxYjXmQ8rC4v330dYf","4E")</f>
         <v>4E</v>
       </c>
-      <c r="B33" s="145" t="s">
-        <v>462</v>
-      </c>
-      <c r="C33" s="148" t="s">
+      <c r="B33" s="129" t="s">
+        <v>461</v>
+      </c>
+      <c r="C33" s="132" t="s">
         <v>48</v>
       </c>
       <c r="D33" s="9"/>
@@ -7845,14 +7845,14 @@
       <c r="F33" s="9"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="143" t="str">
+      <c r="A34" s="127" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1bmJc7h6PrfobWHjtATEPhVDZqxi3ORaa","4F")</f>
         <v>4F</v>
       </c>
-      <c r="B34" s="145" t="s">
-        <v>462</v>
-      </c>
-      <c r="C34" s="148" t="s">
+      <c r="B34" s="129" t="s">
+        <v>461</v>
+      </c>
+      <c r="C34" s="132" t="s">
         <v>48</v>
       </c>
       <c r="D34" s="9"/>
@@ -7860,29 +7860,29 @@
       <c r="F34" s="9"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="143" t="str">
+      <c r="A35" s="127" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1nHAP6VZOPX4PWClDeQpEHh4MuzIQchEa","4G")</f>
         <v>4G</v>
       </c>
-      <c r="B35" s="145" t="s">
-        <v>462</v>
-      </c>
-      <c r="C35" s="148" t="s">
-        <v>464</v>
+      <c r="B35" s="129" t="s">
+        <v>461</v>
+      </c>
+      <c r="C35" s="132" t="s">
+        <v>463</v>
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
       <c r="F35" s="122"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="143" t="str">
+      <c r="A36" s="127" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1a78u8iOyRFbuJtQlj9X51FknS9EfCDih","4H")</f>
         <v>4H</v>
       </c>
-      <c r="B36" s="145" t="s">
-        <v>462</v>
-      </c>
-      <c r="C36" s="148" t="s">
+      <c r="B36" s="129" t="s">
+        <v>461</v>
+      </c>
+      <c r="C36" s="132" t="s">
         <v>48</v>
       </c>
       <c r="D36" s="9"/>
@@ -7890,29 +7890,29 @@
       <c r="F36" s="9"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="143" t="str">
+      <c r="A37" s="127" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1zZjefBVzFC9BP-YmMKfQZMWa1XGkqomj","4J")</f>
         <v>4J</v>
       </c>
-      <c r="B37" s="146" t="s">
+      <c r="B37" s="130" t="s">
+        <v>462</v>
+      </c>
+      <c r="C37" s="132" t="s">
         <v>463</v>
-      </c>
-      <c r="C37" s="148" t="s">
-        <v>464</v>
       </c>
       <c r="D37" s="121"/>
       <c r="E37" s="9"/>
       <c r="F37" s="122"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="143" t="str">
+      <c r="A38" s="127" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1qWFlabv0TeVOBvOIJQuvHlR1H3AMOPvN","4K")</f>
         <v>4K</v>
       </c>
-      <c r="B38" s="145" t="s">
-        <v>462</v>
-      </c>
-      <c r="C38" s="148" t="s">
+      <c r="B38" s="129" t="s">
+        <v>461</v>
+      </c>
+      <c r="C38" s="132" t="s">
         <v>48</v>
       </c>
       <c r="D38" s="9"/>
@@ -7920,14 +7920,14 @@
       <c r="F38" s="122"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="143" t="str">
+      <c r="A39" s="127" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=176NV2NM9yvfuW1EMU3iBS768FxgmXjUS","4L")</f>
         <v>4L</v>
       </c>
-      <c r="B39" s="145" t="s">
-        <v>462</v>
-      </c>
-      <c r="C39" s="148" t="s">
+      <c r="B39" s="129" t="s">
+        <v>461</v>
+      </c>
+      <c r="C39" s="132" t="s">
         <v>48</v>
       </c>
       <c r="D39" s="9"/>
@@ -7935,14 +7935,14 @@
       <c r="F39" s="122"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="143" t="str">
+      <c r="A40" s="127" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1cC0P-G66cPSNnf6v6z8opZCNyporo74Y","5B")</f>
         <v>5B</v>
       </c>
-      <c r="B40" s="146" t="s">
-        <v>463</v>
-      </c>
-      <c r="C40" s="149" t="s">
+      <c r="B40" s="130" t="s">
+        <v>462</v>
+      </c>
+      <c r="C40" s="133" t="s">
         <v>48</v>
       </c>
       <c r="D40" s="121"/>
@@ -7950,29 +7950,29 @@
       <c r="F40" s="122"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="143" t="str">
+      <c r="A41" s="127" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1q_N74b1OZrCze7zuXy5fm0ASU07tWzh3","5C")</f>
         <v>5C</v>
       </c>
-      <c r="B41" s="145" t="s">
-        <v>462</v>
-      </c>
-      <c r="C41" s="148" t="s">
-        <v>464</v>
+      <c r="B41" s="129" t="s">
+        <v>461</v>
+      </c>
+      <c r="C41" s="132" t="s">
+        <v>463</v>
       </c>
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
       <c r="F41" s="122"/>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="143" t="str">
+      <c r="A42" s="127" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1aKSCelAY002Ihje9mdJi7jFh0OB4j8XZ","5E")</f>
         <v>5E</v>
       </c>
-      <c r="B42" s="145" t="s">
-        <v>462</v>
-      </c>
-      <c r="C42" s="148" t="s">
+      <c r="B42" s="129" t="s">
+        <v>461</v>
+      </c>
+      <c r="C42" s="132" t="s">
         <v>48</v>
       </c>
       <c r="D42" s="9"/>
@@ -7980,14 +7980,14 @@
       <c r="F42" s="122"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="143" t="str">
+      <c r="A43" s="127" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1ghdX_COwJq4oYlhj-qYPypK_2GlrWyQZ","5G")</f>
         <v>5G</v>
       </c>
-      <c r="B43" s="145" t="s">
-        <v>462</v>
-      </c>
-      <c r="C43" s="148" t="s">
+      <c r="B43" s="129" t="s">
+        <v>461</v>
+      </c>
+      <c r="C43" s="132" t="s">
         <v>48</v>
       </c>
       <c r="D43" s="9"/>
@@ -7995,14 +7995,14 @@
       <c r="F43" s="122"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="143" t="str">
+      <c r="A44" s="127" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1MR24L4GDI5x861k8SMrgm71xRfm55Hiv","5H")</f>
         <v>5H</v>
       </c>
-      <c r="B44" s="145" t="s">
-        <v>462</v>
-      </c>
-      <c r="C44" s="148" t="s">
+      <c r="B44" s="129" t="s">
+        <v>461</v>
+      </c>
+      <c r="C44" s="132" t="s">
         <v>48</v>
       </c>
       <c r="D44" s="9"/>
@@ -8024,8 +8024,8 @@
   </sheetPr>
   <dimension ref="A1:I1021"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A70" sqref="A70"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
@@ -8045,18 +8045,18 @@
       <c r="C1" s="99" t="s">
         <v>429</v>
       </c>
-      <c r="D1" s="137" t="s">
+      <c r="D1" s="147" t="s">
         <v>272</v>
       </c>
-      <c r="E1" s="137"/>
+      <c r="E1" s="147"/>
       <c r="F1" s="108" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="96" customFormat="1" ht="16">
       <c r="A2" s="9"/>
-      <c r="D2" s="136"/>
-      <c r="E2" s="136"/>
+      <c r="D2" s="149"/>
+      <c r="E2" s="149"/>
       <c r="G2" s="102"/>
       <c r="H2" s="102"/>
       <c r="I2" s="102"/>
@@ -8071,10 +8071,10 @@
       <c r="C3" s="103">
         <v>55</v>
       </c>
-      <c r="D3" s="135" t="s">
+      <c r="D3" s="148" t="s">
         <v>431</v>
       </c>
-      <c r="E3" s="136"/>
+      <c r="E3" s="149"/>
       <c r="F3" s="100" t="s">
         <v>262</v>
       </c>
@@ -8086,8 +8086,8 @@
       <c r="A4" s="97" t="s">
         <v>411</v>
       </c>
-      <c r="D4" s="136"/>
-      <c r="E4" s="136"/>
+      <c r="D4" s="149"/>
+      <c r="E4" s="149"/>
       <c r="F4" s="101"/>
       <c r="G4" s="102"/>
       <c r="H4" s="105"/>
@@ -8103,8 +8103,8 @@
       <c r="C5" s="103">
         <v>43</v>
       </c>
-      <c r="D5" s="136"/>
-      <c r="E5" s="136"/>
+      <c r="D5" s="149"/>
+      <c r="E5" s="149"/>
       <c r="F5" s="100" t="s">
         <v>262</v>
       </c>
@@ -8122,10 +8122,10 @@
       <c r="C6" s="103">
         <v>52</v>
       </c>
-      <c r="D6" s="135" t="s">
+      <c r="D6" s="148" t="s">
         <v>433</v>
       </c>
-      <c r="E6" s="136"/>
+      <c r="E6" s="149"/>
       <c r="F6" s="100" t="s">
         <v>262</v>
       </c>
@@ -8143,10 +8143,10 @@
       <c r="C7" s="103">
         <v>82</v>
       </c>
-      <c r="D7" s="135" t="s">
+      <c r="D7" s="148" t="s">
         <v>433</v>
       </c>
-      <c r="E7" s="136"/>
+      <c r="E7" s="149"/>
       <c r="F7" s="100" t="s">
         <v>262</v>
       </c>
@@ -8164,10 +8164,10 @@
       <c r="C8" s="103">
         <v>99</v>
       </c>
-      <c r="D8" s="135" t="s">
+      <c r="D8" s="148" t="s">
         <v>432</v>
       </c>
-      <c r="E8" s="136"/>
+      <c r="E8" s="149"/>
       <c r="F8" s="101"/>
       <c r="G8" s="102"/>
       <c r="H8" s="105"/>
@@ -8183,10 +8183,10 @@
       <c r="C9" s="103">
         <v>23</v>
       </c>
-      <c r="D9" s="135" t="s">
+      <c r="D9" s="148" t="s">
         <v>431</v>
       </c>
-      <c r="E9" s="136"/>
+      <c r="E9" s="149"/>
       <c r="F9" s="100" t="s">
         <v>262</v>
       </c>
@@ -8200,8 +8200,8 @@
       </c>
       <c r="B10" s="104"/>
       <c r="C10" s="103"/>
-      <c r="D10" s="136"/>
-      <c r="E10" s="136"/>
+      <c r="D10" s="149"/>
+      <c r="E10" s="149"/>
       <c r="F10" s="101"/>
       <c r="G10" s="102"/>
       <c r="H10" s="105"/>
@@ -8213,8 +8213,8 @@
       </c>
       <c r="B11" s="105"/>
       <c r="C11" s="103"/>
-      <c r="D11" s="136"/>
-      <c r="E11" s="136"/>
+      <c r="D11" s="149"/>
+      <c r="E11" s="149"/>
       <c r="F11" s="101"/>
       <c r="G11" s="102"/>
       <c r="H11" s="105"/>
@@ -8230,10 +8230,10 @@
       <c r="C12" s="103">
         <v>59</v>
       </c>
-      <c r="D12" s="135" t="s">
+      <c r="D12" s="148" t="s">
         <v>431</v>
       </c>
-      <c r="E12" s="136"/>
+      <c r="E12" s="149"/>
       <c r="F12" s="100" t="s">
         <v>262</v>
       </c>
@@ -8251,10 +8251,10 @@
       <c r="C13" s="103">
         <v>56</v>
       </c>
-      <c r="D13" s="135" t="s">
+      <c r="D13" s="148" t="s">
         <v>433</v>
       </c>
-      <c r="E13" s="136"/>
+      <c r="E13" s="149"/>
       <c r="F13" s="100" t="s">
         <v>262</v>
       </c>
@@ -8272,10 +8272,10 @@
       <c r="C14" s="103">
         <v>72</v>
       </c>
-      <c r="D14" s="135" t="s">
+      <c r="D14" s="148" t="s">
         <v>433</v>
       </c>
-      <c r="E14" s="136"/>
+      <c r="E14" s="149"/>
       <c r="F14" s="100" t="s">
         <v>262</v>
       </c>
@@ -8293,8 +8293,8 @@
       <c r="C15" s="103">
         <v>64</v>
       </c>
-      <c r="D15" s="136"/>
-      <c r="E15" s="136"/>
+      <c r="D15" s="149"/>
+      <c r="E15" s="149"/>
       <c r="F15" s="100" t="s">
         <v>262</v>
       </c>
@@ -8308,8 +8308,8 @@
       </c>
       <c r="B16" s="103"/>
       <c r="C16" s="103"/>
-      <c r="D16" s="136"/>
-      <c r="E16" s="136"/>
+      <c r="D16" s="149"/>
+      <c r="E16" s="149"/>
       <c r="F16" s="101"/>
       <c r="G16" s="102"/>
       <c r="H16" s="105"/>
@@ -8321,8 +8321,8 @@
       </c>
       <c r="B17" s="103"/>
       <c r="C17" s="103"/>
-      <c r="D17" s="136"/>
-      <c r="E17" s="136"/>
+      <c r="D17" s="149"/>
+      <c r="E17" s="149"/>
       <c r="F17" s="101"/>
       <c r="G17" s="102"/>
       <c r="H17" s="105"/>
@@ -8334,8 +8334,8 @@
       </c>
       <c r="B18" s="103"/>
       <c r="C18" s="103"/>
-      <c r="D18" s="136"/>
-      <c r="E18" s="136"/>
+      <c r="D18" s="149"/>
+      <c r="E18" s="149"/>
       <c r="F18" s="101"/>
       <c r="G18" s="102"/>
       <c r="H18" s="105"/>
@@ -8351,10 +8351,10 @@
       <c r="C19" s="103">
         <v>40</v>
       </c>
-      <c r="D19" s="135" t="s">
+      <c r="D19" s="148" t="s">
         <v>433</v>
       </c>
-      <c r="E19" s="136"/>
+      <c r="E19" s="149"/>
       <c r="F19" s="100" t="s">
         <v>262</v>
       </c>
@@ -8367,15 +8367,15 @@
         <v>427</v>
       </c>
       <c r="B20" s="103">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C20" s="103">
-        <v>46</v>
-      </c>
-      <c r="D20" s="135" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="148" t="s">
         <v>433</v>
       </c>
-      <c r="E20" s="136"/>
+      <c r="E20" s="149"/>
       <c r="F20" s="100" t="s">
         <v>262</v>
       </c>
@@ -8393,12 +8393,12 @@
       <c r="C21" s="103">
         <v>84</v>
       </c>
-      <c r="D21" s="135" t="s">
+      <c r="D21" s="148" t="s">
         <v>433</v>
       </c>
-      <c r="E21" s="136"/>
+      <c r="E21" s="149"/>
       <c r="F21" s="100" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="G21" s="102"/>
       <c r="H21" s="105"/>
@@ -8509,10 +8509,10 @@
         <v>235</v>
       </c>
       <c r="B35" s="95" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C35" s="95" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="36" spans="1:5" s="96" customFormat="1" ht="15.75" customHeight="1">
@@ -8520,10 +8520,10 @@
         <v>235</v>
       </c>
       <c r="B36" s="95" t="s">
+        <v>444</v>
+      </c>
+      <c r="C36" s="95" t="s">
         <v>445</v>
-      </c>
-      <c r="C36" s="95" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="37" spans="1:5" s="96" customFormat="1" ht="15.75" customHeight="1">
@@ -8533,24 +8533,24 @@
     </row>
     <row r="38" spans="1:5" s="96" customFormat="1" ht="15.75" customHeight="1">
       <c r="A38" s="95" t="s">
+        <v>446</v>
+      </c>
+      <c r="B38" s="95" t="s">
+        <v>453</v>
+      </c>
+      <c r="C38" s="95" t="s">
         <v>447</v>
-      </c>
-      <c r="B38" s="95" t="s">
-        <v>454</v>
-      </c>
-      <c r="C38" s="95" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="39" spans="1:5" s="96" customFormat="1" ht="15.75" customHeight="1">
       <c r="A39" s="95" t="s">
+        <v>446</v>
+      </c>
+      <c r="B39" s="95" t="s">
+        <v>454</v>
+      </c>
+      <c r="C39" s="95" t="s">
         <v>447</v>
-      </c>
-      <c r="B39" s="95" t="s">
-        <v>455</v>
-      </c>
-      <c r="C39" s="95" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="40" spans="1:5" s="96" customFormat="1" ht="15.75" customHeight="1">
@@ -8566,7 +8566,7 @@
     <row r="42" spans="1:5" ht="15.75" customHeight="1"/>
     <row r="43" spans="1:5" ht="15.75" customHeight="1">
       <c r="A43" s="14" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="15.75" customHeight="1">
@@ -8588,7 +8588,7 @@
         <v>411</v>
       </c>
       <c r="B46" s="113" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C46" s="115"/>
       <c r="D46" s="109"/>
@@ -8599,7 +8599,7 @@
         <v>411</v>
       </c>
       <c r="B47" s="113" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C47" s="113"/>
       <c r="D47" s="109"/>
@@ -8617,7 +8617,7 @@
         <v>417</v>
       </c>
       <c r="B49" s="113" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C49" s="115"/>
       <c r="D49" s="109"/>
@@ -8628,7 +8628,7 @@
         <v>417</v>
       </c>
       <c r="B50" s="113" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C50" s="113"/>
       <c r="D50" s="109"/>
@@ -8704,7 +8704,7 @@
         <v>424</v>
       </c>
       <c r="B58" s="110" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C58" s="92"/>
       <c r="D58" s="109"/>
@@ -8715,7 +8715,7 @@
         <v>424</v>
       </c>
       <c r="B59" s="110" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C59" s="92"/>
       <c r="D59" s="109"/>
@@ -9737,11 +9737,6 @@
     <row r="1021" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="D2:E2"/>
@@ -9758,6 +9753,11 @@
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Antonio-Feed/__FeedPartsInventory.xlsx
+++ b/Antonio-Feed/__FeedPartsInventory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pollak/Documents/GitHub/Front-Page/Antonio-Feed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E350FF52-F529-3C45-B7DF-D6E8182E8D17}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{972B6740-B863-9E41-B1A1-1D5CD476A7FE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="53680" yWindow="460" windowWidth="35840" windowHeight="19760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20560" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parts At ATA" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="467">
   <si>
     <t>Antenna Inventory</t>
   </si>
@@ -1443,6 +1443,12 @@
   </si>
   <si>
     <t>sn0002A</t>
+  </si>
+  <si>
+    <t>X=0.14 Y=0.06 Z=0.15</t>
+  </si>
+  <si>
+    <t>X=0.23 Y=0.07 Z=0.22</t>
   </si>
 </sst>
 </file>
@@ -1613,7 +1619,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="20">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1713,12 +1719,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0070C0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1956,7 +1956,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="149">
+  <cellXfs count="148">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2168,13 +2168,10 @@
     <xf numFmtId="0" fontId="4" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -2461,25 +2458,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="135" t="s">
+      <c r="A1" s="134" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="136"/>
-      <c r="C1" s="136"/>
-      <c r="D1" s="136"/>
-      <c r="E1" s="136"/>
-      <c r="F1" s="136"/>
-      <c r="G1" s="136"/>
-      <c r="H1" s="137"/>
-      <c r="I1" s="138"/>
-      <c r="J1" s="138"/>
-      <c r="K1" s="137"/>
-      <c r="L1" s="138"/>
-      <c r="M1" s="138"/>
-      <c r="N1" s="138"/>
-      <c r="O1" s="138"/>
-      <c r="P1" s="138"/>
-      <c r="Q1" s="138"/>
+      <c r="B1" s="135"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="135"/>
+      <c r="E1" s="135"/>
+      <c r="F1" s="135"/>
+      <c r="G1" s="135"/>
+      <c r="H1" s="136"/>
+      <c r="I1" s="137"/>
+      <c r="J1" s="137"/>
+      <c r="K1" s="136"/>
+      <c r="L1" s="137"/>
+      <c r="M1" s="137"/>
+      <c r="N1" s="137"/>
+      <c r="O1" s="137"/>
+      <c r="P1" s="137"/>
+      <c r="Q1" s="137"/>
     </row>
     <row r="2" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -3777,38 +3774,38 @@
       <c r="A58" s="9"/>
     </row>
     <row r="59" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="139" t="s">
+      <c r="A59" s="138" t="s">
         <v>157</v>
       </c>
-      <c r="B59" s="134"/>
-      <c r="C59" s="134"/>
+      <c r="B59" s="133"/>
+      <c r="C59" s="133"/>
     </row>
     <row r="60" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="12"/>
     </row>
     <row r="61" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="133" t="s">
+      <c r="A61" s="132" t="s">
         <v>149</v>
       </c>
-      <c r="B61" s="134"/>
-      <c r="C61" s="133" t="s">
+      <c r="B61" s="133"/>
+      <c r="C61" s="132" t="s">
         <v>158</v>
       </c>
-      <c r="D61" s="134"/>
-      <c r="E61" s="134"/>
-      <c r="F61" s="134"/>
+      <c r="D61" s="133"/>
+      <c r="E61" s="133"/>
+      <c r="F61" s="133"/>
     </row>
     <row r="62" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="133" t="s">
+      <c r="A62" s="132" t="s">
         <v>159</v>
       </c>
-      <c r="B62" s="134"/>
-      <c r="C62" s="133" t="s">
+      <c r="B62" s="133"/>
+      <c r="C62" s="132" t="s">
         <v>160</v>
       </c>
-      <c r="D62" s="134"/>
-      <c r="E62" s="134"/>
-      <c r="F62" s="134"/>
+      <c r="D62" s="133"/>
+      <c r="E62" s="133"/>
+      <c r="F62" s="133"/>
     </row>
     <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="64" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4775,8 +4772,8 @@
   </sheetPr>
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection sqref="A1:J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4789,20 +4786,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="135" t="s">
+      <c r="A1" s="134" t="s">
         <v>161</v>
       </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="141" t="s">
+      <c r="B1" s="139"/>
+      <c r="C1" s="140" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="137"/>
-      <c r="E1" s="137"/>
-      <c r="F1" s="137"/>
-      <c r="G1" s="137"/>
-      <c r="H1" s="137"/>
-      <c r="I1" s="137"/>
-      <c r="J1" s="137"/>
+      <c r="D1" s="136"/>
+      <c r="E1" s="136"/>
+      <c r="F1" s="136"/>
+      <c r="G1" s="136"/>
+      <c r="H1" s="136"/>
+      <c r="I1" s="136"/>
+      <c r="J1" s="136"/>
       <c r="K1" s="83"/>
       <c r="L1" s="83"/>
     </row>
@@ -4882,7 +4879,9 @@
       <c r="F4" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="78"/>
+      <c r="G4" s="22" t="s">
+        <v>166</v>
+      </c>
       <c r="H4" s="24" t="s">
         <v>28</v>
       </c>
@@ -5571,8 +5570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9CEE8EE-E616-9C40-8E50-615D9D9C3993}">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5582,20 +5581,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="142" t="s">
+      <c r="A1" s="141" t="s">
         <v>161</v>
       </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="142" t="s">
+      <c r="B1" s="142"/>
+      <c r="C1" s="141" t="s">
         <v>366</v>
       </c>
-      <c r="D1" s="144"/>
-      <c r="E1" s="144"/>
-      <c r="F1" s="144"/>
-      <c r="G1" s="144"/>
-      <c r="H1" s="144"/>
-      <c r="I1" s="144"/>
-      <c r="J1" s="143"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
+      <c r="G1" s="143"/>
+      <c r="H1" s="143"/>
+      <c r="I1" s="143"/>
+      <c r="J1" s="142"/>
     </row>
     <row r="2" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="72" t="s">
@@ -5626,8 +5625,12 @@
       <c r="B3" s="60" t="s">
         <v>165</v>
       </c>
-      <c r="C3" s="71"/>
-      <c r="D3" s="67"/>
+      <c r="C3" s="69" t="s">
+        <v>466</v>
+      </c>
+      <c r="D3" s="67" t="s">
+        <v>465</v>
+      </c>
       <c r="E3" s="67"/>
       <c r="F3" s="67"/>
       <c r="G3" s="67"/>
@@ -7367,7 +7370,7 @@
   <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection sqref="A1:C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7377,11 +7380,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="135" t="s">
+      <c r="A1" s="134" t="s">
         <v>454</v>
       </c>
-      <c r="B1" s="145"/>
-      <c r="C1" s="145"/>
+      <c r="B1" s="144"/>
+      <c r="C1" s="144"/>
       <c r="D1" s="122"/>
       <c r="E1" s="122"/>
       <c r="F1" s="122"/>
@@ -7408,7 +7411,7 @@
       <c r="B3" s="125" t="s">
         <v>457</v>
       </c>
-      <c r="C3" s="128" t="s">
+      <c r="C3" s="127" t="s">
         <v>459</v>
       </c>
       <c r="D3" s="77"/>
@@ -7423,7 +7426,7 @@
       <c r="B4" s="125" t="s">
         <v>457</v>
       </c>
-      <c r="C4" s="128" t="s">
+      <c r="C4" s="127" t="s">
         <v>48</v>
       </c>
       <c r="D4" s="9"/>
@@ -7438,7 +7441,7 @@
       <c r="B5" s="126" t="s">
         <v>458</v>
       </c>
-      <c r="C5" s="128" t="s">
+      <c r="C5" s="127" t="s">
         <v>459</v>
       </c>
       <c r="D5" s="9"/>
@@ -7453,7 +7456,7 @@
       <c r="B6" s="125" t="s">
         <v>457</v>
       </c>
-      <c r="C6" s="128" t="s">
+      <c r="C6" s="127" t="s">
         <v>48</v>
       </c>
       <c r="D6" s="88"/>
@@ -7468,7 +7471,7 @@
       <c r="B7" s="126" t="s">
         <v>458</v>
       </c>
-      <c r="C7" s="129" t="s">
+      <c r="C7" s="128" t="s">
         <v>48</v>
       </c>
       <c r="D7" s="88"/>
@@ -7483,7 +7486,7 @@
       <c r="B8" s="125" t="s">
         <v>457</v>
       </c>
-      <c r="C8" s="128" t="s">
+      <c r="C8" s="127" t="s">
         <v>459</v>
       </c>
       <c r="D8" s="9"/>
@@ -7498,7 +7501,7 @@
       <c r="B9" s="126" t="s">
         <v>458</v>
       </c>
-      <c r="C9" s="129" t="s">
+      <c r="C9" s="128" t="s">
         <v>48</v>
       </c>
       <c r="D9" s="9"/>
@@ -7513,7 +7516,7 @@
       <c r="B10" s="126" t="s">
         <v>458</v>
       </c>
-      <c r="C10" s="128" t="s">
+      <c r="C10" s="127" t="s">
         <v>459</v>
       </c>
       <c r="D10" s="9"/>
@@ -7528,7 +7531,7 @@
       <c r="B11" s="125" t="s">
         <v>457</v>
       </c>
-      <c r="C11" s="128" t="s">
+      <c r="C11" s="127" t="s">
         <v>48</v>
       </c>
       <c r="D11" s="9"/>
@@ -7543,7 +7546,7 @@
       <c r="B12" s="126" t="s">
         <v>458</v>
       </c>
-      <c r="C12" s="128" t="s">
+      <c r="C12" s="127" t="s">
         <v>459</v>
       </c>
       <c r="D12" s="9"/>
@@ -7558,7 +7561,7 @@
       <c r="B13" s="126" t="s">
         <v>458</v>
       </c>
-      <c r="C13" s="128" t="s">
+      <c r="C13" s="127" t="s">
         <v>459</v>
       </c>
       <c r="D13" s="9"/>
@@ -7573,7 +7576,7 @@
       <c r="B14" s="126" t="s">
         <v>458</v>
       </c>
-      <c r="C14" s="128" t="s">
+      <c r="C14" s="127" t="s">
         <v>459</v>
       </c>
       <c r="D14" s="9"/>
@@ -7585,10 +7588,10 @@
         <f>HYPERLINK("https://drive.google.com/open?id=1HmSkhlRiy_w_xIcPrlD-Gu21Q1sHCajk","2C")</f>
         <v>2C</v>
       </c>
-      <c r="B15" s="127" t="s">
+      <c r="B15" s="126" t="s">
         <v>458</v>
       </c>
-      <c r="C15" s="128" t="s">
+      <c r="C15" s="127" t="s">
         <v>48</v>
       </c>
       <c r="D15" s="9"/>
@@ -7603,7 +7606,7 @@
       <c r="B16" s="125" t="s">
         <v>457</v>
       </c>
-      <c r="C16" s="128" t="s">
+      <c r="C16" s="127" t="s">
         <v>48</v>
       </c>
       <c r="D16" s="9"/>
@@ -7618,7 +7621,7 @@
       <c r="B17" s="126" t="s">
         <v>458</v>
       </c>
-      <c r="C17" s="128" t="s">
+      <c r="C17" s="127" t="s">
         <v>459</v>
       </c>
       <c r="D17" s="9"/>
@@ -7633,7 +7636,7 @@
       <c r="B18" s="125" t="s">
         <v>457</v>
       </c>
-      <c r="C18" s="128" t="s">
+      <c r="C18" s="127" t="s">
         <v>48</v>
       </c>
       <c r="D18" s="9"/>
@@ -7648,7 +7651,7 @@
       <c r="B19" s="125" t="s">
         <v>457</v>
       </c>
-      <c r="C19" s="128" t="s">
+      <c r="C19" s="127" t="s">
         <v>48</v>
       </c>
       <c r="D19" s="9"/>
@@ -7663,7 +7666,7 @@
       <c r="B20" s="126" t="s">
         <v>458</v>
       </c>
-      <c r="C20" s="128" t="s">
+      <c r="C20" s="127" t="s">
         <v>459</v>
       </c>
       <c r="D20" s="118"/>
@@ -7678,7 +7681,7 @@
       <c r="B21" s="126" t="s">
         <v>458</v>
       </c>
-      <c r="C21" s="128" t="s">
+      <c r="C21" s="127" t="s">
         <v>459</v>
       </c>
       <c r="D21" s="88"/>
@@ -7690,10 +7693,10 @@
         <f>HYPERLINK("https://drive.google.com/open?id=1mdMrKj4CCNPy7BlChSDOU2hQAJONhZzU","2K")</f>
         <v>2K</v>
       </c>
-      <c r="B22" s="127" t="s">
+      <c r="B22" s="126" t="s">
         <v>458</v>
       </c>
-      <c r="C22" s="128" t="s">
+      <c r="C22" s="127" t="s">
         <v>48</v>
       </c>
       <c r="D22" s="88"/>
@@ -7705,10 +7708,10 @@
         <f>HYPERLINK("https://drive.google.com/open?id=14mzIl-szkFL_WWXlsFZ9T_x3Mt5RAOn0","2L")</f>
         <v>2L</v>
       </c>
-      <c r="B23" s="127" t="s">
+      <c r="B23" s="126" t="s">
         <v>458</v>
       </c>
-      <c r="C23" s="128" t="s">
+      <c r="C23" s="127" t="s">
         <v>48</v>
       </c>
       <c r="D23" s="88"/>
@@ -7723,7 +7726,7 @@
       <c r="B24" s="126" t="s">
         <v>458</v>
       </c>
-      <c r="C24" s="128" t="s">
+      <c r="C24" s="127" t="s">
         <v>459</v>
       </c>
       <c r="D24" s="118"/>
@@ -7738,7 +7741,7 @@
       <c r="B25" s="126" t="s">
         <v>458</v>
       </c>
-      <c r="C25" s="128" t="s">
+      <c r="C25" s="127" t="s">
         <v>459</v>
       </c>
       <c r="D25" s="118"/>
@@ -7753,7 +7756,7 @@
       <c r="B26" s="126" t="s">
         <v>458</v>
       </c>
-      <c r="C26" s="129" t="s">
+      <c r="C26" s="128" t="s">
         <v>48</v>
       </c>
       <c r="D26" s="88"/>
@@ -7768,7 +7771,7 @@
       <c r="B27" s="125" t="s">
         <v>457</v>
       </c>
-      <c r="C27" s="128" t="s">
+      <c r="C27" s="127" t="s">
         <v>48</v>
       </c>
       <c r="D27" s="88"/>
@@ -7780,10 +7783,10 @@
         <f>HYPERLINK("https://drive.google.com/open?id=1CIBdXiHhWBrM6LwlY-yGooPill1DRTQ7","3F")</f>
         <v>3F</v>
       </c>
-      <c r="B28" s="128" t="s">
+      <c r="B28" s="127" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="128" t="s">
+      <c r="C28" s="127" t="s">
         <v>48</v>
       </c>
       <c r="D28" s="9"/>
@@ -7795,10 +7798,10 @@
         <f>HYPERLINK("https://drive.google.com/open?id=1c2xmouFbs4cNAvpeHuAdgNreh8kFEC2V","3G")</f>
         <v>3G</v>
       </c>
-      <c r="B29" s="128" t="s">
+      <c r="B29" s="127" t="s">
         <v>48</v>
       </c>
-      <c r="C29" s="128" t="s">
+      <c r="C29" s="127" t="s">
         <v>48</v>
       </c>
       <c r="D29" s="9"/>
@@ -7810,10 +7813,10 @@
         <f>HYPERLINK("https://drive.google.com/open?id=1t7wkFvS4sGjdMU60zYacdFSrl4pYayl_","3H")</f>
         <v>3H</v>
       </c>
-      <c r="B30" s="128" t="s">
+      <c r="B30" s="127" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="128" t="s">
+      <c r="C30" s="127" t="s">
         <v>48</v>
       </c>
       <c r="D30" s="9"/>
@@ -7828,7 +7831,7 @@
       <c r="B31" s="125" t="s">
         <v>457</v>
       </c>
-      <c r="C31" s="128" t="s">
+      <c r="C31" s="127" t="s">
         <v>48</v>
       </c>
       <c r="D31" s="9"/>
@@ -7843,7 +7846,7 @@
       <c r="B32" s="126" t="s">
         <v>458</v>
       </c>
-      <c r="C32" s="128" t="s">
+      <c r="C32" s="127" t="s">
         <v>459</v>
       </c>
       <c r="D32" s="9"/>
@@ -7858,7 +7861,7 @@
       <c r="B33" s="125" t="s">
         <v>457</v>
       </c>
-      <c r="C33" s="128" t="s">
+      <c r="C33" s="127" t="s">
         <v>48</v>
       </c>
       <c r="D33" s="9"/>
@@ -7873,7 +7876,7 @@
       <c r="B34" s="125" t="s">
         <v>457</v>
       </c>
-      <c r="C34" s="128" t="s">
+      <c r="C34" s="127" t="s">
         <v>48</v>
       </c>
       <c r="D34" s="9"/>
@@ -7888,7 +7891,7 @@
       <c r="B35" s="125" t="s">
         <v>457</v>
       </c>
-      <c r="C35" s="128" t="s">
+      <c r="C35" s="127" t="s">
         <v>459</v>
       </c>
       <c r="D35" s="9"/>
@@ -7903,7 +7906,7 @@
       <c r="B36" s="125" t="s">
         <v>457</v>
       </c>
-      <c r="C36" s="128" t="s">
+      <c r="C36" s="127" t="s">
         <v>48</v>
       </c>
       <c r="D36" s="9"/>
@@ -7918,7 +7921,7 @@
       <c r="B37" s="126" t="s">
         <v>458</v>
       </c>
-      <c r="C37" s="128" t="s">
+      <c r="C37" s="127" t="s">
         <v>459</v>
       </c>
       <c r="D37" s="118"/>
@@ -7933,7 +7936,7 @@
       <c r="B38" s="125" t="s">
         <v>457</v>
       </c>
-      <c r="C38" s="128" t="s">
+      <c r="C38" s="127" t="s">
         <v>48</v>
       </c>
       <c r="D38" s="9"/>
@@ -7948,7 +7951,7 @@
       <c r="B39" s="125" t="s">
         <v>457</v>
       </c>
-      <c r="C39" s="128" t="s">
+      <c r="C39" s="127" t="s">
         <v>48</v>
       </c>
       <c r="D39" s="9"/>
@@ -7963,7 +7966,7 @@
       <c r="B40" s="126" t="s">
         <v>458</v>
       </c>
-      <c r="C40" s="129" t="s">
+      <c r="C40" s="128" t="s">
         <v>48</v>
       </c>
       <c r="D40" s="118"/>
@@ -7978,7 +7981,7 @@
       <c r="B41" s="125" t="s">
         <v>457</v>
       </c>
-      <c r="C41" s="128" t="s">
+      <c r="C41" s="127" t="s">
         <v>459</v>
       </c>
       <c r="D41" s="9"/>
@@ -7993,7 +7996,7 @@
       <c r="B42" s="125" t="s">
         <v>457</v>
       </c>
-      <c r="C42" s="128" t="s">
+      <c r="C42" s="127" t="s">
         <v>48</v>
       </c>
       <c r="D42" s="9"/>
@@ -8008,7 +8011,7 @@
       <c r="B43" s="125" t="s">
         <v>457</v>
       </c>
-      <c r="C43" s="128" t="s">
+      <c r="C43" s="127" t="s">
         <v>48</v>
       </c>
       <c r="D43" s="9"/>
@@ -8023,7 +8026,7 @@
       <c r="B44" s="125" t="s">
         <v>457</v>
       </c>
-      <c r="C44" s="128" t="s">
+      <c r="C44" s="127" t="s">
         <v>48</v>
       </c>
       <c r="D44" s="9"/>
@@ -8035,6 +8038,7 @@
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -8066,18 +8070,18 @@
       <c r="C1" s="97" t="s">
         <v>427</v>
       </c>
-      <c r="D1" s="146" t="s">
+      <c r="D1" s="145" t="s">
         <v>271</v>
       </c>
-      <c r="E1" s="146"/>
+      <c r="E1" s="145"/>
       <c r="F1" s="106" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="94" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="9"/>
-      <c r="D2" s="148"/>
-      <c r="E2" s="148"/>
+      <c r="D2" s="147"/>
+      <c r="E2" s="147"/>
       <c r="G2" s="100"/>
       <c r="H2" s="100"/>
       <c r="I2" s="100"/>
@@ -8092,10 +8096,10 @@
       <c r="C3" s="101">
         <v>55</v>
       </c>
-      <c r="D3" s="147" t="s">
+      <c r="D3" s="146" t="s">
         <v>429</v>
       </c>
-      <c r="E3" s="148"/>
+      <c r="E3" s="147"/>
       <c r="F3" s="98" t="s">
         <v>261</v>
       </c>
@@ -8107,8 +8111,8 @@
       <c r="A4" s="95" t="s">
         <v>409</v>
       </c>
-      <c r="D4" s="148"/>
-      <c r="E4" s="148"/>
+      <c r="D4" s="147"/>
+      <c r="E4" s="147"/>
       <c r="F4" s="99"/>
       <c r="G4" s="100"/>
       <c r="H4" s="103"/>
@@ -8124,8 +8128,8 @@
       <c r="C5" s="101">
         <v>43</v>
       </c>
-      <c r="D5" s="148"/>
-      <c r="E5" s="148"/>
+      <c r="D5" s="147"/>
+      <c r="E5" s="147"/>
       <c r="F5" s="98" t="s">
         <v>261</v>
       </c>
@@ -8143,10 +8147,10 @@
       <c r="C6" s="101">
         <v>52</v>
       </c>
-      <c r="D6" s="147" t="s">
+      <c r="D6" s="146" t="s">
         <v>431</v>
       </c>
-      <c r="E6" s="148"/>
+      <c r="E6" s="147"/>
       <c r="F6" s="98" t="s">
         <v>261</v>
       </c>
@@ -8164,10 +8168,10 @@
       <c r="C7" s="101">
         <v>82</v>
       </c>
-      <c r="D7" s="147" t="s">
+      <c r="D7" s="146" t="s">
         <v>431</v>
       </c>
-      <c r="E7" s="148"/>
+      <c r="E7" s="147"/>
       <c r="F7" s="98" t="s">
         <v>261</v>
       </c>
@@ -8185,10 +8189,10 @@
       <c r="C8" s="101">
         <v>99</v>
       </c>
-      <c r="D8" s="147" t="s">
+      <c r="D8" s="146" t="s">
         <v>430</v>
       </c>
-      <c r="E8" s="148"/>
+      <c r="E8" s="147"/>
       <c r="F8" s="99"/>
       <c r="G8" s="100"/>
       <c r="H8" s="103"/>
@@ -8204,10 +8208,10 @@
       <c r="C9" s="101">
         <v>23</v>
       </c>
-      <c r="D9" s="147" t="s">
+      <c r="D9" s="146" t="s">
         <v>429</v>
       </c>
-      <c r="E9" s="148"/>
+      <c r="E9" s="147"/>
       <c r="F9" s="98" t="s">
         <v>261</v>
       </c>
@@ -8221,8 +8225,8 @@
       </c>
       <c r="B10" s="102"/>
       <c r="C10" s="101"/>
-      <c r="D10" s="148"/>
-      <c r="E10" s="148"/>
+      <c r="D10" s="147"/>
+      <c r="E10" s="147"/>
       <c r="F10" s="99"/>
       <c r="G10" s="100"/>
       <c r="H10" s="103"/>
@@ -8234,8 +8238,8 @@
       </c>
       <c r="B11" s="103"/>
       <c r="C11" s="101"/>
-      <c r="D11" s="148"/>
-      <c r="E11" s="148"/>
+      <c r="D11" s="147"/>
+      <c r="E11" s="147"/>
       <c r="F11" s="99"/>
       <c r="G11" s="100"/>
       <c r="H11" s="103"/>
@@ -8251,10 +8255,10 @@
       <c r="C12" s="101">
         <v>59</v>
       </c>
-      <c r="D12" s="147" t="s">
+      <c r="D12" s="146" t="s">
         <v>429</v>
       </c>
-      <c r="E12" s="148"/>
+      <c r="E12" s="147"/>
       <c r="F12" s="98" t="s">
         <v>261</v>
       </c>
@@ -8272,10 +8276,10 @@
       <c r="C13" s="101">
         <v>56</v>
       </c>
-      <c r="D13" s="147" t="s">
+      <c r="D13" s="146" t="s">
         <v>431</v>
       </c>
-      <c r="E13" s="148"/>
+      <c r="E13" s="147"/>
       <c r="F13" s="98" t="s">
         <v>261</v>
       </c>
@@ -8293,10 +8297,10 @@
       <c r="C14" s="101">
         <v>72</v>
       </c>
-      <c r="D14" s="147" t="s">
+      <c r="D14" s="146" t="s">
         <v>431</v>
       </c>
-      <c r="E14" s="148"/>
+      <c r="E14" s="147"/>
       <c r="F14" s="98" t="s">
         <v>261</v>
       </c>
@@ -8314,8 +8318,8 @@
       <c r="C15" s="101">
         <v>64</v>
       </c>
-      <c r="D15" s="148"/>
-      <c r="E15" s="148"/>
+      <c r="D15" s="147"/>
+      <c r="E15" s="147"/>
       <c r="F15" s="98" t="s">
         <v>261</v>
       </c>
@@ -8329,8 +8333,8 @@
       </c>
       <c r="B16" s="101"/>
       <c r="C16" s="101"/>
-      <c r="D16" s="148"/>
-      <c r="E16" s="148"/>
+      <c r="D16" s="147"/>
+      <c r="E16" s="147"/>
       <c r="F16" s="99"/>
       <c r="G16" s="100"/>
       <c r="H16" s="103"/>
@@ -8346,9 +8350,9 @@
       <c r="C17" s="101">
         <v>17</v>
       </c>
-      <c r="D17" s="148"/>
-      <c r="E17" s="148"/>
-      <c r="F17" s="132" t="s">
+      <c r="D17" s="147"/>
+      <c r="E17" s="147"/>
+      <c r="F17" s="131" t="s">
         <v>261</v>
       </c>
       <c r="G17" s="100"/>
@@ -8361,8 +8365,8 @@
       </c>
       <c r="B18" s="101"/>
       <c r="C18" s="101"/>
-      <c r="D18" s="148"/>
-      <c r="E18" s="148"/>
+      <c r="D18" s="147"/>
+      <c r="E18" s="147"/>
       <c r="F18" s="99"/>
       <c r="G18" s="100"/>
       <c r="H18" s="103"/>
@@ -8378,10 +8382,10 @@
       <c r="C19" s="101">
         <v>40</v>
       </c>
-      <c r="D19" s="147" t="s">
+      <c r="D19" s="146" t="s">
         <v>431</v>
       </c>
-      <c r="E19" s="148"/>
+      <c r="E19" s="147"/>
       <c r="F19" s="98" t="s">
         <v>261</v>
       </c>
@@ -8399,10 +8403,10 @@
       <c r="C20" s="101">
         <v>48</v>
       </c>
-      <c r="D20" s="147" t="s">
+      <c r="D20" s="146" t="s">
         <v>431</v>
       </c>
-      <c r="E20" s="148"/>
+      <c r="E20" s="147"/>
       <c r="F20" s="98" t="s">
         <v>261</v>
       </c>
@@ -8420,10 +8424,10 @@
       <c r="C21" s="101">
         <v>84</v>
       </c>
-      <c r="D21" s="147" t="s">
+      <c r="D21" s="146" t="s">
         <v>431</v>
       </c>
-      <c r="E21" s="148"/>
+      <c r="E21" s="147"/>
       <c r="F21" s="98" t="s">
         <v>440</v>
       </c>
@@ -8580,33 +8584,33 @@
         <v>445</v>
       </c>
     </row>
-    <row r="40" spans="1:5" s="131" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="130"/>
-      <c r="B40" s="130"/>
-      <c r="C40" s="130"/>
-    </row>
-    <row r="41" spans="1:5" s="131" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="130" t="s">
+    <row r="40" spans="1:5" s="130" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="129"/>
+      <c r="B40" s="129"/>
+      <c r="C40" s="129"/>
+    </row>
+    <row r="41" spans="1:5" s="130" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="129" t="s">
         <v>444</v>
       </c>
-      <c r="B41" s="130" t="s">
+      <c r="B41" s="129" t="s">
         <v>463</v>
       </c>
-      <c r="C41" s="130" t="s">
+      <c r="C41" s="129" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="42" spans="1:5" s="94" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="130" t="s">
+      <c r="A42" s="129" t="s">
         <v>444</v>
       </c>
-      <c r="B42" s="130" t="s">
+      <c r="B42" s="129" t="s">
         <v>464</v>
       </c>
-      <c r="C42" s="130" t="s">
+      <c r="C42" s="129" t="s">
         <v>445</v>
       </c>
-      <c r="D42" s="131"/>
+      <c r="D42" s="130"/>
     </row>
     <row r="43" spans="1:5" s="94" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="93"/>

--- a/Antonio-Feed/__FeedPartsInventory.xlsx
+++ b/Antonio-Feed/__FeedPartsInventory.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pollak/Documents/GitHub/Front-Page/Antonio-Feed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{972B6740-B863-9E41-B1A1-1D5CD476A7FE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FF5B40F-3A24-5B47-9908-582DA8A249F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20560" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="69800" yWindow="460" windowWidth="35840" windowHeight="19760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parts At ATA" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="469">
   <si>
     <t>Antenna Inventory</t>
   </si>
@@ -1449,6 +1449,12 @@
   </si>
   <si>
     <t>X=0.23 Y=0.07 Z=0.22</t>
+  </si>
+  <si>
+    <t>(017) F66 / F67</t>
+  </si>
+  <si>
+    <t>(010) 24 / 73</t>
   </si>
 </sst>
 </file>
@@ -1619,7 +1625,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1726,6 +1732,12 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFF9900"/>
       </patternFill>
     </fill>
   </fills>
@@ -1986,7 +1998,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2206,15 +2217,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2458,25 +2470,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="134" t="s">
+      <c r="A1" s="133" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="135"/>
-      <c r="C1" s="135"/>
-      <c r="D1" s="135"/>
-      <c r="E1" s="135"/>
-      <c r="F1" s="135"/>
-      <c r="G1" s="135"/>
-      <c r="H1" s="136"/>
-      <c r="I1" s="137"/>
-      <c r="J1" s="137"/>
-      <c r="K1" s="136"/>
-      <c r="L1" s="137"/>
-      <c r="M1" s="137"/>
-      <c r="N1" s="137"/>
-      <c r="O1" s="137"/>
-      <c r="P1" s="137"/>
-      <c r="Q1" s="137"/>
+      <c r="B1" s="134"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
+      <c r="G1" s="134"/>
+      <c r="H1" s="135"/>
+      <c r="I1" s="136"/>
+      <c r="J1" s="136"/>
+      <c r="K1" s="135"/>
+      <c r="L1" s="136"/>
+      <c r="M1" s="136"/>
+      <c r="N1" s="136"/>
+      <c r="O1" s="136"/>
+      <c r="P1" s="136"/>
+      <c r="Q1" s="136"/>
     </row>
     <row r="2" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -2500,16 +2512,16 @@
       <c r="G2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="76"/>
-      <c r="L2" s="77"/>
-      <c r="M2" s="76"/>
-      <c r="N2" s="76"/>
-      <c r="O2" s="76"/>
-      <c r="P2" s="76"/>
-      <c r="Q2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="76"/>
+      <c r="M2" s="75"/>
+      <c r="N2" s="75"/>
+      <c r="O2" s="75"/>
+      <c r="P2" s="75"/>
+      <c r="Q2" s="75"/>
     </row>
     <row r="3" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="str">
@@ -2531,16 +2543,16 @@
       <c r="F3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="75"/>
-      <c r="K3" s="75"/>
-      <c r="L3" s="75"/>
-      <c r="M3" s="75"/>
-      <c r="N3" s="75"/>
-      <c r="O3" s="75"/>
-      <c r="P3" s="75"/>
-      <c r="Q3" s="75"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
+      <c r="L3" s="74"/>
+      <c r="M3" s="74"/>
+      <c r="N3" s="74"/>
+      <c r="O3" s="74"/>
+      <c r="P3" s="74"/>
+      <c r="Q3" s="74"/>
     </row>
     <row r="4" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="str">
@@ -2556,16 +2568,16 @@
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75"/>
-      <c r="K4" s="75"/>
-      <c r="L4" s="75"/>
-      <c r="M4" s="75"/>
-      <c r="N4" s="75"/>
-      <c r="O4" s="75"/>
-      <c r="P4" s="75"/>
-      <c r="Q4" s="75"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="74"/>
+      <c r="M4" s="74"/>
+      <c r="N4" s="74"/>
+      <c r="O4" s="74"/>
+      <c r="P4" s="74"/>
+      <c r="Q4" s="74"/>
     </row>
     <row r="5" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="str">
@@ -2589,16 +2601,16 @@
         <v>27</v>
       </c>
       <c r="G5" s="9"/>
-      <c r="H5" s="75"/>
-      <c r="I5" s="75"/>
-      <c r="J5" s="75"/>
-      <c r="K5" s="75"/>
-      <c r="L5" s="75"/>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="75"/>
-      <c r="Q5" s="75"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="74"/>
+      <c r="J5" s="74"/>
+      <c r="K5" s="74"/>
+      <c r="L5" s="74"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="74"/>
     </row>
     <row r="6" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="str">
@@ -2611,19 +2623,19 @@
       <c r="C6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="88"/>
-      <c r="E6" s="88"/>
-      <c r="F6" s="88"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="75"/>
-      <c r="J6" s="75"/>
-      <c r="K6" s="75"/>
-      <c r="L6" s="75"/>
-      <c r="M6" s="75"/>
-      <c r="N6" s="75"/>
-      <c r="O6" s="75"/>
-      <c r="P6" s="75"/>
-      <c r="Q6" s="75"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="87"/>
+      <c r="F6" s="87"/>
+      <c r="H6" s="74"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="74"/>
+      <c r="K6" s="74"/>
+      <c r="L6" s="74"/>
+      <c r="M6" s="74"/>
+      <c r="N6" s="74"/>
+      <c r="O6" s="74"/>
+      <c r="P6" s="74"/>
+      <c r="Q6" s="74"/>
     </row>
     <row r="7" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="str">
@@ -2636,20 +2648,20 @@
       <c r="C7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="89"/>
-      <c r="E7" s="88"/>
-      <c r="F7" s="88"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
       <c r="G7" s="9"/>
-      <c r="H7" s="75"/>
-      <c r="I7" s="75"/>
-      <c r="J7" s="75"/>
-      <c r="K7" s="75"/>
-      <c r="L7" s="75"/>
-      <c r="M7" s="75"/>
-      <c r="N7" s="75"/>
-      <c r="O7" s="75"/>
-      <c r="P7" s="75"/>
-      <c r="Q7" s="75"/>
+      <c r="H7" s="74"/>
+      <c r="I7" s="74"/>
+      <c r="J7" s="74"/>
+      <c r="K7" s="74"/>
+      <c r="L7" s="74"/>
+      <c r="M7" s="74"/>
+      <c r="N7" s="74"/>
+      <c r="O7" s="74"/>
+      <c r="P7" s="74"/>
+      <c r="Q7" s="74"/>
     </row>
     <row r="8" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="str">
@@ -2671,16 +2683,16 @@
       <c r="F8" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="75"/>
-      <c r="I8" s="75"/>
-      <c r="J8" s="75"/>
-      <c r="K8" s="75"/>
-      <c r="L8" s="75"/>
-      <c r="M8" s="75"/>
-      <c r="N8" s="75"/>
-      <c r="O8" s="75"/>
-      <c r="P8" s="75"/>
-      <c r="Q8" s="75"/>
+      <c r="H8" s="74"/>
+      <c r="I8" s="74"/>
+      <c r="J8" s="74"/>
+      <c r="K8" s="74"/>
+      <c r="L8" s="74"/>
+      <c r="M8" s="74"/>
+      <c r="N8" s="74"/>
+      <c r="O8" s="74"/>
+      <c r="P8" s="74"/>
+      <c r="Q8" s="74"/>
     </row>
     <row r="9" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="str">
@@ -2697,16 +2709,16 @@
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
-      <c r="H9" s="75"/>
-      <c r="I9" s="75"/>
-      <c r="J9" s="75"/>
-      <c r="K9" s="75"/>
-      <c r="L9" s="75"/>
-      <c r="M9" s="75"/>
-      <c r="N9" s="75"/>
-      <c r="O9" s="75"/>
-      <c r="P9" s="75"/>
-      <c r="Q9" s="75"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="74"/>
+      <c r="J9" s="74"/>
+      <c r="K9" s="74"/>
+      <c r="L9" s="74"/>
+      <c r="M9" s="74"/>
+      <c r="N9" s="74"/>
+      <c r="O9" s="74"/>
+      <c r="P9" s="74"/>
+      <c r="Q9" s="74"/>
     </row>
     <row r="10" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="str">
@@ -2729,16 +2741,16 @@
       <c r="F10" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H10" s="75"/>
-      <c r="I10" s="75"/>
-      <c r="J10" s="75"/>
-      <c r="K10" s="75"/>
-      <c r="L10" s="75"/>
-      <c r="M10" s="75"/>
-      <c r="N10" s="75"/>
-      <c r="O10" s="75"/>
-      <c r="P10" s="75"/>
-      <c r="Q10" s="75"/>
+      <c r="H10" s="74"/>
+      <c r="I10" s="74"/>
+      <c r="J10" s="74"/>
+      <c r="K10" s="74"/>
+      <c r="L10" s="74"/>
+      <c r="M10" s="74"/>
+      <c r="N10" s="74"/>
+      <c r="O10" s="74"/>
+      <c r="P10" s="74"/>
+      <c r="Q10" s="74"/>
     </row>
     <row r="11" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="str">
@@ -2755,16 +2767,16 @@
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
-      <c r="H11" s="75"/>
-      <c r="I11" s="75"/>
-      <c r="J11" s="75"/>
-      <c r="K11" s="75"/>
-      <c r="L11" s="75"/>
-      <c r="M11" s="75"/>
-      <c r="N11" s="75"/>
-      <c r="O11" s="75"/>
-      <c r="P11" s="75"/>
-      <c r="Q11" s="75"/>
+      <c r="H11" s="74"/>
+      <c r="I11" s="74"/>
+      <c r="J11" s="74"/>
+      <c r="K11" s="74"/>
+      <c r="L11" s="74"/>
+      <c r="M11" s="74"/>
+      <c r="N11" s="74"/>
+      <c r="O11" s="74"/>
+      <c r="P11" s="74"/>
+      <c r="Q11" s="74"/>
     </row>
     <row r="12" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="str">
@@ -2787,16 +2799,16 @@
       <c r="F12" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="H12" s="75"/>
-      <c r="I12" s="75"/>
-      <c r="J12" s="75"/>
-      <c r="K12" s="75"/>
-      <c r="L12" s="75"/>
-      <c r="M12" s="75"/>
-      <c r="N12" s="75"/>
-      <c r="O12" s="75"/>
-      <c r="P12" s="75"/>
-      <c r="Q12" s="75"/>
+      <c r="H12" s="74"/>
+      <c r="I12" s="74"/>
+      <c r="J12" s="74"/>
+      <c r="K12" s="74"/>
+      <c r="L12" s="74"/>
+      <c r="M12" s="74"/>
+      <c r="N12" s="74"/>
+      <c r="O12" s="74"/>
+      <c r="P12" s="74"/>
+      <c r="Q12" s="74"/>
     </row>
     <row r="13" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="str">
@@ -2819,16 +2831,16 @@
       <c r="F13" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="H13" s="75"/>
-      <c r="I13" s="75"/>
-      <c r="J13" s="75"/>
-      <c r="K13" s="75"/>
-      <c r="L13" s="75"/>
-      <c r="M13" s="75"/>
-      <c r="N13" s="75"/>
-      <c r="O13" s="75"/>
-      <c r="P13" s="75"/>
-      <c r="Q13" s="75"/>
+      <c r="H13" s="74"/>
+      <c r="I13" s="74"/>
+      <c r="J13" s="74"/>
+      <c r="K13" s="74"/>
+      <c r="L13" s="74"/>
+      <c r="M13" s="74"/>
+      <c r="N13" s="74"/>
+      <c r="O13" s="74"/>
+      <c r="P13" s="74"/>
+      <c r="Q13" s="74"/>
     </row>
     <row r="14" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="str">
@@ -2851,16 +2863,16 @@
       <c r="F14" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="H14" s="75"/>
-      <c r="I14" s="75"/>
-      <c r="J14" s="75"/>
-      <c r="K14" s="75"/>
-      <c r="L14" s="75"/>
-      <c r="M14" s="75"/>
-      <c r="N14" s="75"/>
-      <c r="O14" s="75"/>
-      <c r="P14" s="75"/>
-      <c r="Q14" s="75"/>
+      <c r="H14" s="74"/>
+      <c r="I14" s="74"/>
+      <c r="J14" s="74"/>
+      <c r="K14" s="74"/>
+      <c r="L14" s="74"/>
+      <c r="M14" s="74"/>
+      <c r="N14" s="74"/>
+      <c r="O14" s="74"/>
+      <c r="P14" s="74"/>
+      <c r="Q14" s="74"/>
     </row>
     <row r="15" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="str">
@@ -2876,16 +2888,16 @@
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
-      <c r="H15" s="75"/>
-      <c r="I15" s="75"/>
-      <c r="J15" s="75"/>
-      <c r="K15" s="75"/>
-      <c r="L15" s="75"/>
-      <c r="M15" s="75"/>
-      <c r="N15" s="75"/>
-      <c r="O15" s="75"/>
-      <c r="P15" s="75"/>
-      <c r="Q15" s="75"/>
+      <c r="H15" s="74"/>
+      <c r="I15" s="74"/>
+      <c r="J15" s="74"/>
+      <c r="K15" s="74"/>
+      <c r="L15" s="74"/>
+      <c r="M15" s="74"/>
+      <c r="N15" s="74"/>
+      <c r="O15" s="74"/>
+      <c r="P15" s="74"/>
+      <c r="Q15" s="74"/>
     </row>
     <row r="16" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="str">
@@ -2901,16 +2913,16 @@
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
-      <c r="H16" s="75"/>
-      <c r="I16" s="75"/>
-      <c r="J16" s="75"/>
-      <c r="K16" s="75"/>
-      <c r="L16" s="75"/>
-      <c r="M16" s="75"/>
-      <c r="N16" s="75"/>
-      <c r="O16" s="75"/>
-      <c r="P16" s="75"/>
-      <c r="Q16" s="75"/>
+      <c r="H16" s="74"/>
+      <c r="I16" s="74"/>
+      <c r="J16" s="74"/>
+      <c r="K16" s="74"/>
+      <c r="L16" s="74"/>
+      <c r="M16" s="74"/>
+      <c r="N16" s="74"/>
+      <c r="O16" s="74"/>
+      <c r="P16" s="74"/>
+      <c r="Q16" s="74"/>
     </row>
     <row r="17" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="str">
@@ -2932,16 +2944,16 @@
       <c r="F17" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="H17" s="75"/>
-      <c r="I17" s="75"/>
-      <c r="J17" s="75"/>
-      <c r="K17" s="75"/>
-      <c r="L17" s="75"/>
-      <c r="M17" s="75"/>
-      <c r="N17" s="75"/>
-      <c r="O17" s="75"/>
-      <c r="P17" s="75"/>
-      <c r="Q17" s="75"/>
+      <c r="H17" s="74"/>
+      <c r="I17" s="74"/>
+      <c r="J17" s="74"/>
+      <c r="K17" s="74"/>
+      <c r="L17" s="74"/>
+      <c r="M17" s="74"/>
+      <c r="N17" s="74"/>
+      <c r="O17" s="74"/>
+      <c r="P17" s="74"/>
+      <c r="Q17" s="74"/>
     </row>
     <row r="18" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="str">
@@ -2957,16 +2969,16 @@
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
-      <c r="H18" s="75"/>
-      <c r="I18" s="75"/>
-      <c r="J18" s="75"/>
-      <c r="K18" s="75"/>
-      <c r="L18" s="75"/>
-      <c r="M18" s="75"/>
-      <c r="N18" s="75"/>
-      <c r="O18" s="75"/>
-      <c r="P18" s="75"/>
-      <c r="Q18" s="75"/>
+      <c r="H18" s="74"/>
+      <c r="I18" s="74"/>
+      <c r="J18" s="74"/>
+      <c r="K18" s="74"/>
+      <c r="L18" s="74"/>
+      <c r="M18" s="74"/>
+      <c r="N18" s="74"/>
+      <c r="O18" s="74"/>
+      <c r="P18" s="74"/>
+      <c r="Q18" s="74"/>
     </row>
     <row r="19" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="str">
@@ -2983,16 +2995,16 @@
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
-      <c r="H19" s="75"/>
-      <c r="I19" s="75"/>
-      <c r="J19" s="75"/>
-      <c r="K19" s="75"/>
-      <c r="L19" s="75"/>
-      <c r="M19" s="75"/>
-      <c r="N19" s="75"/>
-      <c r="O19" s="75"/>
-      <c r="P19" s="75"/>
-      <c r="Q19" s="75"/>
+      <c r="H19" s="74"/>
+      <c r="I19" s="74"/>
+      <c r="J19" s="74"/>
+      <c r="K19" s="74"/>
+      <c r="L19" s="74"/>
+      <c r="M19" s="74"/>
+      <c r="N19" s="74"/>
+      <c r="O19" s="74"/>
+      <c r="P19" s="74"/>
+      <c r="Q19" s="74"/>
     </row>
     <row r="20" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="str">
@@ -3014,16 +3026,16 @@
       <c r="F20" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="H20" s="75"/>
-      <c r="I20" s="75"/>
-      <c r="J20" s="75"/>
-      <c r="K20" s="75"/>
-      <c r="L20" s="75"/>
-      <c r="M20" s="75"/>
-      <c r="N20" s="75"/>
-      <c r="O20" s="75"/>
-      <c r="P20" s="75"/>
-      <c r="Q20" s="75"/>
+      <c r="H20" s="74"/>
+      <c r="I20" s="74"/>
+      <c r="J20" s="74"/>
+      <c r="K20" s="74"/>
+      <c r="L20" s="74"/>
+      <c r="M20" s="74"/>
+      <c r="N20" s="74"/>
+      <c r="O20" s="74"/>
+      <c r="P20" s="74"/>
+      <c r="Q20" s="74"/>
     </row>
     <row r="21" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="str">
@@ -3036,23 +3048,23 @@
       <c r="C21" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D21" s="92" t="s">
+      <c r="D21" s="91" t="s">
         <v>360</v>
       </c>
-      <c r="E21" s="88" t="s">
+      <c r="E21" s="87" t="s">
         <v>130</v>
       </c>
-      <c r="F21" s="88"/>
-      <c r="H21" s="75"/>
-      <c r="I21" s="75"/>
-      <c r="J21" s="75"/>
-      <c r="K21" s="75"/>
-      <c r="L21" s="75"/>
-      <c r="M21" s="75"/>
-      <c r="N21" s="75"/>
-      <c r="O21" s="75"/>
-      <c r="P21" s="75"/>
-      <c r="Q21" s="75"/>
+      <c r="F21" s="87"/>
+      <c r="H21" s="74"/>
+      <c r="I21" s="74"/>
+      <c r="J21" s="74"/>
+      <c r="K21" s="74"/>
+      <c r="L21" s="74"/>
+      <c r="M21" s="74"/>
+      <c r="N21" s="74"/>
+      <c r="O21" s="74"/>
+      <c r="P21" s="74"/>
+      <c r="Q21" s="74"/>
     </row>
     <row r="22" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="str">
@@ -3065,19 +3077,19 @@
       <c r="C22" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D22" s="88"/>
-      <c r="E22" s="88"/>
-      <c r="F22" s="88"/>
-      <c r="H22" s="75"/>
-      <c r="I22" s="75"/>
-      <c r="J22" s="75"/>
-      <c r="K22" s="75"/>
-      <c r="L22" s="75"/>
-      <c r="M22" s="75"/>
-      <c r="N22" s="75"/>
-      <c r="O22" s="75"/>
-      <c r="P22" s="75"/>
-      <c r="Q22" s="75"/>
+      <c r="D22" s="87"/>
+      <c r="E22" s="87"/>
+      <c r="F22" s="87"/>
+      <c r="H22" s="74"/>
+      <c r="I22" s="74"/>
+      <c r="J22" s="74"/>
+      <c r="K22" s="74"/>
+      <c r="L22" s="74"/>
+      <c r="M22" s="74"/>
+      <c r="N22" s="74"/>
+      <c r="O22" s="74"/>
+      <c r="P22" s="74"/>
+      <c r="Q22" s="74"/>
     </row>
     <row r="23" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="str">
@@ -3090,19 +3102,19 @@
       <c r="C23" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D23" s="88"/>
-      <c r="E23" s="88"/>
-      <c r="F23" s="88"/>
-      <c r="H23" s="75"/>
-      <c r="I23" s="75"/>
-      <c r="J23" s="75"/>
-      <c r="K23" s="75"/>
-      <c r="L23" s="75"/>
-      <c r="M23" s="75"/>
-      <c r="N23" s="75"/>
-      <c r="O23" s="75"/>
-      <c r="P23" s="75"/>
-      <c r="Q23" s="75"/>
+      <c r="D23" s="87"/>
+      <c r="E23" s="87"/>
+      <c r="F23" s="87"/>
+      <c r="H23" s="74"/>
+      <c r="I23" s="74"/>
+      <c r="J23" s="74"/>
+      <c r="K23" s="74"/>
+      <c r="L23" s="74"/>
+      <c r="M23" s="74"/>
+      <c r="N23" s="74"/>
+      <c r="O23" s="74"/>
+      <c r="P23" s="74"/>
+      <c r="Q23" s="74"/>
     </row>
     <row r="24" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="str">
@@ -3115,24 +3127,24 @@
       <c r="C24" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D24" s="92" t="s">
+      <c r="D24" s="91" t="s">
         <v>357</v>
       </c>
-      <c r="E24" s="91" t="s">
+      <c r="E24" s="90" t="s">
         <v>304</v>
       </c>
-      <c r="F24" s="88"/>
+      <c r="F24" s="87"/>
       <c r="G24" s="9"/>
-      <c r="H24" s="75"/>
-      <c r="I24" s="75"/>
-      <c r="J24" s="75"/>
-      <c r="K24" s="75"/>
-      <c r="L24" s="75"/>
-      <c r="M24" s="75"/>
-      <c r="N24" s="75"/>
-      <c r="O24" s="75"/>
-      <c r="P24" s="75"/>
-      <c r="Q24" s="75"/>
+      <c r="H24" s="74"/>
+      <c r="I24" s="74"/>
+      <c r="J24" s="74"/>
+      <c r="K24" s="74"/>
+      <c r="L24" s="74"/>
+      <c r="M24" s="74"/>
+      <c r="N24" s="74"/>
+      <c r="O24" s="74"/>
+      <c r="P24" s="74"/>
+      <c r="Q24" s="74"/>
     </row>
     <row r="25" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="str">
@@ -3155,16 +3167,16 @@
       <c r="F25" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="H25" s="75"/>
-      <c r="I25" s="75"/>
-      <c r="J25" s="75"/>
-      <c r="K25" s="75"/>
-      <c r="L25" s="75"/>
-      <c r="M25" s="75"/>
-      <c r="N25" s="75"/>
-      <c r="O25" s="75"/>
-      <c r="P25" s="75"/>
-      <c r="Q25" s="75"/>
+      <c r="H25" s="74"/>
+      <c r="I25" s="74"/>
+      <c r="J25" s="74"/>
+      <c r="K25" s="74"/>
+      <c r="L25" s="74"/>
+      <c r="M25" s="74"/>
+      <c r="N25" s="74"/>
+      <c r="O25" s="74"/>
+      <c r="P25" s="74"/>
+      <c r="Q25" s="74"/>
     </row>
     <row r="26" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="str">
@@ -3177,20 +3189,20 @@
       <c r="C26" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D26" s="89"/>
-      <c r="E26" s="88"/>
-      <c r="F26" s="88"/>
+      <c r="D26" s="88"/>
+      <c r="E26" s="87"/>
+      <c r="F26" s="87"/>
       <c r="G26" s="9"/>
-      <c r="H26" s="75"/>
-      <c r="I26" s="75"/>
-      <c r="J26" s="75"/>
-      <c r="K26" s="75"/>
-      <c r="L26" s="75"/>
-      <c r="M26" s="75"/>
-      <c r="N26" s="75"/>
-      <c r="O26" s="75"/>
-      <c r="P26" s="75"/>
-      <c r="Q26" s="75"/>
+      <c r="H26" s="74"/>
+      <c r="I26" s="74"/>
+      <c r="J26" s="74"/>
+      <c r="K26" s="74"/>
+      <c r="L26" s="74"/>
+      <c r="M26" s="74"/>
+      <c r="N26" s="74"/>
+      <c r="O26" s="74"/>
+      <c r="P26" s="74"/>
+      <c r="Q26" s="74"/>
     </row>
     <row r="27" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="str">
@@ -3203,19 +3215,19 @@
       <c r="C27" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="D27" s="88"/>
-      <c r="E27" s="88"/>
-      <c r="F27" s="90"/>
-      <c r="H27" s="75"/>
-      <c r="I27" s="75"/>
-      <c r="J27" s="75"/>
-      <c r="K27" s="75"/>
-      <c r="L27" s="75"/>
-      <c r="M27" s="75"/>
-      <c r="N27" s="75"/>
-      <c r="O27" s="75"/>
-      <c r="P27" s="75"/>
-      <c r="Q27" s="75"/>
+      <c r="D27" s="87"/>
+      <c r="E27" s="87"/>
+      <c r="F27" s="89"/>
+      <c r="H27" s="74"/>
+      <c r="I27" s="74"/>
+      <c r="J27" s="74"/>
+      <c r="K27" s="74"/>
+      <c r="L27" s="74"/>
+      <c r="M27" s="74"/>
+      <c r="N27" s="74"/>
+      <c r="O27" s="74"/>
+      <c r="P27" s="74"/>
+      <c r="Q27" s="74"/>
     </row>
     <row r="28" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="str">
@@ -3238,16 +3250,16 @@
         <v>48</v>
       </c>
       <c r="G28" s="3"/>
-      <c r="H28" s="75"/>
-      <c r="I28" s="75"/>
-      <c r="J28" s="75"/>
-      <c r="K28" s="75"/>
-      <c r="L28" s="75"/>
-      <c r="M28" s="75"/>
-      <c r="N28" s="75"/>
-      <c r="O28" s="75"/>
-      <c r="P28" s="75"/>
-      <c r="Q28" s="75"/>
+      <c r="H28" s="74"/>
+      <c r="I28" s="74"/>
+      <c r="J28" s="74"/>
+      <c r="K28" s="74"/>
+      <c r="L28" s="74"/>
+      <c r="M28" s="74"/>
+      <c r="N28" s="74"/>
+      <c r="O28" s="74"/>
+      <c r="P28" s="74"/>
+      <c r="Q28" s="74"/>
     </row>
     <row r="29" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="str">
@@ -3270,16 +3282,16 @@
         <v>48</v>
       </c>
       <c r="G29" s="4"/>
-      <c r="H29" s="75"/>
-      <c r="I29" s="75"/>
-      <c r="J29" s="75"/>
-      <c r="K29" s="75"/>
-      <c r="L29" s="75"/>
-      <c r="M29" s="75"/>
-      <c r="N29" s="75"/>
-      <c r="O29" s="75"/>
-      <c r="P29" s="75"/>
-      <c r="Q29" s="75"/>
+      <c r="H29" s="74"/>
+      <c r="I29" s="74"/>
+      <c r="J29" s="74"/>
+      <c r="K29" s="74"/>
+      <c r="L29" s="74"/>
+      <c r="M29" s="74"/>
+      <c r="N29" s="74"/>
+      <c r="O29" s="74"/>
+      <c r="P29" s="74"/>
+      <c r="Q29" s="74"/>
     </row>
     <row r="30" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="str">
@@ -3302,16 +3314,16 @@
         <v>48</v>
       </c>
       <c r="G30" s="4"/>
-      <c r="H30" s="75"/>
-      <c r="I30" s="75"/>
-      <c r="J30" s="75"/>
-      <c r="K30" s="75"/>
-      <c r="L30" s="75"/>
-      <c r="M30" s="75"/>
-      <c r="N30" s="75"/>
-      <c r="O30" s="75"/>
-      <c r="P30" s="75"/>
-      <c r="Q30" s="75"/>
+      <c r="H30" s="74"/>
+      <c r="I30" s="74"/>
+      <c r="J30" s="74"/>
+      <c r="K30" s="74"/>
+      <c r="L30" s="74"/>
+      <c r="M30" s="74"/>
+      <c r="N30" s="74"/>
+      <c r="O30" s="74"/>
+      <c r="P30" s="74"/>
+      <c r="Q30" s="74"/>
     </row>
     <row r="31" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="str">
@@ -3327,16 +3339,16 @@
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
-      <c r="H31" s="75"/>
-      <c r="I31" s="75"/>
-      <c r="J31" s="75"/>
-      <c r="K31" s="75"/>
-      <c r="L31" s="75"/>
-      <c r="M31" s="75"/>
-      <c r="N31" s="75"/>
-      <c r="O31" s="75"/>
-      <c r="P31" s="75"/>
-      <c r="Q31" s="75"/>
+      <c r="H31" s="74"/>
+      <c r="I31" s="74"/>
+      <c r="J31" s="74"/>
+      <c r="K31" s="74"/>
+      <c r="L31" s="74"/>
+      <c r="M31" s="74"/>
+      <c r="N31" s="74"/>
+      <c r="O31" s="74"/>
+      <c r="P31" s="74"/>
+      <c r="Q31" s="74"/>
     </row>
     <row r="32" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="str">
@@ -3358,16 +3370,16 @@
       <c r="F32" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="H32" s="75"/>
-      <c r="I32" s="75"/>
-      <c r="J32" s="75"/>
-      <c r="K32" s="75"/>
-      <c r="L32" s="75"/>
-      <c r="M32" s="75"/>
-      <c r="N32" s="75"/>
-      <c r="O32" s="75"/>
-      <c r="P32" s="75"/>
-      <c r="Q32" s="75"/>
+      <c r="H32" s="74"/>
+      <c r="I32" s="74"/>
+      <c r="J32" s="74"/>
+      <c r="K32" s="74"/>
+      <c r="L32" s="74"/>
+      <c r="M32" s="74"/>
+      <c r="N32" s="74"/>
+      <c r="O32" s="74"/>
+      <c r="P32" s="74"/>
+      <c r="Q32" s="74"/>
     </row>
     <row r="33" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="str">
@@ -3384,16 +3396,16 @@
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
-      <c r="H33" s="75"/>
-      <c r="I33" s="75"/>
-      <c r="J33" s="75"/>
-      <c r="K33" s="75"/>
-      <c r="L33" s="75"/>
-      <c r="M33" s="75"/>
-      <c r="N33" s="75"/>
-      <c r="O33" s="75"/>
-      <c r="P33" s="75"/>
-      <c r="Q33" s="75"/>
+      <c r="H33" s="74"/>
+      <c r="I33" s="74"/>
+      <c r="J33" s="74"/>
+      <c r="K33" s="74"/>
+      <c r="L33" s="74"/>
+      <c r="M33" s="74"/>
+      <c r="N33" s="74"/>
+      <c r="O33" s="74"/>
+      <c r="P33" s="74"/>
+      <c r="Q33" s="74"/>
     </row>
     <row r="34" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="str">
@@ -3410,16 +3422,16 @@
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
-      <c r="H34" s="75"/>
-      <c r="I34" s="75"/>
-      <c r="J34" s="75"/>
-      <c r="K34" s="75"/>
-      <c r="L34" s="75"/>
-      <c r="M34" s="75"/>
-      <c r="N34" s="75"/>
-      <c r="O34" s="75"/>
-      <c r="P34" s="75"/>
-      <c r="Q34" s="75"/>
+      <c r="H34" s="74"/>
+      <c r="I34" s="74"/>
+      <c r="J34" s="74"/>
+      <c r="K34" s="74"/>
+      <c r="L34" s="74"/>
+      <c r="M34" s="74"/>
+      <c r="N34" s="74"/>
+      <c r="O34" s="74"/>
+      <c r="P34" s="74"/>
+      <c r="Q34" s="74"/>
     </row>
     <row r="35" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="str">
@@ -3441,16 +3453,16 @@
       <c r="F35" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="H35" s="75"/>
-      <c r="I35" s="75"/>
-      <c r="J35" s="75"/>
-      <c r="K35" s="75"/>
-      <c r="L35" s="75"/>
-      <c r="M35" s="75"/>
-      <c r="N35" s="75"/>
-      <c r="O35" s="75"/>
-      <c r="P35" s="75"/>
-      <c r="Q35" s="75"/>
+      <c r="H35" s="74"/>
+      <c r="I35" s="74"/>
+      <c r="J35" s="74"/>
+      <c r="K35" s="74"/>
+      <c r="L35" s="74"/>
+      <c r="M35" s="74"/>
+      <c r="N35" s="74"/>
+      <c r="O35" s="74"/>
+      <c r="P35" s="74"/>
+      <c r="Q35" s="74"/>
     </row>
     <row r="36" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="str">
@@ -3467,16 +3479,16 @@
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
-      <c r="H36" s="75"/>
-      <c r="I36" s="75"/>
-      <c r="J36" s="75"/>
-      <c r="K36" s="75"/>
-      <c r="L36" s="75"/>
-      <c r="M36" s="75"/>
-      <c r="N36" s="75"/>
-      <c r="O36" s="75"/>
-      <c r="P36" s="75"/>
-      <c r="Q36" s="75"/>
+      <c r="H36" s="74"/>
+      <c r="I36" s="74"/>
+      <c r="J36" s="74"/>
+      <c r="K36" s="74"/>
+      <c r="L36" s="74"/>
+      <c r="M36" s="74"/>
+      <c r="N36" s="74"/>
+      <c r="O36" s="74"/>
+      <c r="P36" s="74"/>
+      <c r="Q36" s="74"/>
     </row>
     <row r="37" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="str">
@@ -3499,16 +3511,16 @@
       <c r="F37" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="H37" s="75"/>
-      <c r="I37" s="75"/>
-      <c r="J37" s="75"/>
-      <c r="K37" s="75"/>
-      <c r="L37" s="75"/>
-      <c r="M37" s="75"/>
-      <c r="N37" s="75"/>
-      <c r="O37" s="75"/>
-      <c r="P37" s="75"/>
-      <c r="Q37" s="75"/>
+      <c r="H37" s="74"/>
+      <c r="I37" s="74"/>
+      <c r="J37" s="74"/>
+      <c r="K37" s="74"/>
+      <c r="L37" s="74"/>
+      <c r="M37" s="74"/>
+      <c r="N37" s="74"/>
+      <c r="O37" s="74"/>
+      <c r="P37" s="74"/>
+      <c r="Q37" s="74"/>
     </row>
     <row r="38" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="str">
@@ -3524,16 +3536,16 @@
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
-      <c r="H38" s="75"/>
-      <c r="I38" s="75"/>
-      <c r="J38" s="75"/>
-      <c r="K38" s="75"/>
-      <c r="L38" s="75"/>
-      <c r="M38" s="75"/>
-      <c r="N38" s="75"/>
-      <c r="O38" s="75"/>
-      <c r="P38" s="75"/>
-      <c r="Q38" s="75"/>
+      <c r="H38" s="74"/>
+      <c r="I38" s="74"/>
+      <c r="J38" s="74"/>
+      <c r="K38" s="74"/>
+      <c r="L38" s="74"/>
+      <c r="M38" s="74"/>
+      <c r="N38" s="74"/>
+      <c r="O38" s="74"/>
+      <c r="P38" s="74"/>
+      <c r="Q38" s="74"/>
     </row>
     <row r="39" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="str">
@@ -3549,16 +3561,16 @@
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
-      <c r="H39" s="75"/>
-      <c r="I39" s="75"/>
-      <c r="J39" s="75"/>
-      <c r="K39" s="75"/>
-      <c r="L39" s="75"/>
-      <c r="M39" s="75"/>
-      <c r="N39" s="75"/>
-      <c r="O39" s="75"/>
-      <c r="P39" s="75"/>
-      <c r="Q39" s="75"/>
+      <c r="H39" s="74"/>
+      <c r="I39" s="74"/>
+      <c r="J39" s="74"/>
+      <c r="K39" s="74"/>
+      <c r="L39" s="74"/>
+      <c r="M39" s="74"/>
+      <c r="N39" s="74"/>
+      <c r="O39" s="74"/>
+      <c r="P39" s="74"/>
+      <c r="Q39" s="74"/>
     </row>
     <row r="40" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="str">
@@ -3578,16 +3590,16 @@
         <v>31</v>
       </c>
       <c r="F40" s="4"/>
-      <c r="H40" s="75"/>
-      <c r="I40" s="75"/>
-      <c r="J40" s="75"/>
-      <c r="K40" s="75"/>
-      <c r="L40" s="75"/>
-      <c r="M40" s="75"/>
-      <c r="N40" s="75"/>
-      <c r="O40" s="75"/>
-      <c r="P40" s="75"/>
-      <c r="Q40" s="75"/>
+      <c r="H40" s="74"/>
+      <c r="I40" s="74"/>
+      <c r="J40" s="74"/>
+      <c r="K40" s="74"/>
+      <c r="L40" s="74"/>
+      <c r="M40" s="74"/>
+      <c r="N40" s="74"/>
+      <c r="O40" s="74"/>
+      <c r="P40" s="74"/>
+      <c r="Q40" s="74"/>
     </row>
     <row r="41" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="str">
@@ -3609,16 +3621,16 @@
       <c r="F41" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="H41" s="75"/>
-      <c r="I41" s="75"/>
-      <c r="J41" s="75"/>
-      <c r="K41" s="75"/>
-      <c r="L41" s="75"/>
-      <c r="M41" s="75"/>
-      <c r="N41" s="75"/>
-      <c r="O41" s="75"/>
-      <c r="P41" s="75"/>
-      <c r="Q41" s="75"/>
+      <c r="H41" s="74"/>
+      <c r="I41" s="74"/>
+      <c r="J41" s="74"/>
+      <c r="K41" s="74"/>
+      <c r="L41" s="74"/>
+      <c r="M41" s="74"/>
+      <c r="N41" s="74"/>
+      <c r="O41" s="74"/>
+      <c r="P41" s="74"/>
+      <c r="Q41" s="74"/>
     </row>
     <row r="42" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="str">
@@ -3634,16 +3646,16 @@
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
-      <c r="H42" s="75"/>
-      <c r="I42" s="75"/>
-      <c r="J42" s="75"/>
-      <c r="K42" s="75"/>
-      <c r="L42" s="75"/>
-      <c r="M42" s="75"/>
-      <c r="N42" s="75"/>
-      <c r="O42" s="75"/>
-      <c r="P42" s="75"/>
-      <c r="Q42" s="75"/>
+      <c r="H42" s="74"/>
+      <c r="I42" s="74"/>
+      <c r="J42" s="74"/>
+      <c r="K42" s="74"/>
+      <c r="L42" s="74"/>
+      <c r="M42" s="74"/>
+      <c r="N42" s="74"/>
+      <c r="O42" s="74"/>
+      <c r="P42" s="74"/>
+      <c r="Q42" s="74"/>
     </row>
     <row r="43" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="str">
@@ -3659,16 +3671,16 @@
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
-      <c r="H43" s="75"/>
-      <c r="I43" s="75"/>
-      <c r="J43" s="75"/>
-      <c r="K43" s="75"/>
-      <c r="L43" s="75"/>
-      <c r="M43" s="75"/>
-      <c r="N43" s="75"/>
-      <c r="O43" s="75"/>
-      <c r="P43" s="75"/>
-      <c r="Q43" s="75"/>
+      <c r="H43" s="74"/>
+      <c r="I43" s="74"/>
+      <c r="J43" s="74"/>
+      <c r="K43" s="74"/>
+      <c r="L43" s="74"/>
+      <c r="M43" s="74"/>
+      <c r="N43" s="74"/>
+      <c r="O43" s="74"/>
+      <c r="P43" s="74"/>
+      <c r="Q43" s="74"/>
     </row>
     <row r="44" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="str">
@@ -3684,16 +3696,16 @@
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
-      <c r="H44" s="75"/>
-      <c r="I44" s="75"/>
-      <c r="J44" s="75"/>
-      <c r="K44" s="75"/>
-      <c r="L44" s="75"/>
-      <c r="M44" s="75"/>
-      <c r="N44" s="75"/>
-      <c r="O44" s="75"/>
-      <c r="P44" s="75"/>
-      <c r="Q44" s="75"/>
+      <c r="H44" s="74"/>
+      <c r="I44" s="74"/>
+      <c r="J44" s="74"/>
+      <c r="K44" s="74"/>
+      <c r="L44" s="74"/>
+      <c r="M44" s="74"/>
+      <c r="N44" s="74"/>
+      <c r="O44" s="74"/>
+      <c r="P44" s="74"/>
+      <c r="Q44" s="74"/>
     </row>
     <row r="45" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K45" s="5"/>
@@ -3774,38 +3786,38 @@
       <c r="A58" s="9"/>
     </row>
     <row r="59" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="138" t="s">
+      <c r="A59" s="137" t="s">
         <v>157</v>
       </c>
-      <c r="B59" s="133"/>
-      <c r="C59" s="133"/>
+      <c r="B59" s="132"/>
+      <c r="C59" s="132"/>
     </row>
     <row r="60" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="12"/>
     </row>
     <row r="61" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="132" t="s">
+      <c r="A61" s="131" t="s">
         <v>149</v>
       </c>
-      <c r="B61" s="133"/>
-      <c r="C61" s="132" t="s">
+      <c r="B61" s="132"/>
+      <c r="C61" s="131" t="s">
         <v>158</v>
       </c>
-      <c r="D61" s="133"/>
-      <c r="E61" s="133"/>
-      <c r="F61" s="133"/>
+      <c r="D61" s="132"/>
+      <c r="E61" s="132"/>
+      <c r="F61" s="132"/>
     </row>
     <row r="62" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="132" t="s">
+      <c r="A62" s="131" t="s">
         <v>159</v>
       </c>
-      <c r="B62" s="133"/>
-      <c r="C62" s="132" t="s">
+      <c r="B62" s="132"/>
+      <c r="C62" s="131" t="s">
         <v>160</v>
       </c>
-      <c r="D62" s="133"/>
-      <c r="E62" s="133"/>
-      <c r="F62" s="133"/>
+      <c r="D62" s="132"/>
+      <c r="E62" s="132"/>
+      <c r="F62" s="132"/>
     </row>
     <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="64" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4772,8 +4784,8 @@
   </sheetPr>
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection sqref="A1:J22"/>
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4786,22 +4798,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="134" t="s">
+      <c r="A1" s="133" t="s">
         <v>161</v>
       </c>
-      <c r="B1" s="139"/>
-      <c r="C1" s="140" t="s">
+      <c r="B1" s="138"/>
+      <c r="C1" s="139" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="136"/>
-      <c r="E1" s="136"/>
-      <c r="F1" s="136"/>
-      <c r="G1" s="136"/>
-      <c r="H1" s="136"/>
-      <c r="I1" s="136"/>
-      <c r="J1" s="136"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
+      <c r="D1" s="135"/>
+      <c r="E1" s="135"/>
+      <c r="F1" s="135"/>
+      <c r="G1" s="135"/>
+      <c r="H1" s="135"/>
+      <c r="I1" s="135"/>
+      <c r="J1" s="135"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
     </row>
     <row r="2" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
@@ -4841,54 +4853,54 @@
         <v>398</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="119" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="25" t="s">
+    <row r="3" spans="1:12" s="118" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="24" t="s">
         <v>453</v>
       </c>
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="85" t="s">
         <v>165</v>
       </c>
-      <c r="C3" s="120"/>
-      <c r="D3" s="121"/>
-      <c r="E3" s="121"/>
-      <c r="F3" s="121"/>
-      <c r="G3" s="121"/>
-      <c r="H3" s="121"/>
-      <c r="I3" s="121"/>
-      <c r="J3" s="121"/>
-      <c r="K3" s="78"/>
-      <c r="L3" s="78"/>
+      <c r="C3" s="119"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="120"/>
+      <c r="G3" s="120"/>
+      <c r="H3" s="120"/>
+      <c r="I3" s="120"/>
+      <c r="J3" s="120"/>
+      <c r="K3" s="77"/>
+      <c r="L3" s="77"/>
     </row>
     <row r="4" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1G8ecO5ODQmn8FX8jzQ962D928BpQ6iUm","5C4-002")</f>
         <v>5C4-002</v>
       </c>
-      <c r="B4" s="86" t="s">
+      <c r="B4" s="85" t="s">
         <v>165</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="D4" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="22" t="s">
-        <v>166</v>
-      </c>
-      <c r="H4" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" s="24" t="s">
+      <c r="D4" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="23" t="s">
         <v>28</v>
       </c>
       <c r="K4" s="19"/>
@@ -4899,72 +4911,72 @@
         <f>HYPERLINK("https://drive.google.com/drive/folders/1X_yNido1T9NRAtsXoJ-h2bFXlpLfFW-N","5C4-003")</f>
         <v>5C4-003</v>
       </c>
-      <c r="B5" s="86" t="s">
+      <c r="B5" s="85" t="s">
         <v>165</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="D5" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="K5" s="78"/>
-      <c r="L5" s="78"/>
+      <c r="D5" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="77"/>
+      <c r="L5" s="77"/>
     </row>
     <row r="6" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="20" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1WeIiiMAp6TYYdsybsr5MvXeiX_cVX9j0","5C4-004")</f>
         <v>5C4-004</v>
       </c>
-      <c r="B6" s="79" t="s">
+      <c r="B6" s="78" t="s">
         <v>284</v>
       </c>
-      <c r="C6" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="J6" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="K6" s="78" t="s">
+      <c r="C6" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="77" t="s">
         <v>438</v>
       </c>
-      <c r="L6" s="78" t="s">
+      <c r="L6" s="77" t="s">
         <v>399</v>
       </c>
     </row>
@@ -4973,147 +4985,147 @@
         <f>HYPERLINK("https://drive.google.com/drive/folders/1rFsrgDjf_nAuKofi6JoxLvoaGo8A4adh","5C4-005")</f>
         <v>5C4-005</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="22" t="s">
         <v>167</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="29" t="s">
         <v>175</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="D7" s="29" t="s">
         <v>175</v>
       </c>
-      <c r="E7" s="30" t="s">
+      <c r="E7" s="29" t="s">
         <v>175</v>
       </c>
-      <c r="F7" s="30" t="s">
+      <c r="F7" s="29" t="s">
         <v>175</v>
       </c>
-      <c r="G7" s="30" t="s">
+      <c r="G7" s="29" t="s">
         <v>175</v>
       </c>
-      <c r="H7" s="30" t="s">
+      <c r="H7" s="29" t="s">
         <v>175</v>
       </c>
-      <c r="I7" s="30" t="s">
+      <c r="I7" s="29" t="s">
         <v>175</v>
       </c>
-      <c r="J7" s="30" t="s">
+      <c r="J7" s="29" t="s">
         <v>175</v>
       </c>
-      <c r="K7" s="104" t="s">
+      <c r="K7" s="103" t="s">
         <v>435</v>
       </c>
-      <c r="L7" s="78"/>
+      <c r="L7" s="77"/>
     </row>
     <row r="8" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="20" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1vHgkPcaz684Ip98C0QpWVB-bTK7EvvdW","5C4-006")</f>
         <v>5C4-006</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="C8" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="I8" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="J8" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="K8" s="78" t="s">
+      <c r="C8" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" s="77" t="s">
         <v>402</v>
       </c>
-      <c r="L8" s="78"/>
+      <c r="L8" s="77"/>
     </row>
     <row r="9" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="24" t="s">
         <v>169</v>
       </c>
-      <c r="B9" s="85" t="s">
+      <c r="B9" s="84" t="s">
         <v>292</v>
       </c>
-      <c r="C9" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="I9" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="J9" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="K9" s="78" t="s">
+      <c r="C9" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="J9" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" s="77" t="s">
         <v>439</v>
       </c>
-      <c r="L9" s="78"/>
+      <c r="L9" s="77"/>
     </row>
     <row r="10" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="20" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1-3h2_HbCYYPIJxLORcasFd7NqbLvOw-C","5C4-008")</f>
         <v>5C4-008</v>
       </c>
-      <c r="B10" s="79" t="s">
+      <c r="B10" s="78" t="s">
         <v>406</v>
       </c>
-      <c r="C10" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="I10" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="J10" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="K10" s="78" t="s">
+      <c r="C10" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="J10" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10" s="77" t="s">
         <v>405</v>
       </c>
-      <c r="L10" s="78" t="s">
+      <c r="L10" s="77" t="s">
         <v>399</v>
       </c>
     </row>
@@ -5122,107 +5134,109 @@
         <f>HYPERLINK("https://drive.google.com/drive/folders/1EhIIjKRxAQ858Wo2OYQq3GdqbI2ok5Af","5C4-009")</f>
         <v>5C4-009</v>
       </c>
-      <c r="B11" s="84" t="s">
+      <c r="B11" s="83" t="s">
         <v>165</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="D11" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="H11" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="I11" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="J11" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="K11" s="78"/>
-      <c r="L11" s="78"/>
+      <c r="D11" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="J11" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="K11" s="77"/>
+      <c r="L11" s="77"/>
     </row>
     <row r="12" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="20" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1FrnQUGPHDhAq4DHWLuBTTfQpLNsdUckc","5C4-010")</f>
         <v>5C4-010</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="147" t="s">
         <v>376</v>
       </c>
-      <c r="C12" s="22" t="s">
-        <v>166</v>
-      </c>
-      <c r="D12" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="H12" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="I12" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="J12" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="K12" s="78"/>
-      <c r="L12" s="78"/>
+      <c r="C12" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="J12" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12" s="77" t="s">
+        <v>468</v>
+      </c>
+      <c r="L12" s="77"/>
     </row>
     <row r="13" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="20" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1hJ1DyO35m4DO0phNhkoobK76R8Ql-DTn","5C4-011")</f>
         <v>5C4-011</v>
       </c>
-      <c r="B13" s="79" t="s">
+      <c r="B13" s="78" t="s">
         <v>297</v>
       </c>
-      <c r="C13" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="H13" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="I13" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="J13" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="K13" s="78" t="s">
+      <c r="C13" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="J13" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="K13" s="77" t="s">
         <v>397</v>
       </c>
-      <c r="L13" s="78" t="s">
+      <c r="L13" s="77" t="s">
         <v>399</v>
       </c>
     </row>
@@ -5231,111 +5245,111 @@
         <f>HYPERLINK("https://drive.google.com/drive/folders/1MyuBrs08Ryi2pvVUeI0hW4p24qsMsUL4","5C4-012")</f>
         <v>5C4-012</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="C14" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="G14" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="H14" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="I14" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="J14" s="27" t="s">
+      <c r="C14" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="J14" s="26" t="s">
         <v>175</v>
       </c>
-      <c r="K14" s="104" t="s">
+      <c r="K14" s="103" t="s">
         <v>433</v>
       </c>
-      <c r="L14" s="78"/>
+      <c r="L14" s="77"/>
     </row>
     <row r="15" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="20" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/19GonN6xbnfrGARLvh-LLFUsxF-EngP3u","5C4-013")</f>
         <v>5C4-013</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="22" t="s">
         <v>345</v>
       </c>
-      <c r="C15" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="H15" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="I15" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="J15" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="K15" s="78" t="s">
+      <c r="C15" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="J15" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="K15" s="77" t="s">
         <v>432</v>
       </c>
-      <c r="L15" s="78"/>
+      <c r="L15" s="77"/>
     </row>
     <row r="16" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="20" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1LUZSYEAIfX8EFKKfjUSeyrC0JCfBfe8h","5C4-014")</f>
         <v>5C4-014</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="C16" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="F16" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="G16" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="H16" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="I16" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="J16" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="K16" s="78" t="s">
+      <c r="C16" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="J16" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="K16" s="77" t="s">
         <v>401</v>
       </c>
-      <c r="L16" s="78" t="s">
+      <c r="L16" s="77" t="s">
         <v>400</v>
       </c>
     </row>
@@ -5344,216 +5358,218 @@
         <f>HYPERLINK("https://drive.google.com/drive/folders/1GhnG5G_BN5lBSXzegcxU-3TuUUTEd6xm","5C4-015")</f>
         <v>5C4-015</v>
       </c>
-      <c r="B17" s="84" t="s">
+      <c r="B17" s="83" t="s">
         <v>165</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="D17" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="F17" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="G17" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="H17" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="I17" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="J17" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="K17" s="78"/>
-      <c r="L17" s="78"/>
+      <c r="D17" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="J17" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="K17" s="77"/>
+      <c r="L17" s="77"/>
     </row>
     <row r="18" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="28" t="s">
+      <c r="A18" s="27" t="s">
         <v>178</v>
       </c>
-      <c r="B18" s="79" t="s">
+      <c r="B18" s="78" t="s">
         <v>352</v>
       </c>
-      <c r="C18" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="E18" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="F18" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="G18" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="H18" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="I18" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="J18" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="K18" s="78" t="s">
+      <c r="C18" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="H18" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="J18" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="K18" s="77" t="s">
         <v>462</v>
       </c>
-      <c r="L18" s="78"/>
+      <c r="L18" s="77"/>
     </row>
     <row r="19" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="20" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1wcHyiuVUbBeL9ODgyYP-lyy7yM1vMH3u","5C4-017")</f>
         <v>5C4-017</v>
       </c>
-      <c r="B19" s="84" t="s">
+      <c r="B19" s="147" t="s">
         <v>165</v>
       </c>
-      <c r="C19" s="22" t="s">
-        <v>166</v>
-      </c>
-      <c r="D19" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="E19" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="F19" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="G19" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="H19" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="I19" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="J19" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="K19" s="78"/>
-      <c r="L19" s="78"/>
+      <c r="C19" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="H19" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="J19" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="K19" s="77" t="s">
+        <v>467</v>
+      </c>
+      <c r="L19" s="77"/>
     </row>
     <row r="20" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="29" t="s">
+      <c r="A20" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="22" t="s">
         <v>179</v>
       </c>
-      <c r="C20" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="E20" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="F20" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="G20" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="H20" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="I20" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="J20" s="30" t="s">
+      <c r="C20" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="H20" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="I20" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="J20" s="29" t="s">
         <v>175</v>
       </c>
-      <c r="K20" s="78" t="s">
+      <c r="K20" s="77" t="s">
         <v>434</v>
       </c>
-      <c r="L20" s="78"/>
+      <c r="L20" s="77"/>
     </row>
     <row r="21" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="20" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1x-FjLa7p2gJDSbRaODzjs8ijaA9SGLtW","5C4-019")</f>
         <v>5C4-019</v>
       </c>
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="22" t="s">
         <v>180</v>
       </c>
-      <c r="C21" s="30" t="s">
+      <c r="C21" s="29" t="s">
         <v>175</v>
       </c>
-      <c r="D21" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="E21" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="F21" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="G21" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="H21" s="30" t="s">
+      <c r="D21" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="G21" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="H21" s="29" t="s">
         <v>175</v>
       </c>
-      <c r="I21" s="30" t="s">
+      <c r="I21" s="29" t="s">
         <v>175</v>
       </c>
-      <c r="J21" s="30" t="s">
+      <c r="J21" s="29" t="s">
         <v>175</v>
       </c>
-      <c r="K21" s="78" t="s">
+      <c r="K21" s="77" t="s">
         <v>460</v>
       </c>
-      <c r="L21" s="78"/>
+      <c r="L21" s="77"/>
     </row>
     <row r="22" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="20" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1wMVARUxnYHeiTbbEodCmZFb_vx9FkRVr","5C4-020")</f>
         <v>5C4-020</v>
       </c>
-      <c r="B22" s="80" t="s">
+      <c r="B22" s="79" t="s">
         <v>181</v>
       </c>
-      <c r="C22" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="E22" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="F22" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="G22" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="H22" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="I22" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="J22" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="K22" s="78" t="s">
+      <c r="C22" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="G22" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="H22" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="I22" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="J22" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="K22" s="77" t="s">
         <v>375</v>
       </c>
-      <c r="L22" s="78"/>
+      <c r="L22" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5570,7 +5586,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9CEE8EE-E616-9C40-8E50-615D9D9C3993}">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
@@ -5581,400 +5597,400 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="141" t="s">
+      <c r="A1" s="140" t="s">
         <v>161</v>
       </c>
-      <c r="B1" s="142"/>
-      <c r="C1" s="141" t="s">
+      <c r="B1" s="141"/>
+      <c r="C1" s="140" t="s">
         <v>366</v>
       </c>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
-      <c r="G1" s="143"/>
-      <c r="H1" s="143"/>
-      <c r="I1" s="143"/>
-      <c r="J1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="141"/>
     </row>
     <row r="2" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="71" t="s">
         <v>162</v>
       </c>
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="71" t="s">
         <v>163</v>
       </c>
-      <c r="C2" s="72" t="s">
+      <c r="C2" s="71" t="s">
         <v>367</v>
       </c>
-      <c r="D2" s="72" t="s">
+      <c r="D2" s="71" t="s">
         <v>368</v>
       </c>
-      <c r="E2" s="72" t="s">
+      <c r="E2" s="71" t="s">
         <v>369</v>
       </c>
-      <c r="F2" s="72"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="58" t="s">
         <v>241</v>
       </c>
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="59" t="s">
         <v>165</v>
       </c>
-      <c r="C3" s="69" t="s">
+      <c r="C3" s="68" t="s">
         <v>466</v>
       </c>
-      <c r="D3" s="67" t="s">
+      <c r="D3" s="66" t="s">
         <v>465</v>
       </c>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="58" t="s">
         <v>353</v>
       </c>
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="59" t="s">
         <v>165</v>
       </c>
-      <c r="C4" s="69" t="s">
+      <c r="C4" s="68" t="s">
         <v>394</v>
       </c>
-      <c r="D4" s="67" t="s">
+      <c r="D4" s="66" t="s">
         <v>377</v>
       </c>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="58" t="s">
         <v>354</v>
       </c>
-      <c r="B5" s="81" t="s">
+      <c r="B5" s="80" t="s">
         <v>284</v>
       </c>
-      <c r="C5" s="69" t="s">
+      <c r="C5" s="68" t="s">
         <v>393</v>
       </c>
-      <c r="D5" s="67" t="s">
+      <c r="D5" s="66" t="s">
         <v>388</v>
       </c>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67"/>
-      <c r="I5" s="67"/>
-      <c r="J5" s="67"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="59" t="s">
+      <c r="A6" s="58" t="s">
         <v>355</v>
       </c>
-      <c r="B6" s="61" t="s">
+      <c r="B6" s="60" t="s">
         <v>167</v>
       </c>
-      <c r="C6" s="71"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="67"/>
-      <c r="H6" s="67"/>
-      <c r="I6" s="67"/>
-      <c r="J6" s="67"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="59" t="s">
+      <c r="A7" s="58" t="s">
         <v>356</v>
       </c>
-      <c r="B7" s="61" t="s">
+      <c r="B7" s="60" t="s">
         <v>168</v>
       </c>
-      <c r="C7" s="69"/>
-      <c r="D7" s="67" t="s">
+      <c r="C7" s="68"/>
+      <c r="D7" s="66" t="s">
         <v>372</v>
       </c>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="67"/>
-      <c r="H7" s="67"/>
-      <c r="I7" s="67"/>
-      <c r="J7" s="67"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="66"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="62" t="s">
+      <c r="A8" s="61" t="s">
         <v>169</v>
       </c>
-      <c r="B8" s="60" t="s">
+      <c r="B8" s="59" t="s">
         <v>165</v>
       </c>
-      <c r="C8" s="67" t="s">
+      <c r="C8" s="66" t="s">
         <v>380</v>
       </c>
-      <c r="D8" s="67" t="s">
+      <c r="D8" s="66" t="s">
         <v>381</v>
       </c>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="67"/>
-      <c r="H8" s="67"/>
-      <c r="I8" s="68"/>
-      <c r="J8" s="69"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="68"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="59" t="s">
+      <c r="A9" s="58" t="s">
         <v>357</v>
       </c>
-      <c r="B9" s="60" t="s">
+      <c r="B9" s="59" t="s">
         <v>170</v>
       </c>
-      <c r="C9" s="67" t="s">
+      <c r="C9" s="66" t="s">
         <v>373</v>
       </c>
-      <c r="D9" s="74" t="s">
+      <c r="D9" s="73" t="s">
         <v>374</v>
       </c>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="67"/>
-      <c r="H9" s="67"/>
-      <c r="I9" s="70"/>
-      <c r="J9" s="67"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="69"/>
+      <c r="J9" s="66"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="59" t="s">
+      <c r="A10" s="58" t="s">
         <v>358</v>
       </c>
-      <c r="B10" s="63" t="s">
+      <c r="B10" s="62" t="s">
         <v>171</v>
       </c>
-      <c r="C10" s="67" t="s">
+      <c r="C10" s="66" t="s">
         <v>378</v>
       </c>
-      <c r="D10" s="74" t="s">
+      <c r="D10" s="73" t="s">
         <v>379</v>
       </c>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="67"/>
-      <c r="H10" s="67"/>
-      <c r="I10" s="67"/>
-      <c r="J10" s="67"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="66"/>
+      <c r="J10" s="66"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="59" t="s">
+      <c r="A11" s="58" t="s">
         <v>359</v>
       </c>
-      <c r="B11" s="60" t="s">
+      <c r="B11" s="59" t="s">
         <v>172</v>
       </c>
-      <c r="C11" s="69" t="s">
+      <c r="C11" s="68" t="s">
         <v>392</v>
       </c>
-      <c r="D11" s="67" t="s">
+      <c r="D11" s="66" t="s">
         <v>387</v>
       </c>
-      <c r="E11" s="67"/>
-      <c r="F11" s="67"/>
-      <c r="G11" s="67"/>
-      <c r="H11" s="67"/>
-      <c r="I11" s="67"/>
-      <c r="J11" s="67"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="66"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="66"/>
+      <c r="I11" s="66"/>
+      <c r="J11" s="66"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="59" t="s">
+      <c r="A12" s="58" t="s">
         <v>360</v>
       </c>
-      <c r="B12" s="60" t="s">
+      <c r="B12" s="59" t="s">
         <v>173</v>
       </c>
-      <c r="C12" s="69" t="s">
+      <c r="C12" s="68" t="s">
         <v>391</v>
       </c>
-      <c r="D12" s="67" t="s">
+      <c r="D12" s="66" t="s">
         <v>386</v>
       </c>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="67"/>
-      <c r="H12" s="67"/>
-      <c r="I12" s="67"/>
-      <c r="J12" s="67"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="66"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="59" t="s">
+      <c r="A13" s="58" t="s">
         <v>361</v>
       </c>
-      <c r="B13" s="61" t="s">
+      <c r="B13" s="60" t="s">
         <v>174</v>
       </c>
-      <c r="C13" s="71"/>
-      <c r="D13" s="67" t="s">
+      <c r="C13" s="70"/>
+      <c r="D13" s="66" t="s">
         <v>370</v>
       </c>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="67"/>
-      <c r="J13" s="67"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="66"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="59" t="s">
+      <c r="A14" s="58" t="s">
         <v>362</v>
       </c>
-      <c r="B14" s="61" t="s">
+      <c r="B14" s="60" t="s">
         <v>176</v>
       </c>
-      <c r="C14" s="69"/>
-      <c r="D14" s="67" t="s">
+      <c r="C14" s="68"/>
+      <c r="D14" s="66" t="s">
         <v>371</v>
       </c>
-      <c r="E14" s="67"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="67"/>
-      <c r="H14" s="67"/>
-      <c r="I14" s="67"/>
-      <c r="J14" s="67"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="66"/>
+      <c r="I14" s="66"/>
+      <c r="J14" s="66"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="59" t="s">
+      <c r="A15" s="58" t="s">
         <v>363</v>
       </c>
-      <c r="B15" s="60" t="s">
+      <c r="B15" s="59" t="s">
         <v>177</v>
       </c>
-      <c r="C15" s="69" t="s">
+      <c r="C15" s="68" t="s">
         <v>390</v>
       </c>
-      <c r="D15" s="69" t="s">
+      <c r="D15" s="68" t="s">
         <v>385</v>
       </c>
-      <c r="E15" s="67"/>
-      <c r="F15" s="67"/>
-      <c r="G15" s="67"/>
-      <c r="H15" s="67"/>
-      <c r="I15" s="67"/>
-      <c r="J15" s="67"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="66"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="59" t="s">
+      <c r="A16" s="58" t="s">
         <v>242</v>
       </c>
-      <c r="B16" s="63" t="s">
+      <c r="B16" s="62" t="s">
         <v>171</v>
       </c>
-      <c r="C16" s="69" t="s">
+      <c r="C16" s="68" t="s">
         <v>382</v>
       </c>
-      <c r="D16" s="87" t="s">
+      <c r="D16" s="86" t="s">
         <v>383</v>
       </c>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="67"/>
-      <c r="H16" s="67"/>
-      <c r="I16" s="67"/>
-      <c r="J16" s="67"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="66"/>
+      <c r="I16" s="66"/>
+      <c r="J16" s="66"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="64" t="s">
+      <c r="A17" s="63" t="s">
         <v>178</v>
       </c>
-      <c r="B17" s="63" t="s">
+      <c r="B17" s="62" t="s">
         <v>171</v>
       </c>
-      <c r="C17" s="69" t="s">
+      <c r="C17" s="68" t="s">
         <v>389</v>
       </c>
-      <c r="D17" s="69" t="s">
+      <c r="D17" s="68" t="s">
         <v>384</v>
       </c>
-      <c r="E17" s="67"/>
-      <c r="F17" s="67"/>
-      <c r="G17" s="67"/>
-      <c r="H17" s="67"/>
-      <c r="I17" s="67"/>
-      <c r="J17" s="67"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="66"/>
+      <c r="I17" s="66"/>
+      <c r="J17" s="66"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="59" t="s">
+      <c r="A18" s="58" t="s">
         <v>243</v>
       </c>
-      <c r="B18" s="63" t="s">
+      <c r="B18" s="62" t="s">
         <v>171</v>
       </c>
-      <c r="C18" s="69" t="s">
+      <c r="C18" s="68" t="s">
         <v>396</v>
       </c>
-      <c r="D18" s="67" t="s">
+      <c r="D18" s="66" t="s">
         <v>395</v>
       </c>
-      <c r="E18" s="67"/>
-      <c r="F18" s="67"/>
-      <c r="G18" s="67"/>
-      <c r="H18" s="67"/>
-      <c r="I18" s="67"/>
-      <c r="J18" s="67"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="66"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="66"/>
+      <c r="I18" s="66"/>
+      <c r="J18" s="66"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="62" t="s">
+      <c r="A19" s="61" t="s">
         <v>77</v>
       </c>
-      <c r="B19" s="61" t="s">
+      <c r="B19" s="60" t="s">
         <v>179</v>
       </c>
-      <c r="C19" s="71"/>
-      <c r="D19" s="67"/>
-      <c r="E19" s="67"/>
-      <c r="F19" s="67"/>
-      <c r="G19" s="67"/>
-      <c r="H19" s="67"/>
-      <c r="I19" s="67"/>
-      <c r="J19" s="67"/>
+      <c r="C19" s="70"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="66"/>
+      <c r="J19" s="66"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="59" t="s">
+      <c r="A20" s="58" t="s">
         <v>364</v>
       </c>
-      <c r="B20" s="61" t="s">
+      <c r="B20" s="60" t="s">
         <v>180</v>
       </c>
-      <c r="C20" s="71"/>
-      <c r="D20" s="67"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="67"/>
-      <c r="H20" s="67"/>
-      <c r="I20" s="67"/>
-      <c r="J20" s="67"/>
+      <c r="C20" s="70"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="66"/>
+      <c r="I20" s="66"/>
+      <c r="J20" s="66"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="59" t="s">
+      <c r="A21" s="58" t="s">
         <v>365</v>
       </c>
-      <c r="B21" s="82" t="s">
+      <c r="B21" s="81" t="s">
         <v>181</v>
       </c>
-      <c r="C21" s="71"/>
-      <c r="D21" s="67"/>
-      <c r="E21" s="67"/>
-      <c r="F21" s="67"/>
-      <c r="G21" s="67"/>
-      <c r="H21" s="67"/>
-      <c r="I21" s="67"/>
-      <c r="J21" s="67"/>
+      <c r="C21" s="70"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="66"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="66"/>
+      <c r="H21" s="66"/>
+      <c r="I21" s="66"/>
+      <c r="J21" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6025,16 +6041,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="30" t="s">
         <v>182</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="30" t="s">
         <v>183</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="30" t="s">
         <v>184</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="30" t="s">
         <v>185</v>
       </c>
       <c r="E1" s="9" t="s">
@@ -6042,299 +6058,299 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="31" t="s">
         <v>187</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="31" t="s">
         <v>188</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
       <c r="E2" s="9" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="32" t="s">
         <v>190</v>
       </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="35" t="s">
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="34" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="32" t="s">
         <v>192</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="32" t="s">
         <v>190</v>
       </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="35" t="s">
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="34" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="32" t="s">
         <v>190</v>
       </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="35" t="s">
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="34" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="35" t="s">
         <v>193</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="35" t="s">
         <v>194</v>
       </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="37"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="36"/>
     </row>
     <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="35" t="s">
         <v>195</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="35" t="s">
         <v>196</v>
       </c>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="37"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="36"/>
     </row>
     <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="35" t="s">
         <v>197</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="35" t="s">
         <v>198</v>
       </c>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="37"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="36"/>
     </row>
     <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="32"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="37"/>
+      <c r="A9" s="31"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="36"/>
     </row>
     <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="33" t="s">
         <v>199</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="32" t="s">
         <v>190</v>
       </c>
-      <c r="C10" s="34" t="s">
+      <c r="C10" s="33" t="s">
         <v>200</v>
       </c>
-      <c r="D10" s="34" t="s">
+      <c r="D10" s="33" t="s">
         <v>201</v>
       </c>
-      <c r="E10" s="38"/>
+      <c r="E10" s="37"/>
     </row>
     <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="32" t="s">
         <v>190</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="C11" s="33" t="s">
         <v>202</v>
       </c>
-      <c r="D11" s="34" t="s">
+      <c r="D11" s="33" t="s">
         <v>203</v>
       </c>
-      <c r="E11" s="39" t="s">
+      <c r="E11" s="38" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="33" t="s">
         <v>205</v>
       </c>
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="32" t="s">
         <v>190</v>
       </c>
-      <c r="C12" s="34" t="s">
+      <c r="C12" s="33" t="s">
         <v>200</v>
       </c>
-      <c r="D12" s="34" t="s">
+      <c r="D12" s="33" t="s">
         <v>206</v>
       </c>
-      <c r="E12" s="39" t="s">
+      <c r="E12" s="38" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="33" t="s">
         <v>208</v>
       </c>
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="32" t="s">
         <v>190</v>
       </c>
-      <c r="C13" s="34" t="s">
+      <c r="C13" s="33" t="s">
         <v>209</v>
       </c>
-      <c r="D13" s="34" t="s">
+      <c r="D13" s="33" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="32" t="s">
+      <c r="A14" s="31" t="s">
         <v>211</v>
       </c>
-      <c r="B14" s="36" t="s">
+      <c r="B14" s="35" t="s">
         <v>212</v>
       </c>
-      <c r="C14" s="32" t="s">
+      <c r="C14" s="31" t="s">
         <v>213</v>
       </c>
-      <c r="D14" s="32" t="s">
+      <c r="D14" s="31" t="s">
         <v>214</v>
       </c>
-      <c r="E14" s="37" t="s">
+      <c r="E14" s="36" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="34" t="s">
+      <c r="A15" s="33" t="s">
         <v>216</v>
       </c>
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="32" t="s">
         <v>190</v>
       </c>
-      <c r="C15" s="34" t="s">
+      <c r="C15" s="33" t="s">
         <v>200</v>
       </c>
-      <c r="D15" s="34" t="s">
+      <c r="D15" s="33" t="s">
         <v>201</v>
       </c>
-      <c r="E15" s="38"/>
+      <c r="E15" s="37"/>
     </row>
     <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="34" t="s">
+      <c r="A16" s="33" t="s">
         <v>217</v>
       </c>
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="32" t="s">
         <v>190</v>
       </c>
-      <c r="C16" s="34" t="s">
+      <c r="C16" s="33" t="s">
         <v>218</v>
       </c>
-      <c r="D16" s="34" t="s">
+      <c r="D16" s="33" t="s">
         <v>219</v>
       </c>
-      <c r="E16" s="40" t="s">
+      <c r="E16" s="39" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="34" t="s">
+      <c r="A17" s="33" t="s">
         <v>199</v>
       </c>
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="32" t="s">
         <v>190</v>
       </c>
-      <c r="C17" s="41" t="s">
+      <c r="C17" s="40" t="s">
         <v>221</v>
       </c>
-      <c r="D17" s="34" t="s">
+      <c r="D17" s="33" t="s">
         <v>222</v>
       </c>
-      <c r="E17" s="42" t="s">
+      <c r="E17" s="41" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="33" t="s">
+      <c r="A18" s="32" t="s">
         <v>224</v>
       </c>
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="32" t="s">
         <v>190</v>
       </c>
-      <c r="C18" s="43"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="44"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="43"/>
     </row>
     <row r="19" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="33" t="s">
+      <c r="A19" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="B19" s="45" t="s">
+      <c r="B19" s="44" t="s">
         <v>190</v>
       </c>
-      <c r="C19" s="46" t="s">
+      <c r="C19" s="45" t="s">
         <v>225</v>
       </c>
-      <c r="D19" s="33" t="s">
+      <c r="D19" s="32" t="s">
         <v>226</v>
       </c>
-      <c r="E19" s="47" t="s">
+      <c r="E19" s="46" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="32"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="44"/>
+      <c r="A20" s="31"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="43"/>
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="49" t="s">
+      <c r="A21" s="48" t="s">
         <v>228</v>
       </c>
-      <c r="B21" s="36" t="s">
+      <c r="B21" s="35" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="49" t="s">
+      <c r="A22" s="48" t="s">
         <v>230</v>
       </c>
-      <c r="B22" s="36" t="s">
+      <c r="B22" s="35" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="50"/>
-      <c r="B23" s="33"/>
+      <c r="A23" s="49"/>
+      <c r="B23" s="32"/>
     </row>
     <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="50" t="s">
+      <c r="A24" s="49" t="s">
         <v>231</v>
       </c>
-      <c r="B24" s="33" t="s">
+      <c r="B24" s="32" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="39" t="s">
+      <c r="A25" s="38" t="s">
         <v>232</v>
       </c>
-      <c r="B25" s="33" t="s">
+      <c r="B25" s="32" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="37" t="s">
+      <c r="A26" s="36" t="s">
         <v>233</v>
       </c>
       <c r="B26" s="3" t="s">
@@ -6342,7 +6358,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="37" t="s">
+      <c r="A27" s="36" t="s">
         <v>235</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -6350,7 +6366,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="37" t="s">
+      <c r="A28" s="36" t="s">
         <v>236</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -6358,7 +6374,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="37" t="s">
+      <c r="A29" s="36" t="s">
         <v>237</v>
       </c>
       <c r="B29" s="3" t="s">
@@ -6366,7 +6382,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="37" t="s">
+      <c r="A30" s="36" t="s">
         <v>238</v>
       </c>
       <c r="B30" s="3" t="s">
@@ -6374,7 +6390,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="37" t="s">
+      <c r="A31" s="36" t="s">
         <v>239</v>
       </c>
       <c r="B31" s="3" t="s">
@@ -6382,7 +6398,7 @@
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="37" t="s">
+      <c r="A32" s="36" t="s">
         <v>240</v>
       </c>
       <c r="B32" s="3" t="s">
@@ -7380,68 +7396,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="134" t="s">
+      <c r="A1" s="133" t="s">
         <v>454</v>
       </c>
-      <c r="B1" s="144"/>
-      <c r="C1" s="144"/>
-      <c r="D1" s="122"/>
-      <c r="E1" s="122"/>
-      <c r="F1" s="122"/>
+      <c r="B1" s="143"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="121"/>
+      <c r="E1" s="121"/>
+      <c r="F1" s="121"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="77" t="s">
+      <c r="B2" s="76" t="s">
         <v>456</v>
       </c>
-      <c r="C2" s="77" t="s">
+      <c r="C2" s="76" t="s">
         <v>455</v>
       </c>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="123" t="str">
+      <c r="A3" s="122" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1h79fqthLoRJDjhC2klnjbkG8MB2JL2Hy","1A")</f>
         <v>1A</v>
       </c>
-      <c r="B3" s="125" t="s">
+      <c r="B3" s="124" t="s">
         <v>457</v>
       </c>
-      <c r="C3" s="127" t="s">
+      <c r="C3" s="126" t="s">
         <v>459</v>
       </c>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="100"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="99"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="123" t="str">
+      <c r="A4" s="122" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1OPl2VmHH1ZeMZjQWNCCkQkA6bOfyIeqj","1B")</f>
         <v>1B</v>
       </c>
-      <c r="B4" s="125" t="s">
+      <c r="B4" s="124" t="s">
         <v>457</v>
       </c>
-      <c r="C4" s="127" t="s">
+      <c r="C4" s="126" t="s">
         <v>48</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
-      <c r="F4" s="119"/>
+      <c r="F4" s="118"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="124" t="str">
+      <c r="A5" s="123" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1_67Lwh4ATjaUkKTpdhqNA2vhhSxMhfoh","1C")</f>
         <v>1C</v>
       </c>
-      <c r="B5" s="126" t="s">
+      <c r="B5" s="125" t="s">
         <v>458</v>
       </c>
-      <c r="C5" s="127" t="s">
+      <c r="C5" s="126" t="s">
         <v>459</v>
       </c>
       <c r="D5" s="9"/>
@@ -7449,59 +7465,59 @@
       <c r="F5" s="9"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="124" t="str">
+      <c r="A6" s="123" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1RDZathABUe1AxNllos18oBRUGkUw-BAb","1D")</f>
         <v>1D</v>
       </c>
-      <c r="B6" s="125" t="s">
+      <c r="B6" s="124" t="s">
         <v>457</v>
       </c>
-      <c r="C6" s="127" t="s">
+      <c r="C6" s="126" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="88"/>
-      <c r="E6" s="88"/>
-      <c r="F6" s="119"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="87"/>
+      <c r="F6" s="118"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="124" t="str">
+      <c r="A7" s="123" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1B7jEgQfvgjZIKbfW8eR9qm2PDLYRcFFX","1E")</f>
         <v>1E</v>
       </c>
-      <c r="B7" s="126" t="s">
+      <c r="B7" s="125" t="s">
         <v>458</v>
       </c>
-      <c r="C7" s="128" t="s">
+      <c r="C7" s="127" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="88"/>
-      <c r="E7" s="88"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="87"/>
       <c r="F7" s="9"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="124" t="str">
+      <c r="A8" s="123" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1y8psJsldf8GOPKXdI3_7jAN-0VefmuVb","1F")</f>
         <v>1F</v>
       </c>
-      <c r="B8" s="125" t="s">
+      <c r="B8" s="124" t="s">
         <v>457</v>
       </c>
-      <c r="C8" s="127" t="s">
+      <c r="C8" s="126" t="s">
         <v>459</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
-      <c r="F8" s="119"/>
+      <c r="F8" s="118"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="123" t="str">
+      <c r="A9" s="122" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1Ak0bagtonjeBe0T45ml7mh9V5vKH_FoI","1G")</f>
         <v>1G</v>
       </c>
-      <c r="B9" s="126" t="s">
+      <c r="B9" s="125" t="s">
         <v>458</v>
       </c>
-      <c r="C9" s="128" t="s">
+      <c r="C9" s="127" t="s">
         <v>48</v>
       </c>
       <c r="D9" s="9"/>
@@ -7509,29 +7525,29 @@
       <c r="F9" s="9"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="123" t="str">
+      <c r="A10" s="122" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=15tp_vGgbK5-4zzthz0W8wuq2zgKokja6","1H")</f>
         <v>1H</v>
       </c>
-      <c r="B10" s="126" t="s">
+      <c r="B10" s="125" t="s">
         <v>458</v>
       </c>
-      <c r="C10" s="127" t="s">
+      <c r="C10" s="126" t="s">
         <v>459</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
-      <c r="F10" s="119"/>
+      <c r="F10" s="118"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="123" t="str">
+      <c r="A11" s="122" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1EMft8Du0dvrSSlstsShqV16Nnrlb4EO_","1J")</f>
         <v>1J</v>
       </c>
-      <c r="B11" s="125" t="s">
+      <c r="B11" s="124" t="s">
         <v>457</v>
       </c>
-      <c r="C11" s="127" t="s">
+      <c r="C11" s="126" t="s">
         <v>48</v>
       </c>
       <c r="D11" s="9"/>
@@ -7539,119 +7555,119 @@
       <c r="F11" s="9"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="123" t="str">
+      <c r="A12" s="122" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1B-AwkTkUdHQS0dThuP6mM5L_0XIFZ2QS","1K")</f>
         <v>1K</v>
       </c>
-      <c r="B12" s="126" t="s">
+      <c r="B12" s="125" t="s">
         <v>458</v>
       </c>
-      <c r="C12" s="127" t="s">
+      <c r="C12" s="126" t="s">
         <v>459</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
-      <c r="F12" s="119"/>
+      <c r="F12" s="118"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="123" t="str">
+      <c r="A13" s="122" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1XILFfrJerwAeHeN4xKdQH-99VN9y0QS7","2A")</f>
         <v>2A</v>
       </c>
-      <c r="B13" s="126" t="s">
+      <c r="B13" s="125" t="s">
         <v>458</v>
       </c>
-      <c r="C13" s="127" t="s">
+      <c r="C13" s="126" t="s">
         <v>459</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
-      <c r="F13" s="119"/>
+      <c r="F13" s="118"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="123" t="str">
+      <c r="A14" s="122" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1i7lErxBcw13LxRubiAB_0upxTGrTLBvi","2B")</f>
         <v>2B</v>
       </c>
-      <c r="B14" s="126" t="s">
+      <c r="B14" s="125" t="s">
         <v>458</v>
       </c>
-      <c r="C14" s="127" t="s">
+      <c r="C14" s="126" t="s">
         <v>459</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
-      <c r="F14" s="119"/>
+      <c r="F14" s="118"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="123" t="str">
+      <c r="A15" s="122" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1HmSkhlRiy_w_xIcPrlD-Gu21Q1sHCajk","2C")</f>
         <v>2C</v>
       </c>
-      <c r="B15" s="126" t="s">
+      <c r="B15" s="125" t="s">
         <v>458</v>
       </c>
-      <c r="C15" s="127" t="s">
+      <c r="C15" s="126" t="s">
         <v>48</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
-      <c r="F15" s="119"/>
+      <c r="F15" s="118"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="123" t="str">
+      <c r="A16" s="122" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1ih9AM9nSu6WpURV8EnXu6Q1HkOh5dSXM","2D")</f>
         <v>2D</v>
       </c>
-      <c r="B16" s="125" t="s">
+      <c r="B16" s="124" t="s">
         <v>457</v>
       </c>
-      <c r="C16" s="127" t="s">
+      <c r="C16" s="126" t="s">
         <v>48</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
-      <c r="F16" s="119"/>
+      <c r="F16" s="118"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="123" t="str">
+      <c r="A17" s="122" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1ilbwUzFLn2Zr9CQ_v673T9KjSALf_GzB","2E")</f>
         <v>2E</v>
       </c>
-      <c r="B17" s="126" t="s">
+      <c r="B17" s="125" t="s">
         <v>458</v>
       </c>
-      <c r="C17" s="127" t="s">
+      <c r="C17" s="126" t="s">
         <v>459</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
-      <c r="F17" s="119"/>
+      <c r="F17" s="118"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="123" t="str">
+      <c r="A18" s="122" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1H2B7fJmOymk8ZeyITqVgqJIR9EbewGjs","2F")</f>
         <v>2F</v>
       </c>
-      <c r="B18" s="125" t="s">
+      <c r="B18" s="124" t="s">
         <v>457</v>
       </c>
-      <c r="C18" s="127" t="s">
+      <c r="C18" s="126" t="s">
         <v>48</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
-      <c r="F18" s="119"/>
+      <c r="F18" s="118"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="123" t="str">
+      <c r="A19" s="122" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1GXDi1coA9HtIo5F2GTLcPhpAh_IiHrmJ","2G")</f>
         <v>2G</v>
       </c>
-      <c r="B19" s="125" t="s">
+      <c r="B19" s="124" t="s">
         <v>457</v>
       </c>
-      <c r="C19" s="127" t="s">
+      <c r="C19" s="126" t="s">
         <v>48</v>
       </c>
       <c r="D19" s="9"/>
@@ -7659,149 +7675,149 @@
       <c r="F19" s="9"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="123" t="str">
+      <c r="A20" s="122" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=18itspidwzvb4KFHkqj1122TxuhHxILwX","2H")</f>
         <v>2H</v>
       </c>
-      <c r="B20" s="126" t="s">
+      <c r="B20" s="125" t="s">
         <v>458</v>
       </c>
-      <c r="C20" s="127" t="s">
+      <c r="C20" s="126" t="s">
         <v>459</v>
       </c>
-      <c r="D20" s="118"/>
+      <c r="D20" s="117"/>
       <c r="E20" s="9"/>
-      <c r="F20" s="119"/>
+      <c r="F20" s="118"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="123" t="str">
+      <c r="A21" s="122" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=12YgGEJrua5a-agu15lV4vezflw1cOjQ4","2J")</f>
         <v>2J</v>
       </c>
-      <c r="B21" s="126" t="s">
+      <c r="B21" s="125" t="s">
         <v>458</v>
       </c>
-      <c r="C21" s="127" t="s">
+      <c r="C21" s="126" t="s">
         <v>459</v>
       </c>
-      <c r="D21" s="88"/>
-      <c r="E21" s="88"/>
-      <c r="F21" s="119"/>
+      <c r="D21" s="87"/>
+      <c r="E21" s="87"/>
+      <c r="F21" s="118"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="123" t="str">
+      <c r="A22" s="122" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1mdMrKj4CCNPy7BlChSDOU2hQAJONhZzU","2K")</f>
         <v>2K</v>
       </c>
-      <c r="B22" s="126" t="s">
+      <c r="B22" s="125" t="s">
         <v>458</v>
       </c>
-      <c r="C22" s="127" t="s">
+      <c r="C22" s="126" t="s">
         <v>48</v>
       </c>
-      <c r="D22" s="88"/>
-      <c r="E22" s="88"/>
-      <c r="F22" s="119"/>
+      <c r="D22" s="87"/>
+      <c r="E22" s="87"/>
+      <c r="F22" s="118"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="123" t="str">
+      <c r="A23" s="122" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=14mzIl-szkFL_WWXlsFZ9T_x3Mt5RAOn0","2L")</f>
         <v>2L</v>
       </c>
-      <c r="B23" s="126" t="s">
+      <c r="B23" s="125" t="s">
         <v>458</v>
       </c>
-      <c r="C23" s="127" t="s">
+      <c r="C23" s="126" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="88"/>
-      <c r="E23" s="88"/>
-      <c r="F23" s="119"/>
+      <c r="D23" s="87"/>
+      <c r="E23" s="87"/>
+      <c r="F23" s="118"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="123" t="str">
+      <c r="A24" s="122" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1-X_VRvOqUUm_bcQ792NJw8TTxR5Kl3lr","2M")</f>
         <v>2M</v>
       </c>
-      <c r="B24" s="126" t="s">
+      <c r="B24" s="125" t="s">
         <v>458</v>
       </c>
-      <c r="C24" s="127" t="s">
+      <c r="C24" s="126" t="s">
         <v>459</v>
       </c>
-      <c r="D24" s="118"/>
-      <c r="E24" s="88"/>
+      <c r="D24" s="117"/>
+      <c r="E24" s="87"/>
       <c r="F24" s="9"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="123" t="str">
+      <c r="A25" s="122" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1ofYuI7zJYOx0Em5kOgymDe9L2TWaIZ-_","3C")</f>
         <v>3C</v>
       </c>
-      <c r="B25" s="126" t="s">
+      <c r="B25" s="125" t="s">
         <v>458</v>
       </c>
-      <c r="C25" s="127" t="s">
+      <c r="C25" s="126" t="s">
         <v>459</v>
       </c>
-      <c r="D25" s="118"/>
+      <c r="D25" s="117"/>
       <c r="E25" s="9"/>
-      <c r="F25" s="119"/>
+      <c r="F25" s="118"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="123" t="str">
+      <c r="A26" s="122" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1X9eTLHcdh-lSX2OXG4OLDNwPRG5eoz9l","3D")</f>
         <v>3D</v>
       </c>
-      <c r="B26" s="126" t="s">
+      <c r="B26" s="125" t="s">
         <v>458</v>
       </c>
-      <c r="C26" s="128" t="s">
+      <c r="C26" s="127" t="s">
         <v>48</v>
       </c>
-      <c r="D26" s="88"/>
-      <c r="E26" s="88"/>
+      <c r="D26" s="87"/>
+      <c r="E26" s="87"/>
       <c r="F26" s="9"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="123" t="str">
+      <c r="A27" s="122" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1m_ACLfEw9sFFcCd16wQnkI9wa3WI7gK9","3E")</f>
         <v>3E</v>
       </c>
-      <c r="B27" s="125" t="s">
+      <c r="B27" s="124" t="s">
         <v>457</v>
       </c>
-      <c r="C27" s="127" t="s">
+      <c r="C27" s="126" t="s">
         <v>48</v>
       </c>
-      <c r="D27" s="88"/>
-      <c r="E27" s="90"/>
-      <c r="F27" s="119"/>
+      <c r="D27" s="87"/>
+      <c r="E27" s="89"/>
+      <c r="F27" s="118"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="123" t="str">
+      <c r="A28" s="122" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1CIBdXiHhWBrM6LwlY-yGooPill1DRTQ7","3F")</f>
         <v>3F</v>
       </c>
-      <c r="B28" s="127" t="s">
+      <c r="B28" s="126" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="127" t="s">
+      <c r="C28" s="126" t="s">
         <v>48</v>
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
-      <c r="F28" s="118"/>
+      <c r="F28" s="117"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="123" t="str">
+      <c r="A29" s="122" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1c2xmouFbs4cNAvpeHuAdgNreh8kFEC2V","3G")</f>
         <v>3G</v>
       </c>
-      <c r="B29" s="127" t="s">
+      <c r="B29" s="126" t="s">
         <v>48</v>
       </c>
-      <c r="C29" s="127" t="s">
+      <c r="C29" s="126" t="s">
         <v>48</v>
       </c>
       <c r="D29" s="9"/>
@@ -7809,14 +7825,14 @@
       <c r="F29" s="9"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="123" t="str">
+      <c r="A30" s="122" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1t7wkFvS4sGjdMU60zYacdFSrl4pYayl_","3H")</f>
         <v>3H</v>
       </c>
-      <c r="B30" s="127" t="s">
+      <c r="B30" s="126" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="127" t="s">
+      <c r="C30" s="126" t="s">
         <v>48</v>
       </c>
       <c r="D30" s="9"/>
@@ -7824,44 +7840,44 @@
       <c r="F30" s="9"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="123" t="str">
+      <c r="A31" s="122" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1N0-R1KTkpoZjXWmN7r0U_myR9XBY5SDj","3J")</f>
         <v>3J</v>
       </c>
-      <c r="B31" s="125" t="s">
+      <c r="B31" s="124" t="s">
         <v>457</v>
       </c>
-      <c r="C31" s="127" t="s">
+      <c r="C31" s="126" t="s">
         <v>48</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
-      <c r="F31" s="119"/>
+      <c r="F31" s="118"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="123" t="str">
+      <c r="A32" s="122" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=13pmWKIsTMFsSuBTJ-HZb5DVIowIXTS_s","3L")</f>
         <v>3L</v>
       </c>
-      <c r="B32" s="126" t="s">
+      <c r="B32" s="125" t="s">
         <v>458</v>
       </c>
-      <c r="C32" s="127" t="s">
+      <c r="C32" s="126" t="s">
         <v>459</v>
       </c>
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
-      <c r="F32" s="119"/>
+      <c r="F32" s="118"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="123" t="str">
+      <c r="A33" s="122" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=16nGNQgv2r19h9agxYjXmQ8rC4v330dYf","4E")</f>
         <v>4E</v>
       </c>
-      <c r="B33" s="125" t="s">
+      <c r="B33" s="124" t="s">
         <v>457</v>
       </c>
-      <c r="C33" s="127" t="s">
+      <c r="C33" s="126" t="s">
         <v>48</v>
       </c>
       <c r="D33" s="9"/>
@@ -7869,14 +7885,14 @@
       <c r="F33" s="9"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="123" t="str">
+      <c r="A34" s="122" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1bmJc7h6PrfobWHjtATEPhVDZqxi3ORaa","4F")</f>
         <v>4F</v>
       </c>
-      <c r="B34" s="125" t="s">
+      <c r="B34" s="124" t="s">
         <v>457</v>
       </c>
-      <c r="C34" s="127" t="s">
+      <c r="C34" s="126" t="s">
         <v>48</v>
       </c>
       <c r="D34" s="9"/>
@@ -7884,29 +7900,29 @@
       <c r="F34" s="9"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="123" t="str">
+      <c r="A35" s="122" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1nHAP6VZOPX4PWClDeQpEHh4MuzIQchEa","4G")</f>
         <v>4G</v>
       </c>
-      <c r="B35" s="125" t="s">
+      <c r="B35" s="124" t="s">
         <v>457</v>
       </c>
-      <c r="C35" s="127" t="s">
+      <c r="C35" s="126" t="s">
         <v>459</v>
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
-      <c r="F35" s="119"/>
+      <c r="F35" s="118"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="123" t="str">
+      <c r="A36" s="122" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1a78u8iOyRFbuJtQlj9X51FknS9EfCDih","4H")</f>
         <v>4H</v>
       </c>
-      <c r="B36" s="125" t="s">
+      <c r="B36" s="124" t="s">
         <v>457</v>
       </c>
-      <c r="C36" s="127" t="s">
+      <c r="C36" s="126" t="s">
         <v>48</v>
       </c>
       <c r="D36" s="9"/>
@@ -7914,124 +7930,124 @@
       <c r="F36" s="9"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="123" t="str">
+      <c r="A37" s="122" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1zZjefBVzFC9BP-YmMKfQZMWa1XGkqomj","4J")</f>
         <v>4J</v>
       </c>
-      <c r="B37" s="126" t="s">
+      <c r="B37" s="125" t="s">
         <v>458</v>
       </c>
-      <c r="C37" s="127" t="s">
+      <c r="C37" s="126" t="s">
         <v>459</v>
       </c>
-      <c r="D37" s="118"/>
+      <c r="D37" s="117"/>
       <c r="E37" s="9"/>
-      <c r="F37" s="119"/>
+      <c r="F37" s="118"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="123" t="str">
+      <c r="A38" s="122" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1qWFlabv0TeVOBvOIJQuvHlR1H3AMOPvN","4K")</f>
         <v>4K</v>
       </c>
-      <c r="B38" s="125" t="s">
+      <c r="B38" s="124" t="s">
         <v>457</v>
       </c>
-      <c r="C38" s="127" t="s">
+      <c r="C38" s="126" t="s">
         <v>48</v>
       </c>
       <c r="D38" s="9"/>
       <c r="E38" s="9"/>
-      <c r="F38" s="119"/>
+      <c r="F38" s="118"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="123" t="str">
+      <c r="A39" s="122" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=176NV2NM9yvfuW1EMU3iBS768FxgmXjUS","4L")</f>
         <v>4L</v>
       </c>
-      <c r="B39" s="125" t="s">
+      <c r="B39" s="124" t="s">
         <v>457</v>
       </c>
-      <c r="C39" s="127" t="s">
+      <c r="C39" s="126" t="s">
         <v>48</v>
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="9"/>
-      <c r="F39" s="119"/>
+      <c r="F39" s="118"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="123" t="str">
+      <c r="A40" s="122" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1cC0P-G66cPSNnf6v6z8opZCNyporo74Y","5B")</f>
         <v>5B</v>
       </c>
-      <c r="B40" s="126" t="s">
+      <c r="B40" s="125" t="s">
         <v>458</v>
       </c>
-      <c r="C40" s="128" t="s">
+      <c r="C40" s="127" t="s">
         <v>48</v>
       </c>
-      <c r="D40" s="118"/>
+      <c r="D40" s="117"/>
       <c r="E40" s="9"/>
-      <c r="F40" s="119"/>
+      <c r="F40" s="118"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="123" t="str">
+      <c r="A41" s="122" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1q_N74b1OZrCze7zuXy5fm0ASU07tWzh3","5C")</f>
         <v>5C</v>
       </c>
-      <c r="B41" s="125" t="s">
+      <c r="B41" s="124" t="s">
         <v>457</v>
       </c>
-      <c r="C41" s="127" t="s">
+      <c r="C41" s="126" t="s">
         <v>459</v>
       </c>
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
-      <c r="F41" s="119"/>
+      <c r="F41" s="118"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="123" t="str">
+      <c r="A42" s="122" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1aKSCelAY002Ihje9mdJi7jFh0OB4j8XZ","5E")</f>
         <v>5E</v>
       </c>
-      <c r="B42" s="125" t="s">
+      <c r="B42" s="124" t="s">
         <v>457</v>
       </c>
-      <c r="C42" s="127" t="s">
+      <c r="C42" s="126" t="s">
         <v>48</v>
       </c>
       <c r="D42" s="9"/>
       <c r="E42" s="9"/>
-      <c r="F42" s="119"/>
+      <c r="F42" s="118"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="123" t="str">
+      <c r="A43" s="122" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1ghdX_COwJq4oYlhj-qYPypK_2GlrWyQZ","5G")</f>
         <v>5G</v>
       </c>
-      <c r="B43" s="125" t="s">
+      <c r="B43" s="124" t="s">
         <v>457</v>
       </c>
-      <c r="C43" s="127" t="s">
+      <c r="C43" s="126" t="s">
         <v>48</v>
       </c>
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
-      <c r="F43" s="119"/>
+      <c r="F43" s="118"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="123" t="str">
+      <c r="A44" s="122" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1MR24L4GDI5x861k8SMrgm71xRfm55Hiv","5H")</f>
         <v>5H</v>
       </c>
-      <c r="B44" s="125" t="s">
+      <c r="B44" s="124" t="s">
         <v>457</v>
       </c>
-      <c r="C44" s="127" t="s">
+      <c r="C44" s="126" t="s">
         <v>48</v>
       </c>
       <c r="D44" s="9"/>
       <c r="E44" s="9"/>
-      <c r="F44" s="119"/>
+      <c r="F44" s="118"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8061,392 +8077,392 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="95" t="s">
         <v>407</v>
       </c>
-      <c r="B1" s="97" t="s">
+      <c r="B1" s="96" t="s">
         <v>428</v>
       </c>
-      <c r="C1" s="97" t="s">
+      <c r="C1" s="96" t="s">
         <v>427</v>
       </c>
-      <c r="D1" s="145" t="s">
+      <c r="D1" s="146" t="s">
         <v>271</v>
       </c>
-      <c r="E1" s="145"/>
-      <c r="F1" s="106" t="s">
+      <c r="E1" s="146"/>
+      <c r="F1" s="105" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="94" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" s="93" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="9"/>
-      <c r="D2" s="147"/>
-      <c r="E2" s="147"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
-    </row>
-    <row r="3" spans="1:9" s="94" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="95" t="s">
+      <c r="D2" s="145"/>
+      <c r="E2" s="145"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+    </row>
+    <row r="3" spans="1:9" s="93" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="94" t="s">
         <v>408</v>
       </c>
-      <c r="B3" s="101">
+      <c r="B3" s="100">
         <v>62</v>
       </c>
-      <c r="C3" s="101">
+      <c r="C3" s="100">
         <v>55</v>
       </c>
-      <c r="D3" s="146" t="s">
+      <c r="D3" s="144" t="s">
         <v>429</v>
       </c>
-      <c r="E3" s="147"/>
-      <c r="F3" s="98" t="s">
+      <c r="E3" s="145"/>
+      <c r="F3" s="97" t="s">
         <v>261</v>
       </c>
-      <c r="G3" s="100"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="100"/>
-    </row>
-    <row r="4" spans="1:9" s="94" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="95" t="s">
+      <c r="G3" s="99"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="99"/>
+    </row>
+    <row r="4" spans="1:9" s="93" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="94" t="s">
         <v>409</v>
       </c>
-      <c r="D4" s="147"/>
-      <c r="E4" s="147"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="103"/>
-      <c r="I4" s="100"/>
-    </row>
-    <row r="5" spans="1:9" s="94" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="95" t="s">
+      <c r="D4" s="145"/>
+      <c r="E4" s="145"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="99"/>
+    </row>
+    <row r="5" spans="1:9" s="93" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="94" t="s">
         <v>410</v>
       </c>
-      <c r="B5" s="101">
+      <c r="B5" s="100">
         <v>44</v>
       </c>
-      <c r="C5" s="101">
+      <c r="C5" s="100">
         <v>43</v>
       </c>
-      <c r="D5" s="147"/>
-      <c r="E5" s="147"/>
-      <c r="F5" s="98" t="s">
+      <c r="D5" s="145"/>
+      <c r="E5" s="145"/>
+      <c r="F5" s="97" t="s">
         <v>261</v>
       </c>
-      <c r="G5" s="100"/>
-      <c r="H5" s="103"/>
-      <c r="I5" s="100"/>
-    </row>
-    <row r="6" spans="1:9" s="94" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="95" t="s">
+      <c r="G5" s="99"/>
+      <c r="H5" s="102"/>
+      <c r="I5" s="99"/>
+    </row>
+    <row r="6" spans="1:9" s="93" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="94" t="s">
         <v>411</v>
       </c>
-      <c r="B6" s="101">
+      <c r="B6" s="100">
         <v>47</v>
       </c>
-      <c r="C6" s="101">
+      <c r="C6" s="100">
         <v>52</v>
       </c>
-      <c r="D6" s="146" t="s">
+      <c r="D6" s="144" t="s">
         <v>431</v>
       </c>
-      <c r="E6" s="147"/>
-      <c r="F6" s="98" t="s">
+      <c r="E6" s="145"/>
+      <c r="F6" s="97" t="s">
         <v>261</v>
       </c>
-      <c r="G6" s="100"/>
-      <c r="H6" s="105"/>
-      <c r="I6" s="100"/>
-    </row>
-    <row r="7" spans="1:9" s="94" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="95" t="s">
+      <c r="G6" s="99"/>
+      <c r="H6" s="104"/>
+      <c r="I6" s="99"/>
+    </row>
+    <row r="7" spans="1:9" s="93" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="94" t="s">
         <v>412</v>
       </c>
-      <c r="B7" s="101">
+      <c r="B7" s="100">
         <v>75</v>
       </c>
-      <c r="C7" s="101">
+      <c r="C7" s="100">
         <v>82</v>
       </c>
-      <c r="D7" s="146" t="s">
+      <c r="D7" s="144" t="s">
         <v>431</v>
       </c>
-      <c r="E7" s="147"/>
-      <c r="F7" s="98" t="s">
+      <c r="E7" s="145"/>
+      <c r="F7" s="97" t="s">
         <v>261</v>
       </c>
-      <c r="G7" s="100"/>
-      <c r="H7" s="103"/>
-      <c r="I7" s="100"/>
-    </row>
-    <row r="8" spans="1:9" s="94" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="95" t="s">
+      <c r="G7" s="99"/>
+      <c r="H7" s="102"/>
+      <c r="I7" s="99"/>
+    </row>
+    <row r="8" spans="1:9" s="93" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="94" t="s">
         <v>413</v>
       </c>
-      <c r="B8" s="101">
+      <c r="B8" s="100">
         <v>85</v>
       </c>
-      <c r="C8" s="101">
+      <c r="C8" s="100">
         <v>99</v>
       </c>
-      <c r="D8" s="146" t="s">
+      <c r="D8" s="144" t="s">
         <v>430</v>
       </c>
-      <c r="E8" s="147"/>
-      <c r="F8" s="99"/>
-      <c r="G8" s="100"/>
-      <c r="H8" s="103"/>
-      <c r="I8" s="100"/>
+      <c r="E8" s="145"/>
+      <c r="F8" s="98"/>
+      <c r="G8" s="99"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="99"/>
     </row>
     <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="95" t="s">
+      <c r="A9" s="94" t="s">
         <v>414</v>
       </c>
-      <c r="B9" s="101">
+      <c r="B9" s="100">
         <v>15</v>
       </c>
-      <c r="C9" s="101">
+      <c r="C9" s="100">
         <v>23</v>
       </c>
-      <c r="D9" s="146" t="s">
+      <c r="D9" s="144" t="s">
         <v>429</v>
       </c>
-      <c r="E9" s="147"/>
-      <c r="F9" s="98" t="s">
+      <c r="E9" s="145"/>
+      <c r="F9" s="97" t="s">
         <v>261</v>
       </c>
-      <c r="G9" s="100"/>
-      <c r="H9" s="103"/>
-      <c r="I9" s="100"/>
+      <c r="G9" s="99"/>
+      <c r="H9" s="102"/>
+      <c r="I9" s="99"/>
     </row>
     <row r="10" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="95" t="s">
+      <c r="A10" s="94" t="s">
         <v>415</v>
       </c>
-      <c r="B10" s="102"/>
-      <c r="C10" s="101"/>
-      <c r="D10" s="147"/>
-      <c r="E10" s="147"/>
-      <c r="F10" s="99"/>
-      <c r="G10" s="100"/>
-      <c r="H10" s="103"/>
-      <c r="I10" s="100"/>
+      <c r="B10" s="101"/>
+      <c r="C10" s="100"/>
+      <c r="D10" s="145"/>
+      <c r="E10" s="145"/>
+      <c r="F10" s="98"/>
+      <c r="G10" s="99"/>
+      <c r="H10" s="102"/>
+      <c r="I10" s="99"/>
     </row>
     <row r="11" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="95" t="s">
+      <c r="A11" s="94" t="s">
         <v>416</v>
       </c>
-      <c r="B11" s="103"/>
-      <c r="C11" s="101"/>
-      <c r="D11" s="147"/>
-      <c r="E11" s="147"/>
-      <c r="F11" s="99"/>
-      <c r="G11" s="100"/>
-      <c r="H11" s="103"/>
-      <c r="I11" s="100"/>
+      <c r="B11" s="102"/>
+      <c r="C11" s="100"/>
+      <c r="D11" s="145"/>
+      <c r="E11" s="145"/>
+      <c r="F11" s="98"/>
+      <c r="G11" s="99"/>
+      <c r="H11" s="102"/>
+      <c r="I11" s="99"/>
     </row>
     <row r="12" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="95" t="s">
+      <c r="A12" s="94" t="s">
         <v>417</v>
       </c>
-      <c r="B12" s="103">
+      <c r="B12" s="102">
         <v>57</v>
       </c>
-      <c r="C12" s="101">
+      <c r="C12" s="100">
         <v>59</v>
       </c>
-      <c r="D12" s="146" t="s">
+      <c r="D12" s="144" t="s">
         <v>429</v>
       </c>
-      <c r="E12" s="147"/>
-      <c r="F12" s="98" t="s">
+      <c r="E12" s="145"/>
+      <c r="F12" s="97" t="s">
         <v>261</v>
       </c>
-      <c r="G12" s="100"/>
-      <c r="H12" s="103"/>
-      <c r="I12" s="100"/>
+      <c r="G12" s="99"/>
+      <c r="H12" s="102"/>
+      <c r="I12" s="99"/>
     </row>
     <row r="13" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="95" t="s">
+      <c r="A13" s="94" t="s">
         <v>418</v>
       </c>
-      <c r="B13" s="103">
+      <c r="B13" s="102">
         <v>37</v>
       </c>
-      <c r="C13" s="101">
+      <c r="C13" s="100">
         <v>56</v>
       </c>
-      <c r="D13" s="146" t="s">
+      <c r="D13" s="144" t="s">
         <v>431</v>
       </c>
-      <c r="E13" s="147"/>
-      <c r="F13" s="98" t="s">
+      <c r="E13" s="145"/>
+      <c r="F13" s="97" t="s">
         <v>261</v>
       </c>
-      <c r="G13" s="100"/>
-      <c r="H13" s="105"/>
-      <c r="I13" s="100"/>
+      <c r="G13" s="99"/>
+      <c r="H13" s="104"/>
+      <c r="I13" s="99"/>
     </row>
     <row r="14" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="95" t="s">
+      <c r="A14" s="94" t="s">
         <v>419</v>
       </c>
-      <c r="B14" s="103">
+      <c r="B14" s="102">
         <v>53</v>
       </c>
-      <c r="C14" s="101">
+      <c r="C14" s="100">
         <v>72</v>
       </c>
-      <c r="D14" s="146" t="s">
+      <c r="D14" s="144" t="s">
         <v>431</v>
       </c>
-      <c r="E14" s="147"/>
-      <c r="F14" s="98" t="s">
+      <c r="E14" s="145"/>
+      <c r="F14" s="97" t="s">
         <v>261</v>
       </c>
-      <c r="G14" s="100"/>
-      <c r="H14" s="103"/>
-      <c r="I14" s="100"/>
+      <c r="G14" s="99"/>
+      <c r="H14" s="102"/>
+      <c r="I14" s="99"/>
     </row>
     <row r="15" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="95" t="s">
+      <c r="A15" s="94" t="s">
         <v>420</v>
       </c>
-      <c r="B15" s="103">
+      <c r="B15" s="102">
         <v>60</v>
       </c>
-      <c r="C15" s="101">
+      <c r="C15" s="100">
         <v>64</v>
       </c>
-      <c r="D15" s="147"/>
-      <c r="E15" s="147"/>
-      <c r="F15" s="98" t="s">
+      <c r="D15" s="145"/>
+      <c r="E15" s="145"/>
+      <c r="F15" s="97" t="s">
         <v>261</v>
       </c>
-      <c r="G15" s="100"/>
-      <c r="H15" s="103"/>
-      <c r="I15" s="100"/>
+      <c r="G15" s="99"/>
+      <c r="H15" s="102"/>
+      <c r="I15" s="99"/>
     </row>
     <row r="16" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="95" t="s">
+      <c r="A16" s="94" t="s">
         <v>421</v>
       </c>
-      <c r="B16" s="101"/>
-      <c r="C16" s="101"/>
-      <c r="D16" s="147"/>
-      <c r="E16" s="147"/>
-      <c r="F16" s="99"/>
-      <c r="G16" s="100"/>
-      <c r="H16" s="103"/>
-      <c r="I16" s="100"/>
-    </row>
-    <row r="17" spans="1:9" s="94" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="95" t="s">
+      <c r="B16" s="100"/>
+      <c r="C16" s="100"/>
+      <c r="D16" s="145"/>
+      <c r="E16" s="145"/>
+      <c r="F16" s="98"/>
+      <c r="G16" s="99"/>
+      <c r="H16" s="102"/>
+      <c r="I16" s="99"/>
+    </row>
+    <row r="17" spans="1:9" s="93" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="94" t="s">
         <v>422</v>
       </c>
-      <c r="B17" s="101">
+      <c r="B17" s="100">
         <v>16</v>
       </c>
-      <c r="C17" s="101">
+      <c r="C17" s="100">
         <v>17</v>
       </c>
-      <c r="D17" s="147"/>
-      <c r="E17" s="147"/>
-      <c r="F17" s="131" t="s">
+      <c r="D17" s="145"/>
+      <c r="E17" s="145"/>
+      <c r="F17" s="130" t="s">
         <v>261</v>
       </c>
-      <c r="G17" s="100"/>
-      <c r="H17" s="103"/>
-      <c r="I17" s="100"/>
-    </row>
-    <row r="18" spans="1:9" s="94" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="95" t="s">
+      <c r="G17" s="99"/>
+      <c r="H17" s="102"/>
+      <c r="I17" s="99"/>
+    </row>
+    <row r="18" spans="1:9" s="93" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="94" t="s">
         <v>423</v>
       </c>
-      <c r="B18" s="101"/>
-      <c r="C18" s="101"/>
-      <c r="D18" s="147"/>
-      <c r="E18" s="147"/>
-      <c r="F18" s="99"/>
-      <c r="G18" s="100"/>
-      <c r="H18" s="103"/>
-      <c r="I18" s="100"/>
-    </row>
-    <row r="19" spans="1:9" s="94" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="95" t="s">
+      <c r="B18" s="100"/>
+      <c r="C18" s="100"/>
+      <c r="D18" s="145"/>
+      <c r="E18" s="145"/>
+      <c r="F18" s="98"/>
+      <c r="G18" s="99"/>
+      <c r="H18" s="102"/>
+      <c r="I18" s="99"/>
+    </row>
+    <row r="19" spans="1:9" s="93" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="94" t="s">
         <v>424</v>
       </c>
-      <c r="B19" s="101">
+      <c r="B19" s="100">
         <v>18</v>
       </c>
-      <c r="C19" s="101">
+      <c r="C19" s="100">
         <v>40</v>
       </c>
-      <c r="D19" s="146" t="s">
+      <c r="D19" s="144" t="s">
         <v>431</v>
       </c>
-      <c r="E19" s="147"/>
-      <c r="F19" s="98" t="s">
+      <c r="E19" s="145"/>
+      <c r="F19" s="97" t="s">
         <v>261</v>
       </c>
-      <c r="G19" s="100"/>
-      <c r="H19" s="103"/>
-      <c r="I19" s="100"/>
-    </row>
-    <row r="20" spans="1:9" s="94" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="95" t="s">
+      <c r="G19" s="99"/>
+      <c r="H19" s="102"/>
+      <c r="I19" s="99"/>
+    </row>
+    <row r="20" spans="1:9" s="93" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="94" t="s">
         <v>425</v>
       </c>
-      <c r="B20" s="101">
+      <c r="B20" s="100">
         <v>45</v>
       </c>
-      <c r="C20" s="101">
+      <c r="C20" s="100">
         <v>48</v>
       </c>
-      <c r="D20" s="146" t="s">
+      <c r="D20" s="144" t="s">
         <v>431</v>
       </c>
-      <c r="E20" s="147"/>
-      <c r="F20" s="98" t="s">
+      <c r="E20" s="145"/>
+      <c r="F20" s="97" t="s">
         <v>261</v>
       </c>
-      <c r="G20" s="100"/>
-      <c r="H20" s="103"/>
-      <c r="I20" s="100"/>
-    </row>
-    <row r="21" spans="1:9" s="94" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="95" t="s">
+      <c r="G20" s="99"/>
+      <c r="H20" s="102"/>
+      <c r="I20" s="99"/>
+    </row>
+    <row r="21" spans="1:9" s="93" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="94" t="s">
         <v>426</v>
       </c>
-      <c r="B21" s="101">
+      <c r="B21" s="100">
         <v>83</v>
       </c>
-      <c r="C21" s="101">
+      <c r="C21" s="100">
         <v>84</v>
       </c>
-      <c r="D21" s="146" t="s">
+      <c r="D21" s="144" t="s">
         <v>431</v>
       </c>
-      <c r="E21" s="147"/>
-      <c r="F21" s="98" t="s">
+      <c r="E21" s="145"/>
+      <c r="F21" s="97" t="s">
         <v>440</v>
       </c>
-      <c r="G21" s="100"/>
-      <c r="H21" s="103"/>
-      <c r="I21" s="100"/>
+      <c r="G21" s="99"/>
+      <c r="H21" s="102"/>
+      <c r="I21" s="99"/>
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G22" s="100"/>
-      <c r="H22" s="100"/>
-      <c r="I22" s="100"/>
+      <c r="G22" s="99"/>
+      <c r="H22" s="99"/>
+      <c r="I22" s="99"/>
     </row>
     <row r="23" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
         <v>244</v>
       </c>
-      <c r="G23" s="100"/>
-      <c r="H23" s="100"/>
-      <c r="I23" s="100"/>
+      <c r="G23" s="99"/>
+      <c r="H23" s="99"/>
+      <c r="I23" s="99"/>
     </row>
     <row r="25" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
@@ -8530,92 +8546,92 @@
         <v>260</v>
       </c>
     </row>
-    <row r="34" spans="1:5" s="94" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="93"/>
-      <c r="B34" s="93"/>
-      <c r="C34" s="93"/>
-    </row>
-    <row r="35" spans="1:5" s="94" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="93" t="s">
+    <row r="34" spans="1:5" s="93" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="92"/>
+      <c r="B34" s="92"/>
+      <c r="C34" s="92"/>
+    </row>
+    <row r="35" spans="1:5" s="93" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="92" t="s">
         <v>234</v>
       </c>
-      <c r="B35" s="93" t="s">
+      <c r="B35" s="92" t="s">
         <v>441</v>
       </c>
-      <c r="C35" s="93" t="s">
+      <c r="C35" s="92" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="36" spans="1:5" s="94" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="93" t="s">
+    <row r="36" spans="1:5" s="93" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="92" t="s">
         <v>234</v>
       </c>
-      <c r="B36" s="93" t="s">
+      <c r="B36" s="92" t="s">
         <v>442</v>
       </c>
-      <c r="C36" s="93" t="s">
+      <c r="C36" s="92" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="37" spans="1:5" s="94" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="93"/>
-      <c r="B37" s="93"/>
-      <c r="C37" s="93"/>
-    </row>
-    <row r="38" spans="1:5" s="94" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="93" t="s">
+    <row r="37" spans="1:5" s="93" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="92"/>
+      <c r="B37" s="92"/>
+      <c r="C37" s="92"/>
+    </row>
+    <row r="38" spans="1:5" s="93" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="92" t="s">
         <v>444</v>
       </c>
-      <c r="B38" s="93" t="s">
+      <c r="B38" s="92" t="s">
         <v>451</v>
       </c>
-      <c r="C38" s="93" t="s">
+      <c r="C38" s="92" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="94" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="93" t="s">
+    <row r="39" spans="1:5" s="93" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="92" t="s">
         <v>444</v>
       </c>
-      <c r="B39" s="93" t="s">
+      <c r="B39" s="92" t="s">
         <v>452</v>
       </c>
-      <c r="C39" s="93" t="s">
+      <c r="C39" s="92" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="40" spans="1:5" s="130" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="129"/>
-      <c r="B40" s="129"/>
-      <c r="C40" s="129"/>
-    </row>
-    <row r="41" spans="1:5" s="130" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="129" t="s">
+    <row r="40" spans="1:5" s="129" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="128"/>
+      <c r="B40" s="128"/>
+      <c r="C40" s="128"/>
+    </row>
+    <row r="41" spans="1:5" s="129" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="128" t="s">
         <v>444</v>
       </c>
-      <c r="B41" s="129" t="s">
+      <c r="B41" s="128" t="s">
         <v>463</v>
       </c>
-      <c r="C41" s="129" t="s">
+      <c r="C41" s="128" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="42" spans="1:5" s="94" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="129" t="s">
+    <row r="42" spans="1:5" s="93" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="128" t="s">
         <v>444</v>
       </c>
-      <c r="B42" s="129" t="s">
+      <c r="B42" s="128" t="s">
         <v>464</v>
       </c>
-      <c r="C42" s="129" t="s">
+      <c r="C42" s="128" t="s">
         <v>445</v>
       </c>
-      <c r="D42" s="130"/>
-    </row>
-    <row r="43" spans="1:5" s="94" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="93"/>
-      <c r="B43" s="93"/>
-      <c r="C43" s="93"/>
+      <c r="D42" s="129"/>
+    </row>
+    <row r="43" spans="1:5" s="93" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="92"/>
+      <c r="B43" s="92"/>
+      <c r="C43" s="92"/>
     </row>
     <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8624,210 +8640,210 @@
       </c>
     </row>
     <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="111"/>
-      <c r="B46" s="111"/>
-      <c r="C46" s="111"/>
-      <c r="D46" s="107"/>
-      <c r="E46" s="107"/>
+      <c r="A46" s="110"/>
+      <c r="B46" s="110"/>
+      <c r="C46" s="110"/>
+      <c r="D46" s="106"/>
+      <c r="E46" s="106"/>
     </row>
     <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="112"/>
-      <c r="B47" s="111"/>
-      <c r="C47" s="113"/>
-      <c r="D47" s="107"/>
-      <c r="E47" s="107"/>
+      <c r="A47" s="111"/>
+      <c r="B47" s="110"/>
+      <c r="C47" s="112"/>
+      <c r="D47" s="106"/>
+      <c r="E47" s="106"/>
     </row>
     <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="112" t="s">
+      <c r="A48" s="111" t="s">
         <v>409</v>
       </c>
-      <c r="B48" s="111" t="s">
+      <c r="B48" s="110" t="s">
         <v>447</v>
       </c>
-      <c r="C48" s="113"/>
-      <c r="D48" s="107"/>
-      <c r="E48" s="107"/>
+      <c r="C48" s="112"/>
+      <c r="D48" s="106"/>
+      <c r="E48" s="106"/>
     </row>
     <row r="49" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="114" t="s">
+      <c r="A49" s="113" t="s">
         <v>409</v>
       </c>
-      <c r="B49" s="111" t="s">
+      <c r="B49" s="110" t="s">
         <v>448</v>
       </c>
-      <c r="C49" s="111"/>
-      <c r="D49" s="107"/>
-      <c r="E49" s="107"/>
+      <c r="C49" s="110"/>
+      <c r="D49" s="106"/>
+      <c r="E49" s="106"/>
     </row>
     <row r="50" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="112"/>
-      <c r="B50" s="111"/>
-      <c r="C50" s="113"/>
-      <c r="D50" s="107"/>
-      <c r="E50" s="107"/>
+      <c r="A50" s="111"/>
+      <c r="B50" s="110"/>
+      <c r="C50" s="112"/>
+      <c r="D50" s="106"/>
+      <c r="E50" s="106"/>
     </row>
     <row r="51" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="112" t="s">
+      <c r="A51" s="111" t="s">
         <v>415</v>
       </c>
-      <c r="B51" s="111" t="s">
+      <c r="B51" s="110" t="s">
         <v>449</v>
       </c>
-      <c r="C51" s="113"/>
-      <c r="D51" s="107"/>
-      <c r="E51" s="107"/>
+      <c r="C51" s="112"/>
+      <c r="D51" s="106"/>
+      <c r="E51" s="106"/>
     </row>
     <row r="52" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="114" t="s">
+      <c r="A52" s="113" t="s">
         <v>415</v>
       </c>
-      <c r="B52" s="111" t="s">
+      <c r="B52" s="110" t="s">
         <v>450</v>
       </c>
-      <c r="C52" s="111"/>
-      <c r="D52" s="107"/>
-      <c r="E52" s="107"/>
-    </row>
-    <row r="53" spans="1:5" s="94" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="114"/>
-      <c r="B53" s="111"/>
-      <c r="C53" s="111"/>
-      <c r="D53" s="107"/>
-      <c r="E53" s="107"/>
+      <c r="C52" s="110"/>
+      <c r="D52" s="106"/>
+      <c r="E52" s="106"/>
+    </row>
+    <row r="53" spans="1:5" s="93" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="113"/>
+      <c r="B53" s="110"/>
+      <c r="C53" s="110"/>
+      <c r="D53" s="106"/>
+      <c r="E53" s="106"/>
     </row>
     <row r="54" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="112" t="s">
+      <c r="A54" s="111" t="s">
         <v>416</v>
       </c>
-      <c r="B54" s="111" t="s">
+      <c r="B54" s="110" t="s">
         <v>262</v>
       </c>
-      <c r="C54" s="111"/>
-      <c r="D54" s="107"/>
-      <c r="E54" s="107"/>
+      <c r="C54" s="110"/>
+      <c r="D54" s="106"/>
+      <c r="E54" s="106"/>
     </row>
     <row r="55" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="112" t="s">
+      <c r="A55" s="111" t="s">
         <v>416</v>
       </c>
-      <c r="B55" s="111" t="s">
+      <c r="B55" s="110" t="s">
         <v>263</v>
       </c>
-      <c r="C55" s="111"/>
-      <c r="D55" s="107"/>
-      <c r="E55" s="107"/>
+      <c r="C55" s="110"/>
+      <c r="D55" s="106"/>
+      <c r="E55" s="106"/>
     </row>
     <row r="56" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="114"/>
-      <c r="B56" s="111"/>
-      <c r="C56" s="111"/>
-      <c r="D56" s="107"/>
-      <c r="E56" s="107"/>
+      <c r="A56" s="113"/>
+      <c r="B56" s="110"/>
+      <c r="C56" s="110"/>
+      <c r="D56" s="106"/>
+      <c r="E56" s="106"/>
     </row>
     <row r="57" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="109" t="s">
+      <c r="A57" s="108" t="s">
         <v>421</v>
       </c>
-      <c r="B57" s="108" t="s">
+      <c r="B57" s="107" t="s">
         <v>246</v>
       </c>
-      <c r="C57" s="90"/>
-      <c r="D57" s="107"/>
-      <c r="E57" s="107"/>
+      <c r="C57" s="89"/>
+      <c r="D57" s="106"/>
+      <c r="E57" s="106"/>
     </row>
     <row r="58" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="109" t="s">
+      <c r="A58" s="108" t="s">
         <v>421</v>
       </c>
-      <c r="B58" s="108" t="s">
+      <c r="B58" s="107" t="s">
         <v>248</v>
       </c>
-      <c r="C58" s="90"/>
-      <c r="D58" s="107"/>
-      <c r="E58" s="107"/>
+      <c r="C58" s="89"/>
+      <c r="D58" s="106"/>
+      <c r="E58" s="106"/>
     </row>
     <row r="59" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="110"/>
-      <c r="B59" s="107"/>
-      <c r="C59" s="107"/>
-      <c r="D59" s="107"/>
-      <c r="E59" s="107"/>
+      <c r="A59" s="109"/>
+      <c r="B59" s="106"/>
+      <c r="C59" s="106"/>
+      <c r="D59" s="106"/>
+      <c r="E59" s="106"/>
     </row>
     <row r="60" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="109"/>
-      <c r="B60" s="108"/>
-      <c r="C60" s="90"/>
-      <c r="D60" s="107"/>
-      <c r="E60" s="107"/>
+      <c r="A60" s="108"/>
+      <c r="B60" s="107"/>
+      <c r="C60" s="89"/>
+      <c r="D60" s="106"/>
+      <c r="E60" s="106"/>
     </row>
     <row r="61" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="109"/>
-      <c r="B61" s="108"/>
-      <c r="C61" s="90"/>
-      <c r="D61" s="107"/>
-      <c r="E61" s="107"/>
+      <c r="A61" s="108"/>
+      <c r="B61" s="107"/>
+      <c r="C61" s="89"/>
+      <c r="D61" s="106"/>
+      <c r="E61" s="106"/>
     </row>
     <row r="62" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="110"/>
-      <c r="B62" s="107"/>
-      <c r="C62" s="107"/>
-      <c r="D62" s="107"/>
-      <c r="E62" s="107"/>
+      <c r="A62" s="109"/>
+      <c r="B62" s="106"/>
+      <c r="C62" s="106"/>
+      <c r="D62" s="106"/>
+      <c r="E62" s="106"/>
     </row>
     <row r="63" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="109" t="s">
+      <c r="A63" s="108" t="s">
         <v>423</v>
       </c>
-      <c r="B63" s="108" t="s">
+      <c r="B63" s="107" t="s">
         <v>264</v>
       </c>
-      <c r="C63" s="90"/>
-      <c r="D63" s="107"/>
-      <c r="E63" s="107"/>
+      <c r="C63" s="89"/>
+      <c r="D63" s="106"/>
+      <c r="E63" s="106"/>
     </row>
     <row r="64" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="109" t="s">
+      <c r="A64" s="108" t="s">
         <v>423</v>
       </c>
-      <c r="B64" s="108" t="s">
+      <c r="B64" s="107" t="s">
         <v>265</v>
       </c>
-      <c r="C64" s="90"/>
-      <c r="D64" s="107"/>
-      <c r="E64" s="107"/>
+      <c r="C64" s="89"/>
+      <c r="D64" s="106"/>
+      <c r="E64" s="106"/>
     </row>
     <row r="65" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="110"/>
-      <c r="B65" s="107"/>
-      <c r="C65" s="107"/>
-      <c r="D65" s="107"/>
-      <c r="E65" s="107"/>
+      <c r="A65" s="109"/>
+      <c r="B65" s="106"/>
+      <c r="C65" s="106"/>
+      <c r="D65" s="106"/>
+      <c r="E65" s="106"/>
     </row>
     <row r="66" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="110"/>
-      <c r="B66" s="107"/>
-      <c r="C66" s="107"/>
-      <c r="D66" s="107"/>
-      <c r="E66" s="107"/>
+      <c r="A66" s="109"/>
+      <c r="B66" s="106"/>
+      <c r="C66" s="106"/>
+      <c r="D66" s="106"/>
+      <c r="E66" s="106"/>
     </row>
     <row r="67" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="115"/>
-      <c r="B67" s="107"/>
-      <c r="C67" s="107"/>
-      <c r="D67" s="107"/>
-      <c r="E67" s="107"/>
+      <c r="A67" s="114"/>
+      <c r="B67" s="106"/>
+      <c r="C67" s="106"/>
+      <c r="D67" s="106"/>
+      <c r="E67" s="106"/>
     </row>
     <row r="68" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="116"/>
+      <c r="A68" s="115"/>
     </row>
     <row r="69" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="117"/>
+      <c r="A69" s="116"/>
     </row>
     <row r="70" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="117"/>
+      <c r="A70" s="116"/>
     </row>
     <row r="71" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="116"/>
+      <c r="A71" s="115"/>
     </row>
     <row r="72" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="73" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9783,6 +9799,11 @@
     <row r="1023" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="D2:E2"/>
@@ -9799,11 +9820,6 @@
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9833,883 +9849,883 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="50" t="s">
         <v>266</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="50" t="s">
         <v>267</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="50" t="s">
         <v>268</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="50" t="s">
         <v>269</v>
       </c>
-      <c r="E1" s="51" t="s">
+      <c r="E1" s="50" t="s">
         <v>270</v>
       </c>
-      <c r="F1" s="51" t="s">
+      <c r="F1" s="50" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="50" t="s">
         <v>272</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="50" t="s">
         <v>273</v>
       </c>
-      <c r="D2" s="51" t="s">
+      <c r="D2" s="50" t="s">
         <v>274</v>
       </c>
-      <c r="E2" s="51" t="s">
+      <c r="E2" s="50" t="s">
         <v>275</v>
       </c>
-      <c r="F2" s="51" t="s">
+      <c r="F2" s="50" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="51" t="s">
         <v>97</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="51" t="s">
         <v>277</v>
       </c>
-      <c r="C3" s="52" t="s">
+      <c r="C3" s="51" t="s">
         <v>278</v>
       </c>
-      <c r="D3" s="52" t="s">
+      <c r="D3" s="51" t="s">
         <v>279</v>
       </c>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="50" t="s">
         <v>280</v>
       </c>
-      <c r="C4" s="51" t="s">
+      <c r="C4" s="50" t="s">
         <v>273</v>
       </c>
-      <c r="D4" s="51" t="s">
+      <c r="D4" s="50" t="s">
         <v>274</v>
       </c>
-      <c r="E4" s="51" t="s">
+      <c r="E4" s="50" t="s">
         <v>281</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="50" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="51" t="s">
+      <c r="A5" s="50" t="s">
         <v>142</v>
       </c>
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="50" t="s">
         <v>283</v>
       </c>
-      <c r="C5" s="51" t="s">
+      <c r="C5" s="50" t="s">
         <v>278</v>
       </c>
-      <c r="D5" s="51" t="s">
+      <c r="D5" s="50" t="s">
         <v>274</v>
       </c>
-      <c r="E5" s="51" t="s">
+      <c r="E5" s="50" t="s">
         <v>275</v>
       </c>
-      <c r="F5" s="54"/>
+      <c r="F5" s="53"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="51" t="s">
+      <c r="A6" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="50" t="s">
         <v>284</v>
       </c>
-      <c r="C6" s="51" t="s">
+      <c r="C6" s="50" t="s">
         <v>278</v>
       </c>
-      <c r="D6" s="51" t="s">
+      <c r="D6" s="50" t="s">
         <v>284</v>
       </c>
-      <c r="E6" s="51" t="s">
+      <c r="E6" s="50" t="s">
         <v>285</v>
       </c>
-      <c r="F6" s="54"/>
+      <c r="F6" s="53"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="50" t="s">
         <v>179</v>
       </c>
-      <c r="C7" s="51" t="s">
+      <c r="C7" s="50" t="s">
         <v>278</v>
       </c>
-      <c r="D7" s="51" t="s">
+      <c r="D7" s="50" t="s">
         <v>179</v>
       </c>
-      <c r="E7" s="51" t="s">
+      <c r="E7" s="50" t="s">
         <v>285</v>
       </c>
-      <c r="F7" s="54"/>
+      <c r="F7" s="53"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="51" t="s">
+      <c r="A8" s="50" t="s">
         <v>286</v>
       </c>
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="50" t="s">
         <v>287</v>
       </c>
-      <c r="C8" s="51" t="s">
+      <c r="C8" s="50" t="s">
         <v>288</v>
       </c>
-      <c r="D8" s="51" t="s">
+      <c r="D8" s="50" t="s">
         <v>289</v>
       </c>
-      <c r="E8" s="51" t="s">
+      <c r="E8" s="50" t="s">
         <v>290</v>
       </c>
-      <c r="F8" s="51" t="s">
+      <c r="F8" s="50" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="51" t="s">
+      <c r="A9" s="50" t="s">
         <v>106</v>
       </c>
-      <c r="B9" s="51" t="s">
+      <c r="B9" s="50" t="s">
         <v>292</v>
       </c>
-      <c r="C9" s="51" t="s">
+      <c r="C9" s="50" t="s">
         <v>278</v>
       </c>
-      <c r="D9" s="51" t="s">
+      <c r="D9" s="50" t="s">
         <v>274</v>
       </c>
-      <c r="E9" s="51" t="s">
+      <c r="E9" s="50" t="s">
         <v>275</v>
       </c>
-      <c r="F9" s="54"/>
+      <c r="F9" s="53"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="51" t="s">
+      <c r="A10" s="50" t="s">
         <v>293</v>
       </c>
-      <c r="B10" s="51" t="s">
+      <c r="B10" s="50" t="s">
         <v>181</v>
       </c>
-      <c r="C10" s="51" t="s">
+      <c r="C10" s="50" t="s">
         <v>278</v>
       </c>
-      <c r="D10" s="51" t="s">
+      <c r="D10" s="50" t="s">
         <v>289</v>
       </c>
-      <c r="E10" s="51" t="s">
+      <c r="E10" s="50" t="s">
         <v>275</v>
       </c>
-      <c r="F10" s="51" t="s">
+      <c r="F10" s="50" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="51" t="s">
+      <c r="A11" s="50" t="s">
         <v>295</v>
       </c>
-      <c r="B11" s="51" t="s">
+      <c r="B11" s="50" t="s">
         <v>287</v>
       </c>
-      <c r="C11" s="51" t="s">
+      <c r="C11" s="50" t="s">
         <v>288</v>
       </c>
-      <c r="D11" s="51" t="s">
+      <c r="D11" s="50" t="s">
         <v>274</v>
       </c>
-      <c r="E11" s="51" t="s">
+      <c r="E11" s="50" t="s">
         <v>275</v>
       </c>
-      <c r="F11" s="51" t="s">
+      <c r="F11" s="50" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="51" t="s">
+      <c r="A12" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="B12" s="51" t="s">
+      <c r="B12" s="50" t="s">
         <v>297</v>
       </c>
-      <c r="C12" s="51" t="s">
+      <c r="C12" s="50" t="s">
         <v>278</v>
       </c>
-      <c r="D12" s="51" t="s">
+      <c r="D12" s="50" t="s">
         <v>274</v>
       </c>
-      <c r="E12" s="51" t="s">
+      <c r="E12" s="50" t="s">
         <v>298</v>
       </c>
-      <c r="F12" s="51" t="s">
+      <c r="F12" s="50" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="52" t="s">
+      <c r="A13" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="52" t="s">
+      <c r="B13" s="51" t="s">
         <v>300</v>
       </c>
-      <c r="C13" s="52" t="s">
+      <c r="C13" s="51" t="s">
         <v>278</v>
       </c>
-      <c r="D13" s="52" t="s">
+      <c r="D13" s="51" t="s">
         <v>279</v>
       </c>
-      <c r="E13" s="52" t="s">
+      <c r="E13" s="51" t="s">
         <v>301</v>
       </c>
-      <c r="F13" s="53"/>
+      <c r="F13" s="52"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="51" t="s">
+      <c r="A14" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="B14" s="51" t="s">
+      <c r="B14" s="50" t="s">
         <v>167</v>
       </c>
-      <c r="C14" s="51" t="s">
+      <c r="C14" s="50" t="s">
         <v>278</v>
       </c>
-      <c r="D14" s="51" t="s">
+      <c r="D14" s="50" t="s">
         <v>167</v>
       </c>
-      <c r="E14" s="51" t="s">
+      <c r="E14" s="50" t="s">
         <v>285</v>
       </c>
-      <c r="F14" s="51" t="s">
+      <c r="F14" s="50" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="51" t="s">
+      <c r="A15" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="B15" s="51" t="s">
+      <c r="B15" s="50" t="s">
         <v>303</v>
       </c>
-      <c r="C15" s="51" t="s">
+      <c r="C15" s="50" t="s">
         <v>273</v>
       </c>
-      <c r="D15" s="51" t="s">
+      <c r="D15" s="50" t="s">
         <v>274</v>
       </c>
-      <c r="E15" s="51" t="s">
+      <c r="E15" s="50" t="s">
         <v>275</v>
       </c>
-      <c r="F15" s="54"/>
+      <c r="F15" s="53"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="51" t="s">
+      <c r="A16" s="50" t="s">
         <v>304</v>
       </c>
-      <c r="B16" s="51" t="s">
+      <c r="B16" s="50" t="s">
         <v>287</v>
       </c>
-      <c r="C16" s="51" t="s">
+      <c r="C16" s="50" t="s">
         <v>288</v>
       </c>
-      <c r="D16" s="51" t="s">
+      <c r="D16" s="50" t="s">
         <v>274</v>
       </c>
-      <c r="E16" s="51" t="s">
+      <c r="E16" s="50" t="s">
         <v>275</v>
       </c>
-      <c r="F16" s="51" t="s">
+      <c r="F16" s="50" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="51" t="s">
+      <c r="A17" s="50" t="s">
         <v>93</v>
       </c>
-      <c r="B17" s="51" t="s">
+      <c r="B17" s="50" t="s">
         <v>306</v>
       </c>
-      <c r="C17" s="51" t="s">
+      <c r="C17" s="50" t="s">
         <v>278</v>
       </c>
-      <c r="D17" s="51" t="s">
+      <c r="D17" s="50" t="s">
         <v>307</v>
       </c>
-      <c r="E17" s="51" t="s">
+      <c r="E17" s="50" t="s">
         <v>275</v>
       </c>
-      <c r="F17" s="51" t="s">
+      <c r="F17" s="50" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="51" t="s">
+      <c r="A18" s="50" t="s">
         <v>309</v>
       </c>
-      <c r="B18" s="51" t="s">
+      <c r="B18" s="50" t="s">
         <v>168</v>
       </c>
-      <c r="C18" s="51" t="s">
+      <c r="C18" s="50" t="s">
         <v>310</v>
       </c>
-      <c r="D18" s="51" t="s">
+      <c r="D18" s="50" t="s">
         <v>289</v>
       </c>
-      <c r="E18" s="51" t="s">
+      <c r="E18" s="50" t="s">
         <v>290</v>
       </c>
-      <c r="F18" s="51" t="s">
+      <c r="F18" s="50" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="55" t="s">
+      <c r="A19" s="54" t="s">
         <v>311</v>
       </c>
-      <c r="B19" s="55" t="s">
+      <c r="B19" s="54" t="s">
         <v>287</v>
       </c>
-      <c r="C19" s="55" t="s">
+      <c r="C19" s="54" t="s">
         <v>288</v>
       </c>
-      <c r="D19" s="55" t="s">
+      <c r="D19" s="54" t="s">
         <v>312</v>
       </c>
-      <c r="E19" s="56"/>
-      <c r="F19" s="56"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="51" t="s">
+      <c r="A20" s="50" t="s">
         <v>140</v>
       </c>
-      <c r="B20" s="51" t="s">
+      <c r="B20" s="50" t="s">
         <v>313</v>
       </c>
-      <c r="C20" s="51" t="s">
+      <c r="C20" s="50" t="s">
         <v>278</v>
       </c>
-      <c r="D20" s="51" t="s">
+      <c r="D20" s="50" t="s">
         <v>274</v>
       </c>
-      <c r="E20" s="51" t="s">
+      <c r="E20" s="50" t="s">
         <v>275</v>
       </c>
-      <c r="F20" s="51" t="s">
+      <c r="F20" s="50" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="51" t="s">
+      <c r="A21" s="50" t="s">
         <v>314</v>
       </c>
-      <c r="B21" s="51" t="s">
+      <c r="B21" s="50" t="s">
         <v>287</v>
       </c>
-      <c r="C21" s="51" t="s">
+      <c r="C21" s="50" t="s">
         <v>288</v>
       </c>
-      <c r="D21" s="51" t="s">
+      <c r="D21" s="50" t="s">
         <v>171</v>
       </c>
-      <c r="E21" s="54"/>
-      <c r="F21" s="54"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="53"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="51" t="s">
+      <c r="A22" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="B22" s="51" t="s">
+      <c r="B22" s="50" t="s">
         <v>315</v>
       </c>
-      <c r="C22" s="51" t="s">
+      <c r="C22" s="50" t="s">
         <v>273</v>
       </c>
-      <c r="D22" s="51" t="s">
+      <c r="D22" s="50" t="s">
         <v>289</v>
       </c>
-      <c r="E22" s="51" t="s">
+      <c r="E22" s="50" t="s">
         <v>316</v>
       </c>
-      <c r="F22" s="51" t="s">
+      <c r="F22" s="50" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="51" t="s">
+      <c r="A23" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="51" t="s">
+      <c r="B23" s="50" t="s">
         <v>317</v>
       </c>
-      <c r="C23" s="51" t="s">
+      <c r="C23" s="50" t="s">
         <v>278</v>
       </c>
-      <c r="D23" s="51" t="s">
+      <c r="D23" s="50" t="s">
         <v>317</v>
       </c>
-      <c r="E23" s="51" t="s">
+      <c r="E23" s="50" t="s">
         <v>285</v>
       </c>
-      <c r="F23" s="51" t="s">
+      <c r="F23" s="50" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="55" t="s">
+      <c r="A24" s="54" t="s">
         <v>319</v>
       </c>
-      <c r="B24" s="55" t="s">
+      <c r="B24" s="54" t="s">
         <v>287</v>
       </c>
-      <c r="C24" s="55" t="s">
+      <c r="C24" s="54" t="s">
         <v>288</v>
       </c>
-      <c r="D24" s="55" t="s">
+      <c r="D24" s="54" t="s">
         <v>312</v>
       </c>
-      <c r="E24" s="56"/>
-      <c r="F24" s="56"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="55"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="51" t="s">
+      <c r="A25" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="51" t="s">
+      <c r="B25" s="50" t="s">
         <v>320</v>
       </c>
-      <c r="C25" s="51" t="s">
+      <c r="C25" s="50" t="s">
         <v>273</v>
       </c>
-      <c r="D25" s="51" t="s">
+      <c r="D25" s="50" t="s">
         <v>274</v>
       </c>
-      <c r="E25" s="51" t="s">
+      <c r="E25" s="50" t="s">
         <v>275</v>
       </c>
-      <c r="F25" s="51" t="s">
+      <c r="F25" s="50" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="51" t="s">
+      <c r="A26" s="50" t="s">
         <v>322</v>
       </c>
-      <c r="B26" s="51" t="s">
+      <c r="B26" s="50" t="s">
         <v>287</v>
       </c>
-      <c r="C26" s="51" t="s">
+      <c r="C26" s="50" t="s">
         <v>288</v>
       </c>
-      <c r="D26" s="51" t="s">
+      <c r="D26" s="50" t="s">
         <v>274</v>
       </c>
-      <c r="E26" s="51" t="s">
+      <c r="E26" s="50" t="s">
         <v>298</v>
       </c>
-      <c r="F26" s="51" t="s">
+      <c r="F26" s="50" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="51" t="s">
+      <c r="A27" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="B27" s="51" t="s">
+      <c r="B27" s="50" t="s">
         <v>174</v>
       </c>
-      <c r="C27" s="51" t="s">
+      <c r="C27" s="50" t="s">
         <v>278</v>
       </c>
-      <c r="D27" s="51" t="s">
+      <c r="D27" s="50" t="s">
         <v>174</v>
       </c>
-      <c r="E27" s="51" t="s">
+      <c r="E27" s="50" t="s">
         <v>285</v>
       </c>
-      <c r="F27" s="54"/>
+      <c r="F27" s="53"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="51" t="s">
+      <c r="A28" s="50" t="s">
         <v>103</v>
       </c>
-      <c r="B28" s="51" t="s">
+      <c r="B28" s="50" t="s">
         <v>324</v>
       </c>
-      <c r="C28" s="51" t="s">
+      <c r="C28" s="50" t="s">
         <v>273</v>
       </c>
-      <c r="D28" s="51" t="s">
+      <c r="D28" s="50" t="s">
         <v>289</v>
       </c>
-      <c r="E28" s="51" t="s">
+      <c r="E28" s="50" t="s">
         <v>298</v>
       </c>
-      <c r="F28" s="51" t="s">
+      <c r="F28" s="50" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="51" t="s">
+      <c r="A29" s="50" t="s">
         <v>326</v>
       </c>
-      <c r="B29" s="51" t="s">
+      <c r="B29" s="50" t="s">
         <v>287</v>
       </c>
-      <c r="C29" s="51" t="s">
+      <c r="C29" s="50" t="s">
         <v>288</v>
       </c>
-      <c r="D29" s="51" t="s">
+      <c r="D29" s="50" t="s">
         <v>274</v>
       </c>
-      <c r="E29" s="51" t="s">
+      <c r="E29" s="50" t="s">
         <v>298</v>
       </c>
-      <c r="F29" s="51" t="s">
+      <c r="F29" s="50" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="51" t="s">
+      <c r="A30" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="B30" s="51" t="s">
+      <c r="B30" s="50" t="s">
         <v>328</v>
       </c>
-      <c r="C30" s="51" t="s">
+      <c r="C30" s="50" t="s">
         <v>278</v>
       </c>
-      <c r="D30" s="51" t="s">
+      <c r="D30" s="50" t="s">
         <v>274</v>
       </c>
-      <c r="E30" s="51" t="s">
+      <c r="E30" s="50" t="s">
         <v>275</v>
       </c>
-      <c r="F30" s="51" t="s">
+      <c r="F30" s="50" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="51" t="s">
+      <c r="A31" s="50" t="s">
         <v>330</v>
       </c>
-      <c r="B31" s="51" t="s">
+      <c r="B31" s="50" t="s">
         <v>287</v>
       </c>
-      <c r="C31" s="51" t="s">
+      <c r="C31" s="50" t="s">
         <v>288</v>
       </c>
-      <c r="D31" s="51" t="s">
+      <c r="D31" s="50" t="s">
         <v>274</v>
       </c>
-      <c r="E31" s="51" t="s">
+      <c r="E31" s="50" t="s">
         <v>275</v>
       </c>
-      <c r="F31" s="51" t="s">
+      <c r="F31" s="50" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="51" t="s">
+      <c r="A32" s="50" t="s">
         <v>134</v>
       </c>
-      <c r="B32" s="51" t="s">
+      <c r="B32" s="50" t="s">
         <v>332</v>
       </c>
-      <c r="C32" s="51" t="s">
+      <c r="C32" s="50" t="s">
         <v>278</v>
       </c>
-      <c r="D32" s="51" t="s">
+      <c r="D32" s="50" t="s">
         <v>332</v>
       </c>
-      <c r="E32" s="51" t="s">
+      <c r="E32" s="50" t="s">
         <v>285</v>
       </c>
-      <c r="F32" s="51" t="s">
+      <c r="F32" s="50" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="51" t="s">
+      <c r="A33" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="B33" s="51" t="s">
+      <c r="B33" s="50" t="s">
         <v>334</v>
       </c>
-      <c r="C33" s="51" t="s">
+      <c r="C33" s="50" t="s">
         <v>273</v>
       </c>
-      <c r="D33" s="51" t="s">
+      <c r="D33" s="50" t="s">
         <v>289</v>
       </c>
-      <c r="E33" s="57"/>
-      <c r="F33" s="51" t="s">
+      <c r="E33" s="56"/>
+      <c r="F33" s="50" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="51" t="s">
+      <c r="A34" s="50" t="s">
         <v>127</v>
       </c>
-      <c r="B34" s="51" t="s">
+      <c r="B34" s="50" t="s">
         <v>336</v>
       </c>
-      <c r="C34" s="51" t="s">
+      <c r="C34" s="50" t="s">
         <v>273</v>
       </c>
-      <c r="D34" s="51" t="s">
+      <c r="D34" s="50" t="s">
         <v>274</v>
       </c>
-      <c r="E34" s="51" t="s">
+      <c r="E34" s="50" t="s">
         <v>275</v>
       </c>
-      <c r="F34" s="54"/>
+      <c r="F34" s="53"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="51" t="s">
+      <c r="A35" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="B35" s="51" t="s">
+      <c r="B35" s="50" t="s">
         <v>337</v>
       </c>
-      <c r="C35" s="51" t="s">
+      <c r="C35" s="50" t="s">
         <v>278</v>
       </c>
-      <c r="D35" s="51" t="s">
+      <c r="D35" s="50" t="s">
         <v>274</v>
       </c>
-      <c r="E35" s="51" t="s">
+      <c r="E35" s="50" t="s">
         <v>275</v>
       </c>
-      <c r="F35" s="51" t="s">
+      <c r="F35" s="50" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="51" t="s">
+      <c r="A36" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="B36" s="51" t="s">
+      <c r="B36" s="50" t="s">
         <v>338</v>
       </c>
-      <c r="C36" s="51" t="s">
+      <c r="C36" s="50" t="s">
         <v>273</v>
       </c>
-      <c r="D36" s="51" t="s">
+      <c r="D36" s="50" t="s">
         <v>274</v>
       </c>
-      <c r="E36" s="51" t="s">
+      <c r="E36" s="50" t="s">
         <v>275</v>
       </c>
-      <c r="F36" s="51" t="s">
+      <c r="F36" s="50" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="55" t="s">
+      <c r="A37" s="54" t="s">
         <v>340</v>
       </c>
-      <c r="B37" s="55" t="s">
+      <c r="B37" s="54" t="s">
         <v>287</v>
       </c>
-      <c r="C37" s="55" t="s">
+      <c r="C37" s="54" t="s">
         <v>288</v>
       </c>
-      <c r="D37" s="55" t="s">
+      <c r="D37" s="54" t="s">
         <v>312</v>
       </c>
-      <c r="E37" s="56"/>
-      <c r="F37" s="56"/>
+      <c r="E37" s="55"/>
+      <c r="F37" s="55"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="51" t="s">
+      <c r="A38" s="50" t="s">
         <v>115</v>
       </c>
-      <c r="B38" s="51" t="s">
+      <c r="B38" s="50" t="s">
         <v>341</v>
       </c>
-      <c r="C38" s="51" t="s">
+      <c r="C38" s="50" t="s">
         <v>278</v>
       </c>
-      <c r="D38" s="51" t="s">
+      <c r="D38" s="50" t="s">
         <v>341</v>
       </c>
-      <c r="E38" s="51" t="s">
+      <c r="E38" s="50" t="s">
         <v>285</v>
       </c>
-      <c r="F38" s="51" t="s">
+      <c r="F38" s="50" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="51" t="s">
+      <c r="A39" s="50" t="s">
         <v>343</v>
       </c>
-      <c r="B39" s="51" t="s">
+      <c r="B39" s="50" t="s">
         <v>287</v>
       </c>
-      <c r="C39" s="51" t="s">
+      <c r="C39" s="50" t="s">
         <v>288</v>
       </c>
-      <c r="D39" s="51" t="s">
+      <c r="D39" s="50" t="s">
         <v>274</v>
       </c>
-      <c r="E39" s="51" t="s">
+      <c r="E39" s="50" t="s">
         <v>275</v>
       </c>
-      <c r="F39" s="51" t="s">
+      <c r="F39" s="50" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="51" t="s">
+      <c r="A40" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="B40" s="51" t="s">
+      <c r="B40" s="50" t="s">
         <v>345</v>
       </c>
-      <c r="C40" s="51" t="s">
+      <c r="C40" s="50" t="s">
         <v>278</v>
       </c>
-      <c r="D40" s="51" t="s">
+      <c r="D40" s="50" t="s">
         <v>274</v>
       </c>
-      <c r="E40" s="51" t="s">
+      <c r="E40" s="50" t="s">
         <v>275</v>
       </c>
-      <c r="F40" s="54"/>
+      <c r="F40" s="53"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="51" t="s">
+      <c r="A41" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="B41" s="51" t="s">
+      <c r="B41" s="50" t="s">
         <v>180</v>
       </c>
-      <c r="C41" s="51" t="s">
+      <c r="C41" s="50" t="s">
         <v>278</v>
       </c>
-      <c r="D41" s="51" t="s">
+      <c r="D41" s="50" t="s">
         <v>180</v>
       </c>
-      <c r="E41" s="51" t="s">
+      <c r="E41" s="50" t="s">
         <v>285</v>
       </c>
-      <c r="F41" s="51" t="s">
+      <c r="F41" s="50" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="51" t="s">
+      <c r="A42" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="B42" s="51" t="s">
+      <c r="B42" s="50" t="s">
         <v>347</v>
       </c>
-      <c r="C42" s="51" t="s">
+      <c r="C42" s="50" t="s">
         <v>273</v>
       </c>
-      <c r="D42" s="51" t="s">
+      <c r="D42" s="50" t="s">
         <v>289</v>
       </c>
-      <c r="E42" s="51" t="s">
+      <c r="E42" s="50" t="s">
         <v>316</v>
       </c>
-      <c r="F42" s="51" t="s">
+      <c r="F42" s="50" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="51" t="s">
+      <c r="A43" s="50" t="s">
         <v>124</v>
       </c>
-      <c r="B43" s="51" t="s">
+      <c r="B43" s="50" t="s">
         <v>348</v>
       </c>
-      <c r="C43" s="51" t="s">
+      <c r="C43" s="50" t="s">
         <v>273</v>
       </c>
-      <c r="D43" s="51" t="s">
+      <c r="D43" s="50" t="s">
         <v>274</v>
       </c>
-      <c r="E43" s="51" t="s">
+      <c r="E43" s="50" t="s">
         <v>275</v>
       </c>
-      <c r="F43" s="54"/>
+      <c r="F43" s="53"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="51" t="s">
+      <c r="A44" s="50" t="s">
         <v>349</v>
       </c>
-      <c r="B44" s="51" t="s">
+      <c r="B44" s="50" t="s">
         <v>287</v>
       </c>
-      <c r="C44" s="51" t="s">
+      <c r="C44" s="50" t="s">
         <v>288</v>
       </c>
-      <c r="D44" s="51" t="s">
+      <c r="D44" s="50" t="s">
         <v>274</v>
       </c>
-      <c r="E44" s="51" t="s">
+      <c r="E44" s="50" t="s">
         <v>275</v>
       </c>
-      <c r="F44" s="54"/>
+      <c r="F44" s="53"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="51" t="s">
+      <c r="A45" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="B45" s="51" t="s">
+      <c r="B45" s="50" t="s">
         <v>350</v>
       </c>
-      <c r="C45" s="51" t="s">
+      <c r="C45" s="50" t="s">
         <v>273</v>
       </c>
-      <c r="D45" s="51" t="s">
+      <c r="D45" s="50" t="s">
         <v>274</v>
       </c>
-      <c r="E45" s="51" t="s">
+      <c r="E45" s="50" t="s">
         <v>275</v>
       </c>
-      <c r="F45" s="51" t="s">
+      <c r="F45" s="50" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="51" t="s">
+      <c r="A46" s="50" t="s">
         <v>130</v>
       </c>
-      <c r="B46" s="51" t="s">
+      <c r="B46" s="50" t="s">
         <v>352</v>
       </c>
-      <c r="C46" s="51" t="s">
+      <c r="C46" s="50" t="s">
         <v>278</v>
       </c>
-      <c r="D46" s="51" t="s">
+      <c r="D46" s="50" t="s">
         <v>274</v>
       </c>
-      <c r="E46" s="51" t="s">
+      <c r="E46" s="50" t="s">
         <v>275</v>
       </c>
-      <c r="F46" s="51" t="s">
+      <c r="F46" s="50" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="58"/>
+      <c r="A47" s="57"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Antonio-Feed/__FeedPartsInventory.xlsx
+++ b/Antonio-Feed/__FeedPartsInventory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pollak/Documents/GitHub/Front-Page/Antonio-Feed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FF5B40F-3A24-5B47-9908-582DA8A249F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F8D2B5E-A078-F044-AE70-C21179064AA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="69800" yWindow="460" windowWidth="35840" windowHeight="19760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="468">
   <si>
     <t>Antenna Inventory</t>
   </si>
@@ -1176,9 +1176,6 @@
   </si>
   <si>
     <t>(---) 83 / 84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Feed Lab </t>
   </si>
   <si>
     <t>X=0.05 Y=0.05 Z=0.12</t>
@@ -1625,7 +1622,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="20">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1738,6 +1735,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFF9900"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1968,7 +1971,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="148">
+  <cellXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1990,8 +1993,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2007,9 +2008,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2190,6 +2188,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2201,10 +2200,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2226,7 +2221,22 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2470,25 +2480,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="133" t="s">
+      <c r="A1" s="131" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="134"/>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
-      <c r="G1" s="134"/>
-      <c r="H1" s="135"/>
-      <c r="I1" s="136"/>
-      <c r="J1" s="136"/>
-      <c r="K1" s="135"/>
-      <c r="L1" s="136"/>
-      <c r="M1" s="136"/>
-      <c r="N1" s="136"/>
-      <c r="O1" s="136"/>
-      <c r="P1" s="136"/>
-      <c r="Q1" s="136"/>
+      <c r="B1" s="132"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="132"/>
+      <c r="G1" s="132"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="134"/>
+      <c r="J1" s="134"/>
+      <c r="K1" s="133"/>
+      <c r="L1" s="134"/>
+      <c r="M1" s="134"/>
+      <c r="N1" s="134"/>
+      <c r="O1" s="134"/>
+      <c r="P1" s="134"/>
+      <c r="Q1" s="134"/>
     </row>
     <row r="2" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -2512,16 +2522,16 @@
       <c r="G2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="76"/>
-      <c r="M2" s="75"/>
-      <c r="N2" s="75"/>
-      <c r="O2" s="75"/>
-      <c r="P2" s="75"/>
-      <c r="Q2" s="75"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="72"/>
+      <c r="N2" s="72"/>
+      <c r="O2" s="72"/>
+      <c r="P2" s="72"/>
+      <c r="Q2" s="72"/>
     </row>
     <row r="3" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="str">
@@ -2543,16 +2553,16 @@
       <c r="F3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="74"/>
-      <c r="L3" s="74"/>
-      <c r="M3" s="74"/>
-      <c r="N3" s="74"/>
-      <c r="O3" s="74"/>
-      <c r="P3" s="74"/>
-      <c r="Q3" s="74"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="71"/>
+      <c r="N3" s="71"/>
+      <c r="O3" s="71"/>
+      <c r="P3" s="71"/>
+      <c r="Q3" s="71"/>
     </row>
     <row r="4" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="str">
@@ -2568,16 +2578,16 @@
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="74"/>
-      <c r="L4" s="74"/>
-      <c r="M4" s="74"/>
-      <c r="N4" s="74"/>
-      <c r="O4" s="74"/>
-      <c r="P4" s="74"/>
-      <c r="Q4" s="74"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71"/>
+      <c r="K4" s="71"/>
+      <c r="L4" s="71"/>
+      <c r="M4" s="71"/>
+      <c r="N4" s="71"/>
+      <c r="O4" s="71"/>
+      <c r="P4" s="71"/>
+      <c r="Q4" s="71"/>
     </row>
     <row r="5" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="str">
@@ -2601,16 +2611,16 @@
         <v>27</v>
       </c>
       <c r="G5" s="9"/>
-      <c r="H5" s="74"/>
-      <c r="I5" s="74"/>
-      <c r="J5" s="74"/>
-      <c r="K5" s="74"/>
-      <c r="L5" s="74"/>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="74"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="71"/>
+      <c r="K5" s="71"/>
+      <c r="L5" s="71"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="71"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="71"/>
     </row>
     <row r="6" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="str">
@@ -2623,19 +2633,19 @@
       <c r="C6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="87"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="87"/>
-      <c r="H6" s="74"/>
-      <c r="I6" s="74"/>
-      <c r="J6" s="74"/>
-      <c r="K6" s="74"/>
-      <c r="L6" s="74"/>
-      <c r="M6" s="74"/>
-      <c r="N6" s="74"/>
-      <c r="O6" s="74"/>
-      <c r="P6" s="74"/>
-      <c r="Q6" s="74"/>
+      <c r="D6" s="84"/>
+      <c r="E6" s="84"/>
+      <c r="F6" s="84"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="71"/>
+      <c r="J6" s="71"/>
+      <c r="K6" s="71"/>
+      <c r="L6" s="71"/>
+      <c r="M6" s="71"/>
+      <c r="N6" s="71"/>
+      <c r="O6" s="71"/>
+      <c r="P6" s="71"/>
+      <c r="Q6" s="71"/>
     </row>
     <row r="7" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="str">
@@ -2648,20 +2658,20 @@
       <c r="C7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="88"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="87"/>
+      <c r="D7" s="85"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="84"/>
       <c r="G7" s="9"/>
-      <c r="H7" s="74"/>
-      <c r="I7" s="74"/>
-      <c r="J7" s="74"/>
-      <c r="K7" s="74"/>
-      <c r="L7" s="74"/>
-      <c r="M7" s="74"/>
-      <c r="N7" s="74"/>
-      <c r="O7" s="74"/>
-      <c r="P7" s="74"/>
-      <c r="Q7" s="74"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="71"/>
+      <c r="K7" s="71"/>
+      <c r="L7" s="71"/>
+      <c r="M7" s="71"/>
+      <c r="N7" s="71"/>
+      <c r="O7" s="71"/>
+      <c r="P7" s="71"/>
+      <c r="Q7" s="71"/>
     </row>
     <row r="8" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="str">
@@ -2683,16 +2693,16 @@
       <c r="F8" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="74"/>
-      <c r="I8" s="74"/>
-      <c r="J8" s="74"/>
-      <c r="K8" s="74"/>
-      <c r="L8" s="74"/>
-      <c r="M8" s="74"/>
-      <c r="N8" s="74"/>
-      <c r="O8" s="74"/>
-      <c r="P8" s="74"/>
-      <c r="Q8" s="74"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="71"/>
+      <c r="J8" s="71"/>
+      <c r="K8" s="71"/>
+      <c r="L8" s="71"/>
+      <c r="M8" s="71"/>
+      <c r="N8" s="71"/>
+      <c r="O8" s="71"/>
+      <c r="P8" s="71"/>
+      <c r="Q8" s="71"/>
     </row>
     <row r="9" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="str">
@@ -2709,16 +2719,16 @@
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
-      <c r="H9" s="74"/>
-      <c r="I9" s="74"/>
-      <c r="J9" s="74"/>
-      <c r="K9" s="74"/>
-      <c r="L9" s="74"/>
-      <c r="M9" s="74"/>
-      <c r="N9" s="74"/>
-      <c r="O9" s="74"/>
-      <c r="P9" s="74"/>
-      <c r="Q9" s="74"/>
+      <c r="H9" s="71"/>
+      <c r="I9" s="71"/>
+      <c r="J9" s="71"/>
+      <c r="K9" s="71"/>
+      <c r="L9" s="71"/>
+      <c r="M9" s="71"/>
+      <c r="N9" s="71"/>
+      <c r="O9" s="71"/>
+      <c r="P9" s="71"/>
+      <c r="Q9" s="71"/>
     </row>
     <row r="10" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="str">
@@ -2741,16 +2751,16 @@
       <c r="F10" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H10" s="74"/>
-      <c r="I10" s="74"/>
-      <c r="J10" s="74"/>
-      <c r="K10" s="74"/>
-      <c r="L10" s="74"/>
-      <c r="M10" s="74"/>
-      <c r="N10" s="74"/>
-      <c r="O10" s="74"/>
-      <c r="P10" s="74"/>
-      <c r="Q10" s="74"/>
+      <c r="H10" s="71"/>
+      <c r="I10" s="71"/>
+      <c r="J10" s="71"/>
+      <c r="K10" s="71"/>
+      <c r="L10" s="71"/>
+      <c r="M10" s="71"/>
+      <c r="N10" s="71"/>
+      <c r="O10" s="71"/>
+      <c r="P10" s="71"/>
+      <c r="Q10" s="71"/>
     </row>
     <row r="11" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="str">
@@ -2767,16 +2777,16 @@
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
-      <c r="H11" s="74"/>
-      <c r="I11" s="74"/>
-      <c r="J11" s="74"/>
-      <c r="K11" s="74"/>
-      <c r="L11" s="74"/>
-      <c r="M11" s="74"/>
-      <c r="N11" s="74"/>
-      <c r="O11" s="74"/>
-      <c r="P11" s="74"/>
-      <c r="Q11" s="74"/>
+      <c r="H11" s="71"/>
+      <c r="I11" s="71"/>
+      <c r="J11" s="71"/>
+      <c r="K11" s="71"/>
+      <c r="L11" s="71"/>
+      <c r="M11" s="71"/>
+      <c r="N11" s="71"/>
+      <c r="O11" s="71"/>
+      <c r="P11" s="71"/>
+      <c r="Q11" s="71"/>
     </row>
     <row r="12" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="str">
@@ -2799,16 +2809,16 @@
       <c r="F12" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="H12" s="74"/>
-      <c r="I12" s="74"/>
-      <c r="J12" s="74"/>
-      <c r="K12" s="74"/>
-      <c r="L12" s="74"/>
-      <c r="M12" s="74"/>
-      <c r="N12" s="74"/>
-      <c r="O12" s="74"/>
-      <c r="P12" s="74"/>
-      <c r="Q12" s="74"/>
+      <c r="H12" s="71"/>
+      <c r="I12" s="71"/>
+      <c r="J12" s="71"/>
+      <c r="K12" s="71"/>
+      <c r="L12" s="71"/>
+      <c r="M12" s="71"/>
+      <c r="N12" s="71"/>
+      <c r="O12" s="71"/>
+      <c r="P12" s="71"/>
+      <c r="Q12" s="71"/>
     </row>
     <row r="13" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="str">
@@ -2816,7 +2826,7 @@
         <v>2A</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>53</v>
@@ -2831,16 +2841,16 @@
       <c r="F13" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="H13" s="74"/>
-      <c r="I13" s="74"/>
-      <c r="J13" s="74"/>
-      <c r="K13" s="74"/>
-      <c r="L13" s="74"/>
-      <c r="M13" s="74"/>
-      <c r="N13" s="74"/>
-      <c r="O13" s="74"/>
-      <c r="P13" s="74"/>
-      <c r="Q13" s="74"/>
+      <c r="H13" s="71"/>
+      <c r="I13" s="71"/>
+      <c r="J13" s="71"/>
+      <c r="K13" s="71"/>
+      <c r="L13" s="71"/>
+      <c r="M13" s="71"/>
+      <c r="N13" s="71"/>
+      <c r="O13" s="71"/>
+      <c r="P13" s="71"/>
+      <c r="Q13" s="71"/>
     </row>
     <row r="14" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="str">
@@ -2863,16 +2873,16 @@
       <c r="F14" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="H14" s="74"/>
-      <c r="I14" s="74"/>
-      <c r="J14" s="74"/>
-      <c r="K14" s="74"/>
-      <c r="L14" s="74"/>
-      <c r="M14" s="74"/>
-      <c r="N14" s="74"/>
-      <c r="O14" s="74"/>
-      <c r="P14" s="74"/>
-      <c r="Q14" s="74"/>
+      <c r="H14" s="71"/>
+      <c r="I14" s="71"/>
+      <c r="J14" s="71"/>
+      <c r="K14" s="71"/>
+      <c r="L14" s="71"/>
+      <c r="M14" s="71"/>
+      <c r="N14" s="71"/>
+      <c r="O14" s="71"/>
+      <c r="P14" s="71"/>
+      <c r="Q14" s="71"/>
     </row>
     <row r="15" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="str">
@@ -2888,16 +2898,16 @@
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
-      <c r="H15" s="74"/>
-      <c r="I15" s="74"/>
-      <c r="J15" s="74"/>
-      <c r="K15" s="74"/>
-      <c r="L15" s="74"/>
-      <c r="M15" s="74"/>
-      <c r="N15" s="74"/>
-      <c r="O15" s="74"/>
-      <c r="P15" s="74"/>
-      <c r="Q15" s="74"/>
+      <c r="H15" s="71"/>
+      <c r="I15" s="71"/>
+      <c r="J15" s="71"/>
+      <c r="K15" s="71"/>
+      <c r="L15" s="71"/>
+      <c r="M15" s="71"/>
+      <c r="N15" s="71"/>
+      <c r="O15" s="71"/>
+      <c r="P15" s="71"/>
+      <c r="Q15" s="71"/>
     </row>
     <row r="16" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="str">
@@ -2913,16 +2923,16 @@
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
-      <c r="H16" s="74"/>
-      <c r="I16" s="74"/>
-      <c r="J16" s="74"/>
-      <c r="K16" s="74"/>
-      <c r="L16" s="74"/>
-      <c r="M16" s="74"/>
-      <c r="N16" s="74"/>
-      <c r="O16" s="74"/>
-      <c r="P16" s="74"/>
-      <c r="Q16" s="74"/>
+      <c r="H16" s="71"/>
+      <c r="I16" s="71"/>
+      <c r="J16" s="71"/>
+      <c r="K16" s="71"/>
+      <c r="L16" s="71"/>
+      <c r="M16" s="71"/>
+      <c r="N16" s="71"/>
+      <c r="O16" s="71"/>
+      <c r="P16" s="71"/>
+      <c r="Q16" s="71"/>
     </row>
     <row r="17" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="str">
@@ -2936,7 +2946,7 @@
         <v>67</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>68</v>
@@ -2944,16 +2954,16 @@
       <c r="F17" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="H17" s="74"/>
-      <c r="I17" s="74"/>
-      <c r="J17" s="74"/>
-      <c r="K17" s="74"/>
-      <c r="L17" s="74"/>
-      <c r="M17" s="74"/>
-      <c r="N17" s="74"/>
-      <c r="O17" s="74"/>
-      <c r="P17" s="74"/>
-      <c r="Q17" s="74"/>
+      <c r="H17" s="71"/>
+      <c r="I17" s="71"/>
+      <c r="J17" s="71"/>
+      <c r="K17" s="71"/>
+      <c r="L17" s="71"/>
+      <c r="M17" s="71"/>
+      <c r="N17" s="71"/>
+      <c r="O17" s="71"/>
+      <c r="P17" s="71"/>
+      <c r="Q17" s="71"/>
     </row>
     <row r="18" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="str">
@@ -2969,16 +2979,16 @@
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
-      <c r="H18" s="74"/>
-      <c r="I18" s="74"/>
-      <c r="J18" s="74"/>
-      <c r="K18" s="74"/>
-      <c r="L18" s="74"/>
-      <c r="M18" s="74"/>
-      <c r="N18" s="74"/>
-      <c r="O18" s="74"/>
-      <c r="P18" s="74"/>
-      <c r="Q18" s="74"/>
+      <c r="H18" s="71"/>
+      <c r="I18" s="71"/>
+      <c r="J18" s="71"/>
+      <c r="K18" s="71"/>
+      <c r="L18" s="71"/>
+      <c r="M18" s="71"/>
+      <c r="N18" s="71"/>
+      <c r="O18" s="71"/>
+      <c r="P18" s="71"/>
+      <c r="Q18" s="71"/>
     </row>
     <row r="19" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="str">
@@ -2995,16 +3005,16 @@
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
-      <c r="H19" s="74"/>
-      <c r="I19" s="74"/>
-      <c r="J19" s="74"/>
-      <c r="K19" s="74"/>
-      <c r="L19" s="74"/>
-      <c r="M19" s="74"/>
-      <c r="N19" s="74"/>
-      <c r="O19" s="74"/>
-      <c r="P19" s="74"/>
-      <c r="Q19" s="74"/>
+      <c r="H19" s="71"/>
+      <c r="I19" s="71"/>
+      <c r="J19" s="71"/>
+      <c r="K19" s="71"/>
+      <c r="L19" s="71"/>
+      <c r="M19" s="71"/>
+      <c r="N19" s="71"/>
+      <c r="O19" s="71"/>
+      <c r="P19" s="71"/>
+      <c r="Q19" s="71"/>
     </row>
     <row r="20" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="str">
@@ -3012,7 +3022,7 @@
         <v>2H</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>76</v>
@@ -3026,16 +3036,16 @@
       <c r="F20" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="H20" s="74"/>
-      <c r="I20" s="74"/>
-      <c r="J20" s="74"/>
-      <c r="K20" s="74"/>
-      <c r="L20" s="74"/>
-      <c r="M20" s="74"/>
-      <c r="N20" s="74"/>
-      <c r="O20" s="74"/>
-      <c r="P20" s="74"/>
-      <c r="Q20" s="74"/>
+      <c r="H20" s="71"/>
+      <c r="I20" s="71"/>
+      <c r="J20" s="71"/>
+      <c r="K20" s="71"/>
+      <c r="L20" s="71"/>
+      <c r="M20" s="71"/>
+      <c r="N20" s="71"/>
+      <c r="O20" s="71"/>
+      <c r="P20" s="71"/>
+      <c r="Q20" s="71"/>
     </row>
     <row r="21" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="str">
@@ -3048,23 +3058,23 @@
       <c r="C21" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D21" s="91" t="s">
+      <c r="D21" s="88" t="s">
         <v>360</v>
       </c>
-      <c r="E21" s="87" t="s">
+      <c r="E21" s="84" t="s">
         <v>130</v>
       </c>
-      <c r="F21" s="87"/>
-      <c r="H21" s="74"/>
-      <c r="I21" s="74"/>
-      <c r="J21" s="74"/>
-      <c r="K21" s="74"/>
-      <c r="L21" s="74"/>
-      <c r="M21" s="74"/>
-      <c r="N21" s="74"/>
-      <c r="O21" s="74"/>
-      <c r="P21" s="74"/>
-      <c r="Q21" s="74"/>
+      <c r="F21" s="84"/>
+      <c r="H21" s="71"/>
+      <c r="I21" s="71"/>
+      <c r="J21" s="71"/>
+      <c r="K21" s="71"/>
+      <c r="L21" s="71"/>
+      <c r="M21" s="71"/>
+      <c r="N21" s="71"/>
+      <c r="O21" s="71"/>
+      <c r="P21" s="71"/>
+      <c r="Q21" s="71"/>
     </row>
     <row r="22" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="str">
@@ -3077,19 +3087,19 @@
       <c r="C22" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D22" s="87"/>
-      <c r="E22" s="87"/>
-      <c r="F22" s="87"/>
-      <c r="H22" s="74"/>
-      <c r="I22" s="74"/>
-      <c r="J22" s="74"/>
-      <c r="K22" s="74"/>
-      <c r="L22" s="74"/>
-      <c r="M22" s="74"/>
-      <c r="N22" s="74"/>
-      <c r="O22" s="74"/>
-      <c r="P22" s="74"/>
-      <c r="Q22" s="74"/>
+      <c r="D22" s="84"/>
+      <c r="E22" s="84"/>
+      <c r="F22" s="84"/>
+      <c r="H22" s="71"/>
+      <c r="I22" s="71"/>
+      <c r="J22" s="71"/>
+      <c r="K22" s="71"/>
+      <c r="L22" s="71"/>
+      <c r="M22" s="71"/>
+      <c r="N22" s="71"/>
+      <c r="O22" s="71"/>
+      <c r="P22" s="71"/>
+      <c r="Q22" s="71"/>
     </row>
     <row r="23" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="str">
@@ -3102,19 +3112,19 @@
       <c r="C23" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D23" s="87"/>
-      <c r="E23" s="87"/>
-      <c r="F23" s="87"/>
-      <c r="H23" s="74"/>
-      <c r="I23" s="74"/>
-      <c r="J23" s="74"/>
-      <c r="K23" s="74"/>
-      <c r="L23" s="74"/>
-      <c r="M23" s="74"/>
-      <c r="N23" s="74"/>
-      <c r="O23" s="74"/>
-      <c r="P23" s="74"/>
-      <c r="Q23" s="74"/>
+      <c r="D23" s="84"/>
+      <c r="E23" s="84"/>
+      <c r="F23" s="84"/>
+      <c r="H23" s="71"/>
+      <c r="I23" s="71"/>
+      <c r="J23" s="71"/>
+      <c r="K23" s="71"/>
+      <c r="L23" s="71"/>
+      <c r="M23" s="71"/>
+      <c r="N23" s="71"/>
+      <c r="O23" s="71"/>
+      <c r="P23" s="71"/>
+      <c r="Q23" s="71"/>
     </row>
     <row r="24" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="str">
@@ -3127,24 +3137,24 @@
       <c r="C24" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D24" s="91" t="s">
+      <c r="D24" s="88" t="s">
         <v>357</v>
       </c>
-      <c r="E24" s="90" t="s">
+      <c r="E24" s="87" t="s">
         <v>304</v>
       </c>
-      <c r="F24" s="87"/>
+      <c r="F24" s="84"/>
       <c r="G24" s="9"/>
-      <c r="H24" s="74"/>
-      <c r="I24" s="74"/>
-      <c r="J24" s="74"/>
-      <c r="K24" s="74"/>
-      <c r="L24" s="74"/>
-      <c r="M24" s="74"/>
-      <c r="N24" s="74"/>
-      <c r="O24" s="74"/>
-      <c r="P24" s="74"/>
-      <c r="Q24" s="74"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="71"/>
+      <c r="J24" s="71"/>
+      <c r="K24" s="71"/>
+      <c r="L24" s="71"/>
+      <c r="M24" s="71"/>
+      <c r="N24" s="71"/>
+      <c r="O24" s="71"/>
+      <c r="P24" s="71"/>
+      <c r="Q24" s="71"/>
     </row>
     <row r="25" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="str">
@@ -3167,16 +3177,16 @@
       <c r="F25" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="H25" s="74"/>
-      <c r="I25" s="74"/>
-      <c r="J25" s="74"/>
-      <c r="K25" s="74"/>
-      <c r="L25" s="74"/>
-      <c r="M25" s="74"/>
-      <c r="N25" s="74"/>
-      <c r="O25" s="74"/>
-      <c r="P25" s="74"/>
-      <c r="Q25" s="74"/>
+      <c r="H25" s="71"/>
+      <c r="I25" s="71"/>
+      <c r="J25" s="71"/>
+      <c r="K25" s="71"/>
+      <c r="L25" s="71"/>
+      <c r="M25" s="71"/>
+      <c r="N25" s="71"/>
+      <c r="O25" s="71"/>
+      <c r="P25" s="71"/>
+      <c r="Q25" s="71"/>
     </row>
     <row r="26" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="str">
@@ -3189,20 +3199,20 @@
       <c r="C26" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D26" s="88"/>
-      <c r="E26" s="87"/>
-      <c r="F26" s="87"/>
+      <c r="D26" s="85"/>
+      <c r="E26" s="84"/>
+      <c r="F26" s="84"/>
       <c r="G26" s="9"/>
-      <c r="H26" s="74"/>
-      <c r="I26" s="74"/>
-      <c r="J26" s="74"/>
-      <c r="K26" s="74"/>
-      <c r="L26" s="74"/>
-      <c r="M26" s="74"/>
-      <c r="N26" s="74"/>
-      <c r="O26" s="74"/>
-      <c r="P26" s="74"/>
-      <c r="Q26" s="74"/>
+      <c r="H26" s="71"/>
+      <c r="I26" s="71"/>
+      <c r="J26" s="71"/>
+      <c r="K26" s="71"/>
+      <c r="L26" s="71"/>
+      <c r="M26" s="71"/>
+      <c r="N26" s="71"/>
+      <c r="O26" s="71"/>
+      <c r="P26" s="71"/>
+      <c r="Q26" s="71"/>
     </row>
     <row r="27" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="str">
@@ -3215,19 +3225,19 @@
       <c r="C27" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="D27" s="87"/>
-      <c r="E27" s="87"/>
-      <c r="F27" s="89"/>
-      <c r="H27" s="74"/>
-      <c r="I27" s="74"/>
-      <c r="J27" s="74"/>
-      <c r="K27" s="74"/>
-      <c r="L27" s="74"/>
-      <c r="M27" s="74"/>
-      <c r="N27" s="74"/>
-      <c r="O27" s="74"/>
-      <c r="P27" s="74"/>
-      <c r="Q27" s="74"/>
+      <c r="D27" s="84"/>
+      <c r="E27" s="84"/>
+      <c r="F27" s="86"/>
+      <c r="H27" s="71"/>
+      <c r="I27" s="71"/>
+      <c r="J27" s="71"/>
+      <c r="K27" s="71"/>
+      <c r="L27" s="71"/>
+      <c r="M27" s="71"/>
+      <c r="N27" s="71"/>
+      <c r="O27" s="71"/>
+      <c r="P27" s="71"/>
+      <c r="Q27" s="71"/>
     </row>
     <row r="28" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="str">
@@ -3250,16 +3260,16 @@
         <v>48</v>
       </c>
       <c r="G28" s="3"/>
-      <c r="H28" s="74"/>
-      <c r="I28" s="74"/>
-      <c r="J28" s="74"/>
-      <c r="K28" s="74"/>
-      <c r="L28" s="74"/>
-      <c r="M28" s="74"/>
-      <c r="N28" s="74"/>
-      <c r="O28" s="74"/>
-      <c r="P28" s="74"/>
-      <c r="Q28" s="74"/>
+      <c r="H28" s="71"/>
+      <c r="I28" s="71"/>
+      <c r="J28" s="71"/>
+      <c r="K28" s="71"/>
+      <c r="L28" s="71"/>
+      <c r="M28" s="71"/>
+      <c r="N28" s="71"/>
+      <c r="O28" s="71"/>
+      <c r="P28" s="71"/>
+      <c r="Q28" s="71"/>
     </row>
     <row r="29" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="str">
@@ -3282,16 +3292,16 @@
         <v>48</v>
       </c>
       <c r="G29" s="4"/>
-      <c r="H29" s="74"/>
-      <c r="I29" s="74"/>
-      <c r="J29" s="74"/>
-      <c r="K29" s="74"/>
-      <c r="L29" s="74"/>
-      <c r="M29" s="74"/>
-      <c r="N29" s="74"/>
-      <c r="O29" s="74"/>
-      <c r="P29" s="74"/>
-      <c r="Q29" s="74"/>
+      <c r="H29" s="71"/>
+      <c r="I29" s="71"/>
+      <c r="J29" s="71"/>
+      <c r="K29" s="71"/>
+      <c r="L29" s="71"/>
+      <c r="M29" s="71"/>
+      <c r="N29" s="71"/>
+      <c r="O29" s="71"/>
+      <c r="P29" s="71"/>
+      <c r="Q29" s="71"/>
     </row>
     <row r="30" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="str">
@@ -3314,16 +3324,16 @@
         <v>48</v>
       </c>
       <c r="G30" s="4"/>
-      <c r="H30" s="74"/>
-      <c r="I30" s="74"/>
-      <c r="J30" s="74"/>
-      <c r="K30" s="74"/>
-      <c r="L30" s="74"/>
-      <c r="M30" s="74"/>
-      <c r="N30" s="74"/>
-      <c r="O30" s="74"/>
-      <c r="P30" s="74"/>
-      <c r="Q30" s="74"/>
+      <c r="H30" s="71"/>
+      <c r="I30" s="71"/>
+      <c r="J30" s="71"/>
+      <c r="K30" s="71"/>
+      <c r="L30" s="71"/>
+      <c r="M30" s="71"/>
+      <c r="N30" s="71"/>
+      <c r="O30" s="71"/>
+      <c r="P30" s="71"/>
+      <c r="Q30" s="71"/>
     </row>
     <row r="31" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="str">
@@ -3339,16 +3349,16 @@
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
-      <c r="H31" s="74"/>
-      <c r="I31" s="74"/>
-      <c r="J31" s="74"/>
-      <c r="K31" s="74"/>
-      <c r="L31" s="74"/>
-      <c r="M31" s="74"/>
-      <c r="N31" s="74"/>
-      <c r="O31" s="74"/>
-      <c r="P31" s="74"/>
-      <c r="Q31" s="74"/>
+      <c r="H31" s="71"/>
+      <c r="I31" s="71"/>
+      <c r="J31" s="71"/>
+      <c r="K31" s="71"/>
+      <c r="L31" s="71"/>
+      <c r="M31" s="71"/>
+      <c r="N31" s="71"/>
+      <c r="O31" s="71"/>
+      <c r="P31" s="71"/>
+      <c r="Q31" s="71"/>
     </row>
     <row r="32" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="str">
@@ -3370,16 +3380,16 @@
       <c r="F32" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="H32" s="74"/>
-      <c r="I32" s="74"/>
-      <c r="J32" s="74"/>
-      <c r="K32" s="74"/>
-      <c r="L32" s="74"/>
-      <c r="M32" s="74"/>
-      <c r="N32" s="74"/>
-      <c r="O32" s="74"/>
-      <c r="P32" s="74"/>
-      <c r="Q32" s="74"/>
+      <c r="H32" s="71"/>
+      <c r="I32" s="71"/>
+      <c r="J32" s="71"/>
+      <c r="K32" s="71"/>
+      <c r="L32" s="71"/>
+      <c r="M32" s="71"/>
+      <c r="N32" s="71"/>
+      <c r="O32" s="71"/>
+      <c r="P32" s="71"/>
+      <c r="Q32" s="71"/>
     </row>
     <row r="33" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="str">
@@ -3396,16 +3406,16 @@
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
-      <c r="H33" s="74"/>
-      <c r="I33" s="74"/>
-      <c r="J33" s="74"/>
-      <c r="K33" s="74"/>
-      <c r="L33" s="74"/>
-      <c r="M33" s="74"/>
-      <c r="N33" s="74"/>
-      <c r="O33" s="74"/>
-      <c r="P33" s="74"/>
-      <c r="Q33" s="74"/>
+      <c r="H33" s="71"/>
+      <c r="I33" s="71"/>
+      <c r="J33" s="71"/>
+      <c r="K33" s="71"/>
+      <c r="L33" s="71"/>
+      <c r="M33" s="71"/>
+      <c r="N33" s="71"/>
+      <c r="O33" s="71"/>
+      <c r="P33" s="71"/>
+      <c r="Q33" s="71"/>
     </row>
     <row r="34" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="str">
@@ -3422,16 +3432,16 @@
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
-      <c r="H34" s="74"/>
-      <c r="I34" s="74"/>
-      <c r="J34" s="74"/>
-      <c r="K34" s="74"/>
-      <c r="L34" s="74"/>
-      <c r="M34" s="74"/>
-      <c r="N34" s="74"/>
-      <c r="O34" s="74"/>
-      <c r="P34" s="74"/>
-      <c r="Q34" s="74"/>
+      <c r="H34" s="71"/>
+      <c r="I34" s="71"/>
+      <c r="J34" s="71"/>
+      <c r="K34" s="71"/>
+      <c r="L34" s="71"/>
+      <c r="M34" s="71"/>
+      <c r="N34" s="71"/>
+      <c r="O34" s="71"/>
+      <c r="P34" s="71"/>
+      <c r="Q34" s="71"/>
     </row>
     <row r="35" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="str">
@@ -3453,16 +3463,16 @@
       <c r="F35" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="H35" s="74"/>
-      <c r="I35" s="74"/>
-      <c r="J35" s="74"/>
-      <c r="K35" s="74"/>
-      <c r="L35" s="74"/>
-      <c r="M35" s="74"/>
-      <c r="N35" s="74"/>
-      <c r="O35" s="74"/>
-      <c r="P35" s="74"/>
-      <c r="Q35" s="74"/>
+      <c r="H35" s="71"/>
+      <c r="I35" s="71"/>
+      <c r="J35" s="71"/>
+      <c r="K35" s="71"/>
+      <c r="L35" s="71"/>
+      <c r="M35" s="71"/>
+      <c r="N35" s="71"/>
+      <c r="O35" s="71"/>
+      <c r="P35" s="71"/>
+      <c r="Q35" s="71"/>
     </row>
     <row r="36" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="str">
@@ -3479,16 +3489,16 @@
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
-      <c r="H36" s="74"/>
-      <c r="I36" s="74"/>
-      <c r="J36" s="74"/>
-      <c r="K36" s="74"/>
-      <c r="L36" s="74"/>
-      <c r="M36" s="74"/>
-      <c r="N36" s="74"/>
-      <c r="O36" s="74"/>
-      <c r="P36" s="74"/>
-      <c r="Q36" s="74"/>
+      <c r="H36" s="71"/>
+      <c r="I36" s="71"/>
+      <c r="J36" s="71"/>
+      <c r="K36" s="71"/>
+      <c r="L36" s="71"/>
+      <c r="M36" s="71"/>
+      <c r="N36" s="71"/>
+      <c r="O36" s="71"/>
+      <c r="P36" s="71"/>
+      <c r="Q36" s="71"/>
     </row>
     <row r="37" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="str">
@@ -3511,16 +3521,16 @@
       <c r="F37" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="H37" s="74"/>
-      <c r="I37" s="74"/>
-      <c r="J37" s="74"/>
-      <c r="K37" s="74"/>
-      <c r="L37" s="74"/>
-      <c r="M37" s="74"/>
-      <c r="N37" s="74"/>
-      <c r="O37" s="74"/>
-      <c r="P37" s="74"/>
-      <c r="Q37" s="74"/>
+      <c r="H37" s="71"/>
+      <c r="I37" s="71"/>
+      <c r="J37" s="71"/>
+      <c r="K37" s="71"/>
+      <c r="L37" s="71"/>
+      <c r="M37" s="71"/>
+      <c r="N37" s="71"/>
+      <c r="O37" s="71"/>
+      <c r="P37" s="71"/>
+      <c r="Q37" s="71"/>
     </row>
     <row r="38" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="str">
@@ -3536,16 +3546,16 @@
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
-      <c r="H38" s="74"/>
-      <c r="I38" s="74"/>
-      <c r="J38" s="74"/>
-      <c r="K38" s="74"/>
-      <c r="L38" s="74"/>
-      <c r="M38" s="74"/>
-      <c r="N38" s="74"/>
-      <c r="O38" s="74"/>
-      <c r="P38" s="74"/>
-      <c r="Q38" s="74"/>
+      <c r="H38" s="71"/>
+      <c r="I38" s="71"/>
+      <c r="J38" s="71"/>
+      <c r="K38" s="71"/>
+      <c r="L38" s="71"/>
+      <c r="M38" s="71"/>
+      <c r="N38" s="71"/>
+      <c r="O38" s="71"/>
+      <c r="P38" s="71"/>
+      <c r="Q38" s="71"/>
     </row>
     <row r="39" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="str">
@@ -3561,16 +3571,16 @@
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
-      <c r="H39" s="74"/>
-      <c r="I39" s="74"/>
-      <c r="J39" s="74"/>
-      <c r="K39" s="74"/>
-      <c r="L39" s="74"/>
-      <c r="M39" s="74"/>
-      <c r="N39" s="74"/>
-      <c r="O39" s="74"/>
-      <c r="P39" s="74"/>
-      <c r="Q39" s="74"/>
+      <c r="H39" s="71"/>
+      <c r="I39" s="71"/>
+      <c r="J39" s="71"/>
+      <c r="K39" s="71"/>
+      <c r="L39" s="71"/>
+      <c r="M39" s="71"/>
+      <c r="N39" s="71"/>
+      <c r="O39" s="71"/>
+      <c r="P39" s="71"/>
+      <c r="Q39" s="71"/>
     </row>
     <row r="40" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="str">
@@ -3590,16 +3600,16 @@
         <v>31</v>
       </c>
       <c r="F40" s="4"/>
-      <c r="H40" s="74"/>
-      <c r="I40" s="74"/>
-      <c r="J40" s="74"/>
-      <c r="K40" s="74"/>
-      <c r="L40" s="74"/>
-      <c r="M40" s="74"/>
-      <c r="N40" s="74"/>
-      <c r="O40" s="74"/>
-      <c r="P40" s="74"/>
-      <c r="Q40" s="74"/>
+      <c r="H40" s="71"/>
+      <c r="I40" s="71"/>
+      <c r="J40" s="71"/>
+      <c r="K40" s="71"/>
+      <c r="L40" s="71"/>
+      <c r="M40" s="71"/>
+      <c r="N40" s="71"/>
+      <c r="O40" s="71"/>
+      <c r="P40" s="71"/>
+      <c r="Q40" s="71"/>
     </row>
     <row r="41" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="str">
@@ -3621,16 +3631,16 @@
       <c r="F41" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="H41" s="74"/>
-      <c r="I41" s="74"/>
-      <c r="J41" s="74"/>
-      <c r="K41" s="74"/>
-      <c r="L41" s="74"/>
-      <c r="M41" s="74"/>
-      <c r="N41" s="74"/>
-      <c r="O41" s="74"/>
-      <c r="P41" s="74"/>
-      <c r="Q41" s="74"/>
+      <c r="H41" s="71"/>
+      <c r="I41" s="71"/>
+      <c r="J41" s="71"/>
+      <c r="K41" s="71"/>
+      <c r="L41" s="71"/>
+      <c r="M41" s="71"/>
+      <c r="N41" s="71"/>
+      <c r="O41" s="71"/>
+      <c r="P41" s="71"/>
+      <c r="Q41" s="71"/>
     </row>
     <row r="42" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="str">
@@ -3646,16 +3656,16 @@
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
-      <c r="H42" s="74"/>
-      <c r="I42" s="74"/>
-      <c r="J42" s="74"/>
-      <c r="K42" s="74"/>
-      <c r="L42" s="74"/>
-      <c r="M42" s="74"/>
-      <c r="N42" s="74"/>
-      <c r="O42" s="74"/>
-      <c r="P42" s="74"/>
-      <c r="Q42" s="74"/>
+      <c r="H42" s="71"/>
+      <c r="I42" s="71"/>
+      <c r="J42" s="71"/>
+      <c r="K42" s="71"/>
+      <c r="L42" s="71"/>
+      <c r="M42" s="71"/>
+      <c r="N42" s="71"/>
+      <c r="O42" s="71"/>
+      <c r="P42" s="71"/>
+      <c r="Q42" s="71"/>
     </row>
     <row r="43" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="str">
@@ -3671,16 +3681,16 @@
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
-      <c r="H43" s="74"/>
-      <c r="I43" s="74"/>
-      <c r="J43" s="74"/>
-      <c r="K43" s="74"/>
-      <c r="L43" s="74"/>
-      <c r="M43" s="74"/>
-      <c r="N43" s="74"/>
-      <c r="O43" s="74"/>
-      <c r="P43" s="74"/>
-      <c r="Q43" s="74"/>
+      <c r="H43" s="71"/>
+      <c r="I43" s="71"/>
+      <c r="J43" s="71"/>
+      <c r="K43" s="71"/>
+      <c r="L43" s="71"/>
+      <c r="M43" s="71"/>
+      <c r="N43" s="71"/>
+      <c r="O43" s="71"/>
+      <c r="P43" s="71"/>
+      <c r="Q43" s="71"/>
     </row>
     <row r="44" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="str">
@@ -3696,16 +3706,16 @@
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
-      <c r="H44" s="74"/>
-      <c r="I44" s="74"/>
-      <c r="J44" s="74"/>
-      <c r="K44" s="74"/>
-      <c r="L44" s="74"/>
-      <c r="M44" s="74"/>
-      <c r="N44" s="74"/>
-      <c r="O44" s="74"/>
-      <c r="P44" s="74"/>
-      <c r="Q44" s="74"/>
+      <c r="H44" s="71"/>
+      <c r="I44" s="71"/>
+      <c r="J44" s="71"/>
+      <c r="K44" s="71"/>
+      <c r="L44" s="71"/>
+      <c r="M44" s="71"/>
+      <c r="N44" s="71"/>
+      <c r="O44" s="71"/>
+      <c r="P44" s="71"/>
+      <c r="Q44" s="71"/>
     </row>
     <row r="45" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K45" s="5"/>
@@ -3786,38 +3796,38 @@
       <c r="A58" s="9"/>
     </row>
     <row r="59" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="137" t="s">
+      <c r="A59" s="135" t="s">
         <v>157</v>
       </c>
-      <c r="B59" s="132"/>
-      <c r="C59" s="132"/>
+      <c r="B59" s="130"/>
+      <c r="C59" s="130"/>
     </row>
     <row r="60" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="12"/>
     </row>
     <row r="61" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="131" t="s">
+      <c r="A61" s="129" t="s">
         <v>149</v>
       </c>
-      <c r="B61" s="132"/>
-      <c r="C61" s="131" t="s">
+      <c r="B61" s="130"/>
+      <c r="C61" s="129" t="s">
         <v>158</v>
       </c>
-      <c r="D61" s="132"/>
-      <c r="E61" s="132"/>
-      <c r="F61" s="132"/>
+      <c r="D61" s="130"/>
+      <c r="E61" s="130"/>
+      <c r="F61" s="130"/>
     </row>
     <row r="62" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="131" t="s">
+      <c r="A62" s="129" t="s">
         <v>159</v>
       </c>
-      <c r="B62" s="132"/>
-      <c r="C62" s="131" t="s">
+      <c r="B62" s="130"/>
+      <c r="C62" s="129" t="s">
         <v>160</v>
       </c>
-      <c r="D62" s="132"/>
-      <c r="E62" s="132"/>
-      <c r="F62" s="132"/>
+      <c r="D62" s="130"/>
+      <c r="E62" s="130"/>
+      <c r="F62" s="130"/>
     </row>
     <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="64" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4785,7 +4795,7 @@
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+      <selection sqref="A1:J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4798,778 +4808,778 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="133" t="s">
+      <c r="A1" s="143" t="s">
         <v>161</v>
       </c>
-      <c r="B1" s="138"/>
-      <c r="C1" s="139" t="s">
+      <c r="B1" s="144"/>
+      <c r="C1" s="145" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="135"/>
-      <c r="E1" s="135"/>
-      <c r="F1" s="135"/>
-      <c r="G1" s="135"/>
-      <c r="H1" s="135"/>
-      <c r="I1" s="135"/>
-      <c r="J1" s="135"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
+      <c r="D1" s="146"/>
+      <c r="E1" s="146"/>
+      <c r="F1" s="146"/>
+      <c r="G1" s="146"/>
+      <c r="H1" s="146"/>
+      <c r="I1" s="146"/>
+      <c r="J1" s="146"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
     </row>
     <row r="2" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="147" t="s">
         <v>162</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="147" t="s">
         <v>163</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="147" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="148" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="147" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="147" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="147" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="147" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="149" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="J2" s="149" t="s">
         <v>164</v>
       </c>
-      <c r="K2" s="17" t="s">
-        <v>436</v>
-      </c>
-      <c r="L2" s="17" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" s="118" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="24" t="s">
-        <v>453</v>
-      </c>
-      <c r="B3" s="85" t="s">
+      <c r="K2" s="15" t="s">
+        <v>435</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="115" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="22" t="s">
+        <v>452</v>
+      </c>
+      <c r="B3" s="82" t="s">
         <v>165</v>
       </c>
-      <c r="C3" s="119"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="120"/>
-      <c r="G3" s="120"/>
-      <c r="H3" s="120"/>
-      <c r="I3" s="120"/>
-      <c r="J3" s="120"/>
-      <c r="K3" s="77"/>
-      <c r="L3" s="77"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="117"/>
+      <c r="H3" s="117"/>
+      <c r="I3" s="117"/>
+      <c r="J3" s="117"/>
+      <c r="K3" s="74"/>
+      <c r="L3" s="74"/>
     </row>
     <row r="4" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="18" t="str">
+      <c r="A4" s="16" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1G8ecO5ODQmn8FX8jzQ962D928BpQ6iUm","5C4-002")</f>
         <v>5C4-002</v>
       </c>
-      <c r="B4" s="85" t="s">
+      <c r="B4" s="82" t="s">
         <v>165</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="D4" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
+      <c r="D4" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
     </row>
     <row r="5" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="20" t="str">
+      <c r="A5" s="18" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1X_yNido1T9NRAtsXoJ-h2bFXlpLfFW-N","5C4-003")</f>
         <v>5C4-003</v>
       </c>
-      <c r="B5" s="85" t="s">
+      <c r="B5" s="82" t="s">
         <v>165</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="D5" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="K5" s="77"/>
-      <c r="L5" s="77"/>
+      <c r="D5" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="74"/>
+      <c r="L5" s="74"/>
     </row>
     <row r="6" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="20" t="str">
+      <c r="A6" s="18" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1WeIiiMAp6TYYdsybsr5MvXeiX_cVX9j0","5C4-004")</f>
         <v>5C4-004</v>
       </c>
-      <c r="B6" s="78" t="s">
+      <c r="B6" s="75" t="s">
         <v>284</v>
       </c>
-      <c r="C6" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="J6" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="K6" s="77" t="s">
-        <v>438</v>
-      </c>
-      <c r="L6" s="77" t="s">
-        <v>399</v>
+      <c r="C6" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="74" t="s">
+        <v>437</v>
+      </c>
+      <c r="L6" s="74" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="20" t="str">
+      <c r="A7" s="18" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1rFsrgDjf_nAuKofi6JoxLvoaGo8A4adh","5C4-005")</f>
         <v>5C4-005</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="26" t="s">
         <v>175</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="D7" s="26" t="s">
         <v>175</v>
       </c>
-      <c r="E7" s="29" t="s">
+      <c r="E7" s="26" t="s">
         <v>175</v>
       </c>
-      <c r="F7" s="29" t="s">
+      <c r="F7" s="26" t="s">
         <v>175</v>
       </c>
-      <c r="G7" s="29" t="s">
+      <c r="G7" s="26" t="s">
         <v>175</v>
       </c>
-      <c r="H7" s="29" t="s">
+      <c r="H7" s="26" t="s">
         <v>175</v>
       </c>
-      <c r="I7" s="29" t="s">
+      <c r="I7" s="26" t="s">
         <v>175</v>
       </c>
-      <c r="J7" s="29" t="s">
+      <c r="J7" s="26" t="s">
         <v>175</v>
       </c>
-      <c r="K7" s="103" t="s">
-        <v>435</v>
-      </c>
-      <c r="L7" s="77"/>
+      <c r="K7" s="100" t="s">
+        <v>434</v>
+      </c>
+      <c r="L7" s="74"/>
     </row>
     <row r="8" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="20" t="str">
+      <c r="A8" s="18" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1vHgkPcaz684Ip98C0QpWVB-bTK7EvvdW","5C4-006")</f>
         <v>5C4-006</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="C8" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="I8" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="J8" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="K8" s="77" t="s">
-        <v>402</v>
-      </c>
-      <c r="L8" s="77"/>
+      <c r="C8" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" s="74" t="s">
+        <v>401</v>
+      </c>
+      <c r="L8" s="74"/>
     </row>
     <row r="9" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="B9" s="84" t="s">
+      <c r="B9" s="81" t="s">
         <v>292</v>
       </c>
-      <c r="C9" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="I9" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="J9" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="K9" s="77" t="s">
-        <v>439</v>
-      </c>
-      <c r="L9" s="77"/>
+      <c r="C9" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="J9" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" s="74" t="s">
+        <v>438</v>
+      </c>
+      <c r="L9" s="74"/>
     </row>
     <row r="10" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="20" t="str">
+      <c r="A10" s="18" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1-3h2_HbCYYPIJxLORcasFd7NqbLvOw-C","5C4-008")</f>
         <v>5C4-008</v>
       </c>
-      <c r="B10" s="78" t="s">
-        <v>406</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="I10" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="J10" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="K10" s="77" t="s">
+      <c r="B10" s="75" t="s">
         <v>405</v>
       </c>
-      <c r="L10" s="77" t="s">
-        <v>399</v>
+      <c r="C10" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="J10" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10" s="74" t="s">
+        <v>404</v>
+      </c>
+      <c r="L10" s="74" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="20" t="str">
+      <c r="A11" s="18" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1EhIIjKRxAQ858Wo2OYQq3GdqbI2ok5Af","5C4-009")</f>
         <v>5C4-009</v>
       </c>
-      <c r="B11" s="83" t="s">
+      <c r="B11" s="80" t="s">
         <v>165</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="D11" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="H11" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="I11" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="J11" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="K11" s="77"/>
-      <c r="L11" s="77"/>
+      <c r="D11" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="J11" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="K11" s="74"/>
+      <c r="L11" s="74"/>
     </row>
     <row r="12" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="20" t="str">
+      <c r="A12" s="18" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1FrnQUGPHDhAq4DHWLuBTTfQpLNsdUckc","5C4-010")</f>
         <v>5C4-010</v>
       </c>
-      <c r="B12" s="147" t="s">
-        <v>376</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="H12" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="I12" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="J12" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="K12" s="77" t="s">
-        <v>468</v>
-      </c>
-      <c r="L12" s="77"/>
+      <c r="B12" s="75" t="s">
+        <v>280</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="J12" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12" s="74" t="s">
+        <v>467</v>
+      </c>
+      <c r="L12" s="74"/>
     </row>
     <row r="13" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="20" t="str">
+      <c r="A13" s="18" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1hJ1DyO35m4DO0phNhkoobK76R8Ql-DTn","5C4-011")</f>
         <v>5C4-011</v>
       </c>
-      <c r="B13" s="78" t="s">
+      <c r="B13" s="75" t="s">
         <v>297</v>
       </c>
-      <c r="C13" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="H13" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="I13" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="J13" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="K13" s="77" t="s">
-        <v>397</v>
-      </c>
-      <c r="L13" s="77" t="s">
-        <v>399</v>
+      <c r="C13" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="J13" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="K13" s="74" t="s">
+        <v>396</v>
+      </c>
+      <c r="L13" s="74" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="20" t="str">
+      <c r="A14" s="18" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1MyuBrs08Ryi2pvVUeI0hW4p24qsMsUL4","5C4-012")</f>
         <v>5C4-012</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="20" t="s">
         <v>174</v>
       </c>
-      <c r="C14" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="G14" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="H14" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="I14" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="J14" s="26" t="s">
+      <c r="C14" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="J14" s="150" t="s">
         <v>175</v>
       </c>
-      <c r="K14" s="103" t="s">
-        <v>433</v>
-      </c>
-      <c r="L14" s="77"/>
+      <c r="K14" s="100" t="s">
+        <v>432</v>
+      </c>
+      <c r="L14" s="74"/>
     </row>
     <row r="15" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="20" t="str">
+      <c r="A15" s="18" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/19GonN6xbnfrGARLvh-LLFUsxF-EngP3u","5C4-013")</f>
         <v>5C4-013</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="20" t="s">
         <v>345</v>
       </c>
-      <c r="C15" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="H15" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="I15" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="J15" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="K15" s="77" t="s">
-        <v>432</v>
-      </c>
-      <c r="L15" s="77"/>
+      <c r="C15" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="J15" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="K15" s="74" t="s">
+        <v>431</v>
+      </c>
+      <c r="L15" s="74"/>
     </row>
     <row r="16" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="20" t="str">
+      <c r="A16" s="18" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1LUZSYEAIfX8EFKKfjUSeyrC0JCfBfe8h","5C4-014")</f>
         <v>5C4-014</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="20" t="s">
         <v>328</v>
       </c>
-      <c r="C16" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="F16" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="G16" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="H16" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="I16" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="J16" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="K16" s="77" t="s">
-        <v>401</v>
-      </c>
-      <c r="L16" s="77" t="s">
+      <c r="C16" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="J16" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="K16" s="74" t="s">
         <v>400</v>
       </c>
+      <c r="L16" s="74" t="s">
+        <v>399</v>
+      </c>
     </row>
     <row r="17" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="20" t="str">
+      <c r="A17" s="18" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1GhnG5G_BN5lBSXzegcxU-3TuUUTEd6xm","5C4-015")</f>
         <v>5C4-015</v>
       </c>
-      <c r="B17" s="83" t="s">
+      <c r="B17" s="80" t="s">
         <v>165</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="D17" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="F17" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="G17" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="H17" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="I17" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="J17" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="K17" s="77"/>
-      <c r="L17" s="77"/>
+      <c r="D17" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="J17" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="K17" s="74"/>
+      <c r="L17" s="74"/>
     </row>
     <row r="18" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="27" t="s">
+      <c r="A18" s="24" t="s">
         <v>178</v>
       </c>
-      <c r="B18" s="78" t="s">
+      <c r="B18" s="75" t="s">
         <v>352</v>
       </c>
-      <c r="C18" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="E18" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="F18" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="G18" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="H18" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="I18" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="J18" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="K18" s="77" t="s">
-        <v>462</v>
-      </c>
-      <c r="L18" s="77"/>
+      <c r="C18" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="H18" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="J18" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="K18" s="74" t="s">
+        <v>461</v>
+      </c>
+      <c r="L18" s="74"/>
     </row>
     <row r="19" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="20" t="str">
+      <c r="A19" s="18" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1wcHyiuVUbBeL9ODgyYP-lyy7yM1vMH3u","5C4-017")</f>
         <v>5C4-017</v>
       </c>
-      <c r="B19" s="147" t="s">
+      <c r="B19" s="128" t="s">
         <v>165</v>
       </c>
-      <c r="C19" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="E19" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="F19" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="G19" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="H19" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="I19" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="J19" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="K19" s="77" t="s">
-        <v>467</v>
-      </c>
-      <c r="L19" s="77"/>
+      <c r="C19" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="H19" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="J19" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="K19" s="74" t="s">
+        <v>466</v>
+      </c>
+      <c r="L19" s="74"/>
     </row>
     <row r="20" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="28" t="s">
+      <c r="A20" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="20" t="s">
         <v>179</v>
       </c>
-      <c r="C20" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="E20" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="F20" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="G20" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="H20" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="I20" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="J20" s="29" t="s">
+      <c r="C20" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="H20" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I20" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="J20" s="26" t="s">
         <v>175</v>
       </c>
-      <c r="K20" s="77" t="s">
-        <v>434</v>
-      </c>
-      <c r="L20" s="77"/>
+      <c r="K20" s="74" t="s">
+        <v>433</v>
+      </c>
+      <c r="L20" s="74"/>
     </row>
     <row r="21" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="20" t="str">
+      <c r="A21" s="18" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1x-FjLa7p2gJDSbRaODzjs8ijaA9SGLtW","5C4-019")</f>
         <v>5C4-019</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="C21" s="29" t="s">
+      <c r="C21" s="26" t="s">
         <v>175</v>
       </c>
-      <c r="D21" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="E21" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="F21" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="G21" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="H21" s="29" t="s">
+      <c r="D21" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G21" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="H21" s="26" t="s">
         <v>175</v>
       </c>
-      <c r="I21" s="29" t="s">
+      <c r="I21" s="26" t="s">
         <v>175</v>
       </c>
-      <c r="J21" s="29" t="s">
+      <c r="J21" s="26" t="s">
         <v>175</v>
       </c>
-      <c r="K21" s="77" t="s">
-        <v>460</v>
-      </c>
-      <c r="L21" s="77"/>
+      <c r="K21" s="74" t="s">
+        <v>459</v>
+      </c>
+      <c r="L21" s="74"/>
     </row>
     <row r="22" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="20" t="str">
+      <c r="A22" s="18" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1wMVARUxnYHeiTbbEodCmZFb_vx9FkRVr","5C4-020")</f>
         <v>5C4-020</v>
       </c>
-      <c r="B22" s="79" t="s">
+      <c r="B22" s="76" t="s">
         <v>181</v>
       </c>
-      <c r="C22" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="E22" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="F22" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="G22" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="H22" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="I22" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="J22" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="K22" s="77" t="s">
+      <c r="C22" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G22" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="H22" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I22" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="J22" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="K22" s="74" t="s">
         <v>375</v>
       </c>
-      <c r="L22" s="77"/>
+      <c r="L22" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5597,400 +5607,400 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="136" t="s">
         <v>161</v>
       </c>
-      <c r="B1" s="141"/>
-      <c r="C1" s="140" t="s">
+      <c r="B1" s="137"/>
+      <c r="C1" s="136" t="s">
         <v>366</v>
       </c>
-      <c r="D1" s="142"/>
-      <c r="E1" s="142"/>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
-      <c r="I1" s="142"/>
-      <c r="J1" s="141"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
+      <c r="G1" s="138"/>
+      <c r="H1" s="138"/>
+      <c r="I1" s="138"/>
+      <c r="J1" s="137"/>
     </row>
     <row r="2" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="68" t="s">
         <v>162</v>
       </c>
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="68" t="s">
         <v>163</v>
       </c>
-      <c r="C2" s="71" t="s">
+      <c r="C2" s="68" t="s">
         <v>367</v>
       </c>
-      <c r="D2" s="71" t="s">
+      <c r="D2" s="68" t="s">
         <v>368</v>
       </c>
-      <c r="E2" s="71" t="s">
+      <c r="E2" s="68" t="s">
         <v>369</v>
       </c>
-      <c r="F2" s="71"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="55" t="s">
         <v>241</v>
       </c>
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="56" t="s">
         <v>165</v>
       </c>
-      <c r="C3" s="68" t="s">
-        <v>466</v>
-      </c>
-      <c r="D3" s="66" t="s">
+      <c r="C3" s="65" t="s">
         <v>465</v>
       </c>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
+      <c r="D3" s="63" t="s">
+        <v>464</v>
+      </c>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="55" t="s">
         <v>353</v>
       </c>
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="56" t="s">
         <v>165</v>
       </c>
-      <c r="C4" s="68" t="s">
+      <c r="C4" s="65" t="s">
+        <v>393</v>
+      </c>
+      <c r="D4" s="63" t="s">
+        <v>376</v>
+      </c>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="55" t="s">
+        <v>354</v>
+      </c>
+      <c r="B5" s="77" t="s">
+        <v>284</v>
+      </c>
+      <c r="C5" s="65" t="s">
+        <v>392</v>
+      </c>
+      <c r="D5" s="63" t="s">
+        <v>387</v>
+      </c>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="55" t="s">
+        <v>355</v>
+      </c>
+      <c r="B6" s="57" t="s">
+        <v>167</v>
+      </c>
+      <c r="C6" s="67"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="63"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="55" t="s">
+        <v>356</v>
+      </c>
+      <c r="B7" s="57" t="s">
+        <v>168</v>
+      </c>
+      <c r="C7" s="65"/>
+      <c r="D7" s="63" t="s">
+        <v>372</v>
+      </c>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="63"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="58" t="s">
+        <v>169</v>
+      </c>
+      <c r="B8" s="56" t="s">
+        <v>165</v>
+      </c>
+      <c r="C8" s="63" t="s">
+        <v>379</v>
+      </c>
+      <c r="D8" s="63" t="s">
+        <v>380</v>
+      </c>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="64"/>
+      <c r="J8" s="65"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="55" t="s">
+        <v>357</v>
+      </c>
+      <c r="B9" s="56" t="s">
+        <v>170</v>
+      </c>
+      <c r="C9" s="63" t="s">
+        <v>373</v>
+      </c>
+      <c r="D9" s="70" t="s">
+        <v>374</v>
+      </c>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="63"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="55" t="s">
+        <v>358</v>
+      </c>
+      <c r="B10" s="59" t="s">
+        <v>171</v>
+      </c>
+      <c r="C10" s="63" t="s">
+        <v>377</v>
+      </c>
+      <c r="D10" s="70" t="s">
+        <v>378</v>
+      </c>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="63"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="55" t="s">
+        <v>359</v>
+      </c>
+      <c r="B11" s="56" t="s">
+        <v>172</v>
+      </c>
+      <c r="C11" s="65" t="s">
+        <v>391</v>
+      </c>
+      <c r="D11" s="63" t="s">
+        <v>386</v>
+      </c>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="63"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="55" t="s">
+        <v>360</v>
+      </c>
+      <c r="B12" s="56" t="s">
+        <v>173</v>
+      </c>
+      <c r="C12" s="65" t="s">
+        <v>390</v>
+      </c>
+      <c r="D12" s="63" t="s">
+        <v>385</v>
+      </c>
+      <c r="E12" s="63"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="63"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="55" t="s">
+        <v>361</v>
+      </c>
+      <c r="B13" s="57" t="s">
+        <v>174</v>
+      </c>
+      <c r="C13" s="67"/>
+      <c r="D13" s="63" t="s">
+        <v>370</v>
+      </c>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="55" t="s">
+        <v>362</v>
+      </c>
+      <c r="B14" s="57" t="s">
+        <v>176</v>
+      </c>
+      <c r="C14" s="65"/>
+      <c r="D14" s="63" t="s">
+        <v>371</v>
+      </c>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="63"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="55" t="s">
+        <v>363</v>
+      </c>
+      <c r="B15" s="56" t="s">
+        <v>177</v>
+      </c>
+      <c r="C15" s="65" t="s">
+        <v>389</v>
+      </c>
+      <c r="D15" s="65" t="s">
+        <v>384</v>
+      </c>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="55" t="s">
+        <v>242</v>
+      </c>
+      <c r="B16" s="59" t="s">
+        <v>171</v>
+      </c>
+      <c r="C16" s="65" t="s">
+        <v>381</v>
+      </c>
+      <c r="D16" s="83" t="s">
+        <v>382</v>
+      </c>
+      <c r="E16" s="63"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="63"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="60" t="s">
+        <v>178</v>
+      </c>
+      <c r="B17" s="59" t="s">
+        <v>171</v>
+      </c>
+      <c r="C17" s="65" t="s">
+        <v>388</v>
+      </c>
+      <c r="D17" s="65" t="s">
+        <v>383</v>
+      </c>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="55" t="s">
+        <v>243</v>
+      </c>
+      <c r="B18" s="59" t="s">
+        <v>171</v>
+      </c>
+      <c r="C18" s="65" t="s">
+        <v>395</v>
+      </c>
+      <c r="D18" s="63" t="s">
         <v>394</v>
       </c>
-      <c r="D4" s="66" t="s">
-        <v>377</v>
-      </c>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="58" t="s">
-        <v>354</v>
-      </c>
-      <c r="B5" s="80" t="s">
-        <v>284</v>
-      </c>
-      <c r="C5" s="68" t="s">
-        <v>393</v>
-      </c>
-      <c r="D5" s="66" t="s">
-        <v>388</v>
-      </c>
-      <c r="E5" s="66"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="66"/>
-      <c r="H5" s="66"/>
-      <c r="I5" s="66"/>
-      <c r="J5" s="66"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="58" t="s">
-        <v>355</v>
-      </c>
-      <c r="B6" s="60" t="s">
-        <v>167</v>
-      </c>
-      <c r="C6" s="70"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="66"/>
-      <c r="J6" s="66"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="58" t="s">
-        <v>356</v>
-      </c>
-      <c r="B7" s="60" t="s">
-        <v>168</v>
-      </c>
-      <c r="C7" s="68"/>
-      <c r="D7" s="66" t="s">
-        <v>372</v>
-      </c>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="66"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="61" t="s">
-        <v>169</v>
-      </c>
-      <c r="B8" s="59" t="s">
-        <v>165</v>
-      </c>
-      <c r="C8" s="66" t="s">
-        <v>380</v>
-      </c>
-      <c r="D8" s="66" t="s">
-        <v>381</v>
-      </c>
-      <c r="E8" s="66"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="67"/>
-      <c r="J8" s="68"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="58" t="s">
-        <v>357</v>
-      </c>
-      <c r="B9" s="59" t="s">
-        <v>170</v>
-      </c>
-      <c r="C9" s="66" t="s">
-        <v>373</v>
-      </c>
-      <c r="D9" s="73" t="s">
-        <v>374</v>
-      </c>
-      <c r="E9" s="66"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="69"/>
-      <c r="J9" s="66"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="58" t="s">
-        <v>358</v>
-      </c>
-      <c r="B10" s="62" t="s">
-        <v>171</v>
-      </c>
-      <c r="C10" s="66" t="s">
-        <v>378</v>
-      </c>
-      <c r="D10" s="73" t="s">
-        <v>379</v>
-      </c>
-      <c r="E10" s="66"/>
-      <c r="F10" s="66"/>
-      <c r="G10" s="66"/>
-      <c r="H10" s="66"/>
-      <c r="I10" s="66"/>
-      <c r="J10" s="66"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="58" t="s">
-        <v>359</v>
-      </c>
-      <c r="B11" s="59" t="s">
-        <v>172</v>
-      </c>
-      <c r="C11" s="68" t="s">
-        <v>392</v>
-      </c>
-      <c r="D11" s="66" t="s">
-        <v>387</v>
-      </c>
-      <c r="E11" s="66"/>
-      <c r="F11" s="66"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="66"/>
-      <c r="I11" s="66"/>
-      <c r="J11" s="66"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="58" t="s">
-        <v>360</v>
-      </c>
-      <c r="B12" s="59" t="s">
-        <v>173</v>
-      </c>
-      <c r="C12" s="68" t="s">
-        <v>391</v>
-      </c>
-      <c r="D12" s="66" t="s">
-        <v>386</v>
-      </c>
-      <c r="E12" s="66"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="66"/>
-      <c r="J12" s="66"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="58" t="s">
-        <v>361</v>
-      </c>
-      <c r="B13" s="60" t="s">
-        <v>174</v>
-      </c>
-      <c r="C13" s="70"/>
-      <c r="D13" s="66" t="s">
-        <v>370</v>
-      </c>
-      <c r="E13" s="66"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="66"/>
-      <c r="I13" s="66"/>
-      <c r="J13" s="66"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="58" t="s">
-        <v>362</v>
-      </c>
-      <c r="B14" s="60" t="s">
-        <v>176</v>
-      </c>
-      <c r="C14" s="68"/>
-      <c r="D14" s="66" t="s">
-        <v>371</v>
-      </c>
-      <c r="E14" s="66"/>
-      <c r="F14" s="66"/>
-      <c r="G14" s="66"/>
-      <c r="H14" s="66"/>
-      <c r="I14" s="66"/>
-      <c r="J14" s="66"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="58" t="s">
-        <v>363</v>
-      </c>
-      <c r="B15" s="59" t="s">
-        <v>177</v>
-      </c>
-      <c r="C15" s="68" t="s">
-        <v>390</v>
-      </c>
-      <c r="D15" s="68" t="s">
-        <v>385</v>
-      </c>
-      <c r="E15" s="66"/>
-      <c r="F15" s="66"/>
-      <c r="G15" s="66"/>
-      <c r="H15" s="66"/>
-      <c r="I15" s="66"/>
-      <c r="J15" s="66"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="58" t="s">
-        <v>242</v>
-      </c>
-      <c r="B16" s="62" t="s">
-        <v>171</v>
-      </c>
-      <c r="C16" s="68" t="s">
-        <v>382</v>
-      </c>
-      <c r="D16" s="86" t="s">
-        <v>383</v>
-      </c>
-      <c r="E16" s="66"/>
-      <c r="F16" s="66"/>
-      <c r="G16" s="66"/>
-      <c r="H16" s="66"/>
-      <c r="I16" s="66"/>
-      <c r="J16" s="66"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="63" t="s">
-        <v>178</v>
-      </c>
-      <c r="B17" s="62" t="s">
-        <v>171</v>
-      </c>
-      <c r="C17" s="68" t="s">
-        <v>389</v>
-      </c>
-      <c r="D17" s="68" t="s">
-        <v>384</v>
-      </c>
-      <c r="E17" s="66"/>
-      <c r="F17" s="66"/>
-      <c r="G17" s="66"/>
-      <c r="H17" s="66"/>
-      <c r="I17" s="66"/>
-      <c r="J17" s="66"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="58" t="s">
-        <v>243</v>
-      </c>
-      <c r="B18" s="62" t="s">
-        <v>171</v>
-      </c>
-      <c r="C18" s="68" t="s">
-        <v>396</v>
-      </c>
-      <c r="D18" s="66" t="s">
-        <v>395</v>
-      </c>
-      <c r="E18" s="66"/>
-      <c r="F18" s="66"/>
-      <c r="G18" s="66"/>
-      <c r="H18" s="66"/>
-      <c r="I18" s="66"/>
-      <c r="J18" s="66"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="63"/>
+      <c r="H18" s="63"/>
+      <c r="I18" s="63"/>
+      <c r="J18" s="63"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="61" t="s">
+      <c r="A19" s="58" t="s">
         <v>77</v>
       </c>
-      <c r="B19" s="60" t="s">
+      <c r="B19" s="57" t="s">
         <v>179</v>
       </c>
-      <c r="C19" s="70"/>
-      <c r="D19" s="66"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="66"/>
-      <c r="G19" s="66"/>
-      <c r="H19" s="66"/>
-      <c r="I19" s="66"/>
-      <c r="J19" s="66"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="63"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="58" t="s">
+      <c r="A20" s="55" t="s">
         <v>364</v>
       </c>
-      <c r="B20" s="60" t="s">
+      <c r="B20" s="57" t="s">
         <v>180</v>
       </c>
-      <c r="C20" s="70"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="66"/>
-      <c r="I20" s="66"/>
-      <c r="J20" s="66"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="63"/>
+      <c r="H20" s="63"/>
+      <c r="I20" s="63"/>
+      <c r="J20" s="63"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="58" t="s">
+      <c r="A21" s="55" t="s">
         <v>365</v>
       </c>
-      <c r="B21" s="81" t="s">
+      <c r="B21" s="78" t="s">
         <v>181</v>
       </c>
-      <c r="C21" s="70"/>
-      <c r="D21" s="66"/>
-      <c r="E21" s="66"/>
-      <c r="F21" s="66"/>
-      <c r="G21" s="66"/>
-      <c r="H21" s="66"/>
-      <c r="I21" s="66"/>
-      <c r="J21" s="66"/>
+      <c r="C21" s="67"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="63"/>
+      <c r="G21" s="63"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="63"/>
+      <c r="J21" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6041,16 +6051,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="27" t="s">
         <v>182</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="27" t="s">
         <v>183</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="27" t="s">
         <v>184</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="27" t="s">
         <v>185</v>
       </c>
       <c r="E1" s="9" t="s">
@@ -6058,299 +6068,299 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="28" t="s">
         <v>187</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="28" t="s">
         <v>188</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
       <c r="E2" s="9" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="34" t="s">
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="31" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="29" t="s">
         <v>192</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="34" t="s">
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="31" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="34" t="s">
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="31" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="32" t="s">
         <v>193</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="32" t="s">
         <v>194</v>
       </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="36"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="33"/>
     </row>
     <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="32" t="s">
         <v>195</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="32" t="s">
         <v>196</v>
       </c>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="36"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="33"/>
     </row>
     <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="32" t="s">
         <v>197</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="32" t="s">
         <v>198</v>
       </c>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="36"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="33"/>
     </row>
     <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="31"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="36"/>
+      <c r="A9" s="28"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="33"/>
     </row>
     <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="30" t="s">
         <v>199</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="C10" s="33" t="s">
+      <c r="C10" s="30" t="s">
         <v>200</v>
       </c>
-      <c r="D10" s="33" t="s">
+      <c r="D10" s="30" t="s">
         <v>201</v>
       </c>
-      <c r="E10" s="37"/>
+      <c r="E10" s="34"/>
     </row>
     <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="33" t="s">
+      <c r="A11" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="C11" s="33" t="s">
+      <c r="C11" s="30" t="s">
         <v>202</v>
       </c>
-      <c r="D11" s="33" t="s">
+      <c r="D11" s="30" t="s">
         <v>203</v>
       </c>
-      <c r="E11" s="38" t="s">
+      <c r="E11" s="35" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="30" t="s">
         <v>205</v>
       </c>
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="C12" s="33" t="s">
+      <c r="C12" s="30" t="s">
         <v>200</v>
       </c>
-      <c r="D12" s="33" t="s">
+      <c r="D12" s="30" t="s">
         <v>206</v>
       </c>
-      <c r="E12" s="38" t="s">
+      <c r="E12" s="35" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="33" t="s">
+      <c r="A13" s="30" t="s">
         <v>208</v>
       </c>
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="C13" s="33" t="s">
+      <c r="C13" s="30" t="s">
         <v>209</v>
       </c>
-      <c r="D13" s="33" t="s">
+      <c r="D13" s="30" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="31" t="s">
+      <c r="A14" s="28" t="s">
         <v>211</v>
       </c>
-      <c r="B14" s="35" t="s">
+      <c r="B14" s="32" t="s">
         <v>212</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="28" t="s">
         <v>213</v>
       </c>
-      <c r="D14" s="31" t="s">
+      <c r="D14" s="28" t="s">
         <v>214</v>
       </c>
-      <c r="E14" s="36" t="s">
+      <c r="E14" s="33" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="33" t="s">
+      <c r="A15" s="30" t="s">
         <v>216</v>
       </c>
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="C15" s="33" t="s">
+      <c r="C15" s="30" t="s">
         <v>200</v>
       </c>
-      <c r="D15" s="33" t="s">
+      <c r="D15" s="30" t="s">
         <v>201</v>
       </c>
-      <c r="E15" s="37"/>
+      <c r="E15" s="34"/>
     </row>
     <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="33" t="s">
+      <c r="A16" s="30" t="s">
         <v>217</v>
       </c>
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="C16" s="33" t="s">
+      <c r="C16" s="30" t="s">
         <v>218</v>
       </c>
-      <c r="D16" s="33" t="s">
+      <c r="D16" s="30" t="s">
         <v>219</v>
       </c>
-      <c r="E16" s="39" t="s">
+      <c r="E16" s="36" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="33" t="s">
+      <c r="A17" s="30" t="s">
         <v>199</v>
       </c>
-      <c r="B17" s="32" t="s">
+      <c r="B17" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="C17" s="40" t="s">
+      <c r="C17" s="37" t="s">
         <v>221</v>
       </c>
-      <c r="D17" s="33" t="s">
+      <c r="D17" s="30" t="s">
         <v>222</v>
       </c>
-      <c r="E17" s="41" t="s">
+      <c r="E17" s="38" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="32" t="s">
+      <c r="A18" s="29" t="s">
         <v>224</v>
       </c>
-      <c r="B18" s="32" t="s">
+      <c r="B18" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="C18" s="42"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="43"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="40"/>
     </row>
     <row r="19" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="32" t="s">
+      <c r="A19" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="B19" s="44" t="s">
+      <c r="B19" s="41" t="s">
         <v>190</v>
       </c>
-      <c r="C19" s="45" t="s">
+      <c r="C19" s="42" t="s">
         <v>225</v>
       </c>
-      <c r="D19" s="32" t="s">
+      <c r="D19" s="29" t="s">
         <v>226</v>
       </c>
-      <c r="E19" s="46" t="s">
+      <c r="E19" s="43" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="31"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="43"/>
+      <c r="A20" s="28"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="40"/>
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="48" t="s">
+      <c r="A21" s="45" t="s">
         <v>228</v>
       </c>
-      <c r="B21" s="35" t="s">
+      <c r="B21" s="32" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="48" t="s">
+      <c r="A22" s="45" t="s">
         <v>230</v>
       </c>
-      <c r="B22" s="35" t="s">
+      <c r="B22" s="32" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="49"/>
-      <c r="B23" s="32"/>
+      <c r="A23" s="46"/>
+      <c r="B23" s="29"/>
     </row>
     <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="49" t="s">
+      <c r="A24" s="46" t="s">
         <v>231</v>
       </c>
-      <c r="B24" s="32" t="s">
+      <c r="B24" s="29" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="38" t="s">
+      <c r="A25" s="35" t="s">
         <v>232</v>
       </c>
-      <c r="B25" s="32" t="s">
+      <c r="B25" s="29" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="36" t="s">
+      <c r="A26" s="33" t="s">
         <v>233</v>
       </c>
       <c r="B26" s="3" t="s">
@@ -6358,7 +6368,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="36" t="s">
+      <c r="A27" s="33" t="s">
         <v>235</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -6366,7 +6376,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="36" t="s">
+      <c r="A28" s="33" t="s">
         <v>236</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -6374,7 +6384,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="36" t="s">
+      <c r="A29" s="33" t="s">
         <v>237</v>
       </c>
       <c r="B29" s="3" t="s">
@@ -6382,7 +6392,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="36" t="s">
+      <c r="A30" s="33" t="s">
         <v>238</v>
       </c>
       <c r="B30" s="3" t="s">
@@ -6390,7 +6400,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="36" t="s">
+      <c r="A31" s="33" t="s">
         <v>239</v>
       </c>
       <c r="B31" s="3" t="s">
@@ -6398,7 +6408,7 @@
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="36" t="s">
+      <c r="A32" s="33" t="s">
         <v>240</v>
       </c>
       <c r="B32" s="3" t="s">
@@ -7396,128 +7406,128 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="133" t="s">
+      <c r="A1" s="131" t="s">
+        <v>453</v>
+      </c>
+      <c r="B1" s="139"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="73" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="73" t="s">
+        <v>455</v>
+      </c>
+      <c r="C2" s="73" t="s">
         <v>454</v>
       </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="76" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="76" t="s">
-        <v>456</v>
-      </c>
-      <c r="C2" s="76" t="s">
-        <v>455</v>
-      </c>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="122" t="str">
+      <c r="A3" s="119" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1h79fqthLoRJDjhC2klnjbkG8MB2JL2Hy","1A")</f>
         <v>1A</v>
       </c>
-      <c r="B3" s="124" t="s">
-        <v>457</v>
-      </c>
-      <c r="C3" s="126" t="s">
-        <v>459</v>
-      </c>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="99"/>
+      <c r="B3" s="121" t="s">
+        <v>456</v>
+      </c>
+      <c r="C3" s="123" t="s">
+        <v>458</v>
+      </c>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="96"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="122" t="str">
+      <c r="A4" s="119" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1OPl2VmHH1ZeMZjQWNCCkQkA6bOfyIeqj","1B")</f>
         <v>1B</v>
       </c>
-      <c r="B4" s="124" t="s">
-        <v>457</v>
-      </c>
-      <c r="C4" s="126" t="s">
+      <c r="B4" s="121" t="s">
+        <v>456</v>
+      </c>
+      <c r="C4" s="123" t="s">
         <v>48</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
-      <c r="F4" s="118"/>
+      <c r="F4" s="115"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="123" t="str">
+      <c r="A5" s="120" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1_67Lwh4ATjaUkKTpdhqNA2vhhSxMhfoh","1C")</f>
         <v>1C</v>
       </c>
-      <c r="B5" s="125" t="s">
+      <c r="B5" s="122" t="s">
+        <v>457</v>
+      </c>
+      <c r="C5" s="123" t="s">
         <v>458</v>
-      </c>
-      <c r="C5" s="126" t="s">
-        <v>459</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="123" t="str">
+      <c r="A6" s="120" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1RDZathABUe1AxNllos18oBRUGkUw-BAb","1D")</f>
         <v>1D</v>
       </c>
-      <c r="B6" s="124" t="s">
-        <v>457</v>
-      </c>
-      <c r="C6" s="126" t="s">
+      <c r="B6" s="121" t="s">
+        <v>456</v>
+      </c>
+      <c r="C6" s="123" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="87"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="118"/>
+      <c r="D6" s="84"/>
+      <c r="E6" s="84"/>
+      <c r="F6" s="115"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="123" t="str">
+      <c r="A7" s="120" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1B7jEgQfvgjZIKbfW8eR9qm2PDLYRcFFX","1E")</f>
         <v>1E</v>
       </c>
-      <c r="B7" s="125" t="s">
-        <v>458</v>
-      </c>
-      <c r="C7" s="127" t="s">
+      <c r="B7" s="122" t="s">
+        <v>457</v>
+      </c>
+      <c r="C7" s="124" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="87"/>
-      <c r="E7" s="87"/>
+      <c r="D7" s="84"/>
+      <c r="E7" s="84"/>
       <c r="F7" s="9"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="123" t="str">
+      <c r="A8" s="120" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1y8psJsldf8GOPKXdI3_7jAN-0VefmuVb","1F")</f>
         <v>1F</v>
       </c>
-      <c r="B8" s="124" t="s">
-        <v>457</v>
-      </c>
-      <c r="C8" s="126" t="s">
-        <v>459</v>
+      <c r="B8" s="121" t="s">
+        <v>456</v>
+      </c>
+      <c r="C8" s="123" t="s">
+        <v>458</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
-      <c r="F8" s="118"/>
+      <c r="F8" s="115"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="122" t="str">
+      <c r="A9" s="119" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1Ak0bagtonjeBe0T45ml7mh9V5vKH_FoI","1G")</f>
         <v>1G</v>
       </c>
-      <c r="B9" s="125" t="s">
-        <v>458</v>
-      </c>
-      <c r="C9" s="127" t="s">
+      <c r="B9" s="122" t="s">
+        <v>457</v>
+      </c>
+      <c r="C9" s="124" t="s">
         <v>48</v>
       </c>
       <c r="D9" s="9"/>
@@ -7525,29 +7535,29 @@
       <c r="F9" s="9"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="122" t="str">
+      <c r="A10" s="119" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=15tp_vGgbK5-4zzthz0W8wuq2zgKokja6","1H")</f>
         <v>1H</v>
       </c>
-      <c r="B10" s="125" t="s">
+      <c r="B10" s="122" t="s">
+        <v>457</v>
+      </c>
+      <c r="C10" s="123" t="s">
         <v>458</v>
-      </c>
-      <c r="C10" s="126" t="s">
-        <v>459</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
-      <c r="F10" s="118"/>
+      <c r="F10" s="115"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="122" t="str">
+      <c r="A11" s="119" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1EMft8Du0dvrSSlstsShqV16Nnrlb4EO_","1J")</f>
         <v>1J</v>
       </c>
-      <c r="B11" s="124" t="s">
-        <v>457</v>
-      </c>
-      <c r="C11" s="126" t="s">
+      <c r="B11" s="121" t="s">
+        <v>456</v>
+      </c>
+      <c r="C11" s="123" t="s">
         <v>48</v>
       </c>
       <c r="D11" s="9"/>
@@ -7555,119 +7565,119 @@
       <c r="F11" s="9"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="122" t="str">
+      <c r="A12" s="119" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1B-AwkTkUdHQS0dThuP6mM5L_0XIFZ2QS","1K")</f>
         <v>1K</v>
       </c>
-      <c r="B12" s="125" t="s">
+      <c r="B12" s="122" t="s">
+        <v>457</v>
+      </c>
+      <c r="C12" s="123" t="s">
         <v>458</v>
-      </c>
-      <c r="C12" s="126" t="s">
-        <v>459</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
-      <c r="F12" s="118"/>
+      <c r="F12" s="115"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="122" t="str">
+      <c r="A13" s="119" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1XILFfrJerwAeHeN4xKdQH-99VN9y0QS7","2A")</f>
         <v>2A</v>
       </c>
-      <c r="B13" s="125" t="s">
+      <c r="B13" s="122" t="s">
+        <v>457</v>
+      </c>
+      <c r="C13" s="123" t="s">
         <v>458</v>
-      </c>
-      <c r="C13" s="126" t="s">
-        <v>459</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
-      <c r="F13" s="118"/>
+      <c r="F13" s="115"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="122" t="str">
+      <c r="A14" s="119" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1i7lErxBcw13LxRubiAB_0upxTGrTLBvi","2B")</f>
         <v>2B</v>
       </c>
-      <c r="B14" s="125" t="s">
+      <c r="B14" s="122" t="s">
+        <v>457</v>
+      </c>
+      <c r="C14" s="123" t="s">
         <v>458</v>
-      </c>
-      <c r="C14" s="126" t="s">
-        <v>459</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
-      <c r="F14" s="118"/>
+      <c r="F14" s="115"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="122" t="str">
+      <c r="A15" s="119" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1HmSkhlRiy_w_xIcPrlD-Gu21Q1sHCajk","2C")</f>
         <v>2C</v>
       </c>
-      <c r="B15" s="125" t="s">
-        <v>458</v>
-      </c>
-      <c r="C15" s="126" t="s">
+      <c r="B15" s="122" t="s">
+        <v>457</v>
+      </c>
+      <c r="C15" s="123" t="s">
         <v>48</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
-      <c r="F15" s="118"/>
+      <c r="F15" s="115"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="122" t="str">
+      <c r="A16" s="119" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1ih9AM9nSu6WpURV8EnXu6Q1HkOh5dSXM","2D")</f>
         <v>2D</v>
       </c>
-      <c r="B16" s="124" t="s">
-        <v>457</v>
-      </c>
-      <c r="C16" s="126" t="s">
+      <c r="B16" s="121" t="s">
+        <v>456</v>
+      </c>
+      <c r="C16" s="123" t="s">
         <v>48</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
-      <c r="F16" s="118"/>
+      <c r="F16" s="115"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="122" t="str">
+      <c r="A17" s="119" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1ilbwUzFLn2Zr9CQ_v673T9KjSALf_GzB","2E")</f>
         <v>2E</v>
       </c>
-      <c r="B17" s="125" t="s">
+      <c r="B17" s="122" t="s">
+        <v>457</v>
+      </c>
+      <c r="C17" s="123" t="s">
         <v>458</v>
-      </c>
-      <c r="C17" s="126" t="s">
-        <v>459</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
-      <c r="F17" s="118"/>
+      <c r="F17" s="115"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="122" t="str">
+      <c r="A18" s="119" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1H2B7fJmOymk8ZeyITqVgqJIR9EbewGjs","2F")</f>
         <v>2F</v>
       </c>
-      <c r="B18" s="124" t="s">
-        <v>457</v>
-      </c>
-      <c r="C18" s="126" t="s">
+      <c r="B18" s="121" t="s">
+        <v>456</v>
+      </c>
+      <c r="C18" s="123" t="s">
         <v>48</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
-      <c r="F18" s="118"/>
+      <c r="F18" s="115"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="122" t="str">
+      <c r="A19" s="119" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1GXDi1coA9HtIo5F2GTLcPhpAh_IiHrmJ","2G")</f>
         <v>2G</v>
       </c>
-      <c r="B19" s="124" t="s">
-        <v>457</v>
-      </c>
-      <c r="C19" s="126" t="s">
+      <c r="B19" s="121" t="s">
+        <v>456</v>
+      </c>
+      <c r="C19" s="123" t="s">
         <v>48</v>
       </c>
       <c r="D19" s="9"/>
@@ -7675,149 +7685,149 @@
       <c r="F19" s="9"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="122" t="str">
+      <c r="A20" s="119" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=18itspidwzvb4KFHkqj1122TxuhHxILwX","2H")</f>
         <v>2H</v>
       </c>
-      <c r="B20" s="125" t="s">
+      <c r="B20" s="122" t="s">
+        <v>457</v>
+      </c>
+      <c r="C20" s="123" t="s">
         <v>458</v>
       </c>
-      <c r="C20" s="126" t="s">
-        <v>459</v>
-      </c>
-      <c r="D20" s="117"/>
+      <c r="D20" s="114"/>
       <c r="E20" s="9"/>
-      <c r="F20" s="118"/>
+      <c r="F20" s="115"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="122" t="str">
+      <c r="A21" s="119" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=12YgGEJrua5a-agu15lV4vezflw1cOjQ4","2J")</f>
         <v>2J</v>
       </c>
-      <c r="B21" s="125" t="s">
+      <c r="B21" s="122" t="s">
+        <v>457</v>
+      </c>
+      <c r="C21" s="123" t="s">
         <v>458</v>
       </c>
-      <c r="C21" s="126" t="s">
-        <v>459</v>
-      </c>
-      <c r="D21" s="87"/>
-      <c r="E21" s="87"/>
-      <c r="F21" s="118"/>
+      <c r="D21" s="84"/>
+      <c r="E21" s="84"/>
+      <c r="F21" s="115"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="122" t="str">
+      <c r="A22" s="119" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1mdMrKj4CCNPy7BlChSDOU2hQAJONhZzU","2K")</f>
         <v>2K</v>
       </c>
-      <c r="B22" s="125" t="s">
-        <v>458</v>
-      </c>
-      <c r="C22" s="126" t="s">
+      <c r="B22" s="122" t="s">
+        <v>457</v>
+      </c>
+      <c r="C22" s="123" t="s">
         <v>48</v>
       </c>
-      <c r="D22" s="87"/>
-      <c r="E22" s="87"/>
-      <c r="F22" s="118"/>
+      <c r="D22" s="84"/>
+      <c r="E22" s="84"/>
+      <c r="F22" s="115"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="122" t="str">
+      <c r="A23" s="119" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=14mzIl-szkFL_WWXlsFZ9T_x3Mt5RAOn0","2L")</f>
         <v>2L</v>
       </c>
-      <c r="B23" s="125" t="s">
-        <v>458</v>
-      </c>
-      <c r="C23" s="126" t="s">
+      <c r="B23" s="122" t="s">
+        <v>457</v>
+      </c>
+      <c r="C23" s="123" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="87"/>
-      <c r="E23" s="87"/>
-      <c r="F23" s="118"/>
+      <c r="D23" s="84"/>
+      <c r="E23" s="84"/>
+      <c r="F23" s="115"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="122" t="str">
+      <c r="A24" s="119" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1-X_VRvOqUUm_bcQ792NJw8TTxR5Kl3lr","2M")</f>
         <v>2M</v>
       </c>
-      <c r="B24" s="125" t="s">
+      <c r="B24" s="122" t="s">
+        <v>457</v>
+      </c>
+      <c r="C24" s="123" t="s">
         <v>458</v>
       </c>
-      <c r="C24" s="126" t="s">
-        <v>459</v>
-      </c>
-      <c r="D24" s="117"/>
-      <c r="E24" s="87"/>
+      <c r="D24" s="114"/>
+      <c r="E24" s="84"/>
       <c r="F24" s="9"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="122" t="str">
+      <c r="A25" s="119" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1ofYuI7zJYOx0Em5kOgymDe9L2TWaIZ-_","3C")</f>
         <v>3C</v>
       </c>
-      <c r="B25" s="125" t="s">
+      <c r="B25" s="122" t="s">
+        <v>457</v>
+      </c>
+      <c r="C25" s="123" t="s">
         <v>458</v>
       </c>
-      <c r="C25" s="126" t="s">
-        <v>459</v>
-      </c>
-      <c r="D25" s="117"/>
+      <c r="D25" s="114"/>
       <c r="E25" s="9"/>
-      <c r="F25" s="118"/>
+      <c r="F25" s="115"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="122" t="str">
+      <c r="A26" s="119" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1X9eTLHcdh-lSX2OXG4OLDNwPRG5eoz9l","3D")</f>
         <v>3D</v>
       </c>
-      <c r="B26" s="125" t="s">
-        <v>458</v>
-      </c>
-      <c r="C26" s="127" t="s">
+      <c r="B26" s="122" t="s">
+        <v>457</v>
+      </c>
+      <c r="C26" s="124" t="s">
         <v>48</v>
       </c>
-      <c r="D26" s="87"/>
-      <c r="E26" s="87"/>
+      <c r="D26" s="84"/>
+      <c r="E26" s="84"/>
       <c r="F26" s="9"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="122" t="str">
+      <c r="A27" s="119" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1m_ACLfEw9sFFcCd16wQnkI9wa3WI7gK9","3E")</f>
         <v>3E</v>
       </c>
-      <c r="B27" s="124" t="s">
-        <v>457</v>
-      </c>
-      <c r="C27" s="126" t="s">
+      <c r="B27" s="121" t="s">
+        <v>456</v>
+      </c>
+      <c r="C27" s="123" t="s">
         <v>48</v>
       </c>
-      <c r="D27" s="87"/>
-      <c r="E27" s="89"/>
-      <c r="F27" s="118"/>
+      <c r="D27" s="84"/>
+      <c r="E27" s="86"/>
+      <c r="F27" s="115"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="122" t="str">
+      <c r="A28" s="119" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1CIBdXiHhWBrM6LwlY-yGooPill1DRTQ7","3F")</f>
         <v>3F</v>
       </c>
-      <c r="B28" s="126" t="s">
+      <c r="B28" s="123" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="126" t="s">
+      <c r="C28" s="123" t="s">
         <v>48</v>
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
-      <c r="F28" s="117"/>
+      <c r="F28" s="114"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="122" t="str">
+      <c r="A29" s="119" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1c2xmouFbs4cNAvpeHuAdgNreh8kFEC2V","3G")</f>
         <v>3G</v>
       </c>
-      <c r="B29" s="126" t="s">
+      <c r="B29" s="123" t="s">
         <v>48</v>
       </c>
-      <c r="C29" s="126" t="s">
+      <c r="C29" s="123" t="s">
         <v>48</v>
       </c>
       <c r="D29" s="9"/>
@@ -7825,14 +7835,14 @@
       <c r="F29" s="9"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="122" t="str">
+      <c r="A30" s="119" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1t7wkFvS4sGjdMU60zYacdFSrl4pYayl_","3H")</f>
         <v>3H</v>
       </c>
-      <c r="B30" s="126" t="s">
+      <c r="B30" s="123" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="126" t="s">
+      <c r="C30" s="123" t="s">
         <v>48</v>
       </c>
       <c r="D30" s="9"/>
@@ -7840,44 +7850,44 @@
       <c r="F30" s="9"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="122" t="str">
+      <c r="A31" s="119" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1N0-R1KTkpoZjXWmN7r0U_myR9XBY5SDj","3J")</f>
         <v>3J</v>
       </c>
-      <c r="B31" s="124" t="s">
-        <v>457</v>
-      </c>
-      <c r="C31" s="126" t="s">
+      <c r="B31" s="121" t="s">
+        <v>456</v>
+      </c>
+      <c r="C31" s="123" t="s">
         <v>48</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
-      <c r="F31" s="118"/>
+      <c r="F31" s="115"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="122" t="str">
+      <c r="A32" s="119" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=13pmWKIsTMFsSuBTJ-HZb5DVIowIXTS_s","3L")</f>
         <v>3L</v>
       </c>
-      <c r="B32" s="125" t="s">
+      <c r="B32" s="122" t="s">
+        <v>457</v>
+      </c>
+      <c r="C32" s="123" t="s">
         <v>458</v>
-      </c>
-      <c r="C32" s="126" t="s">
-        <v>459</v>
       </c>
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
-      <c r="F32" s="118"/>
+      <c r="F32" s="115"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="122" t="str">
+      <c r="A33" s="119" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=16nGNQgv2r19h9agxYjXmQ8rC4v330dYf","4E")</f>
         <v>4E</v>
       </c>
-      <c r="B33" s="124" t="s">
-        <v>457</v>
-      </c>
-      <c r="C33" s="126" t="s">
+      <c r="B33" s="121" t="s">
+        <v>456</v>
+      </c>
+      <c r="C33" s="123" t="s">
         <v>48</v>
       </c>
       <c r="D33" s="9"/>
@@ -7885,14 +7895,14 @@
       <c r="F33" s="9"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="122" t="str">
+      <c r="A34" s="119" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1bmJc7h6PrfobWHjtATEPhVDZqxi3ORaa","4F")</f>
         <v>4F</v>
       </c>
-      <c r="B34" s="124" t="s">
-        <v>457</v>
-      </c>
-      <c r="C34" s="126" t="s">
+      <c r="B34" s="121" t="s">
+        <v>456</v>
+      </c>
+      <c r="C34" s="123" t="s">
         <v>48</v>
       </c>
       <c r="D34" s="9"/>
@@ -7900,29 +7910,29 @@
       <c r="F34" s="9"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="122" t="str">
+      <c r="A35" s="119" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1nHAP6VZOPX4PWClDeQpEHh4MuzIQchEa","4G")</f>
         <v>4G</v>
       </c>
-      <c r="B35" s="124" t="s">
-        <v>457</v>
-      </c>
-      <c r="C35" s="126" t="s">
-        <v>459</v>
+      <c r="B35" s="121" t="s">
+        <v>456</v>
+      </c>
+      <c r="C35" s="123" t="s">
+        <v>458</v>
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
-      <c r="F35" s="118"/>
+      <c r="F35" s="115"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="122" t="str">
+      <c r="A36" s="119" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1a78u8iOyRFbuJtQlj9X51FknS9EfCDih","4H")</f>
         <v>4H</v>
       </c>
-      <c r="B36" s="124" t="s">
-        <v>457</v>
-      </c>
-      <c r="C36" s="126" t="s">
+      <c r="B36" s="121" t="s">
+        <v>456</v>
+      </c>
+      <c r="C36" s="123" t="s">
         <v>48</v>
       </c>
       <c r="D36" s="9"/>
@@ -7930,124 +7940,124 @@
       <c r="F36" s="9"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="122" t="str">
+      <c r="A37" s="119" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1zZjefBVzFC9BP-YmMKfQZMWa1XGkqomj","4J")</f>
         <v>4J</v>
       </c>
-      <c r="B37" s="125" t="s">
+      <c r="B37" s="122" t="s">
+        <v>457</v>
+      </c>
+      <c r="C37" s="123" t="s">
         <v>458</v>
       </c>
-      <c r="C37" s="126" t="s">
-        <v>459</v>
-      </c>
-      <c r="D37" s="117"/>
+      <c r="D37" s="114"/>
       <c r="E37" s="9"/>
-      <c r="F37" s="118"/>
+      <c r="F37" s="115"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="122" t="str">
+      <c r="A38" s="119" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1qWFlabv0TeVOBvOIJQuvHlR1H3AMOPvN","4K")</f>
         <v>4K</v>
       </c>
-      <c r="B38" s="124" t="s">
-        <v>457</v>
-      </c>
-      <c r="C38" s="126" t="s">
+      <c r="B38" s="121" t="s">
+        <v>456</v>
+      </c>
+      <c r="C38" s="123" t="s">
         <v>48</v>
       </c>
       <c r="D38" s="9"/>
       <c r="E38" s="9"/>
-      <c r="F38" s="118"/>
+      <c r="F38" s="115"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="122" t="str">
+      <c r="A39" s="119" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=176NV2NM9yvfuW1EMU3iBS768FxgmXjUS","4L")</f>
         <v>4L</v>
       </c>
-      <c r="B39" s="124" t="s">
-        <v>457</v>
-      </c>
-      <c r="C39" s="126" t="s">
+      <c r="B39" s="121" t="s">
+        <v>456</v>
+      </c>
+      <c r="C39" s="123" t="s">
         <v>48</v>
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="9"/>
-      <c r="F39" s="118"/>
+      <c r="F39" s="115"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="122" t="str">
+      <c r="A40" s="119" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1cC0P-G66cPSNnf6v6z8opZCNyporo74Y","5B")</f>
         <v>5B</v>
       </c>
-      <c r="B40" s="125" t="s">
-        <v>458</v>
-      </c>
-      <c r="C40" s="127" t="s">
+      <c r="B40" s="122" t="s">
+        <v>457</v>
+      </c>
+      <c r="C40" s="124" t="s">
         <v>48</v>
       </c>
-      <c r="D40" s="117"/>
+      <c r="D40" s="114"/>
       <c r="E40" s="9"/>
-      <c r="F40" s="118"/>
+      <c r="F40" s="115"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="122" t="str">
+      <c r="A41" s="119" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1q_N74b1OZrCze7zuXy5fm0ASU07tWzh3","5C")</f>
         <v>5C</v>
       </c>
-      <c r="B41" s="124" t="s">
-        <v>457</v>
-      </c>
-      <c r="C41" s="126" t="s">
-        <v>459</v>
+      <c r="B41" s="121" t="s">
+        <v>456</v>
+      </c>
+      <c r="C41" s="123" t="s">
+        <v>458</v>
       </c>
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
-      <c r="F41" s="118"/>
+      <c r="F41" s="115"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="122" t="str">
+      <c r="A42" s="119" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1aKSCelAY002Ihje9mdJi7jFh0OB4j8XZ","5E")</f>
         <v>5E</v>
       </c>
-      <c r="B42" s="124" t="s">
-        <v>457</v>
-      </c>
-      <c r="C42" s="126" t="s">
+      <c r="B42" s="121" t="s">
+        <v>456</v>
+      </c>
+      <c r="C42" s="123" t="s">
         <v>48</v>
       </c>
       <c r="D42" s="9"/>
       <c r="E42" s="9"/>
-      <c r="F42" s="118"/>
+      <c r="F42" s="115"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="122" t="str">
+      <c r="A43" s="119" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1ghdX_COwJq4oYlhj-qYPypK_2GlrWyQZ","5G")</f>
         <v>5G</v>
       </c>
-      <c r="B43" s="124" t="s">
-        <v>457</v>
-      </c>
-      <c r="C43" s="126" t="s">
+      <c r="B43" s="121" t="s">
+        <v>456</v>
+      </c>
+      <c r="C43" s="123" t="s">
         <v>48</v>
       </c>
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
-      <c r="F43" s="118"/>
+      <c r="F43" s="115"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="122" t="str">
+      <c r="A44" s="119" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1MR24L4GDI5x861k8SMrgm71xRfm55Hiv","5H")</f>
         <v>5H</v>
       </c>
-      <c r="B44" s="124" t="s">
-        <v>457</v>
-      </c>
-      <c r="C44" s="126" t="s">
+      <c r="B44" s="121" t="s">
+        <v>456</v>
+      </c>
+      <c r="C44" s="123" t="s">
         <v>48</v>
       </c>
       <c r="D44" s="9"/>
       <c r="E44" s="9"/>
-      <c r="F44" s="118"/>
+      <c r="F44" s="115"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8077,392 +8087,392 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="92" t="s">
+        <v>406</v>
+      </c>
+      <c r="B1" s="93" t="s">
+        <v>427</v>
+      </c>
+      <c r="C1" s="93" t="s">
+        <v>426</v>
+      </c>
+      <c r="D1" s="142" t="s">
+        <v>271</v>
+      </c>
+      <c r="E1" s="142"/>
+      <c r="F1" s="102" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="90" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="9"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="141"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+    </row>
+    <row r="3" spans="1:9" s="90" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="91" t="s">
         <v>407</v>
       </c>
-      <c r="B1" s="96" t="s">
+      <c r="B3" s="97">
+        <v>62</v>
+      </c>
+      <c r="C3" s="97">
+        <v>55</v>
+      </c>
+      <c r="D3" s="140" t="s">
         <v>428</v>
       </c>
-      <c r="C1" s="96" t="s">
-        <v>427</v>
-      </c>
-      <c r="D1" s="146" t="s">
-        <v>271</v>
-      </c>
-      <c r="E1" s="146"/>
-      <c r="F1" s="105" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="93" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="9"/>
-      <c r="D2" s="145"/>
-      <c r="E2" s="145"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-    </row>
-    <row r="3" spans="1:9" s="93" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="94" t="s">
+      <c r="E3" s="141"/>
+      <c r="F3" s="94" t="s">
+        <v>261</v>
+      </c>
+      <c r="G3" s="96"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="96"/>
+    </row>
+    <row r="4" spans="1:9" s="90" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="91" t="s">
         <v>408</v>
       </c>
-      <c r="B3" s="100">
-        <v>62</v>
-      </c>
-      <c r="C3" s="100">
-        <v>55</v>
-      </c>
-      <c r="D3" s="144" t="s">
+      <c r="D4" s="141"/>
+      <c r="E4" s="141"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="96"/>
+    </row>
+    <row r="5" spans="1:9" s="90" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="91" t="s">
+        <v>409</v>
+      </c>
+      <c r="B5" s="97">
+        <v>44</v>
+      </c>
+      <c r="C5" s="97">
+        <v>43</v>
+      </c>
+      <c r="D5" s="141"/>
+      <c r="E5" s="141"/>
+      <c r="F5" s="94" t="s">
+        <v>261</v>
+      </c>
+      <c r="G5" s="96"/>
+      <c r="H5" s="99"/>
+      <c r="I5" s="96"/>
+    </row>
+    <row r="6" spans="1:9" s="90" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="91" t="s">
+        <v>410</v>
+      </c>
+      <c r="B6" s="97">
+        <v>47</v>
+      </c>
+      <c r="C6" s="97">
+        <v>52</v>
+      </c>
+      <c r="D6" s="140" t="s">
+        <v>430</v>
+      </c>
+      <c r="E6" s="141"/>
+      <c r="F6" s="94" t="s">
+        <v>261</v>
+      </c>
+      <c r="G6" s="96"/>
+      <c r="H6" s="101"/>
+      <c r="I6" s="96"/>
+    </row>
+    <row r="7" spans="1:9" s="90" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="91" t="s">
+        <v>411</v>
+      </c>
+      <c r="B7" s="97">
+        <v>75</v>
+      </c>
+      <c r="C7" s="97">
+        <v>82</v>
+      </c>
+      <c r="D7" s="140" t="s">
+        <v>430</v>
+      </c>
+      <c r="E7" s="141"/>
+      <c r="F7" s="94" t="s">
+        <v>261</v>
+      </c>
+      <c r="G7" s="96"/>
+      <c r="H7" s="99"/>
+      <c r="I7" s="96"/>
+    </row>
+    <row r="8" spans="1:9" s="90" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="91" t="s">
+        <v>412</v>
+      </c>
+      <c r="B8" s="97">
+        <v>85</v>
+      </c>
+      <c r="C8" s="97">
+        <v>99</v>
+      </c>
+      <c r="D8" s="140" t="s">
         <v>429</v>
       </c>
-      <c r="E3" s="145"/>
-      <c r="F3" s="97" t="s">
+      <c r="E8" s="141"/>
+      <c r="F8" s="95"/>
+      <c r="G8" s="96"/>
+      <c r="H8" s="99"/>
+      <c r="I8" s="96"/>
+    </row>
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="91" t="s">
+        <v>413</v>
+      </c>
+      <c r="B9" s="97">
+        <v>15</v>
+      </c>
+      <c r="C9" s="97">
+        <v>23</v>
+      </c>
+      <c r="D9" s="140" t="s">
+        <v>428</v>
+      </c>
+      <c r="E9" s="141"/>
+      <c r="F9" s="94" t="s">
         <v>261</v>
       </c>
-      <c r="G3" s="99"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="99"/>
-    </row>
-    <row r="4" spans="1:9" s="93" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="94" t="s">
-        <v>409</v>
-      </c>
-      <c r="D4" s="145"/>
-      <c r="E4" s="145"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="102"/>
-      <c r="I4" s="99"/>
-    </row>
-    <row r="5" spans="1:9" s="93" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="94" t="s">
-        <v>410</v>
-      </c>
-      <c r="B5" s="100">
-        <v>44</v>
-      </c>
-      <c r="C5" s="100">
-        <v>43</v>
-      </c>
-      <c r="D5" s="145"/>
-      <c r="E5" s="145"/>
-      <c r="F5" s="97" t="s">
+      <c r="G9" s="96"/>
+      <c r="H9" s="99"/>
+      <c r="I9" s="96"/>
+    </row>
+    <row r="10" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="91" t="s">
+        <v>414</v>
+      </c>
+      <c r="B10" s="98"/>
+      <c r="C10" s="97"/>
+      <c r="D10" s="141"/>
+      <c r="E10" s="141"/>
+      <c r="F10" s="95"/>
+      <c r="G10" s="96"/>
+      <c r="H10" s="99"/>
+      <c r="I10" s="96"/>
+    </row>
+    <row r="11" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="91" t="s">
+        <v>415</v>
+      </c>
+      <c r="B11" s="99"/>
+      <c r="C11" s="97"/>
+      <c r="D11" s="141"/>
+      <c r="E11" s="141"/>
+      <c r="F11" s="95"/>
+      <c r="G11" s="96"/>
+      <c r="H11" s="99"/>
+      <c r="I11" s="96"/>
+    </row>
+    <row r="12" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="91" t="s">
+        <v>416</v>
+      </c>
+      <c r="B12" s="99">
+        <v>57</v>
+      </c>
+      <c r="C12" s="97">
+        <v>59</v>
+      </c>
+      <c r="D12" s="140" t="s">
+        <v>428</v>
+      </c>
+      <c r="E12" s="141"/>
+      <c r="F12" s="94" t="s">
         <v>261</v>
       </c>
-      <c r="G5" s="99"/>
-      <c r="H5" s="102"/>
-      <c r="I5" s="99"/>
-    </row>
-    <row r="6" spans="1:9" s="93" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="94" t="s">
-        <v>411</v>
-      </c>
-      <c r="B6" s="100">
-        <v>47</v>
-      </c>
-      <c r="C6" s="100">
-        <v>52</v>
-      </c>
-      <c r="D6" s="144" t="s">
-        <v>431</v>
-      </c>
-      <c r="E6" s="145"/>
-      <c r="F6" s="97" t="s">
+      <c r="G12" s="96"/>
+      <c r="H12" s="99"/>
+      <c r="I12" s="96"/>
+    </row>
+    <row r="13" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="91" t="s">
+        <v>417</v>
+      </c>
+      <c r="B13" s="99">
+        <v>37</v>
+      </c>
+      <c r="C13" s="97">
+        <v>56</v>
+      </c>
+      <c r="D13" s="140" t="s">
+        <v>430</v>
+      </c>
+      <c r="E13" s="141"/>
+      <c r="F13" s="94" t="s">
         <v>261</v>
       </c>
-      <c r="G6" s="99"/>
-      <c r="H6" s="104"/>
-      <c r="I6" s="99"/>
-    </row>
-    <row r="7" spans="1:9" s="93" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="94" t="s">
-        <v>412</v>
-      </c>
-      <c r="B7" s="100">
-        <v>75</v>
-      </c>
-      <c r="C7" s="100">
-        <v>82</v>
-      </c>
-      <c r="D7" s="144" t="s">
-        <v>431</v>
-      </c>
-      <c r="E7" s="145"/>
-      <c r="F7" s="97" t="s">
+      <c r="G13" s="96"/>
+      <c r="H13" s="101"/>
+      <c r="I13" s="96"/>
+    </row>
+    <row r="14" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="91" t="s">
+        <v>418</v>
+      </c>
+      <c r="B14" s="99">
+        <v>53</v>
+      </c>
+      <c r="C14" s="97">
+        <v>72</v>
+      </c>
+      <c r="D14" s="140" t="s">
+        <v>430</v>
+      </c>
+      <c r="E14" s="141"/>
+      <c r="F14" s="94" t="s">
         <v>261</v>
       </c>
-      <c r="G7" s="99"/>
-      <c r="H7" s="102"/>
-      <c r="I7" s="99"/>
-    </row>
-    <row r="8" spans="1:9" s="93" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="94" t="s">
-        <v>413</v>
-      </c>
-      <c r="B8" s="100">
-        <v>85</v>
-      </c>
-      <c r="C8" s="100">
-        <v>99</v>
-      </c>
-      <c r="D8" s="144" t="s">
+      <c r="G14" s="96"/>
+      <c r="H14" s="99"/>
+      <c r="I14" s="96"/>
+    </row>
+    <row r="15" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="91" t="s">
+        <v>419</v>
+      </c>
+      <c r="B15" s="99">
+        <v>60</v>
+      </c>
+      <c r="C15" s="97">
+        <v>64</v>
+      </c>
+      <c r="D15" s="141"/>
+      <c r="E15" s="141"/>
+      <c r="F15" s="94" t="s">
+        <v>261</v>
+      </c>
+      <c r="G15" s="96"/>
+      <c r="H15" s="99"/>
+      <c r="I15" s="96"/>
+    </row>
+    <row r="16" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="91" t="s">
+        <v>420</v>
+      </c>
+      <c r="B16" s="97"/>
+      <c r="C16" s="97"/>
+      <c r="D16" s="141"/>
+      <c r="E16" s="141"/>
+      <c r="F16" s="95"/>
+      <c r="G16" s="96"/>
+      <c r="H16" s="99"/>
+      <c r="I16" s="96"/>
+    </row>
+    <row r="17" spans="1:9" s="90" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="91" t="s">
+        <v>421</v>
+      </c>
+      <c r="B17" s="97">
+        <v>16</v>
+      </c>
+      <c r="C17" s="97">
+        <v>17</v>
+      </c>
+      <c r="D17" s="141"/>
+      <c r="E17" s="141"/>
+      <c r="F17" s="127" t="s">
+        <v>261</v>
+      </c>
+      <c r="G17" s="96"/>
+      <c r="H17" s="99"/>
+      <c r="I17" s="96"/>
+    </row>
+    <row r="18" spans="1:9" s="90" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="91" t="s">
+        <v>422</v>
+      </c>
+      <c r="B18" s="97"/>
+      <c r="C18" s="97"/>
+      <c r="D18" s="141"/>
+      <c r="E18" s="141"/>
+      <c r="F18" s="95"/>
+      <c r="G18" s="96"/>
+      <c r="H18" s="99"/>
+      <c r="I18" s="96"/>
+    </row>
+    <row r="19" spans="1:9" s="90" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="91" t="s">
+        <v>423</v>
+      </c>
+      <c r="B19" s="97">
+        <v>18</v>
+      </c>
+      <c r="C19" s="97">
+        <v>40</v>
+      </c>
+      <c r="D19" s="140" t="s">
         <v>430</v>
       </c>
-      <c r="E8" s="145"/>
-      <c r="F8" s="98"/>
-      <c r="G8" s="99"/>
-      <c r="H8" s="102"/>
-      <c r="I8" s="99"/>
-    </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="94" t="s">
-        <v>414</v>
-      </c>
-      <c r="B9" s="100">
-        <v>15</v>
-      </c>
-      <c r="C9" s="100">
-        <v>23</v>
-      </c>
-      <c r="D9" s="144" t="s">
-        <v>429</v>
-      </c>
-      <c r="E9" s="145"/>
-      <c r="F9" s="97" t="s">
+      <c r="E19" s="141"/>
+      <c r="F19" s="94" t="s">
         <v>261</v>
       </c>
-      <c r="G9" s="99"/>
-      <c r="H9" s="102"/>
-      <c r="I9" s="99"/>
-    </row>
-    <row r="10" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="94" t="s">
-        <v>415</v>
-      </c>
-      <c r="B10" s="101"/>
-      <c r="C10" s="100"/>
-      <c r="D10" s="145"/>
-      <c r="E10" s="145"/>
-      <c r="F10" s="98"/>
-      <c r="G10" s="99"/>
-      <c r="H10" s="102"/>
-      <c r="I10" s="99"/>
-    </row>
-    <row r="11" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="94" t="s">
-        <v>416</v>
-      </c>
-      <c r="B11" s="102"/>
-      <c r="C11" s="100"/>
-      <c r="D11" s="145"/>
-      <c r="E11" s="145"/>
-      <c r="F11" s="98"/>
-      <c r="G11" s="99"/>
-      <c r="H11" s="102"/>
-      <c r="I11" s="99"/>
-    </row>
-    <row r="12" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="94" t="s">
-        <v>417</v>
-      </c>
-      <c r="B12" s="102">
-        <v>57</v>
-      </c>
-      <c r="C12" s="100">
-        <v>59</v>
-      </c>
-      <c r="D12" s="144" t="s">
-        <v>429</v>
-      </c>
-      <c r="E12" s="145"/>
-      <c r="F12" s="97" t="s">
+      <c r="G19" s="96"/>
+      <c r="H19" s="99"/>
+      <c r="I19" s="96"/>
+    </row>
+    <row r="20" spans="1:9" s="90" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="91" t="s">
+        <v>424</v>
+      </c>
+      <c r="B20" s="97">
+        <v>45</v>
+      </c>
+      <c r="C20" s="97">
+        <v>48</v>
+      </c>
+      <c r="D20" s="140" t="s">
+        <v>430</v>
+      </c>
+      <c r="E20" s="141"/>
+      <c r="F20" s="94" t="s">
         <v>261</v>
       </c>
-      <c r="G12" s="99"/>
-      <c r="H12" s="102"/>
-      <c r="I12" s="99"/>
-    </row>
-    <row r="13" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="94" t="s">
-        <v>418</v>
-      </c>
-      <c r="B13" s="102">
-        <v>37</v>
-      </c>
-      <c r="C13" s="100">
-        <v>56</v>
-      </c>
-      <c r="D13" s="144" t="s">
-        <v>431</v>
-      </c>
-      <c r="E13" s="145"/>
-      <c r="F13" s="97" t="s">
-        <v>261</v>
-      </c>
-      <c r="G13" s="99"/>
-      <c r="H13" s="104"/>
-      <c r="I13" s="99"/>
-    </row>
-    <row r="14" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="94" t="s">
-        <v>419</v>
-      </c>
-      <c r="B14" s="102">
-        <v>53</v>
-      </c>
-      <c r="C14" s="100">
-        <v>72</v>
-      </c>
-      <c r="D14" s="144" t="s">
-        <v>431</v>
-      </c>
-      <c r="E14" s="145"/>
-      <c r="F14" s="97" t="s">
-        <v>261</v>
-      </c>
-      <c r="G14" s="99"/>
-      <c r="H14" s="102"/>
-      <c r="I14" s="99"/>
-    </row>
-    <row r="15" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="94" t="s">
-        <v>420</v>
-      </c>
-      <c r="B15" s="102">
-        <v>60</v>
-      </c>
-      <c r="C15" s="100">
-        <v>64</v>
-      </c>
-      <c r="D15" s="145"/>
-      <c r="E15" s="145"/>
-      <c r="F15" s="97" t="s">
-        <v>261</v>
-      </c>
-      <c r="G15" s="99"/>
-      <c r="H15" s="102"/>
-      <c r="I15" s="99"/>
-    </row>
-    <row r="16" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="94" t="s">
-        <v>421</v>
-      </c>
-      <c r="B16" s="100"/>
-      <c r="C16" s="100"/>
-      <c r="D16" s="145"/>
-      <c r="E16" s="145"/>
-      <c r="F16" s="98"/>
-      <c r="G16" s="99"/>
-      <c r="H16" s="102"/>
-      <c r="I16" s="99"/>
-    </row>
-    <row r="17" spans="1:9" s="93" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="94" t="s">
-        <v>422</v>
-      </c>
-      <c r="B17" s="100">
-        <v>16</v>
-      </c>
-      <c r="C17" s="100">
-        <v>17</v>
-      </c>
-      <c r="D17" s="145"/>
-      <c r="E17" s="145"/>
-      <c r="F17" s="130" t="s">
-        <v>261</v>
-      </c>
-      <c r="G17" s="99"/>
-      <c r="H17" s="102"/>
-      <c r="I17" s="99"/>
-    </row>
-    <row r="18" spans="1:9" s="93" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="94" t="s">
-        <v>423</v>
-      </c>
-      <c r="B18" s="100"/>
-      <c r="C18" s="100"/>
-      <c r="D18" s="145"/>
-      <c r="E18" s="145"/>
-      <c r="F18" s="98"/>
-      <c r="G18" s="99"/>
-      <c r="H18" s="102"/>
-      <c r="I18" s="99"/>
-    </row>
-    <row r="19" spans="1:9" s="93" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="94" t="s">
-        <v>424</v>
-      </c>
-      <c r="B19" s="100">
-        <v>18</v>
-      </c>
-      <c r="C19" s="100">
-        <v>40</v>
-      </c>
-      <c r="D19" s="144" t="s">
-        <v>431</v>
-      </c>
-      <c r="E19" s="145"/>
-      <c r="F19" s="97" t="s">
-        <v>261</v>
-      </c>
-      <c r="G19" s="99"/>
-      <c r="H19" s="102"/>
-      <c r="I19" s="99"/>
-    </row>
-    <row r="20" spans="1:9" s="93" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="94" t="s">
+      <c r="G20" s="96"/>
+      <c r="H20" s="99"/>
+      <c r="I20" s="96"/>
+    </row>
+    <row r="21" spans="1:9" s="90" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="91" t="s">
         <v>425</v>
       </c>
-      <c r="B20" s="100">
-        <v>45</v>
-      </c>
-      <c r="C20" s="100">
-        <v>48</v>
-      </c>
-      <c r="D20" s="144" t="s">
-        <v>431</v>
-      </c>
-      <c r="E20" s="145"/>
-      <c r="F20" s="97" t="s">
-        <v>261</v>
-      </c>
-      <c r="G20" s="99"/>
-      <c r="H20" s="102"/>
-      <c r="I20" s="99"/>
-    </row>
-    <row r="21" spans="1:9" s="93" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="94" t="s">
-        <v>426</v>
-      </c>
-      <c r="B21" s="100">
+      <c r="B21" s="97">
         <v>83</v>
       </c>
-      <c r="C21" s="100">
+      <c r="C21" s="97">
         <v>84</v>
       </c>
-      <c r="D21" s="144" t="s">
-        <v>431</v>
-      </c>
-      <c r="E21" s="145"/>
-      <c r="F21" s="97" t="s">
-        <v>440</v>
-      </c>
-      <c r="G21" s="99"/>
-      <c r="H21" s="102"/>
-      <c r="I21" s="99"/>
+      <c r="D21" s="140" t="s">
+        <v>430</v>
+      </c>
+      <c r="E21" s="141"/>
+      <c r="F21" s="94" t="s">
+        <v>439</v>
+      </c>
+      <c r="G21" s="96"/>
+      <c r="H21" s="99"/>
+      <c r="I21" s="96"/>
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G22" s="99"/>
-      <c r="H22" s="99"/>
-      <c r="I22" s="99"/>
+      <c r="G22" s="96"/>
+      <c r="H22" s="96"/>
+      <c r="I22" s="96"/>
     </row>
     <row r="23" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
         <v>244</v>
       </c>
-      <c r="G23" s="99"/>
-      <c r="H23" s="99"/>
-      <c r="I23" s="99"/>
+      <c r="G23" s="96"/>
+      <c r="H23" s="96"/>
+      <c r="I23" s="96"/>
     </row>
     <row r="25" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
@@ -8546,304 +8556,304 @@
         <v>260</v>
       </c>
     </row>
-    <row r="34" spans="1:5" s="93" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="92"/>
-      <c r="B34" s="92"/>
-      <c r="C34" s="92"/>
-    </row>
-    <row r="35" spans="1:5" s="93" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="92" t="s">
+    <row r="34" spans="1:5" s="90" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="89"/>
+      <c r="B34" s="89"/>
+      <c r="C34" s="89"/>
+    </row>
+    <row r="35" spans="1:5" s="90" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="89" t="s">
         <v>234</v>
       </c>
-      <c r="B35" s="92" t="s">
+      <c r="B35" s="89" t="s">
+        <v>440</v>
+      </c>
+      <c r="C35" s="89" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" s="90" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="89" t="s">
+        <v>234</v>
+      </c>
+      <c r="B36" s="89" t="s">
         <v>441</v>
       </c>
-      <c r="C35" s="92" t="s">
+      <c r="C36" s="89" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" s="90" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="89"/>
+      <c r="B37" s="89"/>
+      <c r="C37" s="89"/>
+    </row>
+    <row r="38" spans="1:5" s="90" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="89" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" s="93" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="92" t="s">
-        <v>234</v>
-      </c>
-      <c r="B36" s="92" t="s">
-        <v>442</v>
-      </c>
-      <c r="C36" s="92" t="s">
+      <c r="B38" s="89" t="s">
+        <v>450</v>
+      </c>
+      <c r="C38" s="89" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" s="90" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="89" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" s="93" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="92"/>
-      <c r="B37" s="92"/>
-      <c r="C37" s="92"/>
-    </row>
-    <row r="38" spans="1:5" s="93" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="92" t="s">
+      <c r="B39" s="89" t="s">
+        <v>451</v>
+      </c>
+      <c r="C39" s="89" t="s">
         <v>444</v>
       </c>
-      <c r="B38" s="92" t="s">
-        <v>451</v>
-      </c>
-      <c r="C38" s="92" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" s="93" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="92" t="s">
+    </row>
+    <row r="40" spans="1:5" s="126" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="125"/>
+      <c r="B40" s="125"/>
+      <c r="C40" s="125"/>
+    </row>
+    <row r="41" spans="1:5" s="126" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="125" t="s">
+        <v>443</v>
+      </c>
+      <c r="B41" s="125" t="s">
+        <v>462</v>
+      </c>
+      <c r="C41" s="125" t="s">
         <v>444</v>
       </c>
-      <c r="B39" s="92" t="s">
-        <v>452</v>
-      </c>
-      <c r="C39" s="92" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" s="129" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="128"/>
-      <c r="B40" s="128"/>
-      <c r="C40" s="128"/>
-    </row>
-    <row r="41" spans="1:5" s="129" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="128" t="s">
+    </row>
+    <row r="42" spans="1:5" s="90" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="125" t="s">
+        <v>443</v>
+      </c>
+      <c r="B42" s="125" t="s">
+        <v>463</v>
+      </c>
+      <c r="C42" s="125" t="s">
         <v>444</v>
       </c>
-      <c r="B41" s="128" t="s">
-        <v>463</v>
-      </c>
-      <c r="C41" s="128" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" s="93" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="128" t="s">
-        <v>444</v>
-      </c>
-      <c r="B42" s="128" t="s">
-        <v>464</v>
-      </c>
-      <c r="C42" s="128" t="s">
-        <v>445</v>
-      </c>
-      <c r="D42" s="129"/>
-    </row>
-    <row r="43" spans="1:5" s="93" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="92"/>
-      <c r="B43" s="92"/>
-      <c r="C43" s="92"/>
+      <c r="D42" s="126"/>
+    </row>
+    <row r="43" spans="1:5" s="90" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="89"/>
+      <c r="B43" s="89"/>
+      <c r="C43" s="89"/>
     </row>
     <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="14" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="107"/>
+      <c r="B46" s="107"/>
+      <c r="C46" s="107"/>
+      <c r="D46" s="103"/>
+      <c r="E46" s="103"/>
+    </row>
+    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="108"/>
+      <c r="B47" s="107"/>
+      <c r="C47" s="109"/>
+      <c r="D47" s="103"/>
+      <c r="E47" s="103"/>
+    </row>
+    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="108" t="s">
+        <v>408</v>
+      </c>
+      <c r="B48" s="107" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="110"/>
-      <c r="B46" s="110"/>
-      <c r="C46" s="110"/>
-      <c r="D46" s="106"/>
-      <c r="E46" s="106"/>
-    </row>
-    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="111"/>
-      <c r="B47" s="110"/>
-      <c r="C47" s="112"/>
-      <c r="D47" s="106"/>
-      <c r="E47" s="106"/>
-    </row>
-    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="111" t="s">
-        <v>409</v>
-      </c>
-      <c r="B48" s="110" t="s">
+      <c r="C48" s="109"/>
+      <c r="D48" s="103"/>
+      <c r="E48" s="103"/>
+    </row>
+    <row r="49" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="110" t="s">
+        <v>408</v>
+      </c>
+      <c r="B49" s="107" t="s">
         <v>447</v>
       </c>
-      <c r="C48" s="112"/>
-      <c r="D48" s="106"/>
-      <c r="E48" s="106"/>
-    </row>
-    <row r="49" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="113" t="s">
-        <v>409</v>
-      </c>
-      <c r="B49" s="110" t="s">
+      <c r="C49" s="107"/>
+      <c r="D49" s="103"/>
+      <c r="E49" s="103"/>
+    </row>
+    <row r="50" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="108"/>
+      <c r="B50" s="107"/>
+      <c r="C50" s="109"/>
+      <c r="D50" s="103"/>
+      <c r="E50" s="103"/>
+    </row>
+    <row r="51" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="108" t="s">
+        <v>414</v>
+      </c>
+      <c r="B51" s="107" t="s">
         <v>448</v>
       </c>
-      <c r="C49" s="110"/>
-      <c r="D49" s="106"/>
-      <c r="E49" s="106"/>
-    </row>
-    <row r="50" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="111"/>
-      <c r="B50" s="110"/>
-      <c r="C50" s="112"/>
-      <c r="D50" s="106"/>
-      <c r="E50" s="106"/>
-    </row>
-    <row r="51" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="111" t="s">
+      <c r="C51" s="109"/>
+      <c r="D51" s="103"/>
+      <c r="E51" s="103"/>
+    </row>
+    <row r="52" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="110" t="s">
+        <v>414</v>
+      </c>
+      <c r="B52" s="107" t="s">
+        <v>449</v>
+      </c>
+      <c r="C52" s="107"/>
+      <c r="D52" s="103"/>
+      <c r="E52" s="103"/>
+    </row>
+    <row r="53" spans="1:5" s="90" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="110"/>
+      <c r="B53" s="107"/>
+      <c r="C53" s="107"/>
+      <c r="D53" s="103"/>
+      <c r="E53" s="103"/>
+    </row>
+    <row r="54" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="108" t="s">
         <v>415</v>
       </c>
-      <c r="B51" s="110" t="s">
-        <v>449</v>
-      </c>
-      <c r="C51" s="112"/>
-      <c r="D51" s="106"/>
-      <c r="E51" s="106"/>
-    </row>
-    <row r="52" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="113" t="s">
+      <c r="B54" s="107" t="s">
+        <v>262</v>
+      </c>
+      <c r="C54" s="107"/>
+      <c r="D54" s="103"/>
+      <c r="E54" s="103"/>
+    </row>
+    <row r="55" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="108" t="s">
         <v>415</v>
       </c>
-      <c r="B52" s="110" t="s">
-        <v>450</v>
-      </c>
-      <c r="C52" s="110"/>
-      <c r="D52" s="106"/>
-      <c r="E52" s="106"/>
-    </row>
-    <row r="53" spans="1:5" s="93" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="113"/>
-      <c r="B53" s="110"/>
-      <c r="C53" s="110"/>
-      <c r="D53" s="106"/>
-      <c r="E53" s="106"/>
-    </row>
-    <row r="54" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="111" t="s">
-        <v>416</v>
-      </c>
-      <c r="B54" s="110" t="s">
-        <v>262</v>
-      </c>
-      <c r="C54" s="110"/>
-      <c r="D54" s="106"/>
-      <c r="E54" s="106"/>
-    </row>
-    <row r="55" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="111" t="s">
-        <v>416</v>
-      </c>
-      <c r="B55" s="110" t="s">
+      <c r="B55" s="107" t="s">
         <v>263</v>
       </c>
-      <c r="C55" s="110"/>
-      <c r="D55" s="106"/>
-      <c r="E55" s="106"/>
+      <c r="C55" s="107"/>
+      <c r="D55" s="103"/>
+      <c r="E55" s="103"/>
     </row>
     <row r="56" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="113"/>
-      <c r="B56" s="110"/>
-      <c r="C56" s="110"/>
-      <c r="D56" s="106"/>
-      <c r="E56" s="106"/>
+      <c r="A56" s="110"/>
+      <c r="B56" s="107"/>
+      <c r="C56" s="107"/>
+      <c r="D56" s="103"/>
+      <c r="E56" s="103"/>
     </row>
     <row r="57" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="108" t="s">
-        <v>421</v>
-      </c>
-      <c r="B57" s="107" t="s">
+      <c r="A57" s="105" t="s">
+        <v>420</v>
+      </c>
+      <c r="B57" s="104" t="s">
         <v>246</v>
       </c>
-      <c r="C57" s="89"/>
-      <c r="D57" s="106"/>
-      <c r="E57" s="106"/>
+      <c r="C57" s="86"/>
+      <c r="D57" s="103"/>
+      <c r="E57" s="103"/>
     </row>
     <row r="58" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="108" t="s">
-        <v>421</v>
-      </c>
-      <c r="B58" s="107" t="s">
+      <c r="A58" s="105" t="s">
+        <v>420</v>
+      </c>
+      <c r="B58" s="104" t="s">
         <v>248</v>
       </c>
-      <c r="C58" s="89"/>
-      <c r="D58" s="106"/>
-      <c r="E58" s="106"/>
+      <c r="C58" s="86"/>
+      <c r="D58" s="103"/>
+      <c r="E58" s="103"/>
     </row>
     <row r="59" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="109"/>
-      <c r="B59" s="106"/>
-      <c r="C59" s="106"/>
-      <c r="D59" s="106"/>
-      <c r="E59" s="106"/>
+      <c r="A59" s="106"/>
+      <c r="B59" s="103"/>
+      <c r="C59" s="103"/>
+      <c r="D59" s="103"/>
+      <c r="E59" s="103"/>
     </row>
     <row r="60" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="108"/>
-      <c r="B60" s="107"/>
-      <c r="C60" s="89"/>
-      <c r="D60" s="106"/>
-      <c r="E60" s="106"/>
+      <c r="A60" s="105"/>
+      <c r="B60" s="104"/>
+      <c r="C60" s="86"/>
+      <c r="D60" s="103"/>
+      <c r="E60" s="103"/>
     </row>
     <row r="61" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="108"/>
-      <c r="B61" s="107"/>
-      <c r="C61" s="89"/>
-      <c r="D61" s="106"/>
-      <c r="E61" s="106"/>
+      <c r="A61" s="105"/>
+      <c r="B61" s="104"/>
+      <c r="C61" s="86"/>
+      <c r="D61" s="103"/>
+      <c r="E61" s="103"/>
     </row>
     <row r="62" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="109"/>
-      <c r="B62" s="106"/>
-      <c r="C62" s="106"/>
-      <c r="D62" s="106"/>
-      <c r="E62" s="106"/>
+      <c r="A62" s="106"/>
+      <c r="B62" s="103"/>
+      <c r="C62" s="103"/>
+      <c r="D62" s="103"/>
+      <c r="E62" s="103"/>
     </row>
     <row r="63" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="108" t="s">
-        <v>423</v>
-      </c>
-      <c r="B63" s="107" t="s">
+      <c r="A63" s="105" t="s">
+        <v>422</v>
+      </c>
+      <c r="B63" s="104" t="s">
         <v>264</v>
       </c>
-      <c r="C63" s="89"/>
-      <c r="D63" s="106"/>
-      <c r="E63" s="106"/>
+      <c r="C63" s="86"/>
+      <c r="D63" s="103"/>
+      <c r="E63" s="103"/>
     </row>
     <row r="64" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="108" t="s">
-        <v>423</v>
-      </c>
-      <c r="B64" s="107" t="s">
+      <c r="A64" s="105" t="s">
+        <v>422</v>
+      </c>
+      <c r="B64" s="104" t="s">
         <v>265</v>
       </c>
-      <c r="C64" s="89"/>
-      <c r="D64" s="106"/>
-      <c r="E64" s="106"/>
+      <c r="C64" s="86"/>
+      <c r="D64" s="103"/>
+      <c r="E64" s="103"/>
     </row>
     <row r="65" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="109"/>
-      <c r="B65" s="106"/>
-      <c r="C65" s="106"/>
-      <c r="D65" s="106"/>
-      <c r="E65" s="106"/>
+      <c r="A65" s="106"/>
+      <c r="B65" s="103"/>
+      <c r="C65" s="103"/>
+      <c r="D65" s="103"/>
+      <c r="E65" s="103"/>
     </row>
     <row r="66" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="109"/>
-      <c r="B66" s="106"/>
-      <c r="C66" s="106"/>
-      <c r="D66" s="106"/>
-      <c r="E66" s="106"/>
+      <c r="A66" s="106"/>
+      <c r="B66" s="103"/>
+      <c r="C66" s="103"/>
+      <c r="D66" s="103"/>
+      <c r="E66" s="103"/>
     </row>
     <row r="67" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="114"/>
-      <c r="B67" s="106"/>
-      <c r="C67" s="106"/>
-      <c r="D67" s="106"/>
-      <c r="E67" s="106"/>
+      <c r="A67" s="111"/>
+      <c r="B67" s="103"/>
+      <c r="C67" s="103"/>
+      <c r="D67" s="103"/>
+      <c r="E67" s="103"/>
     </row>
     <row r="68" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="115"/>
+      <c r="A68" s="112"/>
     </row>
     <row r="69" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="116"/>
+      <c r="A69" s="113"/>
     </row>
     <row r="70" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="116"/>
+      <c r="A70" s="113"/>
     </row>
     <row r="71" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="115"/>
+      <c r="A71" s="112"/>
     </row>
     <row r="72" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="73" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9849,883 +9859,883 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="47" t="s">
         <v>266</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="47" t="s">
         <v>267</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="47" t="s">
         <v>268</v>
       </c>
-      <c r="D1" s="50" t="s">
+      <c r="D1" s="47" t="s">
         <v>269</v>
       </c>
-      <c r="E1" s="50" t="s">
+      <c r="E1" s="47" t="s">
         <v>270</v>
       </c>
-      <c r="F1" s="50" t="s">
+      <c r="F1" s="47" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="47" t="s">
         <v>272</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="47" t="s">
         <v>273</v>
       </c>
-      <c r="D2" s="50" t="s">
+      <c r="D2" s="47" t="s">
         <v>274</v>
       </c>
-      <c r="E2" s="50" t="s">
+      <c r="E2" s="47" t="s">
         <v>275</v>
       </c>
-      <c r="F2" s="50" t="s">
+      <c r="F2" s="47" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="48" t="s">
         <v>277</v>
       </c>
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="48" t="s">
         <v>278</v>
       </c>
-      <c r="D3" s="51" t="s">
+      <c r="D3" s="48" t="s">
         <v>279</v>
       </c>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="47" t="s">
         <v>280</v>
       </c>
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="47" t="s">
         <v>273</v>
       </c>
-      <c r="D4" s="50" t="s">
+      <c r="D4" s="47" t="s">
         <v>274</v>
       </c>
-      <c r="E4" s="50" t="s">
+      <c r="E4" s="47" t="s">
         <v>281</v>
       </c>
-      <c r="F4" s="50" t="s">
+      <c r="F4" s="47" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="47" t="s">
         <v>142</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="47" t="s">
         <v>283</v>
       </c>
-      <c r="C5" s="50" t="s">
+      <c r="C5" s="47" t="s">
         <v>278</v>
       </c>
-      <c r="D5" s="50" t="s">
+      <c r="D5" s="47" t="s">
         <v>274</v>
       </c>
-      <c r="E5" s="50" t="s">
+      <c r="E5" s="47" t="s">
         <v>275</v>
       </c>
-      <c r="F5" s="53"/>
+      <c r="F5" s="50"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="47" t="s">
         <v>284</v>
       </c>
-      <c r="C6" s="50" t="s">
+      <c r="C6" s="47" t="s">
         <v>278</v>
       </c>
-      <c r="D6" s="50" t="s">
+      <c r="D6" s="47" t="s">
         <v>284</v>
       </c>
-      <c r="E6" s="50" t="s">
+      <c r="E6" s="47" t="s">
         <v>285</v>
       </c>
-      <c r="F6" s="53"/>
+      <c r="F6" s="50"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="50" t="s">
+      <c r="A7" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="47" t="s">
         <v>179</v>
       </c>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="47" t="s">
         <v>278</v>
       </c>
-      <c r="D7" s="50" t="s">
+      <c r="D7" s="47" t="s">
         <v>179</v>
       </c>
-      <c r="E7" s="50" t="s">
+      <c r="E7" s="47" t="s">
         <v>285</v>
       </c>
-      <c r="F7" s="53"/>
+      <c r="F7" s="50"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="50" t="s">
+      <c r="A8" s="47" t="s">
         <v>286</v>
       </c>
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="47" t="s">
         <v>287</v>
       </c>
-      <c r="C8" s="50" t="s">
+      <c r="C8" s="47" t="s">
         <v>288</v>
       </c>
-      <c r="D8" s="50" t="s">
+      <c r="D8" s="47" t="s">
         <v>289</v>
       </c>
-      <c r="E8" s="50" t="s">
+      <c r="E8" s="47" t="s">
         <v>290</v>
       </c>
-      <c r="F8" s="50" t="s">
+      <c r="F8" s="47" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="50" t="s">
+      <c r="A9" s="47" t="s">
         <v>106</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="47" t="s">
         <v>292</v>
       </c>
-      <c r="C9" s="50" t="s">
+      <c r="C9" s="47" t="s">
         <v>278</v>
       </c>
-      <c r="D9" s="50" t="s">
+      <c r="D9" s="47" t="s">
         <v>274</v>
       </c>
-      <c r="E9" s="50" t="s">
+      <c r="E9" s="47" t="s">
         <v>275</v>
       </c>
-      <c r="F9" s="53"/>
+      <c r="F9" s="50"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="50" t="s">
+      <c r="A10" s="47" t="s">
         <v>293</v>
       </c>
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="47" t="s">
         <v>181</v>
       </c>
-      <c r="C10" s="50" t="s">
+      <c r="C10" s="47" t="s">
         <v>278</v>
       </c>
-      <c r="D10" s="50" t="s">
+      <c r="D10" s="47" t="s">
         <v>289</v>
       </c>
-      <c r="E10" s="50" t="s">
+      <c r="E10" s="47" t="s">
         <v>275</v>
       </c>
-      <c r="F10" s="50" t="s">
+      <c r="F10" s="47" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="50" t="s">
+      <c r="A11" s="47" t="s">
         <v>295</v>
       </c>
-      <c r="B11" s="50" t="s">
+      <c r="B11" s="47" t="s">
         <v>287</v>
       </c>
-      <c r="C11" s="50" t="s">
+      <c r="C11" s="47" t="s">
         <v>288</v>
       </c>
-      <c r="D11" s="50" t="s">
+      <c r="D11" s="47" t="s">
         <v>274</v>
       </c>
-      <c r="E11" s="50" t="s">
+      <c r="E11" s="47" t="s">
         <v>275</v>
       </c>
-      <c r="F11" s="50" t="s">
+      <c r="F11" s="47" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="50" t="s">
+      <c r="A12" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="B12" s="50" t="s">
+      <c r="B12" s="47" t="s">
         <v>297</v>
       </c>
-      <c r="C12" s="50" t="s">
+      <c r="C12" s="47" t="s">
         <v>278</v>
       </c>
-      <c r="D12" s="50" t="s">
+      <c r="D12" s="47" t="s">
         <v>274</v>
       </c>
-      <c r="E12" s="50" t="s">
+      <c r="E12" s="47" t="s">
         <v>298</v>
       </c>
-      <c r="F12" s="50" t="s">
+      <c r="F12" s="47" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="51" t="s">
+      <c r="A13" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="51" t="s">
+      <c r="B13" s="48" t="s">
         <v>300</v>
       </c>
-      <c r="C13" s="51" t="s">
+      <c r="C13" s="48" t="s">
         <v>278</v>
       </c>
-      <c r="D13" s="51" t="s">
+      <c r="D13" s="48" t="s">
         <v>279</v>
       </c>
-      <c r="E13" s="51" t="s">
+      <c r="E13" s="48" t="s">
         <v>301</v>
       </c>
-      <c r="F13" s="52"/>
+      <c r="F13" s="49"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="50" t="s">
+      <c r="A14" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="B14" s="50" t="s">
+      <c r="B14" s="47" t="s">
         <v>167</v>
       </c>
-      <c r="C14" s="50" t="s">
+      <c r="C14" s="47" t="s">
         <v>278</v>
       </c>
-      <c r="D14" s="50" t="s">
+      <c r="D14" s="47" t="s">
         <v>167</v>
       </c>
-      <c r="E14" s="50" t="s">
+      <c r="E14" s="47" t="s">
         <v>285</v>
       </c>
-      <c r="F14" s="50" t="s">
+      <c r="F14" s="47" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="50" t="s">
+      <c r="A15" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="B15" s="50" t="s">
+      <c r="B15" s="47" t="s">
         <v>303</v>
       </c>
-      <c r="C15" s="50" t="s">
+      <c r="C15" s="47" t="s">
         <v>273</v>
       </c>
-      <c r="D15" s="50" t="s">
+      <c r="D15" s="47" t="s">
         <v>274</v>
       </c>
-      <c r="E15" s="50" t="s">
+      <c r="E15" s="47" t="s">
         <v>275</v>
       </c>
-      <c r="F15" s="53"/>
+      <c r="F15" s="50"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="50" t="s">
+      <c r="A16" s="47" t="s">
         <v>304</v>
       </c>
-      <c r="B16" s="50" t="s">
+      <c r="B16" s="47" t="s">
         <v>287</v>
       </c>
-      <c r="C16" s="50" t="s">
+      <c r="C16" s="47" t="s">
         <v>288</v>
       </c>
-      <c r="D16" s="50" t="s">
+      <c r="D16" s="47" t="s">
         <v>274</v>
       </c>
-      <c r="E16" s="50" t="s">
+      <c r="E16" s="47" t="s">
         <v>275</v>
       </c>
-      <c r="F16" s="50" t="s">
+      <c r="F16" s="47" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="50" t="s">
+      <c r="A17" s="47" t="s">
         <v>93</v>
       </c>
-      <c r="B17" s="50" t="s">
+      <c r="B17" s="47" t="s">
         <v>306</v>
       </c>
-      <c r="C17" s="50" t="s">
+      <c r="C17" s="47" t="s">
         <v>278</v>
       </c>
-      <c r="D17" s="50" t="s">
+      <c r="D17" s="47" t="s">
         <v>307</v>
       </c>
-      <c r="E17" s="50" t="s">
+      <c r="E17" s="47" t="s">
         <v>275</v>
       </c>
-      <c r="F17" s="50" t="s">
+      <c r="F17" s="47" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="50" t="s">
+      <c r="A18" s="47" t="s">
         <v>309</v>
       </c>
-      <c r="B18" s="50" t="s">
+      <c r="B18" s="47" t="s">
         <v>168</v>
       </c>
-      <c r="C18" s="50" t="s">
+      <c r="C18" s="47" t="s">
         <v>310</v>
       </c>
-      <c r="D18" s="50" t="s">
+      <c r="D18" s="47" t="s">
         <v>289</v>
       </c>
-      <c r="E18" s="50" t="s">
+      <c r="E18" s="47" t="s">
         <v>290</v>
       </c>
-      <c r="F18" s="50" t="s">
+      <c r="F18" s="47" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="54" t="s">
+      <c r="A19" s="51" t="s">
         <v>311</v>
       </c>
-      <c r="B19" s="54" t="s">
+      <c r="B19" s="51" t="s">
         <v>287</v>
       </c>
-      <c r="C19" s="54" t="s">
+      <c r="C19" s="51" t="s">
         <v>288</v>
       </c>
-      <c r="D19" s="54" t="s">
+      <c r="D19" s="51" t="s">
         <v>312</v>
       </c>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="52"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="50" t="s">
+      <c r="A20" s="47" t="s">
         <v>140</v>
       </c>
-      <c r="B20" s="50" t="s">
+      <c r="B20" s="47" t="s">
         <v>313</v>
       </c>
-      <c r="C20" s="50" t="s">
+      <c r="C20" s="47" t="s">
         <v>278</v>
       </c>
-      <c r="D20" s="50" t="s">
+      <c r="D20" s="47" t="s">
         <v>274</v>
       </c>
-      <c r="E20" s="50" t="s">
+      <c r="E20" s="47" t="s">
         <v>275</v>
       </c>
-      <c r="F20" s="50" t="s">
+      <c r="F20" s="47" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="50" t="s">
+      <c r="A21" s="47" t="s">
         <v>314</v>
       </c>
-      <c r="B21" s="50" t="s">
+      <c r="B21" s="47" t="s">
         <v>287</v>
       </c>
-      <c r="C21" s="50" t="s">
+      <c r="C21" s="47" t="s">
         <v>288</v>
       </c>
-      <c r="D21" s="50" t="s">
+      <c r="D21" s="47" t="s">
         <v>171</v>
       </c>
-      <c r="E21" s="53"/>
-      <c r="F21" s="53"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="50"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="50" t="s">
+      <c r="A22" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="B22" s="50" t="s">
+      <c r="B22" s="47" t="s">
         <v>315</v>
       </c>
-      <c r="C22" s="50" t="s">
+      <c r="C22" s="47" t="s">
         <v>273</v>
       </c>
-      <c r="D22" s="50" t="s">
+      <c r="D22" s="47" t="s">
         <v>289</v>
       </c>
-      <c r="E22" s="50" t="s">
+      <c r="E22" s="47" t="s">
         <v>316</v>
       </c>
-      <c r="F22" s="50" t="s">
+      <c r="F22" s="47" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="50" t="s">
+      <c r="A23" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="50" t="s">
+      <c r="B23" s="47" t="s">
         <v>317</v>
       </c>
-      <c r="C23" s="50" t="s">
+      <c r="C23" s="47" t="s">
         <v>278</v>
       </c>
-      <c r="D23" s="50" t="s">
+      <c r="D23" s="47" t="s">
         <v>317</v>
       </c>
-      <c r="E23" s="50" t="s">
+      <c r="E23" s="47" t="s">
         <v>285</v>
       </c>
-      <c r="F23" s="50" t="s">
+      <c r="F23" s="47" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="54" t="s">
+      <c r="A24" s="51" t="s">
         <v>319</v>
       </c>
-      <c r="B24" s="54" t="s">
+      <c r="B24" s="51" t="s">
         <v>287</v>
       </c>
-      <c r="C24" s="54" t="s">
+      <c r="C24" s="51" t="s">
         <v>288</v>
       </c>
-      <c r="D24" s="54" t="s">
+      <c r="D24" s="51" t="s">
         <v>312</v>
       </c>
-      <c r="E24" s="55"/>
-      <c r="F24" s="55"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="52"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="50" t="s">
+      <c r="A25" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="50" t="s">
+      <c r="B25" s="47" t="s">
         <v>320</v>
       </c>
-      <c r="C25" s="50" t="s">
+      <c r="C25" s="47" t="s">
         <v>273</v>
       </c>
-      <c r="D25" s="50" t="s">
+      <c r="D25" s="47" t="s">
         <v>274</v>
       </c>
-      <c r="E25" s="50" t="s">
+      <c r="E25" s="47" t="s">
         <v>275</v>
       </c>
-      <c r="F25" s="50" t="s">
+      <c r="F25" s="47" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="50" t="s">
+      <c r="A26" s="47" t="s">
         <v>322</v>
       </c>
-      <c r="B26" s="50" t="s">
+      <c r="B26" s="47" t="s">
         <v>287</v>
       </c>
-      <c r="C26" s="50" t="s">
+      <c r="C26" s="47" t="s">
         <v>288</v>
       </c>
-      <c r="D26" s="50" t="s">
+      <c r="D26" s="47" t="s">
         <v>274</v>
       </c>
-      <c r="E26" s="50" t="s">
+      <c r="E26" s="47" t="s">
         <v>298</v>
       </c>
-      <c r="F26" s="50" t="s">
+      <c r="F26" s="47" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="50" t="s">
+      <c r="A27" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="B27" s="50" t="s">
+      <c r="B27" s="47" t="s">
         <v>174</v>
       </c>
-      <c r="C27" s="50" t="s">
+      <c r="C27" s="47" t="s">
         <v>278</v>
       </c>
-      <c r="D27" s="50" t="s">
+      <c r="D27" s="47" t="s">
         <v>174</v>
       </c>
-      <c r="E27" s="50" t="s">
+      <c r="E27" s="47" t="s">
         <v>285</v>
       </c>
-      <c r="F27" s="53"/>
+      <c r="F27" s="50"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="50" t="s">
+      <c r="A28" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="B28" s="50" t="s">
+      <c r="B28" s="47" t="s">
         <v>324</v>
       </c>
-      <c r="C28" s="50" t="s">
+      <c r="C28" s="47" t="s">
         <v>273</v>
       </c>
-      <c r="D28" s="50" t="s">
+      <c r="D28" s="47" t="s">
         <v>289</v>
       </c>
-      <c r="E28" s="50" t="s">
+      <c r="E28" s="47" t="s">
         <v>298</v>
       </c>
-      <c r="F28" s="50" t="s">
+      <c r="F28" s="47" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="50" t="s">
+      <c r="A29" s="47" t="s">
         <v>326</v>
       </c>
-      <c r="B29" s="50" t="s">
+      <c r="B29" s="47" t="s">
         <v>287</v>
       </c>
-      <c r="C29" s="50" t="s">
+      <c r="C29" s="47" t="s">
         <v>288</v>
       </c>
-      <c r="D29" s="50" t="s">
+      <c r="D29" s="47" t="s">
         <v>274</v>
       </c>
-      <c r="E29" s="50" t="s">
+      <c r="E29" s="47" t="s">
         <v>298</v>
       </c>
-      <c r="F29" s="50" t="s">
+      <c r="F29" s="47" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="50" t="s">
+      <c r="A30" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="B30" s="50" t="s">
+      <c r="B30" s="47" t="s">
         <v>328</v>
       </c>
-      <c r="C30" s="50" t="s">
+      <c r="C30" s="47" t="s">
         <v>278</v>
       </c>
-      <c r="D30" s="50" t="s">
+      <c r="D30" s="47" t="s">
         <v>274</v>
       </c>
-      <c r="E30" s="50" t="s">
+      <c r="E30" s="47" t="s">
         <v>275</v>
       </c>
-      <c r="F30" s="50" t="s">
+      <c r="F30" s="47" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="50" t="s">
+      <c r="A31" s="47" t="s">
         <v>330</v>
       </c>
-      <c r="B31" s="50" t="s">
+      <c r="B31" s="47" t="s">
         <v>287</v>
       </c>
-      <c r="C31" s="50" t="s">
+      <c r="C31" s="47" t="s">
         <v>288</v>
       </c>
-      <c r="D31" s="50" t="s">
+      <c r="D31" s="47" t="s">
         <v>274</v>
       </c>
-      <c r="E31" s="50" t="s">
+      <c r="E31" s="47" t="s">
         <v>275</v>
       </c>
-      <c r="F31" s="50" t="s">
+      <c r="F31" s="47" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="50" t="s">
+      <c r="A32" s="47" t="s">
         <v>134</v>
       </c>
-      <c r="B32" s="50" t="s">
+      <c r="B32" s="47" t="s">
         <v>332</v>
       </c>
-      <c r="C32" s="50" t="s">
+      <c r="C32" s="47" t="s">
         <v>278</v>
       </c>
-      <c r="D32" s="50" t="s">
+      <c r="D32" s="47" t="s">
         <v>332</v>
       </c>
-      <c r="E32" s="50" t="s">
+      <c r="E32" s="47" t="s">
         <v>285</v>
       </c>
-      <c r="F32" s="50" t="s">
+      <c r="F32" s="47" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="50" t="s">
+      <c r="A33" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="B33" s="50" t="s">
+      <c r="B33" s="47" t="s">
         <v>334</v>
       </c>
-      <c r="C33" s="50" t="s">
+      <c r="C33" s="47" t="s">
         <v>273</v>
       </c>
-      <c r="D33" s="50" t="s">
+      <c r="D33" s="47" t="s">
         <v>289</v>
       </c>
-      <c r="E33" s="56"/>
-      <c r="F33" s="50" t="s">
+      <c r="E33" s="53"/>
+      <c r="F33" s="47" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="50" t="s">
+      <c r="A34" s="47" t="s">
         <v>127</v>
       </c>
-      <c r="B34" s="50" t="s">
+      <c r="B34" s="47" t="s">
         <v>336</v>
       </c>
-      <c r="C34" s="50" t="s">
+      <c r="C34" s="47" t="s">
         <v>273</v>
       </c>
-      <c r="D34" s="50" t="s">
+      <c r="D34" s="47" t="s">
         <v>274</v>
       </c>
-      <c r="E34" s="50" t="s">
+      <c r="E34" s="47" t="s">
         <v>275</v>
       </c>
-      <c r="F34" s="53"/>
+      <c r="F34" s="50"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="50" t="s">
+      <c r="A35" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="B35" s="50" t="s">
+      <c r="B35" s="47" t="s">
         <v>337</v>
       </c>
-      <c r="C35" s="50" t="s">
+      <c r="C35" s="47" t="s">
         <v>278</v>
       </c>
-      <c r="D35" s="50" t="s">
+      <c r="D35" s="47" t="s">
         <v>274</v>
       </c>
-      <c r="E35" s="50" t="s">
+      <c r="E35" s="47" t="s">
         <v>275</v>
       </c>
-      <c r="F35" s="50" t="s">
+      <c r="F35" s="47" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="50" t="s">
+      <c r="A36" s="47" t="s">
         <v>100</v>
       </c>
-      <c r="B36" s="50" t="s">
+      <c r="B36" s="47" t="s">
         <v>338</v>
       </c>
-      <c r="C36" s="50" t="s">
+      <c r="C36" s="47" t="s">
         <v>273</v>
       </c>
-      <c r="D36" s="50" t="s">
+      <c r="D36" s="47" t="s">
         <v>274</v>
       </c>
-      <c r="E36" s="50" t="s">
+      <c r="E36" s="47" t="s">
         <v>275</v>
       </c>
-      <c r="F36" s="50" t="s">
+      <c r="F36" s="47" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="54" t="s">
+      <c r="A37" s="51" t="s">
         <v>340</v>
       </c>
-      <c r="B37" s="54" t="s">
+      <c r="B37" s="51" t="s">
         <v>287</v>
       </c>
-      <c r="C37" s="54" t="s">
+      <c r="C37" s="51" t="s">
         <v>288</v>
       </c>
-      <c r="D37" s="54" t="s">
+      <c r="D37" s="51" t="s">
         <v>312</v>
       </c>
-      <c r="E37" s="55"/>
-      <c r="F37" s="55"/>
+      <c r="E37" s="52"/>
+      <c r="F37" s="52"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="50" t="s">
+      <c r="A38" s="47" t="s">
         <v>115</v>
       </c>
-      <c r="B38" s="50" t="s">
+      <c r="B38" s="47" t="s">
         <v>341</v>
       </c>
-      <c r="C38" s="50" t="s">
+      <c r="C38" s="47" t="s">
         <v>278</v>
       </c>
-      <c r="D38" s="50" t="s">
+      <c r="D38" s="47" t="s">
         <v>341</v>
       </c>
-      <c r="E38" s="50" t="s">
+      <c r="E38" s="47" t="s">
         <v>285</v>
       </c>
-      <c r="F38" s="50" t="s">
+      <c r="F38" s="47" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="50" t="s">
+      <c r="A39" s="47" t="s">
         <v>343</v>
       </c>
-      <c r="B39" s="50" t="s">
+      <c r="B39" s="47" t="s">
         <v>287</v>
       </c>
-      <c r="C39" s="50" t="s">
+      <c r="C39" s="47" t="s">
         <v>288</v>
       </c>
-      <c r="D39" s="50" t="s">
+      <c r="D39" s="47" t="s">
         <v>274</v>
       </c>
-      <c r="E39" s="50" t="s">
+      <c r="E39" s="47" t="s">
         <v>275</v>
       </c>
-      <c r="F39" s="50" t="s">
+      <c r="F39" s="47" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="50" t="s">
+      <c r="A40" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="B40" s="50" t="s">
+      <c r="B40" s="47" t="s">
         <v>345</v>
       </c>
-      <c r="C40" s="50" t="s">
+      <c r="C40" s="47" t="s">
         <v>278</v>
       </c>
-      <c r="D40" s="50" t="s">
+      <c r="D40" s="47" t="s">
         <v>274</v>
       </c>
-      <c r="E40" s="50" t="s">
+      <c r="E40" s="47" t="s">
         <v>275</v>
       </c>
-      <c r="F40" s="53"/>
+      <c r="F40" s="50"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="50" t="s">
+      <c r="A41" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="B41" s="50" t="s">
+      <c r="B41" s="47" t="s">
         <v>180</v>
       </c>
-      <c r="C41" s="50" t="s">
+      <c r="C41" s="47" t="s">
         <v>278</v>
       </c>
-      <c r="D41" s="50" t="s">
+      <c r="D41" s="47" t="s">
         <v>180</v>
       </c>
-      <c r="E41" s="50" t="s">
+      <c r="E41" s="47" t="s">
         <v>285</v>
       </c>
-      <c r="F41" s="50" t="s">
+      <c r="F41" s="47" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="50" t="s">
+      <c r="A42" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="B42" s="50" t="s">
+      <c r="B42" s="47" t="s">
         <v>347</v>
       </c>
-      <c r="C42" s="50" t="s">
+      <c r="C42" s="47" t="s">
         <v>273</v>
       </c>
-      <c r="D42" s="50" t="s">
+      <c r="D42" s="47" t="s">
         <v>289</v>
       </c>
-      <c r="E42" s="50" t="s">
+      <c r="E42" s="47" t="s">
         <v>316</v>
       </c>
-      <c r="F42" s="50" t="s">
+      <c r="F42" s="47" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="50" t="s">
+      <c r="A43" s="47" t="s">
         <v>124</v>
       </c>
-      <c r="B43" s="50" t="s">
+      <c r="B43" s="47" t="s">
         <v>348</v>
       </c>
-      <c r="C43" s="50" t="s">
+      <c r="C43" s="47" t="s">
         <v>273</v>
       </c>
-      <c r="D43" s="50" t="s">
+      <c r="D43" s="47" t="s">
         <v>274</v>
       </c>
-      <c r="E43" s="50" t="s">
+      <c r="E43" s="47" t="s">
         <v>275</v>
       </c>
-      <c r="F43" s="53"/>
+      <c r="F43" s="50"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="50" t="s">
+      <c r="A44" s="47" t="s">
         <v>349</v>
       </c>
-      <c r="B44" s="50" t="s">
+      <c r="B44" s="47" t="s">
         <v>287</v>
       </c>
-      <c r="C44" s="50" t="s">
+      <c r="C44" s="47" t="s">
         <v>288</v>
       </c>
-      <c r="D44" s="50" t="s">
+      <c r="D44" s="47" t="s">
         <v>274</v>
       </c>
-      <c r="E44" s="50" t="s">
+      <c r="E44" s="47" t="s">
         <v>275</v>
       </c>
-      <c r="F44" s="53"/>
+      <c r="F44" s="50"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="50" t="s">
+      <c r="A45" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="B45" s="50" t="s">
+      <c r="B45" s="47" t="s">
         <v>350</v>
       </c>
-      <c r="C45" s="50" t="s">
+      <c r="C45" s="47" t="s">
         <v>273</v>
       </c>
-      <c r="D45" s="50" t="s">
+      <c r="D45" s="47" t="s">
         <v>274</v>
       </c>
-      <c r="E45" s="50" t="s">
+      <c r="E45" s="47" t="s">
         <v>275</v>
       </c>
-      <c r="F45" s="50" t="s">
+      <c r="F45" s="47" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="50" t="s">
+      <c r="A46" s="47" t="s">
         <v>130</v>
       </c>
-      <c r="B46" s="50" t="s">
+      <c r="B46" s="47" t="s">
         <v>352</v>
       </c>
-      <c r="C46" s="50" t="s">
+      <c r="C46" s="47" t="s">
         <v>278</v>
       </c>
-      <c r="D46" s="50" t="s">
+      <c r="D46" s="47" t="s">
         <v>274</v>
       </c>
-      <c r="E46" s="50" t="s">
+      <c r="E46" s="47" t="s">
         <v>275</v>
       </c>
-      <c r="F46" s="50" t="s">
+      <c r="F46" s="47" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="57"/>
+      <c r="A47" s="54"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Antonio-Feed/__FeedPartsInventory.xlsx
+++ b/Antonio-Feed/__FeedPartsInventory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pollak/Documents/GitHub/Front-Page/Antonio-Feed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F8D2B5E-A078-F044-AE70-C21179064AA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6556D533-F16A-FE42-87A8-823B55824901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="69800" yWindow="460" windowWidth="35840" windowHeight="19760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2189,6 +2189,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="19" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2200,6 +2206,16 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2212,29 +2228,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2480,25 +2480,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="131" t="s">
+      <c r="A1" s="135" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="132"/>
-      <c r="G1" s="132"/>
-      <c r="H1" s="133"/>
-      <c r="I1" s="134"/>
-      <c r="J1" s="134"/>
-      <c r="K1" s="133"/>
-      <c r="L1" s="134"/>
-      <c r="M1" s="134"/>
-      <c r="N1" s="134"/>
-      <c r="O1" s="134"/>
-      <c r="P1" s="134"/>
-      <c r="Q1" s="134"/>
+      <c r="B1" s="136"/>
+      <c r="C1" s="136"/>
+      <c r="D1" s="136"/>
+      <c r="E1" s="136"/>
+      <c r="F1" s="136"/>
+      <c r="G1" s="136"/>
+      <c r="H1" s="137"/>
+      <c r="I1" s="138"/>
+      <c r="J1" s="138"/>
+      <c r="K1" s="137"/>
+      <c r="L1" s="138"/>
+      <c r="M1" s="138"/>
+      <c r="N1" s="138"/>
+      <c r="O1" s="138"/>
+      <c r="P1" s="138"/>
+      <c r="Q1" s="138"/>
     </row>
     <row r="2" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -3796,38 +3796,38 @@
       <c r="A58" s="9"/>
     </row>
     <row r="59" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="135" t="s">
+      <c r="A59" s="139" t="s">
         <v>157</v>
       </c>
-      <c r="B59" s="130"/>
-      <c r="C59" s="130"/>
+      <c r="B59" s="134"/>
+      <c r="C59" s="134"/>
     </row>
     <row r="60" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="12"/>
     </row>
     <row r="61" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="129" t="s">
+      <c r="A61" s="133" t="s">
         <v>149</v>
       </c>
-      <c r="B61" s="130"/>
-      <c r="C61" s="129" t="s">
+      <c r="B61" s="134"/>
+      <c r="C61" s="133" t="s">
         <v>158</v>
       </c>
-      <c r="D61" s="130"/>
-      <c r="E61" s="130"/>
-      <c r="F61" s="130"/>
+      <c r="D61" s="134"/>
+      <c r="E61" s="134"/>
+      <c r="F61" s="134"/>
     </row>
     <row r="62" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="129" t="s">
+      <c r="A62" s="133" t="s">
         <v>159</v>
       </c>
-      <c r="B62" s="130"/>
-      <c r="C62" s="129" t="s">
+      <c r="B62" s="134"/>
+      <c r="C62" s="133" t="s">
         <v>160</v>
       </c>
-      <c r="D62" s="130"/>
-      <c r="E62" s="130"/>
-      <c r="F62" s="130"/>
+      <c r="D62" s="134"/>
+      <c r="E62" s="134"/>
+      <c r="F62" s="134"/>
     </row>
     <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="64" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4808,52 +4808,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="143" t="s">
+      <c r="A1" s="140" t="s">
         <v>161</v>
       </c>
-      <c r="B1" s="144"/>
-      <c r="C1" s="145" t="s">
+      <c r="B1" s="141"/>
+      <c r="C1" s="142" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="146"/>
-      <c r="E1" s="146"/>
-      <c r="F1" s="146"/>
-      <c r="G1" s="146"/>
-      <c r="H1" s="146"/>
-      <c r="I1" s="146"/>
-      <c r="J1" s="146"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
+      <c r="G1" s="143"/>
+      <c r="H1" s="143"/>
+      <c r="I1" s="143"/>
+      <c r="J1" s="143"/>
       <c r="K1" s="79"/>
       <c r="L1" s="79"/>
     </row>
     <row r="2" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="147" t="s">
+      <c r="A2" s="129" t="s">
         <v>162</v>
       </c>
-      <c r="B2" s="147" t="s">
+      <c r="B2" s="129" t="s">
         <v>163</v>
       </c>
-      <c r="C2" s="147" t="s">
+      <c r="C2" s="129" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="148" t="s">
+      <c r="D2" s="130" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="147" t="s">
+      <c r="E2" s="129" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="147" t="s">
+      <c r="F2" s="129" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="147" t="s">
+      <c r="G2" s="129" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="147" t="s">
+      <c r="H2" s="129" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="149" t="s">
+      <c r="I2" s="131" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="149" t="s">
+      <c r="J2" s="131" t="s">
         <v>164</v>
       </c>
       <c r="K2" s="15" t="s">
@@ -5279,7 +5279,7 @@
       <c r="I14" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="J14" s="150" t="s">
+      <c r="J14" s="132" t="s">
         <v>175</v>
       </c>
       <c r="K14" s="100" t="s">
@@ -5440,7 +5440,7 @@
         <v>5C4-017</v>
       </c>
       <c r="B19" s="128" t="s">
-        <v>165</v>
+        <v>277</v>
       </c>
       <c r="C19" s="21" t="s">
         <v>28</v>
@@ -5607,20 +5607,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="136" t="s">
+      <c r="A1" s="144" t="s">
         <v>161</v>
       </c>
-      <c r="B1" s="137"/>
-      <c r="C1" s="136" t="s">
+      <c r="B1" s="145"/>
+      <c r="C1" s="144" t="s">
         <v>366</v>
       </c>
-      <c r="D1" s="138"/>
-      <c r="E1" s="138"/>
-      <c r="F1" s="138"/>
-      <c r="G1" s="138"/>
-      <c r="H1" s="138"/>
-      <c r="I1" s="138"/>
-      <c r="J1" s="137"/>
+      <c r="D1" s="146"/>
+      <c r="E1" s="146"/>
+      <c r="F1" s="146"/>
+      <c r="G1" s="146"/>
+      <c r="H1" s="146"/>
+      <c r="I1" s="146"/>
+      <c r="J1" s="145"/>
     </row>
     <row r="2" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="68" t="s">
@@ -7406,11 +7406,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="131" t="s">
+      <c r="A1" s="135" t="s">
         <v>453</v>
       </c>
-      <c r="B1" s="139"/>
-      <c r="C1" s="139"/>
+      <c r="B1" s="147"/>
+      <c r="C1" s="147"/>
       <c r="D1" s="118"/>
       <c r="E1" s="118"/>
       <c r="F1" s="118"/>
@@ -8096,18 +8096,18 @@
       <c r="C1" s="93" t="s">
         <v>426</v>
       </c>
-      <c r="D1" s="142" t="s">
+      <c r="D1" s="148" t="s">
         <v>271</v>
       </c>
-      <c r="E1" s="142"/>
+      <c r="E1" s="148"/>
       <c r="F1" s="102" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="90" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="9"/>
-      <c r="D2" s="141"/>
-      <c r="E2" s="141"/>
+      <c r="D2" s="150"/>
+      <c r="E2" s="150"/>
       <c r="G2" s="96"/>
       <c r="H2" s="96"/>
       <c r="I2" s="96"/>
@@ -8122,10 +8122,10 @@
       <c r="C3" s="97">
         <v>55</v>
       </c>
-      <c r="D3" s="140" t="s">
+      <c r="D3" s="149" t="s">
         <v>428</v>
       </c>
-      <c r="E3" s="141"/>
+      <c r="E3" s="150"/>
       <c r="F3" s="94" t="s">
         <v>261</v>
       </c>
@@ -8137,8 +8137,8 @@
       <c r="A4" s="91" t="s">
         <v>408</v>
       </c>
-      <c r="D4" s="141"/>
-      <c r="E4" s="141"/>
+      <c r="D4" s="150"/>
+      <c r="E4" s="150"/>
       <c r="F4" s="95"/>
       <c r="G4" s="96"/>
       <c r="H4" s="99"/>
@@ -8154,8 +8154,8 @@
       <c r="C5" s="97">
         <v>43</v>
       </c>
-      <c r="D5" s="141"/>
-      <c r="E5" s="141"/>
+      <c r="D5" s="150"/>
+      <c r="E5" s="150"/>
       <c r="F5" s="94" t="s">
         <v>261</v>
       </c>
@@ -8173,10 +8173,10 @@
       <c r="C6" s="97">
         <v>52</v>
       </c>
-      <c r="D6" s="140" t="s">
+      <c r="D6" s="149" t="s">
         <v>430</v>
       </c>
-      <c r="E6" s="141"/>
+      <c r="E6" s="150"/>
       <c r="F6" s="94" t="s">
         <v>261</v>
       </c>
@@ -8194,10 +8194,10 @@
       <c r="C7" s="97">
         <v>82</v>
       </c>
-      <c r="D7" s="140" t="s">
+      <c r="D7" s="149" t="s">
         <v>430</v>
       </c>
-      <c r="E7" s="141"/>
+      <c r="E7" s="150"/>
       <c r="F7" s="94" t="s">
         <v>261</v>
       </c>
@@ -8215,10 +8215,10 @@
       <c r="C8" s="97">
         <v>99</v>
       </c>
-      <c r="D8" s="140" t="s">
+      <c r="D8" s="149" t="s">
         <v>429</v>
       </c>
-      <c r="E8" s="141"/>
+      <c r="E8" s="150"/>
       <c r="F8" s="95"/>
       <c r="G8" s="96"/>
       <c r="H8" s="99"/>
@@ -8234,10 +8234,10 @@
       <c r="C9" s="97">
         <v>23</v>
       </c>
-      <c r="D9" s="140" t="s">
+      <c r="D9" s="149" t="s">
         <v>428</v>
       </c>
-      <c r="E9" s="141"/>
+      <c r="E9" s="150"/>
       <c r="F9" s="94" t="s">
         <v>261</v>
       </c>
@@ -8251,8 +8251,8 @@
       </c>
       <c r="B10" s="98"/>
       <c r="C10" s="97"/>
-      <c r="D10" s="141"/>
-      <c r="E10" s="141"/>
+      <c r="D10" s="150"/>
+      <c r="E10" s="150"/>
       <c r="F10" s="95"/>
       <c r="G10" s="96"/>
       <c r="H10" s="99"/>
@@ -8264,8 +8264,8 @@
       </c>
       <c r="B11" s="99"/>
       <c r="C11" s="97"/>
-      <c r="D11" s="141"/>
-      <c r="E11" s="141"/>
+      <c r="D11" s="150"/>
+      <c r="E11" s="150"/>
       <c r="F11" s="95"/>
       <c r="G11" s="96"/>
       <c r="H11" s="99"/>
@@ -8281,10 +8281,10 @@
       <c r="C12" s="97">
         <v>59</v>
       </c>
-      <c r="D12" s="140" t="s">
+      <c r="D12" s="149" t="s">
         <v>428</v>
       </c>
-      <c r="E12" s="141"/>
+      <c r="E12" s="150"/>
       <c r="F12" s="94" t="s">
         <v>261</v>
       </c>
@@ -8302,10 +8302,10 @@
       <c r="C13" s="97">
         <v>56</v>
       </c>
-      <c r="D13" s="140" t="s">
+      <c r="D13" s="149" t="s">
         <v>430</v>
       </c>
-      <c r="E13" s="141"/>
+      <c r="E13" s="150"/>
       <c r="F13" s="94" t="s">
         <v>261</v>
       </c>
@@ -8323,10 +8323,10 @@
       <c r="C14" s="97">
         <v>72</v>
       </c>
-      <c r="D14" s="140" t="s">
+      <c r="D14" s="149" t="s">
         <v>430</v>
       </c>
-      <c r="E14" s="141"/>
+      <c r="E14" s="150"/>
       <c r="F14" s="94" t="s">
         <v>261</v>
       </c>
@@ -8344,8 +8344,8 @@
       <c r="C15" s="97">
         <v>64</v>
       </c>
-      <c r="D15" s="141"/>
-      <c r="E15" s="141"/>
+      <c r="D15" s="150"/>
+      <c r="E15" s="150"/>
       <c r="F15" s="94" t="s">
         <v>261</v>
       </c>
@@ -8359,8 +8359,8 @@
       </c>
       <c r="B16" s="97"/>
       <c r="C16" s="97"/>
-      <c r="D16" s="141"/>
-      <c r="E16" s="141"/>
+      <c r="D16" s="150"/>
+      <c r="E16" s="150"/>
       <c r="F16" s="95"/>
       <c r="G16" s="96"/>
       <c r="H16" s="99"/>
@@ -8376,8 +8376,8 @@
       <c r="C17" s="97">
         <v>17</v>
       </c>
-      <c r="D17" s="141"/>
-      <c r="E17" s="141"/>
+      <c r="D17" s="150"/>
+      <c r="E17" s="150"/>
       <c r="F17" s="127" t="s">
         <v>261</v>
       </c>
@@ -8391,8 +8391,8 @@
       </c>
       <c r="B18" s="97"/>
       <c r="C18" s="97"/>
-      <c r="D18" s="141"/>
-      <c r="E18" s="141"/>
+      <c r="D18" s="150"/>
+      <c r="E18" s="150"/>
       <c r="F18" s="95"/>
       <c r="G18" s="96"/>
       <c r="H18" s="99"/>
@@ -8408,10 +8408,10 @@
       <c r="C19" s="97">
         <v>40</v>
       </c>
-      <c r="D19" s="140" t="s">
+      <c r="D19" s="149" t="s">
         <v>430</v>
       </c>
-      <c r="E19" s="141"/>
+      <c r="E19" s="150"/>
       <c r="F19" s="94" t="s">
         <v>261</v>
       </c>
@@ -8429,10 +8429,10 @@
       <c r="C20" s="97">
         <v>48</v>
       </c>
-      <c r="D20" s="140" t="s">
+      <c r="D20" s="149" t="s">
         <v>430</v>
       </c>
-      <c r="E20" s="141"/>
+      <c r="E20" s="150"/>
       <c r="F20" s="94" t="s">
         <v>261</v>
       </c>
@@ -8450,10 +8450,10 @@
       <c r="C21" s="97">
         <v>84</v>
       </c>
-      <c r="D21" s="140" t="s">
+      <c r="D21" s="149" t="s">
         <v>430</v>
       </c>
-      <c r="E21" s="141"/>
+      <c r="E21" s="150"/>
       <c r="F21" s="94" t="s">
         <v>439</v>
       </c>
@@ -9809,11 +9809,6 @@
     <row r="1023" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="D2:E2"/>
@@ -9830,6 +9825,11 @@
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Antonio-Feed/__FeedPartsInventory.xlsx
+++ b/Antonio-Feed/__FeedPartsInventory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pollak/Documents/GitHub/Front-Page/Antonio-Feed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6556D533-F16A-FE42-87A8-823B55824901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58441F2F-390A-F748-840E-E88B0ADD492B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="69800" yWindow="460" windowWidth="35840" windowHeight="19760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="65760" yWindow="460" windowWidth="35840" windowHeight="19760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parts At ATA" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="466">
   <si>
     <t>Antenna Inventory</t>
   </si>
@@ -840,12 +840,6 @@
   </si>
   <si>
     <t>sn0082A</t>
-  </si>
-  <si>
-    <t>sn0024A</t>
-  </si>
-  <si>
-    <t>sn0073A</t>
   </si>
   <si>
     <t>PAX Box Number</t>
@@ -1733,14 +1727,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFF9900"/>
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FF00FF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -2188,11 +2182,10 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -2206,14 +2199,14 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2237,6 +2230,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2480,25 +2474,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="135" t="s">
+      <c r="A1" s="134" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="136"/>
-      <c r="C1" s="136"/>
-      <c r="D1" s="136"/>
-      <c r="E1" s="136"/>
-      <c r="F1" s="136"/>
-      <c r="G1" s="136"/>
-      <c r="H1" s="137"/>
-      <c r="I1" s="138"/>
-      <c r="J1" s="138"/>
-      <c r="K1" s="137"/>
-      <c r="L1" s="138"/>
-      <c r="M1" s="138"/>
-      <c r="N1" s="138"/>
-      <c r="O1" s="138"/>
-      <c r="P1" s="138"/>
-      <c r="Q1" s="138"/>
+      <c r="B1" s="135"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="135"/>
+      <c r="E1" s="135"/>
+      <c r="F1" s="135"/>
+      <c r="G1" s="135"/>
+      <c r="H1" s="136"/>
+      <c r="I1" s="137"/>
+      <c r="J1" s="137"/>
+      <c r="K1" s="136"/>
+      <c r="L1" s="137"/>
+      <c r="M1" s="137"/>
+      <c r="N1" s="137"/>
+      <c r="O1" s="137"/>
+      <c r="P1" s="137"/>
+      <c r="Q1" s="137"/>
     </row>
     <row r="2" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -2826,7 +2820,7 @@
         <v>2A</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>53</v>
@@ -2946,7 +2940,7 @@
         <v>67</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>68</v>
@@ -3022,7 +3016,7 @@
         <v>2H</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>76</v>
@@ -3059,7 +3053,7 @@
         <v>81</v>
       </c>
       <c r="D21" s="88" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E21" s="84" t="s">
         <v>130</v>
@@ -3138,10 +3132,10 @@
         <v>90</v>
       </c>
       <c r="D24" s="88" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E24" s="87" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F24" s="84"/>
       <c r="G24" s="9"/>
@@ -3796,38 +3790,38 @@
       <c r="A58" s="9"/>
     </row>
     <row r="59" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="139" t="s">
+      <c r="A59" s="138" t="s">
         <v>157</v>
       </c>
-      <c r="B59" s="134"/>
-      <c r="C59" s="134"/>
+      <c r="B59" s="133"/>
+      <c r="C59" s="133"/>
     </row>
     <row r="60" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="12"/>
     </row>
     <row r="61" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="133" t="s">
+      <c r="A61" s="132" t="s">
         <v>149</v>
       </c>
-      <c r="B61" s="134"/>
-      <c r="C61" s="133" t="s">
+      <c r="B61" s="133"/>
+      <c r="C61" s="132" t="s">
         <v>158</v>
       </c>
-      <c r="D61" s="134"/>
-      <c r="E61" s="134"/>
-      <c r="F61" s="134"/>
+      <c r="D61" s="133"/>
+      <c r="E61" s="133"/>
+      <c r="F61" s="133"/>
     </row>
     <row r="62" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="133" t="s">
+      <c r="A62" s="132" t="s">
         <v>159</v>
       </c>
-      <c r="B62" s="134"/>
-      <c r="C62" s="133" t="s">
+      <c r="B62" s="133"/>
+      <c r="C62" s="132" t="s">
         <v>160</v>
       </c>
-      <c r="D62" s="134"/>
-      <c r="E62" s="134"/>
-      <c r="F62" s="134"/>
+      <c r="D62" s="133"/>
+      <c r="E62" s="133"/>
+      <c r="F62" s="133"/>
     </row>
     <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="64" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4795,7 +4789,7 @@
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection sqref="A1:J22"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4808,64 +4802,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="139" t="s">
         <v>161</v>
       </c>
-      <c r="B1" s="141"/>
-      <c r="C1" s="142" t="s">
+      <c r="B1" s="140"/>
+      <c r="C1" s="141" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
-      <c r="G1" s="143"/>
-      <c r="H1" s="143"/>
-      <c r="I1" s="143"/>
-      <c r="J1" s="143"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
       <c r="K1" s="79"/>
       <c r="L1" s="79"/>
     </row>
     <row r="2" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="129" t="s">
+      <c r="A2" s="128" t="s">
         <v>162</v>
       </c>
-      <c r="B2" s="129" t="s">
+      <c r="B2" s="128" t="s">
         <v>163</v>
       </c>
-      <c r="C2" s="129" t="s">
+      <c r="C2" s="128" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="130" t="s">
+      <c r="D2" s="129" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="129" t="s">
+      <c r="E2" s="128" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="129" t="s">
+      <c r="F2" s="128" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="129" t="s">
+      <c r="G2" s="128" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="129" t="s">
+      <c r="H2" s="128" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="131" t="s">
+      <c r="I2" s="130" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="131" t="s">
+      <c r="J2" s="130" t="s">
         <v>164</v>
       </c>
       <c r="K2" s="15" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="L2" s="15" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="115" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="22" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B3" s="82" t="s">
         <v>165</v>
@@ -4957,7 +4951,7 @@
         <v>5C4-004</v>
       </c>
       <c r="B6" s="75" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C6" s="21" t="s">
         <v>28</v>
@@ -4984,10 +4978,10 @@
         <v>28</v>
       </c>
       <c r="K6" s="74" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="L6" s="74" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -5023,7 +5017,7 @@
         <v>175</v>
       </c>
       <c r="K7" s="100" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="L7" s="74"/>
     </row>
@@ -5060,7 +5054,7 @@
         <v>28</v>
       </c>
       <c r="K8" s="74" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="L8" s="74"/>
     </row>
@@ -5069,7 +5063,7 @@
         <v>169</v>
       </c>
       <c r="B9" s="81" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C9" s="21" t="s">
         <v>28</v>
@@ -5096,7 +5090,7 @@
         <v>28</v>
       </c>
       <c r="K9" s="74" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="L9" s="74"/>
     </row>
@@ -5106,7 +5100,7 @@
         <v>5C4-008</v>
       </c>
       <c r="B10" s="75" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C10" s="21" t="s">
         <v>28</v>
@@ -5133,10 +5127,10 @@
         <v>28</v>
       </c>
       <c r="K10" s="74" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="L10" s="74" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -5180,7 +5174,7 @@
         <v>5C4-010</v>
       </c>
       <c r="B12" s="75" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C12" s="21" t="s">
         <v>28</v>
@@ -5207,7 +5201,7 @@
         <v>28</v>
       </c>
       <c r="K12" s="74" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="L12" s="74"/>
     </row>
@@ -5217,7 +5211,7 @@
         <v>5C4-011</v>
       </c>
       <c r="B13" s="75" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C13" s="21" t="s">
         <v>28</v>
@@ -5244,10 +5238,10 @@
         <v>28</v>
       </c>
       <c r="K13" s="74" t="s">
+        <v>394</v>
+      </c>
+      <c r="L13" s="74" t="s">
         <v>396</v>
-      </c>
-      <c r="L13" s="74" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -5279,11 +5273,11 @@
       <c r="I14" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="J14" s="132" t="s">
+      <c r="J14" s="131" t="s">
         <v>175</v>
       </c>
       <c r="K14" s="100" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="L14" s="74"/>
     </row>
@@ -5293,7 +5287,7 @@
         <v>5C4-013</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C15" s="21" t="s">
         <v>28</v>
@@ -5320,7 +5314,7 @@
         <v>28</v>
       </c>
       <c r="K15" s="74" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L15" s="74"/>
     </row>
@@ -5330,7 +5324,7 @@
         <v>5C4-014</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C16" s="21" t="s">
         <v>28</v>
@@ -5357,10 +5351,10 @@
         <v>28</v>
       </c>
       <c r="K16" s="74" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="L16" s="74" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -5403,7 +5397,7 @@
         <v>178</v>
       </c>
       <c r="B18" s="75" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C18" s="21" t="s">
         <v>28</v>
@@ -5430,7 +5424,7 @@
         <v>28</v>
       </c>
       <c r="K18" s="74" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="L18" s="74"/>
     </row>
@@ -5439,8 +5433,8 @@
         <f>HYPERLINK("https://drive.google.com/drive/folders/1wcHyiuVUbBeL9ODgyYP-lyy7yM1vMH3u","5C4-017")</f>
         <v>5C4-017</v>
       </c>
-      <c r="B19" s="128" t="s">
-        <v>277</v>
+      <c r="B19" s="75" t="s">
+        <v>275</v>
       </c>
       <c r="C19" s="21" t="s">
         <v>28</v>
@@ -5467,7 +5461,7 @@
         <v>28</v>
       </c>
       <c r="K19" s="74" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="L19" s="74"/>
     </row>
@@ -5475,7 +5469,7 @@
       <c r="A20" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="150" t="s">
         <v>179</v>
       </c>
       <c r="C20" s="23" t="s">
@@ -5503,7 +5497,7 @@
         <v>175</v>
       </c>
       <c r="K20" s="74" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="L20" s="74"/>
     </row>
@@ -5540,7 +5534,7 @@
         <v>175</v>
       </c>
       <c r="K21" s="74" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="L21" s="74"/>
     </row>
@@ -5577,7 +5571,7 @@
         <v>28</v>
       </c>
       <c r="K22" s="74" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="L22" s="74"/>
     </row>
@@ -5607,20 +5601,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="144" t="s">
+      <c r="A1" s="143" t="s">
         <v>161</v>
       </c>
-      <c r="B1" s="145"/>
-      <c r="C1" s="144" t="s">
-        <v>366</v>
-      </c>
-      <c r="D1" s="146"/>
-      <c r="E1" s="146"/>
-      <c r="F1" s="146"/>
-      <c r="G1" s="146"/>
-      <c r="H1" s="146"/>
-      <c r="I1" s="146"/>
-      <c r="J1" s="145"/>
+      <c r="B1" s="144"/>
+      <c r="C1" s="143" t="s">
+        <v>364</v>
+      </c>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="145"/>
+      <c r="I1" s="145"/>
+      <c r="J1" s="144"/>
     </row>
     <row r="2" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="68" t="s">
@@ -5630,13 +5624,13 @@
         <v>163</v>
       </c>
       <c r="C2" s="68" t="s">
+        <v>365</v>
+      </c>
+      <c r="D2" s="68" t="s">
+        <v>366</v>
+      </c>
+      <c r="E2" s="68" t="s">
         <v>367</v>
-      </c>
-      <c r="D2" s="68" t="s">
-        <v>368</v>
-      </c>
-      <c r="E2" s="68" t="s">
-        <v>369</v>
       </c>
       <c r="F2" s="68"/>
       <c r="G2" s="69"/>
@@ -5652,10 +5646,10 @@
         <v>165</v>
       </c>
       <c r="C3" s="65" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D3" s="63" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E3" s="63"/>
       <c r="F3" s="63"/>
@@ -5666,16 +5660,16 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="55" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B4" s="56" t="s">
         <v>165</v>
       </c>
       <c r="C4" s="65" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D4" s="63" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E4" s="63"/>
       <c r="F4" s="63"/>
@@ -5686,16 +5680,16 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="55" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B5" s="77" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C5" s="65" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D5" s="63" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E5" s="63"/>
       <c r="F5" s="63"/>
@@ -5706,7 +5700,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="55" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B6" s="57" t="s">
         <v>167</v>
@@ -5722,14 +5716,14 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="55" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B7" s="57" t="s">
         <v>168</v>
       </c>
       <c r="C7" s="65"/>
       <c r="D7" s="63" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E7" s="63"/>
       <c r="F7" s="63"/>
@@ -5746,10 +5740,10 @@
         <v>165</v>
       </c>
       <c r="C8" s="63" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D8" s="63" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E8" s="63"/>
       <c r="F8" s="63"/>
@@ -5760,16 +5754,16 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="55" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B9" s="56" t="s">
         <v>170</v>
       </c>
       <c r="C9" s="63" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D9" s="70" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E9" s="63"/>
       <c r="F9" s="63"/>
@@ -5780,16 +5774,16 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="55" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B10" s="59" t="s">
         <v>171</v>
       </c>
       <c r="C10" s="63" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D10" s="70" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E10" s="63"/>
       <c r="F10" s="63"/>
@@ -5800,16 +5794,16 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="55" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B11" s="56" t="s">
         <v>172</v>
       </c>
       <c r="C11" s="65" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D11" s="63" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E11" s="63"/>
       <c r="F11" s="63"/>
@@ -5820,16 +5814,16 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="55" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B12" s="56" t="s">
         <v>173</v>
       </c>
       <c r="C12" s="65" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D12" s="63" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E12" s="63"/>
       <c r="F12" s="63"/>
@@ -5840,14 +5834,14 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="55" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B13" s="57" t="s">
         <v>174</v>
       </c>
       <c r="C13" s="67"/>
       <c r="D13" s="63" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E13" s="63"/>
       <c r="F13" s="63"/>
@@ -5858,14 +5852,14 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="55" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B14" s="57" t="s">
         <v>176</v>
       </c>
       <c r="C14" s="65"/>
       <c r="D14" s="63" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E14" s="63"/>
       <c r="F14" s="63"/>
@@ -5876,16 +5870,16 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="55" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B15" s="56" t="s">
         <v>177</v>
       </c>
       <c r="C15" s="65" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D15" s="65" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E15" s="63"/>
       <c r="F15" s="63"/>
@@ -5902,10 +5896,10 @@
         <v>171</v>
       </c>
       <c r="C16" s="65" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D16" s="83" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E16" s="63"/>
       <c r="F16" s="63"/>
@@ -5922,10 +5916,10 @@
         <v>171</v>
       </c>
       <c r="C17" s="65" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D17" s="65" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E17" s="63"/>
       <c r="F17" s="63"/>
@@ -5942,10 +5936,10 @@
         <v>171</v>
       </c>
       <c r="C18" s="65" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D18" s="63" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E18" s="63"/>
       <c r="F18" s="63"/>
@@ -5972,7 +5966,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="55" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B20" s="57" t="s">
         <v>180</v>
@@ -5988,7 +5982,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="55" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B21" s="78" t="s">
         <v>181</v>
@@ -7406,11 +7400,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="135" t="s">
-        <v>453</v>
-      </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="147"/>
+      <c r="A1" s="134" t="s">
+        <v>451</v>
+      </c>
+      <c r="B1" s="146"/>
+      <c r="C1" s="146"/>
       <c r="D1" s="118"/>
       <c r="E1" s="118"/>
       <c r="F1" s="118"/>
@@ -7420,10 +7414,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="73" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C2" s="73" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D2" s="73"/>
       <c r="E2" s="73"/>
@@ -7435,10 +7429,10 @@
         <v>1A</v>
       </c>
       <c r="B3" s="121" t="s">
+        <v>454</v>
+      </c>
+      <c r="C3" s="123" t="s">
         <v>456</v>
-      </c>
-      <c r="C3" s="123" t="s">
-        <v>458</v>
       </c>
       <c r="D3" s="73"/>
       <c r="E3" s="73"/>
@@ -7450,7 +7444,7 @@
         <v>1B</v>
       </c>
       <c r="B4" s="121" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C4" s="123" t="s">
         <v>48</v>
@@ -7465,10 +7459,10 @@
         <v>1C</v>
       </c>
       <c r="B5" s="122" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C5" s="123" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
@@ -7480,7 +7474,7 @@
         <v>1D</v>
       </c>
       <c r="B6" s="121" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C6" s="123" t="s">
         <v>48</v>
@@ -7495,7 +7489,7 @@
         <v>1E</v>
       </c>
       <c r="B7" s="122" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C7" s="124" t="s">
         <v>48</v>
@@ -7510,10 +7504,10 @@
         <v>1F</v>
       </c>
       <c r="B8" s="121" t="s">
+        <v>454</v>
+      </c>
+      <c r="C8" s="123" t="s">
         <v>456</v>
-      </c>
-      <c r="C8" s="123" t="s">
-        <v>458</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
@@ -7525,7 +7519,7 @@
         <v>1G</v>
       </c>
       <c r="B9" s="122" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C9" s="124" t="s">
         <v>48</v>
@@ -7540,10 +7534,10 @@
         <v>1H</v>
       </c>
       <c r="B10" s="122" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C10" s="123" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
@@ -7555,7 +7549,7 @@
         <v>1J</v>
       </c>
       <c r="B11" s="121" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C11" s="123" t="s">
         <v>48</v>
@@ -7570,10 +7564,10 @@
         <v>1K</v>
       </c>
       <c r="B12" s="122" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C12" s="123" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
@@ -7585,10 +7579,10 @@
         <v>2A</v>
       </c>
       <c r="B13" s="122" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C13" s="123" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
@@ -7600,10 +7594,10 @@
         <v>2B</v>
       </c>
       <c r="B14" s="122" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C14" s="123" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
@@ -7615,7 +7609,7 @@
         <v>2C</v>
       </c>
       <c r="B15" s="122" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C15" s="123" t="s">
         <v>48</v>
@@ -7630,7 +7624,7 @@
         <v>2D</v>
       </c>
       <c r="B16" s="121" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C16" s="123" t="s">
         <v>48</v>
@@ -7645,10 +7639,10 @@
         <v>2E</v>
       </c>
       <c r="B17" s="122" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C17" s="123" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
@@ -7660,7 +7654,7 @@
         <v>2F</v>
       </c>
       <c r="B18" s="121" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C18" s="123" t="s">
         <v>48</v>
@@ -7675,7 +7669,7 @@
         <v>2G</v>
       </c>
       <c r="B19" s="121" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C19" s="123" t="s">
         <v>48</v>
@@ -7690,10 +7684,10 @@
         <v>2H</v>
       </c>
       <c r="B20" s="122" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C20" s="123" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D20" s="114"/>
       <c r="E20" s="9"/>
@@ -7705,10 +7699,10 @@
         <v>2J</v>
       </c>
       <c r="B21" s="122" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C21" s="123" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D21" s="84"/>
       <c r="E21" s="84"/>
@@ -7720,7 +7714,7 @@
         <v>2K</v>
       </c>
       <c r="B22" s="122" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C22" s="123" t="s">
         <v>48</v>
@@ -7735,7 +7729,7 @@
         <v>2L</v>
       </c>
       <c r="B23" s="122" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C23" s="123" t="s">
         <v>48</v>
@@ -7750,10 +7744,10 @@
         <v>2M</v>
       </c>
       <c r="B24" s="122" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C24" s="123" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D24" s="114"/>
       <c r="E24" s="84"/>
@@ -7765,10 +7759,10 @@
         <v>3C</v>
       </c>
       <c r="B25" s="122" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C25" s="123" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D25" s="114"/>
       <c r="E25" s="9"/>
@@ -7780,7 +7774,7 @@
         <v>3D</v>
       </c>
       <c r="B26" s="122" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C26" s="124" t="s">
         <v>48</v>
@@ -7795,7 +7789,7 @@
         <v>3E</v>
       </c>
       <c r="B27" s="121" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C27" s="123" t="s">
         <v>48</v>
@@ -7855,7 +7849,7 @@
         <v>3J</v>
       </c>
       <c r="B31" s="121" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C31" s="123" t="s">
         <v>48</v>
@@ -7870,10 +7864,10 @@
         <v>3L</v>
       </c>
       <c r="B32" s="122" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C32" s="123" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
@@ -7885,7 +7879,7 @@
         <v>4E</v>
       </c>
       <c r="B33" s="121" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C33" s="123" t="s">
         <v>48</v>
@@ -7900,7 +7894,7 @@
         <v>4F</v>
       </c>
       <c r="B34" s="121" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C34" s="123" t="s">
         <v>48</v>
@@ -7915,10 +7909,10 @@
         <v>4G</v>
       </c>
       <c r="B35" s="121" t="s">
+        <v>454</v>
+      </c>
+      <c r="C35" s="123" t="s">
         <v>456</v>
-      </c>
-      <c r="C35" s="123" t="s">
-        <v>458</v>
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
@@ -7930,7 +7924,7 @@
         <v>4H</v>
       </c>
       <c r="B36" s="121" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C36" s="123" t="s">
         <v>48</v>
@@ -7945,10 +7939,10 @@
         <v>4J</v>
       </c>
       <c r="B37" s="122" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C37" s="123" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D37" s="114"/>
       <c r="E37" s="9"/>
@@ -7960,7 +7954,7 @@
         <v>4K</v>
       </c>
       <c r="B38" s="121" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C38" s="123" t="s">
         <v>48</v>
@@ -7975,7 +7969,7 @@
         <v>4L</v>
       </c>
       <c r="B39" s="121" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C39" s="123" t="s">
         <v>48</v>
@@ -7990,7 +7984,7 @@
         <v>5B</v>
       </c>
       <c r="B40" s="122" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C40" s="124" t="s">
         <v>48</v>
@@ -8005,10 +7999,10 @@
         <v>5C</v>
       </c>
       <c r="B41" s="121" t="s">
+        <v>454</v>
+      </c>
+      <c r="C41" s="123" t="s">
         <v>456</v>
-      </c>
-      <c r="C41" s="123" t="s">
-        <v>458</v>
       </c>
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
@@ -8020,7 +8014,7 @@
         <v>5E</v>
       </c>
       <c r="B42" s="121" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C42" s="123" t="s">
         <v>48</v>
@@ -8035,7 +8029,7 @@
         <v>5G</v>
       </c>
       <c r="B43" s="121" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C43" s="123" t="s">
         <v>48</v>
@@ -8050,7 +8044,7 @@
         <v>5H</v>
       </c>
       <c r="B44" s="121" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C44" s="123" t="s">
         <v>48</v>
@@ -8075,8 +8069,8 @@
   </sheetPr>
   <dimension ref="A1:I1023"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8088,33 +8082,33 @@
   <sheetData>
     <row r="1" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="92" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B1" s="93" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C1" s="93" t="s">
-        <v>426</v>
-      </c>
-      <c r="D1" s="148" t="s">
-        <v>271</v>
-      </c>
-      <c r="E1" s="148"/>
+        <v>424</v>
+      </c>
+      <c r="D1" s="147" t="s">
+        <v>269</v>
+      </c>
+      <c r="E1" s="147"/>
       <c r="F1" s="102" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="90" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="9"/>
-      <c r="D2" s="150"/>
-      <c r="E2" s="150"/>
+      <c r="D2" s="149"/>
+      <c r="E2" s="149"/>
       <c r="G2" s="96"/>
       <c r="H2" s="96"/>
       <c r="I2" s="96"/>
     </row>
     <row r="3" spans="1:9" s="90" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="91" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B3" s="97">
         <v>62</v>
@@ -8122,10 +8116,10 @@
       <c r="C3" s="97">
         <v>55</v>
       </c>
-      <c r="D3" s="149" t="s">
-        <v>428</v>
-      </c>
-      <c r="E3" s="150"/>
+      <c r="D3" s="148" t="s">
+        <v>426</v>
+      </c>
+      <c r="E3" s="149"/>
       <c r="F3" s="94" t="s">
         <v>261</v>
       </c>
@@ -8135,10 +8129,10 @@
     </row>
     <row r="4" spans="1:9" s="90" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="91" t="s">
-        <v>408</v>
-      </c>
-      <c r="D4" s="150"/>
-      <c r="E4" s="150"/>
+        <v>406</v>
+      </c>
+      <c r="D4" s="149"/>
+      <c r="E4" s="149"/>
       <c r="F4" s="95"/>
       <c r="G4" s="96"/>
       <c r="H4" s="99"/>
@@ -8146,7 +8140,7 @@
     </row>
     <row r="5" spans="1:9" s="90" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="91" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B5" s="97">
         <v>44</v>
@@ -8154,8 +8148,8 @@
       <c r="C5" s="97">
         <v>43</v>
       </c>
-      <c r="D5" s="150"/>
-      <c r="E5" s="150"/>
+      <c r="D5" s="149"/>
+      <c r="E5" s="149"/>
       <c r="F5" s="94" t="s">
         <v>261</v>
       </c>
@@ -8165,7 +8159,7 @@
     </row>
     <row r="6" spans="1:9" s="90" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="91" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B6" s="97">
         <v>47</v>
@@ -8173,10 +8167,10 @@
       <c r="C6" s="97">
         <v>52</v>
       </c>
-      <c r="D6" s="149" t="s">
-        <v>430</v>
-      </c>
-      <c r="E6" s="150"/>
+      <c r="D6" s="148" t="s">
+        <v>428</v>
+      </c>
+      <c r="E6" s="149"/>
       <c r="F6" s="94" t="s">
         <v>261</v>
       </c>
@@ -8186,7 +8180,7 @@
     </row>
     <row r="7" spans="1:9" s="90" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="91" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B7" s="97">
         <v>75</v>
@@ -8194,10 +8188,10 @@
       <c r="C7" s="97">
         <v>82</v>
       </c>
-      <c r="D7" s="149" t="s">
-        <v>430</v>
-      </c>
-      <c r="E7" s="150"/>
+      <c r="D7" s="148" t="s">
+        <v>428</v>
+      </c>
+      <c r="E7" s="149"/>
       <c r="F7" s="94" t="s">
         <v>261</v>
       </c>
@@ -8207,7 +8201,7 @@
     </row>
     <row r="8" spans="1:9" s="90" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="91" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B8" s="97">
         <v>85</v>
@@ -8215,10 +8209,10 @@
       <c r="C8" s="97">
         <v>99</v>
       </c>
-      <c r="D8" s="149" t="s">
-        <v>429</v>
-      </c>
-      <c r="E8" s="150"/>
+      <c r="D8" s="148" t="s">
+        <v>427</v>
+      </c>
+      <c r="E8" s="149"/>
       <c r="F8" s="95"/>
       <c r="G8" s="96"/>
       <c r="H8" s="99"/>
@@ -8226,7 +8220,7 @@
     </row>
     <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="91" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B9" s="97">
         <v>15</v>
@@ -8234,10 +8228,10 @@
       <c r="C9" s="97">
         <v>23</v>
       </c>
-      <c r="D9" s="149" t="s">
-        <v>428</v>
-      </c>
-      <c r="E9" s="150"/>
+      <c r="D9" s="148" t="s">
+        <v>426</v>
+      </c>
+      <c r="E9" s="149"/>
       <c r="F9" s="94" t="s">
         <v>261</v>
       </c>
@@ -8247,12 +8241,12 @@
     </row>
     <row r="10" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="91" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B10" s="98"/>
       <c r="C10" s="97"/>
-      <c r="D10" s="150"/>
-      <c r="E10" s="150"/>
+      <c r="D10" s="149"/>
+      <c r="E10" s="149"/>
       <c r="F10" s="95"/>
       <c r="G10" s="96"/>
       <c r="H10" s="99"/>
@@ -8260,12 +8254,12 @@
     </row>
     <row r="11" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="91" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B11" s="99"/>
       <c r="C11" s="97"/>
-      <c r="D11" s="150"/>
-      <c r="E11" s="150"/>
+      <c r="D11" s="149"/>
+      <c r="E11" s="149"/>
       <c r="F11" s="95"/>
       <c r="G11" s="96"/>
       <c r="H11" s="99"/>
@@ -8273,7 +8267,7 @@
     </row>
     <row r="12" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="91" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B12" s="99">
         <v>57</v>
@@ -8281,10 +8275,10 @@
       <c r="C12" s="97">
         <v>59</v>
       </c>
-      <c r="D12" s="149" t="s">
-        <v>428</v>
-      </c>
-      <c r="E12" s="150"/>
+      <c r="D12" s="148" t="s">
+        <v>426</v>
+      </c>
+      <c r="E12" s="149"/>
       <c r="F12" s="94" t="s">
         <v>261</v>
       </c>
@@ -8294,7 +8288,7 @@
     </row>
     <row r="13" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="91" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B13" s="99">
         <v>37</v>
@@ -8302,10 +8296,10 @@
       <c r="C13" s="97">
         <v>56</v>
       </c>
-      <c r="D13" s="149" t="s">
-        <v>430</v>
-      </c>
-      <c r="E13" s="150"/>
+      <c r="D13" s="148" t="s">
+        <v>428</v>
+      </c>
+      <c r="E13" s="149"/>
       <c r="F13" s="94" t="s">
         <v>261</v>
       </c>
@@ -8315,7 +8309,7 @@
     </row>
     <row r="14" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="91" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B14" s="99">
         <v>53</v>
@@ -8323,10 +8317,10 @@
       <c r="C14" s="97">
         <v>72</v>
       </c>
-      <c r="D14" s="149" t="s">
-        <v>430</v>
-      </c>
-      <c r="E14" s="150"/>
+      <c r="D14" s="148" t="s">
+        <v>428</v>
+      </c>
+      <c r="E14" s="149"/>
       <c r="F14" s="94" t="s">
         <v>261</v>
       </c>
@@ -8336,7 +8330,7 @@
     </row>
     <row r="15" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="91" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B15" s="99">
         <v>60</v>
@@ -8344,8 +8338,8 @@
       <c r="C15" s="97">
         <v>64</v>
       </c>
-      <c r="D15" s="150"/>
-      <c r="E15" s="150"/>
+      <c r="D15" s="149"/>
+      <c r="E15" s="149"/>
       <c r="F15" s="94" t="s">
         <v>261</v>
       </c>
@@ -8355,12 +8349,12 @@
     </row>
     <row r="16" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="91" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B16" s="97"/>
       <c r="C16" s="97"/>
-      <c r="D16" s="150"/>
-      <c r="E16" s="150"/>
+      <c r="D16" s="149"/>
+      <c r="E16" s="149"/>
       <c r="F16" s="95"/>
       <c r="G16" s="96"/>
       <c r="H16" s="99"/>
@@ -8368,7 +8362,7 @@
     </row>
     <row r="17" spans="1:9" s="90" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="91" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B17" s="97">
         <v>16</v>
@@ -8376,8 +8370,8 @@
       <c r="C17" s="97">
         <v>17</v>
       </c>
-      <c r="D17" s="150"/>
-      <c r="E17" s="150"/>
+      <c r="D17" s="149"/>
+      <c r="E17" s="149"/>
       <c r="F17" s="127" t="s">
         <v>261</v>
       </c>
@@ -8387,12 +8381,12 @@
     </row>
     <row r="18" spans="1:9" s="90" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="91" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B18" s="97"/>
       <c r="C18" s="97"/>
-      <c r="D18" s="150"/>
-      <c r="E18" s="150"/>
+      <c r="D18" s="149"/>
+      <c r="E18" s="149"/>
       <c r="F18" s="95"/>
       <c r="G18" s="96"/>
       <c r="H18" s="99"/>
@@ -8400,7 +8394,7 @@
     </row>
     <row r="19" spans="1:9" s="90" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="91" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B19" s="97">
         <v>18</v>
@@ -8408,10 +8402,10 @@
       <c r="C19" s="97">
         <v>40</v>
       </c>
-      <c r="D19" s="149" t="s">
-        <v>430</v>
-      </c>
-      <c r="E19" s="150"/>
+      <c r="D19" s="148" t="s">
+        <v>428</v>
+      </c>
+      <c r="E19" s="149"/>
       <c r="F19" s="94" t="s">
         <v>261</v>
       </c>
@@ -8421,7 +8415,7 @@
     </row>
     <row r="20" spans="1:9" s="90" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="91" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B20" s="97">
         <v>45</v>
@@ -8429,10 +8423,10 @@
       <c r="C20" s="97">
         <v>48</v>
       </c>
-      <c r="D20" s="149" t="s">
-        <v>430</v>
-      </c>
-      <c r="E20" s="150"/>
+      <c r="D20" s="148" t="s">
+        <v>428</v>
+      </c>
+      <c r="E20" s="149"/>
       <c r="F20" s="94" t="s">
         <v>261</v>
       </c>
@@ -8442,7 +8436,7 @@
     </row>
     <row r="21" spans="1:9" s="90" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="91" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B21" s="97">
         <v>83</v>
@@ -8450,12 +8444,12 @@
       <c r="C21" s="97">
         <v>84</v>
       </c>
-      <c r="D21" s="149" t="s">
-        <v>430</v>
-      </c>
-      <c r="E21" s="150"/>
+      <c r="D21" s="148" t="s">
+        <v>428</v>
+      </c>
+      <c r="E21" s="149"/>
       <c r="F21" s="94" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="G21" s="96"/>
       <c r="H21" s="99"/>
@@ -8566,10 +8560,10 @@
         <v>234</v>
       </c>
       <c r="B35" s="89" t="s">
+        <v>438</v>
+      </c>
+      <c r="C35" s="89" t="s">
         <v>440</v>
-      </c>
-      <c r="C35" s="89" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="36" spans="1:5" s="90" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8577,10 +8571,10 @@
         <v>234</v>
       </c>
       <c r="B36" s="89" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C36" s="89" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="37" spans="1:5" s="90" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8590,24 +8584,24 @@
     </row>
     <row r="38" spans="1:5" s="90" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="89" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B38" s="89" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C38" s="89" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="39" spans="1:5" s="90" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="89" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B39" s="89" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C39" s="89" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="40" spans="1:5" s="126" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8617,24 +8611,24 @@
     </row>
     <row r="41" spans="1:5" s="126" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="125" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B41" s="125" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C41" s="125" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="42" spans="1:5" s="90" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="125" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B42" s="125" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C42" s="125" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D42" s="126"/>
     </row>
@@ -8646,7 +8640,7 @@
     <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="14" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8665,10 +8659,10 @@
     </row>
     <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="108" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B48" s="107" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C48" s="109"/>
       <c r="D48" s="103"/>
@@ -8676,10 +8670,10 @@
     </row>
     <row r="49" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="110" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B49" s="107" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C49" s="107"/>
       <c r="D49" s="103"/>
@@ -8694,10 +8688,10 @@
     </row>
     <row r="51" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="108" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B51" s="107" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C51" s="109"/>
       <c r="D51" s="103"/>
@@ -8705,10 +8699,10 @@
     </row>
     <row r="52" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="110" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B52" s="107" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C52" s="107"/>
       <c r="D52" s="103"/>
@@ -8722,9 +8716,7 @@
       <c r="E53" s="103"/>
     </row>
     <row r="54" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="108" t="s">
-        <v>415</v>
-      </c>
+      <c r="A54" s="108"/>
       <c r="B54" s="107" t="s">
         <v>262</v>
       </c>
@@ -8733,9 +8725,7 @@
       <c r="E54" s="103"/>
     </row>
     <row r="55" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="108" t="s">
-        <v>415</v>
-      </c>
+      <c r="A55" s="108"/>
       <c r="B55" s="107" t="s">
         <v>263</v>
       </c>
@@ -8752,7 +8742,7 @@
     </row>
     <row r="57" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="105" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B57" s="104" t="s">
         <v>246</v>
@@ -8763,7 +8753,7 @@
     </row>
     <row r="58" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="105" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B58" s="104" t="s">
         <v>248</v>
@@ -8801,23 +8791,15 @@
       <c r="E62" s="103"/>
     </row>
     <row r="63" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="105" t="s">
-        <v>422</v>
-      </c>
-      <c r="B63" s="104" t="s">
-        <v>264</v>
-      </c>
+      <c r="A63" s="105"/>
+      <c r="B63" s="104"/>
       <c r="C63" s="86"/>
       <c r="D63" s="103"/>
       <c r="E63" s="103"/>
     </row>
     <row r="64" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="105" t="s">
-        <v>422</v>
-      </c>
-      <c r="B64" s="104" t="s">
-        <v>265</v>
-      </c>
+      <c r="A64" s="105"/>
+      <c r="B64" s="104"/>
       <c r="C64" s="86"/>
       <c r="D64" s="103"/>
       <c r="E64" s="103"/>
@@ -9835,7 +9817,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   <ignoredErrors>
-    <ignoredError sqref="A3:A21 A48:B49 A51:A52 A54:A55 A57:A59" numberStoredAsText="1"/>
+    <ignoredError sqref="A3:A21 A48:B49 A51:A52 A57:A59" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -9860,22 +9842,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="47" t="s">
+        <v>264</v>
+      </c>
+      <c r="B1" s="47" t="s">
+        <v>265</v>
+      </c>
+      <c r="C1" s="47" t="s">
         <v>266</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="D1" s="47" t="s">
         <v>267</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="E1" s="47" t="s">
         <v>268</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="F1" s="47" t="s">
         <v>269</v>
-      </c>
-      <c r="E1" s="47" t="s">
-        <v>270</v>
-      </c>
-      <c r="F1" s="47" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -9883,19 +9865,19 @@
         <v>23</v>
       </c>
       <c r="B2" s="47" t="s">
+        <v>270</v>
+      </c>
+      <c r="C2" s="47" t="s">
+        <v>271</v>
+      </c>
+      <c r="D2" s="47" t="s">
         <v>272</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="E2" s="47" t="s">
         <v>273</v>
       </c>
-      <c r="D2" s="47" t="s">
+      <c r="F2" s="47" t="s">
         <v>274</v>
-      </c>
-      <c r="E2" s="47" t="s">
-        <v>275</v>
-      </c>
-      <c r="F2" s="47" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -9903,13 +9885,13 @@
         <v>97</v>
       </c>
       <c r="B3" s="48" t="s">
+        <v>275</v>
+      </c>
+      <c r="C3" s="48" t="s">
+        <v>276</v>
+      </c>
+      <c r="D3" s="48" t="s">
         <v>277</v>
-      </c>
-      <c r="C3" s="48" t="s">
-        <v>278</v>
-      </c>
-      <c r="D3" s="48" t="s">
-        <v>279</v>
       </c>
       <c r="E3" s="49"/>
       <c r="F3" s="49"/>
@@ -9919,19 +9901,19 @@
         <v>62</v>
       </c>
       <c r="B4" s="47" t="s">
+        <v>278</v>
+      </c>
+      <c r="C4" s="47" t="s">
+        <v>271</v>
+      </c>
+      <c r="D4" s="47" t="s">
+        <v>272</v>
+      </c>
+      <c r="E4" s="47" t="s">
+        <v>279</v>
+      </c>
+      <c r="F4" s="47" t="s">
         <v>280</v>
-      </c>
-      <c r="C4" s="47" t="s">
-        <v>273</v>
-      </c>
-      <c r="D4" s="47" t="s">
-        <v>274</v>
-      </c>
-      <c r="E4" s="47" t="s">
-        <v>281</v>
-      </c>
-      <c r="F4" s="47" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -9939,16 +9921,16 @@
         <v>142</v>
       </c>
       <c r="B5" s="47" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C5" s="47" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D5" s="47" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E5" s="47" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F5" s="50"/>
     </row>
@@ -9957,16 +9939,16 @@
         <v>58</v>
       </c>
       <c r="B6" s="47" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C6" s="47" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D6" s="47" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E6" s="47" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F6" s="50"/>
     </row>
@@ -9978,34 +9960,34 @@
         <v>179</v>
       </c>
       <c r="C7" s="47" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D7" s="47" t="s">
         <v>179</v>
       </c>
       <c r="E7" s="47" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F7" s="50"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="47" t="s">
+        <v>284</v>
+      </c>
+      <c r="B8" s="47" t="s">
+        <v>285</v>
+      </c>
+      <c r="C8" s="47" t="s">
         <v>286</v>
       </c>
-      <c r="B8" s="47" t="s">
+      <c r="D8" s="47" t="s">
         <v>287</v>
       </c>
-      <c r="C8" s="47" t="s">
+      <c r="E8" s="47" t="s">
         <v>288</v>
       </c>
-      <c r="D8" s="47" t="s">
+      <c r="F8" s="47" t="s">
         <v>289</v>
-      </c>
-      <c r="E8" s="47" t="s">
-        <v>290</v>
-      </c>
-      <c r="F8" s="47" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -10013,57 +9995,57 @@
         <v>106</v>
       </c>
       <c r="B9" s="47" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C9" s="47" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D9" s="47" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E9" s="47" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F9" s="50"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="47" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B10" s="47" t="s">
         <v>181</v>
       </c>
       <c r="C10" s="47" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D10" s="47" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E10" s="47" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F10" s="47" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="47" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B11" s="47" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C11" s="47" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D11" s="47" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E11" s="47" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F11" s="47" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -10071,19 +10053,19 @@
         <v>82</v>
       </c>
       <c r="B12" s="47" t="s">
+        <v>295</v>
+      </c>
+      <c r="C12" s="47" t="s">
+        <v>276</v>
+      </c>
+      <c r="D12" s="47" t="s">
+        <v>272</v>
+      </c>
+      <c r="E12" s="47" t="s">
+        <v>296</v>
+      </c>
+      <c r="F12" s="47" t="s">
         <v>297</v>
-      </c>
-      <c r="C12" s="47" t="s">
-        <v>278</v>
-      </c>
-      <c r="D12" s="47" t="s">
-        <v>274</v>
-      </c>
-      <c r="E12" s="47" t="s">
-        <v>298</v>
-      </c>
-      <c r="F12" s="47" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -10091,16 +10073,16 @@
         <v>19</v>
       </c>
       <c r="B13" s="48" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C13" s="48" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D13" s="48" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E13" s="48" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F13" s="49"/>
     </row>
@@ -10112,16 +10094,16 @@
         <v>167</v>
       </c>
       <c r="C14" s="47" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D14" s="47" t="s">
         <v>167</v>
       </c>
       <c r="E14" s="47" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F14" s="47" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -10129,37 +10111,37 @@
         <v>85</v>
       </c>
       <c r="B15" s="47" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C15" s="47" t="s">
+        <v>271</v>
+      </c>
+      <c r="D15" s="47" t="s">
+        <v>272</v>
+      </c>
+      <c r="E15" s="47" t="s">
         <v>273</v>
-      </c>
-      <c r="D15" s="47" t="s">
-        <v>274</v>
-      </c>
-      <c r="E15" s="47" t="s">
-        <v>275</v>
       </c>
       <c r="F15" s="50"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="47" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B16" s="47" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C16" s="47" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D16" s="47" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E16" s="47" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F16" s="47" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -10167,53 +10149,53 @@
         <v>93</v>
       </c>
       <c r="B17" s="47" t="s">
+        <v>304</v>
+      </c>
+      <c r="C17" s="47" t="s">
+        <v>276</v>
+      </c>
+      <c r="D17" s="47" t="s">
+        <v>305</v>
+      </c>
+      <c r="E17" s="47" t="s">
+        <v>273</v>
+      </c>
+      <c r="F17" s="47" t="s">
         <v>306</v>
-      </c>
-      <c r="C17" s="47" t="s">
-        <v>278</v>
-      </c>
-      <c r="D17" s="47" t="s">
-        <v>307</v>
-      </c>
-      <c r="E17" s="47" t="s">
-        <v>275</v>
-      </c>
-      <c r="F17" s="47" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="47" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B18" s="47" t="s">
         <v>168</v>
       </c>
       <c r="C18" s="47" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D18" s="47" t="s">
+        <v>287</v>
+      </c>
+      <c r="E18" s="47" t="s">
+        <v>288</v>
+      </c>
+      <c r="F18" s="47" t="s">
         <v>289</v>
-      </c>
-      <c r="E18" s="47" t="s">
-        <v>290</v>
-      </c>
-      <c r="F18" s="47" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="51" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B19" s="51" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C19" s="51" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D19" s="51" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E19" s="52"/>
       <c r="F19" s="52"/>
@@ -10223,30 +10205,30 @@
         <v>140</v>
       </c>
       <c r="B20" s="47" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C20" s="47" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D20" s="47" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E20" s="47" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F20" s="47" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="47" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B21" s="47" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C21" s="47" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D21" s="47" t="s">
         <v>171</v>
@@ -10259,19 +10241,19 @@
         <v>72</v>
       </c>
       <c r="B22" s="47" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C22" s="47" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D22" s="47" t="s">
+        <v>287</v>
+      </c>
+      <c r="E22" s="47" t="s">
+        <v>314</v>
+      </c>
+      <c r="F22" s="47" t="s">
         <v>289</v>
-      </c>
-      <c r="E22" s="47" t="s">
-        <v>316</v>
-      </c>
-      <c r="F22" s="47" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -10279,33 +10261,33 @@
         <v>37</v>
       </c>
       <c r="B23" s="47" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C23" s="47" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D23" s="47" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E23" s="47" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F23" s="47" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="51" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B24" s="51" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C24" s="51" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D24" s="51" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E24" s="52"/>
       <c r="F24" s="52"/>
@@ -10315,39 +10297,39 @@
         <v>31</v>
       </c>
       <c r="B25" s="47" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C25" s="47" t="s">
+        <v>271</v>
+      </c>
+      <c r="D25" s="47" t="s">
+        <v>272</v>
+      </c>
+      <c r="E25" s="47" t="s">
         <v>273</v>
       </c>
-      <c r="D25" s="47" t="s">
-        <v>274</v>
-      </c>
-      <c r="E25" s="47" t="s">
-        <v>275</v>
-      </c>
       <c r="F25" s="47" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="47" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B26" s="47" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C26" s="47" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D26" s="47" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E26" s="47" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F26" s="47" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -10358,13 +10340,13 @@
         <v>174</v>
       </c>
       <c r="C27" s="47" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D27" s="47" t="s">
         <v>174</v>
       </c>
       <c r="E27" s="47" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F27" s="50"/>
     </row>
@@ -10373,39 +10355,39 @@
         <v>103</v>
       </c>
       <c r="B28" s="47" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C28" s="47" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D28" s="47" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E28" s="47" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F28" s="47" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="47" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B29" s="47" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C29" s="47" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D29" s="47" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E29" s="47" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F29" s="47" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -10413,39 +10395,39 @@
         <v>68</v>
       </c>
       <c r="B30" s="47" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C30" s="47" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D30" s="47" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E30" s="47" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F30" s="47" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="47" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B31" s="47" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C31" s="47" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D31" s="47" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E31" s="47" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F31" s="47" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -10453,19 +10435,19 @@
         <v>134</v>
       </c>
       <c r="B32" s="47" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C32" s="47" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D32" s="47" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E32" s="47" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F32" s="47" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -10473,17 +10455,17 @@
         <v>75</v>
       </c>
       <c r="B33" s="47" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C33" s="47" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D33" s="47" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E33" s="53"/>
       <c r="F33" s="47" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -10491,16 +10473,16 @@
         <v>127</v>
       </c>
       <c r="B34" s="47" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C34" s="47" t="s">
+        <v>271</v>
+      </c>
+      <c r="D34" s="47" t="s">
+        <v>272</v>
+      </c>
+      <c r="E34" s="47" t="s">
         <v>273</v>
-      </c>
-      <c r="D34" s="47" t="s">
-        <v>274</v>
-      </c>
-      <c r="E34" s="47" t="s">
-        <v>275</v>
       </c>
       <c r="F34" s="50"/>
     </row>
@@ -10509,19 +10491,19 @@
         <v>41</v>
       </c>
       <c r="B35" s="47" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C35" s="47" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D35" s="47" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E35" s="47" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F35" s="47" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -10529,33 +10511,33 @@
         <v>100</v>
       </c>
       <c r="B36" s="47" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C36" s="47" t="s">
+        <v>271</v>
+      </c>
+      <c r="D36" s="47" t="s">
+        <v>272</v>
+      </c>
+      <c r="E36" s="47" t="s">
         <v>273</v>
       </c>
-      <c r="D36" s="47" t="s">
-        <v>274</v>
-      </c>
-      <c r="E36" s="47" t="s">
-        <v>275</v>
-      </c>
       <c r="F36" s="47" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="51" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B37" s="51" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C37" s="51" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D37" s="51" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E37" s="52"/>
       <c r="F37" s="52"/>
@@ -10565,39 +10547,39 @@
         <v>115</v>
       </c>
       <c r="B38" s="47" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C38" s="47" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D38" s="47" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E38" s="47" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F38" s="47" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="47" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B39" s="47" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C39" s="47" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D39" s="47" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E39" s="47" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F39" s="47" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -10605,16 +10587,16 @@
         <v>44</v>
       </c>
       <c r="B40" s="47" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C40" s="47" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D40" s="47" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E40" s="47" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F40" s="50"/>
     </row>
@@ -10626,16 +10608,16 @@
         <v>180</v>
       </c>
       <c r="C41" s="47" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D41" s="47" t="s">
         <v>180</v>
       </c>
       <c r="E41" s="47" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F41" s="47" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
@@ -10643,19 +10625,19 @@
         <v>65</v>
       </c>
       <c r="B42" s="47" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C42" s="47" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D42" s="47" t="s">
+        <v>287</v>
+      </c>
+      <c r="E42" s="47" t="s">
+        <v>314</v>
+      </c>
+      <c r="F42" s="47" t="s">
         <v>289</v>
-      </c>
-      <c r="E42" s="47" t="s">
-        <v>316</v>
-      </c>
-      <c r="F42" s="47" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
@@ -10663,34 +10645,34 @@
         <v>124</v>
       </c>
       <c r="B43" s="47" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C43" s="47" t="s">
+        <v>271</v>
+      </c>
+      <c r="D43" s="47" t="s">
+        <v>272</v>
+      </c>
+      <c r="E43" s="47" t="s">
         <v>273</v>
-      </c>
-      <c r="D43" s="47" t="s">
-        <v>274</v>
-      </c>
-      <c r="E43" s="47" t="s">
-        <v>275</v>
       </c>
       <c r="F43" s="50"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="47" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B44" s="47" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C44" s="47" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D44" s="47" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E44" s="47" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F44" s="50"/>
     </row>
@@ -10699,19 +10681,19 @@
         <v>88</v>
       </c>
       <c r="B45" s="47" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C45" s="47" t="s">
+        <v>271</v>
+      </c>
+      <c r="D45" s="47" t="s">
+        <v>272</v>
+      </c>
+      <c r="E45" s="47" t="s">
         <v>273</v>
       </c>
-      <c r="D45" s="47" t="s">
-        <v>274</v>
-      </c>
-      <c r="E45" s="47" t="s">
-        <v>275</v>
-      </c>
       <c r="F45" s="47" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
@@ -10719,19 +10701,19 @@
         <v>130</v>
       </c>
       <c r="B46" s="47" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C46" s="47" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D46" s="47" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E46" s="47" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F46" s="47" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">

--- a/Antonio-Feed/__FeedPartsInventory.xlsx
+++ b/Antonio-Feed/__FeedPartsInventory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pollak/Documents/GitHub/Front-Page/Antonio-Feed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58441F2F-390A-F748-840E-E88B0ADD492B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3013534-B61F-054B-A944-3D9E25F12C75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="65760" yWindow="460" windowWidth="35840" windowHeight="19760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="467">
   <si>
     <t>Antenna Inventory</t>
   </si>
@@ -1446,6 +1446,9 @@
   </si>
   <si>
     <t>(010) 24 / 73</t>
+  </si>
+  <si>
+    <t>(003) 12 / 39</t>
   </si>
 </sst>
 </file>
@@ -1616,7 +1619,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="21">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1735,6 +1738,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor rgb="FF00FF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor theme="0"/>
       </patternFill>
     </fill>
   </fills>
@@ -1965,7 +1974,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="151">
+  <cellXfs count="153">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2188,6 +2197,7 @@
     <xf numFmtId="0" fontId="4" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2221,16 +2231,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2474,25 +2487,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="134" t="s">
+      <c r="A1" s="135" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="135"/>
-      <c r="C1" s="135"/>
-      <c r="D1" s="135"/>
-      <c r="E1" s="135"/>
-      <c r="F1" s="135"/>
-      <c r="G1" s="135"/>
-      <c r="H1" s="136"/>
-      <c r="I1" s="137"/>
-      <c r="J1" s="137"/>
-      <c r="K1" s="136"/>
-      <c r="L1" s="137"/>
-      <c r="M1" s="137"/>
-      <c r="N1" s="137"/>
-      <c r="O1" s="137"/>
-      <c r="P1" s="137"/>
-      <c r="Q1" s="137"/>
+      <c r="B1" s="136"/>
+      <c r="C1" s="136"/>
+      <c r="D1" s="136"/>
+      <c r="E1" s="136"/>
+      <c r="F1" s="136"/>
+      <c r="G1" s="136"/>
+      <c r="H1" s="137"/>
+      <c r="I1" s="138"/>
+      <c r="J1" s="138"/>
+      <c r="K1" s="137"/>
+      <c r="L1" s="138"/>
+      <c r="M1" s="138"/>
+      <c r="N1" s="138"/>
+      <c r="O1" s="138"/>
+      <c r="P1" s="138"/>
+      <c r="Q1" s="138"/>
     </row>
     <row r="2" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -3790,38 +3803,38 @@
       <c r="A58" s="9"/>
     </row>
     <row r="59" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="138" t="s">
+      <c r="A59" s="139" t="s">
         <v>157</v>
       </c>
-      <c r="B59" s="133"/>
-      <c r="C59" s="133"/>
+      <c r="B59" s="134"/>
+      <c r="C59" s="134"/>
     </row>
     <row r="60" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="12"/>
     </row>
     <row r="61" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="132" t="s">
+      <c r="A61" s="133" t="s">
         <v>149</v>
       </c>
-      <c r="B61" s="133"/>
-      <c r="C61" s="132" t="s">
+      <c r="B61" s="134"/>
+      <c r="C61" s="133" t="s">
         <v>158</v>
       </c>
-      <c r="D61" s="133"/>
-      <c r="E61" s="133"/>
-      <c r="F61" s="133"/>
+      <c r="D61" s="134"/>
+      <c r="E61" s="134"/>
+      <c r="F61" s="134"/>
     </row>
     <row r="62" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="132" t="s">
+      <c r="A62" s="133" t="s">
         <v>159</v>
       </c>
-      <c r="B62" s="133"/>
-      <c r="C62" s="132" t="s">
+      <c r="B62" s="134"/>
+      <c r="C62" s="133" t="s">
         <v>160</v>
       </c>
-      <c r="D62" s="133"/>
-      <c r="E62" s="133"/>
-      <c r="F62" s="133"/>
+      <c r="D62" s="134"/>
+      <c r="E62" s="134"/>
+      <c r="F62" s="134"/>
     </row>
     <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="64" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4789,7 +4802,7 @@
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4802,20 +4815,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="139" t="s">
+      <c r="A1" s="140" t="s">
         <v>161</v>
       </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="141" t="s">
+      <c r="B1" s="141"/>
+      <c r="C1" s="142" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="142"/>
-      <c r="E1" s="142"/>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
-      <c r="I1" s="142"/>
-      <c r="J1" s="142"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
+      <c r="G1" s="143"/>
+      <c r="H1" s="143"/>
+      <c r="I1" s="143"/>
+      <c r="J1" s="143"/>
       <c r="K1" s="79"/>
       <c r="L1" s="79"/>
     </row>
@@ -4880,11 +4893,11 @@
         <f>HYPERLINK("https://drive.google.com/drive/folders/1G8ecO5ODQmn8FX8jzQ962D928BpQ6iUm","5C4-002")</f>
         <v>5C4-002</v>
       </c>
-      <c r="B4" s="82" t="s">
-        <v>165</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>166</v>
+      <c r="B4" s="151" t="s">
+        <v>179</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>28</v>
       </c>
       <c r="D4" s="21" t="s">
         <v>28</v>
@@ -4907,7 +4920,9 @@
       <c r="J4" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="17"/>
+      <c r="K4" s="74" t="s">
+        <v>466</v>
+      </c>
       <c r="L4" s="17"/>
     </row>
     <row r="5" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -5469,8 +5484,8 @@
       <c r="A20" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="B20" s="150" t="s">
-        <v>179</v>
+      <c r="B20" s="132" t="s">
+        <v>165</v>
       </c>
       <c r="C20" s="23" t="s">
         <v>28</v>
@@ -5493,7 +5508,7 @@
       <c r="I20" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="J20" s="26" t="s">
+      <c r="J20" s="152" t="s">
         <v>175</v>
       </c>
       <c r="K20" s="74" t="s">
@@ -5601,20 +5616,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="143" t="s">
+      <c r="A1" s="144" t="s">
         <v>161</v>
       </c>
-      <c r="B1" s="144"/>
-      <c r="C1" s="143" t="s">
+      <c r="B1" s="145"/>
+      <c r="C1" s="144" t="s">
         <v>364</v>
       </c>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
-      <c r="H1" s="145"/>
-      <c r="I1" s="145"/>
-      <c r="J1" s="144"/>
+      <c r="D1" s="146"/>
+      <c r="E1" s="146"/>
+      <c r="F1" s="146"/>
+      <c r="G1" s="146"/>
+      <c r="H1" s="146"/>
+      <c r="I1" s="146"/>
+      <c r="J1" s="145"/>
     </row>
     <row r="2" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="68" t="s">
@@ -7400,11 +7415,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="134" t="s">
+      <c r="A1" s="135" t="s">
         <v>451</v>
       </c>
-      <c r="B1" s="146"/>
-      <c r="C1" s="146"/>
+      <c r="B1" s="147"/>
+      <c r="C1" s="147"/>
       <c r="D1" s="118"/>
       <c r="E1" s="118"/>
       <c r="F1" s="118"/>
@@ -8090,10 +8105,10 @@
       <c r="C1" s="93" t="s">
         <v>424</v>
       </c>
-      <c r="D1" s="147" t="s">
+      <c r="D1" s="150" t="s">
         <v>269</v>
       </c>
-      <c r="E1" s="147"/>
+      <c r="E1" s="150"/>
       <c r="F1" s="102" t="s">
         <v>434</v>
       </c>
@@ -9791,6 +9806,11 @@
     <row r="1023" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="D2:E2"/>
@@ -9807,11 +9827,6 @@
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Antonio-Feed/__FeedPartsInventory.xlsx
+++ b/Antonio-Feed/__FeedPartsInventory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pollak/Documents/GitHub/Front-Page/Antonio-Feed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3013534-B61F-054B-A944-3D9E25F12C75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{018E7E6D-2997-1B4D-A6FB-76DCB4943BDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="65760" yWindow="460" windowWidth="35840" windowHeight="19760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="65760" yWindow="460" windowWidth="35840" windowHeight="19760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parts At ATA" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="467">
   <si>
     <t>Antenna Inventory</t>
   </si>
@@ -1619,7 +1619,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="22">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1736,14 +1736,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor theme="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FF00FF00"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
-        <bgColor theme="0"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -1974,7 +1980,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="153">
+  <cellXfs count="152">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2103,7 +2109,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -2197,7 +2202,6 @@
     <xf numFmtId="0" fontId="4" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2231,19 +2235,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2462,8 +2467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q1001"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2487,25 +2492,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="135" t="s">
+      <c r="A1" s="133" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="136"/>
-      <c r="C1" s="136"/>
-      <c r="D1" s="136"/>
-      <c r="E1" s="136"/>
-      <c r="F1" s="136"/>
-      <c r="G1" s="136"/>
-      <c r="H1" s="137"/>
-      <c r="I1" s="138"/>
-      <c r="J1" s="138"/>
-      <c r="K1" s="137"/>
-      <c r="L1" s="138"/>
-      <c r="M1" s="138"/>
-      <c r="N1" s="138"/>
-      <c r="O1" s="138"/>
-      <c r="P1" s="138"/>
-      <c r="Q1" s="138"/>
+      <c r="B1" s="134"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
+      <c r="G1" s="134"/>
+      <c r="H1" s="135"/>
+      <c r="I1" s="136"/>
+      <c r="J1" s="136"/>
+      <c r="K1" s="135"/>
+      <c r="L1" s="136"/>
+      <c r="M1" s="136"/>
+      <c r="N1" s="136"/>
+      <c r="O1" s="136"/>
+      <c r="P1" s="136"/>
+      <c r="Q1" s="136"/>
     </row>
     <row r="2" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -2640,9 +2645,9 @@
       <c r="C6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="84"/>
-      <c r="E6" s="84"/>
-      <c r="F6" s="84"/>
+      <c r="D6" s="83"/>
+      <c r="E6" s="83"/>
+      <c r="F6" s="83"/>
       <c r="H6" s="71"/>
       <c r="I6" s="71"/>
       <c r="J6" s="71"/>
@@ -2665,9 +2670,9 @@
       <c r="C7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="85"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="84"/>
+      <c r="D7" s="84"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="83"/>
       <c r="G7" s="9"/>
       <c r="H7" s="71"/>
       <c r="I7" s="71"/>
@@ -2902,8 +2907,12 @@
       <c r="C15" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
+      <c r="D15" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="F15" s="4"/>
       <c r="H15" s="71"/>
       <c r="I15" s="71"/>
@@ -3035,7 +3044,7 @@
         <v>76</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>77</v>
+        <v>241</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>78</v>
@@ -3065,13 +3074,13 @@
       <c r="C21" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D21" s="88" t="s">
+      <c r="D21" s="87" t="s">
         <v>358</v>
       </c>
-      <c r="E21" s="84" t="s">
+      <c r="E21" s="83" t="s">
         <v>130</v>
       </c>
-      <c r="F21" s="84"/>
+      <c r="F21" s="83"/>
       <c r="H21" s="71"/>
       <c r="I21" s="71"/>
       <c r="J21" s="71"/>
@@ -3094,9 +3103,9 @@
       <c r="C22" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D22" s="84"/>
-      <c r="E22" s="84"/>
-      <c r="F22" s="84"/>
+      <c r="D22" s="83"/>
+      <c r="E22" s="83"/>
+      <c r="F22" s="83"/>
       <c r="H22" s="71"/>
       <c r="I22" s="71"/>
       <c r="J22" s="71"/>
@@ -3119,9 +3128,9 @@
       <c r="C23" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D23" s="84"/>
-      <c r="E23" s="84"/>
-      <c r="F23" s="84"/>
+      <c r="D23" s="83"/>
+      <c r="E23" s="83"/>
+      <c r="F23" s="83"/>
       <c r="H23" s="71"/>
       <c r="I23" s="71"/>
       <c r="J23" s="71"/>
@@ -3144,13 +3153,13 @@
       <c r="C24" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D24" s="88" t="s">
+      <c r="D24" s="87" t="s">
         <v>355</v>
       </c>
-      <c r="E24" s="87" t="s">
+      <c r="E24" s="86" t="s">
         <v>302</v>
       </c>
-      <c r="F24" s="84"/>
+      <c r="F24" s="83"/>
       <c r="G24" s="9"/>
       <c r="H24" s="71"/>
       <c r="I24" s="71"/>
@@ -3206,9 +3215,13 @@
       <c r="C26" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D26" s="85"/>
-      <c r="E26" s="84"/>
-      <c r="F26" s="84"/>
+      <c r="D26" s="87" t="s">
+        <v>243</v>
+      </c>
+      <c r="E26" s="83" t="s">
+        <v>140</v>
+      </c>
+      <c r="F26" s="83"/>
       <c r="G26" s="9"/>
       <c r="H26" s="71"/>
       <c r="I26" s="71"/>
@@ -3232,9 +3245,9 @@
       <c r="C27" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="D27" s="84"/>
-      <c r="E27" s="84"/>
-      <c r="F27" s="86"/>
+      <c r="D27" s="83"/>
+      <c r="E27" s="83"/>
+      <c r="F27" s="85"/>
       <c r="H27" s="71"/>
       <c r="I27" s="71"/>
       <c r="J27" s="71"/>
@@ -3803,38 +3816,38 @@
       <c r="A58" s="9"/>
     </row>
     <row r="59" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="139" t="s">
+      <c r="A59" s="137" t="s">
         <v>157</v>
       </c>
-      <c r="B59" s="134"/>
-      <c r="C59" s="134"/>
+      <c r="B59" s="132"/>
+      <c r="C59" s="132"/>
     </row>
     <row r="60" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="12"/>
     </row>
     <row r="61" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="133" t="s">
+      <c r="A61" s="131" t="s">
         <v>149</v>
       </c>
-      <c r="B61" s="134"/>
-      <c r="C61" s="133" t="s">
+      <c r="B61" s="132"/>
+      <c r="C61" s="131" t="s">
         <v>158</v>
       </c>
-      <c r="D61" s="134"/>
-      <c r="E61" s="134"/>
-      <c r="F61" s="134"/>
+      <c r="D61" s="132"/>
+      <c r="E61" s="132"/>
+      <c r="F61" s="132"/>
     </row>
     <row r="62" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="133" t="s">
+      <c r="A62" s="131" t="s">
         <v>159</v>
       </c>
-      <c r="B62" s="134"/>
-      <c r="C62" s="133" t="s">
+      <c r="B62" s="132"/>
+      <c r="C62" s="131" t="s">
         <v>160</v>
       </c>
-      <c r="D62" s="134"/>
-      <c r="E62" s="134"/>
-      <c r="F62" s="134"/>
+      <c r="D62" s="132"/>
+      <c r="E62" s="132"/>
+      <c r="F62" s="132"/>
     </row>
     <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="64" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4801,8 +4814,8 @@
   </sheetPr>
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+    <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4815,52 +4828,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="138" t="s">
         <v>161</v>
       </c>
-      <c r="B1" s="141"/>
-      <c r="C1" s="142" t="s">
+      <c r="B1" s="139"/>
+      <c r="C1" s="140" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
-      <c r="G1" s="143"/>
-      <c r="H1" s="143"/>
-      <c r="I1" s="143"/>
-      <c r="J1" s="143"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="141"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
     </row>
     <row r="2" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="128" t="s">
+      <c r="A2" s="127" t="s">
         <v>162</v>
       </c>
-      <c r="B2" s="128" t="s">
+      <c r="B2" s="127" t="s">
         <v>163</v>
       </c>
-      <c r="C2" s="128" t="s">
+      <c r="C2" s="127" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="129" t="s">
+      <c r="D2" s="128" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="128" t="s">
+      <c r="E2" s="127" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="128" t="s">
+      <c r="F2" s="127" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="128" t="s">
+      <c r="G2" s="127" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="128" t="s">
+      <c r="H2" s="127" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="130" t="s">
+      <c r="I2" s="129" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="130" t="s">
+      <c r="J2" s="129" t="s">
         <v>164</v>
       </c>
       <c r="K2" s="15" t="s">
@@ -4870,21 +4883,21 @@
         <v>395</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="115" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" s="114" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="22" t="s">
         <v>450</v>
       </c>
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="81" t="s">
         <v>165</v>
       </c>
-      <c r="C3" s="116"/>
-      <c r="D3" s="117"/>
-      <c r="E3" s="117"/>
-      <c r="F3" s="117"/>
-      <c r="G3" s="117"/>
-      <c r="H3" s="117"/>
-      <c r="I3" s="117"/>
-      <c r="J3" s="117"/>
+      <c r="C3" s="115"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
+      <c r="F3" s="116"/>
+      <c r="G3" s="116"/>
+      <c r="H3" s="116"/>
+      <c r="I3" s="116"/>
+      <c r="J3" s="116"/>
       <c r="K3" s="74"/>
       <c r="L3" s="74"/>
     </row>
@@ -4893,7 +4906,7 @@
         <f>HYPERLINK("https://drive.google.com/drive/folders/1G8ecO5ODQmn8FX8jzQ962D928BpQ6iUm","5C4-002")</f>
         <v>5C4-002</v>
       </c>
-      <c r="B4" s="151" t="s">
+      <c r="B4" s="80" t="s">
         <v>179</v>
       </c>
       <c r="C4" s="21" t="s">
@@ -4930,7 +4943,7 @@
         <f>HYPERLINK("https://drive.google.com/drive/folders/1X_yNido1T9NRAtsXoJ-h2bFXlpLfFW-N","5C4-003")</f>
         <v>5C4-003</v>
       </c>
-      <c r="B5" s="82" t="s">
+      <c r="B5" s="81" t="s">
         <v>165</v>
       </c>
       <c r="C5" s="19" t="s">
@@ -5031,7 +5044,7 @@
       <c r="J7" s="26" t="s">
         <v>175</v>
       </c>
-      <c r="K7" s="100" t="s">
+      <c r="K7" s="99" t="s">
         <v>432</v>
       </c>
       <c r="L7" s="74"/>
@@ -5077,7 +5090,7 @@
       <c r="A9" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="B9" s="81" t="s">
+      <c r="B9" s="80" t="s">
         <v>290</v>
       </c>
       <c r="C9" s="21" t="s">
@@ -5153,7 +5166,7 @@
         <f>HYPERLINK("https://drive.google.com/drive/folders/1EhIIjKRxAQ858Wo2OYQq3GdqbI2ok5Af","5C4-009")</f>
         <v>5C4-009</v>
       </c>
-      <c r="B11" s="80" t="s">
+      <c r="B11" s="79" t="s">
         <v>165</v>
       </c>
       <c r="C11" s="19" t="s">
@@ -5288,10 +5301,10 @@
       <c r="I14" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="J14" s="131" t="s">
+      <c r="J14" s="130" t="s">
         <v>175</v>
       </c>
-      <c r="K14" s="100" t="s">
+      <c r="K14" s="99" t="s">
         <v>430</v>
       </c>
       <c r="L14" s="74"/>
@@ -5377,7 +5390,7 @@
         <f>HYPERLINK("https://drive.google.com/drive/folders/1GhnG5G_BN5lBSXzegcxU-3TuUUTEd6xm","5C4-015")</f>
         <v>5C4-015</v>
       </c>
-      <c r="B17" s="80" t="s">
+      <c r="B17" s="79" t="s">
         <v>165</v>
       </c>
       <c r="C17" s="19" t="s">
@@ -5484,7 +5497,7 @@
       <c r="A20" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="B20" s="132" t="s">
+      <c r="B20" s="150" t="s">
         <v>165</v>
       </c>
       <c r="C20" s="23" t="s">
@@ -5508,7 +5521,7 @@
       <c r="I20" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="J20" s="152" t="s">
+      <c r="J20" s="149" t="s">
         <v>175</v>
       </c>
       <c r="K20" s="74" t="s">
@@ -5558,8 +5571,8 @@
         <f>HYPERLINK("https://drive.google.com/drive/folders/1wMVARUxnYHeiTbbEodCmZFb_vx9FkRVr","5C4-020")</f>
         <v>5C4-020</v>
       </c>
-      <c r="B22" s="76" t="s">
-        <v>181</v>
+      <c r="B22" s="151" t="s">
+        <v>165</v>
       </c>
       <c r="C22" s="23" t="s">
         <v>28</v>
@@ -5616,20 +5629,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="144" t="s">
+      <c r="A1" s="142" t="s">
         <v>161</v>
       </c>
-      <c r="B1" s="145"/>
-      <c r="C1" s="144" t="s">
+      <c r="B1" s="143"/>
+      <c r="C1" s="142" t="s">
         <v>364</v>
       </c>
-      <c r="D1" s="146"/>
-      <c r="E1" s="146"/>
-      <c r="F1" s="146"/>
-      <c r="G1" s="146"/>
-      <c r="H1" s="146"/>
-      <c r="I1" s="146"/>
-      <c r="J1" s="145"/>
+      <c r="D1" s="144"/>
+      <c r="E1" s="144"/>
+      <c r="F1" s="144"/>
+      <c r="G1" s="144"/>
+      <c r="H1" s="144"/>
+      <c r="I1" s="144"/>
+      <c r="J1" s="143"/>
     </row>
     <row r="2" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="68" t="s">
@@ -5697,7 +5710,7 @@
       <c r="A5" s="55" t="s">
         <v>352</v>
       </c>
-      <c r="B5" s="77" t="s">
+      <c r="B5" s="76" t="s">
         <v>282</v>
       </c>
       <c r="C5" s="65" t="s">
@@ -5913,7 +5926,7 @@
       <c r="C16" s="65" t="s">
         <v>379</v>
       </c>
-      <c r="D16" s="83" t="s">
+      <c r="D16" s="82" t="s">
         <v>380</v>
       </c>
       <c r="E16" s="63"/>
@@ -5999,7 +6012,7 @@
       <c r="A21" s="55" t="s">
         <v>363</v>
       </c>
-      <c r="B21" s="78" t="s">
+      <c r="B21" s="77" t="s">
         <v>181</v>
       </c>
       <c r="C21" s="67"/>
@@ -7415,14 +7428,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="135" t="s">
+      <c r="A1" s="133" t="s">
         <v>451</v>
       </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="147"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
+      <c r="B1" s="145"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="73" t="s">
@@ -7439,44 +7452,44 @@
       <c r="F2" s="73"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="119" t="str">
+      <c r="A3" s="118" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1h79fqthLoRJDjhC2klnjbkG8MB2JL2Hy","1A")</f>
         <v>1A</v>
       </c>
-      <c r="B3" s="121" t="s">
+      <c r="B3" s="120" t="s">
         <v>454</v>
       </c>
-      <c r="C3" s="123" t="s">
+      <c r="C3" s="122" t="s">
         <v>456</v>
       </c>
       <c r="D3" s="73"/>
       <c r="E3" s="73"/>
-      <c r="F3" s="96"/>
+      <c r="F3" s="95"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="119" t="str">
+      <c r="A4" s="118" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1OPl2VmHH1ZeMZjQWNCCkQkA6bOfyIeqj","1B")</f>
         <v>1B</v>
       </c>
-      <c r="B4" s="121" t="s">
+      <c r="B4" s="120" t="s">
         <v>454</v>
       </c>
-      <c r="C4" s="123" t="s">
+      <c r="C4" s="122" t="s">
         <v>48</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
-      <c r="F4" s="115"/>
+      <c r="F4" s="114"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="120" t="str">
+      <c r="A5" s="119" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1_67Lwh4ATjaUkKTpdhqNA2vhhSxMhfoh","1C")</f>
         <v>1C</v>
       </c>
-      <c r="B5" s="122" t="s">
+      <c r="B5" s="121" t="s">
         <v>455</v>
       </c>
-      <c r="C5" s="123" t="s">
+      <c r="C5" s="122" t="s">
         <v>456</v>
       </c>
       <c r="D5" s="9"/>
@@ -7484,59 +7497,59 @@
       <c r="F5" s="9"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="120" t="str">
+      <c r="A6" s="119" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1RDZathABUe1AxNllos18oBRUGkUw-BAb","1D")</f>
         <v>1D</v>
       </c>
-      <c r="B6" s="121" t="s">
+      <c r="B6" s="120" t="s">
         <v>454</v>
       </c>
-      <c r="C6" s="123" t="s">
+      <c r="C6" s="122" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="84"/>
-      <c r="E6" s="84"/>
-      <c r="F6" s="115"/>
+      <c r="D6" s="83"/>
+      <c r="E6" s="83"/>
+      <c r="F6" s="114"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="120" t="str">
+      <c r="A7" s="119" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1B7jEgQfvgjZIKbfW8eR9qm2PDLYRcFFX","1E")</f>
         <v>1E</v>
       </c>
-      <c r="B7" s="122" t="s">
+      <c r="B7" s="121" t="s">
         <v>455</v>
       </c>
-      <c r="C7" s="124" t="s">
+      <c r="C7" s="123" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="84"/>
-      <c r="E7" s="84"/>
+      <c r="D7" s="83"/>
+      <c r="E7" s="83"/>
       <c r="F7" s="9"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="120" t="str">
+      <c r="A8" s="119" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1y8psJsldf8GOPKXdI3_7jAN-0VefmuVb","1F")</f>
         <v>1F</v>
       </c>
-      <c r="B8" s="121" t="s">
+      <c r="B8" s="120" t="s">
         <v>454</v>
       </c>
-      <c r="C8" s="123" t="s">
+      <c r="C8" s="122" t="s">
         <v>456</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
-      <c r="F8" s="115"/>
+      <c r="F8" s="114"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="119" t="str">
+      <c r="A9" s="118" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1Ak0bagtonjeBe0T45ml7mh9V5vKH_FoI","1G")</f>
         <v>1G</v>
       </c>
-      <c r="B9" s="122" t="s">
+      <c r="B9" s="121" t="s">
         <v>455</v>
       </c>
-      <c r="C9" s="124" t="s">
+      <c r="C9" s="123" t="s">
         <v>48</v>
       </c>
       <c r="D9" s="9"/>
@@ -7544,29 +7557,29 @@
       <c r="F9" s="9"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="119" t="str">
+      <c r="A10" s="118" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=15tp_vGgbK5-4zzthz0W8wuq2zgKokja6","1H")</f>
         <v>1H</v>
       </c>
-      <c r="B10" s="122" t="s">
+      <c r="B10" s="121" t="s">
         <v>455</v>
       </c>
-      <c r="C10" s="123" t="s">
+      <c r="C10" s="122" t="s">
         <v>456</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
-      <c r="F10" s="115"/>
+      <c r="F10" s="114"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="119" t="str">
+      <c r="A11" s="118" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1EMft8Du0dvrSSlstsShqV16Nnrlb4EO_","1J")</f>
         <v>1J</v>
       </c>
-      <c r="B11" s="121" t="s">
+      <c r="B11" s="120" t="s">
         <v>454</v>
       </c>
-      <c r="C11" s="123" t="s">
+      <c r="C11" s="122" t="s">
         <v>48</v>
       </c>
       <c r="D11" s="9"/>
@@ -7574,119 +7587,119 @@
       <c r="F11" s="9"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="119" t="str">
+      <c r="A12" s="118" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1B-AwkTkUdHQS0dThuP6mM5L_0XIFZ2QS","1K")</f>
         <v>1K</v>
       </c>
-      <c r="B12" s="122" t="s">
+      <c r="B12" s="121" t="s">
         <v>455</v>
       </c>
-      <c r="C12" s="123" t="s">
+      <c r="C12" s="122" t="s">
         <v>456</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
-      <c r="F12" s="115"/>
+      <c r="F12" s="114"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="119" t="str">
+      <c r="A13" s="118" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1XILFfrJerwAeHeN4xKdQH-99VN9y0QS7","2A")</f>
         <v>2A</v>
       </c>
-      <c r="B13" s="122" t="s">
+      <c r="B13" s="121" t="s">
         <v>455</v>
       </c>
-      <c r="C13" s="123" t="s">
+      <c r="C13" s="122" t="s">
         <v>456</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
-      <c r="F13" s="115"/>
+      <c r="F13" s="114"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="119" t="str">
+      <c r="A14" s="118" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1i7lErxBcw13LxRubiAB_0upxTGrTLBvi","2B")</f>
         <v>2B</v>
       </c>
-      <c r="B14" s="122" t="s">
+      <c r="B14" s="121" t="s">
         <v>455</v>
       </c>
-      <c r="C14" s="123" t="s">
+      <c r="C14" s="122" t="s">
         <v>456</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
-      <c r="F14" s="115"/>
+      <c r="F14" s="114"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="119" t="str">
+      <c r="A15" s="118" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1HmSkhlRiy_w_xIcPrlD-Gu21Q1sHCajk","2C")</f>
         <v>2C</v>
       </c>
-      <c r="B15" s="122" t="s">
+      <c r="B15" s="121" t="s">
         <v>455</v>
       </c>
-      <c r="C15" s="123" t="s">
+      <c r="C15" s="122" t="s">
         <v>48</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
-      <c r="F15" s="115"/>
+      <c r="F15" s="114"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="119" t="str">
+      <c r="A16" s="118" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1ih9AM9nSu6WpURV8EnXu6Q1HkOh5dSXM","2D")</f>
         <v>2D</v>
       </c>
-      <c r="B16" s="121" t="s">
+      <c r="B16" s="120" t="s">
         <v>454</v>
       </c>
-      <c r="C16" s="123" t="s">
+      <c r="C16" s="122" t="s">
         <v>48</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
-      <c r="F16" s="115"/>
+      <c r="F16" s="114"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="119" t="str">
+      <c r="A17" s="118" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1ilbwUzFLn2Zr9CQ_v673T9KjSALf_GzB","2E")</f>
         <v>2E</v>
       </c>
-      <c r="B17" s="122" t="s">
+      <c r="B17" s="121" t="s">
         <v>455</v>
       </c>
-      <c r="C17" s="123" t="s">
+      <c r="C17" s="122" t="s">
         <v>456</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
-      <c r="F17" s="115"/>
+      <c r="F17" s="114"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="119" t="str">
+      <c r="A18" s="118" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1H2B7fJmOymk8ZeyITqVgqJIR9EbewGjs","2F")</f>
         <v>2F</v>
       </c>
-      <c r="B18" s="121" t="s">
+      <c r="B18" s="120" t="s">
         <v>454</v>
       </c>
-      <c r="C18" s="123" t="s">
+      <c r="C18" s="122" t="s">
         <v>48</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
-      <c r="F18" s="115"/>
+      <c r="F18" s="114"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="119" t="str">
+      <c r="A19" s="118" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1GXDi1coA9HtIo5F2GTLcPhpAh_IiHrmJ","2G")</f>
         <v>2G</v>
       </c>
-      <c r="B19" s="121" t="s">
+      <c r="B19" s="120" t="s">
         <v>454</v>
       </c>
-      <c r="C19" s="123" t="s">
+      <c r="C19" s="122" t="s">
         <v>48</v>
       </c>
       <c r="D19" s="9"/>
@@ -7694,149 +7707,149 @@
       <c r="F19" s="9"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="119" t="str">
+      <c r="A20" s="118" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=18itspidwzvb4KFHkqj1122TxuhHxILwX","2H")</f>
         <v>2H</v>
       </c>
-      <c r="B20" s="122" t="s">
+      <c r="B20" s="121" t="s">
         <v>455</v>
       </c>
-      <c r="C20" s="123" t="s">
+      <c r="C20" s="122" t="s">
         <v>456</v>
       </c>
-      <c r="D20" s="114"/>
+      <c r="D20" s="113"/>
       <c r="E20" s="9"/>
-      <c r="F20" s="115"/>
+      <c r="F20" s="114"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="119" t="str">
+      <c r="A21" s="118" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=12YgGEJrua5a-agu15lV4vezflw1cOjQ4","2J")</f>
         <v>2J</v>
       </c>
-      <c r="B21" s="122" t="s">
+      <c r="B21" s="121" t="s">
         <v>455</v>
       </c>
-      <c r="C21" s="123" t="s">
+      <c r="C21" s="122" t="s">
         <v>456</v>
       </c>
-      <c r="D21" s="84"/>
-      <c r="E21" s="84"/>
-      <c r="F21" s="115"/>
+      <c r="D21" s="83"/>
+      <c r="E21" s="83"/>
+      <c r="F21" s="114"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="119" t="str">
+      <c r="A22" s="118" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1mdMrKj4CCNPy7BlChSDOU2hQAJONhZzU","2K")</f>
         <v>2K</v>
       </c>
-      <c r="B22" s="122" t="s">
+      <c r="B22" s="121" t="s">
         <v>455</v>
       </c>
-      <c r="C22" s="123" t="s">
+      <c r="C22" s="122" t="s">
         <v>48</v>
       </c>
-      <c r="D22" s="84"/>
-      <c r="E22" s="84"/>
-      <c r="F22" s="115"/>
+      <c r="D22" s="83"/>
+      <c r="E22" s="83"/>
+      <c r="F22" s="114"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="119" t="str">
+      <c r="A23" s="118" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=14mzIl-szkFL_WWXlsFZ9T_x3Mt5RAOn0","2L")</f>
         <v>2L</v>
       </c>
-      <c r="B23" s="122" t="s">
+      <c r="B23" s="121" t="s">
         <v>455</v>
       </c>
-      <c r="C23" s="123" t="s">
+      <c r="C23" s="122" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="84"/>
-      <c r="E23" s="84"/>
-      <c r="F23" s="115"/>
+      <c r="D23" s="83"/>
+      <c r="E23" s="83"/>
+      <c r="F23" s="114"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="119" t="str">
+      <c r="A24" s="118" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1-X_VRvOqUUm_bcQ792NJw8TTxR5Kl3lr","2M")</f>
         <v>2M</v>
       </c>
-      <c r="B24" s="122" t="s">
+      <c r="B24" s="121" t="s">
         <v>455</v>
       </c>
-      <c r="C24" s="123" t="s">
+      <c r="C24" s="122" t="s">
         <v>456</v>
       </c>
-      <c r="D24" s="114"/>
-      <c r="E24" s="84"/>
+      <c r="D24" s="113"/>
+      <c r="E24" s="83"/>
       <c r="F24" s="9"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="119" t="str">
+      <c r="A25" s="118" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1ofYuI7zJYOx0Em5kOgymDe9L2TWaIZ-_","3C")</f>
         <v>3C</v>
       </c>
-      <c r="B25" s="122" t="s">
+      <c r="B25" s="121" t="s">
         <v>455</v>
       </c>
-      <c r="C25" s="123" t="s">
+      <c r="C25" s="122" t="s">
         <v>456</v>
       </c>
-      <c r="D25" s="114"/>
+      <c r="D25" s="113"/>
       <c r="E25" s="9"/>
-      <c r="F25" s="115"/>
+      <c r="F25" s="114"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="119" t="str">
+      <c r="A26" s="118" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1X9eTLHcdh-lSX2OXG4OLDNwPRG5eoz9l","3D")</f>
         <v>3D</v>
       </c>
-      <c r="B26" s="122" t="s">
+      <c r="B26" s="121" t="s">
         <v>455</v>
       </c>
-      <c r="C26" s="124" t="s">
+      <c r="C26" s="123" t="s">
         <v>48</v>
       </c>
-      <c r="D26" s="84"/>
-      <c r="E26" s="84"/>
+      <c r="D26" s="83"/>
+      <c r="E26" s="83"/>
       <c r="F26" s="9"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="119" t="str">
+      <c r="A27" s="118" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1m_ACLfEw9sFFcCd16wQnkI9wa3WI7gK9","3E")</f>
         <v>3E</v>
       </c>
-      <c r="B27" s="121" t="s">
+      <c r="B27" s="120" t="s">
         <v>454</v>
       </c>
-      <c r="C27" s="123" t="s">
+      <c r="C27" s="122" t="s">
         <v>48</v>
       </c>
-      <c r="D27" s="84"/>
-      <c r="E27" s="86"/>
-      <c r="F27" s="115"/>
+      <c r="D27" s="83"/>
+      <c r="E27" s="85"/>
+      <c r="F27" s="114"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="119" t="str">
+      <c r="A28" s="118" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1CIBdXiHhWBrM6LwlY-yGooPill1DRTQ7","3F")</f>
         <v>3F</v>
       </c>
-      <c r="B28" s="123" t="s">
+      <c r="B28" s="122" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="123" t="s">
+      <c r="C28" s="122" t="s">
         <v>48</v>
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
-      <c r="F28" s="114"/>
+      <c r="F28" s="113"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="119" t="str">
+      <c r="A29" s="118" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1c2xmouFbs4cNAvpeHuAdgNreh8kFEC2V","3G")</f>
         <v>3G</v>
       </c>
-      <c r="B29" s="123" t="s">
+      <c r="B29" s="122" t="s">
         <v>48</v>
       </c>
-      <c r="C29" s="123" t="s">
+      <c r="C29" s="122" t="s">
         <v>48</v>
       </c>
       <c r="D29" s="9"/>
@@ -7844,14 +7857,14 @@
       <c r="F29" s="9"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="119" t="str">
+      <c r="A30" s="118" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1t7wkFvS4sGjdMU60zYacdFSrl4pYayl_","3H")</f>
         <v>3H</v>
       </c>
-      <c r="B30" s="123" t="s">
+      <c r="B30" s="122" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="123" t="s">
+      <c r="C30" s="122" t="s">
         <v>48</v>
       </c>
       <c r="D30" s="9"/>
@@ -7859,44 +7872,44 @@
       <c r="F30" s="9"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="119" t="str">
+      <c r="A31" s="118" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1N0-R1KTkpoZjXWmN7r0U_myR9XBY5SDj","3J")</f>
         <v>3J</v>
       </c>
-      <c r="B31" s="121" t="s">
+      <c r="B31" s="120" t="s">
         <v>454</v>
       </c>
-      <c r="C31" s="123" t="s">
+      <c r="C31" s="122" t="s">
         <v>48</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
-      <c r="F31" s="115"/>
+      <c r="F31" s="114"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="119" t="str">
+      <c r="A32" s="118" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=13pmWKIsTMFsSuBTJ-HZb5DVIowIXTS_s","3L")</f>
         <v>3L</v>
       </c>
-      <c r="B32" s="122" t="s">
+      <c r="B32" s="121" t="s">
         <v>455</v>
       </c>
-      <c r="C32" s="123" t="s">
+      <c r="C32" s="122" t="s">
         <v>456</v>
       </c>
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
-      <c r="F32" s="115"/>
+      <c r="F32" s="114"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="119" t="str">
+      <c r="A33" s="118" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=16nGNQgv2r19h9agxYjXmQ8rC4v330dYf","4E")</f>
         <v>4E</v>
       </c>
-      <c r="B33" s="121" t="s">
+      <c r="B33" s="120" t="s">
         <v>454</v>
       </c>
-      <c r="C33" s="123" t="s">
+      <c r="C33" s="122" t="s">
         <v>48</v>
       </c>
       <c r="D33" s="9"/>
@@ -7904,14 +7917,14 @@
       <c r="F33" s="9"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="119" t="str">
+      <c r="A34" s="118" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1bmJc7h6PrfobWHjtATEPhVDZqxi3ORaa","4F")</f>
         <v>4F</v>
       </c>
-      <c r="B34" s="121" t="s">
+      <c r="B34" s="120" t="s">
         <v>454</v>
       </c>
-      <c r="C34" s="123" t="s">
+      <c r="C34" s="122" t="s">
         <v>48</v>
       </c>
       <c r="D34" s="9"/>
@@ -7919,29 +7932,29 @@
       <c r="F34" s="9"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="119" t="str">
+      <c r="A35" s="118" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1nHAP6VZOPX4PWClDeQpEHh4MuzIQchEa","4G")</f>
         <v>4G</v>
       </c>
-      <c r="B35" s="121" t="s">
+      <c r="B35" s="120" t="s">
         <v>454</v>
       </c>
-      <c r="C35" s="123" t="s">
+      <c r="C35" s="122" t="s">
         <v>456</v>
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
-      <c r="F35" s="115"/>
+      <c r="F35" s="114"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="119" t="str">
+      <c r="A36" s="118" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1a78u8iOyRFbuJtQlj9X51FknS9EfCDih","4H")</f>
         <v>4H</v>
       </c>
-      <c r="B36" s="121" t="s">
+      <c r="B36" s="120" t="s">
         <v>454</v>
       </c>
-      <c r="C36" s="123" t="s">
+      <c r="C36" s="122" t="s">
         <v>48</v>
       </c>
       <c r="D36" s="9"/>
@@ -7949,124 +7962,124 @@
       <c r="F36" s="9"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="119" t="str">
+      <c r="A37" s="118" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1zZjefBVzFC9BP-YmMKfQZMWa1XGkqomj","4J")</f>
         <v>4J</v>
       </c>
-      <c r="B37" s="122" t="s">
+      <c r="B37" s="121" t="s">
         <v>455</v>
       </c>
-      <c r="C37" s="123" t="s">
+      <c r="C37" s="122" t="s">
         <v>456</v>
       </c>
-      <c r="D37" s="114"/>
+      <c r="D37" s="113"/>
       <c r="E37" s="9"/>
-      <c r="F37" s="115"/>
+      <c r="F37" s="114"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="119" t="str">
+      <c r="A38" s="118" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1qWFlabv0TeVOBvOIJQuvHlR1H3AMOPvN","4K")</f>
         <v>4K</v>
       </c>
-      <c r="B38" s="121" t="s">
+      <c r="B38" s="120" t="s">
         <v>454</v>
       </c>
-      <c r="C38" s="123" t="s">
+      <c r="C38" s="122" t="s">
         <v>48</v>
       </c>
       <c r="D38" s="9"/>
       <c r="E38" s="9"/>
-      <c r="F38" s="115"/>
+      <c r="F38" s="114"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="119" t="str">
+      <c r="A39" s="118" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=176NV2NM9yvfuW1EMU3iBS768FxgmXjUS","4L")</f>
         <v>4L</v>
       </c>
-      <c r="B39" s="121" t="s">
+      <c r="B39" s="120" t="s">
         <v>454</v>
       </c>
-      <c r="C39" s="123" t="s">
+      <c r="C39" s="122" t="s">
         <v>48</v>
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="9"/>
-      <c r="F39" s="115"/>
+      <c r="F39" s="114"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="119" t="str">
+      <c r="A40" s="118" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1cC0P-G66cPSNnf6v6z8opZCNyporo74Y","5B")</f>
         <v>5B</v>
       </c>
-      <c r="B40" s="122" t="s">
+      <c r="B40" s="121" t="s">
         <v>455</v>
       </c>
-      <c r="C40" s="124" t="s">
+      <c r="C40" s="123" t="s">
         <v>48</v>
       </c>
-      <c r="D40" s="114"/>
+      <c r="D40" s="113"/>
       <c r="E40" s="9"/>
-      <c r="F40" s="115"/>
+      <c r="F40" s="114"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="119" t="str">
+      <c r="A41" s="118" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1q_N74b1OZrCze7zuXy5fm0ASU07tWzh3","5C")</f>
         <v>5C</v>
       </c>
-      <c r="B41" s="121" t="s">
+      <c r="B41" s="120" t="s">
         <v>454</v>
       </c>
-      <c r="C41" s="123" t="s">
+      <c r="C41" s="122" t="s">
         <v>456</v>
       </c>
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
-      <c r="F41" s="115"/>
+      <c r="F41" s="114"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="119" t="str">
+      <c r="A42" s="118" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1aKSCelAY002Ihje9mdJi7jFh0OB4j8XZ","5E")</f>
         <v>5E</v>
       </c>
-      <c r="B42" s="121" t="s">
+      <c r="B42" s="120" t="s">
         <v>454</v>
       </c>
-      <c r="C42" s="123" t="s">
+      <c r="C42" s="122" t="s">
         <v>48</v>
       </c>
       <c r="D42" s="9"/>
       <c r="E42" s="9"/>
-      <c r="F42" s="115"/>
+      <c r="F42" s="114"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="119" t="str">
+      <c r="A43" s="118" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1ghdX_COwJq4oYlhj-qYPypK_2GlrWyQZ","5G")</f>
         <v>5G</v>
       </c>
-      <c r="B43" s="121" t="s">
+      <c r="B43" s="120" t="s">
         <v>454</v>
       </c>
-      <c r="C43" s="123" t="s">
+      <c r="C43" s="122" t="s">
         <v>48</v>
       </c>
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
-      <c r="F43" s="115"/>
+      <c r="F43" s="114"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="119" t="str">
+      <c r="A44" s="118" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1MR24L4GDI5x861k8SMrgm71xRfm55Hiv","5H")</f>
         <v>5H</v>
       </c>
-      <c r="B44" s="121" t="s">
+      <c r="B44" s="120" t="s">
         <v>454</v>
       </c>
-      <c r="C44" s="123" t="s">
+      <c r="C44" s="122" t="s">
         <v>48</v>
       </c>
       <c r="D44" s="9"/>
       <c r="E44" s="9"/>
-      <c r="F44" s="115"/>
+      <c r="F44" s="114"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8096,392 +8109,392 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="91" t="s">
         <v>404</v>
       </c>
-      <c r="B1" s="93" t="s">
+      <c r="B1" s="92" t="s">
         <v>425</v>
       </c>
-      <c r="C1" s="93" t="s">
+      <c r="C1" s="92" t="s">
         <v>424</v>
       </c>
-      <c r="D1" s="150" t="s">
+      <c r="D1" s="146" t="s">
         <v>269</v>
       </c>
-      <c r="E1" s="150"/>
-      <c r="F1" s="102" t="s">
+      <c r="E1" s="146"/>
+      <c r="F1" s="101" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="90" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" s="89" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="9"/>
-      <c r="D2" s="149"/>
-      <c r="E2" s="149"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-    </row>
-    <row r="3" spans="1:9" s="90" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="91" t="s">
+      <c r="D2" s="148"/>
+      <c r="E2" s="148"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+    </row>
+    <row r="3" spans="1:9" s="89" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="90" t="s">
         <v>405</v>
       </c>
-      <c r="B3" s="97">
+      <c r="B3" s="96">
         <v>62</v>
       </c>
-      <c r="C3" s="97">
+      <c r="C3" s="96">
         <v>55</v>
       </c>
-      <c r="D3" s="148" t="s">
+      <c r="D3" s="147" t="s">
         <v>426</v>
       </c>
-      <c r="E3" s="149"/>
-      <c r="F3" s="94" t="s">
+      <c r="E3" s="148"/>
+      <c r="F3" s="93" t="s">
         <v>261</v>
       </c>
-      <c r="G3" s="96"/>
+      <c r="G3" s="95"/>
       <c r="H3" s="71"/>
-      <c r="I3" s="96"/>
-    </row>
-    <row r="4" spans="1:9" s="90" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="91" t="s">
+      <c r="I3" s="95"/>
+    </row>
+    <row r="4" spans="1:9" s="89" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="90" t="s">
         <v>406</v>
       </c>
-      <c r="D4" s="149"/>
-      <c r="E4" s="149"/>
-      <c r="F4" s="95"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="96"/>
-    </row>
-    <row r="5" spans="1:9" s="90" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="91" t="s">
+      <c r="D4" s="148"/>
+      <c r="E4" s="148"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="95"/>
+    </row>
+    <row r="5" spans="1:9" s="89" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="90" t="s">
         <v>407</v>
       </c>
-      <c r="B5" s="97">
+      <c r="B5" s="96">
         <v>44</v>
       </c>
-      <c r="C5" s="97">
+      <c r="C5" s="96">
         <v>43</v>
       </c>
-      <c r="D5" s="149"/>
-      <c r="E5" s="149"/>
-      <c r="F5" s="94" t="s">
+      <c r="D5" s="148"/>
+      <c r="E5" s="148"/>
+      <c r="F5" s="93" t="s">
         <v>261</v>
       </c>
-      <c r="G5" s="96"/>
-      <c r="H5" s="99"/>
-      <c r="I5" s="96"/>
-    </row>
-    <row r="6" spans="1:9" s="90" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="91" t="s">
+      <c r="G5" s="95"/>
+      <c r="H5" s="98"/>
+      <c r="I5" s="95"/>
+    </row>
+    <row r="6" spans="1:9" s="89" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="90" t="s">
         <v>408</v>
       </c>
-      <c r="B6" s="97">
+      <c r="B6" s="96">
         <v>47</v>
       </c>
-      <c r="C6" s="97">
+      <c r="C6" s="96">
         <v>52</v>
       </c>
-      <c r="D6" s="148" t="s">
+      <c r="D6" s="147" t="s">
         <v>428</v>
       </c>
-      <c r="E6" s="149"/>
-      <c r="F6" s="94" t="s">
+      <c r="E6" s="148"/>
+      <c r="F6" s="93" t="s">
         <v>261</v>
       </c>
-      <c r="G6" s="96"/>
-      <c r="H6" s="101"/>
-      <c r="I6" s="96"/>
-    </row>
-    <row r="7" spans="1:9" s="90" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="91" t="s">
+      <c r="G6" s="95"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="95"/>
+    </row>
+    <row r="7" spans="1:9" s="89" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="90" t="s">
         <v>409</v>
       </c>
-      <c r="B7" s="97">
+      <c r="B7" s="96">
         <v>75</v>
       </c>
-      <c r="C7" s="97">
+      <c r="C7" s="96">
         <v>82</v>
       </c>
-      <c r="D7" s="148" t="s">
+      <c r="D7" s="147" t="s">
         <v>428</v>
       </c>
-      <c r="E7" s="149"/>
-      <c r="F7" s="94" t="s">
+      <c r="E7" s="148"/>
+      <c r="F7" s="93" t="s">
         <v>261</v>
       </c>
-      <c r="G7" s="96"/>
-      <c r="H7" s="99"/>
-      <c r="I7" s="96"/>
-    </row>
-    <row r="8" spans="1:9" s="90" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="91" t="s">
+      <c r="G7" s="95"/>
+      <c r="H7" s="98"/>
+      <c r="I7" s="95"/>
+    </row>
+    <row r="8" spans="1:9" s="89" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="90" t="s">
         <v>410</v>
       </c>
-      <c r="B8" s="97">
+      <c r="B8" s="96">
         <v>85</v>
       </c>
-      <c r="C8" s="97">
+      <c r="C8" s="96">
         <v>99</v>
       </c>
-      <c r="D8" s="148" t="s">
+      <c r="D8" s="147" t="s">
         <v>427</v>
       </c>
-      <c r="E8" s="149"/>
-      <c r="F8" s="95"/>
-      <c r="G8" s="96"/>
-      <c r="H8" s="99"/>
-      <c r="I8" s="96"/>
+      <c r="E8" s="148"/>
+      <c r="F8" s="94"/>
+      <c r="G8" s="95"/>
+      <c r="H8" s="98"/>
+      <c r="I8" s="95"/>
     </row>
     <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="91" t="s">
+      <c r="A9" s="90" t="s">
         <v>411</v>
       </c>
-      <c r="B9" s="97">
+      <c r="B9" s="96">
         <v>15</v>
       </c>
-      <c r="C9" s="97">
+      <c r="C9" s="96">
         <v>23</v>
       </c>
-      <c r="D9" s="148" t="s">
+      <c r="D9" s="147" t="s">
         <v>426</v>
       </c>
-      <c r="E9" s="149"/>
-      <c r="F9" s="94" t="s">
+      <c r="E9" s="148"/>
+      <c r="F9" s="93" t="s">
         <v>261</v>
       </c>
-      <c r="G9" s="96"/>
-      <c r="H9" s="99"/>
-      <c r="I9" s="96"/>
+      <c r="G9" s="95"/>
+      <c r="H9" s="98"/>
+      <c r="I9" s="95"/>
     </row>
     <row r="10" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="91" t="s">
+      <c r="A10" s="90" t="s">
         <v>412</v>
       </c>
-      <c r="B10" s="98"/>
-      <c r="C10" s="97"/>
-      <c r="D10" s="149"/>
-      <c r="E10" s="149"/>
-      <c r="F10" s="95"/>
-      <c r="G10" s="96"/>
-      <c r="H10" s="99"/>
-      <c r="I10" s="96"/>
+      <c r="B10" s="97"/>
+      <c r="C10" s="96"/>
+      <c r="D10" s="148"/>
+      <c r="E10" s="148"/>
+      <c r="F10" s="94"/>
+      <c r="G10" s="95"/>
+      <c r="H10" s="98"/>
+      <c r="I10" s="95"/>
     </row>
     <row r="11" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="91" t="s">
+      <c r="A11" s="90" t="s">
         <v>413</v>
       </c>
-      <c r="B11" s="99"/>
-      <c r="C11" s="97"/>
-      <c r="D11" s="149"/>
-      <c r="E11" s="149"/>
-      <c r="F11" s="95"/>
-      <c r="G11" s="96"/>
-      <c r="H11" s="99"/>
-      <c r="I11" s="96"/>
+      <c r="B11" s="98"/>
+      <c r="C11" s="96"/>
+      <c r="D11" s="148"/>
+      <c r="E11" s="148"/>
+      <c r="F11" s="94"/>
+      <c r="G11" s="95"/>
+      <c r="H11" s="98"/>
+      <c r="I11" s="95"/>
     </row>
     <row r="12" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="91" t="s">
+      <c r="A12" s="90" t="s">
         <v>414</v>
       </c>
-      <c r="B12" s="99">
+      <c r="B12" s="98">
         <v>57</v>
       </c>
-      <c r="C12" s="97">
+      <c r="C12" s="96">
         <v>59</v>
       </c>
-      <c r="D12" s="148" t="s">
+      <c r="D12" s="147" t="s">
         <v>426</v>
       </c>
-      <c r="E12" s="149"/>
-      <c r="F12" s="94" t="s">
+      <c r="E12" s="148"/>
+      <c r="F12" s="93" t="s">
         <v>261</v>
       </c>
-      <c r="G12" s="96"/>
-      <c r="H12" s="99"/>
-      <c r="I12" s="96"/>
+      <c r="G12" s="95"/>
+      <c r="H12" s="98"/>
+      <c r="I12" s="95"/>
     </row>
     <row r="13" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="91" t="s">
+      <c r="A13" s="90" t="s">
         <v>415</v>
       </c>
-      <c r="B13" s="99">
+      <c r="B13" s="98">
         <v>37</v>
       </c>
-      <c r="C13" s="97">
+      <c r="C13" s="96">
         <v>56</v>
       </c>
-      <c r="D13" s="148" t="s">
+      <c r="D13" s="147" t="s">
         <v>428</v>
       </c>
-      <c r="E13" s="149"/>
-      <c r="F13" s="94" t="s">
+      <c r="E13" s="148"/>
+      <c r="F13" s="93" t="s">
         <v>261</v>
       </c>
-      <c r="G13" s="96"/>
-      <c r="H13" s="101"/>
-      <c r="I13" s="96"/>
+      <c r="G13" s="95"/>
+      <c r="H13" s="100"/>
+      <c r="I13" s="95"/>
     </row>
     <row r="14" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="91" t="s">
+      <c r="A14" s="90" t="s">
         <v>416</v>
       </c>
-      <c r="B14" s="99">
+      <c r="B14" s="98">
         <v>53</v>
       </c>
-      <c r="C14" s="97">
+      <c r="C14" s="96">
         <v>72</v>
       </c>
-      <c r="D14" s="148" t="s">
+      <c r="D14" s="147" t="s">
         <v>428</v>
       </c>
-      <c r="E14" s="149"/>
-      <c r="F14" s="94" t="s">
+      <c r="E14" s="148"/>
+      <c r="F14" s="93" t="s">
         <v>261</v>
       </c>
-      <c r="G14" s="96"/>
-      <c r="H14" s="99"/>
-      <c r="I14" s="96"/>
+      <c r="G14" s="95"/>
+      <c r="H14" s="98"/>
+      <c r="I14" s="95"/>
     </row>
     <row r="15" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="91" t="s">
+      <c r="A15" s="90" t="s">
         <v>417</v>
       </c>
-      <c r="B15" s="99">
+      <c r="B15" s="98">
         <v>60</v>
       </c>
-      <c r="C15" s="97">
+      <c r="C15" s="96">
         <v>64</v>
       </c>
-      <c r="D15" s="149"/>
-      <c r="E15" s="149"/>
-      <c r="F15" s="94" t="s">
+      <c r="D15" s="148"/>
+      <c r="E15" s="148"/>
+      <c r="F15" s="93" t="s">
         <v>261</v>
       </c>
-      <c r="G15" s="96"/>
-      <c r="H15" s="99"/>
-      <c r="I15" s="96"/>
+      <c r="G15" s="95"/>
+      <c r="H15" s="98"/>
+      <c r="I15" s="95"/>
     </row>
     <row r="16" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="91" t="s">
+      <c r="A16" s="90" t="s">
         <v>418</v>
       </c>
-      <c r="B16" s="97"/>
-      <c r="C16" s="97"/>
-      <c r="D16" s="149"/>
-      <c r="E16" s="149"/>
-      <c r="F16" s="95"/>
-      <c r="G16" s="96"/>
-      <c r="H16" s="99"/>
-      <c r="I16" s="96"/>
-    </row>
-    <row r="17" spans="1:9" s="90" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="91" t="s">
+      <c r="B16" s="96"/>
+      <c r="C16" s="96"/>
+      <c r="D16" s="148"/>
+      <c r="E16" s="148"/>
+      <c r="F16" s="94"/>
+      <c r="G16" s="95"/>
+      <c r="H16" s="98"/>
+      <c r="I16" s="95"/>
+    </row>
+    <row r="17" spans="1:9" s="89" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="90" t="s">
         <v>419</v>
       </c>
-      <c r="B17" s="97">
+      <c r="B17" s="96">
         <v>16</v>
       </c>
-      <c r="C17" s="97">
+      <c r="C17" s="96">
         <v>17</v>
       </c>
-      <c r="D17" s="149"/>
-      <c r="E17" s="149"/>
-      <c r="F17" s="127" t="s">
+      <c r="D17" s="148"/>
+      <c r="E17" s="148"/>
+      <c r="F17" s="126" t="s">
         <v>261</v>
       </c>
-      <c r="G17" s="96"/>
-      <c r="H17" s="99"/>
-      <c r="I17" s="96"/>
-    </row>
-    <row r="18" spans="1:9" s="90" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="91" t="s">
+      <c r="G17" s="95"/>
+      <c r="H17" s="98"/>
+      <c r="I17" s="95"/>
+    </row>
+    <row r="18" spans="1:9" s="89" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="90" t="s">
         <v>420</v>
       </c>
-      <c r="B18" s="97"/>
-      <c r="C18" s="97"/>
-      <c r="D18" s="149"/>
-      <c r="E18" s="149"/>
-      <c r="F18" s="95"/>
-      <c r="G18" s="96"/>
-      <c r="H18" s="99"/>
-      <c r="I18" s="96"/>
-    </row>
-    <row r="19" spans="1:9" s="90" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="91" t="s">
+      <c r="B18" s="96"/>
+      <c r="C18" s="96"/>
+      <c r="D18" s="148"/>
+      <c r="E18" s="148"/>
+      <c r="F18" s="94"/>
+      <c r="G18" s="95"/>
+      <c r="H18" s="98"/>
+      <c r="I18" s="95"/>
+    </row>
+    <row r="19" spans="1:9" s="89" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="90" t="s">
         <v>421</v>
       </c>
-      <c r="B19" s="97">
+      <c r="B19" s="96">
         <v>18</v>
       </c>
-      <c r="C19" s="97">
+      <c r="C19" s="96">
         <v>40</v>
       </c>
-      <c r="D19" s="148" t="s">
+      <c r="D19" s="147" t="s">
         <v>428</v>
       </c>
-      <c r="E19" s="149"/>
-      <c r="F19" s="94" t="s">
+      <c r="E19" s="148"/>
+      <c r="F19" s="93" t="s">
         <v>261</v>
       </c>
-      <c r="G19" s="96"/>
-      <c r="H19" s="99"/>
-      <c r="I19" s="96"/>
-    </row>
-    <row r="20" spans="1:9" s="90" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="91" t="s">
+      <c r="G19" s="95"/>
+      <c r="H19" s="98"/>
+      <c r="I19" s="95"/>
+    </row>
+    <row r="20" spans="1:9" s="89" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="90" t="s">
         <v>422</v>
       </c>
-      <c r="B20" s="97">
+      <c r="B20" s="96">
         <v>45</v>
       </c>
-      <c r="C20" s="97">
+      <c r="C20" s="96">
         <v>48</v>
       </c>
-      <c r="D20" s="148" t="s">
+      <c r="D20" s="147" t="s">
         <v>428</v>
       </c>
-      <c r="E20" s="149"/>
-      <c r="F20" s="94" t="s">
+      <c r="E20" s="148"/>
+      <c r="F20" s="93" t="s">
         <v>261</v>
       </c>
-      <c r="G20" s="96"/>
-      <c r="H20" s="99"/>
-      <c r="I20" s="96"/>
-    </row>
-    <row r="21" spans="1:9" s="90" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="91" t="s">
+      <c r="G20" s="95"/>
+      <c r="H20" s="98"/>
+      <c r="I20" s="95"/>
+    </row>
+    <row r="21" spans="1:9" s="89" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="90" t="s">
         <v>423</v>
       </c>
-      <c r="B21" s="97">
+      <c r="B21" s="96">
         <v>83</v>
       </c>
-      <c r="C21" s="97">
+      <c r="C21" s="96">
         <v>84</v>
       </c>
-      <c r="D21" s="148" t="s">
+      <c r="D21" s="147" t="s">
         <v>428</v>
       </c>
-      <c r="E21" s="149"/>
-      <c r="F21" s="94" t="s">
+      <c r="E21" s="148"/>
+      <c r="F21" s="93" t="s">
         <v>437</v>
       </c>
-      <c r="G21" s="96"/>
-      <c r="H21" s="99"/>
-      <c r="I21" s="96"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="98"/>
+      <c r="I21" s="95"/>
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G22" s="96"/>
-      <c r="H22" s="96"/>
-      <c r="I22" s="96"/>
+      <c r="G22" s="95"/>
+      <c r="H22" s="95"/>
+      <c r="I22" s="95"/>
     </row>
     <row r="23" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
         <v>244</v>
       </c>
-      <c r="G23" s="96"/>
-      <c r="H23" s="96"/>
-      <c r="I23" s="96"/>
+      <c r="G23" s="95"/>
+      <c r="H23" s="95"/>
+      <c r="I23" s="95"/>
     </row>
     <row r="25" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
@@ -8565,92 +8578,92 @@
         <v>260</v>
       </c>
     </row>
-    <row r="34" spans="1:5" s="90" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="89"/>
-      <c r="B34" s="89"/>
-      <c r="C34" s="89"/>
-    </row>
-    <row r="35" spans="1:5" s="90" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="89" t="s">
+    <row r="34" spans="1:5" s="89" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="88"/>
+      <c r="B34" s="88"/>
+      <c r="C34" s="88"/>
+    </row>
+    <row r="35" spans="1:5" s="89" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="88" t="s">
         <v>234</v>
       </c>
-      <c r="B35" s="89" t="s">
+      <c r="B35" s="88" t="s">
         <v>438</v>
       </c>
-      <c r="C35" s="89" t="s">
+      <c r="C35" s="88" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="36" spans="1:5" s="90" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="89" t="s">
+    <row r="36" spans="1:5" s="89" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="88" t="s">
         <v>234</v>
       </c>
-      <c r="B36" s="89" t="s">
+      <c r="B36" s="88" t="s">
         <v>439</v>
       </c>
-      <c r="C36" s="89" t="s">
+      <c r="C36" s="88" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="37" spans="1:5" s="90" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="89"/>
-      <c r="B37" s="89"/>
-      <c r="C37" s="89"/>
-    </row>
-    <row r="38" spans="1:5" s="90" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="89" t="s">
+    <row r="37" spans="1:5" s="89" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="88"/>
+      <c r="B37" s="88"/>
+      <c r="C37" s="88"/>
+    </row>
+    <row r="38" spans="1:5" s="89" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="88" t="s">
         <v>441</v>
       </c>
-      <c r="B38" s="89" t="s">
+      <c r="B38" s="88" t="s">
         <v>448</v>
       </c>
-      <c r="C38" s="89" t="s">
+      <c r="C38" s="88" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="90" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="89" t="s">
+    <row r="39" spans="1:5" s="89" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="88" t="s">
         <v>441</v>
       </c>
-      <c r="B39" s="89" t="s">
+      <c r="B39" s="88" t="s">
         <v>449</v>
       </c>
-      <c r="C39" s="89" t="s">
+      <c r="C39" s="88" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="40" spans="1:5" s="126" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="125"/>
-      <c r="B40" s="125"/>
-      <c r="C40" s="125"/>
-    </row>
-    <row r="41" spans="1:5" s="126" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="125" t="s">
+    <row r="40" spans="1:5" s="125" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="124"/>
+      <c r="B40" s="124"/>
+      <c r="C40" s="124"/>
+    </row>
+    <row r="41" spans="1:5" s="125" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="124" t="s">
         <v>441</v>
       </c>
-      <c r="B41" s="125" t="s">
+      <c r="B41" s="124" t="s">
         <v>460</v>
       </c>
-      <c r="C41" s="125" t="s">
+      <c r="C41" s="124" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="42" spans="1:5" s="90" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="125" t="s">
+    <row r="42" spans="1:5" s="89" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="124" t="s">
         <v>441</v>
       </c>
-      <c r="B42" s="125" t="s">
+      <c r="B42" s="124" t="s">
         <v>461</v>
       </c>
-      <c r="C42" s="125" t="s">
+      <c r="C42" s="124" t="s">
         <v>442</v>
       </c>
-      <c r="D42" s="126"/>
-    </row>
-    <row r="43" spans="1:5" s="90" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="89"/>
-      <c r="B43" s="89"/>
-      <c r="C43" s="89"/>
+      <c r="D42" s="125"/>
+    </row>
+    <row r="43" spans="1:5" s="89" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="88"/>
+      <c r="B43" s="88"/>
+      <c r="C43" s="88"/>
     </row>
     <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8659,198 +8672,198 @@
       </c>
     </row>
     <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="107"/>
-      <c r="B46" s="107"/>
-      <c r="C46" s="107"/>
-      <c r="D46" s="103"/>
-      <c r="E46" s="103"/>
+      <c r="A46" s="106"/>
+      <c r="B46" s="106"/>
+      <c r="C46" s="106"/>
+      <c r="D46" s="102"/>
+      <c r="E46" s="102"/>
     </row>
     <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="108"/>
-      <c r="B47" s="107"/>
-      <c r="C47" s="109"/>
-      <c r="D47" s="103"/>
-      <c r="E47" s="103"/>
+      <c r="A47" s="107"/>
+      <c r="B47" s="106"/>
+      <c r="C47" s="108"/>
+      <c r="D47" s="102"/>
+      <c r="E47" s="102"/>
     </row>
     <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="108" t="s">
+      <c r="A48" s="107" t="s">
         <v>406</v>
       </c>
-      <c r="B48" s="107" t="s">
+      <c r="B48" s="106" t="s">
         <v>444</v>
       </c>
-      <c r="C48" s="109"/>
-      <c r="D48" s="103"/>
-      <c r="E48" s="103"/>
+      <c r="C48" s="108"/>
+      <c r="D48" s="102"/>
+      <c r="E48" s="102"/>
     </row>
     <row r="49" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="110" t="s">
+      <c r="A49" s="109" t="s">
         <v>406</v>
       </c>
-      <c r="B49" s="107" t="s">
+      <c r="B49" s="106" t="s">
         <v>445</v>
       </c>
-      <c r="C49" s="107"/>
-      <c r="D49" s="103"/>
-      <c r="E49" s="103"/>
+      <c r="C49" s="106"/>
+      <c r="D49" s="102"/>
+      <c r="E49" s="102"/>
     </row>
     <row r="50" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="108"/>
-      <c r="B50" s="107"/>
-      <c r="C50" s="109"/>
-      <c r="D50" s="103"/>
-      <c r="E50" s="103"/>
+      <c r="A50" s="107"/>
+      <c r="B50" s="106"/>
+      <c r="C50" s="108"/>
+      <c r="D50" s="102"/>
+      <c r="E50" s="102"/>
     </row>
     <row r="51" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="108" t="s">
+      <c r="A51" s="107" t="s">
         <v>412</v>
       </c>
-      <c r="B51" s="107" t="s">
+      <c r="B51" s="106" t="s">
         <v>446</v>
       </c>
-      <c r="C51" s="109"/>
-      <c r="D51" s="103"/>
-      <c r="E51" s="103"/>
+      <c r="C51" s="108"/>
+      <c r="D51" s="102"/>
+      <c r="E51" s="102"/>
     </row>
     <row r="52" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="110" t="s">
+      <c r="A52" s="109" t="s">
         <v>412</v>
       </c>
-      <c r="B52" s="107" t="s">
+      <c r="B52" s="106" t="s">
         <v>447</v>
       </c>
-      <c r="C52" s="107"/>
-      <c r="D52" s="103"/>
-      <c r="E52" s="103"/>
-    </row>
-    <row r="53" spans="1:5" s="90" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="110"/>
-      <c r="B53" s="107"/>
-      <c r="C53" s="107"/>
-      <c r="D53" s="103"/>
-      <c r="E53" s="103"/>
+      <c r="C52" s="106"/>
+      <c r="D52" s="102"/>
+      <c r="E52" s="102"/>
+    </row>
+    <row r="53" spans="1:5" s="89" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="109"/>
+      <c r="B53" s="106"/>
+      <c r="C53" s="106"/>
+      <c r="D53" s="102"/>
+      <c r="E53" s="102"/>
     </row>
     <row r="54" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="108"/>
-      <c r="B54" s="107" t="s">
+      <c r="A54" s="107"/>
+      <c r="B54" s="106" t="s">
         <v>262</v>
       </c>
-      <c r="C54" s="107"/>
-      <c r="D54" s="103"/>
-      <c r="E54" s="103"/>
+      <c r="C54" s="106"/>
+      <c r="D54" s="102"/>
+      <c r="E54" s="102"/>
     </row>
     <row r="55" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="108"/>
-      <c r="B55" s="107" t="s">
+      <c r="A55" s="107"/>
+      <c r="B55" s="106" t="s">
         <v>263</v>
       </c>
-      <c r="C55" s="107"/>
-      <c r="D55" s="103"/>
-      <c r="E55" s="103"/>
+      <c r="C55" s="106"/>
+      <c r="D55" s="102"/>
+      <c r="E55" s="102"/>
     </row>
     <row r="56" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="110"/>
-      <c r="B56" s="107"/>
-      <c r="C56" s="107"/>
-      <c r="D56" s="103"/>
-      <c r="E56" s="103"/>
+      <c r="A56" s="109"/>
+      <c r="B56" s="106"/>
+      <c r="C56" s="106"/>
+      <c r="D56" s="102"/>
+      <c r="E56" s="102"/>
     </row>
     <row r="57" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="105" t="s">
+      <c r="A57" s="104" t="s">
         <v>418</v>
       </c>
-      <c r="B57" s="104" t="s">
+      <c r="B57" s="103" t="s">
         <v>246</v>
       </c>
-      <c r="C57" s="86"/>
-      <c r="D57" s="103"/>
-      <c r="E57" s="103"/>
+      <c r="C57" s="85"/>
+      <c r="D57" s="102"/>
+      <c r="E57" s="102"/>
     </row>
     <row r="58" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="105" t="s">
+      <c r="A58" s="104" t="s">
         <v>418</v>
       </c>
-      <c r="B58" s="104" t="s">
+      <c r="B58" s="103" t="s">
         <v>248</v>
       </c>
-      <c r="C58" s="86"/>
-      <c r="D58" s="103"/>
-      <c r="E58" s="103"/>
+      <c r="C58" s="85"/>
+      <c r="D58" s="102"/>
+      <c r="E58" s="102"/>
     </row>
     <row r="59" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="106"/>
-      <c r="B59" s="103"/>
-      <c r="C59" s="103"/>
-      <c r="D59" s="103"/>
-      <c r="E59" s="103"/>
+      <c r="A59" s="105"/>
+      <c r="B59" s="102"/>
+      <c r="C59" s="102"/>
+      <c r="D59" s="102"/>
+      <c r="E59" s="102"/>
     </row>
     <row r="60" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="105"/>
-      <c r="B60" s="104"/>
-      <c r="C60" s="86"/>
-      <c r="D60" s="103"/>
-      <c r="E60" s="103"/>
+      <c r="A60" s="104"/>
+      <c r="B60" s="103"/>
+      <c r="C60" s="85"/>
+      <c r="D60" s="102"/>
+      <c r="E60" s="102"/>
     </row>
     <row r="61" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="105"/>
-      <c r="B61" s="104"/>
-      <c r="C61" s="86"/>
-      <c r="D61" s="103"/>
-      <c r="E61" s="103"/>
+      <c r="A61" s="104"/>
+      <c r="B61" s="103"/>
+      <c r="C61" s="85"/>
+      <c r="D61" s="102"/>
+      <c r="E61" s="102"/>
     </row>
     <row r="62" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="106"/>
-      <c r="B62" s="103"/>
-      <c r="C62" s="103"/>
-      <c r="D62" s="103"/>
-      <c r="E62" s="103"/>
+      <c r="A62" s="105"/>
+      <c r="B62" s="102"/>
+      <c r="C62" s="102"/>
+      <c r="D62" s="102"/>
+      <c r="E62" s="102"/>
     </row>
     <row r="63" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="105"/>
-      <c r="B63" s="104"/>
-      <c r="C63" s="86"/>
-      <c r="D63" s="103"/>
-      <c r="E63" s="103"/>
+      <c r="A63" s="104"/>
+      <c r="B63" s="103"/>
+      <c r="C63" s="85"/>
+      <c r="D63" s="102"/>
+      <c r="E63" s="102"/>
     </row>
     <row r="64" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="105"/>
-      <c r="B64" s="104"/>
-      <c r="C64" s="86"/>
-      <c r="D64" s="103"/>
-      <c r="E64" s="103"/>
+      <c r="A64" s="104"/>
+      <c r="B64" s="103"/>
+      <c r="C64" s="85"/>
+      <c r="D64" s="102"/>
+      <c r="E64" s="102"/>
     </row>
     <row r="65" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="106"/>
-      <c r="B65" s="103"/>
-      <c r="C65" s="103"/>
-      <c r="D65" s="103"/>
-      <c r="E65" s="103"/>
+      <c r="A65" s="105"/>
+      <c r="B65" s="102"/>
+      <c r="C65" s="102"/>
+      <c r="D65" s="102"/>
+      <c r="E65" s="102"/>
     </row>
     <row r="66" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="106"/>
-      <c r="B66" s="103"/>
-      <c r="C66" s="103"/>
-      <c r="D66" s="103"/>
-      <c r="E66" s="103"/>
+      <c r="A66" s="105"/>
+      <c r="B66" s="102"/>
+      <c r="C66" s="102"/>
+      <c r="D66" s="102"/>
+      <c r="E66" s="102"/>
     </row>
     <row r="67" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="111"/>
-      <c r="B67" s="103"/>
-      <c r="C67" s="103"/>
-      <c r="D67" s="103"/>
-      <c r="E67" s="103"/>
+      <c r="A67" s="110"/>
+      <c r="B67" s="102"/>
+      <c r="C67" s="102"/>
+      <c r="D67" s="102"/>
+      <c r="E67" s="102"/>
     </row>
     <row r="68" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="112"/>
+      <c r="A68" s="111"/>
     </row>
     <row r="69" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="113"/>
+      <c r="A69" s="112"/>
     </row>
     <row r="70" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="113"/>
+      <c r="A70" s="112"/>
     </row>
     <row r="71" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="112"/>
+      <c r="A71" s="111"/>
     </row>
     <row r="72" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="73" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9806,11 +9819,6 @@
     <row r="1023" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="D2:E2"/>
@@ -9827,6 +9835,11 @@
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Antonio-Feed/__FeedPartsInventory.xlsx
+++ b/Antonio-Feed/__FeedPartsInventory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pollak/Documents/GitHub/Front-Page/Antonio-Feed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{018E7E6D-2997-1B4D-A6FB-76DCB4943BDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1504A7CB-2AEE-2E4F-BB26-F985EFE569ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="65760" yWindow="460" windowWidth="35840" windowHeight="19760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="75540" yWindow="460" windowWidth="35840" windowHeight="19760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parts At ATA" sheetId="1" r:id="rId1"/>
@@ -2202,6 +2202,11 @@
     <xf numFmtId="0" fontId="4" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2235,20 +2240,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2467,7 +2467,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
@@ -2492,25 +2492,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="133" t="s">
+      <c r="A1" s="136" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="134"/>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
-      <c r="G1" s="134"/>
-      <c r="H1" s="135"/>
-      <c r="I1" s="136"/>
-      <c r="J1" s="136"/>
-      <c r="K1" s="135"/>
-      <c r="L1" s="136"/>
-      <c r="M1" s="136"/>
-      <c r="N1" s="136"/>
-      <c r="O1" s="136"/>
-      <c r="P1" s="136"/>
-      <c r="Q1" s="136"/>
+      <c r="B1" s="137"/>
+      <c r="C1" s="137"/>
+      <c r="D1" s="137"/>
+      <c r="E1" s="137"/>
+      <c r="F1" s="137"/>
+      <c r="G1" s="137"/>
+      <c r="H1" s="138"/>
+      <c r="I1" s="139"/>
+      <c r="J1" s="139"/>
+      <c r="K1" s="138"/>
+      <c r="L1" s="139"/>
+      <c r="M1" s="139"/>
+      <c r="N1" s="139"/>
+      <c r="O1" s="139"/>
+      <c r="P1" s="139"/>
+      <c r="Q1" s="139"/>
     </row>
     <row r="2" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -3816,38 +3816,38 @@
       <c r="A58" s="9"/>
     </row>
     <row r="59" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="137" t="s">
+      <c r="A59" s="140" t="s">
         <v>157</v>
       </c>
-      <c r="B59" s="132"/>
-      <c r="C59" s="132"/>
+      <c r="B59" s="135"/>
+      <c r="C59" s="135"/>
     </row>
     <row r="60" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="12"/>
     </row>
     <row r="61" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="131" t="s">
+      <c r="A61" s="134" t="s">
         <v>149</v>
       </c>
-      <c r="B61" s="132"/>
-      <c r="C61" s="131" t="s">
+      <c r="B61" s="135"/>
+      <c r="C61" s="134" t="s">
         <v>158</v>
       </c>
-      <c r="D61" s="132"/>
-      <c r="E61" s="132"/>
-      <c r="F61" s="132"/>
+      <c r="D61" s="135"/>
+      <c r="E61" s="135"/>
+      <c r="F61" s="135"/>
     </row>
     <row r="62" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="131" t="s">
+      <c r="A62" s="134" t="s">
         <v>159</v>
       </c>
-      <c r="B62" s="132"/>
-      <c r="C62" s="131" t="s">
+      <c r="B62" s="135"/>
+      <c r="C62" s="134" t="s">
         <v>160</v>
       </c>
-      <c r="D62" s="132"/>
-      <c r="E62" s="132"/>
-      <c r="F62" s="132"/>
+      <c r="D62" s="135"/>
+      <c r="E62" s="135"/>
+      <c r="F62" s="135"/>
     </row>
     <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="64" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4814,8 +4814,8 @@
   </sheetPr>
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection sqref="A1:J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4828,20 +4828,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="138" t="s">
+      <c r="A1" s="141" t="s">
         <v>161</v>
       </c>
-      <c r="B1" s="139"/>
-      <c r="C1" s="140" t="s">
+      <c r="B1" s="142"/>
+      <c r="C1" s="143" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="141"/>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="141"/>
-      <c r="H1" s="141"/>
-      <c r="I1" s="141"/>
-      <c r="J1" s="141"/>
+      <c r="D1" s="144"/>
+      <c r="E1" s="144"/>
+      <c r="F1" s="144"/>
+      <c r="G1" s="144"/>
+      <c r="H1" s="144"/>
+      <c r="I1" s="144"/>
+      <c r="J1" s="144"/>
       <c r="K1" s="78"/>
       <c r="L1" s="78"/>
     </row>
@@ -5497,7 +5497,7 @@
       <c r="A20" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="B20" s="150" t="s">
+      <c r="B20" s="132" t="s">
         <v>165</v>
       </c>
       <c r="C20" s="23" t="s">
@@ -5521,7 +5521,7 @@
       <c r="I20" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="J20" s="149" t="s">
+      <c r="J20" s="131" t="s">
         <v>175</v>
       </c>
       <c r="K20" s="74" t="s">
@@ -5571,7 +5571,7 @@
         <f>HYPERLINK("https://drive.google.com/drive/folders/1wMVARUxnYHeiTbbEodCmZFb_vx9FkRVr","5C4-020")</f>
         <v>5C4-020</v>
       </c>
-      <c r="B22" s="151" t="s">
+      <c r="B22" s="133" t="s">
         <v>165</v>
       </c>
       <c r="C22" s="23" t="s">
@@ -5629,20 +5629,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="142" t="s">
+      <c r="A1" s="145" t="s">
         <v>161</v>
       </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="142" t="s">
+      <c r="B1" s="146"/>
+      <c r="C1" s="145" t="s">
         <v>364</v>
       </c>
-      <c r="D1" s="144"/>
-      <c r="E1" s="144"/>
-      <c r="F1" s="144"/>
-      <c r="G1" s="144"/>
-      <c r="H1" s="144"/>
-      <c r="I1" s="144"/>
-      <c r="J1" s="143"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
+      <c r="G1" s="147"/>
+      <c r="H1" s="147"/>
+      <c r="I1" s="147"/>
+      <c r="J1" s="146"/>
     </row>
     <row r="2" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="68" t="s">
@@ -7428,11 +7428,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="133" t="s">
+      <c r="A1" s="136" t="s">
         <v>451</v>
       </c>
-      <c r="B1" s="145"/>
-      <c r="C1" s="145"/>
+      <c r="B1" s="148"/>
+      <c r="C1" s="148"/>
       <c r="D1" s="117"/>
       <c r="E1" s="117"/>
       <c r="F1" s="117"/>
@@ -8118,18 +8118,18 @@
       <c r="C1" s="92" t="s">
         <v>424</v>
       </c>
-      <c r="D1" s="146" t="s">
+      <c r="D1" s="151" t="s">
         <v>269</v>
       </c>
-      <c r="E1" s="146"/>
+      <c r="E1" s="151"/>
       <c r="F1" s="101" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="89" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="9"/>
-      <c r="D2" s="148"/>
-      <c r="E2" s="148"/>
+      <c r="D2" s="150"/>
+      <c r="E2" s="150"/>
       <c r="G2" s="95"/>
       <c r="H2" s="95"/>
       <c r="I2" s="95"/>
@@ -8144,10 +8144,10 @@
       <c r="C3" s="96">
         <v>55</v>
       </c>
-      <c r="D3" s="147" t="s">
+      <c r="D3" s="149" t="s">
         <v>426</v>
       </c>
-      <c r="E3" s="148"/>
+      <c r="E3" s="150"/>
       <c r="F3" s="93" t="s">
         <v>261</v>
       </c>
@@ -8159,8 +8159,8 @@
       <c r="A4" s="90" t="s">
         <v>406</v>
       </c>
-      <c r="D4" s="148"/>
-      <c r="E4" s="148"/>
+      <c r="D4" s="150"/>
+      <c r="E4" s="150"/>
       <c r="F4" s="94"/>
       <c r="G4" s="95"/>
       <c r="H4" s="98"/>
@@ -8176,8 +8176,8 @@
       <c r="C5" s="96">
         <v>43</v>
       </c>
-      <c r="D5" s="148"/>
-      <c r="E5" s="148"/>
+      <c r="D5" s="150"/>
+      <c r="E5" s="150"/>
       <c r="F5" s="93" t="s">
         <v>261</v>
       </c>
@@ -8195,10 +8195,10 @@
       <c r="C6" s="96">
         <v>52</v>
       </c>
-      <c r="D6" s="147" t="s">
+      <c r="D6" s="149" t="s">
         <v>428</v>
       </c>
-      <c r="E6" s="148"/>
+      <c r="E6" s="150"/>
       <c r="F6" s="93" t="s">
         <v>261</v>
       </c>
@@ -8216,10 +8216,10 @@
       <c r="C7" s="96">
         <v>82</v>
       </c>
-      <c r="D7" s="147" t="s">
+      <c r="D7" s="149" t="s">
         <v>428</v>
       </c>
-      <c r="E7" s="148"/>
+      <c r="E7" s="150"/>
       <c r="F7" s="93" t="s">
         <v>261</v>
       </c>
@@ -8237,10 +8237,10 @@
       <c r="C8" s="96">
         <v>99</v>
       </c>
-      <c r="D8" s="147" t="s">
+      <c r="D8" s="149" t="s">
         <v>427</v>
       </c>
-      <c r="E8" s="148"/>
+      <c r="E8" s="150"/>
       <c r="F8" s="94"/>
       <c r="G8" s="95"/>
       <c r="H8" s="98"/>
@@ -8256,10 +8256,10 @@
       <c r="C9" s="96">
         <v>23</v>
       </c>
-      <c r="D9" s="147" t="s">
+      <c r="D9" s="149" t="s">
         <v>426</v>
       </c>
-      <c r="E9" s="148"/>
+      <c r="E9" s="150"/>
       <c r="F9" s="93" t="s">
         <v>261</v>
       </c>
@@ -8273,8 +8273,8 @@
       </c>
       <c r="B10" s="97"/>
       <c r="C10" s="96"/>
-      <c r="D10" s="148"/>
-      <c r="E10" s="148"/>
+      <c r="D10" s="150"/>
+      <c r="E10" s="150"/>
       <c r="F10" s="94"/>
       <c r="G10" s="95"/>
       <c r="H10" s="98"/>
@@ -8286,8 +8286,8 @@
       </c>
       <c r="B11" s="98"/>
       <c r="C11" s="96"/>
-      <c r="D11" s="148"/>
-      <c r="E11" s="148"/>
+      <c r="D11" s="150"/>
+      <c r="E11" s="150"/>
       <c r="F11" s="94"/>
       <c r="G11" s="95"/>
       <c r="H11" s="98"/>
@@ -8303,10 +8303,10 @@
       <c r="C12" s="96">
         <v>59</v>
       </c>
-      <c r="D12" s="147" t="s">
+      <c r="D12" s="149" t="s">
         <v>426</v>
       </c>
-      <c r="E12" s="148"/>
+      <c r="E12" s="150"/>
       <c r="F12" s="93" t="s">
         <v>261</v>
       </c>
@@ -8324,10 +8324,10 @@
       <c r="C13" s="96">
         <v>56</v>
       </c>
-      <c r="D13" s="147" t="s">
+      <c r="D13" s="149" t="s">
         <v>428</v>
       </c>
-      <c r="E13" s="148"/>
+      <c r="E13" s="150"/>
       <c r="F13" s="93" t="s">
         <v>261</v>
       </c>
@@ -8345,10 +8345,10 @@
       <c r="C14" s="96">
         <v>72</v>
       </c>
-      <c r="D14" s="147" t="s">
+      <c r="D14" s="149" t="s">
         <v>428</v>
       </c>
-      <c r="E14" s="148"/>
+      <c r="E14" s="150"/>
       <c r="F14" s="93" t="s">
         <v>261</v>
       </c>
@@ -8366,8 +8366,8 @@
       <c r="C15" s="96">
         <v>64</v>
       </c>
-      <c r="D15" s="148"/>
-      <c r="E15" s="148"/>
+      <c r="D15" s="150"/>
+      <c r="E15" s="150"/>
       <c r="F15" s="93" t="s">
         <v>261</v>
       </c>
@@ -8381,8 +8381,8 @@
       </c>
       <c r="B16" s="96"/>
       <c r="C16" s="96"/>
-      <c r="D16" s="148"/>
-      <c r="E16" s="148"/>
+      <c r="D16" s="150"/>
+      <c r="E16" s="150"/>
       <c r="F16" s="94"/>
       <c r="G16" s="95"/>
       <c r="H16" s="98"/>
@@ -8398,8 +8398,8 @@
       <c r="C17" s="96">
         <v>17</v>
       </c>
-      <c r="D17" s="148"/>
-      <c r="E17" s="148"/>
+      <c r="D17" s="150"/>
+      <c r="E17" s="150"/>
       <c r="F17" s="126" t="s">
         <v>261</v>
       </c>
@@ -8413,8 +8413,8 @@
       </c>
       <c r="B18" s="96"/>
       <c r="C18" s="96"/>
-      <c r="D18" s="148"/>
-      <c r="E18" s="148"/>
+      <c r="D18" s="150"/>
+      <c r="E18" s="150"/>
       <c r="F18" s="94"/>
       <c r="G18" s="95"/>
       <c r="H18" s="98"/>
@@ -8430,10 +8430,10 @@
       <c r="C19" s="96">
         <v>40</v>
       </c>
-      <c r="D19" s="147" t="s">
+      <c r="D19" s="149" t="s">
         <v>428</v>
       </c>
-      <c r="E19" s="148"/>
+      <c r="E19" s="150"/>
       <c r="F19" s="93" t="s">
         <v>261</v>
       </c>
@@ -8451,10 +8451,10 @@
       <c r="C20" s="96">
         <v>48</v>
       </c>
-      <c r="D20" s="147" t="s">
+      <c r="D20" s="149" t="s">
         <v>428</v>
       </c>
-      <c r="E20" s="148"/>
+      <c r="E20" s="150"/>
       <c r="F20" s="93" t="s">
         <v>261</v>
       </c>
@@ -8472,10 +8472,10 @@
       <c r="C21" s="96">
         <v>84</v>
       </c>
-      <c r="D21" s="147" t="s">
+      <c r="D21" s="149" t="s">
         <v>428</v>
       </c>
-      <c r="E21" s="148"/>
+      <c r="E21" s="150"/>
       <c r="F21" s="93" t="s">
         <v>437</v>
       </c>
@@ -9819,6 +9819,11 @@
     <row r="1023" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="D2:E2"/>
@@ -9835,11 +9840,6 @@
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Antonio-Feed/__FeedPartsInventory.xlsx
+++ b/Antonio-Feed/__FeedPartsInventory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pollak/Documents/GitHub/Front-Page/Antonio-Feed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1504A7CB-2AEE-2E4F-BB26-F985EFE569ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBC18832-90B4-3742-8D84-EB01DCB13C59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="75540" yWindow="460" windowWidth="35840" windowHeight="19760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="55880" yWindow="460" windowWidth="35840" windowHeight="19760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parts At ATA" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="472">
   <si>
     <t>Antenna Inventory</t>
   </si>
@@ -1449,6 +1449,21 @@
   </si>
   <si>
     <t>(003) 12 / 39</t>
+  </si>
+  <si>
+    <t>X=0.11 Y=0.07 Z=0.11</t>
+  </si>
+  <si>
+    <t>X=0.22 Y=0.08 Z=0.18</t>
+  </si>
+  <si>
+    <t>X=0.12 Y=0.07 Z=0.22</t>
+  </si>
+  <si>
+    <t>X=0.11 Y=0.03 Z=0.09</t>
+  </si>
+  <si>
+    <t>(019) 34 / 46</t>
   </si>
 </sst>
 </file>
@@ -1619,7 +1634,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="23">
+  <fills count="27">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1749,7 +1764,31 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FF00FF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor rgb="FF00FF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor rgb="FF00FF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFF9900"/>
       </patternFill>
     </fill>
   </fills>
@@ -1980,7 +2019,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="152">
+  <cellXfs count="157">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2206,7 +2245,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2249,6 +2296,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2468,7 +2516,7 @@
   <dimension ref="A1:Q1001"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2492,25 +2540,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="136" t="s">
+      <c r="A1" s="140" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="137"/>
-      <c r="C1" s="137"/>
-      <c r="D1" s="137"/>
-      <c r="E1" s="137"/>
-      <c r="F1" s="137"/>
-      <c r="G1" s="137"/>
-      <c r="H1" s="138"/>
-      <c r="I1" s="139"/>
-      <c r="J1" s="139"/>
-      <c r="K1" s="138"/>
-      <c r="L1" s="139"/>
-      <c r="M1" s="139"/>
-      <c r="N1" s="139"/>
-      <c r="O1" s="139"/>
-      <c r="P1" s="139"/>
-      <c r="Q1" s="139"/>
+      <c r="B1" s="141"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="143"/>
+      <c r="J1" s="143"/>
+      <c r="K1" s="142"/>
+      <c r="L1" s="143"/>
+      <c r="M1" s="143"/>
+      <c r="N1" s="143"/>
+      <c r="O1" s="143"/>
+      <c r="P1" s="143"/>
+      <c r="Q1" s="143"/>
     </row>
     <row r="2" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -3183,9 +3231,9 @@
       <c r="C25" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D25" s="8" t="str">
-        <f>HYPERLINK("https://drive.google.com/drive/folders/1wMVARUxnYHeiTbbEodCmZFb_vx9FkRVr","5C4-020")</f>
-        <v>5C4-020</v>
+      <c r="D25" s="136" t="str">
+        <f>HYPERLINK("https://drive.google.com/drive/folders/1wMVARUxnYHeiTbbEodCmZFb_vx9FkRVr","5C4-018")</f>
+        <v>5C4-018</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>93</v>
@@ -3816,38 +3864,38 @@
       <c r="A58" s="9"/>
     </row>
     <row r="59" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="140" t="s">
+      <c r="A59" s="144" t="s">
         <v>157</v>
       </c>
-      <c r="B59" s="135"/>
-      <c r="C59" s="135"/>
+      <c r="B59" s="139"/>
+      <c r="C59" s="139"/>
     </row>
     <row r="60" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="12"/>
     </row>
     <row r="61" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="134" t="s">
+      <c r="A61" s="138" t="s">
         <v>149</v>
       </c>
-      <c r="B61" s="135"/>
-      <c r="C61" s="134" t="s">
+      <c r="B61" s="139"/>
+      <c r="C61" s="138" t="s">
         <v>158</v>
       </c>
-      <c r="D61" s="135"/>
-      <c r="E61" s="135"/>
-      <c r="F61" s="135"/>
+      <c r="D61" s="139"/>
+      <c r="E61" s="139"/>
+      <c r="F61" s="139"/>
     </row>
     <row r="62" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="134" t="s">
+      <c r="A62" s="138" t="s">
         <v>159</v>
       </c>
-      <c r="B62" s="135"/>
-      <c r="C62" s="134" t="s">
+      <c r="B62" s="139"/>
+      <c r="C62" s="138" t="s">
         <v>160</v>
       </c>
-      <c r="D62" s="135"/>
-      <c r="E62" s="135"/>
-      <c r="F62" s="135"/>
+      <c r="D62" s="139"/>
+      <c r="E62" s="139"/>
+      <c r="F62" s="139"/>
     </row>
     <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="64" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4828,20 +4876,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="141" t="s">
+      <c r="A1" s="145" t="s">
         <v>161</v>
       </c>
-      <c r="B1" s="142"/>
-      <c r="C1" s="143" t="s">
+      <c r="B1" s="146"/>
+      <c r="C1" s="147" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="144"/>
-      <c r="E1" s="144"/>
-      <c r="F1" s="144"/>
-      <c r="G1" s="144"/>
-      <c r="H1" s="144"/>
-      <c r="I1" s="144"/>
-      <c r="J1" s="144"/>
+      <c r="D1" s="148"/>
+      <c r="E1" s="148"/>
+      <c r="F1" s="148"/>
+      <c r="G1" s="148"/>
+      <c r="H1" s="148"/>
+      <c r="I1" s="148"/>
+      <c r="J1" s="148"/>
       <c r="K1" s="78"/>
       <c r="L1" s="78"/>
     </row>
@@ -4891,11 +4939,19 @@
         <v>165</v>
       </c>
       <c r="C3" s="115"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="116"/>
-      <c r="F3" s="116"/>
+      <c r="D3" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>166</v>
+      </c>
       <c r="G3" s="116"/>
-      <c r="H3" s="116"/>
+      <c r="H3" s="19" t="s">
+        <v>166</v>
+      </c>
       <c r="I3" s="116"/>
       <c r="J3" s="116"/>
       <c r="K3" s="74"/>
@@ -5390,11 +5446,11 @@
         <f>HYPERLINK("https://drive.google.com/drive/folders/1GhnG5G_BN5lBSXzegcxU-3TuUUTEd6xm","5C4-015")</f>
         <v>5C4-015</v>
       </c>
-      <c r="B17" s="79" t="s">
+      <c r="B17" s="156" t="s">
         <v>165</v>
       </c>
-      <c r="C17" s="19" t="s">
-        <v>166</v>
+      <c r="C17" s="21" t="s">
+        <v>28</v>
       </c>
       <c r="D17" s="21" t="s">
         <v>28</v>
@@ -5417,7 +5473,9 @@
       <c r="J17" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="K17" s="74"/>
+      <c r="K17" s="74" t="s">
+        <v>471</v>
+      </c>
       <c r="L17" s="74"/>
     </row>
     <row r="18" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -5498,7 +5556,7 @@
         <v>77</v>
       </c>
       <c r="B20" s="132" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="C20" s="23" t="s">
         <v>28</v>
@@ -5512,7 +5570,7 @@
       <c r="F20" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="G20" s="21" t="s">
+      <c r="G20" s="135" t="s">
         <v>28</v>
       </c>
       <c r="H20" s="21" t="s">
@@ -5571,10 +5629,10 @@
         <f>HYPERLINK("https://drive.google.com/drive/folders/1wMVARUxnYHeiTbbEodCmZFb_vx9FkRVr","5C4-020")</f>
         <v>5C4-020</v>
       </c>
-      <c r="B22" s="133" t="s">
+      <c r="B22" s="137" t="s">
         <v>165</v>
       </c>
-      <c r="C22" s="23" t="s">
+      <c r="C22" s="133" t="s">
         <v>28</v>
       </c>
       <c r="D22" s="21" t="s">
@@ -5586,7 +5644,7 @@
       <c r="F22" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="G22" s="21" t="s">
+      <c r="G22" s="135" t="s">
         <v>28</v>
       </c>
       <c r="H22" s="21" t="s">
@@ -5619,7 +5677,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5629,20 +5687,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="145" t="s">
+      <c r="A1" s="149" t="s">
         <v>161</v>
       </c>
-      <c r="B1" s="146"/>
-      <c r="C1" s="145" t="s">
+      <c r="B1" s="150"/>
+      <c r="C1" s="149" t="s">
         <v>364</v>
       </c>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
-      <c r="G1" s="147"/>
-      <c r="H1" s="147"/>
-      <c r="I1" s="147"/>
-      <c r="J1" s="146"/>
+      <c r="D1" s="151"/>
+      <c r="E1" s="151"/>
+      <c r="F1" s="151"/>
+      <c r="G1" s="151"/>
+      <c r="H1" s="151"/>
+      <c r="I1" s="151"/>
+      <c r="J1" s="150"/>
     </row>
     <row r="2" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="68" t="s">
@@ -5980,11 +6038,15 @@
       <c r="A19" s="58" t="s">
         <v>77</v>
       </c>
-      <c r="B19" s="57" t="s">
-        <v>179</v>
-      </c>
-      <c r="C19" s="67"/>
-      <c r="D19" s="63"/>
+      <c r="B19" s="134" t="s">
+        <v>165</v>
+      </c>
+      <c r="C19" s="67" t="s">
+        <v>468</v>
+      </c>
+      <c r="D19" s="63" t="s">
+        <v>467</v>
+      </c>
       <c r="E19" s="63"/>
       <c r="F19" s="63"/>
       <c r="G19" s="63"/>
@@ -6015,8 +6077,12 @@
       <c r="B21" s="77" t="s">
         <v>181</v>
       </c>
-      <c r="C21" s="67"/>
-      <c r="D21" s="63"/>
+      <c r="C21" s="67" t="s">
+        <v>469</v>
+      </c>
+      <c r="D21" s="67" t="s">
+        <v>470</v>
+      </c>
       <c r="E21" s="63"/>
       <c r="F21" s="63"/>
       <c r="G21" s="63"/>
@@ -7428,11 +7494,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="136" t="s">
+      <c r="A1" s="140" t="s">
         <v>451</v>
       </c>
-      <c r="B1" s="148"/>
-      <c r="C1" s="148"/>
+      <c r="B1" s="152"/>
+      <c r="C1" s="152"/>
       <c r="D1" s="117"/>
       <c r="E1" s="117"/>
       <c r="F1" s="117"/>
@@ -8118,18 +8184,18 @@
       <c r="C1" s="92" t="s">
         <v>424</v>
       </c>
-      <c r="D1" s="151" t="s">
+      <c r="D1" s="155" t="s">
         <v>269</v>
       </c>
-      <c r="E1" s="151"/>
+      <c r="E1" s="155"/>
       <c r="F1" s="101" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="89" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="9"/>
-      <c r="D2" s="150"/>
-      <c r="E2" s="150"/>
+      <c r="D2" s="154"/>
+      <c r="E2" s="154"/>
       <c r="G2" s="95"/>
       <c r="H2" s="95"/>
       <c r="I2" s="95"/>
@@ -8144,10 +8210,10 @@
       <c r="C3" s="96">
         <v>55</v>
       </c>
-      <c r="D3" s="149" t="s">
+      <c r="D3" s="153" t="s">
         <v>426</v>
       </c>
-      <c r="E3" s="150"/>
+      <c r="E3" s="154"/>
       <c r="F3" s="93" t="s">
         <v>261</v>
       </c>
@@ -8159,8 +8225,8 @@
       <c r="A4" s="90" t="s">
         <v>406</v>
       </c>
-      <c r="D4" s="150"/>
-      <c r="E4" s="150"/>
+      <c r="D4" s="154"/>
+      <c r="E4" s="154"/>
       <c r="F4" s="94"/>
       <c r="G4" s="95"/>
       <c r="H4" s="98"/>
@@ -8176,8 +8242,8 @@
       <c r="C5" s="96">
         <v>43</v>
       </c>
-      <c r="D5" s="150"/>
-      <c r="E5" s="150"/>
+      <c r="D5" s="154"/>
+      <c r="E5" s="154"/>
       <c r="F5" s="93" t="s">
         <v>261</v>
       </c>
@@ -8195,10 +8261,10 @@
       <c r="C6" s="96">
         <v>52</v>
       </c>
-      <c r="D6" s="149" t="s">
+      <c r="D6" s="153" t="s">
         <v>428</v>
       </c>
-      <c r="E6" s="150"/>
+      <c r="E6" s="154"/>
       <c r="F6" s="93" t="s">
         <v>261</v>
       </c>
@@ -8216,10 +8282,10 @@
       <c r="C7" s="96">
         <v>82</v>
       </c>
-      <c r="D7" s="149" t="s">
+      <c r="D7" s="153" t="s">
         <v>428</v>
       </c>
-      <c r="E7" s="150"/>
+      <c r="E7" s="154"/>
       <c r="F7" s="93" t="s">
         <v>261</v>
       </c>
@@ -8237,10 +8303,10 @@
       <c r="C8" s="96">
         <v>99</v>
       </c>
-      <c r="D8" s="149" t="s">
+      <c r="D8" s="153" t="s">
         <v>427</v>
       </c>
-      <c r="E8" s="150"/>
+      <c r="E8" s="154"/>
       <c r="F8" s="94"/>
       <c r="G8" s="95"/>
       <c r="H8" s="98"/>
@@ -8256,10 +8322,10 @@
       <c r="C9" s="96">
         <v>23</v>
       </c>
-      <c r="D9" s="149" t="s">
+      <c r="D9" s="153" t="s">
         <v>426</v>
       </c>
-      <c r="E9" s="150"/>
+      <c r="E9" s="154"/>
       <c r="F9" s="93" t="s">
         <v>261</v>
       </c>
@@ -8273,8 +8339,8 @@
       </c>
       <c r="B10" s="97"/>
       <c r="C10" s="96"/>
-      <c r="D10" s="150"/>
-      <c r="E10" s="150"/>
+      <c r="D10" s="154"/>
+      <c r="E10" s="154"/>
       <c r="F10" s="94"/>
       <c r="G10" s="95"/>
       <c r="H10" s="98"/>
@@ -8286,8 +8352,8 @@
       </c>
       <c r="B11" s="98"/>
       <c r="C11" s="96"/>
-      <c r="D11" s="150"/>
-      <c r="E11" s="150"/>
+      <c r="D11" s="154"/>
+      <c r="E11" s="154"/>
       <c r="F11" s="94"/>
       <c r="G11" s="95"/>
       <c r="H11" s="98"/>
@@ -8303,10 +8369,10 @@
       <c r="C12" s="96">
         <v>59</v>
       </c>
-      <c r="D12" s="149" t="s">
+      <c r="D12" s="153" t="s">
         <v>426</v>
       </c>
-      <c r="E12" s="150"/>
+      <c r="E12" s="154"/>
       <c r="F12" s="93" t="s">
         <v>261</v>
       </c>
@@ -8324,10 +8390,10 @@
       <c r="C13" s="96">
         <v>56</v>
       </c>
-      <c r="D13" s="149" t="s">
+      <c r="D13" s="153" t="s">
         <v>428</v>
       </c>
-      <c r="E13" s="150"/>
+      <c r="E13" s="154"/>
       <c r="F13" s="93" t="s">
         <v>261</v>
       </c>
@@ -8345,10 +8411,10 @@
       <c r="C14" s="96">
         <v>72</v>
       </c>
-      <c r="D14" s="149" t="s">
+      <c r="D14" s="153" t="s">
         <v>428</v>
       </c>
-      <c r="E14" s="150"/>
+      <c r="E14" s="154"/>
       <c r="F14" s="93" t="s">
         <v>261</v>
       </c>
@@ -8366,8 +8432,8 @@
       <c r="C15" s="96">
         <v>64</v>
       </c>
-      <c r="D15" s="150"/>
-      <c r="E15" s="150"/>
+      <c r="D15" s="154"/>
+      <c r="E15" s="154"/>
       <c r="F15" s="93" t="s">
         <v>261</v>
       </c>
@@ -8381,8 +8447,8 @@
       </c>
       <c r="B16" s="96"/>
       <c r="C16" s="96"/>
-      <c r="D16" s="150"/>
-      <c r="E16" s="150"/>
+      <c r="D16" s="154"/>
+      <c r="E16" s="154"/>
       <c r="F16" s="94"/>
       <c r="G16" s="95"/>
       <c r="H16" s="98"/>
@@ -8398,8 +8464,8 @@
       <c r="C17" s="96">
         <v>17</v>
       </c>
-      <c r="D17" s="150"/>
-      <c r="E17" s="150"/>
+      <c r="D17" s="154"/>
+      <c r="E17" s="154"/>
       <c r="F17" s="126" t="s">
         <v>261</v>
       </c>
@@ -8413,8 +8479,8 @@
       </c>
       <c r="B18" s="96"/>
       <c r="C18" s="96"/>
-      <c r="D18" s="150"/>
-      <c r="E18" s="150"/>
+      <c r="D18" s="154"/>
+      <c r="E18" s="154"/>
       <c r="F18" s="94"/>
       <c r="G18" s="95"/>
       <c r="H18" s="98"/>
@@ -8430,10 +8496,10 @@
       <c r="C19" s="96">
         <v>40</v>
       </c>
-      <c r="D19" s="149" t="s">
+      <c r="D19" s="153" t="s">
         <v>428</v>
       </c>
-      <c r="E19" s="150"/>
+      <c r="E19" s="154"/>
       <c r="F19" s="93" t="s">
         <v>261</v>
       </c>
@@ -8451,10 +8517,10 @@
       <c r="C20" s="96">
         <v>48</v>
       </c>
-      <c r="D20" s="149" t="s">
+      <c r="D20" s="153" t="s">
         <v>428</v>
       </c>
-      <c r="E20" s="150"/>
+      <c r="E20" s="154"/>
       <c r="F20" s="93" t="s">
         <v>261</v>
       </c>
@@ -8472,10 +8538,10 @@
       <c r="C21" s="96">
         <v>84</v>
       </c>
-      <c r="D21" s="149" t="s">
+      <c r="D21" s="153" t="s">
         <v>428</v>
       </c>
-      <c r="E21" s="150"/>
+      <c r="E21" s="154"/>
       <c r="F21" s="93" t="s">
         <v>437</v>
       </c>

--- a/Antonio-Feed/__FeedPartsInventory.xlsx
+++ b/Antonio-Feed/__FeedPartsInventory.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pollak/Documents/GitHub/Front-Page/Antonio-Feed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBC18832-90B4-3742-8D84-EB01DCB13C59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7F8EAC3-48D2-C54F-8084-FF01F9B6D07A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="55880" yWindow="460" windowWidth="35840" windowHeight="19760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="70120" yWindow="460" windowWidth="35840" windowHeight="19760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parts At ATA" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="475">
   <si>
     <t>Antenna Inventory</t>
   </si>
@@ -541,9 +541,6 @@
   </si>
   <si>
     <t>Feed Lab</t>
-  </si>
-  <si>
-    <t>In Progress</t>
   </si>
   <si>
     <t>2A</t>
@@ -1464,6 +1461,18 @@
   </si>
   <si>
     <t>(019) 34 / 46</t>
+  </si>
+  <si>
+    <t>1E</t>
+  </si>
+  <si>
+    <t>X=0.06Y=0.08 Z=0.14</t>
+  </si>
+  <si>
+    <t>(001) 50 / 71</t>
+  </si>
+  <si>
+    <t>(007) 41 / 99</t>
   </si>
 </sst>
 </file>
@@ -1634,7 +1643,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="27">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1663,12 +1672,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFF9900"/>
         <bgColor rgb="FFFF9900"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -1703,32 +1706,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor rgb="FFFF9900"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor rgb="FF00FF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -1751,14 +1730,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor theme="0"/>
+        <fgColor theme="9"/>
+        <bgColor rgb="FF00FF00"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="4"/>
         <bgColor rgb="FF00FF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor theme="0"/>
       </patternFill>
     </fill>
     <fill>
@@ -1769,26 +1754,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor rgb="FF00FF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0070C0"/>
-        <bgColor rgb="FF00FF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFF9900"/>
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -2019,7 +1986,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="157">
+  <cellXfs count="156">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2047,15 +2014,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2092,6 +2056,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -2101,19 +2074,10 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2147,18 +2111,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2209,25 +2170,19 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -2235,25 +2190,24 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2265,14 +2219,14 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2287,16 +2241,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2515,8 +2475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q1001"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2540,25 +2500,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="135" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="141"/>
-      <c r="C1" s="141"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="141"/>
-      <c r="H1" s="142"/>
-      <c r="I1" s="143"/>
-      <c r="J1" s="143"/>
-      <c r="K1" s="142"/>
-      <c r="L1" s="143"/>
-      <c r="M1" s="143"/>
-      <c r="N1" s="143"/>
-      <c r="O1" s="143"/>
-      <c r="P1" s="143"/>
-      <c r="Q1" s="143"/>
+      <c r="B1" s="136"/>
+      <c r="C1" s="136"/>
+      <c r="D1" s="136"/>
+      <c r="E1" s="136"/>
+      <c r="F1" s="136"/>
+      <c r="G1" s="136"/>
+      <c r="H1" s="137"/>
+      <c r="I1" s="138"/>
+      <c r="J1" s="138"/>
+      <c r="K1" s="137"/>
+      <c r="L1" s="138"/>
+      <c r="M1" s="138"/>
+      <c r="N1" s="138"/>
+      <c r="O1" s="138"/>
+      <c r="P1" s="138"/>
+      <c r="Q1" s="138"/>
     </row>
     <row r="2" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -2582,16 +2542,16 @@
       <c r="G2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="73"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="73"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
-      <c r="O2" s="72"/>
-      <c r="P2" s="72"/>
-      <c r="Q2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="71"/>
+      <c r="N2" s="71"/>
+      <c r="O2" s="71"/>
+      <c r="P2" s="71"/>
+      <c r="Q2" s="71"/>
     </row>
     <row r="3" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="str">
@@ -2613,16 +2573,16 @@
       <c r="F3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
-      <c r="L3" s="71"/>
-      <c r="M3" s="71"/>
-      <c r="N3" s="71"/>
-      <c r="O3" s="71"/>
-      <c r="P3" s="71"/>
-      <c r="Q3" s="71"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="70"/>
+      <c r="N3" s="70"/>
+      <c r="O3" s="70"/>
+      <c r="P3" s="70"/>
+      <c r="Q3" s="70"/>
     </row>
     <row r="4" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="str">
@@ -2638,16 +2598,16 @@
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="71"/>
-      <c r="L4" s="71"/>
-      <c r="M4" s="71"/>
-      <c r="N4" s="71"/>
-      <c r="O4" s="71"/>
-      <c r="P4" s="71"/>
-      <c r="Q4" s="71"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="70"/>
+      <c r="L4" s="70"/>
+      <c r="M4" s="70"/>
+      <c r="N4" s="70"/>
+      <c r="O4" s="70"/>
+      <c r="P4" s="70"/>
+      <c r="Q4" s="70"/>
     </row>
     <row r="5" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="str">
@@ -2671,16 +2631,16 @@
         <v>27</v>
       </c>
       <c r="G5" s="9"/>
-      <c r="H5" s="71"/>
-      <c r="I5" s="71"/>
-      <c r="J5" s="71"/>
-      <c r="K5" s="71"/>
-      <c r="L5" s="71"/>
-      <c r="M5" s="71"/>
-      <c r="N5" s="71"/>
-      <c r="O5" s="71"/>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="71"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="70"/>
+      <c r="M5" s="70"/>
+      <c r="N5" s="70"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="70"/>
+      <c r="Q5" s="70"/>
     </row>
     <row r="6" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="str">
@@ -2693,19 +2653,19 @@
       <c r="C6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="83"/>
-      <c r="E6" s="83"/>
-      <c r="F6" s="83"/>
-      <c r="H6" s="71"/>
-      <c r="I6" s="71"/>
-      <c r="J6" s="71"/>
-      <c r="K6" s="71"/>
-      <c r="L6" s="71"/>
-      <c r="M6" s="71"/>
-      <c r="N6" s="71"/>
-      <c r="O6" s="71"/>
-      <c r="P6" s="71"/>
-      <c r="Q6" s="71"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="70"/>
+      <c r="J6" s="70"/>
+      <c r="K6" s="70"/>
+      <c r="L6" s="70"/>
+      <c r="M6" s="70"/>
+      <c r="N6" s="70"/>
+      <c r="O6" s="70"/>
+      <c r="P6" s="70"/>
+      <c r="Q6" s="70"/>
     </row>
     <row r="7" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="str">
@@ -2718,20 +2678,24 @@
       <c r="C7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="84"/>
-      <c r="E7" s="83"/>
-      <c r="F7" s="83"/>
+      <c r="D7" s="129" t="s">
+        <v>241</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="F7" s="80"/>
       <c r="G7" s="9"/>
-      <c r="H7" s="71"/>
-      <c r="I7" s="71"/>
-      <c r="J7" s="71"/>
-      <c r="K7" s="71"/>
-      <c r="L7" s="71"/>
-      <c r="M7" s="71"/>
-      <c r="N7" s="71"/>
-      <c r="O7" s="71"/>
-      <c r="P7" s="71"/>
-      <c r="Q7" s="71"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="70"/>
+      <c r="L7" s="70"/>
+      <c r="M7" s="70"/>
+      <c r="N7" s="70"/>
+      <c r="O7" s="70"/>
+      <c r="P7" s="70"/>
+      <c r="Q7" s="70"/>
     </row>
     <row r="8" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="str">
@@ -2753,16 +2717,16 @@
       <c r="F8" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="71"/>
-      <c r="I8" s="71"/>
-      <c r="J8" s="71"/>
-      <c r="K8" s="71"/>
-      <c r="L8" s="71"/>
-      <c r="M8" s="71"/>
-      <c r="N8" s="71"/>
-      <c r="O8" s="71"/>
-      <c r="P8" s="71"/>
-      <c r="Q8" s="71"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="70"/>
+      <c r="J8" s="70"/>
+      <c r="K8" s="70"/>
+      <c r="L8" s="70"/>
+      <c r="M8" s="70"/>
+      <c r="N8" s="70"/>
+      <c r="O8" s="70"/>
+      <c r="P8" s="70"/>
+      <c r="Q8" s="70"/>
     </row>
     <row r="9" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="str">
@@ -2775,20 +2739,24 @@
       <c r="C9" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="4"/>
+      <c r="D9" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>323</v>
+      </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
-      <c r="H9" s="71"/>
-      <c r="I9" s="71"/>
-      <c r="J9" s="71"/>
-      <c r="K9" s="71"/>
-      <c r="L9" s="71"/>
-      <c r="M9" s="71"/>
-      <c r="N9" s="71"/>
-      <c r="O9" s="71"/>
-      <c r="P9" s="71"/>
-      <c r="Q9" s="71"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="70"/>
+      <c r="K9" s="70"/>
+      <c r="L9" s="70"/>
+      <c r="M9" s="70"/>
+      <c r="N9" s="70"/>
+      <c r="O9" s="70"/>
+      <c r="P9" s="70"/>
+      <c r="Q9" s="70"/>
     </row>
     <row r="10" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="str">
@@ -2811,16 +2779,16 @@
       <c r="F10" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H10" s="71"/>
-      <c r="I10" s="71"/>
-      <c r="J10" s="71"/>
-      <c r="K10" s="71"/>
-      <c r="L10" s="71"/>
-      <c r="M10" s="71"/>
-      <c r="N10" s="71"/>
-      <c r="O10" s="71"/>
-      <c r="P10" s="71"/>
-      <c r="Q10" s="71"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="70"/>
+      <c r="K10" s="70"/>
+      <c r="L10" s="70"/>
+      <c r="M10" s="70"/>
+      <c r="N10" s="70"/>
+      <c r="O10" s="70"/>
+      <c r="P10" s="70"/>
+      <c r="Q10" s="70"/>
     </row>
     <row r="11" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="str">
@@ -2837,16 +2805,16 @@
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
-      <c r="H11" s="71"/>
-      <c r="I11" s="71"/>
-      <c r="J11" s="71"/>
-      <c r="K11" s="71"/>
-      <c r="L11" s="71"/>
-      <c r="M11" s="71"/>
-      <c r="N11" s="71"/>
-      <c r="O11" s="71"/>
-      <c r="P11" s="71"/>
-      <c r="Q11" s="71"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="70"/>
+      <c r="J11" s="70"/>
+      <c r="K11" s="70"/>
+      <c r="L11" s="70"/>
+      <c r="M11" s="70"/>
+      <c r="N11" s="70"/>
+      <c r="O11" s="70"/>
+      <c r="P11" s="70"/>
+      <c r="Q11" s="70"/>
     </row>
     <row r="12" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="str">
@@ -2869,16 +2837,16 @@
       <c r="F12" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="H12" s="71"/>
-      <c r="I12" s="71"/>
-      <c r="J12" s="71"/>
-      <c r="K12" s="71"/>
-      <c r="L12" s="71"/>
-      <c r="M12" s="71"/>
-      <c r="N12" s="71"/>
-      <c r="O12" s="71"/>
-      <c r="P12" s="71"/>
-      <c r="Q12" s="71"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="70"/>
+      <c r="J12" s="70"/>
+      <c r="K12" s="70"/>
+      <c r="L12" s="70"/>
+      <c r="M12" s="70"/>
+      <c r="N12" s="70"/>
+      <c r="O12" s="70"/>
+      <c r="P12" s="70"/>
+      <c r="Q12" s="70"/>
     </row>
     <row r="13" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="str">
@@ -2886,7 +2854,7 @@
         <v>2A</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>53</v>
@@ -2901,16 +2869,16 @@
       <c r="F13" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="H13" s="71"/>
-      <c r="I13" s="71"/>
-      <c r="J13" s="71"/>
-      <c r="K13" s="71"/>
-      <c r="L13" s="71"/>
-      <c r="M13" s="71"/>
-      <c r="N13" s="71"/>
-      <c r="O13" s="71"/>
-      <c r="P13" s="71"/>
-      <c r="Q13" s="71"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="70"/>
+      <c r="J13" s="70"/>
+      <c r="K13" s="70"/>
+      <c r="L13" s="70"/>
+      <c r="M13" s="70"/>
+      <c r="N13" s="70"/>
+      <c r="O13" s="70"/>
+      <c r="P13" s="70"/>
+      <c r="Q13" s="70"/>
     </row>
     <row r="14" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="str">
@@ -2933,16 +2901,17 @@
       <c r="F14" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="H14" s="71"/>
-      <c r="I14" s="71"/>
-      <c r="J14" s="71"/>
-      <c r="K14" s="71"/>
-      <c r="L14" s="71"/>
-      <c r="M14" s="71"/>
-      <c r="N14" s="71"/>
-      <c r="O14" s="71"/>
-      <c r="P14" s="71"/>
-      <c r="Q14" s="71"/>
+      <c r="G14" s="127"/>
+      <c r="H14" s="70"/>
+      <c r="I14" s="70"/>
+      <c r="J14" s="70"/>
+      <c r="K14" s="70"/>
+      <c r="L14" s="70"/>
+      <c r="M14" s="70"/>
+      <c r="N14" s="70"/>
+      <c r="O14" s="70"/>
+      <c r="P14" s="70"/>
+      <c r="Q14" s="70"/>
     </row>
     <row r="15" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="str">
@@ -2956,22 +2925,22 @@
         <v>61</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>41</v>
       </c>
       <c r="F15" s="4"/>
-      <c r="H15" s="71"/>
-      <c r="I15" s="71"/>
-      <c r="J15" s="71"/>
-      <c r="K15" s="71"/>
-      <c r="L15" s="71"/>
-      <c r="M15" s="71"/>
-      <c r="N15" s="71"/>
-      <c r="O15" s="71"/>
-      <c r="P15" s="71"/>
-      <c r="Q15" s="71"/>
+      <c r="H15" s="70"/>
+      <c r="I15" s="70"/>
+      <c r="J15" s="70"/>
+      <c r="K15" s="70"/>
+      <c r="L15" s="70"/>
+      <c r="M15" s="70"/>
+      <c r="N15" s="70"/>
+      <c r="O15" s="70"/>
+      <c r="P15" s="70"/>
+      <c r="Q15" s="70"/>
     </row>
     <row r="16" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="str">
@@ -2987,16 +2956,16 @@
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
-      <c r="H16" s="71"/>
-      <c r="I16" s="71"/>
-      <c r="J16" s="71"/>
-      <c r="K16" s="71"/>
-      <c r="L16" s="71"/>
-      <c r="M16" s="71"/>
-      <c r="N16" s="71"/>
-      <c r="O16" s="71"/>
-      <c r="P16" s="71"/>
-      <c r="Q16" s="71"/>
+      <c r="H16" s="70"/>
+      <c r="I16" s="70"/>
+      <c r="J16" s="70"/>
+      <c r="K16" s="70"/>
+      <c r="L16" s="70"/>
+      <c r="M16" s="70"/>
+      <c r="N16" s="70"/>
+      <c r="O16" s="70"/>
+      <c r="P16" s="70"/>
+      <c r="Q16" s="70"/>
     </row>
     <row r="17" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="str">
@@ -3010,7 +2979,7 @@
         <v>67</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>68</v>
@@ -3018,16 +2987,16 @@
       <c r="F17" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="H17" s="71"/>
-      <c r="I17" s="71"/>
-      <c r="J17" s="71"/>
-      <c r="K17" s="71"/>
-      <c r="L17" s="71"/>
-      <c r="M17" s="71"/>
-      <c r="N17" s="71"/>
-      <c r="O17" s="71"/>
-      <c r="P17" s="71"/>
-      <c r="Q17" s="71"/>
+      <c r="H17" s="70"/>
+      <c r="I17" s="70"/>
+      <c r="J17" s="70"/>
+      <c r="K17" s="70"/>
+      <c r="L17" s="70"/>
+      <c r="M17" s="70"/>
+      <c r="N17" s="70"/>
+      <c r="O17" s="70"/>
+      <c r="P17" s="70"/>
+      <c r="Q17" s="70"/>
     </row>
     <row r="18" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="str">
@@ -3043,16 +3012,16 @@
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
-      <c r="H18" s="71"/>
-      <c r="I18" s="71"/>
-      <c r="J18" s="71"/>
-      <c r="K18" s="71"/>
-      <c r="L18" s="71"/>
-      <c r="M18" s="71"/>
-      <c r="N18" s="71"/>
-      <c r="O18" s="71"/>
-      <c r="P18" s="71"/>
-      <c r="Q18" s="71"/>
+      <c r="H18" s="70"/>
+      <c r="I18" s="70"/>
+      <c r="J18" s="70"/>
+      <c r="K18" s="70"/>
+      <c r="L18" s="70"/>
+      <c r="M18" s="70"/>
+      <c r="N18" s="70"/>
+      <c r="O18" s="70"/>
+      <c r="P18" s="70"/>
+      <c r="Q18" s="70"/>
     </row>
     <row r="19" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="str">
@@ -3069,16 +3038,16 @@
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
-      <c r="H19" s="71"/>
-      <c r="I19" s="71"/>
-      <c r="J19" s="71"/>
-      <c r="K19" s="71"/>
-      <c r="L19" s="71"/>
-      <c r="M19" s="71"/>
-      <c r="N19" s="71"/>
-      <c r="O19" s="71"/>
-      <c r="P19" s="71"/>
-      <c r="Q19" s="71"/>
+      <c r="H19" s="70"/>
+      <c r="I19" s="70"/>
+      <c r="J19" s="70"/>
+      <c r="K19" s="70"/>
+      <c r="L19" s="70"/>
+      <c r="M19" s="70"/>
+      <c r="N19" s="70"/>
+      <c r="O19" s="70"/>
+      <c r="P19" s="70"/>
+      <c r="Q19" s="70"/>
     </row>
     <row r="20" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="str">
@@ -3086,13 +3055,13 @@
         <v>2H</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>76</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>78</v>
@@ -3100,16 +3069,16 @@
       <c r="F20" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="H20" s="71"/>
-      <c r="I20" s="71"/>
-      <c r="J20" s="71"/>
-      <c r="K20" s="71"/>
-      <c r="L20" s="71"/>
-      <c r="M20" s="71"/>
-      <c r="N20" s="71"/>
-      <c r="O20" s="71"/>
-      <c r="P20" s="71"/>
-      <c r="Q20" s="71"/>
+      <c r="H20" s="70"/>
+      <c r="I20" s="70"/>
+      <c r="J20" s="70"/>
+      <c r="K20" s="70"/>
+      <c r="L20" s="70"/>
+      <c r="M20" s="70"/>
+      <c r="N20" s="70"/>
+      <c r="O20" s="70"/>
+      <c r="P20" s="70"/>
+      <c r="Q20" s="70"/>
     </row>
     <row r="21" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="str">
@@ -3122,23 +3091,23 @@
       <c r="C21" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D21" s="87" t="s">
-        <v>358</v>
-      </c>
-      <c r="E21" s="83" t="s">
+      <c r="D21" s="83" t="s">
+        <v>357</v>
+      </c>
+      <c r="E21" s="80" t="s">
         <v>130</v>
       </c>
-      <c r="F21" s="83"/>
-      <c r="H21" s="71"/>
-      <c r="I21" s="71"/>
-      <c r="J21" s="71"/>
-      <c r="K21" s="71"/>
-      <c r="L21" s="71"/>
-      <c r="M21" s="71"/>
-      <c r="N21" s="71"/>
-      <c r="O21" s="71"/>
-      <c r="P21" s="71"/>
-      <c r="Q21" s="71"/>
+      <c r="F21" s="80"/>
+      <c r="H21" s="70"/>
+      <c r="I21" s="70"/>
+      <c r="J21" s="70"/>
+      <c r="K21" s="70"/>
+      <c r="L21" s="70"/>
+      <c r="M21" s="70"/>
+      <c r="N21" s="70"/>
+      <c r="O21" s="70"/>
+      <c r="P21" s="70"/>
+      <c r="Q21" s="70"/>
     </row>
     <row r="22" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="str">
@@ -3151,19 +3120,19 @@
       <c r="C22" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D22" s="83"/>
-      <c r="E22" s="83"/>
-      <c r="F22" s="83"/>
-      <c r="H22" s="71"/>
-      <c r="I22" s="71"/>
-      <c r="J22" s="71"/>
-      <c r="K22" s="71"/>
-      <c r="L22" s="71"/>
-      <c r="M22" s="71"/>
-      <c r="N22" s="71"/>
-      <c r="O22" s="71"/>
-      <c r="P22" s="71"/>
-      <c r="Q22" s="71"/>
+      <c r="D22" s="80"/>
+      <c r="E22" s="80"/>
+      <c r="F22" s="80"/>
+      <c r="H22" s="70"/>
+      <c r="I22" s="70"/>
+      <c r="J22" s="70"/>
+      <c r="K22" s="70"/>
+      <c r="L22" s="70"/>
+      <c r="M22" s="70"/>
+      <c r="N22" s="70"/>
+      <c r="O22" s="70"/>
+      <c r="P22" s="70"/>
+      <c r="Q22" s="70"/>
     </row>
     <row r="23" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="str">
@@ -3176,19 +3145,23 @@
       <c r="C23" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D23" s="83"/>
-      <c r="E23" s="83"/>
-      <c r="F23" s="83"/>
-      <c r="H23" s="71"/>
-      <c r="I23" s="71"/>
-      <c r="J23" s="71"/>
-      <c r="K23" s="71"/>
-      <c r="L23" s="71"/>
-      <c r="M23" s="71"/>
-      <c r="N23" s="71"/>
-      <c r="O23" s="71"/>
-      <c r="P23" s="71"/>
-      <c r="Q23" s="71"/>
+      <c r="D23" s="80" t="s">
+        <v>449</v>
+      </c>
+      <c r="E23" s="153" t="s">
+        <v>340</v>
+      </c>
+      <c r="F23" s="80"/>
+      <c r="H23" s="70"/>
+      <c r="I23" s="70"/>
+      <c r="J23" s="70"/>
+      <c r="K23" s="70"/>
+      <c r="L23" s="70"/>
+      <c r="M23" s="70"/>
+      <c r="N23" s="70"/>
+      <c r="O23" s="70"/>
+      <c r="P23" s="70"/>
+      <c r="Q23" s="70"/>
     </row>
     <row r="24" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="str">
@@ -3201,24 +3174,24 @@
       <c r="C24" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D24" s="87" t="s">
-        <v>355</v>
-      </c>
-      <c r="E24" s="86" t="s">
-        <v>302</v>
-      </c>
-      <c r="F24" s="83"/>
+      <c r="D24" s="83" t="s">
+        <v>354</v>
+      </c>
+      <c r="E24" s="82" t="s">
+        <v>301</v>
+      </c>
+      <c r="F24" s="80"/>
       <c r="G24" s="9"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="71"/>
-      <c r="J24" s="71"/>
-      <c r="K24" s="71"/>
-      <c r="L24" s="71"/>
-      <c r="M24" s="71"/>
-      <c r="N24" s="71"/>
-      <c r="O24" s="71"/>
-      <c r="P24" s="71"/>
-      <c r="Q24" s="71"/>
+      <c r="H24" s="70"/>
+      <c r="I24" s="70"/>
+      <c r="J24" s="70"/>
+      <c r="K24" s="70"/>
+      <c r="L24" s="70"/>
+      <c r="M24" s="70"/>
+      <c r="N24" s="70"/>
+      <c r="O24" s="70"/>
+      <c r="P24" s="70"/>
+      <c r="Q24" s="70"/>
     </row>
     <row r="25" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="str">
@@ -3231,9 +3204,9 @@
       <c r="C25" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D25" s="136" t="str">
-        <f>HYPERLINK("https://drive.google.com/drive/folders/1wMVARUxnYHeiTbbEodCmZFb_vx9FkRVr","5C4-018")</f>
-        <v>5C4-018</v>
+      <c r="D25" s="126" t="str">
+        <f>HYPERLINK("https://drive.google.com/drive/folders/1wMVARUxnYHeiTbbEodCmZFb_vx9FkRVr","5C4-020")</f>
+        <v>5C4-020</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>93</v>
@@ -3241,16 +3214,16 @@
       <c r="F25" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="H25" s="71"/>
-      <c r="I25" s="71"/>
-      <c r="J25" s="71"/>
-      <c r="K25" s="71"/>
-      <c r="L25" s="71"/>
-      <c r="M25" s="71"/>
-      <c r="N25" s="71"/>
-      <c r="O25" s="71"/>
-      <c r="P25" s="71"/>
-      <c r="Q25" s="71"/>
+      <c r="H25" s="70"/>
+      <c r="I25" s="70"/>
+      <c r="J25" s="70"/>
+      <c r="K25" s="70"/>
+      <c r="L25" s="70"/>
+      <c r="M25" s="70"/>
+      <c r="N25" s="70"/>
+      <c r="O25" s="70"/>
+      <c r="P25" s="70"/>
+      <c r="Q25" s="70"/>
     </row>
     <row r="26" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="str">
@@ -3263,24 +3236,24 @@
       <c r="C26" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D26" s="87" t="s">
-        <v>243</v>
-      </c>
-      <c r="E26" s="83" t="s">
+      <c r="D26" s="83" t="s">
+        <v>242</v>
+      </c>
+      <c r="E26" s="80" t="s">
         <v>140</v>
       </c>
-      <c r="F26" s="83"/>
+      <c r="F26" s="80"/>
       <c r="G26" s="9"/>
-      <c r="H26" s="71"/>
-      <c r="I26" s="71"/>
-      <c r="J26" s="71"/>
-      <c r="K26" s="71"/>
-      <c r="L26" s="71"/>
-      <c r="M26" s="71"/>
-      <c r="N26" s="71"/>
-      <c r="O26" s="71"/>
-      <c r="P26" s="71"/>
-      <c r="Q26" s="71"/>
+      <c r="H26" s="70"/>
+      <c r="I26" s="70"/>
+      <c r="J26" s="70"/>
+      <c r="K26" s="70"/>
+      <c r="L26" s="70"/>
+      <c r="M26" s="70"/>
+      <c r="N26" s="70"/>
+      <c r="O26" s="70"/>
+      <c r="P26" s="70"/>
+      <c r="Q26" s="70"/>
     </row>
     <row r="27" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="str">
@@ -3293,19 +3266,19 @@
       <c r="C27" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="D27" s="83"/>
-      <c r="E27" s="83"/>
-      <c r="F27" s="85"/>
-      <c r="H27" s="71"/>
-      <c r="I27" s="71"/>
-      <c r="J27" s="71"/>
-      <c r="K27" s="71"/>
-      <c r="L27" s="71"/>
-      <c r="M27" s="71"/>
-      <c r="N27" s="71"/>
-      <c r="O27" s="71"/>
-      <c r="P27" s="71"/>
-      <c r="Q27" s="71"/>
+      <c r="D27" s="80"/>
+      <c r="E27" s="80"/>
+      <c r="F27" s="81"/>
+      <c r="H27" s="70"/>
+      <c r="I27" s="70"/>
+      <c r="J27" s="70"/>
+      <c r="K27" s="70"/>
+      <c r="L27" s="70"/>
+      <c r="M27" s="70"/>
+      <c r="N27" s="70"/>
+      <c r="O27" s="70"/>
+      <c r="P27" s="70"/>
+      <c r="Q27" s="70"/>
     </row>
     <row r="28" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="str">
@@ -3328,16 +3301,16 @@
         <v>48</v>
       </c>
       <c r="G28" s="3"/>
-      <c r="H28" s="71"/>
-      <c r="I28" s="71"/>
-      <c r="J28" s="71"/>
-      <c r="K28" s="71"/>
-      <c r="L28" s="71"/>
-      <c r="M28" s="71"/>
-      <c r="N28" s="71"/>
-      <c r="O28" s="71"/>
-      <c r="P28" s="71"/>
-      <c r="Q28" s="71"/>
+      <c r="H28" s="70"/>
+      <c r="I28" s="70"/>
+      <c r="J28" s="70"/>
+      <c r="K28" s="70"/>
+      <c r="L28" s="70"/>
+      <c r="M28" s="70"/>
+      <c r="N28" s="70"/>
+      <c r="O28" s="70"/>
+      <c r="P28" s="70"/>
+      <c r="Q28" s="70"/>
     </row>
     <row r="29" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="str">
@@ -3360,16 +3333,16 @@
         <v>48</v>
       </c>
       <c r="G29" s="4"/>
-      <c r="H29" s="71"/>
-      <c r="I29" s="71"/>
-      <c r="J29" s="71"/>
-      <c r="K29" s="71"/>
-      <c r="L29" s="71"/>
-      <c r="M29" s="71"/>
-      <c r="N29" s="71"/>
-      <c r="O29" s="71"/>
-      <c r="P29" s="71"/>
-      <c r="Q29" s="71"/>
+      <c r="H29" s="70"/>
+      <c r="I29" s="70"/>
+      <c r="J29" s="70"/>
+      <c r="K29" s="70"/>
+      <c r="L29" s="70"/>
+      <c r="M29" s="70"/>
+      <c r="N29" s="70"/>
+      <c r="O29" s="70"/>
+      <c r="P29" s="70"/>
+      <c r="Q29" s="70"/>
     </row>
     <row r="30" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="str">
@@ -3392,16 +3365,16 @@
         <v>48</v>
       </c>
       <c r="G30" s="4"/>
-      <c r="H30" s="71"/>
-      <c r="I30" s="71"/>
-      <c r="J30" s="71"/>
-      <c r="K30" s="71"/>
-      <c r="L30" s="71"/>
-      <c r="M30" s="71"/>
-      <c r="N30" s="71"/>
-      <c r="O30" s="71"/>
-      <c r="P30" s="71"/>
-      <c r="Q30" s="71"/>
+      <c r="H30" s="70"/>
+      <c r="I30" s="70"/>
+      <c r="J30" s="70"/>
+      <c r="K30" s="70"/>
+      <c r="L30" s="70"/>
+      <c r="M30" s="70"/>
+      <c r="N30" s="70"/>
+      <c r="O30" s="70"/>
+      <c r="P30" s="70"/>
+      <c r="Q30" s="70"/>
     </row>
     <row r="31" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="str">
@@ -3417,16 +3390,16 @@
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
-      <c r="H31" s="71"/>
-      <c r="I31" s="71"/>
-      <c r="J31" s="71"/>
-      <c r="K31" s="71"/>
-      <c r="L31" s="71"/>
-      <c r="M31" s="71"/>
-      <c r="N31" s="71"/>
-      <c r="O31" s="71"/>
-      <c r="P31" s="71"/>
-      <c r="Q31" s="71"/>
+      <c r="H31" s="70"/>
+      <c r="I31" s="70"/>
+      <c r="J31" s="70"/>
+      <c r="K31" s="70"/>
+      <c r="L31" s="70"/>
+      <c r="M31" s="70"/>
+      <c r="N31" s="70"/>
+      <c r="O31" s="70"/>
+      <c r="P31" s="70"/>
+      <c r="Q31" s="70"/>
     </row>
     <row r="32" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="str">
@@ -3440,7 +3413,7 @@
         <v>105</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>142</v>
@@ -3448,16 +3421,16 @@
       <c r="F32" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="H32" s="71"/>
-      <c r="I32" s="71"/>
-      <c r="J32" s="71"/>
-      <c r="K32" s="71"/>
-      <c r="L32" s="71"/>
-      <c r="M32" s="71"/>
-      <c r="N32" s="71"/>
-      <c r="O32" s="71"/>
-      <c r="P32" s="71"/>
-      <c r="Q32" s="71"/>
+      <c r="H32" s="70"/>
+      <c r="I32" s="70"/>
+      <c r="J32" s="70"/>
+      <c r="K32" s="70"/>
+      <c r="L32" s="70"/>
+      <c r="M32" s="70"/>
+      <c r="N32" s="70"/>
+      <c r="O32" s="70"/>
+      <c r="P32" s="70"/>
+      <c r="Q32" s="70"/>
     </row>
     <row r="33" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="str">
@@ -3474,16 +3447,16 @@
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
-      <c r="H33" s="71"/>
-      <c r="I33" s="71"/>
-      <c r="J33" s="71"/>
-      <c r="K33" s="71"/>
-      <c r="L33" s="71"/>
-      <c r="M33" s="71"/>
-      <c r="N33" s="71"/>
-      <c r="O33" s="71"/>
-      <c r="P33" s="71"/>
-      <c r="Q33" s="71"/>
+      <c r="H33" s="70"/>
+      <c r="I33" s="70"/>
+      <c r="J33" s="70"/>
+      <c r="K33" s="70"/>
+      <c r="L33" s="70"/>
+      <c r="M33" s="70"/>
+      <c r="N33" s="70"/>
+      <c r="O33" s="70"/>
+      <c r="P33" s="70"/>
+      <c r="Q33" s="70"/>
     </row>
     <row r="34" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="str">
@@ -3500,16 +3473,16 @@
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
-      <c r="H34" s="71"/>
-      <c r="I34" s="71"/>
-      <c r="J34" s="71"/>
-      <c r="K34" s="71"/>
-      <c r="L34" s="71"/>
-      <c r="M34" s="71"/>
-      <c r="N34" s="71"/>
-      <c r="O34" s="71"/>
-      <c r="P34" s="71"/>
-      <c r="Q34" s="71"/>
+      <c r="H34" s="70"/>
+      <c r="I34" s="70"/>
+      <c r="J34" s="70"/>
+      <c r="K34" s="70"/>
+      <c r="L34" s="70"/>
+      <c r="M34" s="70"/>
+      <c r="N34" s="70"/>
+      <c r="O34" s="70"/>
+      <c r="P34" s="70"/>
+      <c r="Q34" s="70"/>
     </row>
     <row r="35" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="str">
@@ -3531,16 +3504,16 @@
       <c r="F35" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="H35" s="71"/>
-      <c r="I35" s="71"/>
-      <c r="J35" s="71"/>
-      <c r="K35" s="71"/>
-      <c r="L35" s="71"/>
-      <c r="M35" s="71"/>
-      <c r="N35" s="71"/>
-      <c r="O35" s="71"/>
-      <c r="P35" s="71"/>
-      <c r="Q35" s="71"/>
+      <c r="H35" s="70"/>
+      <c r="I35" s="70"/>
+      <c r="J35" s="70"/>
+      <c r="K35" s="70"/>
+      <c r="L35" s="70"/>
+      <c r="M35" s="70"/>
+      <c r="N35" s="70"/>
+      <c r="O35" s="70"/>
+      <c r="P35" s="70"/>
+      <c r="Q35" s="70"/>
     </row>
     <row r="36" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="str">
@@ -3557,16 +3530,16 @@
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
-      <c r="H36" s="71"/>
-      <c r="I36" s="71"/>
-      <c r="J36" s="71"/>
-      <c r="K36" s="71"/>
-      <c r="L36" s="71"/>
-      <c r="M36" s="71"/>
-      <c r="N36" s="71"/>
-      <c r="O36" s="71"/>
-      <c r="P36" s="71"/>
-      <c r="Q36" s="71"/>
+      <c r="H36" s="70"/>
+      <c r="I36" s="70"/>
+      <c r="J36" s="70"/>
+      <c r="K36" s="70"/>
+      <c r="L36" s="70"/>
+      <c r="M36" s="70"/>
+      <c r="N36" s="70"/>
+      <c r="O36" s="70"/>
+      <c r="P36" s="70"/>
+      <c r="Q36" s="70"/>
     </row>
     <row r="37" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="str">
@@ -3589,16 +3562,16 @@
       <c r="F37" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="H37" s="71"/>
-      <c r="I37" s="71"/>
-      <c r="J37" s="71"/>
-      <c r="K37" s="71"/>
-      <c r="L37" s="71"/>
-      <c r="M37" s="71"/>
-      <c r="N37" s="71"/>
-      <c r="O37" s="71"/>
-      <c r="P37" s="71"/>
-      <c r="Q37" s="71"/>
+      <c r="H37" s="70"/>
+      <c r="I37" s="70"/>
+      <c r="J37" s="70"/>
+      <c r="K37" s="70"/>
+      <c r="L37" s="70"/>
+      <c r="M37" s="70"/>
+      <c r="N37" s="70"/>
+      <c r="O37" s="70"/>
+      <c r="P37" s="70"/>
+      <c r="Q37" s="70"/>
     </row>
     <row r="38" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="str">
@@ -3614,16 +3587,16 @@
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
-      <c r="H38" s="71"/>
-      <c r="I38" s="71"/>
-      <c r="J38" s="71"/>
-      <c r="K38" s="71"/>
-      <c r="L38" s="71"/>
-      <c r="M38" s="71"/>
-      <c r="N38" s="71"/>
-      <c r="O38" s="71"/>
-      <c r="P38" s="71"/>
-      <c r="Q38" s="71"/>
+      <c r="H38" s="70"/>
+      <c r="I38" s="70"/>
+      <c r="J38" s="70"/>
+      <c r="K38" s="70"/>
+      <c r="L38" s="70"/>
+      <c r="M38" s="70"/>
+      <c r="N38" s="70"/>
+      <c r="O38" s="70"/>
+      <c r="P38" s="70"/>
+      <c r="Q38" s="70"/>
     </row>
     <row r="39" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="str">
@@ -3639,16 +3612,16 @@
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
-      <c r="H39" s="71"/>
-      <c r="I39" s="71"/>
-      <c r="J39" s="71"/>
-      <c r="K39" s="71"/>
-      <c r="L39" s="71"/>
-      <c r="M39" s="71"/>
-      <c r="N39" s="71"/>
-      <c r="O39" s="71"/>
-      <c r="P39" s="71"/>
-      <c r="Q39" s="71"/>
+      <c r="H39" s="70"/>
+      <c r="I39" s="70"/>
+      <c r="J39" s="70"/>
+      <c r="K39" s="70"/>
+      <c r="L39" s="70"/>
+      <c r="M39" s="70"/>
+      <c r="N39" s="70"/>
+      <c r="O39" s="70"/>
+      <c r="P39" s="70"/>
+      <c r="Q39" s="70"/>
     </row>
     <row r="40" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="str">
@@ -3662,22 +3635,22 @@
         <v>129</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>31</v>
       </c>
       <c r="F40" s="4"/>
-      <c r="H40" s="71"/>
-      <c r="I40" s="71"/>
-      <c r="J40" s="71"/>
-      <c r="K40" s="71"/>
-      <c r="L40" s="71"/>
-      <c r="M40" s="71"/>
-      <c r="N40" s="71"/>
-      <c r="O40" s="71"/>
-      <c r="P40" s="71"/>
-      <c r="Q40" s="71"/>
+      <c r="H40" s="70"/>
+      <c r="I40" s="70"/>
+      <c r="J40" s="70"/>
+      <c r="K40" s="70"/>
+      <c r="L40" s="70"/>
+      <c r="M40" s="70"/>
+      <c r="N40" s="70"/>
+      <c r="O40" s="70"/>
+      <c r="P40" s="70"/>
+      <c r="Q40" s="70"/>
     </row>
     <row r="41" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="str">
@@ -3699,16 +3672,16 @@
       <c r="F41" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="H41" s="71"/>
-      <c r="I41" s="71"/>
-      <c r="J41" s="71"/>
-      <c r="K41" s="71"/>
-      <c r="L41" s="71"/>
-      <c r="M41" s="71"/>
-      <c r="N41" s="71"/>
-      <c r="O41" s="71"/>
-      <c r="P41" s="71"/>
-      <c r="Q41" s="71"/>
+      <c r="H41" s="70"/>
+      <c r="I41" s="70"/>
+      <c r="J41" s="70"/>
+      <c r="K41" s="70"/>
+      <c r="L41" s="70"/>
+      <c r="M41" s="70"/>
+      <c r="N41" s="70"/>
+      <c r="O41" s="70"/>
+      <c r="P41" s="70"/>
+      <c r="Q41" s="70"/>
     </row>
     <row r="42" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="str">
@@ -3724,16 +3697,16 @@
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
-      <c r="H42" s="71"/>
-      <c r="I42" s="71"/>
-      <c r="J42" s="71"/>
-      <c r="K42" s="71"/>
-      <c r="L42" s="71"/>
-      <c r="M42" s="71"/>
-      <c r="N42" s="71"/>
-      <c r="O42" s="71"/>
-      <c r="P42" s="71"/>
-      <c r="Q42" s="71"/>
+      <c r="H42" s="70"/>
+      <c r="I42" s="70"/>
+      <c r="J42" s="70"/>
+      <c r="K42" s="70"/>
+      <c r="L42" s="70"/>
+      <c r="M42" s="70"/>
+      <c r="N42" s="70"/>
+      <c r="O42" s="70"/>
+      <c r="P42" s="70"/>
+      <c r="Q42" s="70"/>
     </row>
     <row r="43" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="str">
@@ -3749,16 +3722,16 @@
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
-      <c r="H43" s="71"/>
-      <c r="I43" s="71"/>
-      <c r="J43" s="71"/>
-      <c r="K43" s="71"/>
-      <c r="L43" s="71"/>
-      <c r="M43" s="71"/>
-      <c r="N43" s="71"/>
-      <c r="O43" s="71"/>
-      <c r="P43" s="71"/>
-      <c r="Q43" s="71"/>
+      <c r="H43" s="70"/>
+      <c r="I43" s="70"/>
+      <c r="J43" s="70"/>
+      <c r="K43" s="70"/>
+      <c r="L43" s="70"/>
+      <c r="M43" s="70"/>
+      <c r="N43" s="70"/>
+      <c r="O43" s="70"/>
+      <c r="P43" s="70"/>
+      <c r="Q43" s="70"/>
     </row>
     <row r="44" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="str">
@@ -3766,7 +3739,7 @@
         <v>5H</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>141</v>
@@ -3774,16 +3747,16 @@
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
-      <c r="H44" s="71"/>
-      <c r="I44" s="71"/>
-      <c r="J44" s="71"/>
-      <c r="K44" s="71"/>
-      <c r="L44" s="71"/>
-      <c r="M44" s="71"/>
-      <c r="N44" s="71"/>
-      <c r="O44" s="71"/>
-      <c r="P44" s="71"/>
-      <c r="Q44" s="71"/>
+      <c r="H44" s="70"/>
+      <c r="I44" s="70"/>
+      <c r="J44" s="70"/>
+      <c r="K44" s="70"/>
+      <c r="L44" s="70"/>
+      <c r="M44" s="70"/>
+      <c r="N44" s="70"/>
+      <c r="O44" s="70"/>
+      <c r="P44" s="70"/>
+      <c r="Q44" s="70"/>
     </row>
     <row r="45" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K45" s="5"/>
@@ -3864,38 +3837,38 @@
       <c r="A58" s="9"/>
     </row>
     <row r="59" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="144" t="s">
+      <c r="A59" s="139" t="s">
         <v>157</v>
       </c>
-      <c r="B59" s="139"/>
-      <c r="C59" s="139"/>
+      <c r="B59" s="134"/>
+      <c r="C59" s="134"/>
     </row>
     <row r="60" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="12"/>
     </row>
     <row r="61" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="138" t="s">
+      <c r="A61" s="133" t="s">
         <v>149</v>
       </c>
-      <c r="B61" s="139"/>
-      <c r="C61" s="138" t="s">
+      <c r="B61" s="134"/>
+      <c r="C61" s="133" t="s">
         <v>158</v>
       </c>
-      <c r="D61" s="139"/>
-      <c r="E61" s="139"/>
-      <c r="F61" s="139"/>
+      <c r="D61" s="134"/>
+      <c r="E61" s="134"/>
+      <c r="F61" s="134"/>
     </row>
     <row r="62" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="138" t="s">
+      <c r="A62" s="133" t="s">
         <v>159</v>
       </c>
-      <c r="B62" s="139"/>
-      <c r="C62" s="138" t="s">
+      <c r="B62" s="134"/>
+      <c r="C62" s="133" t="s">
         <v>160</v>
       </c>
-      <c r="D62" s="139"/>
-      <c r="E62" s="139"/>
-      <c r="F62" s="139"/>
+      <c r="D62" s="134"/>
+      <c r="E62" s="134"/>
+      <c r="F62" s="134"/>
     </row>
     <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="64" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4876,121 +4849,131 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="145" t="s">
+      <c r="A1" s="140" t="s">
         <v>161</v>
       </c>
-      <c r="B1" s="146"/>
-      <c r="C1" s="147" t="s">
+      <c r="B1" s="141"/>
+      <c r="C1" s="142" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="148"/>
-      <c r="E1" s="148"/>
-      <c r="F1" s="148"/>
-      <c r="G1" s="148"/>
-      <c r="H1" s="148"/>
-      <c r="I1" s="148"/>
-      <c r="J1" s="148"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
+      <c r="G1" s="143"/>
+      <c r="H1" s="143"/>
+      <c r="I1" s="143"/>
+      <c r="J1" s="143"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
     </row>
     <row r="2" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="127" t="s">
+      <c r="A2" s="121" t="s">
         <v>162</v>
       </c>
-      <c r="B2" s="127" t="s">
+      <c r="B2" s="121" t="s">
         <v>163</v>
       </c>
-      <c r="C2" s="127" t="s">
+      <c r="C2" s="121" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="128" t="s">
+      <c r="D2" s="122" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="127" t="s">
+      <c r="E2" s="121" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="127" t="s">
+      <c r="F2" s="121" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="127" t="s">
+      <c r="G2" s="121" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="127" t="s">
+      <c r="H2" s="121" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="129" t="s">
+      <c r="I2" s="123" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="129" t="s">
+      <c r="J2" s="123" t="s">
         <v>164</v>
       </c>
       <c r="K2" s="15" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="L2" s="15" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" s="114" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="22" t="s">
-        <v>450</v>
-      </c>
-      <c r="B3" s="81" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="110" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="21" t="s">
+        <v>449</v>
+      </c>
+      <c r="B3" s="155" t="s">
         <v>165</v>
       </c>
-      <c r="C3" s="115"/>
-      <c r="D3" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="G3" s="116"/>
-      <c r="H3" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="I3" s="116"/>
-      <c r="J3" s="116"/>
-      <c r="K3" s="74"/>
-      <c r="L3" s="74"/>
+      <c r="C3" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="73" t="s">
+        <v>473</v>
+      </c>
+      <c r="L3" s="73"/>
     </row>
     <row r="4" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1G8ecO5ODQmn8FX8jzQ962D928BpQ6iUm","5C4-002")</f>
         <v>5C4-002</v>
       </c>
-      <c r="B4" s="80" t="s">
-        <v>179</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" s="74" t="s">
-        <v>466</v>
+      <c r="B4" s="78" t="s">
+        <v>178</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="73" t="s">
+        <v>465</v>
       </c>
       <c r="L4" s="17"/>
     </row>
@@ -4999,73 +4982,75 @@
         <f>HYPERLINK("https://drive.google.com/drive/folders/1X_yNido1T9NRAtsXoJ-h2bFXlpLfFW-N","5C4-003")</f>
         <v>5C4-003</v>
       </c>
-      <c r="B5" s="81" t="s">
-        <v>165</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="K5" s="74"/>
-      <c r="L5" s="74"/>
+      <c r="B5" s="78" t="s">
+        <v>334</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="73" t="s">
+        <v>474</v>
+      </c>
+      <c r="L5" s="73"/>
     </row>
     <row r="6" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1WeIiiMAp6TYYdsybsr5MvXeiX_cVX9j0","5C4-004")</f>
         <v>5C4-004</v>
       </c>
-      <c r="B6" s="75" t="s">
-        <v>282</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="J6" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="K6" s="74" t="s">
-        <v>435</v>
-      </c>
-      <c r="L6" s="74" t="s">
-        <v>396</v>
+      <c r="B6" s="74" t="s">
+        <v>281</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="73" t="s">
+        <v>434</v>
+      </c>
+      <c r="L6" s="73" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -5073,148 +5058,148 @@
         <f>HYPERLINK("https://drive.google.com/drive/folders/1rFsrgDjf_nAuKofi6JoxLvoaGo8A4adh","5C4-005")</f>
         <v>5C4-005</v>
       </c>
-      <c r="B7" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="E7" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="F7" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="G7" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="H7" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="I7" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="J7" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="K7" s="99" t="s">
-        <v>432</v>
-      </c>
-      <c r="L7" s="74"/>
+      <c r="B7" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="G7" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="H7" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="I7" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="J7" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="K7" s="95" t="s">
+        <v>431</v>
+      </c>
+      <c r="L7" s="73"/>
     </row>
     <row r="8" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1vHgkPcaz684Ip98C0QpWVB-bTK7EvvdW","5C4-006")</f>
         <v>5C4-006</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" s="73" t="s">
+        <v>398</v>
+      </c>
+      <c r="L8" s="73"/>
+    </row>
+    <row r="9" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="C8" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="I8" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="J8" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="K8" s="74" t="s">
-        <v>399</v>
-      </c>
-      <c r="L8" s="74"/>
-    </row>
-    <row r="9" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="B9" s="80" t="s">
-        <v>290</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="I9" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="J9" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="K9" s="74" t="s">
-        <v>436</v>
-      </c>
-      <c r="L9" s="74"/>
+      <c r="B9" s="78" t="s">
+        <v>289</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="J9" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" s="73" t="s">
+        <v>435</v>
+      </c>
+      <c r="L9" s="73"/>
     </row>
     <row r="10" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1-3h2_HbCYYPIJxLORcasFd7NqbLvOw-C","5C4-008")</f>
         <v>5C4-008</v>
       </c>
-      <c r="B10" s="75" t="s">
-        <v>403</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="I10" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="J10" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="K10" s="74" t="s">
+      <c r="B10" s="74" t="s">
         <v>402</v>
       </c>
-      <c r="L10" s="74" t="s">
-        <v>396</v>
+      <c r="C10" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="J10" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10" s="73" t="s">
+        <v>401</v>
+      </c>
+      <c r="L10" s="73" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -5222,110 +5207,104 @@
         <f>HYPERLINK("https://drive.google.com/drive/folders/1EhIIjKRxAQ858Wo2OYQq3GdqbI2ok5Af","5C4-009")</f>
         <v>5C4-009</v>
       </c>
-      <c r="B11" s="79" t="s">
+      <c r="B11" s="132" t="s">
         <v>165</v>
       </c>
-      <c r="C11" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="H11" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="I11" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="J11" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="K11" s="74"/>
-      <c r="L11" s="74"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="73"/>
+      <c r="J11" s="73"/>
+      <c r="K11" s="73"/>
+      <c r="L11" s="73"/>
     </row>
     <row r="12" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1FrnQUGPHDhAq4DHWLuBTTfQpLNsdUckc","5C4-010")</f>
         <v>5C4-010</v>
       </c>
-      <c r="B12" s="75" t="s">
-        <v>278</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="H12" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="I12" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="J12" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="K12" s="74" t="s">
-        <v>465</v>
-      </c>
-      <c r="L12" s="74"/>
+      <c r="B12" s="74" t="s">
+        <v>277</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="J12" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12" s="73" t="s">
+        <v>464</v>
+      </c>
+      <c r="L12" s="73"/>
     </row>
     <row r="13" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1hJ1DyO35m4DO0phNhkoobK76R8Ql-DTn","5C4-011")</f>
         <v>5C4-011</v>
       </c>
-      <c r="B13" s="75" t="s">
-        <v>295</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="H13" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="I13" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="J13" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="K13" s="74" t="s">
-        <v>394</v>
-      </c>
-      <c r="L13" s="74" t="s">
-        <v>396</v>
+      <c r="B13" s="74" t="s">
+        <v>294</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="J13" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="K13" s="73" t="s">
+        <v>393</v>
+      </c>
+      <c r="L13" s="73" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -5333,112 +5312,112 @@
         <f>HYPERLINK("https://drive.google.com/drive/folders/1MyuBrs08Ryi2pvVUeI0hW4p24qsMsUL4","5C4-012")</f>
         <v>5C4-012</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="J14" s="124" t="s">
         <v>174</v>
       </c>
-      <c r="C14" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="G14" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="H14" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="I14" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="J14" s="130" t="s">
-        <v>175</v>
-      </c>
-      <c r="K14" s="99" t="s">
-        <v>430</v>
-      </c>
-      <c r="L14" s="74"/>
+      <c r="K14" s="95" t="s">
+        <v>429</v>
+      </c>
+      <c r="L14" s="73"/>
     </row>
     <row r="15" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="18" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/19GonN6xbnfrGARLvh-LLFUsxF-EngP3u","5C4-013")</f>
         <v>5C4-013</v>
       </c>
-      <c r="B15" s="20" t="s">
-        <v>343</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="H15" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="I15" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="J15" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="K15" s="74" t="s">
-        <v>429</v>
-      </c>
-      <c r="L15" s="74"/>
+      <c r="B15" s="19" t="s">
+        <v>342</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="J15" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="K15" s="73" t="s">
+        <v>428</v>
+      </c>
+      <c r="L15" s="73"/>
     </row>
     <row r="16" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="18" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1LUZSYEAIfX8EFKKfjUSeyrC0JCfBfe8h","5C4-014")</f>
         <v>5C4-014</v>
       </c>
-      <c r="B16" s="20" t="s">
-        <v>326</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="F16" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="G16" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="H16" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="I16" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="J16" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="K16" s="74" t="s">
-        <v>398</v>
-      </c>
-      <c r="L16" s="74" t="s">
+      <c r="B16" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="J16" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="K16" s="73" t="s">
         <v>397</v>
+      </c>
+      <c r="L16" s="73" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -5446,220 +5425,220 @@
         <f>HYPERLINK("https://drive.google.com/drive/folders/1GhnG5G_BN5lBSXzegcxU-3TuUUTEd6xm","5C4-015")</f>
         <v>5C4-015</v>
       </c>
-      <c r="B17" s="156" t="s">
-        <v>165</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="F17" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="G17" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="H17" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="I17" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="J17" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="K17" s="74" t="s">
+      <c r="B17" s="74" t="s">
         <v>471</v>
       </c>
-      <c r="L17" s="74"/>
+      <c r="C17" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="J17" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="K17" s="73" t="s">
+        <v>470</v>
+      </c>
+      <c r="L17" s="73"/>
     </row>
     <row r="18" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="24" t="s">
-        <v>178</v>
-      </c>
-      <c r="B18" s="75" t="s">
-        <v>350</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="E18" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="F18" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="G18" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="H18" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="I18" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="J18" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="K18" s="74" t="s">
-        <v>459</v>
-      </c>
-      <c r="L18" s="74"/>
+      <c r="A18" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="B18" s="74" t="s">
+        <v>349</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="H18" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="J18" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="K18" s="73" t="s">
+        <v>458</v>
+      </c>
+      <c r="L18" s="73"/>
     </row>
     <row r="19" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="18" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1wcHyiuVUbBeL9ODgyYP-lyy7yM1vMH3u","5C4-017")</f>
         <v>5C4-017</v>
       </c>
-      <c r="B19" s="75" t="s">
-        <v>275</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="E19" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="F19" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="G19" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="H19" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="I19" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="J19" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="K19" s="74" t="s">
-        <v>464</v>
-      </c>
-      <c r="L19" s="74"/>
+      <c r="B19" s="74" t="s">
+        <v>274</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="H19" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="J19" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="K19" s="73" t="s">
+        <v>463</v>
+      </c>
+      <c r="L19" s="73"/>
     </row>
     <row r="20" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="25" t="s">
+      <c r="A20" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="B20" s="132" t="s">
-        <v>181</v>
-      </c>
-      <c r="C20" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="E20" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="F20" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="G20" s="135" t="s">
-        <v>28</v>
-      </c>
-      <c r="H20" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="I20" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="J20" s="131" t="s">
-        <v>175</v>
-      </c>
-      <c r="K20" s="74" t="s">
-        <v>431</v>
-      </c>
-      <c r="L20" s="74"/>
+      <c r="B20" s="152" t="s">
+        <v>165</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="H20" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I20" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="J20" s="151" t="s">
+        <v>174</v>
+      </c>
+      <c r="K20" s="73" t="s">
+        <v>430</v>
+      </c>
+      <c r="L20" s="73"/>
     </row>
     <row r="21" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="18" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1x-FjLa7p2gJDSbRaODzjs8ijaA9SGLtW","5C4-019")</f>
         <v>5C4-019</v>
       </c>
-      <c r="B21" s="20" t="s">
-        <v>180</v>
-      </c>
-      <c r="C21" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="D21" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="E21" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="F21" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="G21" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="H21" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="I21" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="J21" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="K21" s="74" t="s">
-        <v>457</v>
-      </c>
-      <c r="L21" s="74"/>
+      <c r="B21" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G21" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="H21" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="I21" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="J21" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="K21" s="73" t="s">
+        <v>456</v>
+      </c>
+      <c r="L21" s="73"/>
     </row>
     <row r="22" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1wMVARUxnYHeiTbbEodCmZFb_vx9FkRVr","5C4-020")</f>
         <v>5C4-020</v>
       </c>
-      <c r="B22" s="137" t="s">
-        <v>165</v>
-      </c>
-      <c r="C22" s="133" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="E22" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="F22" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="G22" s="135" t="s">
-        <v>28</v>
-      </c>
-      <c r="H22" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="I22" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="J22" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="K22" s="74" t="s">
-        <v>373</v>
-      </c>
-      <c r="L22" s="74"/>
+      <c r="B22" s="154" t="s">
+        <v>180</v>
+      </c>
+      <c r="C22" s="130" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G22" s="131" t="s">
+        <v>28</v>
+      </c>
+      <c r="H22" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I22" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="J22" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="K22" s="73" t="s">
+        <v>372</v>
+      </c>
+      <c r="L22" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5674,10 +5653,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9CEE8EE-E616-9C40-8E50-615D9D9C3993}">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5687,408 +5666,426 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="149" t="s">
+      <c r="A1" s="144" t="s">
         <v>161</v>
       </c>
-      <c r="B1" s="150"/>
-      <c r="C1" s="149" t="s">
+      <c r="B1" s="145"/>
+      <c r="C1" s="144" t="s">
+        <v>363</v>
+      </c>
+      <c r="D1" s="146"/>
+      <c r="E1" s="146"/>
+      <c r="F1" s="146"/>
+      <c r="G1" s="146"/>
+      <c r="H1" s="146"/>
+      <c r="I1" s="146"/>
+      <c r="J1" s="145"/>
+    </row>
+    <row r="2" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="67" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" s="67" t="s">
+        <v>163</v>
+      </c>
+      <c r="C2" s="67" t="s">
         <v>364</v>
       </c>
-      <c r="D1" s="151"/>
-      <c r="E1" s="151"/>
-      <c r="F1" s="151"/>
-      <c r="G1" s="151"/>
-      <c r="H1" s="151"/>
-      <c r="I1" s="151"/>
-      <c r="J1" s="150"/>
-    </row>
-    <row r="2" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="68" t="s">
-        <v>162</v>
-      </c>
-      <c r="B2" s="68" t="s">
-        <v>163</v>
-      </c>
-      <c r="C2" s="68" t="s">
+      <c r="D2" s="67" t="s">
         <v>365</v>
       </c>
-      <c r="D2" s="68" t="s">
+      <c r="E2" s="67" t="s">
         <v>366</v>
       </c>
-      <c r="E2" s="68" t="s">
+      <c r="F2" s="67"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+    </row>
+    <row r="3" spans="1:10" s="128" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="54" t="s">
+        <v>449</v>
+      </c>
+      <c r="B3" s="55" t="s">
+        <v>165</v>
+      </c>
+      <c r="C3" s="64"/>
+      <c r="D3" s="62" t="s">
+        <v>472</v>
+      </c>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="54" t="s">
+        <v>240</v>
+      </c>
+      <c r="B4" s="55" t="s">
+        <v>165</v>
+      </c>
+      <c r="C4" s="64" t="s">
+        <v>462</v>
+      </c>
+      <c r="D4" s="62" t="s">
+        <v>461</v>
+      </c>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="54" t="s">
+        <v>350</v>
+      </c>
+      <c r="B5" s="55" t="s">
+        <v>165</v>
+      </c>
+      <c r="C5" s="64" t="s">
+        <v>390</v>
+      </c>
+      <c r="D5" s="62" t="s">
+        <v>373</v>
+      </c>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="62"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="54" t="s">
+        <v>351</v>
+      </c>
+      <c r="B6" s="75" t="s">
+        <v>281</v>
+      </c>
+      <c r="C6" s="64" t="s">
+        <v>389</v>
+      </c>
+      <c r="D6" s="62" t="s">
+        <v>384</v>
+      </c>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="62"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="54" t="s">
+        <v>352</v>
+      </c>
+      <c r="B7" s="56" t="s">
+        <v>166</v>
+      </c>
+      <c r="C7" s="66"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="62"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="54" t="s">
+        <v>353</v>
+      </c>
+      <c r="B8" s="56" t="s">
+        <v>167</v>
+      </c>
+      <c r="C8" s="64"/>
+      <c r="D8" s="62" t="s">
+        <v>369</v>
+      </c>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="62"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="57" t="s">
+        <v>168</v>
+      </c>
+      <c r="B9" s="55" t="s">
+        <v>165</v>
+      </c>
+      <c r="C9" s="62" t="s">
+        <v>376</v>
+      </c>
+      <c r="D9" s="62" t="s">
+        <v>377</v>
+      </c>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="63"/>
+      <c r="J9" s="64"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="54" t="s">
+        <v>354</v>
+      </c>
+      <c r="B10" s="55" t="s">
+        <v>169</v>
+      </c>
+      <c r="C10" s="62" t="s">
+        <v>370</v>
+      </c>
+      <c r="D10" s="69" t="s">
+        <v>371</v>
+      </c>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="65"/>
+      <c r="J10" s="62"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="54" t="s">
+        <v>355</v>
+      </c>
+      <c r="B11" s="58" t="s">
+        <v>170</v>
+      </c>
+      <c r="C11" s="62" t="s">
+        <v>374</v>
+      </c>
+      <c r="D11" s="69" t="s">
+        <v>375</v>
+      </c>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="62"/>
+      <c r="I11" s="62"/>
+      <c r="J11" s="62"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="54" t="s">
+        <v>356</v>
+      </c>
+      <c r="B12" s="55" t="s">
+        <v>171</v>
+      </c>
+      <c r="C12" s="64" t="s">
+        <v>388</v>
+      </c>
+      <c r="D12" s="62" t="s">
+        <v>383</v>
+      </c>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="62"/>
+      <c r="J12" s="62"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="54" t="s">
+        <v>357</v>
+      </c>
+      <c r="B13" s="55" t="s">
+        <v>172</v>
+      </c>
+      <c r="C13" s="64" t="s">
+        <v>387</v>
+      </c>
+      <c r="D13" s="62" t="s">
+        <v>382</v>
+      </c>
+      <c r="E13" s="62"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="62"/>
+      <c r="I13" s="62"/>
+      <c r="J13" s="62"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="54" t="s">
+        <v>358</v>
+      </c>
+      <c r="B14" s="56" t="s">
+        <v>173</v>
+      </c>
+      <c r="C14" s="66"/>
+      <c r="D14" s="62" t="s">
         <v>367</v>
       </c>
-      <c r="F2" s="68"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="55" t="s">
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="62"/>
+      <c r="J14" s="62"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="54" t="s">
+        <v>359</v>
+      </c>
+      <c r="B15" s="56" t="s">
+        <v>175</v>
+      </c>
+      <c r="C15" s="64"/>
+      <c r="D15" s="62" t="s">
+        <v>368</v>
+      </c>
+      <c r="E15" s="62"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="62"/>
+      <c r="I15" s="62"/>
+      <c r="J15" s="62"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="54" t="s">
+        <v>360</v>
+      </c>
+      <c r="B16" s="55" t="s">
+        <v>176</v>
+      </c>
+      <c r="C16" s="64" t="s">
+        <v>386</v>
+      </c>
+      <c r="D16" s="64" t="s">
+        <v>381</v>
+      </c>
+      <c r="E16" s="62"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="62"/>
+      <c r="I16" s="62"/>
+      <c r="J16" s="62"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="54" t="s">
         <v>241</v>
       </c>
-      <c r="B3" s="56" t="s">
+      <c r="B17" s="58" t="s">
+        <v>170</v>
+      </c>
+      <c r="C17" s="64" t="s">
+        <v>378</v>
+      </c>
+      <c r="D17" s="79" t="s">
+        <v>379</v>
+      </c>
+      <c r="E17" s="62"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="62"/>
+      <c r="J17" s="62"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="59" t="s">
+        <v>177</v>
+      </c>
+      <c r="B18" s="58" t="s">
+        <v>170</v>
+      </c>
+      <c r="C18" s="64" t="s">
+        <v>385</v>
+      </c>
+      <c r="D18" s="64" t="s">
+        <v>380</v>
+      </c>
+      <c r="E18" s="62"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="62"/>
+      <c r="J18" s="62"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="54" t="s">
+        <v>242</v>
+      </c>
+      <c r="B19" s="58" t="s">
+        <v>170</v>
+      </c>
+      <c r="C19" s="64" t="s">
+        <v>392</v>
+      </c>
+      <c r="D19" s="62" t="s">
+        <v>391</v>
+      </c>
+      <c r="E19" s="62"/>
+      <c r="F19" s="62"/>
+      <c r="G19" s="62"/>
+      <c r="H19" s="62"/>
+      <c r="I19" s="62"/>
+      <c r="J19" s="62"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="57" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20" s="125" t="s">
         <v>165</v>
       </c>
-      <c r="C3" s="65" t="s">
-        <v>463</v>
-      </c>
-      <c r="D3" s="63" t="s">
-        <v>462</v>
-      </c>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="55" t="s">
-        <v>351</v>
-      </c>
-      <c r="B4" s="56" t="s">
-        <v>165</v>
-      </c>
-      <c r="C4" s="65" t="s">
-        <v>391</v>
-      </c>
-      <c r="D4" s="63" t="s">
-        <v>374</v>
-      </c>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="63"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="55" t="s">
-        <v>352</v>
-      </c>
-      <c r="B5" s="76" t="s">
-        <v>282</v>
-      </c>
-      <c r="C5" s="65" t="s">
-        <v>390</v>
-      </c>
-      <c r="D5" s="63" t="s">
-        <v>385</v>
-      </c>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="63"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="55" t="s">
-        <v>353</v>
-      </c>
-      <c r="B6" s="57" t="s">
-        <v>167</v>
-      </c>
-      <c r="C6" s="67"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="63"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="55" t="s">
-        <v>354</v>
-      </c>
-      <c r="B7" s="57" t="s">
-        <v>168</v>
-      </c>
-      <c r="C7" s="65"/>
-      <c r="D7" s="63" t="s">
-        <v>370</v>
-      </c>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="63"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="63"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="58" t="s">
-        <v>169</v>
-      </c>
-      <c r="B8" s="56" t="s">
-        <v>165</v>
-      </c>
-      <c r="C8" s="63" t="s">
-        <v>377</v>
-      </c>
-      <c r="D8" s="63" t="s">
-        <v>378</v>
-      </c>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="63"/>
-      <c r="H8" s="63"/>
-      <c r="I8" s="64"/>
-      <c r="J8" s="65"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="55" t="s">
-        <v>355</v>
-      </c>
-      <c r="B9" s="56" t="s">
-        <v>170</v>
-      </c>
-      <c r="C9" s="63" t="s">
-        <v>371</v>
-      </c>
-      <c r="D9" s="70" t="s">
-        <v>372</v>
-      </c>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="63"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="66"/>
-      <c r="J9" s="63"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="55" t="s">
-        <v>356</v>
-      </c>
-      <c r="B10" s="59" t="s">
-        <v>171</v>
-      </c>
-      <c r="C10" s="63" t="s">
-        <v>375</v>
-      </c>
-      <c r="D10" s="70" t="s">
-        <v>376</v>
-      </c>
-      <c r="E10" s="63"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="63"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="63"/>
-      <c r="J10" s="63"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="55" t="s">
-        <v>357</v>
-      </c>
-      <c r="B11" s="56" t="s">
-        <v>172</v>
-      </c>
-      <c r="C11" s="65" t="s">
-        <v>389</v>
-      </c>
-      <c r="D11" s="63" t="s">
-        <v>384</v>
-      </c>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="63"/>
-      <c r="I11" s="63"/>
-      <c r="J11" s="63"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="55" t="s">
-        <v>358</v>
-      </c>
-      <c r="B12" s="56" t="s">
-        <v>173</v>
-      </c>
-      <c r="C12" s="65" t="s">
-        <v>388</v>
-      </c>
-      <c r="D12" s="63" t="s">
-        <v>383</v>
-      </c>
-      <c r="E12" s="63"/>
-      <c r="F12" s="63"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="63"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="55" t="s">
-        <v>359</v>
-      </c>
-      <c r="B13" s="57" t="s">
-        <v>174</v>
-      </c>
-      <c r="C13" s="67"/>
-      <c r="D13" s="63" t="s">
-        <v>368</v>
-      </c>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="63"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="55" t="s">
-        <v>360</v>
-      </c>
-      <c r="B14" s="57" t="s">
-        <v>176</v>
-      </c>
-      <c r="C14" s="65"/>
-      <c r="D14" s="63" t="s">
-        <v>369</v>
-      </c>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="63"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="55" t="s">
+      <c r="C20" s="66" t="s">
+        <v>467</v>
+      </c>
+      <c r="D20" s="62" t="s">
+        <v>466</v>
+      </c>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="62"/>
+      <c r="J20" s="62"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="54" t="s">
         <v>361</v>
       </c>
-      <c r="B15" s="56" t="s">
-        <v>177</v>
-      </c>
-      <c r="C15" s="65" t="s">
-        <v>387</v>
-      </c>
-      <c r="D15" s="65" t="s">
-        <v>382</v>
-      </c>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="55" t="s">
-        <v>242</v>
-      </c>
-      <c r="B16" s="59" t="s">
-        <v>171</v>
-      </c>
-      <c r="C16" s="65" t="s">
-        <v>379</v>
-      </c>
-      <c r="D16" s="82" t="s">
-        <v>380</v>
-      </c>
-      <c r="E16" s="63"/>
-      <c r="F16" s="63"/>
-      <c r="G16" s="63"/>
-      <c r="H16" s="63"/>
-      <c r="I16" s="63"/>
-      <c r="J16" s="63"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="60" t="s">
-        <v>178</v>
-      </c>
-      <c r="B17" s="59" t="s">
-        <v>171</v>
-      </c>
-      <c r="C17" s="65" t="s">
-        <v>386</v>
-      </c>
-      <c r="D17" s="65" t="s">
-        <v>381</v>
-      </c>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="63"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="55" t="s">
-        <v>243</v>
-      </c>
-      <c r="B18" s="59" t="s">
-        <v>171</v>
-      </c>
-      <c r="C18" s="65" t="s">
-        <v>393</v>
-      </c>
-      <c r="D18" s="63" t="s">
-        <v>392</v>
-      </c>
-      <c r="E18" s="63"/>
-      <c r="F18" s="63"/>
-      <c r="G18" s="63"/>
-      <c r="H18" s="63"/>
-      <c r="I18" s="63"/>
-      <c r="J18" s="63"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="58" t="s">
-        <v>77</v>
-      </c>
-      <c r="B19" s="134" t="s">
-        <v>165</v>
-      </c>
-      <c r="C19" s="67" t="s">
+      <c r="B21" s="56" t="s">
+        <v>179</v>
+      </c>
+      <c r="C21" s="66"/>
+      <c r="D21" s="62"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="62"/>
+      <c r="G21" s="62"/>
+      <c r="H21" s="62"/>
+      <c r="I21" s="62"/>
+      <c r="J21" s="62"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="54" t="s">
+        <v>362</v>
+      </c>
+      <c r="B22" s="76" t="s">
+        <v>180</v>
+      </c>
+      <c r="C22" s="66" t="s">
         <v>468</v>
       </c>
-      <c r="D19" s="63" t="s">
-        <v>467</v>
-      </c>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="63"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="55" t="s">
-        <v>362</v>
-      </c>
-      <c r="B20" s="57" t="s">
-        <v>180</v>
-      </c>
-      <c r="C20" s="67"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="63"/>
-      <c r="F20" s="63"/>
-      <c r="G20" s="63"/>
-      <c r="H20" s="63"/>
-      <c r="I20" s="63"/>
-      <c r="J20" s="63"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="55" t="s">
-        <v>363</v>
-      </c>
-      <c r="B21" s="77" t="s">
-        <v>181</v>
-      </c>
-      <c r="C21" s="67" t="s">
+      <c r="D22" s="66" t="s">
         <v>469</v>
       </c>
-      <c r="D21" s="67" t="s">
-        <v>470</v>
-      </c>
-      <c r="E21" s="63"/>
-      <c r="F21" s="63"/>
-      <c r="G21" s="63"/>
-      <c r="H21" s="63"/>
-      <c r="I21" s="63"/>
-      <c r="J21" s="63"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="62"/>
+      <c r="H22" s="62"/>
+      <c r="I22" s="62"/>
+      <c r="J22" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6096,22 +6093,23 @@
     <mergeCell ref="C1:J1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" display="https://drive.google.com/drive/folders/1G8ecO5ODQmn8FX8jzQ962D928BpQ6iUm" xr:uid="{AC099EE2-C40F-5F40-BFC4-D28CF0E212B9}"/>
-    <hyperlink ref="A4" r:id="rId2" display="https://drive.google.com/drive/folders/1X_yNido1T9NRAtsXoJ-h2bFXlpLfFW-N" xr:uid="{CB7AB86E-FFBE-7E4A-82E1-CC14BF759436}"/>
-    <hyperlink ref="A5" r:id="rId3" display="https://drive.google.com/drive/folders/1WeIiiMAp6TYYdsybsr5MvXeiX_cVX9j0" xr:uid="{642CC74B-31EB-9748-B04F-89D87D553A78}"/>
-    <hyperlink ref="A6" r:id="rId4" display="https://drive.google.com/drive/folders/1rFsrgDjf_nAuKofi6JoxLvoaGo8A4adh" xr:uid="{FA19B2EA-FC14-1447-9484-9265A6EF6E34}"/>
-    <hyperlink ref="A7" r:id="rId5" display="https://drive.google.com/drive/folders/1vHgkPcaz684Ip98C0QpWVB-bTK7EvvdW" xr:uid="{743D593C-B886-ED4A-8D82-2F0E9BAAB577}"/>
-    <hyperlink ref="A9" r:id="rId6" display="https://drive.google.com/drive/folders/1-3h2_HbCYYPIJxLORcasFd7NqbLvOw-C" xr:uid="{108EBF60-AB29-434D-B9C3-D4DF185E8276}"/>
-    <hyperlink ref="A10" r:id="rId7" display="https://drive.google.com/drive/folders/1EhIIjKRxAQ858Wo2OYQq3GdqbI2ok5Af" xr:uid="{6C139406-4D22-8A40-860A-1A248F5F836F}"/>
-    <hyperlink ref="A11" r:id="rId8" display="https://drive.google.com/drive/folders/1FrnQUGPHDhAq4DHWLuBTTfQpLNsdUckc" xr:uid="{31C0712B-F59D-CD4A-BF2B-A245136B70F0}"/>
-    <hyperlink ref="A12" r:id="rId9" display="https://drive.google.com/drive/folders/1hJ1DyO35m4DO0phNhkoobK76R8Ql-DTn" xr:uid="{C1708996-A2C1-3843-BF9B-A16A1B061E32}"/>
-    <hyperlink ref="A13" r:id="rId10" display="https://drive.google.com/drive/folders/1MyuBrs08Ryi2pvVUeI0hW4p24qsMsUL4" xr:uid="{D20F0DD2-BB68-7344-A1AA-3E6D1F52E396}"/>
-    <hyperlink ref="A14" r:id="rId11" display="https://drive.google.com/drive/folders/19GonN6xbnfrGARLvh-LLFUsxF-EngP3u" xr:uid="{82E08500-41FF-A146-AAE0-9299A05597D6}"/>
-    <hyperlink ref="A15" r:id="rId12" display="https://drive.google.com/drive/folders/1LUZSYEAIfX8EFKKfjUSeyrC0JCfBfe8h" xr:uid="{D60C6513-CFA6-0B49-9837-37AA9AB191B0}"/>
-    <hyperlink ref="A16" r:id="rId13" display="https://drive.google.com/drive/folders/1GhnG5G_BN5lBSXzegcxU-3TuUUTEd6xm" xr:uid="{5F5AAEB7-6B6C-7849-A9BE-EDE531593389}"/>
-    <hyperlink ref="A18" r:id="rId14" display="https://drive.google.com/drive/folders/1wcHyiuVUbBeL9ODgyYP-lyy7yM1vMH3u" xr:uid="{C6117B22-7B0A-4D4F-AED4-7357491A8078}"/>
-    <hyperlink ref="A20" r:id="rId15" display="https://drive.google.com/drive/folders/1x-FjLa7p2gJDSbRaODzjs8ijaA9SGLtW" xr:uid="{76539FEA-D20F-504F-803D-6634EE2BA126}"/>
-    <hyperlink ref="A21" r:id="rId16" display="https://drive.google.com/drive/folders/1wMVARUxnYHeiTbbEodCmZFb_vx9FkRVr" xr:uid="{4C921AD2-E69C-7C40-B1A1-DDA3F76C36D9}"/>
+    <hyperlink ref="A4" r:id="rId1" display="https://drive.google.com/drive/folders/1G8ecO5ODQmn8FX8jzQ962D928BpQ6iUm" xr:uid="{AC099EE2-C40F-5F40-BFC4-D28CF0E212B9}"/>
+    <hyperlink ref="A5" r:id="rId2" display="https://drive.google.com/drive/folders/1X_yNido1T9NRAtsXoJ-h2bFXlpLfFW-N" xr:uid="{CB7AB86E-FFBE-7E4A-82E1-CC14BF759436}"/>
+    <hyperlink ref="A6" r:id="rId3" display="https://drive.google.com/drive/folders/1WeIiiMAp6TYYdsybsr5MvXeiX_cVX9j0" xr:uid="{642CC74B-31EB-9748-B04F-89D87D553A78}"/>
+    <hyperlink ref="A7" r:id="rId4" display="https://drive.google.com/drive/folders/1rFsrgDjf_nAuKofi6JoxLvoaGo8A4adh" xr:uid="{FA19B2EA-FC14-1447-9484-9265A6EF6E34}"/>
+    <hyperlink ref="A8" r:id="rId5" display="https://drive.google.com/drive/folders/1vHgkPcaz684Ip98C0QpWVB-bTK7EvvdW" xr:uid="{743D593C-B886-ED4A-8D82-2F0E9BAAB577}"/>
+    <hyperlink ref="A10" r:id="rId6" display="https://drive.google.com/drive/folders/1-3h2_HbCYYPIJxLORcasFd7NqbLvOw-C" xr:uid="{108EBF60-AB29-434D-B9C3-D4DF185E8276}"/>
+    <hyperlink ref="A11" r:id="rId7" display="https://drive.google.com/drive/folders/1EhIIjKRxAQ858Wo2OYQq3GdqbI2ok5Af" xr:uid="{6C139406-4D22-8A40-860A-1A248F5F836F}"/>
+    <hyperlink ref="A12" r:id="rId8" display="https://drive.google.com/drive/folders/1FrnQUGPHDhAq4DHWLuBTTfQpLNsdUckc" xr:uid="{31C0712B-F59D-CD4A-BF2B-A245136B70F0}"/>
+    <hyperlink ref="A13" r:id="rId9" display="https://drive.google.com/drive/folders/1hJ1DyO35m4DO0phNhkoobK76R8Ql-DTn" xr:uid="{C1708996-A2C1-3843-BF9B-A16A1B061E32}"/>
+    <hyperlink ref="A14" r:id="rId10" display="https://drive.google.com/drive/folders/1MyuBrs08Ryi2pvVUeI0hW4p24qsMsUL4" xr:uid="{D20F0DD2-BB68-7344-A1AA-3E6D1F52E396}"/>
+    <hyperlink ref="A15" r:id="rId11" display="https://drive.google.com/drive/folders/19GonN6xbnfrGARLvh-LLFUsxF-EngP3u" xr:uid="{82E08500-41FF-A146-AAE0-9299A05597D6}"/>
+    <hyperlink ref="A16" r:id="rId12" display="https://drive.google.com/drive/folders/1LUZSYEAIfX8EFKKfjUSeyrC0JCfBfe8h" xr:uid="{D60C6513-CFA6-0B49-9837-37AA9AB191B0}"/>
+    <hyperlink ref="A17" r:id="rId13" display="https://drive.google.com/drive/folders/1GhnG5G_BN5lBSXzegcxU-3TuUUTEd6xm" xr:uid="{5F5AAEB7-6B6C-7849-A9BE-EDE531593389}"/>
+    <hyperlink ref="A19" r:id="rId14" display="https://drive.google.com/drive/folders/1wcHyiuVUbBeL9ODgyYP-lyy7yM1vMH3u" xr:uid="{C6117B22-7B0A-4D4F-AED4-7357491A8078}"/>
+    <hyperlink ref="A21" r:id="rId15" display="https://drive.google.com/drive/folders/1x-FjLa7p2gJDSbRaODzjs8ijaA9SGLtW" xr:uid="{76539FEA-D20F-504F-803D-6634EE2BA126}"/>
+    <hyperlink ref="A22" r:id="rId16" display="https://drive.google.com/drive/folders/1wMVARUxnYHeiTbbEodCmZFb_vx9FkRVr" xr:uid="{4C921AD2-E69C-7C40-B1A1-DDA3F76C36D9}"/>
+    <hyperlink ref="A3" r:id="rId17" display="https://drive.google.com/drive/folders/1G8ecO5ODQmn8FX8jzQ962D928BpQ6iUm" xr:uid="{7834EE57-2441-7D43-80AF-2833C3E54227}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -6139,368 +6137,368 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="B1" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="C1" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="D1" s="26" t="s">
         <v>184</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="E1" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="E1" s="9" t="s">
+    </row>
+    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="27" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
+      <c r="B2" s="27" t="s">
         <v>187</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="9" t="s">
+    </row>
+    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="B3" s="28" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="B3" s="29" t="s">
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="30" t="s">
         <v>190</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="31" t="s">
+    </row>
+    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="28" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="29" t="s">
+      <c r="B4" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="30" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="30" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="31" t="s">
         <v>192</v>
       </c>
-      <c r="B4" s="29" t="s">
-        <v>190</v>
-      </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="31" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="29" t="s">
-        <v>190</v>
-      </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="31" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="32" t="s">
+      <c r="B6" s="31" t="s">
         <v>193</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="32"/>
+    </row>
+    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="31" t="s">
         <v>194</v>
       </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="33"/>
-    </row>
-    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="32" t="s">
+      <c r="B7" s="31" t="s">
         <v>195</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="32"/>
+    </row>
+    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="31" t="s">
         <v>196</v>
       </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="33"/>
-    </row>
-    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="32" t="s">
+      <c r="B8" s="31" t="s">
         <v>197</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="32"/>
+    </row>
+    <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="27"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="32"/>
+    </row>
+    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="29" t="s">
         <v>198</v>
       </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="33"/>
-    </row>
-    <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="28"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="33"/>
-    </row>
-    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="30" t="s">
+      <c r="B10" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="C10" s="29" t="s">
         <v>199</v>
       </c>
-      <c r="B10" s="29" t="s">
-        <v>190</v>
-      </c>
-      <c r="C10" s="30" t="s">
+      <c r="D10" s="29" t="s">
         <v>200</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="E10" s="33"/>
+    </row>
+    <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="C11" s="29" t="s">
         <v>201</v>
       </c>
-      <c r="E10" s="34"/>
-    </row>
-    <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="B11" s="29" t="s">
-        <v>190</v>
-      </c>
-      <c r="C11" s="30" t="s">
+      <c r="D11" s="29" t="s">
         <v>202</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="E11" s="34" t="s">
         <v>203</v>
       </c>
-      <c r="E11" s="35" t="s">
+    </row>
+    <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="29" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="30" t="s">
+      <c r="B12" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>199</v>
+      </c>
+      <c r="D12" s="29" t="s">
         <v>205</v>
       </c>
-      <c r="B12" s="29" t="s">
-        <v>190</v>
-      </c>
-      <c r="C12" s="30" t="s">
+      <c r="E12" s="34" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>208</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="27" t="s">
+        <v>210</v>
+      </c>
+      <c r="B14" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>212</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="E14" s="32" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="29" t="s">
+        <v>215</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>199</v>
+      </c>
+      <c r="D15" s="29" t="s">
         <v>200</v>
       </c>
-      <c r="D12" s="30" t="s">
-        <v>206</v>
-      </c>
-      <c r="E12" s="35" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="30" t="s">
-        <v>208</v>
-      </c>
-      <c r="B13" s="29" t="s">
-        <v>190</v>
-      </c>
-      <c r="C13" s="30" t="s">
-        <v>209</v>
-      </c>
-      <c r="D13" s="30" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="28" t="s">
-        <v>211</v>
-      </c>
-      <c r="B14" s="32" t="s">
-        <v>212</v>
-      </c>
-      <c r="C14" s="28" t="s">
-        <v>213</v>
-      </c>
-      <c r="D14" s="28" t="s">
-        <v>214</v>
-      </c>
-      <c r="E14" s="33" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="30" t="s">
+      <c r="E15" s="33"/>
+    </row>
+    <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="29" t="s">
         <v>216</v>
       </c>
-      <c r="B15" s="29" t="s">
-        <v>190</v>
-      </c>
-      <c r="C15" s="30" t="s">
-        <v>200</v>
-      </c>
-      <c r="D15" s="30" t="s">
-        <v>201</v>
-      </c>
-      <c r="E15" s="34"/>
-    </row>
-    <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="30" t="s">
+      <c r="B16" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="C16" s="29" t="s">
         <v>217</v>
       </c>
-      <c r="B16" s="29" t="s">
-        <v>190</v>
-      </c>
-      <c r="C16" s="30" t="s">
+      <c r="D16" s="29" t="s">
         <v>218</v>
       </c>
-      <c r="D16" s="30" t="s">
+      <c r="E16" s="35" t="s">
         <v>219</v>
       </c>
-      <c r="E16" s="36" t="s">
+    </row>
+    <row r="17" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="B17" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="C17" s="36" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="30" t="s">
-        <v>199</v>
-      </c>
-      <c r="B17" s="29" t="s">
-        <v>190</v>
-      </c>
-      <c r="C17" s="37" t="s">
+      <c r="D17" s="29" t="s">
         <v>221</v>
       </c>
-      <c r="D17" s="30" t="s">
+      <c r="E17" s="37" t="s">
         <v>222</v>
       </c>
-      <c r="E17" s="38" t="s">
+    </row>
+    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="28" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="29" t="s">
+      <c r="B18" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="C18" s="38"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="39"/>
+    </row>
+    <row r="19" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" s="40" t="s">
+        <v>189</v>
+      </c>
+      <c r="C19" s="41" t="s">
         <v>224</v>
       </c>
-      <c r="B18" s="29" t="s">
-        <v>190</v>
-      </c>
-      <c r="C18" s="39"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="40"/>
-    </row>
-    <row r="19" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="B19" s="41" t="s">
-        <v>190</v>
-      </c>
-      <c r="C19" s="42" t="s">
+      <c r="D19" s="28" t="s">
         <v>225</v>
       </c>
-      <c r="D19" s="29" t="s">
+      <c r="E19" s="42" t="s">
         <v>226</v>
       </c>
-      <c r="E19" s="43" t="s">
+    </row>
+    <row r="20" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="27"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="39"/>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="44" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="28"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="40"/>
-    </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="45" t="s">
+      <c r="B21" s="31" t="s">
         <v>228</v>
       </c>
-      <c r="B21" s="32" t="s">
+    </row>
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="44" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="45" t="s">
+      <c r="B22" s="31" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="45"/>
+      <c r="B23" s="28"/>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="45" t="s">
         <v>230</v>
       </c>
-      <c r="B22" s="32" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="46"/>
-      <c r="B23" s="29"/>
-    </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="46" t="s">
+      <c r="B24" s="28" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="34" t="s">
         <v>231</v>
       </c>
-      <c r="B24" s="29" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="35" t="s">
+      <c r="B25" s="28" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="32" t="s">
         <v>232</v>
       </c>
-      <c r="B25" s="29" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="33" t="s">
+      <c r="B26" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="B26" s="3" t="s">
+    </row>
+    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="32" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="33" t="s">
+      <c r="B27" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="32" t="s">
         <v>235</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="33" t="s">
+      <c r="B28" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="32" t="s">
         <v>236</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="33" t="s">
+      <c r="B29" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="32" t="s">
         <v>237</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="33" t="s">
+      <c r="B30" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="32" t="s">
         <v>238</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="33" t="s">
+      <c r="B31" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="32" t="s">
         <v>239</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="33" t="s">
-        <v>240</v>
-      </c>
       <c r="B32" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7494,128 +7492,128 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="135" t="s">
+        <v>450</v>
+      </c>
+      <c r="B1" s="147"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="72" t="s">
+        <v>452</v>
+      </c>
+      <c r="C2" s="72" t="s">
         <v>451</v>
       </c>
-      <c r="B1" s="152"/>
-      <c r="C1" s="152"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="73" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="73" t="s">
-        <v>453</v>
-      </c>
-      <c r="C2" s="73" t="s">
-        <v>452</v>
-      </c>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="118" t="str">
+      <c r="A3" s="112" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1h79fqthLoRJDjhC2klnjbkG8MB2JL2Hy","1A")</f>
         <v>1A</v>
       </c>
-      <c r="B3" s="120" t="s">
-        <v>454</v>
-      </c>
-      <c r="C3" s="122" t="s">
-        <v>456</v>
-      </c>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="95"/>
+      <c r="B3" s="114" t="s">
+        <v>453</v>
+      </c>
+      <c r="C3" s="116" t="s">
+        <v>455</v>
+      </c>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="91"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="118" t="str">
+      <c r="A4" s="112" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1OPl2VmHH1ZeMZjQWNCCkQkA6bOfyIeqj","1B")</f>
         <v>1B</v>
       </c>
-      <c r="B4" s="120" t="s">
-        <v>454</v>
-      </c>
-      <c r="C4" s="122" t="s">
+      <c r="B4" s="114" t="s">
+        <v>453</v>
+      </c>
+      <c r="C4" s="116" t="s">
         <v>48</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
-      <c r="F4" s="114"/>
+      <c r="F4" s="110"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="119" t="str">
+      <c r="A5" s="113" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1_67Lwh4ATjaUkKTpdhqNA2vhhSxMhfoh","1C")</f>
         <v>1C</v>
       </c>
-      <c r="B5" s="121" t="s">
+      <c r="B5" s="115" t="s">
+        <v>454</v>
+      </c>
+      <c r="C5" s="116" t="s">
         <v>455</v>
-      </c>
-      <c r="C5" s="122" t="s">
-        <v>456</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="119" t="str">
+      <c r="A6" s="113" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1RDZathABUe1AxNllos18oBRUGkUw-BAb","1D")</f>
         <v>1D</v>
       </c>
-      <c r="B6" s="120" t="s">
-        <v>454</v>
-      </c>
-      <c r="C6" s="122" t="s">
+      <c r="B6" s="114" t="s">
+        <v>453</v>
+      </c>
+      <c r="C6" s="116" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="83"/>
-      <c r="E6" s="83"/>
-      <c r="F6" s="114"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="110"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="119" t="str">
+      <c r="A7" s="113" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1B7jEgQfvgjZIKbfW8eR9qm2PDLYRcFFX","1E")</f>
         <v>1E</v>
       </c>
-      <c r="B7" s="121" t="s">
-        <v>455</v>
-      </c>
-      <c r="C7" s="123" t="s">
+      <c r="B7" s="115" t="s">
+        <v>454</v>
+      </c>
+      <c r="C7" s="117" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="83"/>
-      <c r="E7" s="83"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
       <c r="F7" s="9"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="119" t="str">
+      <c r="A8" s="113" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1y8psJsldf8GOPKXdI3_7jAN-0VefmuVb","1F")</f>
         <v>1F</v>
       </c>
-      <c r="B8" s="120" t="s">
-        <v>454</v>
-      </c>
-      <c r="C8" s="122" t="s">
-        <v>456</v>
+      <c r="B8" s="114" t="s">
+        <v>453</v>
+      </c>
+      <c r="C8" s="116" t="s">
+        <v>455</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
-      <c r="F8" s="114"/>
+      <c r="F8" s="110"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="118" t="str">
+      <c r="A9" s="112" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1Ak0bagtonjeBe0T45ml7mh9V5vKH_FoI","1G")</f>
         <v>1G</v>
       </c>
-      <c r="B9" s="121" t="s">
-        <v>455</v>
-      </c>
-      <c r="C9" s="123" t="s">
+      <c r="B9" s="115" t="s">
+        <v>454</v>
+      </c>
+      <c r="C9" s="117" t="s">
         <v>48</v>
       </c>
       <c r="D9" s="9"/>
@@ -7623,29 +7621,29 @@
       <c r="F9" s="9"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="118" t="str">
+      <c r="A10" s="112" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=15tp_vGgbK5-4zzthz0W8wuq2zgKokja6","1H")</f>
         <v>1H</v>
       </c>
-      <c r="B10" s="121" t="s">
+      <c r="B10" s="115" t="s">
+        <v>454</v>
+      </c>
+      <c r="C10" s="116" t="s">
         <v>455</v>
-      </c>
-      <c r="C10" s="122" t="s">
-        <v>456</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
-      <c r="F10" s="114"/>
+      <c r="F10" s="110"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="118" t="str">
+      <c r="A11" s="112" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1EMft8Du0dvrSSlstsShqV16Nnrlb4EO_","1J")</f>
         <v>1J</v>
       </c>
-      <c r="B11" s="120" t="s">
-        <v>454</v>
-      </c>
-      <c r="C11" s="122" t="s">
+      <c r="B11" s="114" t="s">
+        <v>453</v>
+      </c>
+      <c r="C11" s="116" t="s">
         <v>48</v>
       </c>
       <c r="D11" s="9"/>
@@ -7653,119 +7651,119 @@
       <c r="F11" s="9"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="118" t="str">
+      <c r="A12" s="112" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1B-AwkTkUdHQS0dThuP6mM5L_0XIFZ2QS","1K")</f>
         <v>1K</v>
       </c>
-      <c r="B12" s="121" t="s">
+      <c r="B12" s="115" t="s">
+        <v>454</v>
+      </c>
+      <c r="C12" s="116" t="s">
         <v>455</v>
-      </c>
-      <c r="C12" s="122" t="s">
-        <v>456</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
-      <c r="F12" s="114"/>
+      <c r="F12" s="110"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="118" t="str">
+      <c r="A13" s="112" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1XILFfrJerwAeHeN4xKdQH-99VN9y0QS7","2A")</f>
         <v>2A</v>
       </c>
-      <c r="B13" s="121" t="s">
+      <c r="B13" s="115" t="s">
+        <v>454</v>
+      </c>
+      <c r="C13" s="116" t="s">
         <v>455</v>
-      </c>
-      <c r="C13" s="122" t="s">
-        <v>456</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
-      <c r="F13" s="114"/>
+      <c r="F13" s="110"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="118" t="str">
+      <c r="A14" s="112" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1i7lErxBcw13LxRubiAB_0upxTGrTLBvi","2B")</f>
         <v>2B</v>
       </c>
-      <c r="B14" s="121" t="s">
+      <c r="B14" s="115" t="s">
+        <v>454</v>
+      </c>
+      <c r="C14" s="116" t="s">
         <v>455</v>
-      </c>
-      <c r="C14" s="122" t="s">
-        <v>456</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
-      <c r="F14" s="114"/>
+      <c r="F14" s="110"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="118" t="str">
+      <c r="A15" s="112" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1HmSkhlRiy_w_xIcPrlD-Gu21Q1sHCajk","2C")</f>
         <v>2C</v>
       </c>
-      <c r="B15" s="121" t="s">
-        <v>455</v>
-      </c>
-      <c r="C15" s="122" t="s">
+      <c r="B15" s="115" t="s">
+        <v>454</v>
+      </c>
+      <c r="C15" s="116" t="s">
         <v>48</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
-      <c r="F15" s="114"/>
+      <c r="F15" s="110"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="118" t="str">
+      <c r="A16" s="112" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1ih9AM9nSu6WpURV8EnXu6Q1HkOh5dSXM","2D")</f>
         <v>2D</v>
       </c>
-      <c r="B16" s="120" t="s">
-        <v>454</v>
-      </c>
-      <c r="C16" s="122" t="s">
+      <c r="B16" s="114" t="s">
+        <v>453</v>
+      </c>
+      <c r="C16" s="116" t="s">
         <v>48</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
-      <c r="F16" s="114"/>
+      <c r="F16" s="110"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="118" t="str">
+      <c r="A17" s="112" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1ilbwUzFLn2Zr9CQ_v673T9KjSALf_GzB","2E")</f>
         <v>2E</v>
       </c>
-      <c r="B17" s="121" t="s">
+      <c r="B17" s="115" t="s">
+        <v>454</v>
+      </c>
+      <c r="C17" s="116" t="s">
         <v>455</v>
-      </c>
-      <c r="C17" s="122" t="s">
-        <v>456</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
-      <c r="F17" s="114"/>
+      <c r="F17" s="110"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="118" t="str">
+      <c r="A18" s="112" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1H2B7fJmOymk8ZeyITqVgqJIR9EbewGjs","2F")</f>
         <v>2F</v>
       </c>
-      <c r="B18" s="120" t="s">
-        <v>454</v>
-      </c>
-      <c r="C18" s="122" t="s">
+      <c r="B18" s="114" t="s">
+        <v>453</v>
+      </c>
+      <c r="C18" s="116" t="s">
         <v>48</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
-      <c r="F18" s="114"/>
+      <c r="F18" s="110"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="118" t="str">
+      <c r="A19" s="112" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1GXDi1coA9HtIo5F2GTLcPhpAh_IiHrmJ","2G")</f>
         <v>2G</v>
       </c>
-      <c r="B19" s="120" t="s">
-        <v>454</v>
-      </c>
-      <c r="C19" s="122" t="s">
+      <c r="B19" s="114" t="s">
+        <v>453</v>
+      </c>
+      <c r="C19" s="116" t="s">
         <v>48</v>
       </c>
       <c r="D19" s="9"/>
@@ -7773,149 +7771,149 @@
       <c r="F19" s="9"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="118" t="str">
+      <c r="A20" s="112" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=18itspidwzvb4KFHkqj1122TxuhHxILwX","2H")</f>
         <v>2H</v>
       </c>
-      <c r="B20" s="121" t="s">
+      <c r="B20" s="115" t="s">
+        <v>454</v>
+      </c>
+      <c r="C20" s="116" t="s">
         <v>455</v>
       </c>
-      <c r="C20" s="122" t="s">
-        <v>456</v>
-      </c>
-      <c r="D20" s="113"/>
+      <c r="D20" s="109"/>
       <c r="E20" s="9"/>
-      <c r="F20" s="114"/>
+      <c r="F20" s="110"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="118" t="str">
+      <c r="A21" s="112" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=12YgGEJrua5a-agu15lV4vezflw1cOjQ4","2J")</f>
         <v>2J</v>
       </c>
-      <c r="B21" s="121" t="s">
+      <c r="B21" s="115" t="s">
+        <v>454</v>
+      </c>
+      <c r="C21" s="116" t="s">
         <v>455</v>
       </c>
-      <c r="C21" s="122" t="s">
-        <v>456</v>
-      </c>
-      <c r="D21" s="83"/>
-      <c r="E21" s="83"/>
-      <c r="F21" s="114"/>
+      <c r="D21" s="80"/>
+      <c r="E21" s="80"/>
+      <c r="F21" s="110"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="118" t="str">
+      <c r="A22" s="112" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1mdMrKj4CCNPy7BlChSDOU2hQAJONhZzU","2K")</f>
         <v>2K</v>
       </c>
-      <c r="B22" s="121" t="s">
-        <v>455</v>
-      </c>
-      <c r="C22" s="122" t="s">
+      <c r="B22" s="115" t="s">
+        <v>454</v>
+      </c>
+      <c r="C22" s="116" t="s">
         <v>48</v>
       </c>
-      <c r="D22" s="83"/>
-      <c r="E22" s="83"/>
-      <c r="F22" s="114"/>
+      <c r="D22" s="80"/>
+      <c r="E22" s="80"/>
+      <c r="F22" s="110"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="118" t="str">
+      <c r="A23" s="112" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=14mzIl-szkFL_WWXlsFZ9T_x3Mt5RAOn0","2L")</f>
         <v>2L</v>
       </c>
-      <c r="B23" s="121" t="s">
-        <v>455</v>
-      </c>
-      <c r="C23" s="122" t="s">
+      <c r="B23" s="115" t="s">
+        <v>454</v>
+      </c>
+      <c r="C23" s="116" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="83"/>
-      <c r="E23" s="83"/>
-      <c r="F23" s="114"/>
+      <c r="D23" s="80"/>
+      <c r="E23" s="80"/>
+      <c r="F23" s="110"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="118" t="str">
+      <c r="A24" s="112" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1-X_VRvOqUUm_bcQ792NJw8TTxR5Kl3lr","2M")</f>
         <v>2M</v>
       </c>
-      <c r="B24" s="121" t="s">
+      <c r="B24" s="115" t="s">
+        <v>454</v>
+      </c>
+      <c r="C24" s="116" t="s">
         <v>455</v>
       </c>
-      <c r="C24" s="122" t="s">
-        <v>456</v>
-      </c>
-      <c r="D24" s="113"/>
-      <c r="E24" s="83"/>
+      <c r="D24" s="109"/>
+      <c r="E24" s="80"/>
       <c r="F24" s="9"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="118" t="str">
+      <c r="A25" s="112" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1ofYuI7zJYOx0Em5kOgymDe9L2TWaIZ-_","3C")</f>
         <v>3C</v>
       </c>
-      <c r="B25" s="121" t="s">
+      <c r="B25" s="115" t="s">
+        <v>454</v>
+      </c>
+      <c r="C25" s="116" t="s">
         <v>455</v>
       </c>
-      <c r="C25" s="122" t="s">
-        <v>456</v>
-      </c>
-      <c r="D25" s="113"/>
+      <c r="D25" s="109"/>
       <c r="E25" s="9"/>
-      <c r="F25" s="114"/>
+      <c r="F25" s="110"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="118" t="str">
+      <c r="A26" s="112" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1X9eTLHcdh-lSX2OXG4OLDNwPRG5eoz9l","3D")</f>
         <v>3D</v>
       </c>
-      <c r="B26" s="121" t="s">
-        <v>455</v>
-      </c>
-      <c r="C26" s="123" t="s">
+      <c r="B26" s="115" t="s">
+        <v>454</v>
+      </c>
+      <c r="C26" s="117" t="s">
         <v>48</v>
       </c>
-      <c r="D26" s="83"/>
-      <c r="E26" s="83"/>
+      <c r="D26" s="80"/>
+      <c r="E26" s="80"/>
       <c r="F26" s="9"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="118" t="str">
+      <c r="A27" s="112" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1m_ACLfEw9sFFcCd16wQnkI9wa3WI7gK9","3E")</f>
         <v>3E</v>
       </c>
-      <c r="B27" s="120" t="s">
-        <v>454</v>
-      </c>
-      <c r="C27" s="122" t="s">
+      <c r="B27" s="114" t="s">
+        <v>453</v>
+      </c>
+      <c r="C27" s="116" t="s">
         <v>48</v>
       </c>
-      <c r="D27" s="83"/>
-      <c r="E27" s="85"/>
-      <c r="F27" s="114"/>
+      <c r="D27" s="80"/>
+      <c r="E27" s="81"/>
+      <c r="F27" s="110"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="118" t="str">
+      <c r="A28" s="112" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1CIBdXiHhWBrM6LwlY-yGooPill1DRTQ7","3F")</f>
         <v>3F</v>
       </c>
-      <c r="B28" s="122" t="s">
+      <c r="B28" s="116" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="122" t="s">
+      <c r="C28" s="116" t="s">
         <v>48</v>
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
-      <c r="F28" s="113"/>
+      <c r="F28" s="109"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="118" t="str">
+      <c r="A29" s="112" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1c2xmouFbs4cNAvpeHuAdgNreh8kFEC2V","3G")</f>
         <v>3G</v>
       </c>
-      <c r="B29" s="122" t="s">
+      <c r="B29" s="116" t="s">
         <v>48</v>
       </c>
-      <c r="C29" s="122" t="s">
+      <c r="C29" s="116" t="s">
         <v>48</v>
       </c>
       <c r="D29" s="9"/>
@@ -7923,14 +7921,14 @@
       <c r="F29" s="9"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="118" t="str">
+      <c r="A30" s="112" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1t7wkFvS4sGjdMU60zYacdFSrl4pYayl_","3H")</f>
         <v>3H</v>
       </c>
-      <c r="B30" s="122" t="s">
+      <c r="B30" s="116" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="122" t="s">
+      <c r="C30" s="116" t="s">
         <v>48</v>
       </c>
       <c r="D30" s="9"/>
@@ -7938,44 +7936,44 @@
       <c r="F30" s="9"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="118" t="str">
+      <c r="A31" s="112" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1N0-R1KTkpoZjXWmN7r0U_myR9XBY5SDj","3J")</f>
         <v>3J</v>
       </c>
-      <c r="B31" s="120" t="s">
-        <v>454</v>
-      </c>
-      <c r="C31" s="122" t="s">
+      <c r="B31" s="114" t="s">
+        <v>453</v>
+      </c>
+      <c r="C31" s="116" t="s">
         <v>48</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
-      <c r="F31" s="114"/>
+      <c r="F31" s="110"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="118" t="str">
+      <c r="A32" s="112" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=13pmWKIsTMFsSuBTJ-HZb5DVIowIXTS_s","3L")</f>
         <v>3L</v>
       </c>
-      <c r="B32" s="121" t="s">
+      <c r="B32" s="115" t="s">
+        <v>454</v>
+      </c>
+      <c r="C32" s="116" t="s">
         <v>455</v>
-      </c>
-      <c r="C32" s="122" t="s">
-        <v>456</v>
       </c>
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
-      <c r="F32" s="114"/>
+      <c r="F32" s="110"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="118" t="str">
+      <c r="A33" s="112" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=16nGNQgv2r19h9agxYjXmQ8rC4v330dYf","4E")</f>
         <v>4E</v>
       </c>
-      <c r="B33" s="120" t="s">
-        <v>454</v>
-      </c>
-      <c r="C33" s="122" t="s">
+      <c r="B33" s="114" t="s">
+        <v>453</v>
+      </c>
+      <c r="C33" s="116" t="s">
         <v>48</v>
       </c>
       <c r="D33" s="9"/>
@@ -7983,14 +7981,14 @@
       <c r="F33" s="9"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="118" t="str">
+      <c r="A34" s="112" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1bmJc7h6PrfobWHjtATEPhVDZqxi3ORaa","4F")</f>
         <v>4F</v>
       </c>
-      <c r="B34" s="120" t="s">
-        <v>454</v>
-      </c>
-      <c r="C34" s="122" t="s">
+      <c r="B34" s="114" t="s">
+        <v>453</v>
+      </c>
+      <c r="C34" s="116" t="s">
         <v>48</v>
       </c>
       <c r="D34" s="9"/>
@@ -7998,29 +7996,29 @@
       <c r="F34" s="9"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="118" t="str">
+      <c r="A35" s="112" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1nHAP6VZOPX4PWClDeQpEHh4MuzIQchEa","4G")</f>
         <v>4G</v>
       </c>
-      <c r="B35" s="120" t="s">
-        <v>454</v>
-      </c>
-      <c r="C35" s="122" t="s">
-        <v>456</v>
+      <c r="B35" s="114" t="s">
+        <v>453</v>
+      </c>
+      <c r="C35" s="116" t="s">
+        <v>455</v>
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
-      <c r="F35" s="114"/>
+      <c r="F35" s="110"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="118" t="str">
+      <c r="A36" s="112" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1a78u8iOyRFbuJtQlj9X51FknS9EfCDih","4H")</f>
         <v>4H</v>
       </c>
-      <c r="B36" s="120" t="s">
-        <v>454</v>
-      </c>
-      <c r="C36" s="122" t="s">
+      <c r="B36" s="114" t="s">
+        <v>453</v>
+      </c>
+      <c r="C36" s="116" t="s">
         <v>48</v>
       </c>
       <c r="D36" s="9"/>
@@ -8028,124 +8026,124 @@
       <c r="F36" s="9"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="118" t="str">
+      <c r="A37" s="112" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1zZjefBVzFC9BP-YmMKfQZMWa1XGkqomj","4J")</f>
         <v>4J</v>
       </c>
-      <c r="B37" s="121" t="s">
+      <c r="B37" s="115" t="s">
+        <v>454</v>
+      </c>
+      <c r="C37" s="116" t="s">
         <v>455</v>
       </c>
-      <c r="C37" s="122" t="s">
-        <v>456</v>
-      </c>
-      <c r="D37" s="113"/>
+      <c r="D37" s="109"/>
       <c r="E37" s="9"/>
-      <c r="F37" s="114"/>
+      <c r="F37" s="110"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="118" t="str">
+      <c r="A38" s="112" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1qWFlabv0TeVOBvOIJQuvHlR1H3AMOPvN","4K")</f>
         <v>4K</v>
       </c>
-      <c r="B38" s="120" t="s">
-        <v>454</v>
-      </c>
-      <c r="C38" s="122" t="s">
+      <c r="B38" s="114" t="s">
+        <v>453</v>
+      </c>
+      <c r="C38" s="116" t="s">
         <v>48</v>
       </c>
       <c r="D38" s="9"/>
       <c r="E38" s="9"/>
-      <c r="F38" s="114"/>
+      <c r="F38" s="110"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="118" t="str">
+      <c r="A39" s="112" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=176NV2NM9yvfuW1EMU3iBS768FxgmXjUS","4L")</f>
         <v>4L</v>
       </c>
-      <c r="B39" s="120" t="s">
-        <v>454</v>
-      </c>
-      <c r="C39" s="122" t="s">
+      <c r="B39" s="114" t="s">
+        <v>453</v>
+      </c>
+      <c r="C39" s="116" t="s">
         <v>48</v>
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="9"/>
-      <c r="F39" s="114"/>
+      <c r="F39" s="110"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="118" t="str">
+      <c r="A40" s="112" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1cC0P-G66cPSNnf6v6z8opZCNyporo74Y","5B")</f>
         <v>5B</v>
       </c>
-      <c r="B40" s="121" t="s">
-        <v>455</v>
-      </c>
-      <c r="C40" s="123" t="s">
+      <c r="B40" s="115" t="s">
+        <v>454</v>
+      </c>
+      <c r="C40" s="117" t="s">
         <v>48</v>
       </c>
-      <c r="D40" s="113"/>
+      <c r="D40" s="109"/>
       <c r="E40" s="9"/>
-      <c r="F40" s="114"/>
+      <c r="F40" s="110"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="118" t="str">
+      <c r="A41" s="112" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1q_N74b1OZrCze7zuXy5fm0ASU07tWzh3","5C")</f>
         <v>5C</v>
       </c>
-      <c r="B41" s="120" t="s">
-        <v>454</v>
-      </c>
-      <c r="C41" s="122" t="s">
-        <v>456</v>
+      <c r="B41" s="114" t="s">
+        <v>453</v>
+      </c>
+      <c r="C41" s="116" t="s">
+        <v>455</v>
       </c>
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
-      <c r="F41" s="114"/>
+      <c r="F41" s="110"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="118" t="str">
+      <c r="A42" s="112" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1aKSCelAY002Ihje9mdJi7jFh0OB4j8XZ","5E")</f>
         <v>5E</v>
       </c>
-      <c r="B42" s="120" t="s">
-        <v>454</v>
-      </c>
-      <c r="C42" s="122" t="s">
+      <c r="B42" s="114" t="s">
+        <v>453</v>
+      </c>
+      <c r="C42" s="116" t="s">
         <v>48</v>
       </c>
       <c r="D42" s="9"/>
       <c r="E42" s="9"/>
-      <c r="F42" s="114"/>
+      <c r="F42" s="110"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="118" t="str">
+      <c r="A43" s="112" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1ghdX_COwJq4oYlhj-qYPypK_2GlrWyQZ","5G")</f>
         <v>5G</v>
       </c>
-      <c r="B43" s="120" t="s">
-        <v>454</v>
-      </c>
-      <c r="C43" s="122" t="s">
+      <c r="B43" s="114" t="s">
+        <v>453</v>
+      </c>
+      <c r="C43" s="116" t="s">
         <v>48</v>
       </c>
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
-      <c r="F43" s="114"/>
+      <c r="F43" s="110"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="118" t="str">
+      <c r="A44" s="112" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1MR24L4GDI5x861k8SMrgm71xRfm55Hiv","5H")</f>
         <v>5H</v>
       </c>
-      <c r="B44" s="120" t="s">
-        <v>454</v>
-      </c>
-      <c r="C44" s="122" t="s">
+      <c r="B44" s="114" t="s">
+        <v>453</v>
+      </c>
+      <c r="C44" s="116" t="s">
         <v>48</v>
       </c>
       <c r="D44" s="9"/>
       <c r="E44" s="9"/>
-      <c r="F44" s="114"/>
+      <c r="F44" s="110"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8175,761 +8173,761 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="87" t="s">
+        <v>403</v>
+      </c>
+      <c r="B1" s="88" t="s">
+        <v>424</v>
+      </c>
+      <c r="C1" s="88" t="s">
+        <v>423</v>
+      </c>
+      <c r="D1" s="148" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1" s="148"/>
+      <c r="F1" s="97" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="85" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="9"/>
+      <c r="D2" s="150"/>
+      <c r="E2" s="150"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+    </row>
+    <row r="3" spans="1:9" s="85" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="86" t="s">
         <v>404</v>
       </c>
-      <c r="B1" s="92" t="s">
+      <c r="B3" s="92">
+        <v>62</v>
+      </c>
+      <c r="C3" s="92">
+        <v>55</v>
+      </c>
+      <c r="D3" s="149" t="s">
         <v>425</v>
       </c>
-      <c r="C1" s="92" t="s">
-        <v>424</v>
-      </c>
-      <c r="D1" s="155" t="s">
-        <v>269</v>
-      </c>
-      <c r="E1" s="155"/>
-      <c r="F1" s="101" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="89" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="9"/>
-      <c r="D2" s="154"/>
-      <c r="E2" s="154"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
-    </row>
-    <row r="3" spans="1:9" s="89" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="90" t="s">
+      <c r="E3" s="150"/>
+      <c r="F3" s="89" t="s">
+        <v>260</v>
+      </c>
+      <c r="G3" s="91"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="91"/>
+    </row>
+    <row r="4" spans="1:9" s="85" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="86" t="s">
         <v>405</v>
       </c>
-      <c r="B3" s="96">
-        <v>62</v>
-      </c>
-      <c r="C3" s="96">
-        <v>55</v>
-      </c>
-      <c r="D3" s="153" t="s">
+      <c r="D4" s="150"/>
+      <c r="E4" s="150"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="91"/>
+      <c r="H4" s="94"/>
+      <c r="I4" s="91"/>
+    </row>
+    <row r="5" spans="1:9" s="85" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="86" t="s">
+        <v>406</v>
+      </c>
+      <c r="B5" s="92">
+        <v>44</v>
+      </c>
+      <c r="C5" s="92">
+        <v>43</v>
+      </c>
+      <c r="D5" s="150"/>
+      <c r="E5" s="150"/>
+      <c r="F5" s="89" t="s">
+        <v>260</v>
+      </c>
+      <c r="G5" s="91"/>
+      <c r="H5" s="94"/>
+      <c r="I5" s="91"/>
+    </row>
+    <row r="6" spans="1:9" s="85" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="86" t="s">
+        <v>407</v>
+      </c>
+      <c r="B6" s="92">
+        <v>47</v>
+      </c>
+      <c r="C6" s="92">
+        <v>52</v>
+      </c>
+      <c r="D6" s="149" t="s">
+        <v>427</v>
+      </c>
+      <c r="E6" s="150"/>
+      <c r="F6" s="89" t="s">
+        <v>260</v>
+      </c>
+      <c r="G6" s="91"/>
+      <c r="H6" s="96"/>
+      <c r="I6" s="91"/>
+    </row>
+    <row r="7" spans="1:9" s="85" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="86" t="s">
+        <v>408</v>
+      </c>
+      <c r="B7" s="92">
+        <v>75</v>
+      </c>
+      <c r="C7" s="92">
+        <v>82</v>
+      </c>
+      <c r="D7" s="149" t="s">
+        <v>427</v>
+      </c>
+      <c r="E7" s="150"/>
+      <c r="F7" s="89" t="s">
+        <v>260</v>
+      </c>
+      <c r="G7" s="91"/>
+      <c r="H7" s="94"/>
+      <c r="I7" s="91"/>
+    </row>
+    <row r="8" spans="1:9" s="85" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="86" t="s">
+        <v>409</v>
+      </c>
+      <c r="B8" s="92">
+        <v>85</v>
+      </c>
+      <c r="C8" s="92">
+        <v>99</v>
+      </c>
+      <c r="D8" s="149" t="s">
         <v>426</v>
       </c>
-      <c r="E3" s="154"/>
-      <c r="F3" s="93" t="s">
-        <v>261</v>
-      </c>
-      <c r="G3" s="95"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="95"/>
-    </row>
-    <row r="4" spans="1:9" s="89" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="90" t="s">
-        <v>406</v>
-      </c>
-      <c r="D4" s="154"/>
-      <c r="E4" s="154"/>
-      <c r="F4" s="94"/>
-      <c r="G4" s="95"/>
-      <c r="H4" s="98"/>
-      <c r="I4" s="95"/>
-    </row>
-    <row r="5" spans="1:9" s="89" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="90" t="s">
-        <v>407</v>
-      </c>
-      <c r="B5" s="96">
-        <v>44</v>
-      </c>
-      <c r="C5" s="96">
-        <v>43</v>
-      </c>
-      <c r="D5" s="154"/>
-      <c r="E5" s="154"/>
-      <c r="F5" s="93" t="s">
-        <v>261</v>
-      </c>
-      <c r="G5" s="95"/>
-      <c r="H5" s="98"/>
-      <c r="I5" s="95"/>
-    </row>
-    <row r="6" spans="1:9" s="89" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="90" t="s">
-        <v>408</v>
-      </c>
-      <c r="B6" s="96">
-        <v>47</v>
-      </c>
-      <c r="C6" s="96">
-        <v>52</v>
-      </c>
-      <c r="D6" s="153" t="s">
-        <v>428</v>
-      </c>
-      <c r="E6" s="154"/>
-      <c r="F6" s="93" t="s">
-        <v>261</v>
-      </c>
-      <c r="G6" s="95"/>
-      <c r="H6" s="100"/>
-      <c r="I6" s="95"/>
-    </row>
-    <row r="7" spans="1:9" s="89" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="90" t="s">
-        <v>409</v>
-      </c>
-      <c r="B7" s="96">
-        <v>75</v>
-      </c>
-      <c r="C7" s="96">
-        <v>82</v>
-      </c>
-      <c r="D7" s="153" t="s">
-        <v>428</v>
-      </c>
-      <c r="E7" s="154"/>
-      <c r="F7" s="93" t="s">
-        <v>261</v>
-      </c>
-      <c r="G7" s="95"/>
-      <c r="H7" s="98"/>
-      <c r="I7" s="95"/>
-    </row>
-    <row r="8" spans="1:9" s="89" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="90" t="s">
+      <c r="E8" s="150"/>
+      <c r="F8" s="90"/>
+      <c r="G8" s="91"/>
+      <c r="H8" s="94"/>
+      <c r="I8" s="91"/>
+    </row>
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="86" t="s">
         <v>410</v>
       </c>
-      <c r="B8" s="96">
-        <v>85</v>
-      </c>
-      <c r="C8" s="96">
-        <v>99</v>
-      </c>
-      <c r="D8" s="153" t="s">
+      <c r="B9" s="92">
+        <v>15</v>
+      </c>
+      <c r="C9" s="92">
+        <v>23</v>
+      </c>
+      <c r="D9" s="149" t="s">
+        <v>425</v>
+      </c>
+      <c r="E9" s="150"/>
+      <c r="F9" s="89" t="s">
+        <v>260</v>
+      </c>
+      <c r="G9" s="91"/>
+      <c r="H9" s="94"/>
+      <c r="I9" s="91"/>
+    </row>
+    <row r="10" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="86" t="s">
+        <v>411</v>
+      </c>
+      <c r="B10" s="93"/>
+      <c r="C10" s="92"/>
+      <c r="D10" s="150"/>
+      <c r="E10" s="150"/>
+      <c r="F10" s="90"/>
+      <c r="G10" s="91"/>
+      <c r="H10" s="94"/>
+      <c r="I10" s="91"/>
+    </row>
+    <row r="11" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="86" t="s">
+        <v>412</v>
+      </c>
+      <c r="B11" s="94"/>
+      <c r="C11" s="92"/>
+      <c r="D11" s="150"/>
+      <c r="E11" s="150"/>
+      <c r="F11" s="90"/>
+      <c r="G11" s="91"/>
+      <c r="H11" s="94"/>
+      <c r="I11" s="91"/>
+    </row>
+    <row r="12" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="86" t="s">
+        <v>413</v>
+      </c>
+      <c r="B12" s="94">
+        <v>57</v>
+      </c>
+      <c r="C12" s="92">
+        <v>59</v>
+      </c>
+      <c r="D12" s="149" t="s">
+        <v>425</v>
+      </c>
+      <c r="E12" s="150"/>
+      <c r="F12" s="89" t="s">
+        <v>260</v>
+      </c>
+      <c r="G12" s="91"/>
+      <c r="H12" s="94"/>
+      <c r="I12" s="91"/>
+    </row>
+    <row r="13" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="86" t="s">
+        <v>414</v>
+      </c>
+      <c r="B13" s="94">
+        <v>37</v>
+      </c>
+      <c r="C13" s="92">
+        <v>56</v>
+      </c>
+      <c r="D13" s="149" t="s">
         <v>427</v>
       </c>
-      <c r="E8" s="154"/>
-      <c r="F8" s="94"/>
-      <c r="G8" s="95"/>
-      <c r="H8" s="98"/>
-      <c r="I8" s="95"/>
-    </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="90" t="s">
-        <v>411</v>
-      </c>
-      <c r="B9" s="96">
-        <v>15</v>
-      </c>
-      <c r="C9" s="96">
-        <v>23</v>
-      </c>
-      <c r="D9" s="153" t="s">
-        <v>426</v>
-      </c>
-      <c r="E9" s="154"/>
-      <c r="F9" s="93" t="s">
-        <v>261</v>
-      </c>
-      <c r="G9" s="95"/>
-      <c r="H9" s="98"/>
-      <c r="I9" s="95"/>
-    </row>
-    <row r="10" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="90" t="s">
-        <v>412</v>
-      </c>
-      <c r="B10" s="97"/>
-      <c r="C10" s="96"/>
-      <c r="D10" s="154"/>
-      <c r="E10" s="154"/>
-      <c r="F10" s="94"/>
-      <c r="G10" s="95"/>
-      <c r="H10" s="98"/>
-      <c r="I10" s="95"/>
-    </row>
-    <row r="11" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="90" t="s">
-        <v>413</v>
-      </c>
-      <c r="B11" s="98"/>
-      <c r="C11" s="96"/>
-      <c r="D11" s="154"/>
-      <c r="E11" s="154"/>
-      <c r="F11" s="94"/>
-      <c r="G11" s="95"/>
-      <c r="H11" s="98"/>
-      <c r="I11" s="95"/>
-    </row>
-    <row r="12" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="90" t="s">
-        <v>414</v>
-      </c>
-      <c r="B12" s="98">
-        <v>57</v>
-      </c>
-      <c r="C12" s="96">
-        <v>59</v>
-      </c>
-      <c r="D12" s="153" t="s">
-        <v>426</v>
-      </c>
-      <c r="E12" s="154"/>
-      <c r="F12" s="93" t="s">
-        <v>261</v>
-      </c>
-      <c r="G12" s="95"/>
-      <c r="H12" s="98"/>
-      <c r="I12" s="95"/>
-    </row>
-    <row r="13" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="90" t="s">
+      <c r="E13" s="150"/>
+      <c r="F13" s="89" t="s">
+        <v>260</v>
+      </c>
+      <c r="G13" s="91"/>
+      <c r="H13" s="96"/>
+      <c r="I13" s="91"/>
+    </row>
+    <row r="14" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="86" t="s">
         <v>415</v>
       </c>
-      <c r="B13" s="98">
-        <v>37</v>
-      </c>
-      <c r="C13" s="96">
-        <v>56</v>
-      </c>
-      <c r="D13" s="153" t="s">
-        <v>428</v>
-      </c>
-      <c r="E13" s="154"/>
-      <c r="F13" s="93" t="s">
-        <v>261</v>
-      </c>
-      <c r="G13" s="95"/>
-      <c r="H13" s="100"/>
-      <c r="I13" s="95"/>
-    </row>
-    <row r="14" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="90" t="s">
+      <c r="B14" s="94">
+        <v>53</v>
+      </c>
+      <c r="C14" s="92">
+        <v>72</v>
+      </c>
+      <c r="D14" s="149" t="s">
+        <v>427</v>
+      </c>
+      <c r="E14" s="150"/>
+      <c r="F14" s="89" t="s">
+        <v>260</v>
+      </c>
+      <c r="G14" s="91"/>
+      <c r="H14" s="94"/>
+      <c r="I14" s="91"/>
+    </row>
+    <row r="15" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="86" t="s">
         <v>416</v>
       </c>
-      <c r="B14" s="98">
-        <v>53</v>
-      </c>
-      <c r="C14" s="96">
-        <v>72</v>
-      </c>
-      <c r="D14" s="153" t="s">
-        <v>428</v>
-      </c>
-      <c r="E14" s="154"/>
-      <c r="F14" s="93" t="s">
-        <v>261</v>
-      </c>
-      <c r="G14" s="95"/>
-      <c r="H14" s="98"/>
-      <c r="I14" s="95"/>
-    </row>
-    <row r="15" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="90" t="s">
+      <c r="B15" s="94">
+        <v>60</v>
+      </c>
+      <c r="C15" s="92">
+        <v>64</v>
+      </c>
+      <c r="D15" s="150"/>
+      <c r="E15" s="150"/>
+      <c r="F15" s="89" t="s">
+        <v>260</v>
+      </c>
+      <c r="G15" s="91"/>
+      <c r="H15" s="94"/>
+      <c r="I15" s="91"/>
+    </row>
+    <row r="16" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="86" t="s">
         <v>417</v>
       </c>
-      <c r="B15" s="98">
-        <v>60</v>
-      </c>
-      <c r="C15" s="96">
-        <v>64</v>
-      </c>
-      <c r="D15" s="154"/>
-      <c r="E15" s="154"/>
-      <c r="F15" s="93" t="s">
-        <v>261</v>
-      </c>
-      <c r="G15" s="95"/>
-      <c r="H15" s="98"/>
-      <c r="I15" s="95"/>
-    </row>
-    <row r="16" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="90" t="s">
+      <c r="B16" s="92"/>
+      <c r="C16" s="92"/>
+      <c r="D16" s="150"/>
+      <c r="E16" s="150"/>
+      <c r="F16" s="90"/>
+      <c r="G16" s="91"/>
+      <c r="H16" s="94"/>
+      <c r="I16" s="91"/>
+    </row>
+    <row r="17" spans="1:9" s="85" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="86" t="s">
         <v>418</v>
       </c>
-      <c r="B16" s="96"/>
-      <c r="C16" s="96"/>
-      <c r="D16" s="154"/>
-      <c r="E16" s="154"/>
-      <c r="F16" s="94"/>
-      <c r="G16" s="95"/>
-      <c r="H16" s="98"/>
-      <c r="I16" s="95"/>
-    </row>
-    <row r="17" spans="1:9" s="89" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="90" t="s">
+      <c r="B17" s="92">
+        <v>16</v>
+      </c>
+      <c r="C17" s="92">
+        <v>17</v>
+      </c>
+      <c r="D17" s="150"/>
+      <c r="E17" s="150"/>
+      <c r="F17" s="120" t="s">
+        <v>260</v>
+      </c>
+      <c r="G17" s="91"/>
+      <c r="H17" s="94"/>
+      <c r="I17" s="91"/>
+    </row>
+    <row r="18" spans="1:9" s="85" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="86" t="s">
         <v>419</v>
       </c>
-      <c r="B17" s="96">
-        <v>16</v>
-      </c>
-      <c r="C17" s="96">
-        <v>17</v>
-      </c>
-      <c r="D17" s="154"/>
-      <c r="E17" s="154"/>
-      <c r="F17" s="126" t="s">
-        <v>261</v>
-      </c>
-      <c r="G17" s="95"/>
-      <c r="H17" s="98"/>
-      <c r="I17" s="95"/>
-    </row>
-    <row r="18" spans="1:9" s="89" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="90" t="s">
+      <c r="B18" s="92"/>
+      <c r="C18" s="92"/>
+      <c r="D18" s="150"/>
+      <c r="E18" s="150"/>
+      <c r="F18" s="90"/>
+      <c r="G18" s="91"/>
+      <c r="H18" s="94"/>
+      <c r="I18" s="91"/>
+    </row>
+    <row r="19" spans="1:9" s="85" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="86" t="s">
         <v>420</v>
       </c>
-      <c r="B18" s="96"/>
-      <c r="C18" s="96"/>
-      <c r="D18" s="154"/>
-      <c r="E18" s="154"/>
-      <c r="F18" s="94"/>
-      <c r="G18" s="95"/>
-      <c r="H18" s="98"/>
-      <c r="I18" s="95"/>
-    </row>
-    <row r="19" spans="1:9" s="89" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="90" t="s">
+      <c r="B19" s="92">
+        <v>18</v>
+      </c>
+      <c r="C19" s="92">
+        <v>40</v>
+      </c>
+      <c r="D19" s="149" t="s">
+        <v>427</v>
+      </c>
+      <c r="E19" s="150"/>
+      <c r="F19" s="89" t="s">
+        <v>260</v>
+      </c>
+      <c r="G19" s="91"/>
+      <c r="H19" s="94"/>
+      <c r="I19" s="91"/>
+    </row>
+    <row r="20" spans="1:9" s="85" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="86" t="s">
         <v>421</v>
       </c>
-      <c r="B19" s="96">
-        <v>18</v>
-      </c>
-      <c r="C19" s="96">
-        <v>40</v>
-      </c>
-      <c r="D19" s="153" t="s">
-        <v>428</v>
-      </c>
-      <c r="E19" s="154"/>
-      <c r="F19" s="93" t="s">
-        <v>261</v>
-      </c>
-      <c r="G19" s="95"/>
-      <c r="H19" s="98"/>
-      <c r="I19" s="95"/>
-    </row>
-    <row r="20" spans="1:9" s="89" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="90" t="s">
+      <c r="B20" s="92">
+        <v>45</v>
+      </c>
+      <c r="C20" s="92">
+        <v>48</v>
+      </c>
+      <c r="D20" s="149" t="s">
+        <v>427</v>
+      </c>
+      <c r="E20" s="150"/>
+      <c r="F20" s="89" t="s">
+        <v>260</v>
+      </c>
+      <c r="G20" s="91"/>
+      <c r="H20" s="94"/>
+      <c r="I20" s="91"/>
+    </row>
+    <row r="21" spans="1:9" s="85" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="86" t="s">
         <v>422</v>
       </c>
-      <c r="B20" s="96">
-        <v>45</v>
-      </c>
-      <c r="C20" s="96">
-        <v>48</v>
-      </c>
-      <c r="D20" s="153" t="s">
-        <v>428</v>
-      </c>
-      <c r="E20" s="154"/>
-      <c r="F20" s="93" t="s">
-        <v>261</v>
-      </c>
-      <c r="G20" s="95"/>
-      <c r="H20" s="98"/>
-      <c r="I20" s="95"/>
-    </row>
-    <row r="21" spans="1:9" s="89" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="90" t="s">
-        <v>423</v>
-      </c>
-      <c r="B21" s="96">
+      <c r="B21" s="92">
         <v>83</v>
       </c>
-      <c r="C21" s="96">
+      <c r="C21" s="92">
         <v>84</v>
       </c>
-      <c r="D21" s="153" t="s">
-        <v>428</v>
-      </c>
-      <c r="E21" s="154"/>
-      <c r="F21" s="93" t="s">
-        <v>437</v>
-      </c>
-      <c r="G21" s="95"/>
-      <c r="H21" s="98"/>
-      <c r="I21" s="95"/>
+      <c r="D21" s="149" t="s">
+        <v>427</v>
+      </c>
+      <c r="E21" s="150"/>
+      <c r="F21" s="89" t="s">
+        <v>436</v>
+      </c>
+      <c r="G21" s="91"/>
+      <c r="H21" s="94"/>
+      <c r="I21" s="91"/>
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G22" s="95"/>
-      <c r="H22" s="95"/>
-      <c r="I22" s="95"/>
+      <c r="G22" s="91"/>
+      <c r="H22" s="91"/>
+      <c r="I22" s="91"/>
     </row>
     <row r="23" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
-        <v>244</v>
-      </c>
-      <c r="G23" s="95"/>
-      <c r="H23" s="95"/>
-      <c r="I23" s="95"/>
+        <v>243</v>
+      </c>
+      <c r="G23" s="91"/>
+      <c r="H23" s="91"/>
+      <c r="I23" s="91"/>
     </row>
     <row r="25" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="C25" s="3" t="s">
         <v>246</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>249</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="C29" s="3" t="s">
         <v>253</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>256</v>
-      </c>
       <c r="C30" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B32" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>257</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B33" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" s="89" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="88"/>
-      <c r="B34" s="88"/>
-      <c r="C34" s="88"/>
-    </row>
-    <row r="35" spans="1:5" s="89" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="88" t="s">
-        <v>234</v>
-      </c>
-      <c r="B35" s="88" t="s">
+    </row>
+    <row r="34" spans="1:5" s="85" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="84"/>
+      <c r="B34" s="84"/>
+      <c r="C34" s="84"/>
+    </row>
+    <row r="35" spans="1:5" s="85" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="84" t="s">
+        <v>233</v>
+      </c>
+      <c r="B35" s="84" t="s">
+        <v>437</v>
+      </c>
+      <c r="C35" s="84" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" s="85" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="84" t="s">
+        <v>233</v>
+      </c>
+      <c r="B36" s="84" t="s">
         <v>438</v>
       </c>
-      <c r="C35" s="88" t="s">
+      <c r="C36" s="84" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" s="85" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="84"/>
+      <c r="B37" s="84"/>
+      <c r="C37" s="84"/>
+    </row>
+    <row r="38" spans="1:5" s="85" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="84" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" s="89" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="88" t="s">
-        <v>234</v>
-      </c>
-      <c r="B36" s="88" t="s">
-        <v>439</v>
-      </c>
-      <c r="C36" s="88" t="s">
+      <c r="B38" s="84" t="s">
+        <v>447</v>
+      </c>
+      <c r="C38" s="84" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" s="85" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="84" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" s="89" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="88"/>
-      <c r="B37" s="88"/>
-      <c r="C37" s="88"/>
-    </row>
-    <row r="38" spans="1:5" s="89" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="88" t="s">
+      <c r="B39" s="84" t="s">
+        <v>448</v>
+      </c>
+      <c r="C39" s="84" t="s">
         <v>441</v>
       </c>
-      <c r="B38" s="88" t="s">
-        <v>448</v>
-      </c>
-      <c r="C38" s="88" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" s="89" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="88" t="s">
+    </row>
+    <row r="40" spans="1:5" s="119" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="118"/>
+      <c r="B40" s="118"/>
+      <c r="C40" s="118"/>
+    </row>
+    <row r="41" spans="1:5" s="119" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="118" t="s">
+        <v>440</v>
+      </c>
+      <c r="B41" s="118" t="s">
+        <v>459</v>
+      </c>
+      <c r="C41" s="118" t="s">
         <v>441</v>
       </c>
-      <c r="B39" s="88" t="s">
-        <v>449</v>
-      </c>
-      <c r="C39" s="88" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" s="125" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="124"/>
-      <c r="B40" s="124"/>
-      <c r="C40" s="124"/>
-    </row>
-    <row r="41" spans="1:5" s="125" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="124" t="s">
+    </row>
+    <row r="42" spans="1:5" s="85" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="118" t="s">
+        <v>440</v>
+      </c>
+      <c r="B42" s="118" t="s">
+        <v>460</v>
+      </c>
+      <c r="C42" s="118" t="s">
         <v>441</v>
       </c>
-      <c r="B41" s="124" t="s">
-        <v>460</v>
-      </c>
-      <c r="C41" s="124" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" s="89" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="124" t="s">
-        <v>441</v>
-      </c>
-      <c r="B42" s="124" t="s">
-        <v>461</v>
-      </c>
-      <c r="C42" s="124" t="s">
-        <v>442</v>
-      </c>
-      <c r="D42" s="125"/>
-    </row>
-    <row r="43" spans="1:5" s="89" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="88"/>
-      <c r="B43" s="88"/>
-      <c r="C43" s="88"/>
+      <c r="D42" s="119"/>
+    </row>
+    <row r="43" spans="1:5" s="85" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="84"/>
+      <c r="B43" s="84"/>
+      <c r="C43" s="84"/>
     </row>
     <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="14" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="102"/>
+      <c r="B46" s="102"/>
+      <c r="C46" s="102"/>
+      <c r="D46" s="98"/>
+      <c r="E46" s="98"/>
+    </row>
+    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="103"/>
+      <c r="B47" s="102"/>
+      <c r="C47" s="104"/>
+      <c r="D47" s="98"/>
+      <c r="E47" s="98"/>
+    </row>
+    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="103" t="s">
+        <v>405</v>
+      </c>
+      <c r="B48" s="102" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="106"/>
-      <c r="B46" s="106"/>
-      <c r="C46" s="106"/>
-      <c r="D46" s="102"/>
-      <c r="E46" s="102"/>
-    </row>
-    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="107"/>
-      <c r="B47" s="106"/>
-      <c r="C47" s="108"/>
-      <c r="D47" s="102"/>
-      <c r="E47" s="102"/>
-    </row>
-    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="107" t="s">
-        <v>406</v>
-      </c>
-      <c r="B48" s="106" t="s">
+      <c r="C48" s="104"/>
+      <c r="D48" s="98"/>
+      <c r="E48" s="98"/>
+    </row>
+    <row r="49" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="105" t="s">
+        <v>405</v>
+      </c>
+      <c r="B49" s="102" t="s">
         <v>444</v>
       </c>
-      <c r="C48" s="108"/>
-      <c r="D48" s="102"/>
-      <c r="E48" s="102"/>
-    </row>
-    <row r="49" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="109" t="s">
-        <v>406</v>
-      </c>
-      <c r="B49" s="106" t="s">
+      <c r="C49" s="102"/>
+      <c r="D49" s="98"/>
+      <c r="E49" s="98"/>
+    </row>
+    <row r="50" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="103"/>
+      <c r="B50" s="102"/>
+      <c r="C50" s="104"/>
+      <c r="D50" s="98"/>
+      <c r="E50" s="98"/>
+    </row>
+    <row r="51" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="103" t="s">
+        <v>411</v>
+      </c>
+      <c r="B51" s="102" t="s">
         <v>445</v>
       </c>
-      <c r="C49" s="106"/>
-      <c r="D49" s="102"/>
-      <c r="E49" s="102"/>
-    </row>
-    <row r="50" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="107"/>
-      <c r="B50" s="106"/>
-      <c r="C50" s="108"/>
-      <c r="D50" s="102"/>
-      <c r="E50" s="102"/>
-    </row>
-    <row r="51" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="107" t="s">
-        <v>412</v>
-      </c>
-      <c r="B51" s="106" t="s">
+      <c r="C51" s="104"/>
+      <c r="D51" s="98"/>
+      <c r="E51" s="98"/>
+    </row>
+    <row r="52" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="105" t="s">
+        <v>411</v>
+      </c>
+      <c r="B52" s="102" t="s">
         <v>446</v>
       </c>
-      <c r="C51" s="108"/>
-      <c r="D51" s="102"/>
-      <c r="E51" s="102"/>
-    </row>
-    <row r="52" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="109" t="s">
-        <v>412</v>
-      </c>
-      <c r="B52" s="106" t="s">
-        <v>447</v>
-      </c>
-      <c r="C52" s="106"/>
-      <c r="D52" s="102"/>
-      <c r="E52" s="102"/>
-    </row>
-    <row r="53" spans="1:5" s="89" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="109"/>
-      <c r="B53" s="106"/>
-      <c r="C53" s="106"/>
-      <c r="D53" s="102"/>
-      <c r="E53" s="102"/>
+      <c r="C52" s="102"/>
+      <c r="D52" s="98"/>
+      <c r="E52" s="98"/>
+    </row>
+    <row r="53" spans="1:5" s="85" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="105"/>
+      <c r="B53" s="102"/>
+      <c r="C53" s="102"/>
+      <c r="D53" s="98"/>
+      <c r="E53" s="98"/>
     </row>
     <row r="54" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="107"/>
-      <c r="B54" s="106" t="s">
+      <c r="A54" s="103"/>
+      <c r="B54" s="102" t="s">
+        <v>261</v>
+      </c>
+      <c r="C54" s="102"/>
+      <c r="D54" s="98"/>
+      <c r="E54" s="98"/>
+    </row>
+    <row r="55" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="103"/>
+      <c r="B55" s="102" t="s">
         <v>262</v>
       </c>
-      <c r="C54" s="106"/>
-      <c r="D54" s="102"/>
-      <c r="E54" s="102"/>
-    </row>
-    <row r="55" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="107"/>
-      <c r="B55" s="106" t="s">
-        <v>263</v>
-      </c>
-      <c r="C55" s="106"/>
-      <c r="D55" s="102"/>
-      <c r="E55" s="102"/>
+      <c r="C55" s="102"/>
+      <c r="D55" s="98"/>
+      <c r="E55" s="98"/>
     </row>
     <row r="56" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="109"/>
-      <c r="B56" s="106"/>
-      <c r="C56" s="106"/>
-      <c r="D56" s="102"/>
-      <c r="E56" s="102"/>
+      <c r="A56" s="105"/>
+      <c r="B56" s="102"/>
+      <c r="C56" s="102"/>
+      <c r="D56" s="98"/>
+      <c r="E56" s="98"/>
     </row>
     <row r="57" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="104" t="s">
-        <v>418</v>
-      </c>
-      <c r="B57" s="103" t="s">
-        <v>246</v>
-      </c>
-      <c r="C57" s="85"/>
-      <c r="D57" s="102"/>
-      <c r="E57" s="102"/>
+      <c r="A57" s="100" t="s">
+        <v>417</v>
+      </c>
+      <c r="B57" s="99" t="s">
+        <v>245</v>
+      </c>
+      <c r="C57" s="81"/>
+      <c r="D57" s="98"/>
+      <c r="E57" s="98"/>
     </row>
     <row r="58" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="104" t="s">
-        <v>418</v>
-      </c>
-      <c r="B58" s="103" t="s">
-        <v>248</v>
-      </c>
-      <c r="C58" s="85"/>
-      <c r="D58" s="102"/>
-      <c r="E58" s="102"/>
+      <c r="A58" s="100" t="s">
+        <v>417</v>
+      </c>
+      <c r="B58" s="99" t="s">
+        <v>247</v>
+      </c>
+      <c r="C58" s="81"/>
+      <c r="D58" s="98"/>
+      <c r="E58" s="98"/>
     </row>
     <row r="59" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="105"/>
-      <c r="B59" s="102"/>
-      <c r="C59" s="102"/>
-      <c r="D59" s="102"/>
-      <c r="E59" s="102"/>
+      <c r="A59" s="101"/>
+      <c r="B59" s="98"/>
+      <c r="C59" s="98"/>
+      <c r="D59" s="98"/>
+      <c r="E59" s="98"/>
     </row>
     <row r="60" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="104"/>
-      <c r="B60" s="103"/>
-      <c r="C60" s="85"/>
-      <c r="D60" s="102"/>
-      <c r="E60" s="102"/>
+      <c r="A60" s="100"/>
+      <c r="B60" s="99"/>
+      <c r="C60" s="81"/>
+      <c r="D60" s="98"/>
+      <c r="E60" s="98"/>
     </row>
     <row r="61" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="104"/>
-      <c r="B61" s="103"/>
-      <c r="C61" s="85"/>
-      <c r="D61" s="102"/>
-      <c r="E61" s="102"/>
+      <c r="A61" s="100"/>
+      <c r="B61" s="99"/>
+      <c r="C61" s="81"/>
+      <c r="D61" s="98"/>
+      <c r="E61" s="98"/>
     </row>
     <row r="62" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="105"/>
-      <c r="B62" s="102"/>
-      <c r="C62" s="102"/>
-      <c r="D62" s="102"/>
-      <c r="E62" s="102"/>
+      <c r="A62" s="101"/>
+      <c r="B62" s="98"/>
+      <c r="C62" s="98"/>
+      <c r="D62" s="98"/>
+      <c r="E62" s="98"/>
     </row>
     <row r="63" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="104"/>
-      <c r="B63" s="103"/>
-      <c r="C63" s="85"/>
-      <c r="D63" s="102"/>
-      <c r="E63" s="102"/>
+      <c r="A63" s="100"/>
+      <c r="B63" s="99"/>
+      <c r="C63" s="81"/>
+      <c r="D63" s="98"/>
+      <c r="E63" s="98"/>
     </row>
     <row r="64" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="104"/>
-      <c r="B64" s="103"/>
-      <c r="C64" s="85"/>
-      <c r="D64" s="102"/>
-      <c r="E64" s="102"/>
+      <c r="A64" s="100"/>
+      <c r="B64" s="99"/>
+      <c r="C64" s="81"/>
+      <c r="D64" s="98"/>
+      <c r="E64" s="98"/>
     </row>
     <row r="65" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="105"/>
-      <c r="B65" s="102"/>
-      <c r="C65" s="102"/>
-      <c r="D65" s="102"/>
-      <c r="E65" s="102"/>
+      <c r="A65" s="101"/>
+      <c r="B65" s="98"/>
+      <c r="C65" s="98"/>
+      <c r="D65" s="98"/>
+      <c r="E65" s="98"/>
     </row>
     <row r="66" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="105"/>
-      <c r="B66" s="102"/>
-      <c r="C66" s="102"/>
-      <c r="D66" s="102"/>
-      <c r="E66" s="102"/>
+      <c r="A66" s="101"/>
+      <c r="B66" s="98"/>
+      <c r="C66" s="98"/>
+      <c r="D66" s="98"/>
+      <c r="E66" s="98"/>
     </row>
     <row r="67" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="110"/>
-      <c r="B67" s="102"/>
-      <c r="C67" s="102"/>
-      <c r="D67" s="102"/>
-      <c r="E67" s="102"/>
+      <c r="A67" s="106"/>
+      <c r="B67" s="98"/>
+      <c r="C67" s="98"/>
+      <c r="D67" s="98"/>
+      <c r="E67" s="98"/>
     </row>
     <row r="68" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="111"/>
+      <c r="A68" s="107"/>
     </row>
     <row r="69" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="112"/>
+      <c r="A69" s="108"/>
     </row>
     <row r="70" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="112"/>
+      <c r="A70" s="108"/>
     </row>
     <row r="71" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="111"/>
+      <c r="A71" s="107"/>
     </row>
     <row r="72" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="73" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9885,11 +9883,6 @@
     <row r="1023" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="D2:E2"/>
@@ -9906,6 +9899,11 @@
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9935,883 +9933,883 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="46" t="s">
+        <v>263</v>
+      </c>
+      <c r="B1" s="46" t="s">
         <v>264</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="C1" s="46" t="s">
         <v>265</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="D1" s="46" t="s">
         <v>266</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="E1" s="46" t="s">
         <v>267</v>
       </c>
-      <c r="E1" s="47" t="s">
+      <c r="F1" s="46" t="s">
         <v>268</v>
       </c>
-      <c r="F1" s="47" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="46" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="47" t="s">
+      <c r="C2" s="46" t="s">
         <v>270</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="D2" s="46" t="s">
         <v>271</v>
       </c>
-      <c r="D2" s="47" t="s">
+      <c r="E2" s="46" t="s">
         <v>272</v>
       </c>
-      <c r="E2" s="47" t="s">
+      <c r="F2" s="46" t="s">
         <v>273</v>
       </c>
-      <c r="F2" s="47" t="s">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="47" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" s="47" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="48" t="s">
-        <v>97</v>
-      </c>
-      <c r="B3" s="48" t="s">
+      <c r="C3" s="47" t="s">
         <v>275</v>
       </c>
-      <c r="C3" s="48" t="s">
+      <c r="D3" s="47" t="s">
         <v>276</v>
       </c>
-      <c r="D3" s="48" t="s">
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="46" t="s">
         <v>277</v>
       </c>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="47" t="s">
-        <v>62</v>
-      </c>
-      <c r="B4" s="47" t="s">
+      <c r="C4" s="46" t="s">
+        <v>270</v>
+      </c>
+      <c r="D4" s="46" t="s">
+        <v>271</v>
+      </c>
+      <c r="E4" s="46" t="s">
         <v>278</v>
       </c>
-      <c r="C4" s="47" t="s">
+      <c r="F4" s="46" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="46" t="s">
+        <v>142</v>
+      </c>
+      <c r="B5" s="46" t="s">
+        <v>280</v>
+      </c>
+      <c r="C5" s="46" t="s">
+        <v>275</v>
+      </c>
+      <c r="D5" s="46" t="s">
         <v>271</v>
       </c>
-      <c r="D4" s="47" t="s">
+      <c r="E5" s="46" t="s">
         <v>272</v>
       </c>
-      <c r="E4" s="47" t="s">
-        <v>279</v>
-      </c>
-      <c r="F4" s="47" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="47" t="s">
-        <v>142</v>
-      </c>
-      <c r="B5" s="47" t="s">
+      <c r="F5" s="49"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="46" t="s">
         <v>281</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="C6" s="46" t="s">
+        <v>275</v>
+      </c>
+      <c r="D6" s="46" t="s">
+        <v>281</v>
+      </c>
+      <c r="E6" s="46" t="s">
+        <v>282</v>
+      </c>
+      <c r="F6" s="49"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" s="46" t="s">
+        <v>178</v>
+      </c>
+      <c r="C7" s="46" t="s">
+        <v>275</v>
+      </c>
+      <c r="D7" s="46" t="s">
+        <v>178</v>
+      </c>
+      <c r="E7" s="46" t="s">
+        <v>282</v>
+      </c>
+      <c r="F7" s="49"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="46" t="s">
+        <v>283</v>
+      </c>
+      <c r="B8" s="46" t="s">
+        <v>284</v>
+      </c>
+      <c r="C8" s="46" t="s">
+        <v>285</v>
+      </c>
+      <c r="D8" s="46" t="s">
+        <v>286</v>
+      </c>
+      <c r="E8" s="46" t="s">
+        <v>287</v>
+      </c>
+      <c r="F8" s="46" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="46" t="s">
+        <v>106</v>
+      </c>
+      <c r="B9" s="46" t="s">
+        <v>289</v>
+      </c>
+      <c r="C9" s="46" t="s">
+        <v>275</v>
+      </c>
+      <c r="D9" s="46" t="s">
+        <v>271</v>
+      </c>
+      <c r="E9" s="46" t="s">
+        <v>272</v>
+      </c>
+      <c r="F9" s="49"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="46" t="s">
+        <v>290</v>
+      </c>
+      <c r="B10" s="46" t="s">
+        <v>180</v>
+      </c>
+      <c r="C10" s="46" t="s">
+        <v>275</v>
+      </c>
+      <c r="D10" s="46" t="s">
+        <v>286</v>
+      </c>
+      <c r="E10" s="46" t="s">
+        <v>272</v>
+      </c>
+      <c r="F10" s="46" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="46" t="s">
+        <v>292</v>
+      </c>
+      <c r="B11" s="46" t="s">
+        <v>284</v>
+      </c>
+      <c r="C11" s="46" t="s">
+        <v>285</v>
+      </c>
+      <c r="D11" s="46" t="s">
+        <v>271</v>
+      </c>
+      <c r="E11" s="46" t="s">
+        <v>272</v>
+      </c>
+      <c r="F11" s="46" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" s="46" t="s">
+        <v>294</v>
+      </c>
+      <c r="C12" s="46" t="s">
+        <v>275</v>
+      </c>
+      <c r="D12" s="46" t="s">
+        <v>271</v>
+      </c>
+      <c r="E12" s="46" t="s">
+        <v>295</v>
+      </c>
+      <c r="F12" s="46" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="47" t="s">
+        <v>297</v>
+      </c>
+      <c r="C13" s="47" t="s">
+        <v>275</v>
+      </c>
+      <c r="D13" s="47" t="s">
         <v>276</v>
       </c>
-      <c r="D5" s="47" t="s">
+      <c r="E13" s="47" t="s">
+        <v>298</v>
+      </c>
+      <c r="F13" s="48"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="46" t="s">
+        <v>166</v>
+      </c>
+      <c r="C14" s="46" t="s">
+        <v>275</v>
+      </c>
+      <c r="D14" s="46" t="s">
+        <v>166</v>
+      </c>
+      <c r="E14" s="46" t="s">
+        <v>282</v>
+      </c>
+      <c r="F14" s="46" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" s="46" t="s">
+        <v>300</v>
+      </c>
+      <c r="C15" s="46" t="s">
+        <v>270</v>
+      </c>
+      <c r="D15" s="46" t="s">
+        <v>271</v>
+      </c>
+      <c r="E15" s="46" t="s">
         <v>272</v>
       </c>
-      <c r="E5" s="47" t="s">
-        <v>273</v>
-      </c>
-      <c r="F5" s="50"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="47" t="s">
-        <v>58</v>
-      </c>
-      <c r="B6" s="47" t="s">
+      <c r="F15" s="49"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="46" t="s">
+        <v>301</v>
+      </c>
+      <c r="B16" s="46" t="s">
+        <v>284</v>
+      </c>
+      <c r="C16" s="46" t="s">
+        <v>285</v>
+      </c>
+      <c r="D16" s="46" t="s">
+        <v>271</v>
+      </c>
+      <c r="E16" s="46" t="s">
+        <v>272</v>
+      </c>
+      <c r="F16" s="46" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="46" t="s">
+        <v>93</v>
+      </c>
+      <c r="B17" s="46" t="s">
+        <v>303</v>
+      </c>
+      <c r="C17" s="46" t="s">
+        <v>275</v>
+      </c>
+      <c r="D17" s="46" t="s">
+        <v>304</v>
+      </c>
+      <c r="E17" s="46" t="s">
+        <v>272</v>
+      </c>
+      <c r="F17" s="46" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="46" t="s">
+        <v>306</v>
+      </c>
+      <c r="B18" s="46" t="s">
+        <v>167</v>
+      </c>
+      <c r="C18" s="46" t="s">
+        <v>307</v>
+      </c>
+      <c r="D18" s="46" t="s">
+        <v>286</v>
+      </c>
+      <c r="E18" s="46" t="s">
+        <v>287</v>
+      </c>
+      <c r="F18" s="46" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="50" t="s">
+        <v>308</v>
+      </c>
+      <c r="B19" s="50" t="s">
+        <v>284</v>
+      </c>
+      <c r="C19" s="50" t="s">
+        <v>285</v>
+      </c>
+      <c r="D19" s="50" t="s">
+        <v>309</v>
+      </c>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="46" t="s">
+        <v>140</v>
+      </c>
+      <c r="B20" s="46" t="s">
+        <v>310</v>
+      </c>
+      <c r="C20" s="46" t="s">
+        <v>275</v>
+      </c>
+      <c r="D20" s="46" t="s">
+        <v>271</v>
+      </c>
+      <c r="E20" s="46" t="s">
+        <v>272</v>
+      </c>
+      <c r="F20" s="46" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="46" t="s">
+        <v>311</v>
+      </c>
+      <c r="B21" s="46" t="s">
+        <v>284</v>
+      </c>
+      <c r="C21" s="46" t="s">
+        <v>285</v>
+      </c>
+      <c r="D21" s="46" t="s">
+        <v>170</v>
+      </c>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" s="46" t="s">
+        <v>312</v>
+      </c>
+      <c r="C22" s="46" t="s">
+        <v>270</v>
+      </c>
+      <c r="D22" s="46" t="s">
+        <v>286</v>
+      </c>
+      <c r="E22" s="46" t="s">
+        <v>313</v>
+      </c>
+      <c r="F22" s="46" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="46" t="s">
+        <v>314</v>
+      </c>
+      <c r="C23" s="46" t="s">
+        <v>275</v>
+      </c>
+      <c r="D23" s="46" t="s">
+        <v>314</v>
+      </c>
+      <c r="E23" s="46" t="s">
         <v>282</v>
       </c>
-      <c r="C6" s="47" t="s">
-        <v>276</v>
-      </c>
-      <c r="D6" s="47" t="s">
+      <c r="F23" s="46" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="50" t="s">
+        <v>316</v>
+      </c>
+      <c r="B24" s="50" t="s">
+        <v>284</v>
+      </c>
+      <c r="C24" s="50" t="s">
+        <v>285</v>
+      </c>
+      <c r="D24" s="50" t="s">
+        <v>309</v>
+      </c>
+      <c r="E24" s="51"/>
+      <c r="F24" s="51"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="46" t="s">
+        <v>317</v>
+      </c>
+      <c r="C25" s="46" t="s">
+        <v>270</v>
+      </c>
+      <c r="D25" s="46" t="s">
+        <v>271</v>
+      </c>
+      <c r="E25" s="46" t="s">
+        <v>272</v>
+      </c>
+      <c r="F25" s="46" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="46" t="s">
+        <v>319</v>
+      </c>
+      <c r="B26" s="46" t="s">
+        <v>284</v>
+      </c>
+      <c r="C26" s="46" t="s">
+        <v>285</v>
+      </c>
+      <c r="D26" s="46" t="s">
+        <v>271</v>
+      </c>
+      <c r="E26" s="46" t="s">
+        <v>295</v>
+      </c>
+      <c r="F26" s="46" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" s="46" t="s">
+        <v>173</v>
+      </c>
+      <c r="C27" s="46" t="s">
+        <v>275</v>
+      </c>
+      <c r="D27" s="46" t="s">
+        <v>173</v>
+      </c>
+      <c r="E27" s="46" t="s">
         <v>282</v>
       </c>
-      <c r="E6" s="47" t="s">
-        <v>283</v>
-      </c>
-      <c r="F6" s="50"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="47" t="s">
-        <v>78</v>
-      </c>
-      <c r="B7" s="47" t="s">
+      <c r="F27" s="49"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="46" t="s">
+        <v>103</v>
+      </c>
+      <c r="B28" s="46" t="s">
+        <v>321</v>
+      </c>
+      <c r="C28" s="46" t="s">
+        <v>270</v>
+      </c>
+      <c r="D28" s="46" t="s">
+        <v>286</v>
+      </c>
+      <c r="E28" s="46" t="s">
+        <v>295</v>
+      </c>
+      <c r="F28" s="46" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="46" t="s">
+        <v>323</v>
+      </c>
+      <c r="B29" s="46" t="s">
+        <v>284</v>
+      </c>
+      <c r="C29" s="46" t="s">
+        <v>285</v>
+      </c>
+      <c r="D29" s="46" t="s">
+        <v>271</v>
+      </c>
+      <c r="E29" s="46" t="s">
+        <v>295</v>
+      </c>
+      <c r="F29" s="46" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="B30" s="46" t="s">
+        <v>325</v>
+      </c>
+      <c r="C30" s="46" t="s">
+        <v>275</v>
+      </c>
+      <c r="D30" s="46" t="s">
+        <v>271</v>
+      </c>
+      <c r="E30" s="46" t="s">
+        <v>272</v>
+      </c>
+      <c r="F30" s="46" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="46" t="s">
+        <v>327</v>
+      </c>
+      <c r="B31" s="46" t="s">
+        <v>284</v>
+      </c>
+      <c r="C31" s="46" t="s">
+        <v>285</v>
+      </c>
+      <c r="D31" s="46" t="s">
+        <v>271</v>
+      </c>
+      <c r="E31" s="46" t="s">
+        <v>272</v>
+      </c>
+      <c r="F31" s="46" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="46" t="s">
+        <v>134</v>
+      </c>
+      <c r="B32" s="46" t="s">
+        <v>329</v>
+      </c>
+      <c r="C32" s="46" t="s">
+        <v>275</v>
+      </c>
+      <c r="D32" s="46" t="s">
+        <v>329</v>
+      </c>
+      <c r="E32" s="46" t="s">
+        <v>282</v>
+      </c>
+      <c r="F32" s="46" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="B33" s="46" t="s">
+        <v>331</v>
+      </c>
+      <c r="C33" s="46" t="s">
+        <v>270</v>
+      </c>
+      <c r="D33" s="46" t="s">
+        <v>286</v>
+      </c>
+      <c r="E33" s="52"/>
+      <c r="F33" s="46" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="46" t="s">
+        <v>127</v>
+      </c>
+      <c r="B34" s="46" t="s">
+        <v>333</v>
+      </c>
+      <c r="C34" s="46" t="s">
+        <v>270</v>
+      </c>
+      <c r="D34" s="46" t="s">
+        <v>271</v>
+      </c>
+      <c r="E34" s="46" t="s">
+        <v>272</v>
+      </c>
+      <c r="F34" s="49"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" s="46" t="s">
+        <v>334</v>
+      </c>
+      <c r="C35" s="46" t="s">
+        <v>275</v>
+      </c>
+      <c r="D35" s="46" t="s">
+        <v>271</v>
+      </c>
+      <c r="E35" s="46" t="s">
+        <v>272</v>
+      </c>
+      <c r="F35" s="46" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="B36" s="46" t="s">
+        <v>335</v>
+      </c>
+      <c r="C36" s="46" t="s">
+        <v>270</v>
+      </c>
+      <c r="D36" s="46" t="s">
+        <v>271</v>
+      </c>
+      <c r="E36" s="46" t="s">
+        <v>272</v>
+      </c>
+      <c r="F36" s="46" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="50" t="s">
+        <v>337</v>
+      </c>
+      <c r="B37" s="50" t="s">
+        <v>284</v>
+      </c>
+      <c r="C37" s="50" t="s">
+        <v>285</v>
+      </c>
+      <c r="D37" s="50" t="s">
+        <v>309</v>
+      </c>
+      <c r="E37" s="51"/>
+      <c r="F37" s="51"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="46" t="s">
+        <v>115</v>
+      </c>
+      <c r="B38" s="46" t="s">
+        <v>338</v>
+      </c>
+      <c r="C38" s="46" t="s">
+        <v>275</v>
+      </c>
+      <c r="D38" s="46" t="s">
+        <v>338</v>
+      </c>
+      <c r="E38" s="46" t="s">
+        <v>282</v>
+      </c>
+      <c r="F38" s="46" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="46" t="s">
+        <v>340</v>
+      </c>
+      <c r="B39" s="46" t="s">
+        <v>284</v>
+      </c>
+      <c r="C39" s="46" t="s">
+        <v>285</v>
+      </c>
+      <c r="D39" s="46" t="s">
+        <v>271</v>
+      </c>
+      <c r="E39" s="46" t="s">
+        <v>272</v>
+      </c>
+      <c r="F39" s="46" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" s="46" t="s">
+        <v>342</v>
+      </c>
+      <c r="C40" s="46" t="s">
+        <v>275</v>
+      </c>
+      <c r="D40" s="46" t="s">
+        <v>271</v>
+      </c>
+      <c r="E40" s="46" t="s">
+        <v>272</v>
+      </c>
+      <c r="F40" s="49"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="B41" s="46" t="s">
         <v>179</v>
       </c>
-      <c r="C7" s="47" t="s">
-        <v>276</v>
-      </c>
-      <c r="D7" s="47" t="s">
+      <c r="C41" s="46" t="s">
+        <v>275</v>
+      </c>
+      <c r="D41" s="46" t="s">
         <v>179</v>
       </c>
-      <c r="E7" s="47" t="s">
-        <v>283</v>
-      </c>
-      <c r="F7" s="50"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="47" t="s">
+      <c r="E41" s="46" t="s">
+        <v>282</v>
+      </c>
+      <c r="F41" s="46" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="B42" s="46" t="s">
+        <v>344</v>
+      </c>
+      <c r="C42" s="46" t="s">
+        <v>270</v>
+      </c>
+      <c r="D42" s="46" t="s">
+        <v>286</v>
+      </c>
+      <c r="E42" s="46" t="s">
+        <v>313</v>
+      </c>
+      <c r="F42" s="46" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="B43" s="46" t="s">
+        <v>345</v>
+      </c>
+      <c r="C43" s="46" t="s">
+        <v>270</v>
+      </c>
+      <c r="D43" s="46" t="s">
+        <v>271</v>
+      </c>
+      <c r="E43" s="46" t="s">
+        <v>272</v>
+      </c>
+      <c r="F43" s="49"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="46" t="s">
+        <v>346</v>
+      </c>
+      <c r="B44" s="46" t="s">
         <v>284</v>
       </c>
-      <c r="B8" s="47" t="s">
+      <c r="C44" s="46" t="s">
         <v>285</v>
       </c>
-      <c r="C8" s="47" t="s">
-        <v>286</v>
-      </c>
-      <c r="D8" s="47" t="s">
-        <v>287</v>
-      </c>
-      <c r="E8" s="47" t="s">
-        <v>288</v>
-      </c>
-      <c r="F8" s="47" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="47" t="s">
-        <v>106</v>
-      </c>
-      <c r="B9" s="47" t="s">
-        <v>290</v>
-      </c>
-      <c r="C9" s="47" t="s">
-        <v>276</v>
-      </c>
-      <c r="D9" s="47" t="s">
+      <c r="D44" s="46" t="s">
+        <v>271</v>
+      </c>
+      <c r="E44" s="46" t="s">
         <v>272</v>
       </c>
-      <c r="E9" s="47" t="s">
-        <v>273</v>
-      </c>
-      <c r="F9" s="50"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="47" t="s">
-        <v>291</v>
-      </c>
-      <c r="B10" s="47" t="s">
-        <v>181</v>
-      </c>
-      <c r="C10" s="47" t="s">
-        <v>276</v>
-      </c>
-      <c r="D10" s="47" t="s">
-        <v>287</v>
-      </c>
-      <c r="E10" s="47" t="s">
-        <v>273</v>
-      </c>
-      <c r="F10" s="47" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="47" t="s">
-        <v>293</v>
-      </c>
-      <c r="B11" s="47" t="s">
-        <v>285</v>
-      </c>
-      <c r="C11" s="47" t="s">
-        <v>286</v>
-      </c>
-      <c r="D11" s="47" t="s">
+      <c r="F44" s="49"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="B45" s="46" t="s">
+        <v>347</v>
+      </c>
+      <c r="C45" s="46" t="s">
+        <v>270</v>
+      </c>
+      <c r="D45" s="46" t="s">
+        <v>271</v>
+      </c>
+      <c r="E45" s="46" t="s">
         <v>272</v>
       </c>
-      <c r="E11" s="47" t="s">
-        <v>273</v>
-      </c>
-      <c r="F11" s="47" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="47" t="s">
-        <v>82</v>
-      </c>
-      <c r="B12" s="47" t="s">
-        <v>295</v>
-      </c>
-      <c r="C12" s="47" t="s">
-        <v>276</v>
-      </c>
-      <c r="D12" s="47" t="s">
+      <c r="F45" s="46" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="46" t="s">
+        <v>130</v>
+      </c>
+      <c r="B46" s="46" t="s">
+        <v>349</v>
+      </c>
+      <c r="C46" s="46" t="s">
+        <v>275</v>
+      </c>
+      <c r="D46" s="46" t="s">
+        <v>271</v>
+      </c>
+      <c r="E46" s="46" t="s">
         <v>272</v>
       </c>
-      <c r="E12" s="47" t="s">
-        <v>296</v>
-      </c>
-      <c r="F12" s="47" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="48" t="s">
-        <v>298</v>
-      </c>
-      <c r="C13" s="48" t="s">
-        <v>276</v>
-      </c>
-      <c r="D13" s="48" t="s">
-        <v>277</v>
-      </c>
-      <c r="E13" s="48" t="s">
-        <v>299</v>
-      </c>
-      <c r="F13" s="49"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="47" t="s">
-        <v>54</v>
-      </c>
-      <c r="B14" s="47" t="s">
-        <v>167</v>
-      </c>
-      <c r="C14" s="47" t="s">
-        <v>276</v>
-      </c>
-      <c r="D14" s="47" t="s">
-        <v>167</v>
-      </c>
-      <c r="E14" s="47" t="s">
-        <v>283</v>
-      </c>
-      <c r="F14" s="47" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="47" t="s">
-        <v>85</v>
-      </c>
-      <c r="B15" s="47" t="s">
-        <v>301</v>
-      </c>
-      <c r="C15" s="47" t="s">
-        <v>271</v>
-      </c>
-      <c r="D15" s="47" t="s">
-        <v>272</v>
-      </c>
-      <c r="E15" s="47" t="s">
-        <v>273</v>
-      </c>
-      <c r="F15" s="50"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="47" t="s">
+      <c r="F46" s="46" t="s">
         <v>302</v>
       </c>
-      <c r="B16" s="47" t="s">
-        <v>285</v>
-      </c>
-      <c r="C16" s="47" t="s">
-        <v>286</v>
-      </c>
-      <c r="D16" s="47" t="s">
-        <v>272</v>
-      </c>
-      <c r="E16" s="47" t="s">
-        <v>273</v>
-      </c>
-      <c r="F16" s="47" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="47" t="s">
-        <v>93</v>
-      </c>
-      <c r="B17" s="47" t="s">
-        <v>304</v>
-      </c>
-      <c r="C17" s="47" t="s">
-        <v>276</v>
-      </c>
-      <c r="D17" s="47" t="s">
-        <v>305</v>
-      </c>
-      <c r="E17" s="47" t="s">
-        <v>273</v>
-      </c>
-      <c r="F17" s="47" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="47" t="s">
-        <v>307</v>
-      </c>
-      <c r="B18" s="47" t="s">
-        <v>168</v>
-      </c>
-      <c r="C18" s="47" t="s">
-        <v>308</v>
-      </c>
-      <c r="D18" s="47" t="s">
-        <v>287</v>
-      </c>
-      <c r="E18" s="47" t="s">
-        <v>288</v>
-      </c>
-      <c r="F18" s="47" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="51" t="s">
-        <v>309</v>
-      </c>
-      <c r="B19" s="51" t="s">
-        <v>285</v>
-      </c>
-      <c r="C19" s="51" t="s">
-        <v>286</v>
-      </c>
-      <c r="D19" s="51" t="s">
-        <v>310</v>
-      </c>
-      <c r="E19" s="52"/>
-      <c r="F19" s="52"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="47" t="s">
-        <v>140</v>
-      </c>
-      <c r="B20" s="47" t="s">
-        <v>311</v>
-      </c>
-      <c r="C20" s="47" t="s">
-        <v>276</v>
-      </c>
-      <c r="D20" s="47" t="s">
-        <v>272</v>
-      </c>
-      <c r="E20" s="47" t="s">
-        <v>273</v>
-      </c>
-      <c r="F20" s="47" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="47" t="s">
-        <v>312</v>
-      </c>
-      <c r="B21" s="47" t="s">
-        <v>285</v>
-      </c>
-      <c r="C21" s="47" t="s">
-        <v>286</v>
-      </c>
-      <c r="D21" s="47" t="s">
-        <v>171</v>
-      </c>
-      <c r="E21" s="50"/>
-      <c r="F21" s="50"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="47" t="s">
-        <v>72</v>
-      </c>
-      <c r="B22" s="47" t="s">
-        <v>313</v>
-      </c>
-      <c r="C22" s="47" t="s">
-        <v>271</v>
-      </c>
-      <c r="D22" s="47" t="s">
-        <v>287</v>
-      </c>
-      <c r="E22" s="47" t="s">
-        <v>314</v>
-      </c>
-      <c r="F22" s="47" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="47" t="s">
-        <v>37</v>
-      </c>
-      <c r="B23" s="47" t="s">
-        <v>315</v>
-      </c>
-      <c r="C23" s="47" t="s">
-        <v>276</v>
-      </c>
-      <c r="D23" s="47" t="s">
-        <v>315</v>
-      </c>
-      <c r="E23" s="47" t="s">
-        <v>283</v>
-      </c>
-      <c r="F23" s="47" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="51" t="s">
-        <v>317</v>
-      </c>
-      <c r="B24" s="51" t="s">
-        <v>285</v>
-      </c>
-      <c r="C24" s="51" t="s">
-        <v>286</v>
-      </c>
-      <c r="D24" s="51" t="s">
-        <v>310</v>
-      </c>
-      <c r="E24" s="52"/>
-      <c r="F24" s="52"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="47" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25" s="47" t="s">
-        <v>318</v>
-      </c>
-      <c r="C25" s="47" t="s">
-        <v>271</v>
-      </c>
-      <c r="D25" s="47" t="s">
-        <v>272</v>
-      </c>
-      <c r="E25" s="47" t="s">
-        <v>273</v>
-      </c>
-      <c r="F25" s="47" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="47" t="s">
-        <v>320</v>
-      </c>
-      <c r="B26" s="47" t="s">
-        <v>285</v>
-      </c>
-      <c r="C26" s="47" t="s">
-        <v>286</v>
-      </c>
-      <c r="D26" s="47" t="s">
-        <v>272</v>
-      </c>
-      <c r="E26" s="47" t="s">
-        <v>296</v>
-      </c>
-      <c r="F26" s="47" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="47" t="s">
-        <v>51</v>
-      </c>
-      <c r="B27" s="47" t="s">
-        <v>174</v>
-      </c>
-      <c r="C27" s="47" t="s">
-        <v>276</v>
-      </c>
-      <c r="D27" s="47" t="s">
-        <v>174</v>
-      </c>
-      <c r="E27" s="47" t="s">
-        <v>283</v>
-      </c>
-      <c r="F27" s="50"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="47" t="s">
-        <v>103</v>
-      </c>
-      <c r="B28" s="47" t="s">
-        <v>322</v>
-      </c>
-      <c r="C28" s="47" t="s">
-        <v>271</v>
-      </c>
-      <c r="D28" s="47" t="s">
-        <v>287</v>
-      </c>
-      <c r="E28" s="47" t="s">
-        <v>296</v>
-      </c>
-      <c r="F28" s="47" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="47" t="s">
-        <v>324</v>
-      </c>
-      <c r="B29" s="47" t="s">
-        <v>285</v>
-      </c>
-      <c r="C29" s="47" t="s">
-        <v>286</v>
-      </c>
-      <c r="D29" s="47" t="s">
-        <v>272</v>
-      </c>
-      <c r="E29" s="47" t="s">
-        <v>296</v>
-      </c>
-      <c r="F29" s="47" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="47" t="s">
-        <v>68</v>
-      </c>
-      <c r="B30" s="47" t="s">
-        <v>326</v>
-      </c>
-      <c r="C30" s="47" t="s">
-        <v>276</v>
-      </c>
-      <c r="D30" s="47" t="s">
-        <v>272</v>
-      </c>
-      <c r="E30" s="47" t="s">
-        <v>273</v>
-      </c>
-      <c r="F30" s="47" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="47" t="s">
-        <v>328</v>
-      </c>
-      <c r="B31" s="47" t="s">
-        <v>285</v>
-      </c>
-      <c r="C31" s="47" t="s">
-        <v>286</v>
-      </c>
-      <c r="D31" s="47" t="s">
-        <v>272</v>
-      </c>
-      <c r="E31" s="47" t="s">
-        <v>273</v>
-      </c>
-      <c r="F31" s="47" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="47" t="s">
-        <v>134</v>
-      </c>
-      <c r="B32" s="47" t="s">
-        <v>330</v>
-      </c>
-      <c r="C32" s="47" t="s">
-        <v>276</v>
-      </c>
-      <c r="D32" s="47" t="s">
-        <v>330</v>
-      </c>
-      <c r="E32" s="47" t="s">
-        <v>283</v>
-      </c>
-      <c r="F32" s="47" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="47" t="s">
-        <v>75</v>
-      </c>
-      <c r="B33" s="47" t="s">
-        <v>332</v>
-      </c>
-      <c r="C33" s="47" t="s">
-        <v>271</v>
-      </c>
-      <c r="D33" s="47" t="s">
-        <v>287</v>
-      </c>
-      <c r="E33" s="53"/>
-      <c r="F33" s="47" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="47" t="s">
-        <v>127</v>
-      </c>
-      <c r="B34" s="47" t="s">
-        <v>334</v>
-      </c>
-      <c r="C34" s="47" t="s">
-        <v>271</v>
-      </c>
-      <c r="D34" s="47" t="s">
-        <v>272</v>
-      </c>
-      <c r="E34" s="47" t="s">
-        <v>273</v>
-      </c>
-      <c r="F34" s="50"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="B35" s="47" t="s">
-        <v>335</v>
-      </c>
-      <c r="C35" s="47" t="s">
-        <v>276</v>
-      </c>
-      <c r="D35" s="47" t="s">
-        <v>272</v>
-      </c>
-      <c r="E35" s="47" t="s">
-        <v>273</v>
-      </c>
-      <c r="F35" s="47" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="47" t="s">
-        <v>100</v>
-      </c>
-      <c r="B36" s="47" t="s">
-        <v>336</v>
-      </c>
-      <c r="C36" s="47" t="s">
-        <v>271</v>
-      </c>
-      <c r="D36" s="47" t="s">
-        <v>272</v>
-      </c>
-      <c r="E36" s="47" t="s">
-        <v>273</v>
-      </c>
-      <c r="F36" s="47" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="51" t="s">
-        <v>338</v>
-      </c>
-      <c r="B37" s="51" t="s">
-        <v>285</v>
-      </c>
-      <c r="C37" s="51" t="s">
-        <v>286</v>
-      </c>
-      <c r="D37" s="51" t="s">
-        <v>310</v>
-      </c>
-      <c r="E37" s="52"/>
-      <c r="F37" s="52"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="47" t="s">
-        <v>115</v>
-      </c>
-      <c r="B38" s="47" t="s">
-        <v>339</v>
-      </c>
-      <c r="C38" s="47" t="s">
-        <v>276</v>
-      </c>
-      <c r="D38" s="47" t="s">
-        <v>339</v>
-      </c>
-      <c r="E38" s="47" t="s">
-        <v>283</v>
-      </c>
-      <c r="F38" s="47" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="47" t="s">
-        <v>341</v>
-      </c>
-      <c r="B39" s="47" t="s">
-        <v>285</v>
-      </c>
-      <c r="C39" s="47" t="s">
-        <v>286</v>
-      </c>
-      <c r="D39" s="47" t="s">
-        <v>272</v>
-      </c>
-      <c r="E39" s="47" t="s">
-        <v>273</v>
-      </c>
-      <c r="F39" s="47" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="47" t="s">
-        <v>44</v>
-      </c>
-      <c r="B40" s="47" t="s">
-        <v>343</v>
-      </c>
-      <c r="C40" s="47" t="s">
-        <v>276</v>
-      </c>
-      <c r="D40" s="47" t="s">
-        <v>272</v>
-      </c>
-      <c r="E40" s="47" t="s">
-        <v>273</v>
-      </c>
-      <c r="F40" s="50"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="47" t="s">
-        <v>26</v>
-      </c>
-      <c r="B41" s="47" t="s">
-        <v>180</v>
-      </c>
-      <c r="C41" s="47" t="s">
-        <v>276</v>
-      </c>
-      <c r="D41" s="47" t="s">
-        <v>180</v>
-      </c>
-      <c r="E41" s="47" t="s">
-        <v>283</v>
-      </c>
-      <c r="F41" s="47" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="47" t="s">
-        <v>65</v>
-      </c>
-      <c r="B42" s="47" t="s">
-        <v>345</v>
-      </c>
-      <c r="C42" s="47" t="s">
-        <v>271</v>
-      </c>
-      <c r="D42" s="47" t="s">
-        <v>287</v>
-      </c>
-      <c r="E42" s="47" t="s">
-        <v>314</v>
-      </c>
-      <c r="F42" s="47" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="47" t="s">
-        <v>124</v>
-      </c>
-      <c r="B43" s="47" t="s">
-        <v>346</v>
-      </c>
-      <c r="C43" s="47" t="s">
-        <v>271</v>
-      </c>
-      <c r="D43" s="47" t="s">
-        <v>272</v>
-      </c>
-      <c r="E43" s="47" t="s">
-        <v>273</v>
-      </c>
-      <c r="F43" s="50"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="47" t="s">
-        <v>347</v>
-      </c>
-      <c r="B44" s="47" t="s">
-        <v>285</v>
-      </c>
-      <c r="C44" s="47" t="s">
-        <v>286</v>
-      </c>
-      <c r="D44" s="47" t="s">
-        <v>272</v>
-      </c>
-      <c r="E44" s="47" t="s">
-        <v>273</v>
-      </c>
-      <c r="F44" s="50"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="47" t="s">
-        <v>88</v>
-      </c>
-      <c r="B45" s="47" t="s">
-        <v>348</v>
-      </c>
-      <c r="C45" s="47" t="s">
-        <v>271</v>
-      </c>
-      <c r="D45" s="47" t="s">
-        <v>272</v>
-      </c>
-      <c r="E45" s="47" t="s">
-        <v>273</v>
-      </c>
-      <c r="F45" s="47" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="47" t="s">
-        <v>130</v>
-      </c>
-      <c r="B46" s="47" t="s">
-        <v>350</v>
-      </c>
-      <c r="C46" s="47" t="s">
-        <v>276</v>
-      </c>
-      <c r="D46" s="47" t="s">
-        <v>272</v>
-      </c>
-      <c r="E46" s="47" t="s">
-        <v>273</v>
-      </c>
-      <c r="F46" s="47" t="s">
-        <v>303</v>
-      </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="54"/>
+      <c r="A47" s="53"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Antonio-Feed/__FeedPartsInventory.xlsx
+++ b/Antonio-Feed/__FeedPartsInventory.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pollak/Documents/GitHub/Front-Page/Antonio-Feed/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarah/Documents/GitHub/Front-Page/Antonio-Feed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FF5B40F-3A24-5B47-9908-582DA8A249F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE65E61A-8EC1-374B-8803-F4E07E718F1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="69800" yWindow="460" windowWidth="35840" windowHeight="19760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="460" windowWidth="35840" windowHeight="20400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parts At ATA" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="475">
   <si>
     <t>Antenna Inventory</t>
   </si>
@@ -1175,9 +1175,6 @@
     <t>X=0.09 Y=0.04 Z=0.16</t>
   </si>
   <si>
-    <t>(---) 83 / 84</t>
-  </si>
-  <si>
     <t xml:space="preserve">Feed Lab </t>
   </si>
   <si>
@@ -1256,9 +1253,6 @@
     <t>(014) 60 / 64</t>
   </si>
   <si>
-    <t>(---) 75 / 82</t>
-  </si>
-  <si>
     <t>CB-0022</t>
   </si>
   <si>
@@ -1346,18 +1340,6 @@
     <t>no number on pyramid</t>
   </si>
   <si>
-    <t>(---) 53 / 72</t>
-  </si>
-  <si>
-    <t>(---) 37 / 56</t>
-  </si>
-  <si>
-    <t>(---) 18 / 40</t>
-  </si>
-  <si>
-    <t>(---) 47 / 52</t>
-  </si>
-  <si>
     <t>Pyramid SN / LNAs</t>
   </si>
   <si>
@@ -1430,9 +1412,6 @@
     <t>YES</t>
   </si>
   <si>
-    <t>(---) 45 / 48</t>
-  </si>
-  <si>
     <t>CB-0050</t>
   </si>
   <si>
@@ -1455,6 +1434,45 @@
   </si>
   <si>
     <t>(010) 24 / 73</t>
+  </si>
+  <si>
+    <t>(001) --/--</t>
+  </si>
+  <si>
+    <t>(007) --/--</t>
+  </si>
+  <si>
+    <t>Pyramid not labeled</t>
+  </si>
+  <si>
+    <t>(003) --/--</t>
+  </si>
+  <si>
+    <t>(005) 47 / 52</t>
+  </si>
+  <si>
+    <t>(006) 75 / 82</t>
+  </si>
+  <si>
+    <t>(009) --/--</t>
+  </si>
+  <si>
+    <t>(012) 37 / 56</t>
+  </si>
+  <si>
+    <t>(013) 53 / 72</t>
+  </si>
+  <si>
+    <t>(015) --/--</t>
+  </si>
+  <si>
+    <t>(018) 18 / 40</t>
+  </si>
+  <si>
+    <t>(019) 45 / 48</t>
+  </si>
+  <si>
+    <t>(020) 83 / 84</t>
   </si>
 </sst>
 </file>
@@ -1968,7 +1986,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="148">
+  <cellXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2190,6 +2208,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2217,16 +2236,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2470,25 +2491,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="133" t="s">
+      <c r="A1" s="134" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="134"/>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
-      <c r="G1" s="134"/>
-      <c r="H1" s="135"/>
-      <c r="I1" s="136"/>
-      <c r="J1" s="136"/>
-      <c r="K1" s="135"/>
-      <c r="L1" s="136"/>
-      <c r="M1" s="136"/>
-      <c r="N1" s="136"/>
-      <c r="O1" s="136"/>
-      <c r="P1" s="136"/>
-      <c r="Q1" s="136"/>
+      <c r="B1" s="135"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="135"/>
+      <c r="E1" s="135"/>
+      <c r="F1" s="135"/>
+      <c r="G1" s="135"/>
+      <c r="H1" s="136"/>
+      <c r="I1" s="137"/>
+      <c r="J1" s="137"/>
+      <c r="K1" s="136"/>
+      <c r="L1" s="137"/>
+      <c r="M1" s="137"/>
+      <c r="N1" s="137"/>
+      <c r="O1" s="137"/>
+      <c r="P1" s="137"/>
+      <c r="Q1" s="137"/>
     </row>
     <row r="2" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -2816,7 +2837,7 @@
         <v>2A</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>53</v>
@@ -2936,7 +2957,7 @@
         <v>67</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>68</v>
@@ -3012,7 +3033,7 @@
         <v>2H</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>76</v>
@@ -3786,38 +3807,38 @@
       <c r="A58" s="9"/>
     </row>
     <row r="59" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="137" t="s">
+      <c r="A59" s="138" t="s">
         <v>157</v>
       </c>
-      <c r="B59" s="132"/>
-      <c r="C59" s="132"/>
+      <c r="B59" s="133"/>
+      <c r="C59" s="133"/>
     </row>
     <row r="60" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="12"/>
     </row>
     <row r="61" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="131" t="s">
+      <c r="A61" s="132" t="s">
         <v>149</v>
       </c>
-      <c r="B61" s="132"/>
-      <c r="C61" s="131" t="s">
+      <c r="B61" s="133"/>
+      <c r="C61" s="132" t="s">
         <v>158</v>
       </c>
-      <c r="D61" s="132"/>
-      <c r="E61" s="132"/>
-      <c r="F61" s="132"/>
+      <c r="D61" s="133"/>
+      <c r="E61" s="133"/>
+      <c r="F61" s="133"/>
     </row>
     <row r="62" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="131" t="s">
+      <c r="A62" s="132" t="s">
         <v>159</v>
       </c>
-      <c r="B62" s="132"/>
-      <c r="C62" s="131" t="s">
+      <c r="B62" s="133"/>
+      <c r="C62" s="132" t="s">
         <v>160</v>
       </c>
-      <c r="D62" s="132"/>
-      <c r="E62" s="132"/>
-      <c r="F62" s="132"/>
+      <c r="D62" s="133"/>
+      <c r="E62" s="133"/>
+      <c r="F62" s="133"/>
     </row>
     <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="64" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4785,7 +4806,7 @@
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4798,20 +4819,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="133" t="s">
+      <c r="A1" s="134" t="s">
         <v>161</v>
       </c>
-      <c r="B1" s="138"/>
-      <c r="C1" s="139" t="s">
+      <c r="B1" s="139"/>
+      <c r="C1" s="140" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="135"/>
-      <c r="E1" s="135"/>
-      <c r="F1" s="135"/>
-      <c r="G1" s="135"/>
-      <c r="H1" s="135"/>
-      <c r="I1" s="135"/>
-      <c r="J1" s="135"/>
+      <c r="D1" s="136"/>
+      <c r="E1" s="136"/>
+      <c r="F1" s="136"/>
+      <c r="G1" s="136"/>
+      <c r="H1" s="136"/>
+      <c r="I1" s="136"/>
+      <c r="J1" s="136"/>
       <c r="K1" s="82"/>
       <c r="L1" s="82"/>
     </row>
@@ -4847,15 +4868,15 @@
         <v>164</v>
       </c>
       <c r="K2" s="17" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="L2" s="17" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="118" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="24" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="B3" s="85" t="s">
         <v>165</v>
@@ -4868,8 +4889,12 @@
       <c r="H3" s="120"/>
       <c r="I3" s="120"/>
       <c r="J3" s="120"/>
-      <c r="K3" s="77"/>
-      <c r="L3" s="77"/>
+      <c r="K3" s="148" t="s">
+        <v>462</v>
+      </c>
+      <c r="L3" s="77" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="4" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="str">
@@ -4903,8 +4928,12 @@
       <c r="J4" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
+      <c r="K4" s="19" t="s">
+        <v>463</v>
+      </c>
+      <c r="L4" s="77" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="5" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="20" t="str">
@@ -4938,8 +4967,12 @@
       <c r="J5" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="77"/>
-      <c r="L5" s="77"/>
+      <c r="K5" s="19" t="s">
+        <v>465</v>
+      </c>
+      <c r="L5" s="77" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="6" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="20" t="str">
@@ -4974,10 +5007,10 @@
         <v>28</v>
       </c>
       <c r="K6" s="77" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="L6" s="77" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -5013,9 +5046,11 @@
         <v>175</v>
       </c>
       <c r="K7" s="103" t="s">
-        <v>435</v>
-      </c>
-      <c r="L7" s="77"/>
+        <v>466</v>
+      </c>
+      <c r="L7" s="77" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="8" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="20" t="str">
@@ -5050,9 +5085,11 @@
         <v>28</v>
       </c>
       <c r="K8" s="77" t="s">
-        <v>402</v>
-      </c>
-      <c r="L8" s="77"/>
+        <v>467</v>
+      </c>
+      <c r="L8" s="77" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="9" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="24" t="s">
@@ -5086,7 +5123,7 @@
         <v>28</v>
       </c>
       <c r="K9" s="77" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="L9" s="77"/>
     </row>
@@ -5096,7 +5133,7 @@
         <v>5C4-008</v>
       </c>
       <c r="B10" s="78" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C10" s="23" t="s">
         <v>28</v>
@@ -5123,10 +5160,10 @@
         <v>28</v>
       </c>
       <c r="K10" s="77" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="L10" s="77" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -5161,16 +5198,20 @@
       <c r="J11" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="K11" s="77"/>
-      <c r="L11" s="77"/>
+      <c r="K11" s="77" t="s">
+        <v>468</v>
+      </c>
+      <c r="L11" s="77" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="12" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="20" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1FrnQUGPHDhAq4DHWLuBTTfQpLNsdUckc","5C4-010")</f>
         <v>5C4-010</v>
       </c>
-      <c r="B12" s="147" t="s">
-        <v>376</v>
+      <c r="B12" s="131" t="s">
+        <v>375</v>
       </c>
       <c r="C12" s="23" t="s">
         <v>28</v>
@@ -5197,7 +5238,7 @@
         <v>28</v>
       </c>
       <c r="K12" s="77" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="L12" s="77"/>
     </row>
@@ -5234,10 +5275,10 @@
         <v>28</v>
       </c>
       <c r="K13" s="77" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="L13" s="77" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -5273,9 +5314,11 @@
         <v>175</v>
       </c>
       <c r="K14" s="103" t="s">
-        <v>433</v>
-      </c>
-      <c r="L14" s="77"/>
+        <v>469</v>
+      </c>
+      <c r="L14" s="77" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="15" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="20" t="str">
@@ -5310,9 +5353,11 @@
         <v>28</v>
       </c>
       <c r="K15" s="77" t="s">
-        <v>432</v>
-      </c>
-      <c r="L15" s="77"/>
+        <v>470</v>
+      </c>
+      <c r="L15" s="77" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="16" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="20" t="str">
@@ -5347,10 +5392,10 @@
         <v>28</v>
       </c>
       <c r="K16" s="77" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="L16" s="77" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -5385,8 +5430,12 @@
       <c r="J17" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="K17" s="77"/>
-      <c r="L17" s="77"/>
+      <c r="K17" s="77" t="s">
+        <v>471</v>
+      </c>
+      <c r="L17" s="77" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="18" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="27" t="s">
@@ -5420,7 +5469,7 @@
         <v>28</v>
       </c>
       <c r="K18" s="77" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="L18" s="77"/>
     </row>
@@ -5429,7 +5478,7 @@
         <f>HYPERLINK("https://drive.google.com/drive/folders/1wcHyiuVUbBeL9ODgyYP-lyy7yM1vMH3u","5C4-017")</f>
         <v>5C4-017</v>
       </c>
-      <c r="B19" s="147" t="s">
+      <c r="B19" s="131" t="s">
         <v>165</v>
       </c>
       <c r="C19" s="23" t="s">
@@ -5457,7 +5506,7 @@
         <v>28</v>
       </c>
       <c r="K19" s="77" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="L19" s="77"/>
     </row>
@@ -5493,9 +5542,11 @@
         <v>175</v>
       </c>
       <c r="K20" s="77" t="s">
-        <v>434</v>
-      </c>
-      <c r="L20" s="77"/>
+        <v>472</v>
+      </c>
+      <c r="L20" s="77" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="21" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="20" t="str">
@@ -5530,9 +5581,11 @@
         <v>175</v>
       </c>
       <c r="K21" s="77" t="s">
-        <v>460</v>
-      </c>
-      <c r="L21" s="77"/>
+        <v>473</v>
+      </c>
+      <c r="L21" s="77" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="22" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="20" t="str">
@@ -5567,9 +5620,11 @@
         <v>28</v>
       </c>
       <c r="K22" s="77" t="s">
-        <v>375</v>
-      </c>
-      <c r="L22" s="77"/>
+        <v>474</v>
+      </c>
+      <c r="L22" s="77" t="s">
+        <v>464</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5597,20 +5652,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="141" t="s">
         <v>161</v>
       </c>
-      <c r="B1" s="141"/>
-      <c r="C1" s="140" t="s">
+      <c r="B1" s="142"/>
+      <c r="C1" s="141" t="s">
         <v>366</v>
       </c>
-      <c r="D1" s="142"/>
-      <c r="E1" s="142"/>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
-      <c r="I1" s="142"/>
-      <c r="J1" s="141"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
+      <c r="G1" s="143"/>
+      <c r="H1" s="143"/>
+      <c r="I1" s="143"/>
+      <c r="J1" s="142"/>
     </row>
     <row r="2" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="71" t="s">
@@ -5642,10 +5697,10 @@
         <v>165</v>
       </c>
       <c r="C3" s="68" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="D3" s="66" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="E3" s="66"/>
       <c r="F3" s="66"/>
@@ -5662,10 +5717,10 @@
         <v>165</v>
       </c>
       <c r="C4" s="68" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D4" s="66" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E4" s="66"/>
       <c r="F4" s="66"/>
@@ -5682,10 +5737,10 @@
         <v>284</v>
       </c>
       <c r="C5" s="68" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D5" s="66" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E5" s="66"/>
       <c r="F5" s="66"/>
@@ -5736,10 +5791,10 @@
         <v>165</v>
       </c>
       <c r="C8" s="66" t="s">
+        <v>379</v>
+      </c>
+      <c r="D8" s="66" t="s">
         <v>380</v>
-      </c>
-      <c r="D8" s="66" t="s">
-        <v>381</v>
       </c>
       <c r="E8" s="66"/>
       <c r="F8" s="66"/>
@@ -5776,10 +5831,10 @@
         <v>171</v>
       </c>
       <c r="C10" s="66" t="s">
+        <v>377</v>
+      </c>
+      <c r="D10" s="73" t="s">
         <v>378</v>
-      </c>
-      <c r="D10" s="73" t="s">
-        <v>379</v>
       </c>
       <c r="E10" s="66"/>
       <c r="F10" s="66"/>
@@ -5796,10 +5851,10 @@
         <v>172</v>
       </c>
       <c r="C11" s="68" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D11" s="66" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E11" s="66"/>
       <c r="F11" s="66"/>
@@ -5816,10 +5871,10 @@
         <v>173</v>
       </c>
       <c r="C12" s="68" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D12" s="66" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E12" s="66"/>
       <c r="F12" s="66"/>
@@ -5872,10 +5927,10 @@
         <v>177</v>
       </c>
       <c r="C15" s="68" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D15" s="68" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E15" s="66"/>
       <c r="F15" s="66"/>
@@ -5892,10 +5947,10 @@
         <v>171</v>
       </c>
       <c r="C16" s="68" t="s">
+        <v>381</v>
+      </c>
+      <c r="D16" s="86" t="s">
         <v>382</v>
-      </c>
-      <c r="D16" s="86" t="s">
-        <v>383</v>
       </c>
       <c r="E16" s="66"/>
       <c r="F16" s="66"/>
@@ -5912,10 +5967,10 @@
         <v>171</v>
       </c>
       <c r="C17" s="68" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D17" s="68" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E17" s="66"/>
       <c r="F17" s="66"/>
@@ -5932,10 +5987,10 @@
         <v>171</v>
       </c>
       <c r="C18" s="68" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D18" s="66" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E18" s="66"/>
       <c r="F18" s="66"/>
@@ -7396,11 +7451,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="133" t="s">
-        <v>454</v>
-      </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
+      <c r="A1" s="134" t="s">
+        <v>448</v>
+      </c>
+      <c r="B1" s="144"/>
+      <c r="C1" s="144"/>
       <c r="D1" s="121"/>
       <c r="E1" s="121"/>
       <c r="F1" s="121"/>
@@ -7410,10 +7465,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="76" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="C2" s="76" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="D2" s="76"/>
       <c r="E2" s="76"/>
@@ -7425,10 +7480,10 @@
         <v>1A</v>
       </c>
       <c r="B3" s="124" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="C3" s="126" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="D3" s="76"/>
       <c r="E3" s="76"/>
@@ -7440,7 +7495,7 @@
         <v>1B</v>
       </c>
       <c r="B4" s="124" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="C4" s="126" t="s">
         <v>48</v>
@@ -7455,10 +7510,10 @@
         <v>1C</v>
       </c>
       <c r="B5" s="125" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="C5" s="126" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
@@ -7470,7 +7525,7 @@
         <v>1D</v>
       </c>
       <c r="B6" s="124" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="C6" s="126" t="s">
         <v>48</v>
@@ -7485,7 +7540,7 @@
         <v>1E</v>
       </c>
       <c r="B7" s="125" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="C7" s="127" t="s">
         <v>48</v>
@@ -7500,10 +7555,10 @@
         <v>1F</v>
       </c>
       <c r="B8" s="124" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="C8" s="126" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
@@ -7515,7 +7570,7 @@
         <v>1G</v>
       </c>
       <c r="B9" s="125" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="C9" s="127" t="s">
         <v>48</v>
@@ -7530,10 +7585,10 @@
         <v>1H</v>
       </c>
       <c r="B10" s="125" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="C10" s="126" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
@@ -7545,7 +7600,7 @@
         <v>1J</v>
       </c>
       <c r="B11" s="124" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="C11" s="126" t="s">
         <v>48</v>
@@ -7560,10 +7615,10 @@
         <v>1K</v>
       </c>
       <c r="B12" s="125" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="C12" s="126" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
@@ -7575,10 +7630,10 @@
         <v>2A</v>
       </c>
       <c r="B13" s="125" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="C13" s="126" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
@@ -7590,10 +7645,10 @@
         <v>2B</v>
       </c>
       <c r="B14" s="125" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="C14" s="126" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
@@ -7605,7 +7660,7 @@
         <v>2C</v>
       </c>
       <c r="B15" s="125" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="C15" s="126" t="s">
         <v>48</v>
@@ -7620,7 +7675,7 @@
         <v>2D</v>
       </c>
       <c r="B16" s="124" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="C16" s="126" t="s">
         <v>48</v>
@@ -7635,10 +7690,10 @@
         <v>2E</v>
       </c>
       <c r="B17" s="125" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="C17" s="126" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
@@ -7650,7 +7705,7 @@
         <v>2F</v>
       </c>
       <c r="B18" s="124" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="C18" s="126" t="s">
         <v>48</v>
@@ -7665,7 +7720,7 @@
         <v>2G</v>
       </c>
       <c r="B19" s="124" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="C19" s="126" t="s">
         <v>48</v>
@@ -7680,10 +7735,10 @@
         <v>2H</v>
       </c>
       <c r="B20" s="125" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="C20" s="126" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="D20" s="117"/>
       <c r="E20" s="9"/>
@@ -7695,10 +7750,10 @@
         <v>2J</v>
       </c>
       <c r="B21" s="125" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="C21" s="126" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="D21" s="87"/>
       <c r="E21" s="87"/>
@@ -7710,7 +7765,7 @@
         <v>2K</v>
       </c>
       <c r="B22" s="125" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="C22" s="126" t="s">
         <v>48</v>
@@ -7725,7 +7780,7 @@
         <v>2L</v>
       </c>
       <c r="B23" s="125" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="C23" s="126" t="s">
         <v>48</v>
@@ -7740,10 +7795,10 @@
         <v>2M</v>
       </c>
       <c r="B24" s="125" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="C24" s="126" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="D24" s="117"/>
       <c r="E24" s="87"/>
@@ -7755,10 +7810,10 @@
         <v>3C</v>
       </c>
       <c r="B25" s="125" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="C25" s="126" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="D25" s="117"/>
       <c r="E25" s="9"/>
@@ -7770,7 +7825,7 @@
         <v>3D</v>
       </c>
       <c r="B26" s="125" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="C26" s="127" t="s">
         <v>48</v>
@@ -7785,7 +7840,7 @@
         <v>3E</v>
       </c>
       <c r="B27" s="124" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="C27" s="126" t="s">
         <v>48</v>
@@ -7845,7 +7900,7 @@
         <v>3J</v>
       </c>
       <c r="B31" s="124" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="C31" s="126" t="s">
         <v>48</v>
@@ -7860,10 +7915,10 @@
         <v>3L</v>
       </c>
       <c r="B32" s="125" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="C32" s="126" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
@@ -7875,7 +7930,7 @@
         <v>4E</v>
       </c>
       <c r="B33" s="124" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="C33" s="126" t="s">
         <v>48</v>
@@ -7890,7 +7945,7 @@
         <v>4F</v>
       </c>
       <c r="B34" s="124" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="C34" s="126" t="s">
         <v>48</v>
@@ -7905,10 +7960,10 @@
         <v>4G</v>
       </c>
       <c r="B35" s="124" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="C35" s="126" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
@@ -7920,7 +7975,7 @@
         <v>4H</v>
       </c>
       <c r="B36" s="124" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="C36" s="126" t="s">
         <v>48</v>
@@ -7935,10 +7990,10 @@
         <v>4J</v>
       </c>
       <c r="B37" s="125" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="C37" s="126" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="D37" s="117"/>
       <c r="E37" s="9"/>
@@ -7950,7 +8005,7 @@
         <v>4K</v>
       </c>
       <c r="B38" s="124" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="C38" s="126" t="s">
         <v>48</v>
@@ -7965,7 +8020,7 @@
         <v>4L</v>
       </c>
       <c r="B39" s="124" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="C39" s="126" t="s">
         <v>48</v>
@@ -7980,7 +8035,7 @@
         <v>5B</v>
       </c>
       <c r="B40" s="125" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="C40" s="127" t="s">
         <v>48</v>
@@ -7995,10 +8050,10 @@
         <v>5C</v>
       </c>
       <c r="B41" s="124" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="C41" s="126" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
@@ -8010,7 +8065,7 @@
         <v>5E</v>
       </c>
       <c r="B42" s="124" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="C42" s="126" t="s">
         <v>48</v>
@@ -8025,7 +8080,7 @@
         <v>5G</v>
       </c>
       <c r="B43" s="124" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="C43" s="126" t="s">
         <v>48</v>
@@ -8040,7 +8095,7 @@
         <v>5H</v>
       </c>
       <c r="B44" s="124" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="C44" s="126" t="s">
         <v>48</v>
@@ -8078,33 +8133,33 @@
   <sheetData>
     <row r="1" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="95" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B1" s="96" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C1" s="96" t="s">
-        <v>427</v>
-      </c>
-      <c r="D1" s="146" t="s">
+        <v>425</v>
+      </c>
+      <c r="D1" s="145" t="s">
         <v>271</v>
       </c>
-      <c r="E1" s="146"/>
+      <c r="E1" s="145"/>
       <c r="F1" s="105" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="93" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="9"/>
-      <c r="D2" s="145"/>
-      <c r="E2" s="145"/>
+      <c r="D2" s="147"/>
+      <c r="E2" s="147"/>
       <c r="G2" s="99"/>
       <c r="H2" s="99"/>
       <c r="I2" s="99"/>
     </row>
     <row r="3" spans="1:9" s="93" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="94" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B3" s="100">
         <v>62</v>
@@ -8112,10 +8167,10 @@
       <c r="C3" s="100">
         <v>55</v>
       </c>
-      <c r="D3" s="144" t="s">
-        <v>429</v>
-      </c>
-      <c r="E3" s="145"/>
+      <c r="D3" s="146" t="s">
+        <v>427</v>
+      </c>
+      <c r="E3" s="147"/>
       <c r="F3" s="97" t="s">
         <v>261</v>
       </c>
@@ -8125,10 +8180,10 @@
     </row>
     <row r="4" spans="1:9" s="93" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="94" t="s">
-        <v>409</v>
-      </c>
-      <c r="D4" s="145"/>
-      <c r="E4" s="145"/>
+        <v>407</v>
+      </c>
+      <c r="D4" s="147"/>
+      <c r="E4" s="147"/>
       <c r="F4" s="98"/>
       <c r="G4" s="99"/>
       <c r="H4" s="102"/>
@@ -8136,7 +8191,7 @@
     </row>
     <row r="5" spans="1:9" s="93" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="94" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B5" s="100">
         <v>44</v>
@@ -8144,8 +8199,8 @@
       <c r="C5" s="100">
         <v>43</v>
       </c>
-      <c r="D5" s="145"/>
-      <c r="E5" s="145"/>
+      <c r="D5" s="147"/>
+      <c r="E5" s="147"/>
       <c r="F5" s="97" t="s">
         <v>261</v>
       </c>
@@ -8155,7 +8210,7 @@
     </row>
     <row r="6" spans="1:9" s="93" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="94" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B6" s="100">
         <v>47</v>
@@ -8163,10 +8218,10 @@
       <c r="C6" s="100">
         <v>52</v>
       </c>
-      <c r="D6" s="144" t="s">
-        <v>431</v>
-      </c>
-      <c r="E6" s="145"/>
+      <c r="D6" s="146" t="s">
+        <v>429</v>
+      </c>
+      <c r="E6" s="147"/>
       <c r="F6" s="97" t="s">
         <v>261</v>
       </c>
@@ -8176,7 +8231,7 @@
     </row>
     <row r="7" spans="1:9" s="93" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="94" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B7" s="100">
         <v>75</v>
@@ -8184,10 +8239,10 @@
       <c r="C7" s="100">
         <v>82</v>
       </c>
-      <c r="D7" s="144" t="s">
-        <v>431</v>
-      </c>
-      <c r="E7" s="145"/>
+      <c r="D7" s="146" t="s">
+        <v>429</v>
+      </c>
+      <c r="E7" s="147"/>
       <c r="F7" s="97" t="s">
         <v>261</v>
       </c>
@@ -8197,7 +8252,7 @@
     </row>
     <row r="8" spans="1:9" s="93" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="94" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B8" s="100">
         <v>85</v>
@@ -8205,10 +8260,10 @@
       <c r="C8" s="100">
         <v>99</v>
       </c>
-      <c r="D8" s="144" t="s">
-        <v>430</v>
-      </c>
-      <c r="E8" s="145"/>
+      <c r="D8" s="146" t="s">
+        <v>428</v>
+      </c>
+      <c r="E8" s="147"/>
       <c r="F8" s="98"/>
       <c r="G8" s="99"/>
       <c r="H8" s="102"/>
@@ -8216,7 +8271,7 @@
     </row>
     <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="94" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B9" s="100">
         <v>15</v>
@@ -8224,10 +8279,10 @@
       <c r="C9" s="100">
         <v>23</v>
       </c>
-      <c r="D9" s="144" t="s">
-        <v>429</v>
-      </c>
-      <c r="E9" s="145"/>
+      <c r="D9" s="146" t="s">
+        <v>427</v>
+      </c>
+      <c r="E9" s="147"/>
       <c r="F9" s="97" t="s">
         <v>261</v>
       </c>
@@ -8237,12 +8292,12 @@
     </row>
     <row r="10" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="94" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B10" s="101"/>
       <c r="C10" s="100"/>
-      <c r="D10" s="145"/>
-      <c r="E10" s="145"/>
+      <c r="D10" s="147"/>
+      <c r="E10" s="147"/>
       <c r="F10" s="98"/>
       <c r="G10" s="99"/>
       <c r="H10" s="102"/>
@@ -8250,12 +8305,12 @@
     </row>
     <row r="11" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="94" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B11" s="102"/>
       <c r="C11" s="100"/>
-      <c r="D11" s="145"/>
-      <c r="E11" s="145"/>
+      <c r="D11" s="147"/>
+      <c r="E11" s="147"/>
       <c r="F11" s="98"/>
       <c r="G11" s="99"/>
       <c r="H11" s="102"/>
@@ -8263,7 +8318,7 @@
     </row>
     <row r="12" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="94" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B12" s="102">
         <v>57</v>
@@ -8271,10 +8326,10 @@
       <c r="C12" s="100">
         <v>59</v>
       </c>
-      <c r="D12" s="144" t="s">
-        <v>429</v>
-      </c>
-      <c r="E12" s="145"/>
+      <c r="D12" s="146" t="s">
+        <v>427</v>
+      </c>
+      <c r="E12" s="147"/>
       <c r="F12" s="97" t="s">
         <v>261</v>
       </c>
@@ -8284,7 +8339,7 @@
     </row>
     <row r="13" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="94" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B13" s="102">
         <v>37</v>
@@ -8292,10 +8347,10 @@
       <c r="C13" s="100">
         <v>56</v>
       </c>
-      <c r="D13" s="144" t="s">
-        <v>431</v>
-      </c>
-      <c r="E13" s="145"/>
+      <c r="D13" s="146" t="s">
+        <v>429</v>
+      </c>
+      <c r="E13" s="147"/>
       <c r="F13" s="97" t="s">
         <v>261</v>
       </c>
@@ -8305,7 +8360,7 @@
     </row>
     <row r="14" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="94" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B14" s="102">
         <v>53</v>
@@ -8313,10 +8368,10 @@
       <c r="C14" s="100">
         <v>72</v>
       </c>
-      <c r="D14" s="144" t="s">
-        <v>431</v>
-      </c>
-      <c r="E14" s="145"/>
+      <c r="D14" s="146" t="s">
+        <v>429</v>
+      </c>
+      <c r="E14" s="147"/>
       <c r="F14" s="97" t="s">
         <v>261</v>
       </c>
@@ -8326,7 +8381,7 @@
     </row>
     <row r="15" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="94" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B15" s="102">
         <v>60</v>
@@ -8334,8 +8389,8 @@
       <c r="C15" s="100">
         <v>64</v>
       </c>
-      <c r="D15" s="145"/>
-      <c r="E15" s="145"/>
+      <c r="D15" s="147"/>
+      <c r="E15" s="147"/>
       <c r="F15" s="97" t="s">
         <v>261</v>
       </c>
@@ -8345,12 +8400,12 @@
     </row>
     <row r="16" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="94" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B16" s="100"/>
       <c r="C16" s="100"/>
-      <c r="D16" s="145"/>
-      <c r="E16" s="145"/>
+      <c r="D16" s="147"/>
+      <c r="E16" s="147"/>
       <c r="F16" s="98"/>
       <c r="G16" s="99"/>
       <c r="H16" s="102"/>
@@ -8358,7 +8413,7 @@
     </row>
     <row r="17" spans="1:9" s="93" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="94" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B17" s="100">
         <v>16</v>
@@ -8366,8 +8421,8 @@
       <c r="C17" s="100">
         <v>17</v>
       </c>
-      <c r="D17" s="145"/>
-      <c r="E17" s="145"/>
+      <c r="D17" s="147"/>
+      <c r="E17" s="147"/>
       <c r="F17" s="130" t="s">
         <v>261</v>
       </c>
@@ -8377,12 +8432,12 @@
     </row>
     <row r="18" spans="1:9" s="93" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="94" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B18" s="100"/>
       <c r="C18" s="100"/>
-      <c r="D18" s="145"/>
-      <c r="E18" s="145"/>
+      <c r="D18" s="147"/>
+      <c r="E18" s="147"/>
       <c r="F18" s="98"/>
       <c r="G18" s="99"/>
       <c r="H18" s="102"/>
@@ -8390,7 +8445,7 @@
     </row>
     <row r="19" spans="1:9" s="93" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="94" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B19" s="100">
         <v>18</v>
@@ -8398,10 +8453,10 @@
       <c r="C19" s="100">
         <v>40</v>
       </c>
-      <c r="D19" s="144" t="s">
-        <v>431</v>
-      </c>
-      <c r="E19" s="145"/>
+      <c r="D19" s="146" t="s">
+        <v>429</v>
+      </c>
+      <c r="E19" s="147"/>
       <c r="F19" s="97" t="s">
         <v>261</v>
       </c>
@@ -8411,7 +8466,7 @@
     </row>
     <row r="20" spans="1:9" s="93" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="94" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B20" s="100">
         <v>45</v>
@@ -8419,10 +8474,10 @@
       <c r="C20" s="100">
         <v>48</v>
       </c>
-      <c r="D20" s="144" t="s">
-        <v>431</v>
-      </c>
-      <c r="E20" s="145"/>
+      <c r="D20" s="146" t="s">
+        <v>429</v>
+      </c>
+      <c r="E20" s="147"/>
       <c r="F20" s="97" t="s">
         <v>261</v>
       </c>
@@ -8432,7 +8487,7 @@
     </row>
     <row r="21" spans="1:9" s="93" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="94" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B21" s="100">
         <v>83</v>
@@ -8440,12 +8495,12 @@
       <c r="C21" s="100">
         <v>84</v>
       </c>
-      <c r="D21" s="144" t="s">
-        <v>431</v>
-      </c>
-      <c r="E21" s="145"/>
+      <c r="D21" s="146" t="s">
+        <v>429</v>
+      </c>
+      <c r="E21" s="147"/>
       <c r="F21" s="97" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="G21" s="99"/>
       <c r="H21" s="102"/>
@@ -8556,10 +8611,10 @@
         <v>234</v>
       </c>
       <c r="B35" s="92" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="C35" s="92" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
     </row>
     <row r="36" spans="1:5" s="93" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8567,10 +8622,10 @@
         <v>234</v>
       </c>
       <c r="B36" s="92" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="C36" s="92" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
     </row>
     <row r="37" spans="1:5" s="93" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8580,24 +8635,24 @@
     </row>
     <row r="38" spans="1:5" s="93" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="92" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="B38" s="92" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="C38" s="92" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
     </row>
     <row r="39" spans="1:5" s="93" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="92" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="B39" s="92" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="C39" s="92" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
     </row>
     <row r="40" spans="1:5" s="129" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8607,24 +8662,24 @@
     </row>
     <row r="41" spans="1:5" s="129" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="128" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="B41" s="128" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="C41" s="128" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
     </row>
     <row r="42" spans="1:5" s="93" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="128" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="B42" s="128" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="C42" s="128" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="D42" s="129"/>
     </row>
@@ -8636,7 +8691,7 @@
     <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="14" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8655,10 +8710,10 @@
     </row>
     <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="111" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B48" s="110" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="C48" s="112"/>
       <c r="D48" s="106"/>
@@ -8666,10 +8721,10 @@
     </row>
     <row r="49" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="113" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B49" s="110" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="C49" s="110"/>
       <c r="D49" s="106"/>
@@ -8684,10 +8739,10 @@
     </row>
     <row r="51" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="111" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B51" s="110" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="C51" s="112"/>
       <c r="D51" s="106"/>
@@ -8695,10 +8750,10 @@
     </row>
     <row r="52" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="113" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B52" s="110" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="C52" s="110"/>
       <c r="D52" s="106"/>
@@ -8713,7 +8768,7 @@
     </row>
     <row r="54" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="111" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B54" s="110" t="s">
         <v>262</v>
@@ -8724,7 +8779,7 @@
     </row>
     <row r="55" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="111" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B55" s="110" t="s">
         <v>263</v>
@@ -8742,7 +8797,7 @@
     </row>
     <row r="57" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="108" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B57" s="107" t="s">
         <v>246</v>
@@ -8753,7 +8808,7 @@
     </row>
     <row r="58" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="108" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B58" s="107" t="s">
         <v>248</v>
@@ -8792,7 +8847,7 @@
     </row>
     <row r="63" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="108" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B63" s="107" t="s">
         <v>264</v>
@@ -8803,7 +8858,7 @@
     </row>
     <row r="64" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="108" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B64" s="107" t="s">
         <v>265</v>
@@ -9799,11 +9854,6 @@
     <row r="1023" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="D2:E2"/>
@@ -9820,6 +9870,11 @@
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Antonio-Feed/__FeedPartsInventory.xlsx
+++ b/Antonio-Feed/__FeedPartsInventory.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarah/Documents/GitHub/Front-Page/Antonio-Feed/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pollak/Documents/GitHub/Front-Page/Antonio-Feed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE65E61A-8EC1-374B-8803-F4E07E718F1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7F8EAC3-48D2-C54F-8084-FF01F9B6D07A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="460" windowWidth="35840" windowHeight="20400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="70120" yWindow="460" windowWidth="35840" windowHeight="19760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parts At ATA" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="475">
   <si>
     <t>Antenna Inventory</t>
   </si>
@@ -541,9 +541,6 @@
   </si>
   <si>
     <t>Feed Lab</t>
-  </si>
-  <si>
-    <t>In Progress</t>
   </si>
   <si>
     <t>2A</t>
@@ -842,12 +839,6 @@
     <t>sn0082A</t>
   </si>
   <si>
-    <t>sn0024A</t>
-  </si>
-  <si>
-    <t>sn0073A</t>
-  </si>
-  <si>
     <t>PAX Box Number</t>
   </si>
   <si>
@@ -1175,7 +1166,7 @@
     <t>X=0.09 Y=0.04 Z=0.16</t>
   </si>
   <si>
-    <t xml:space="preserve">Feed Lab </t>
+    <t>(---) 83 / 84</t>
   </si>
   <si>
     <t>X=0.05 Y=0.05 Z=0.12</t>
@@ -1253,6 +1244,9 @@
     <t>(014) 60 / 64</t>
   </si>
   <si>
+    <t>(---) 75 / 82</t>
+  </si>
+  <si>
     <t>CB-0022</t>
   </si>
   <si>
@@ -1340,6 +1334,18 @@
     <t>no number on pyramid</t>
   </si>
   <si>
+    <t>(---) 53 / 72</t>
+  </si>
+  <si>
+    <t>(---) 37 / 56</t>
+  </si>
+  <si>
+    <t>(---) 18 / 40</t>
+  </si>
+  <si>
+    <t>(---) 47 / 52</t>
+  </si>
+  <si>
     <t>Pyramid SN / LNAs</t>
   </si>
   <si>
@@ -1412,6 +1418,9 @@
     <t>YES</t>
   </si>
   <si>
+    <t>(---) 45 / 48</t>
+  </si>
+  <si>
     <t>CB-0050</t>
   </si>
   <si>
@@ -1436,43 +1445,34 @@
     <t>(010) 24 / 73</t>
   </si>
   <si>
-    <t>(001) --/--</t>
-  </si>
-  <si>
-    <t>(007) --/--</t>
-  </si>
-  <si>
-    <t>Pyramid not labeled</t>
-  </si>
-  <si>
-    <t>(003) --/--</t>
-  </si>
-  <si>
-    <t>(005) 47 / 52</t>
-  </si>
-  <si>
-    <t>(006) 75 / 82</t>
-  </si>
-  <si>
-    <t>(009) --/--</t>
-  </si>
-  <si>
-    <t>(012) 37 / 56</t>
-  </si>
-  <si>
-    <t>(013) 53 / 72</t>
-  </si>
-  <si>
-    <t>(015) --/--</t>
-  </si>
-  <si>
-    <t>(018) 18 / 40</t>
-  </si>
-  <si>
-    <t>(019) 45 / 48</t>
-  </si>
-  <si>
-    <t>(020) 83 / 84</t>
+    <t>(003) 12 / 39</t>
+  </si>
+  <si>
+    <t>X=0.11 Y=0.07 Z=0.11</t>
+  </si>
+  <si>
+    <t>X=0.22 Y=0.08 Z=0.18</t>
+  </si>
+  <si>
+    <t>X=0.12 Y=0.07 Z=0.22</t>
+  </si>
+  <si>
+    <t>X=0.11 Y=0.03 Z=0.09</t>
+  </si>
+  <si>
+    <t>(019) 34 / 46</t>
+  </si>
+  <si>
+    <t>1E</t>
+  </si>
+  <si>
+    <t>X=0.06Y=0.08 Z=0.14</t>
+  </si>
+  <si>
+    <t>(001) 50 / 71</t>
+  </si>
+  <si>
+    <t>(007) 41 / 99</t>
   </si>
 </sst>
 </file>
@@ -1676,12 +1676,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF00FF00"/>
         <bgColor rgb="FF00FF00"/>
       </patternFill>
@@ -1712,32 +1706,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor rgb="FFFF9900"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor rgb="FF00FF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -1754,8 +1724,38 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFF9900"/>
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor rgb="FF00FF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor rgb="FF00FF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor theme="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FF00FF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1986,7 +1986,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="149">
+  <cellXfs count="156">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2008,26 +2008,18 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2064,6 +2056,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -2073,19 +2074,10 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2119,19 +2111,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2182,25 +2170,19 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -2208,7 +2190,24 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2220,8 +2219,14 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2245,9 +2250,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2466,8 +2475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q1001"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2491,25 +2500,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="134" t="s">
+      <c r="A1" s="135" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="135"/>
-      <c r="C1" s="135"/>
-      <c r="D1" s="135"/>
-      <c r="E1" s="135"/>
-      <c r="F1" s="135"/>
-      <c r="G1" s="135"/>
-      <c r="H1" s="136"/>
-      <c r="I1" s="137"/>
-      <c r="J1" s="137"/>
-      <c r="K1" s="136"/>
-      <c r="L1" s="137"/>
-      <c r="M1" s="137"/>
-      <c r="N1" s="137"/>
-      <c r="O1" s="137"/>
-      <c r="P1" s="137"/>
-      <c r="Q1" s="137"/>
+      <c r="B1" s="136"/>
+      <c r="C1" s="136"/>
+      <c r="D1" s="136"/>
+      <c r="E1" s="136"/>
+      <c r="F1" s="136"/>
+      <c r="G1" s="136"/>
+      <c r="H1" s="137"/>
+      <c r="I1" s="138"/>
+      <c r="J1" s="138"/>
+      <c r="K1" s="137"/>
+      <c r="L1" s="138"/>
+      <c r="M1" s="138"/>
+      <c r="N1" s="138"/>
+      <c r="O1" s="138"/>
+      <c r="P1" s="138"/>
+      <c r="Q1" s="138"/>
     </row>
     <row r="2" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -2533,16 +2542,16 @@
       <c r="G2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="76"/>
-      <c r="M2" s="75"/>
-      <c r="N2" s="75"/>
-      <c r="O2" s="75"/>
-      <c r="P2" s="75"/>
-      <c r="Q2" s="75"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="71"/>
+      <c r="N2" s="71"/>
+      <c r="O2" s="71"/>
+      <c r="P2" s="71"/>
+      <c r="Q2" s="71"/>
     </row>
     <row r="3" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="str">
@@ -2564,16 +2573,16 @@
       <c r="F3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="74"/>
-      <c r="L3" s="74"/>
-      <c r="M3" s="74"/>
-      <c r="N3" s="74"/>
-      <c r="O3" s="74"/>
-      <c r="P3" s="74"/>
-      <c r="Q3" s="74"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="70"/>
+      <c r="N3" s="70"/>
+      <c r="O3" s="70"/>
+      <c r="P3" s="70"/>
+      <c r="Q3" s="70"/>
     </row>
     <row r="4" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="str">
@@ -2589,16 +2598,16 @@
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="74"/>
-      <c r="L4" s="74"/>
-      <c r="M4" s="74"/>
-      <c r="N4" s="74"/>
-      <c r="O4" s="74"/>
-      <c r="P4" s="74"/>
-      <c r="Q4" s="74"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="70"/>
+      <c r="L4" s="70"/>
+      <c r="M4" s="70"/>
+      <c r="N4" s="70"/>
+      <c r="O4" s="70"/>
+      <c r="P4" s="70"/>
+      <c r="Q4" s="70"/>
     </row>
     <row r="5" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="str">
@@ -2622,16 +2631,16 @@
         <v>27</v>
       </c>
       <c r="G5" s="9"/>
-      <c r="H5" s="74"/>
-      <c r="I5" s="74"/>
-      <c r="J5" s="74"/>
-      <c r="K5" s="74"/>
-      <c r="L5" s="74"/>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="74"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="70"/>
+      <c r="M5" s="70"/>
+      <c r="N5" s="70"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="70"/>
+      <c r="Q5" s="70"/>
     </row>
     <row r="6" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="str">
@@ -2644,19 +2653,19 @@
       <c r="C6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="87"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="87"/>
-      <c r="H6" s="74"/>
-      <c r="I6" s="74"/>
-      <c r="J6" s="74"/>
-      <c r="K6" s="74"/>
-      <c r="L6" s="74"/>
-      <c r="M6" s="74"/>
-      <c r="N6" s="74"/>
-      <c r="O6" s="74"/>
-      <c r="P6" s="74"/>
-      <c r="Q6" s="74"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="70"/>
+      <c r="J6" s="70"/>
+      <c r="K6" s="70"/>
+      <c r="L6" s="70"/>
+      <c r="M6" s="70"/>
+      <c r="N6" s="70"/>
+      <c r="O6" s="70"/>
+      <c r="P6" s="70"/>
+      <c r="Q6" s="70"/>
     </row>
     <row r="7" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="str">
@@ -2669,20 +2678,24 @@
       <c r="C7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="88"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="87"/>
+      <c r="D7" s="129" t="s">
+        <v>241</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="F7" s="80"/>
       <c r="G7" s="9"/>
-      <c r="H7" s="74"/>
-      <c r="I7" s="74"/>
-      <c r="J7" s="74"/>
-      <c r="K7" s="74"/>
-      <c r="L7" s="74"/>
-      <c r="M7" s="74"/>
-      <c r="N7" s="74"/>
-      <c r="O7" s="74"/>
-      <c r="P7" s="74"/>
-      <c r="Q7" s="74"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="70"/>
+      <c r="L7" s="70"/>
+      <c r="M7" s="70"/>
+      <c r="N7" s="70"/>
+      <c r="O7" s="70"/>
+      <c r="P7" s="70"/>
+      <c r="Q7" s="70"/>
     </row>
     <row r="8" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="str">
@@ -2704,16 +2717,16 @@
       <c r="F8" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="74"/>
-      <c r="I8" s="74"/>
-      <c r="J8" s="74"/>
-      <c r="K8" s="74"/>
-      <c r="L8" s="74"/>
-      <c r="M8" s="74"/>
-      <c r="N8" s="74"/>
-      <c r="O8" s="74"/>
-      <c r="P8" s="74"/>
-      <c r="Q8" s="74"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="70"/>
+      <c r="J8" s="70"/>
+      <c r="K8" s="70"/>
+      <c r="L8" s="70"/>
+      <c r="M8" s="70"/>
+      <c r="N8" s="70"/>
+      <c r="O8" s="70"/>
+      <c r="P8" s="70"/>
+      <c r="Q8" s="70"/>
     </row>
     <row r="9" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="str">
@@ -2726,20 +2739,24 @@
       <c r="C9" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="4"/>
+      <c r="D9" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>323</v>
+      </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
-      <c r="H9" s="74"/>
-      <c r="I9" s="74"/>
-      <c r="J9" s="74"/>
-      <c r="K9" s="74"/>
-      <c r="L9" s="74"/>
-      <c r="M9" s="74"/>
-      <c r="N9" s="74"/>
-      <c r="O9" s="74"/>
-      <c r="P9" s="74"/>
-      <c r="Q9" s="74"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="70"/>
+      <c r="K9" s="70"/>
+      <c r="L9" s="70"/>
+      <c r="M9" s="70"/>
+      <c r="N9" s="70"/>
+      <c r="O9" s="70"/>
+      <c r="P9" s="70"/>
+      <c r="Q9" s="70"/>
     </row>
     <row r="10" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="str">
@@ -2762,16 +2779,16 @@
       <c r="F10" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H10" s="74"/>
-      <c r="I10" s="74"/>
-      <c r="J10" s="74"/>
-      <c r="K10" s="74"/>
-      <c r="L10" s="74"/>
-      <c r="M10" s="74"/>
-      <c r="N10" s="74"/>
-      <c r="O10" s="74"/>
-      <c r="P10" s="74"/>
-      <c r="Q10" s="74"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="70"/>
+      <c r="K10" s="70"/>
+      <c r="L10" s="70"/>
+      <c r="M10" s="70"/>
+      <c r="N10" s="70"/>
+      <c r="O10" s="70"/>
+      <c r="P10" s="70"/>
+      <c r="Q10" s="70"/>
     </row>
     <row r="11" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="str">
@@ -2788,16 +2805,16 @@
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
-      <c r="H11" s="74"/>
-      <c r="I11" s="74"/>
-      <c r="J11" s="74"/>
-      <c r="K11" s="74"/>
-      <c r="L11" s="74"/>
-      <c r="M11" s="74"/>
-      <c r="N11" s="74"/>
-      <c r="O11" s="74"/>
-      <c r="P11" s="74"/>
-      <c r="Q11" s="74"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="70"/>
+      <c r="J11" s="70"/>
+      <c r="K11" s="70"/>
+      <c r="L11" s="70"/>
+      <c r="M11" s="70"/>
+      <c r="N11" s="70"/>
+      <c r="O11" s="70"/>
+      <c r="P11" s="70"/>
+      <c r="Q11" s="70"/>
     </row>
     <row r="12" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="str">
@@ -2820,16 +2837,16 @@
       <c r="F12" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="H12" s="74"/>
-      <c r="I12" s="74"/>
-      <c r="J12" s="74"/>
-      <c r="K12" s="74"/>
-      <c r="L12" s="74"/>
-      <c r="M12" s="74"/>
-      <c r="N12" s="74"/>
-      <c r="O12" s="74"/>
-      <c r="P12" s="74"/>
-      <c r="Q12" s="74"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="70"/>
+      <c r="J12" s="70"/>
+      <c r="K12" s="70"/>
+      <c r="L12" s="70"/>
+      <c r="M12" s="70"/>
+      <c r="N12" s="70"/>
+      <c r="O12" s="70"/>
+      <c r="P12" s="70"/>
+      <c r="Q12" s="70"/>
     </row>
     <row r="13" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="str">
@@ -2837,7 +2854,7 @@
         <v>2A</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>53</v>
@@ -2852,16 +2869,16 @@
       <c r="F13" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="H13" s="74"/>
-      <c r="I13" s="74"/>
-      <c r="J13" s="74"/>
-      <c r="K13" s="74"/>
-      <c r="L13" s="74"/>
-      <c r="M13" s="74"/>
-      <c r="N13" s="74"/>
-      <c r="O13" s="74"/>
-      <c r="P13" s="74"/>
-      <c r="Q13" s="74"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="70"/>
+      <c r="J13" s="70"/>
+      <c r="K13" s="70"/>
+      <c r="L13" s="70"/>
+      <c r="M13" s="70"/>
+      <c r="N13" s="70"/>
+      <c r="O13" s="70"/>
+      <c r="P13" s="70"/>
+      <c r="Q13" s="70"/>
     </row>
     <row r="14" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="str">
@@ -2884,16 +2901,17 @@
       <c r="F14" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="H14" s="74"/>
-      <c r="I14" s="74"/>
-      <c r="J14" s="74"/>
-      <c r="K14" s="74"/>
-      <c r="L14" s="74"/>
-      <c r="M14" s="74"/>
-      <c r="N14" s="74"/>
-      <c r="O14" s="74"/>
-      <c r="P14" s="74"/>
-      <c r="Q14" s="74"/>
+      <c r="G14" s="127"/>
+      <c r="H14" s="70"/>
+      <c r="I14" s="70"/>
+      <c r="J14" s="70"/>
+      <c r="K14" s="70"/>
+      <c r="L14" s="70"/>
+      <c r="M14" s="70"/>
+      <c r="N14" s="70"/>
+      <c r="O14" s="70"/>
+      <c r="P14" s="70"/>
+      <c r="Q14" s="70"/>
     </row>
     <row r="15" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="str">
@@ -2906,19 +2924,23 @@
       <c r="C15" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
+      <c r="D15" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="F15" s="4"/>
-      <c r="H15" s="74"/>
-      <c r="I15" s="74"/>
-      <c r="J15" s="74"/>
-      <c r="K15" s="74"/>
-      <c r="L15" s="74"/>
-      <c r="M15" s="74"/>
-      <c r="N15" s="74"/>
-      <c r="O15" s="74"/>
-      <c r="P15" s="74"/>
-      <c r="Q15" s="74"/>
+      <c r="H15" s="70"/>
+      <c r="I15" s="70"/>
+      <c r="J15" s="70"/>
+      <c r="K15" s="70"/>
+      <c r="L15" s="70"/>
+      <c r="M15" s="70"/>
+      <c r="N15" s="70"/>
+      <c r="O15" s="70"/>
+      <c r="P15" s="70"/>
+      <c r="Q15" s="70"/>
     </row>
     <row r="16" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="str">
@@ -2934,16 +2956,16 @@
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
-      <c r="H16" s="74"/>
-      <c r="I16" s="74"/>
-      <c r="J16" s="74"/>
-      <c r="K16" s="74"/>
-      <c r="L16" s="74"/>
-      <c r="M16" s="74"/>
-      <c r="N16" s="74"/>
-      <c r="O16" s="74"/>
-      <c r="P16" s="74"/>
-      <c r="Q16" s="74"/>
+      <c r="H16" s="70"/>
+      <c r="I16" s="70"/>
+      <c r="J16" s="70"/>
+      <c r="K16" s="70"/>
+      <c r="L16" s="70"/>
+      <c r="M16" s="70"/>
+      <c r="N16" s="70"/>
+      <c r="O16" s="70"/>
+      <c r="P16" s="70"/>
+      <c r="Q16" s="70"/>
     </row>
     <row r="17" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="str">
@@ -2957,7 +2979,7 @@
         <v>67</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>68</v>
@@ -2965,16 +2987,16 @@
       <c r="F17" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="H17" s="74"/>
-      <c r="I17" s="74"/>
-      <c r="J17" s="74"/>
-      <c r="K17" s="74"/>
-      <c r="L17" s="74"/>
-      <c r="M17" s="74"/>
-      <c r="N17" s="74"/>
-      <c r="O17" s="74"/>
-      <c r="P17" s="74"/>
-      <c r="Q17" s="74"/>
+      <c r="H17" s="70"/>
+      <c r="I17" s="70"/>
+      <c r="J17" s="70"/>
+      <c r="K17" s="70"/>
+      <c r="L17" s="70"/>
+      <c r="M17" s="70"/>
+      <c r="N17" s="70"/>
+      <c r="O17" s="70"/>
+      <c r="P17" s="70"/>
+      <c r="Q17" s="70"/>
     </row>
     <row r="18" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="str">
@@ -2990,16 +3012,16 @@
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
-      <c r="H18" s="74"/>
-      <c r="I18" s="74"/>
-      <c r="J18" s="74"/>
-      <c r="K18" s="74"/>
-      <c r="L18" s="74"/>
-      <c r="M18" s="74"/>
-      <c r="N18" s="74"/>
-      <c r="O18" s="74"/>
-      <c r="P18" s="74"/>
-      <c r="Q18" s="74"/>
+      <c r="H18" s="70"/>
+      <c r="I18" s="70"/>
+      <c r="J18" s="70"/>
+      <c r="K18" s="70"/>
+      <c r="L18" s="70"/>
+      <c r="M18" s="70"/>
+      <c r="N18" s="70"/>
+      <c r="O18" s="70"/>
+      <c r="P18" s="70"/>
+      <c r="Q18" s="70"/>
     </row>
     <row r="19" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="str">
@@ -3016,16 +3038,16 @@
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
-      <c r="H19" s="74"/>
-      <c r="I19" s="74"/>
-      <c r="J19" s="74"/>
-      <c r="K19" s="74"/>
-      <c r="L19" s="74"/>
-      <c r="M19" s="74"/>
-      <c r="N19" s="74"/>
-      <c r="O19" s="74"/>
-      <c r="P19" s="74"/>
-      <c r="Q19" s="74"/>
+      <c r="H19" s="70"/>
+      <c r="I19" s="70"/>
+      <c r="J19" s="70"/>
+      <c r="K19" s="70"/>
+      <c r="L19" s="70"/>
+      <c r="M19" s="70"/>
+      <c r="N19" s="70"/>
+      <c r="O19" s="70"/>
+      <c r="P19" s="70"/>
+      <c r="Q19" s="70"/>
     </row>
     <row r="20" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="str">
@@ -3033,13 +3055,13 @@
         <v>2H</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>76</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>77</v>
+        <v>240</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>78</v>
@@ -3047,16 +3069,16 @@
       <c r="F20" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="H20" s="74"/>
-      <c r="I20" s="74"/>
-      <c r="J20" s="74"/>
-      <c r="K20" s="74"/>
-      <c r="L20" s="74"/>
-      <c r="M20" s="74"/>
-      <c r="N20" s="74"/>
-      <c r="O20" s="74"/>
-      <c r="P20" s="74"/>
-      <c r="Q20" s="74"/>
+      <c r="H20" s="70"/>
+      <c r="I20" s="70"/>
+      <c r="J20" s="70"/>
+      <c r="K20" s="70"/>
+      <c r="L20" s="70"/>
+      <c r="M20" s="70"/>
+      <c r="N20" s="70"/>
+      <c r="O20" s="70"/>
+      <c r="P20" s="70"/>
+      <c r="Q20" s="70"/>
     </row>
     <row r="21" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="str">
@@ -3069,23 +3091,23 @@
       <c r="C21" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D21" s="91" t="s">
-        <v>360</v>
-      </c>
-      <c r="E21" s="87" t="s">
+      <c r="D21" s="83" t="s">
+        <v>357</v>
+      </c>
+      <c r="E21" s="80" t="s">
         <v>130</v>
       </c>
-      <c r="F21" s="87"/>
-      <c r="H21" s="74"/>
-      <c r="I21" s="74"/>
-      <c r="J21" s="74"/>
-      <c r="K21" s="74"/>
-      <c r="L21" s="74"/>
-      <c r="M21" s="74"/>
-      <c r="N21" s="74"/>
-      <c r="O21" s="74"/>
-      <c r="P21" s="74"/>
-      <c r="Q21" s="74"/>
+      <c r="F21" s="80"/>
+      <c r="H21" s="70"/>
+      <c r="I21" s="70"/>
+      <c r="J21" s="70"/>
+      <c r="K21" s="70"/>
+      <c r="L21" s="70"/>
+      <c r="M21" s="70"/>
+      <c r="N21" s="70"/>
+      <c r="O21" s="70"/>
+      <c r="P21" s="70"/>
+      <c r="Q21" s="70"/>
     </row>
     <row r="22" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="str">
@@ -3098,19 +3120,19 @@
       <c r="C22" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D22" s="87"/>
-      <c r="E22" s="87"/>
-      <c r="F22" s="87"/>
-      <c r="H22" s="74"/>
-      <c r="I22" s="74"/>
-      <c r="J22" s="74"/>
-      <c r="K22" s="74"/>
-      <c r="L22" s="74"/>
-      <c r="M22" s="74"/>
-      <c r="N22" s="74"/>
-      <c r="O22" s="74"/>
-      <c r="P22" s="74"/>
-      <c r="Q22" s="74"/>
+      <c r="D22" s="80"/>
+      <c r="E22" s="80"/>
+      <c r="F22" s="80"/>
+      <c r="H22" s="70"/>
+      <c r="I22" s="70"/>
+      <c r="J22" s="70"/>
+      <c r="K22" s="70"/>
+      <c r="L22" s="70"/>
+      <c r="M22" s="70"/>
+      <c r="N22" s="70"/>
+      <c r="O22" s="70"/>
+      <c r="P22" s="70"/>
+      <c r="Q22" s="70"/>
     </row>
     <row r="23" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="str">
@@ -3123,19 +3145,23 @@
       <c r="C23" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D23" s="87"/>
-      <c r="E23" s="87"/>
-      <c r="F23" s="87"/>
-      <c r="H23" s="74"/>
-      <c r="I23" s="74"/>
-      <c r="J23" s="74"/>
-      <c r="K23" s="74"/>
-      <c r="L23" s="74"/>
-      <c r="M23" s="74"/>
-      <c r="N23" s="74"/>
-      <c r="O23" s="74"/>
-      <c r="P23" s="74"/>
-      <c r="Q23" s="74"/>
+      <c r="D23" s="80" t="s">
+        <v>449</v>
+      </c>
+      <c r="E23" s="153" t="s">
+        <v>340</v>
+      </c>
+      <c r="F23" s="80"/>
+      <c r="H23" s="70"/>
+      <c r="I23" s="70"/>
+      <c r="J23" s="70"/>
+      <c r="K23" s="70"/>
+      <c r="L23" s="70"/>
+      <c r="M23" s="70"/>
+      <c r="N23" s="70"/>
+      <c r="O23" s="70"/>
+      <c r="P23" s="70"/>
+      <c r="Q23" s="70"/>
     </row>
     <row r="24" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="str">
@@ -3148,24 +3174,24 @@
       <c r="C24" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D24" s="91" t="s">
-        <v>357</v>
-      </c>
-      <c r="E24" s="90" t="s">
-        <v>304</v>
-      </c>
-      <c r="F24" s="87"/>
+      <c r="D24" s="83" t="s">
+        <v>354</v>
+      </c>
+      <c r="E24" s="82" t="s">
+        <v>301</v>
+      </c>
+      <c r="F24" s="80"/>
       <c r="G24" s="9"/>
-      <c r="H24" s="74"/>
-      <c r="I24" s="74"/>
-      <c r="J24" s="74"/>
-      <c r="K24" s="74"/>
-      <c r="L24" s="74"/>
-      <c r="M24" s="74"/>
-      <c r="N24" s="74"/>
-      <c r="O24" s="74"/>
-      <c r="P24" s="74"/>
-      <c r="Q24" s="74"/>
+      <c r="H24" s="70"/>
+      <c r="I24" s="70"/>
+      <c r="J24" s="70"/>
+      <c r="K24" s="70"/>
+      <c r="L24" s="70"/>
+      <c r="M24" s="70"/>
+      <c r="N24" s="70"/>
+      <c r="O24" s="70"/>
+      <c r="P24" s="70"/>
+      <c r="Q24" s="70"/>
     </row>
     <row r="25" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="str">
@@ -3178,7 +3204,7 @@
       <c r="C25" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D25" s="8" t="str">
+      <c r="D25" s="126" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1wMVARUxnYHeiTbbEodCmZFb_vx9FkRVr","5C4-020")</f>
         <v>5C4-020</v>
       </c>
@@ -3188,16 +3214,16 @@
       <c r="F25" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="H25" s="74"/>
-      <c r="I25" s="74"/>
-      <c r="J25" s="74"/>
-      <c r="K25" s="74"/>
-      <c r="L25" s="74"/>
-      <c r="M25" s="74"/>
-      <c r="N25" s="74"/>
-      <c r="O25" s="74"/>
-      <c r="P25" s="74"/>
-      <c r="Q25" s="74"/>
+      <c r="H25" s="70"/>
+      <c r="I25" s="70"/>
+      <c r="J25" s="70"/>
+      <c r="K25" s="70"/>
+      <c r="L25" s="70"/>
+      <c r="M25" s="70"/>
+      <c r="N25" s="70"/>
+      <c r="O25" s="70"/>
+      <c r="P25" s="70"/>
+      <c r="Q25" s="70"/>
     </row>
     <row r="26" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="str">
@@ -3210,20 +3236,24 @@
       <c r="C26" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D26" s="88"/>
-      <c r="E26" s="87"/>
-      <c r="F26" s="87"/>
+      <c r="D26" s="83" t="s">
+        <v>242</v>
+      </c>
+      <c r="E26" s="80" t="s">
+        <v>140</v>
+      </c>
+      <c r="F26" s="80"/>
       <c r="G26" s="9"/>
-      <c r="H26" s="74"/>
-      <c r="I26" s="74"/>
-      <c r="J26" s="74"/>
-      <c r="K26" s="74"/>
-      <c r="L26" s="74"/>
-      <c r="M26" s="74"/>
-      <c r="N26" s="74"/>
-      <c r="O26" s="74"/>
-      <c r="P26" s="74"/>
-      <c r="Q26" s="74"/>
+      <c r="H26" s="70"/>
+      <c r="I26" s="70"/>
+      <c r="J26" s="70"/>
+      <c r="K26" s="70"/>
+      <c r="L26" s="70"/>
+      <c r="M26" s="70"/>
+      <c r="N26" s="70"/>
+      <c r="O26" s="70"/>
+      <c r="P26" s="70"/>
+      <c r="Q26" s="70"/>
     </row>
     <row r="27" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="str">
@@ -3236,19 +3266,19 @@
       <c r="C27" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="D27" s="87"/>
-      <c r="E27" s="87"/>
-      <c r="F27" s="89"/>
-      <c r="H27" s="74"/>
-      <c r="I27" s="74"/>
-      <c r="J27" s="74"/>
-      <c r="K27" s="74"/>
-      <c r="L27" s="74"/>
-      <c r="M27" s="74"/>
-      <c r="N27" s="74"/>
-      <c r="O27" s="74"/>
-      <c r="P27" s="74"/>
-      <c r="Q27" s="74"/>
+      <c r="D27" s="80"/>
+      <c r="E27" s="80"/>
+      <c r="F27" s="81"/>
+      <c r="H27" s="70"/>
+      <c r="I27" s="70"/>
+      <c r="J27" s="70"/>
+      <c r="K27" s="70"/>
+      <c r="L27" s="70"/>
+      <c r="M27" s="70"/>
+      <c r="N27" s="70"/>
+      <c r="O27" s="70"/>
+      <c r="P27" s="70"/>
+      <c r="Q27" s="70"/>
     </row>
     <row r="28" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="str">
@@ -3271,16 +3301,16 @@
         <v>48</v>
       </c>
       <c r="G28" s="3"/>
-      <c r="H28" s="74"/>
-      <c r="I28" s="74"/>
-      <c r="J28" s="74"/>
-      <c r="K28" s="74"/>
-      <c r="L28" s="74"/>
-      <c r="M28" s="74"/>
-      <c r="N28" s="74"/>
-      <c r="O28" s="74"/>
-      <c r="P28" s="74"/>
-      <c r="Q28" s="74"/>
+      <c r="H28" s="70"/>
+      <c r="I28" s="70"/>
+      <c r="J28" s="70"/>
+      <c r="K28" s="70"/>
+      <c r="L28" s="70"/>
+      <c r="M28" s="70"/>
+      <c r="N28" s="70"/>
+      <c r="O28" s="70"/>
+      <c r="P28" s="70"/>
+      <c r="Q28" s="70"/>
     </row>
     <row r="29" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="str">
@@ -3303,16 +3333,16 @@
         <v>48</v>
       </c>
       <c r="G29" s="4"/>
-      <c r="H29" s="74"/>
-      <c r="I29" s="74"/>
-      <c r="J29" s="74"/>
-      <c r="K29" s="74"/>
-      <c r="L29" s="74"/>
-      <c r="M29" s="74"/>
-      <c r="N29" s="74"/>
-      <c r="O29" s="74"/>
-      <c r="P29" s="74"/>
-      <c r="Q29" s="74"/>
+      <c r="H29" s="70"/>
+      <c r="I29" s="70"/>
+      <c r="J29" s="70"/>
+      <c r="K29" s="70"/>
+      <c r="L29" s="70"/>
+      <c r="M29" s="70"/>
+      <c r="N29" s="70"/>
+      <c r="O29" s="70"/>
+      <c r="P29" s="70"/>
+      <c r="Q29" s="70"/>
     </row>
     <row r="30" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="str">
@@ -3335,16 +3365,16 @@
         <v>48</v>
       </c>
       <c r="G30" s="4"/>
-      <c r="H30" s="74"/>
-      <c r="I30" s="74"/>
-      <c r="J30" s="74"/>
-      <c r="K30" s="74"/>
-      <c r="L30" s="74"/>
-      <c r="M30" s="74"/>
-      <c r="N30" s="74"/>
-      <c r="O30" s="74"/>
-      <c r="P30" s="74"/>
-      <c r="Q30" s="74"/>
+      <c r="H30" s="70"/>
+      <c r="I30" s="70"/>
+      <c r="J30" s="70"/>
+      <c r="K30" s="70"/>
+      <c r="L30" s="70"/>
+      <c r="M30" s="70"/>
+      <c r="N30" s="70"/>
+      <c r="O30" s="70"/>
+      <c r="P30" s="70"/>
+      <c r="Q30" s="70"/>
     </row>
     <row r="31" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="str">
@@ -3360,16 +3390,16 @@
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
-      <c r="H31" s="74"/>
-      <c r="I31" s="74"/>
-      <c r="J31" s="74"/>
-      <c r="K31" s="74"/>
-      <c r="L31" s="74"/>
-      <c r="M31" s="74"/>
-      <c r="N31" s="74"/>
-      <c r="O31" s="74"/>
-      <c r="P31" s="74"/>
-      <c r="Q31" s="74"/>
+      <c r="H31" s="70"/>
+      <c r="I31" s="70"/>
+      <c r="J31" s="70"/>
+      <c r="K31" s="70"/>
+      <c r="L31" s="70"/>
+      <c r="M31" s="70"/>
+      <c r="N31" s="70"/>
+      <c r="O31" s="70"/>
+      <c r="P31" s="70"/>
+      <c r="Q31" s="70"/>
     </row>
     <row r="32" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="str">
@@ -3383,7 +3413,7 @@
         <v>105</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>142</v>
@@ -3391,16 +3421,16 @@
       <c r="F32" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="H32" s="74"/>
-      <c r="I32" s="74"/>
-      <c r="J32" s="74"/>
-      <c r="K32" s="74"/>
-      <c r="L32" s="74"/>
-      <c r="M32" s="74"/>
-      <c r="N32" s="74"/>
-      <c r="O32" s="74"/>
-      <c r="P32" s="74"/>
-      <c r="Q32" s="74"/>
+      <c r="H32" s="70"/>
+      <c r="I32" s="70"/>
+      <c r="J32" s="70"/>
+      <c r="K32" s="70"/>
+      <c r="L32" s="70"/>
+      <c r="M32" s="70"/>
+      <c r="N32" s="70"/>
+      <c r="O32" s="70"/>
+      <c r="P32" s="70"/>
+      <c r="Q32" s="70"/>
     </row>
     <row r="33" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="str">
@@ -3417,16 +3447,16 @@
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
-      <c r="H33" s="74"/>
-      <c r="I33" s="74"/>
-      <c r="J33" s="74"/>
-      <c r="K33" s="74"/>
-      <c r="L33" s="74"/>
-      <c r="M33" s="74"/>
-      <c r="N33" s="74"/>
-      <c r="O33" s="74"/>
-      <c r="P33" s="74"/>
-      <c r="Q33" s="74"/>
+      <c r="H33" s="70"/>
+      <c r="I33" s="70"/>
+      <c r="J33" s="70"/>
+      <c r="K33" s="70"/>
+      <c r="L33" s="70"/>
+      <c r="M33" s="70"/>
+      <c r="N33" s="70"/>
+      <c r="O33" s="70"/>
+      <c r="P33" s="70"/>
+      <c r="Q33" s="70"/>
     </row>
     <row r="34" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="str">
@@ -3443,16 +3473,16 @@
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
-      <c r="H34" s="74"/>
-      <c r="I34" s="74"/>
-      <c r="J34" s="74"/>
-      <c r="K34" s="74"/>
-      <c r="L34" s="74"/>
-      <c r="M34" s="74"/>
-      <c r="N34" s="74"/>
-      <c r="O34" s="74"/>
-      <c r="P34" s="74"/>
-      <c r="Q34" s="74"/>
+      <c r="H34" s="70"/>
+      <c r="I34" s="70"/>
+      <c r="J34" s="70"/>
+      <c r="K34" s="70"/>
+      <c r="L34" s="70"/>
+      <c r="M34" s="70"/>
+      <c r="N34" s="70"/>
+      <c r="O34" s="70"/>
+      <c r="P34" s="70"/>
+      <c r="Q34" s="70"/>
     </row>
     <row r="35" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="str">
@@ -3474,16 +3504,16 @@
       <c r="F35" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="H35" s="74"/>
-      <c r="I35" s="74"/>
-      <c r="J35" s="74"/>
-      <c r="K35" s="74"/>
-      <c r="L35" s="74"/>
-      <c r="M35" s="74"/>
-      <c r="N35" s="74"/>
-      <c r="O35" s="74"/>
-      <c r="P35" s="74"/>
-      <c r="Q35" s="74"/>
+      <c r="H35" s="70"/>
+      <c r="I35" s="70"/>
+      <c r="J35" s="70"/>
+      <c r="K35" s="70"/>
+      <c r="L35" s="70"/>
+      <c r="M35" s="70"/>
+      <c r="N35" s="70"/>
+      <c r="O35" s="70"/>
+      <c r="P35" s="70"/>
+      <c r="Q35" s="70"/>
     </row>
     <row r="36" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="str">
@@ -3500,16 +3530,16 @@
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
-      <c r="H36" s="74"/>
-      <c r="I36" s="74"/>
-      <c r="J36" s="74"/>
-      <c r="K36" s="74"/>
-      <c r="L36" s="74"/>
-      <c r="M36" s="74"/>
-      <c r="N36" s="74"/>
-      <c r="O36" s="74"/>
-      <c r="P36" s="74"/>
-      <c r="Q36" s="74"/>
+      <c r="H36" s="70"/>
+      <c r="I36" s="70"/>
+      <c r="J36" s="70"/>
+      <c r="K36" s="70"/>
+      <c r="L36" s="70"/>
+      <c r="M36" s="70"/>
+      <c r="N36" s="70"/>
+      <c r="O36" s="70"/>
+      <c r="P36" s="70"/>
+      <c r="Q36" s="70"/>
     </row>
     <row r="37" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="str">
@@ -3532,16 +3562,16 @@
       <c r="F37" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="H37" s="74"/>
-      <c r="I37" s="74"/>
-      <c r="J37" s="74"/>
-      <c r="K37" s="74"/>
-      <c r="L37" s="74"/>
-      <c r="M37" s="74"/>
-      <c r="N37" s="74"/>
-      <c r="O37" s="74"/>
-      <c r="P37" s="74"/>
-      <c r="Q37" s="74"/>
+      <c r="H37" s="70"/>
+      <c r="I37" s="70"/>
+      <c r="J37" s="70"/>
+      <c r="K37" s="70"/>
+      <c r="L37" s="70"/>
+      <c r="M37" s="70"/>
+      <c r="N37" s="70"/>
+      <c r="O37" s="70"/>
+      <c r="P37" s="70"/>
+      <c r="Q37" s="70"/>
     </row>
     <row r="38" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="str">
@@ -3557,16 +3587,16 @@
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
-      <c r="H38" s="74"/>
-      <c r="I38" s="74"/>
-      <c r="J38" s="74"/>
-      <c r="K38" s="74"/>
-      <c r="L38" s="74"/>
-      <c r="M38" s="74"/>
-      <c r="N38" s="74"/>
-      <c r="O38" s="74"/>
-      <c r="P38" s="74"/>
-      <c r="Q38" s="74"/>
+      <c r="H38" s="70"/>
+      <c r="I38" s="70"/>
+      <c r="J38" s="70"/>
+      <c r="K38" s="70"/>
+      <c r="L38" s="70"/>
+      <c r="M38" s="70"/>
+      <c r="N38" s="70"/>
+      <c r="O38" s="70"/>
+      <c r="P38" s="70"/>
+      <c r="Q38" s="70"/>
     </row>
     <row r="39" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="str">
@@ -3582,16 +3612,16 @@
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
-      <c r="H39" s="74"/>
-      <c r="I39" s="74"/>
-      <c r="J39" s="74"/>
-      <c r="K39" s="74"/>
-      <c r="L39" s="74"/>
-      <c r="M39" s="74"/>
-      <c r="N39" s="74"/>
-      <c r="O39" s="74"/>
-      <c r="P39" s="74"/>
-      <c r="Q39" s="74"/>
+      <c r="H39" s="70"/>
+      <c r="I39" s="70"/>
+      <c r="J39" s="70"/>
+      <c r="K39" s="70"/>
+      <c r="L39" s="70"/>
+      <c r="M39" s="70"/>
+      <c r="N39" s="70"/>
+      <c r="O39" s="70"/>
+      <c r="P39" s="70"/>
+      <c r="Q39" s="70"/>
     </row>
     <row r="40" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="str">
@@ -3605,22 +3635,22 @@
         <v>129</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>31</v>
       </c>
       <c r="F40" s="4"/>
-      <c r="H40" s="74"/>
-      <c r="I40" s="74"/>
-      <c r="J40" s="74"/>
-      <c r="K40" s="74"/>
-      <c r="L40" s="74"/>
-      <c r="M40" s="74"/>
-      <c r="N40" s="74"/>
-      <c r="O40" s="74"/>
-      <c r="P40" s="74"/>
-      <c r="Q40" s="74"/>
+      <c r="H40" s="70"/>
+      <c r="I40" s="70"/>
+      <c r="J40" s="70"/>
+      <c r="K40" s="70"/>
+      <c r="L40" s="70"/>
+      <c r="M40" s="70"/>
+      <c r="N40" s="70"/>
+      <c r="O40" s="70"/>
+      <c r="P40" s="70"/>
+      <c r="Q40" s="70"/>
     </row>
     <row r="41" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="str">
@@ -3642,16 +3672,16 @@
       <c r="F41" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="H41" s="74"/>
-      <c r="I41" s="74"/>
-      <c r="J41" s="74"/>
-      <c r="K41" s="74"/>
-      <c r="L41" s="74"/>
-      <c r="M41" s="74"/>
-      <c r="N41" s="74"/>
-      <c r="O41" s="74"/>
-      <c r="P41" s="74"/>
-      <c r="Q41" s="74"/>
+      <c r="H41" s="70"/>
+      <c r="I41" s="70"/>
+      <c r="J41" s="70"/>
+      <c r="K41" s="70"/>
+      <c r="L41" s="70"/>
+      <c r="M41" s="70"/>
+      <c r="N41" s="70"/>
+      <c r="O41" s="70"/>
+      <c r="P41" s="70"/>
+      <c r="Q41" s="70"/>
     </row>
     <row r="42" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="str">
@@ -3667,16 +3697,16 @@
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
-      <c r="H42" s="74"/>
-      <c r="I42" s="74"/>
-      <c r="J42" s="74"/>
-      <c r="K42" s="74"/>
-      <c r="L42" s="74"/>
-      <c r="M42" s="74"/>
-      <c r="N42" s="74"/>
-      <c r="O42" s="74"/>
-      <c r="P42" s="74"/>
-      <c r="Q42" s="74"/>
+      <c r="H42" s="70"/>
+      <c r="I42" s="70"/>
+      <c r="J42" s="70"/>
+      <c r="K42" s="70"/>
+      <c r="L42" s="70"/>
+      <c r="M42" s="70"/>
+      <c r="N42" s="70"/>
+      <c r="O42" s="70"/>
+      <c r="P42" s="70"/>
+      <c r="Q42" s="70"/>
     </row>
     <row r="43" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="str">
@@ -3692,16 +3722,16 @@
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
-      <c r="H43" s="74"/>
-      <c r="I43" s="74"/>
-      <c r="J43" s="74"/>
-      <c r="K43" s="74"/>
-      <c r="L43" s="74"/>
-      <c r="M43" s="74"/>
-      <c r="N43" s="74"/>
-      <c r="O43" s="74"/>
-      <c r="P43" s="74"/>
-      <c r="Q43" s="74"/>
+      <c r="H43" s="70"/>
+      <c r="I43" s="70"/>
+      <c r="J43" s="70"/>
+      <c r="K43" s="70"/>
+      <c r="L43" s="70"/>
+      <c r="M43" s="70"/>
+      <c r="N43" s="70"/>
+      <c r="O43" s="70"/>
+      <c r="P43" s="70"/>
+      <c r="Q43" s="70"/>
     </row>
     <row r="44" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="str">
@@ -3709,7 +3739,7 @@
         <v>5H</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>141</v>
@@ -3717,16 +3747,16 @@
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
-      <c r="H44" s="74"/>
-      <c r="I44" s="74"/>
-      <c r="J44" s="74"/>
-      <c r="K44" s="74"/>
-      <c r="L44" s="74"/>
-      <c r="M44" s="74"/>
-      <c r="N44" s="74"/>
-      <c r="O44" s="74"/>
-      <c r="P44" s="74"/>
-      <c r="Q44" s="74"/>
+      <c r="H44" s="70"/>
+      <c r="I44" s="70"/>
+      <c r="J44" s="70"/>
+      <c r="K44" s="70"/>
+      <c r="L44" s="70"/>
+      <c r="M44" s="70"/>
+      <c r="N44" s="70"/>
+      <c r="O44" s="70"/>
+      <c r="P44" s="70"/>
+      <c r="Q44" s="70"/>
     </row>
     <row r="45" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K45" s="5"/>
@@ -3807,38 +3837,38 @@
       <c r="A58" s="9"/>
     </row>
     <row r="59" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="138" t="s">
+      <c r="A59" s="139" t="s">
         <v>157</v>
       </c>
-      <c r="B59" s="133"/>
-      <c r="C59" s="133"/>
+      <c r="B59" s="134"/>
+      <c r="C59" s="134"/>
     </row>
     <row r="60" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="12"/>
     </row>
     <row r="61" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="132" t="s">
+      <c r="A61" s="133" t="s">
         <v>149</v>
       </c>
-      <c r="B61" s="133"/>
-      <c r="C61" s="132" t="s">
+      <c r="B61" s="134"/>
+      <c r="C61" s="133" t="s">
         <v>158</v>
       </c>
-      <c r="D61" s="133"/>
-      <c r="E61" s="133"/>
-      <c r="F61" s="133"/>
+      <c r="D61" s="134"/>
+      <c r="E61" s="134"/>
+      <c r="F61" s="134"/>
     </row>
     <row r="62" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="132" t="s">
+      <c r="A62" s="133" t="s">
         <v>159</v>
       </c>
-      <c r="B62" s="133"/>
-      <c r="C62" s="132" t="s">
+      <c r="B62" s="134"/>
+      <c r="C62" s="133" t="s">
         <v>160</v>
       </c>
-      <c r="D62" s="133"/>
-      <c r="E62" s="133"/>
-      <c r="F62" s="133"/>
+      <c r="D62" s="134"/>
+      <c r="E62" s="134"/>
+      <c r="F62" s="134"/>
     </row>
     <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="64" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4806,7 +4836,7 @@
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection sqref="A1:J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4819,812 +4849,796 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="134" t="s">
+      <c r="A1" s="140" t="s">
         <v>161</v>
       </c>
-      <c r="B1" s="139"/>
-      <c r="C1" s="140" t="s">
+      <c r="B1" s="141"/>
+      <c r="C1" s="142" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="136"/>
-      <c r="E1" s="136"/>
-      <c r="F1" s="136"/>
-      <c r="G1" s="136"/>
-      <c r="H1" s="136"/>
-      <c r="I1" s="136"/>
-      <c r="J1" s="136"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
+      <c r="G1" s="143"/>
+      <c r="H1" s="143"/>
+      <c r="I1" s="143"/>
+      <c r="J1" s="143"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
     </row>
     <row r="2" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="121" t="s">
         <v>162</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="121" t="s">
         <v>163</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="121" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="122" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="121" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="121" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="121" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="121" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="123" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="J2" s="123" t="s">
         <v>164</v>
       </c>
-      <c r="K2" s="17" t="s">
-        <v>430</v>
-      </c>
-      <c r="L2" s="17" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" s="118" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="24" t="s">
-        <v>447</v>
-      </c>
-      <c r="B3" s="85" t="s">
+      <c r="K2" s="15" t="s">
+        <v>432</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="110" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="21" t="s">
+        <v>449</v>
+      </c>
+      <c r="B3" s="155" t="s">
         <v>165</v>
       </c>
-      <c r="C3" s="119"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="120"/>
-      <c r="G3" s="120"/>
-      <c r="H3" s="120"/>
-      <c r="I3" s="120"/>
-      <c r="J3" s="120"/>
-      <c r="K3" s="148" t="s">
-        <v>462</v>
-      </c>
-      <c r="L3" s="77" t="s">
-        <v>464</v>
-      </c>
+      <c r="C3" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="73" t="s">
+        <v>473</v>
+      </c>
+      <c r="L3" s="73"/>
     </row>
     <row r="4" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="18" t="str">
+      <c r="A4" s="16" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1G8ecO5ODQmn8FX8jzQ962D928BpQ6iUm","5C4-002")</f>
         <v>5C4-002</v>
       </c>
-      <c r="B4" s="85" t="s">
-        <v>165</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>166</v>
-      </c>
-      <c r="D4" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" s="19" t="s">
-        <v>463</v>
-      </c>
-      <c r="L4" s="77" t="s">
-        <v>464</v>
-      </c>
+      <c r="B4" s="78" t="s">
+        <v>178</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="73" t="s">
+        <v>465</v>
+      </c>
+      <c r="L4" s="17"/>
     </row>
     <row r="5" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="20" t="str">
+      <c r="A5" s="18" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1X_yNido1T9NRAtsXoJ-h2bFXlpLfFW-N","5C4-003")</f>
         <v>5C4-003</v>
       </c>
-      <c r="B5" s="85" t="s">
-        <v>165</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>166</v>
-      </c>
-      <c r="D5" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="K5" s="19" t="s">
-        <v>465</v>
-      </c>
-      <c r="L5" s="77" t="s">
-        <v>464</v>
-      </c>
+      <c r="B5" s="78" t="s">
+        <v>334</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="73" t="s">
+        <v>474</v>
+      </c>
+      <c r="L5" s="73"/>
     </row>
     <row r="6" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="20" t="str">
+      <c r="A6" s="18" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1WeIiiMAp6TYYdsybsr5MvXeiX_cVX9j0","5C4-004")</f>
         <v>5C4-004</v>
       </c>
-      <c r="B6" s="78" t="s">
-        <v>284</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="J6" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="K6" s="77" t="s">
-        <v>432</v>
-      </c>
-      <c r="L6" s="77" t="s">
-        <v>398</v>
+      <c r="B6" s="74" t="s">
+        <v>281</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="73" t="s">
+        <v>434</v>
+      </c>
+      <c r="L6" s="73" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="20" t="str">
+      <c r="A7" s="18" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1rFsrgDjf_nAuKofi6JoxLvoaGo8A4adh","5C4-005")</f>
         <v>5C4-005</v>
       </c>
-      <c r="B7" s="22" t="s">
-        <v>167</v>
-      </c>
-      <c r="C7" s="29" t="s">
-        <v>175</v>
-      </c>
-      <c r="D7" s="29" t="s">
-        <v>175</v>
-      </c>
-      <c r="E7" s="29" t="s">
-        <v>175</v>
-      </c>
-      <c r="F7" s="29" t="s">
-        <v>175</v>
-      </c>
-      <c r="G7" s="29" t="s">
-        <v>175</v>
-      </c>
-      <c r="H7" s="29" t="s">
-        <v>175</v>
-      </c>
-      <c r="I7" s="29" t="s">
-        <v>175</v>
-      </c>
-      <c r="J7" s="29" t="s">
-        <v>175</v>
-      </c>
-      <c r="K7" s="103" t="s">
-        <v>466</v>
-      </c>
-      <c r="L7" s="77" t="s">
-        <v>464</v>
-      </c>
+      <c r="B7" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="G7" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="H7" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="I7" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="J7" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="K7" s="95" t="s">
+        <v>431</v>
+      </c>
+      <c r="L7" s="73"/>
     </row>
     <row r="8" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="20" t="str">
+      <c r="A8" s="18" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1vHgkPcaz684Ip98C0QpWVB-bTK7EvvdW","5C4-006")</f>
         <v>5C4-006</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" s="73" t="s">
+        <v>398</v>
+      </c>
+      <c r="L8" s="73"/>
+    </row>
+    <row r="9" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="C8" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="I8" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="J8" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="K8" s="77" t="s">
-        <v>467</v>
-      </c>
-      <c r="L8" s="77" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="24" t="s">
-        <v>169</v>
-      </c>
-      <c r="B9" s="84" t="s">
-        <v>292</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="I9" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="J9" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="K9" s="77" t="s">
-        <v>433</v>
-      </c>
-      <c r="L9" s="77"/>
+      <c r="B9" s="78" t="s">
+        <v>289</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="J9" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" s="73" t="s">
+        <v>435</v>
+      </c>
+      <c r="L9" s="73"/>
     </row>
     <row r="10" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="20" t="str">
+      <c r="A10" s="18" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1-3h2_HbCYYPIJxLORcasFd7NqbLvOw-C","5C4-008")</f>
         <v>5C4-008</v>
       </c>
-      <c r="B10" s="78" t="s">
-        <v>404</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="I10" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="J10" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="K10" s="77" t="s">
-        <v>403</v>
-      </c>
-      <c r="L10" s="77" t="s">
-        <v>398</v>
+      <c r="B10" s="74" t="s">
+        <v>402</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="J10" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10" s="73" t="s">
+        <v>401</v>
+      </c>
+      <c r="L10" s="73" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="20" t="str">
+      <c r="A11" s="18" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1EhIIjKRxAQ858Wo2OYQq3GdqbI2ok5Af","5C4-009")</f>
         <v>5C4-009</v>
       </c>
-      <c r="B11" s="83" t="s">
+      <c r="B11" s="132" t="s">
         <v>165</v>
       </c>
-      <c r="C11" s="21" t="s">
-        <v>166</v>
-      </c>
-      <c r="D11" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="H11" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="I11" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="J11" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="K11" s="77" t="s">
-        <v>468</v>
-      </c>
-      <c r="L11" s="77" t="s">
-        <v>464</v>
-      </c>
+      <c r="C11" s="73"/>
+      <c r="D11" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="73"/>
+      <c r="J11" s="73"/>
+      <c r="K11" s="73"/>
+      <c r="L11" s="73"/>
     </row>
     <row r="12" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="20" t="str">
+      <c r="A12" s="18" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1FrnQUGPHDhAq4DHWLuBTTfQpLNsdUckc","5C4-010")</f>
         <v>5C4-010</v>
       </c>
-      <c r="B12" s="131" t="s">
-        <v>375</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="H12" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="I12" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="J12" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="K12" s="77" t="s">
-        <v>461</v>
-      </c>
-      <c r="L12" s="77"/>
+      <c r="B12" s="74" t="s">
+        <v>277</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="J12" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12" s="73" t="s">
+        <v>464</v>
+      </c>
+      <c r="L12" s="73"/>
     </row>
     <row r="13" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="20" t="str">
+      <c r="A13" s="18" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1hJ1DyO35m4DO0phNhkoobK76R8Ql-DTn","5C4-011")</f>
         <v>5C4-011</v>
       </c>
-      <c r="B13" s="78" t="s">
-        <v>297</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="H13" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="I13" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="J13" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="K13" s="77" t="s">
-        <v>396</v>
-      </c>
-      <c r="L13" s="77" t="s">
-        <v>398</v>
+      <c r="B13" s="74" t="s">
+        <v>294</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="J13" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="K13" s="73" t="s">
+        <v>393</v>
+      </c>
+      <c r="L13" s="73" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="20" t="str">
+      <c r="A14" s="18" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1MyuBrs08Ryi2pvVUeI0hW4p24qsMsUL4","5C4-012")</f>
         <v>5C4-012</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="J14" s="124" t="s">
         <v>174</v>
       </c>
-      <c r="C14" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="G14" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="H14" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="I14" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="J14" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="K14" s="103" t="s">
-        <v>469</v>
-      </c>
-      <c r="L14" s="77" t="s">
-        <v>464</v>
-      </c>
+      <c r="K14" s="95" t="s">
+        <v>429</v>
+      </c>
+      <c r="L14" s="73"/>
     </row>
     <row r="15" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="20" t="str">
+      <c r="A15" s="18" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/19GonN6xbnfrGARLvh-LLFUsxF-EngP3u","5C4-013")</f>
         <v>5C4-013</v>
       </c>
-      <c r="B15" s="22" t="s">
-        <v>345</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="H15" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="I15" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="J15" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="K15" s="77" t="s">
-        <v>470</v>
-      </c>
-      <c r="L15" s="77" t="s">
-        <v>464</v>
-      </c>
+      <c r="B15" s="19" t="s">
+        <v>342</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="J15" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="K15" s="73" t="s">
+        <v>428</v>
+      </c>
+      <c r="L15" s="73"/>
     </row>
     <row r="16" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="20" t="str">
+      <c r="A16" s="18" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1LUZSYEAIfX8EFKKfjUSeyrC0JCfBfe8h","5C4-014")</f>
         <v>5C4-014</v>
       </c>
-      <c r="B16" s="22" t="s">
-        <v>328</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="F16" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="G16" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="H16" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="I16" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="J16" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="K16" s="77" t="s">
-        <v>400</v>
-      </c>
-      <c r="L16" s="77" t="s">
-        <v>399</v>
+      <c r="B16" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="J16" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="K16" s="73" t="s">
+        <v>397</v>
+      </c>
+      <c r="L16" s="73" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="20" t="str">
+      <c r="A17" s="18" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1GhnG5G_BN5lBSXzegcxU-3TuUUTEd6xm","5C4-015")</f>
         <v>5C4-015</v>
       </c>
-      <c r="B17" s="83" t="s">
-        <v>165</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>166</v>
-      </c>
-      <c r="D17" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="F17" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="G17" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="H17" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="I17" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="J17" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="K17" s="77" t="s">
+      <c r="B17" s="74" t="s">
         <v>471</v>
       </c>
-      <c r="L17" s="77" t="s">
-        <v>464</v>
-      </c>
+      <c r="C17" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="J17" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="K17" s="73" t="s">
+        <v>470</v>
+      </c>
+      <c r="L17" s="73"/>
     </row>
     <row r="18" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="27" t="s">
-        <v>178</v>
-      </c>
-      <c r="B18" s="78" t="s">
-        <v>352</v>
-      </c>
-      <c r="C18" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="E18" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="F18" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="G18" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="H18" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="I18" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="J18" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="K18" s="77" t="s">
-        <v>455</v>
-      </c>
-      <c r="L18" s="77"/>
+      <c r="A18" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="B18" s="74" t="s">
+        <v>349</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="H18" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="J18" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="K18" s="73" t="s">
+        <v>458</v>
+      </c>
+      <c r="L18" s="73"/>
     </row>
     <row r="19" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="20" t="str">
+      <c r="A19" s="18" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1wcHyiuVUbBeL9ODgyYP-lyy7yM1vMH3u","5C4-017")</f>
         <v>5C4-017</v>
       </c>
-      <c r="B19" s="131" t="s">
+      <c r="B19" s="74" t="s">
+        <v>274</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="H19" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="J19" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="K19" s="73" t="s">
+        <v>463</v>
+      </c>
+      <c r="L19" s="73"/>
+    </row>
+    <row r="20" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20" s="152" t="s">
         <v>165</v>
       </c>
-      <c r="C19" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="E19" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="F19" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="G19" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="H19" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="I19" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="J19" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="K19" s="77" t="s">
-        <v>460</v>
-      </c>
-      <c r="L19" s="77"/>
-    </row>
-    <row r="20" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="B20" s="22" t="s">
-        <v>179</v>
-      </c>
-      <c r="C20" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="E20" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="F20" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="G20" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="H20" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="I20" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="J20" s="29" t="s">
-        <v>175</v>
-      </c>
-      <c r="K20" s="77" t="s">
-        <v>472</v>
-      </c>
-      <c r="L20" s="77" t="s">
-        <v>464</v>
-      </c>
+      <c r="C20" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="H20" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I20" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="J20" s="151" t="s">
+        <v>174</v>
+      </c>
+      <c r="K20" s="73" t="s">
+        <v>430</v>
+      </c>
+      <c r="L20" s="73"/>
     </row>
     <row r="21" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="20" t="str">
+      <c r="A21" s="18" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1x-FjLa7p2gJDSbRaODzjs8ijaA9SGLtW","5C4-019")</f>
         <v>5C4-019</v>
       </c>
-      <c r="B21" s="22" t="s">
-        <v>180</v>
-      </c>
-      <c r="C21" s="29" t="s">
-        <v>175</v>
-      </c>
-      <c r="D21" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="E21" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="F21" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="G21" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="H21" s="29" t="s">
-        <v>175</v>
-      </c>
-      <c r="I21" s="29" t="s">
-        <v>175</v>
-      </c>
-      <c r="J21" s="29" t="s">
-        <v>175</v>
-      </c>
-      <c r="K21" s="77" t="s">
-        <v>473</v>
-      </c>
-      <c r="L21" s="77" t="s">
-        <v>464</v>
-      </c>
+      <c r="B21" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G21" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="H21" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="I21" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="J21" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="K21" s="73" t="s">
+        <v>456</v>
+      </c>
+      <c r="L21" s="73"/>
     </row>
     <row r="22" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="20" t="str">
+      <c r="A22" s="18" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1wMVARUxnYHeiTbbEodCmZFb_vx9FkRVr","5C4-020")</f>
         <v>5C4-020</v>
       </c>
-      <c r="B22" s="79" t="s">
-        <v>181</v>
-      </c>
-      <c r="C22" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="E22" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="F22" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="G22" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="H22" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="I22" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="J22" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="K22" s="77" t="s">
-        <v>474</v>
-      </c>
-      <c r="L22" s="77" t="s">
-        <v>464</v>
-      </c>
+      <c r="B22" s="154" t="s">
+        <v>180</v>
+      </c>
+      <c r="C22" s="130" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G22" s="131" t="s">
+        <v>28</v>
+      </c>
+      <c r="H22" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I22" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="J22" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="K22" s="73" t="s">
+        <v>372</v>
+      </c>
+      <c r="L22" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5639,10 +5653,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9CEE8EE-E616-9C40-8E50-615D9D9C3993}">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5652,400 +5666,426 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="141" t="s">
+      <c r="A1" s="144" t="s">
         <v>161</v>
       </c>
-      <c r="B1" s="142"/>
-      <c r="C1" s="141" t="s">
+      <c r="B1" s="145"/>
+      <c r="C1" s="144" t="s">
+        <v>363</v>
+      </c>
+      <c r="D1" s="146"/>
+      <c r="E1" s="146"/>
+      <c r="F1" s="146"/>
+      <c r="G1" s="146"/>
+      <c r="H1" s="146"/>
+      <c r="I1" s="146"/>
+      <c r="J1" s="145"/>
+    </row>
+    <row r="2" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="67" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" s="67" t="s">
+        <v>163</v>
+      </c>
+      <c r="C2" s="67" t="s">
+        <v>364</v>
+      </c>
+      <c r="D2" s="67" t="s">
+        <v>365</v>
+      </c>
+      <c r="E2" s="67" t="s">
         <v>366</v>
       </c>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
-      <c r="G1" s="143"/>
-      <c r="H1" s="143"/>
-      <c r="I1" s="143"/>
-      <c r="J1" s="142"/>
-    </row>
-    <row r="2" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
-        <v>162</v>
-      </c>
-      <c r="B2" s="71" t="s">
-        <v>163</v>
-      </c>
-      <c r="C2" s="71" t="s">
+      <c r="F2" s="67"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+    </row>
+    <row r="3" spans="1:10" s="128" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="54" t="s">
+        <v>449</v>
+      </c>
+      <c r="B3" s="55" t="s">
+        <v>165</v>
+      </c>
+      <c r="C3" s="64"/>
+      <c r="D3" s="62" t="s">
+        <v>472</v>
+      </c>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="54" t="s">
+        <v>240</v>
+      </c>
+      <c r="B4" s="55" t="s">
+        <v>165</v>
+      </c>
+      <c r="C4" s="64" t="s">
+        <v>462</v>
+      </c>
+      <c r="D4" s="62" t="s">
+        <v>461</v>
+      </c>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="54" t="s">
+        <v>350</v>
+      </c>
+      <c r="B5" s="55" t="s">
+        <v>165</v>
+      </c>
+      <c r="C5" s="64" t="s">
+        <v>390</v>
+      </c>
+      <c r="D5" s="62" t="s">
+        <v>373</v>
+      </c>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="62"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="54" t="s">
+        <v>351</v>
+      </c>
+      <c r="B6" s="75" t="s">
+        <v>281</v>
+      </c>
+      <c r="C6" s="64" t="s">
+        <v>389</v>
+      </c>
+      <c r="D6" s="62" t="s">
+        <v>384</v>
+      </c>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="62"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="54" t="s">
+        <v>352</v>
+      </c>
+      <c r="B7" s="56" t="s">
+        <v>166</v>
+      </c>
+      <c r="C7" s="66"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="62"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="54" t="s">
+        <v>353</v>
+      </c>
+      <c r="B8" s="56" t="s">
+        <v>167</v>
+      </c>
+      <c r="C8" s="64"/>
+      <c r="D8" s="62" t="s">
+        <v>369</v>
+      </c>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="62"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="57" t="s">
+        <v>168</v>
+      </c>
+      <c r="B9" s="55" t="s">
+        <v>165</v>
+      </c>
+      <c r="C9" s="62" t="s">
+        <v>376</v>
+      </c>
+      <c r="D9" s="62" t="s">
+        <v>377</v>
+      </c>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="63"/>
+      <c r="J9" s="64"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="54" t="s">
+        <v>354</v>
+      </c>
+      <c r="B10" s="55" t="s">
+        <v>169</v>
+      </c>
+      <c r="C10" s="62" t="s">
+        <v>370</v>
+      </c>
+      <c r="D10" s="69" t="s">
+        <v>371</v>
+      </c>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="65"/>
+      <c r="J10" s="62"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="54" t="s">
+        <v>355</v>
+      </c>
+      <c r="B11" s="58" t="s">
+        <v>170</v>
+      </c>
+      <c r="C11" s="62" t="s">
+        <v>374</v>
+      </c>
+      <c r="D11" s="69" t="s">
+        <v>375</v>
+      </c>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="62"/>
+      <c r="I11" s="62"/>
+      <c r="J11" s="62"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="54" t="s">
+        <v>356</v>
+      </c>
+      <c r="B12" s="55" t="s">
+        <v>171</v>
+      </c>
+      <c r="C12" s="64" t="s">
+        <v>388</v>
+      </c>
+      <c r="D12" s="62" t="s">
+        <v>383</v>
+      </c>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="62"/>
+      <c r="J12" s="62"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="54" t="s">
+        <v>357</v>
+      </c>
+      <c r="B13" s="55" t="s">
+        <v>172</v>
+      </c>
+      <c r="C13" s="64" t="s">
+        <v>387</v>
+      </c>
+      <c r="D13" s="62" t="s">
+        <v>382</v>
+      </c>
+      <c r="E13" s="62"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="62"/>
+      <c r="I13" s="62"/>
+      <c r="J13" s="62"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="54" t="s">
+        <v>358</v>
+      </c>
+      <c r="B14" s="56" t="s">
+        <v>173</v>
+      </c>
+      <c r="C14" s="66"/>
+      <c r="D14" s="62" t="s">
         <v>367</v>
       </c>
-      <c r="D2" s="71" t="s">
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="62"/>
+      <c r="J14" s="62"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="54" t="s">
+        <v>359</v>
+      </c>
+      <c r="B15" s="56" t="s">
+        <v>175</v>
+      </c>
+      <c r="C15" s="64"/>
+      <c r="D15" s="62" t="s">
         <v>368</v>
       </c>
-      <c r="E2" s="71" t="s">
-        <v>369</v>
-      </c>
-      <c r="F2" s="71"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="58" t="s">
+      <c r="E15" s="62"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="62"/>
+      <c r="I15" s="62"/>
+      <c r="J15" s="62"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="54" t="s">
+        <v>360</v>
+      </c>
+      <c r="B16" s="55" t="s">
+        <v>176</v>
+      </c>
+      <c r="C16" s="64" t="s">
+        <v>386</v>
+      </c>
+      <c r="D16" s="64" t="s">
+        <v>381</v>
+      </c>
+      <c r="E16" s="62"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="62"/>
+      <c r="I16" s="62"/>
+      <c r="J16" s="62"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="54" t="s">
         <v>241</v>
       </c>
-      <c r="B3" s="59" t="s">
+      <c r="B17" s="58" t="s">
+        <v>170</v>
+      </c>
+      <c r="C17" s="64" t="s">
+        <v>378</v>
+      </c>
+      <c r="D17" s="79" t="s">
+        <v>379</v>
+      </c>
+      <c r="E17" s="62"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="62"/>
+      <c r="J17" s="62"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="59" t="s">
+        <v>177</v>
+      </c>
+      <c r="B18" s="58" t="s">
+        <v>170</v>
+      </c>
+      <c r="C18" s="64" t="s">
+        <v>385</v>
+      </c>
+      <c r="D18" s="64" t="s">
+        <v>380</v>
+      </c>
+      <c r="E18" s="62"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="62"/>
+      <c r="J18" s="62"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="54" t="s">
+        <v>242</v>
+      </c>
+      <c r="B19" s="58" t="s">
+        <v>170</v>
+      </c>
+      <c r="C19" s="64" t="s">
+        <v>392</v>
+      </c>
+      <c r="D19" s="62" t="s">
+        <v>391</v>
+      </c>
+      <c r="E19" s="62"/>
+      <c r="F19" s="62"/>
+      <c r="G19" s="62"/>
+      <c r="H19" s="62"/>
+      <c r="I19" s="62"/>
+      <c r="J19" s="62"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="57" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20" s="125" t="s">
         <v>165</v>
       </c>
-      <c r="C3" s="68" t="s">
-        <v>459</v>
-      </c>
-      <c r="D3" s="66" t="s">
-        <v>458</v>
-      </c>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="58" t="s">
-        <v>353</v>
-      </c>
-      <c r="B4" s="59" t="s">
-        <v>165</v>
-      </c>
-      <c r="C4" s="68" t="s">
-        <v>393</v>
-      </c>
-      <c r="D4" s="66" t="s">
-        <v>376</v>
-      </c>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="58" t="s">
-        <v>354</v>
-      </c>
-      <c r="B5" s="80" t="s">
-        <v>284</v>
-      </c>
-      <c r="C5" s="68" t="s">
-        <v>392</v>
-      </c>
-      <c r="D5" s="66" t="s">
-        <v>387</v>
-      </c>
-      <c r="E5" s="66"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="66"/>
-      <c r="H5" s="66"/>
-      <c r="I5" s="66"/>
-      <c r="J5" s="66"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="58" t="s">
-        <v>355</v>
-      </c>
-      <c r="B6" s="60" t="s">
-        <v>167</v>
-      </c>
-      <c r="C6" s="70"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="66"/>
-      <c r="J6" s="66"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="58" t="s">
-        <v>356</v>
-      </c>
-      <c r="B7" s="60" t="s">
-        <v>168</v>
-      </c>
-      <c r="C7" s="68"/>
-      <c r="D7" s="66" t="s">
-        <v>372</v>
-      </c>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="66"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="61" t="s">
-        <v>169</v>
-      </c>
-      <c r="B8" s="59" t="s">
-        <v>165</v>
-      </c>
-      <c r="C8" s="66" t="s">
-        <v>379</v>
-      </c>
-      <c r="D8" s="66" t="s">
-        <v>380</v>
-      </c>
-      <c r="E8" s="66"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="67"/>
-      <c r="J8" s="68"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="58" t="s">
-        <v>357</v>
-      </c>
-      <c r="B9" s="59" t="s">
-        <v>170</v>
-      </c>
-      <c r="C9" s="66" t="s">
-        <v>373</v>
-      </c>
-      <c r="D9" s="73" t="s">
-        <v>374</v>
-      </c>
-      <c r="E9" s="66"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="69"/>
-      <c r="J9" s="66"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="58" t="s">
-        <v>358</v>
-      </c>
-      <c r="B10" s="62" t="s">
-        <v>171</v>
-      </c>
-      <c r="C10" s="66" t="s">
-        <v>377</v>
-      </c>
-      <c r="D10" s="73" t="s">
-        <v>378</v>
-      </c>
-      <c r="E10" s="66"/>
-      <c r="F10" s="66"/>
-      <c r="G10" s="66"/>
-      <c r="H10" s="66"/>
-      <c r="I10" s="66"/>
-      <c r="J10" s="66"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="58" t="s">
-        <v>359</v>
-      </c>
-      <c r="B11" s="59" t="s">
-        <v>172</v>
-      </c>
-      <c r="C11" s="68" t="s">
-        <v>391</v>
-      </c>
-      <c r="D11" s="66" t="s">
-        <v>386</v>
-      </c>
-      <c r="E11" s="66"/>
-      <c r="F11" s="66"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="66"/>
-      <c r="I11" s="66"/>
-      <c r="J11" s="66"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="58" t="s">
-        <v>360</v>
-      </c>
-      <c r="B12" s="59" t="s">
-        <v>173</v>
-      </c>
-      <c r="C12" s="68" t="s">
-        <v>390</v>
-      </c>
-      <c r="D12" s="66" t="s">
-        <v>385</v>
-      </c>
-      <c r="E12" s="66"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="66"/>
-      <c r="J12" s="66"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="58" t="s">
+      <c r="C20" s="66" t="s">
+        <v>467</v>
+      </c>
+      <c r="D20" s="62" t="s">
+        <v>466</v>
+      </c>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="62"/>
+      <c r="J20" s="62"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="54" t="s">
         <v>361</v>
       </c>
-      <c r="B13" s="60" t="s">
-        <v>174</v>
-      </c>
-      <c r="C13" s="70"/>
-      <c r="D13" s="66" t="s">
-        <v>370</v>
-      </c>
-      <c r="E13" s="66"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="66"/>
-      <c r="I13" s="66"/>
-      <c r="J13" s="66"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="58" t="s">
+      <c r="B21" s="56" t="s">
+        <v>179</v>
+      </c>
+      <c r="C21" s="66"/>
+      <c r="D21" s="62"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="62"/>
+      <c r="G21" s="62"/>
+      <c r="H21" s="62"/>
+      <c r="I21" s="62"/>
+      <c r="J21" s="62"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="54" t="s">
         <v>362</v>
       </c>
-      <c r="B14" s="60" t="s">
-        <v>176</v>
-      </c>
-      <c r="C14" s="68"/>
-      <c r="D14" s="66" t="s">
-        <v>371</v>
-      </c>
-      <c r="E14" s="66"/>
-      <c r="F14" s="66"/>
-      <c r="G14" s="66"/>
-      <c r="H14" s="66"/>
-      <c r="I14" s="66"/>
-      <c r="J14" s="66"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="58" t="s">
-        <v>363</v>
-      </c>
-      <c r="B15" s="59" t="s">
-        <v>177</v>
-      </c>
-      <c r="C15" s="68" t="s">
-        <v>389</v>
-      </c>
-      <c r="D15" s="68" t="s">
-        <v>384</v>
-      </c>
-      <c r="E15" s="66"/>
-      <c r="F15" s="66"/>
-      <c r="G15" s="66"/>
-      <c r="H15" s="66"/>
-      <c r="I15" s="66"/>
-      <c r="J15" s="66"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="58" t="s">
-        <v>242</v>
-      </c>
-      <c r="B16" s="62" t="s">
-        <v>171</v>
-      </c>
-      <c r="C16" s="68" t="s">
-        <v>381</v>
-      </c>
-      <c r="D16" s="86" t="s">
-        <v>382</v>
-      </c>
-      <c r="E16" s="66"/>
-      <c r="F16" s="66"/>
-      <c r="G16" s="66"/>
-      <c r="H16" s="66"/>
-      <c r="I16" s="66"/>
-      <c r="J16" s="66"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="63" t="s">
-        <v>178</v>
-      </c>
-      <c r="B17" s="62" t="s">
-        <v>171</v>
-      </c>
-      <c r="C17" s="68" t="s">
-        <v>388</v>
-      </c>
-      <c r="D17" s="68" t="s">
-        <v>383</v>
-      </c>
-      <c r="E17" s="66"/>
-      <c r="F17" s="66"/>
-      <c r="G17" s="66"/>
-      <c r="H17" s="66"/>
-      <c r="I17" s="66"/>
-      <c r="J17" s="66"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="58" t="s">
-        <v>243</v>
-      </c>
-      <c r="B18" s="62" t="s">
-        <v>171</v>
-      </c>
-      <c r="C18" s="68" t="s">
-        <v>395</v>
-      </c>
-      <c r="D18" s="66" t="s">
-        <v>394</v>
-      </c>
-      <c r="E18" s="66"/>
-      <c r="F18" s="66"/>
-      <c r="G18" s="66"/>
-      <c r="H18" s="66"/>
-      <c r="I18" s="66"/>
-      <c r="J18" s="66"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="61" t="s">
-        <v>77</v>
-      </c>
-      <c r="B19" s="60" t="s">
-        <v>179</v>
-      </c>
-      <c r="C19" s="70"/>
-      <c r="D19" s="66"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="66"/>
-      <c r="G19" s="66"/>
-      <c r="H19" s="66"/>
-      <c r="I19" s="66"/>
-      <c r="J19" s="66"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="58" t="s">
-        <v>364</v>
-      </c>
-      <c r="B20" s="60" t="s">
+      <c r="B22" s="76" t="s">
         <v>180</v>
       </c>
-      <c r="C20" s="70"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="66"/>
-      <c r="I20" s="66"/>
-      <c r="J20" s="66"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="58" t="s">
-        <v>365</v>
-      </c>
-      <c r="B21" s="81" t="s">
-        <v>181</v>
-      </c>
-      <c r="C21" s="70"/>
-      <c r="D21" s="66"/>
-      <c r="E21" s="66"/>
-      <c r="F21" s="66"/>
-      <c r="G21" s="66"/>
-      <c r="H21" s="66"/>
-      <c r="I21" s="66"/>
-      <c r="J21" s="66"/>
+      <c r="C22" s="66" t="s">
+        <v>468</v>
+      </c>
+      <c r="D22" s="66" t="s">
+        <v>469</v>
+      </c>
+      <c r="E22" s="62"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="62"/>
+      <c r="H22" s="62"/>
+      <c r="I22" s="62"/>
+      <c r="J22" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6053,22 +6093,23 @@
     <mergeCell ref="C1:J1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" display="https://drive.google.com/drive/folders/1G8ecO5ODQmn8FX8jzQ962D928BpQ6iUm" xr:uid="{AC099EE2-C40F-5F40-BFC4-D28CF0E212B9}"/>
-    <hyperlink ref="A4" r:id="rId2" display="https://drive.google.com/drive/folders/1X_yNido1T9NRAtsXoJ-h2bFXlpLfFW-N" xr:uid="{CB7AB86E-FFBE-7E4A-82E1-CC14BF759436}"/>
-    <hyperlink ref="A5" r:id="rId3" display="https://drive.google.com/drive/folders/1WeIiiMAp6TYYdsybsr5MvXeiX_cVX9j0" xr:uid="{642CC74B-31EB-9748-B04F-89D87D553A78}"/>
-    <hyperlink ref="A6" r:id="rId4" display="https://drive.google.com/drive/folders/1rFsrgDjf_nAuKofi6JoxLvoaGo8A4adh" xr:uid="{FA19B2EA-FC14-1447-9484-9265A6EF6E34}"/>
-    <hyperlink ref="A7" r:id="rId5" display="https://drive.google.com/drive/folders/1vHgkPcaz684Ip98C0QpWVB-bTK7EvvdW" xr:uid="{743D593C-B886-ED4A-8D82-2F0E9BAAB577}"/>
-    <hyperlink ref="A9" r:id="rId6" display="https://drive.google.com/drive/folders/1-3h2_HbCYYPIJxLORcasFd7NqbLvOw-C" xr:uid="{108EBF60-AB29-434D-B9C3-D4DF185E8276}"/>
-    <hyperlink ref="A10" r:id="rId7" display="https://drive.google.com/drive/folders/1EhIIjKRxAQ858Wo2OYQq3GdqbI2ok5Af" xr:uid="{6C139406-4D22-8A40-860A-1A248F5F836F}"/>
-    <hyperlink ref="A11" r:id="rId8" display="https://drive.google.com/drive/folders/1FrnQUGPHDhAq4DHWLuBTTfQpLNsdUckc" xr:uid="{31C0712B-F59D-CD4A-BF2B-A245136B70F0}"/>
-    <hyperlink ref="A12" r:id="rId9" display="https://drive.google.com/drive/folders/1hJ1DyO35m4DO0phNhkoobK76R8Ql-DTn" xr:uid="{C1708996-A2C1-3843-BF9B-A16A1B061E32}"/>
-    <hyperlink ref="A13" r:id="rId10" display="https://drive.google.com/drive/folders/1MyuBrs08Ryi2pvVUeI0hW4p24qsMsUL4" xr:uid="{D20F0DD2-BB68-7344-A1AA-3E6D1F52E396}"/>
-    <hyperlink ref="A14" r:id="rId11" display="https://drive.google.com/drive/folders/19GonN6xbnfrGARLvh-LLFUsxF-EngP3u" xr:uid="{82E08500-41FF-A146-AAE0-9299A05597D6}"/>
-    <hyperlink ref="A15" r:id="rId12" display="https://drive.google.com/drive/folders/1LUZSYEAIfX8EFKKfjUSeyrC0JCfBfe8h" xr:uid="{D60C6513-CFA6-0B49-9837-37AA9AB191B0}"/>
-    <hyperlink ref="A16" r:id="rId13" display="https://drive.google.com/drive/folders/1GhnG5G_BN5lBSXzegcxU-3TuUUTEd6xm" xr:uid="{5F5AAEB7-6B6C-7849-A9BE-EDE531593389}"/>
-    <hyperlink ref="A18" r:id="rId14" display="https://drive.google.com/drive/folders/1wcHyiuVUbBeL9ODgyYP-lyy7yM1vMH3u" xr:uid="{C6117B22-7B0A-4D4F-AED4-7357491A8078}"/>
-    <hyperlink ref="A20" r:id="rId15" display="https://drive.google.com/drive/folders/1x-FjLa7p2gJDSbRaODzjs8ijaA9SGLtW" xr:uid="{76539FEA-D20F-504F-803D-6634EE2BA126}"/>
-    <hyperlink ref="A21" r:id="rId16" display="https://drive.google.com/drive/folders/1wMVARUxnYHeiTbbEodCmZFb_vx9FkRVr" xr:uid="{4C921AD2-E69C-7C40-B1A1-DDA3F76C36D9}"/>
+    <hyperlink ref="A4" r:id="rId1" display="https://drive.google.com/drive/folders/1G8ecO5ODQmn8FX8jzQ962D928BpQ6iUm" xr:uid="{AC099EE2-C40F-5F40-BFC4-D28CF0E212B9}"/>
+    <hyperlink ref="A5" r:id="rId2" display="https://drive.google.com/drive/folders/1X_yNido1T9NRAtsXoJ-h2bFXlpLfFW-N" xr:uid="{CB7AB86E-FFBE-7E4A-82E1-CC14BF759436}"/>
+    <hyperlink ref="A6" r:id="rId3" display="https://drive.google.com/drive/folders/1WeIiiMAp6TYYdsybsr5MvXeiX_cVX9j0" xr:uid="{642CC74B-31EB-9748-B04F-89D87D553A78}"/>
+    <hyperlink ref="A7" r:id="rId4" display="https://drive.google.com/drive/folders/1rFsrgDjf_nAuKofi6JoxLvoaGo8A4adh" xr:uid="{FA19B2EA-FC14-1447-9484-9265A6EF6E34}"/>
+    <hyperlink ref="A8" r:id="rId5" display="https://drive.google.com/drive/folders/1vHgkPcaz684Ip98C0QpWVB-bTK7EvvdW" xr:uid="{743D593C-B886-ED4A-8D82-2F0E9BAAB577}"/>
+    <hyperlink ref="A10" r:id="rId6" display="https://drive.google.com/drive/folders/1-3h2_HbCYYPIJxLORcasFd7NqbLvOw-C" xr:uid="{108EBF60-AB29-434D-B9C3-D4DF185E8276}"/>
+    <hyperlink ref="A11" r:id="rId7" display="https://drive.google.com/drive/folders/1EhIIjKRxAQ858Wo2OYQq3GdqbI2ok5Af" xr:uid="{6C139406-4D22-8A40-860A-1A248F5F836F}"/>
+    <hyperlink ref="A12" r:id="rId8" display="https://drive.google.com/drive/folders/1FrnQUGPHDhAq4DHWLuBTTfQpLNsdUckc" xr:uid="{31C0712B-F59D-CD4A-BF2B-A245136B70F0}"/>
+    <hyperlink ref="A13" r:id="rId9" display="https://drive.google.com/drive/folders/1hJ1DyO35m4DO0phNhkoobK76R8Ql-DTn" xr:uid="{C1708996-A2C1-3843-BF9B-A16A1B061E32}"/>
+    <hyperlink ref="A14" r:id="rId10" display="https://drive.google.com/drive/folders/1MyuBrs08Ryi2pvVUeI0hW4p24qsMsUL4" xr:uid="{D20F0DD2-BB68-7344-A1AA-3E6D1F52E396}"/>
+    <hyperlink ref="A15" r:id="rId11" display="https://drive.google.com/drive/folders/19GonN6xbnfrGARLvh-LLFUsxF-EngP3u" xr:uid="{82E08500-41FF-A146-AAE0-9299A05597D6}"/>
+    <hyperlink ref="A16" r:id="rId12" display="https://drive.google.com/drive/folders/1LUZSYEAIfX8EFKKfjUSeyrC0JCfBfe8h" xr:uid="{D60C6513-CFA6-0B49-9837-37AA9AB191B0}"/>
+    <hyperlink ref="A17" r:id="rId13" display="https://drive.google.com/drive/folders/1GhnG5G_BN5lBSXzegcxU-3TuUUTEd6xm" xr:uid="{5F5AAEB7-6B6C-7849-A9BE-EDE531593389}"/>
+    <hyperlink ref="A19" r:id="rId14" display="https://drive.google.com/drive/folders/1wcHyiuVUbBeL9ODgyYP-lyy7yM1vMH3u" xr:uid="{C6117B22-7B0A-4D4F-AED4-7357491A8078}"/>
+    <hyperlink ref="A21" r:id="rId15" display="https://drive.google.com/drive/folders/1x-FjLa7p2gJDSbRaODzjs8ijaA9SGLtW" xr:uid="{76539FEA-D20F-504F-803D-6634EE2BA126}"/>
+    <hyperlink ref="A22" r:id="rId16" display="https://drive.google.com/drive/folders/1wMVARUxnYHeiTbbEodCmZFb_vx9FkRVr" xr:uid="{4C921AD2-E69C-7C40-B1A1-DDA3F76C36D9}"/>
+    <hyperlink ref="A3" r:id="rId17" display="https://drive.google.com/drive/folders/1G8ecO5ODQmn8FX8jzQ962D928BpQ6iUm" xr:uid="{7834EE57-2441-7D43-80AF-2833C3E54227}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -6096,368 +6137,368 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="B1" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="C1" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="D1" s="26" t="s">
         <v>184</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="E1" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="E1" s="9" t="s">
+    </row>
+    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="27" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="31" t="s">
+      <c r="B2" s="27" t="s">
         <v>187</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="9" t="s">
+    </row>
+    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="B3" s="28" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="32" t="s">
-        <v>110</v>
-      </c>
-      <c r="B3" s="32" t="s">
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="30" t="s">
         <v>190</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="34" t="s">
+    </row>
+    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="28" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="32" t="s">
+      <c r="B4" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="30" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="30" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="31" t="s">
         <v>192</v>
       </c>
-      <c r="B4" s="32" t="s">
-        <v>190</v>
-      </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="34" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="32" t="s">
-        <v>190</v>
-      </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="34" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="35" t="s">
+      <c r="B6" s="31" t="s">
         <v>193</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="32"/>
+    </row>
+    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="31" t="s">
         <v>194</v>
       </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="36"/>
-    </row>
-    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="35" t="s">
+      <c r="B7" s="31" t="s">
         <v>195</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="32"/>
+    </row>
+    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="31" t="s">
         <v>196</v>
       </c>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="36"/>
-    </row>
-    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="35" t="s">
+      <c r="B8" s="31" t="s">
         <v>197</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="32"/>
+    </row>
+    <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="27"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="32"/>
+    </row>
+    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="29" t="s">
         <v>198</v>
       </c>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="36"/>
-    </row>
-    <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="31"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="36"/>
-    </row>
-    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="33" t="s">
+      <c r="B10" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="C10" s="29" t="s">
         <v>199</v>
       </c>
-      <c r="B10" s="32" t="s">
-        <v>190</v>
-      </c>
-      <c r="C10" s="33" t="s">
+      <c r="D10" s="29" t="s">
         <v>200</v>
       </c>
-      <c r="D10" s="33" t="s">
+      <c r="E10" s="33"/>
+    </row>
+    <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="C11" s="29" t="s">
         <v>201</v>
       </c>
-      <c r="E10" s="37"/>
-    </row>
-    <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="B11" s="32" t="s">
-        <v>190</v>
-      </c>
-      <c r="C11" s="33" t="s">
+      <c r="D11" s="29" t="s">
         <v>202</v>
       </c>
-      <c r="D11" s="33" t="s">
+      <c r="E11" s="34" t="s">
         <v>203</v>
       </c>
-      <c r="E11" s="38" t="s">
+    </row>
+    <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="29" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="33" t="s">
+      <c r="B12" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>199</v>
+      </c>
+      <c r="D12" s="29" t="s">
         <v>205</v>
       </c>
-      <c r="B12" s="32" t="s">
-        <v>190</v>
-      </c>
-      <c r="C12" s="33" t="s">
+      <c r="E12" s="34" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>208</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="27" t="s">
+        <v>210</v>
+      </c>
+      <c r="B14" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>212</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="E14" s="32" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="29" t="s">
+        <v>215</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>199</v>
+      </c>
+      <c r="D15" s="29" t="s">
         <v>200</v>
       </c>
-      <c r="D12" s="33" t="s">
-        <v>206</v>
-      </c>
-      <c r="E12" s="38" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="33" t="s">
-        <v>208</v>
-      </c>
-      <c r="B13" s="32" t="s">
-        <v>190</v>
-      </c>
-      <c r="C13" s="33" t="s">
-        <v>209</v>
-      </c>
-      <c r="D13" s="33" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="31" t="s">
-        <v>211</v>
-      </c>
-      <c r="B14" s="35" t="s">
-        <v>212</v>
-      </c>
-      <c r="C14" s="31" t="s">
-        <v>213</v>
-      </c>
-      <c r="D14" s="31" t="s">
-        <v>214</v>
-      </c>
-      <c r="E14" s="36" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="33" t="s">
+      <c r="E15" s="33"/>
+    </row>
+    <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="29" t="s">
         <v>216</v>
       </c>
-      <c r="B15" s="32" t="s">
-        <v>190</v>
-      </c>
-      <c r="C15" s="33" t="s">
-        <v>200</v>
-      </c>
-      <c r="D15" s="33" t="s">
-        <v>201</v>
-      </c>
-      <c r="E15" s="37"/>
-    </row>
-    <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="33" t="s">
+      <c r="B16" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="C16" s="29" t="s">
         <v>217</v>
       </c>
-      <c r="B16" s="32" t="s">
-        <v>190</v>
-      </c>
-      <c r="C16" s="33" t="s">
+      <c r="D16" s="29" t="s">
         <v>218</v>
       </c>
-      <c r="D16" s="33" t="s">
+      <c r="E16" s="35" t="s">
         <v>219</v>
       </c>
-      <c r="E16" s="39" t="s">
+    </row>
+    <row r="17" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="B17" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="C17" s="36" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="33" t="s">
-        <v>199</v>
-      </c>
-      <c r="B17" s="32" t="s">
-        <v>190</v>
-      </c>
-      <c r="C17" s="40" t="s">
+      <c r="D17" s="29" t="s">
         <v>221</v>
       </c>
-      <c r="D17" s="33" t="s">
+      <c r="E17" s="37" t="s">
         <v>222</v>
       </c>
-      <c r="E17" s="41" t="s">
+    </row>
+    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="28" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="32" t="s">
+      <c r="B18" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="C18" s="38"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="39"/>
+    </row>
+    <row r="19" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" s="40" t="s">
+        <v>189</v>
+      </c>
+      <c r="C19" s="41" t="s">
         <v>224</v>
       </c>
-      <c r="B18" s="32" t="s">
-        <v>190</v>
-      </c>
-      <c r="C18" s="42"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="43"/>
-    </row>
-    <row r="19" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="B19" s="44" t="s">
-        <v>190</v>
-      </c>
-      <c r="C19" s="45" t="s">
+      <c r="D19" s="28" t="s">
         <v>225</v>
       </c>
-      <c r="D19" s="32" t="s">
+      <c r="E19" s="42" t="s">
         <v>226</v>
       </c>
-      <c r="E19" s="46" t="s">
+    </row>
+    <row r="20" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="27"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="39"/>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="44" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="31"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="43"/>
-    </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="48" t="s">
+      <c r="B21" s="31" t="s">
         <v>228</v>
       </c>
-      <c r="B21" s="35" t="s">
+    </row>
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="44" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="48" t="s">
+      <c r="B22" s="31" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="45"/>
+      <c r="B23" s="28"/>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="45" t="s">
         <v>230</v>
       </c>
-      <c r="B22" s="35" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="49"/>
-      <c r="B23" s="32"/>
-    </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="49" t="s">
+      <c r="B24" s="28" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="34" t="s">
         <v>231</v>
       </c>
-      <c r="B24" s="32" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="38" t="s">
+      <c r="B25" s="28" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="32" t="s">
         <v>232</v>
       </c>
-      <c r="B25" s="32" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="36" t="s">
+      <c r="B26" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="B26" s="3" t="s">
+    </row>
+    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="32" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="36" t="s">
+      <c r="B27" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="32" t="s">
         <v>235</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="36" t="s">
+      <c r="B28" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="32" t="s">
         <v>236</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="36" t="s">
+      <c r="B29" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="32" t="s">
         <v>237</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="36" t="s">
+      <c r="B30" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="32" t="s">
         <v>238</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="36" t="s">
+      <c r="B31" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="32" t="s">
         <v>239</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="36" t="s">
-        <v>240</v>
-      </c>
       <c r="B32" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7451,128 +7492,128 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="134" t="s">
-        <v>448</v>
-      </c>
-      <c r="B1" s="144"/>
-      <c r="C1" s="144"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
+      <c r="A1" s="135" t="s">
+        <v>450</v>
+      </c>
+      <c r="B1" s="147"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="76" t="s">
-        <v>450</v>
-      </c>
-      <c r="C2" s="76" t="s">
-        <v>449</v>
-      </c>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
+      <c r="B2" s="72" t="s">
+        <v>452</v>
+      </c>
+      <c r="C2" s="72" t="s">
+        <v>451</v>
+      </c>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="122" t="str">
+      <c r="A3" s="112" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1h79fqthLoRJDjhC2klnjbkG8MB2JL2Hy","1A")</f>
         <v>1A</v>
       </c>
-      <c r="B3" s="124" t="s">
-        <v>451</v>
-      </c>
-      <c r="C3" s="126" t="s">
+      <c r="B3" s="114" t="s">
         <v>453</v>
       </c>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="99"/>
+      <c r="C3" s="116" t="s">
+        <v>455</v>
+      </c>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="91"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="122" t="str">
+      <c r="A4" s="112" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1OPl2VmHH1ZeMZjQWNCCkQkA6bOfyIeqj","1B")</f>
         <v>1B</v>
       </c>
-      <c r="B4" s="124" t="s">
-        <v>451</v>
-      </c>
-      <c r="C4" s="126" t="s">
+      <c r="B4" s="114" t="s">
+        <v>453</v>
+      </c>
+      <c r="C4" s="116" t="s">
         <v>48</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
-      <c r="F4" s="118"/>
+      <c r="F4" s="110"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="123" t="str">
+      <c r="A5" s="113" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1_67Lwh4ATjaUkKTpdhqNA2vhhSxMhfoh","1C")</f>
         <v>1C</v>
       </c>
-      <c r="B5" s="125" t="s">
-        <v>452</v>
-      </c>
-      <c r="C5" s="126" t="s">
-        <v>453</v>
+      <c r="B5" s="115" t="s">
+        <v>454</v>
+      </c>
+      <c r="C5" s="116" t="s">
+        <v>455</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="123" t="str">
+      <c r="A6" s="113" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1RDZathABUe1AxNllos18oBRUGkUw-BAb","1D")</f>
         <v>1D</v>
       </c>
-      <c r="B6" s="124" t="s">
-        <v>451</v>
-      </c>
-      <c r="C6" s="126" t="s">
+      <c r="B6" s="114" t="s">
+        <v>453</v>
+      </c>
+      <c r="C6" s="116" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="87"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="118"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="110"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="123" t="str">
+      <c r="A7" s="113" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1B7jEgQfvgjZIKbfW8eR9qm2PDLYRcFFX","1E")</f>
         <v>1E</v>
       </c>
-      <c r="B7" s="125" t="s">
-        <v>452</v>
-      </c>
-      <c r="C7" s="127" t="s">
+      <c r="B7" s="115" t="s">
+        <v>454</v>
+      </c>
+      <c r="C7" s="117" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="87"/>
-      <c r="E7" s="87"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
       <c r="F7" s="9"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="123" t="str">
+      <c r="A8" s="113" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1y8psJsldf8GOPKXdI3_7jAN-0VefmuVb","1F")</f>
         <v>1F</v>
       </c>
-      <c r="B8" s="124" t="s">
-        <v>451</v>
-      </c>
-      <c r="C8" s="126" t="s">
+      <c r="B8" s="114" t="s">
         <v>453</v>
+      </c>
+      <c r="C8" s="116" t="s">
+        <v>455</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
-      <c r="F8" s="118"/>
+      <c r="F8" s="110"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="122" t="str">
+      <c r="A9" s="112" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1Ak0bagtonjeBe0T45ml7mh9V5vKH_FoI","1G")</f>
         <v>1G</v>
       </c>
-      <c r="B9" s="125" t="s">
-        <v>452</v>
-      </c>
-      <c r="C9" s="127" t="s">
+      <c r="B9" s="115" t="s">
+        <v>454</v>
+      </c>
+      <c r="C9" s="117" t="s">
         <v>48</v>
       </c>
       <c r="D9" s="9"/>
@@ -7580,29 +7621,29 @@
       <c r="F9" s="9"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="122" t="str">
+      <c r="A10" s="112" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=15tp_vGgbK5-4zzthz0W8wuq2zgKokja6","1H")</f>
         <v>1H</v>
       </c>
-      <c r="B10" s="125" t="s">
-        <v>452</v>
-      </c>
-      <c r="C10" s="126" t="s">
-        <v>453</v>
+      <c r="B10" s="115" t="s">
+        <v>454</v>
+      </c>
+      <c r="C10" s="116" t="s">
+        <v>455</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
-      <c r="F10" s="118"/>
+      <c r="F10" s="110"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="122" t="str">
+      <c r="A11" s="112" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1EMft8Du0dvrSSlstsShqV16Nnrlb4EO_","1J")</f>
         <v>1J</v>
       </c>
-      <c r="B11" s="124" t="s">
-        <v>451</v>
-      </c>
-      <c r="C11" s="126" t="s">
+      <c r="B11" s="114" t="s">
+        <v>453</v>
+      </c>
+      <c r="C11" s="116" t="s">
         <v>48</v>
       </c>
       <c r="D11" s="9"/>
@@ -7610,119 +7651,119 @@
       <c r="F11" s="9"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="122" t="str">
+      <c r="A12" s="112" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1B-AwkTkUdHQS0dThuP6mM5L_0XIFZ2QS","1K")</f>
         <v>1K</v>
       </c>
-      <c r="B12" s="125" t="s">
-        <v>452</v>
-      </c>
-      <c r="C12" s="126" t="s">
-        <v>453</v>
+      <c r="B12" s="115" t="s">
+        <v>454</v>
+      </c>
+      <c r="C12" s="116" t="s">
+        <v>455</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
-      <c r="F12" s="118"/>
+      <c r="F12" s="110"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="122" t="str">
+      <c r="A13" s="112" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1XILFfrJerwAeHeN4xKdQH-99VN9y0QS7","2A")</f>
         <v>2A</v>
       </c>
-      <c r="B13" s="125" t="s">
-        <v>452</v>
-      </c>
-      <c r="C13" s="126" t="s">
-        <v>453</v>
+      <c r="B13" s="115" t="s">
+        <v>454</v>
+      </c>
+      <c r="C13" s="116" t="s">
+        <v>455</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
-      <c r="F13" s="118"/>
+      <c r="F13" s="110"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="122" t="str">
+      <c r="A14" s="112" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1i7lErxBcw13LxRubiAB_0upxTGrTLBvi","2B")</f>
         <v>2B</v>
       </c>
-      <c r="B14" s="125" t="s">
-        <v>452</v>
-      </c>
-      <c r="C14" s="126" t="s">
-        <v>453</v>
+      <c r="B14" s="115" t="s">
+        <v>454</v>
+      </c>
+      <c r="C14" s="116" t="s">
+        <v>455</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
-      <c r="F14" s="118"/>
+      <c r="F14" s="110"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="122" t="str">
+      <c r="A15" s="112" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1HmSkhlRiy_w_xIcPrlD-Gu21Q1sHCajk","2C")</f>
         <v>2C</v>
       </c>
-      <c r="B15" s="125" t="s">
-        <v>452</v>
-      </c>
-      <c r="C15" s="126" t="s">
+      <c r="B15" s="115" t="s">
+        <v>454</v>
+      </c>
+      <c r="C15" s="116" t="s">
         <v>48</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
-      <c r="F15" s="118"/>
+      <c r="F15" s="110"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="122" t="str">
+      <c r="A16" s="112" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1ih9AM9nSu6WpURV8EnXu6Q1HkOh5dSXM","2D")</f>
         <v>2D</v>
       </c>
-      <c r="B16" s="124" t="s">
-        <v>451</v>
-      </c>
-      <c r="C16" s="126" t="s">
+      <c r="B16" s="114" t="s">
+        <v>453</v>
+      </c>
+      <c r="C16" s="116" t="s">
         <v>48</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
-      <c r="F16" s="118"/>
+      <c r="F16" s="110"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="122" t="str">
+      <c r="A17" s="112" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1ilbwUzFLn2Zr9CQ_v673T9KjSALf_GzB","2E")</f>
         <v>2E</v>
       </c>
-      <c r="B17" s="125" t="s">
-        <v>452</v>
-      </c>
-      <c r="C17" s="126" t="s">
-        <v>453</v>
+      <c r="B17" s="115" t="s">
+        <v>454</v>
+      </c>
+      <c r="C17" s="116" t="s">
+        <v>455</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
-      <c r="F17" s="118"/>
+      <c r="F17" s="110"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="122" t="str">
+      <c r="A18" s="112" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1H2B7fJmOymk8ZeyITqVgqJIR9EbewGjs","2F")</f>
         <v>2F</v>
       </c>
-      <c r="B18" s="124" t="s">
-        <v>451</v>
-      </c>
-      <c r="C18" s="126" t="s">
+      <c r="B18" s="114" t="s">
+        <v>453</v>
+      </c>
+      <c r="C18" s="116" t="s">
         <v>48</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
-      <c r="F18" s="118"/>
+      <c r="F18" s="110"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="122" t="str">
+      <c r="A19" s="112" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1GXDi1coA9HtIo5F2GTLcPhpAh_IiHrmJ","2G")</f>
         <v>2G</v>
       </c>
-      <c r="B19" s="124" t="s">
-        <v>451</v>
-      </c>
-      <c r="C19" s="126" t="s">
+      <c r="B19" s="114" t="s">
+        <v>453</v>
+      </c>
+      <c r="C19" s="116" t="s">
         <v>48</v>
       </c>
       <c r="D19" s="9"/>
@@ -7730,149 +7771,149 @@
       <c r="F19" s="9"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="122" t="str">
+      <c r="A20" s="112" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=18itspidwzvb4KFHkqj1122TxuhHxILwX","2H")</f>
         <v>2H</v>
       </c>
-      <c r="B20" s="125" t="s">
-        <v>452</v>
-      </c>
-      <c r="C20" s="126" t="s">
-        <v>453</v>
-      </c>
-      <c r="D20" s="117"/>
+      <c r="B20" s="115" t="s">
+        <v>454</v>
+      </c>
+      <c r="C20" s="116" t="s">
+        <v>455</v>
+      </c>
+      <c r="D20" s="109"/>
       <c r="E20" s="9"/>
-      <c r="F20" s="118"/>
+      <c r="F20" s="110"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="122" t="str">
+      <c r="A21" s="112" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=12YgGEJrua5a-agu15lV4vezflw1cOjQ4","2J")</f>
         <v>2J</v>
       </c>
-      <c r="B21" s="125" t="s">
-        <v>452</v>
-      </c>
-      <c r="C21" s="126" t="s">
-        <v>453</v>
-      </c>
-      <c r="D21" s="87"/>
-      <c r="E21" s="87"/>
-      <c r="F21" s="118"/>
+      <c r="B21" s="115" t="s">
+        <v>454</v>
+      </c>
+      <c r="C21" s="116" t="s">
+        <v>455</v>
+      </c>
+      <c r="D21" s="80"/>
+      <c r="E21" s="80"/>
+      <c r="F21" s="110"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="122" t="str">
+      <c r="A22" s="112" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1mdMrKj4CCNPy7BlChSDOU2hQAJONhZzU","2K")</f>
         <v>2K</v>
       </c>
-      <c r="B22" s="125" t="s">
-        <v>452</v>
-      </c>
-      <c r="C22" s="126" t="s">
+      <c r="B22" s="115" t="s">
+        <v>454</v>
+      </c>
+      <c r="C22" s="116" t="s">
         <v>48</v>
       </c>
-      <c r="D22" s="87"/>
-      <c r="E22" s="87"/>
-      <c r="F22" s="118"/>
+      <c r="D22" s="80"/>
+      <c r="E22" s="80"/>
+      <c r="F22" s="110"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="122" t="str">
+      <c r="A23" s="112" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=14mzIl-szkFL_WWXlsFZ9T_x3Mt5RAOn0","2L")</f>
         <v>2L</v>
       </c>
-      <c r="B23" s="125" t="s">
-        <v>452</v>
-      </c>
-      <c r="C23" s="126" t="s">
+      <c r="B23" s="115" t="s">
+        <v>454</v>
+      </c>
+      <c r="C23" s="116" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="87"/>
-      <c r="E23" s="87"/>
-      <c r="F23" s="118"/>
+      <c r="D23" s="80"/>
+      <c r="E23" s="80"/>
+      <c r="F23" s="110"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="122" t="str">
+      <c r="A24" s="112" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1-X_VRvOqUUm_bcQ792NJw8TTxR5Kl3lr","2M")</f>
         <v>2M</v>
       </c>
-      <c r="B24" s="125" t="s">
-        <v>452</v>
-      </c>
-      <c r="C24" s="126" t="s">
-        <v>453</v>
-      </c>
-      <c r="D24" s="117"/>
-      <c r="E24" s="87"/>
+      <c r="B24" s="115" t="s">
+        <v>454</v>
+      </c>
+      <c r="C24" s="116" t="s">
+        <v>455</v>
+      </c>
+      <c r="D24" s="109"/>
+      <c r="E24" s="80"/>
       <c r="F24" s="9"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="122" t="str">
+      <c r="A25" s="112" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1ofYuI7zJYOx0Em5kOgymDe9L2TWaIZ-_","3C")</f>
         <v>3C</v>
       </c>
-      <c r="B25" s="125" t="s">
-        <v>452</v>
-      </c>
-      <c r="C25" s="126" t="s">
-        <v>453</v>
-      </c>
-      <c r="D25" s="117"/>
+      <c r="B25" s="115" t="s">
+        <v>454</v>
+      </c>
+      <c r="C25" s="116" t="s">
+        <v>455</v>
+      </c>
+      <c r="D25" s="109"/>
       <c r="E25" s="9"/>
-      <c r="F25" s="118"/>
+      <c r="F25" s="110"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="122" t="str">
+      <c r="A26" s="112" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1X9eTLHcdh-lSX2OXG4OLDNwPRG5eoz9l","3D")</f>
         <v>3D</v>
       </c>
-      <c r="B26" s="125" t="s">
-        <v>452</v>
-      </c>
-      <c r="C26" s="127" t="s">
+      <c r="B26" s="115" t="s">
+        <v>454</v>
+      </c>
+      <c r="C26" s="117" t="s">
         <v>48</v>
       </c>
-      <c r="D26" s="87"/>
-      <c r="E26" s="87"/>
+      <c r="D26" s="80"/>
+      <c r="E26" s="80"/>
       <c r="F26" s="9"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="122" t="str">
+      <c r="A27" s="112" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1m_ACLfEw9sFFcCd16wQnkI9wa3WI7gK9","3E")</f>
         <v>3E</v>
       </c>
-      <c r="B27" s="124" t="s">
-        <v>451</v>
-      </c>
-      <c r="C27" s="126" t="s">
+      <c r="B27" s="114" t="s">
+        <v>453</v>
+      </c>
+      <c r="C27" s="116" t="s">
         <v>48</v>
       </c>
-      <c r="D27" s="87"/>
-      <c r="E27" s="89"/>
-      <c r="F27" s="118"/>
+      <c r="D27" s="80"/>
+      <c r="E27" s="81"/>
+      <c r="F27" s="110"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="122" t="str">
+      <c r="A28" s="112" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1CIBdXiHhWBrM6LwlY-yGooPill1DRTQ7","3F")</f>
         <v>3F</v>
       </c>
-      <c r="B28" s="126" t="s">
+      <c r="B28" s="116" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="126" t="s">
+      <c r="C28" s="116" t="s">
         <v>48</v>
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
-      <c r="F28" s="117"/>
+      <c r="F28" s="109"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="122" t="str">
+      <c r="A29" s="112" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1c2xmouFbs4cNAvpeHuAdgNreh8kFEC2V","3G")</f>
         <v>3G</v>
       </c>
-      <c r="B29" s="126" t="s">
+      <c r="B29" s="116" t="s">
         <v>48</v>
       </c>
-      <c r="C29" s="126" t="s">
+      <c r="C29" s="116" t="s">
         <v>48</v>
       </c>
       <c r="D29" s="9"/>
@@ -7880,14 +7921,14 @@
       <c r="F29" s="9"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="122" t="str">
+      <c r="A30" s="112" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1t7wkFvS4sGjdMU60zYacdFSrl4pYayl_","3H")</f>
         <v>3H</v>
       </c>
-      <c r="B30" s="126" t="s">
+      <c r="B30" s="116" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="126" t="s">
+      <c r="C30" s="116" t="s">
         <v>48</v>
       </c>
       <c r="D30" s="9"/>
@@ -7895,44 +7936,44 @@
       <c r="F30" s="9"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="122" t="str">
+      <c r="A31" s="112" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1N0-R1KTkpoZjXWmN7r0U_myR9XBY5SDj","3J")</f>
         <v>3J</v>
       </c>
-      <c r="B31" s="124" t="s">
-        <v>451</v>
-      </c>
-      <c r="C31" s="126" t="s">
+      <c r="B31" s="114" t="s">
+        <v>453</v>
+      </c>
+      <c r="C31" s="116" t="s">
         <v>48</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
-      <c r="F31" s="118"/>
+      <c r="F31" s="110"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="122" t="str">
+      <c r="A32" s="112" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=13pmWKIsTMFsSuBTJ-HZb5DVIowIXTS_s","3L")</f>
         <v>3L</v>
       </c>
-      <c r="B32" s="125" t="s">
-        <v>452</v>
-      </c>
-      <c r="C32" s="126" t="s">
-        <v>453</v>
+      <c r="B32" s="115" t="s">
+        <v>454</v>
+      </c>
+      <c r="C32" s="116" t="s">
+        <v>455</v>
       </c>
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
-      <c r="F32" s="118"/>
+      <c r="F32" s="110"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="122" t="str">
+      <c r="A33" s="112" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=16nGNQgv2r19h9agxYjXmQ8rC4v330dYf","4E")</f>
         <v>4E</v>
       </c>
-      <c r="B33" s="124" t="s">
-        <v>451</v>
-      </c>
-      <c r="C33" s="126" t="s">
+      <c r="B33" s="114" t="s">
+        <v>453</v>
+      </c>
+      <c r="C33" s="116" t="s">
         <v>48</v>
       </c>
       <c r="D33" s="9"/>
@@ -7940,14 +7981,14 @@
       <c r="F33" s="9"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="122" t="str">
+      <c r="A34" s="112" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1bmJc7h6PrfobWHjtATEPhVDZqxi3ORaa","4F")</f>
         <v>4F</v>
       </c>
-      <c r="B34" s="124" t="s">
-        <v>451</v>
-      </c>
-      <c r="C34" s="126" t="s">
+      <c r="B34" s="114" t="s">
+        <v>453</v>
+      </c>
+      <c r="C34" s="116" t="s">
         <v>48</v>
       </c>
       <c r="D34" s="9"/>
@@ -7955,29 +7996,29 @@
       <c r="F34" s="9"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="122" t="str">
+      <c r="A35" s="112" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1nHAP6VZOPX4PWClDeQpEHh4MuzIQchEa","4G")</f>
         <v>4G</v>
       </c>
-      <c r="B35" s="124" t="s">
-        <v>451</v>
-      </c>
-      <c r="C35" s="126" t="s">
+      <c r="B35" s="114" t="s">
         <v>453</v>
+      </c>
+      <c r="C35" s="116" t="s">
+        <v>455</v>
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
-      <c r="F35" s="118"/>
+      <c r="F35" s="110"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="122" t="str">
+      <c r="A36" s="112" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1a78u8iOyRFbuJtQlj9X51FknS9EfCDih","4H")</f>
         <v>4H</v>
       </c>
-      <c r="B36" s="124" t="s">
-        <v>451</v>
-      </c>
-      <c r="C36" s="126" t="s">
+      <c r="B36" s="114" t="s">
+        <v>453</v>
+      </c>
+      <c r="C36" s="116" t="s">
         <v>48</v>
       </c>
       <c r="D36" s="9"/>
@@ -7985,124 +8026,124 @@
       <c r="F36" s="9"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="122" t="str">
+      <c r="A37" s="112" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1zZjefBVzFC9BP-YmMKfQZMWa1XGkqomj","4J")</f>
         <v>4J</v>
       </c>
-      <c r="B37" s="125" t="s">
-        <v>452</v>
-      </c>
-      <c r="C37" s="126" t="s">
-        <v>453</v>
-      </c>
-      <c r="D37" s="117"/>
+      <c r="B37" s="115" t="s">
+        <v>454</v>
+      </c>
+      <c r="C37" s="116" t="s">
+        <v>455</v>
+      </c>
+      <c r="D37" s="109"/>
       <c r="E37" s="9"/>
-      <c r="F37" s="118"/>
+      <c r="F37" s="110"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="122" t="str">
+      <c r="A38" s="112" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1qWFlabv0TeVOBvOIJQuvHlR1H3AMOPvN","4K")</f>
         <v>4K</v>
       </c>
-      <c r="B38" s="124" t="s">
-        <v>451</v>
-      </c>
-      <c r="C38" s="126" t="s">
+      <c r="B38" s="114" t="s">
+        <v>453</v>
+      </c>
+      <c r="C38" s="116" t="s">
         <v>48</v>
       </c>
       <c r="D38" s="9"/>
       <c r="E38" s="9"/>
-      <c r="F38" s="118"/>
+      <c r="F38" s="110"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="122" t="str">
+      <c r="A39" s="112" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=176NV2NM9yvfuW1EMU3iBS768FxgmXjUS","4L")</f>
         <v>4L</v>
       </c>
-      <c r="B39" s="124" t="s">
-        <v>451</v>
-      </c>
-      <c r="C39" s="126" t="s">
+      <c r="B39" s="114" t="s">
+        <v>453</v>
+      </c>
+      <c r="C39" s="116" t="s">
         <v>48</v>
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="9"/>
-      <c r="F39" s="118"/>
+      <c r="F39" s="110"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="122" t="str">
+      <c r="A40" s="112" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1cC0P-G66cPSNnf6v6z8opZCNyporo74Y","5B")</f>
         <v>5B</v>
       </c>
-      <c r="B40" s="125" t="s">
-        <v>452</v>
-      </c>
-      <c r="C40" s="127" t="s">
+      <c r="B40" s="115" t="s">
+        <v>454</v>
+      </c>
+      <c r="C40" s="117" t="s">
         <v>48</v>
       </c>
-      <c r="D40" s="117"/>
+      <c r="D40" s="109"/>
       <c r="E40" s="9"/>
-      <c r="F40" s="118"/>
+      <c r="F40" s="110"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="122" t="str">
+      <c r="A41" s="112" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1q_N74b1OZrCze7zuXy5fm0ASU07tWzh3","5C")</f>
         <v>5C</v>
       </c>
-      <c r="B41" s="124" t="s">
-        <v>451</v>
-      </c>
-      <c r="C41" s="126" t="s">
+      <c r="B41" s="114" t="s">
         <v>453</v>
+      </c>
+      <c r="C41" s="116" t="s">
+        <v>455</v>
       </c>
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
-      <c r="F41" s="118"/>
+      <c r="F41" s="110"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="122" t="str">
+      <c r="A42" s="112" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1aKSCelAY002Ihje9mdJi7jFh0OB4j8XZ","5E")</f>
         <v>5E</v>
       </c>
-      <c r="B42" s="124" t="s">
-        <v>451</v>
-      </c>
-      <c r="C42" s="126" t="s">
+      <c r="B42" s="114" t="s">
+        <v>453</v>
+      </c>
+      <c r="C42" s="116" t="s">
         <v>48</v>
       </c>
       <c r="D42" s="9"/>
       <c r="E42" s="9"/>
-      <c r="F42" s="118"/>
+      <c r="F42" s="110"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="122" t="str">
+      <c r="A43" s="112" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1ghdX_COwJq4oYlhj-qYPypK_2GlrWyQZ","5G")</f>
         <v>5G</v>
       </c>
-      <c r="B43" s="124" t="s">
-        <v>451</v>
-      </c>
-      <c r="C43" s="126" t="s">
+      <c r="B43" s="114" t="s">
+        <v>453</v>
+      </c>
+      <c r="C43" s="116" t="s">
         <v>48</v>
       </c>
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
-      <c r="F43" s="118"/>
+      <c r="F43" s="110"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="122" t="str">
+      <c r="A44" s="112" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1MR24L4GDI5x861k8SMrgm71xRfm55Hiv","5H")</f>
         <v>5H</v>
       </c>
-      <c r="B44" s="124" t="s">
-        <v>451</v>
-      </c>
-      <c r="C44" s="126" t="s">
+      <c r="B44" s="114" t="s">
+        <v>453</v>
+      </c>
+      <c r="C44" s="116" t="s">
         <v>48</v>
       </c>
       <c r="D44" s="9"/>
       <c r="E44" s="9"/>
-      <c r="F44" s="118"/>
+      <c r="F44" s="110"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8120,8 +8161,8 @@
   </sheetPr>
   <dimension ref="A1:I1023"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8132,773 +8173,761 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="87" t="s">
+        <v>403</v>
+      </c>
+      <c r="B1" s="88" t="s">
+        <v>424</v>
+      </c>
+      <c r="C1" s="88" t="s">
+        <v>423</v>
+      </c>
+      <c r="D1" s="148" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1" s="148"/>
+      <c r="F1" s="97" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="85" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="9"/>
+      <c r="D2" s="150"/>
+      <c r="E2" s="150"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+    </row>
+    <row r="3" spans="1:9" s="85" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="86" t="s">
+        <v>404</v>
+      </c>
+      <c r="B3" s="92">
+        <v>62</v>
+      </c>
+      <c r="C3" s="92">
+        <v>55</v>
+      </c>
+      <c r="D3" s="149" t="s">
+        <v>425</v>
+      </c>
+      <c r="E3" s="150"/>
+      <c r="F3" s="89" t="s">
+        <v>260</v>
+      </c>
+      <c r="G3" s="91"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="91"/>
+    </row>
+    <row r="4" spans="1:9" s="85" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="86" t="s">
         <v>405</v>
       </c>
-      <c r="B1" s="96" t="s">
+      <c r="D4" s="150"/>
+      <c r="E4" s="150"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="91"/>
+      <c r="H4" s="94"/>
+      <c r="I4" s="91"/>
+    </row>
+    <row r="5" spans="1:9" s="85" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="86" t="s">
+        <v>406</v>
+      </c>
+      <c r="B5" s="92">
+        <v>44</v>
+      </c>
+      <c r="C5" s="92">
+        <v>43</v>
+      </c>
+      <c r="D5" s="150"/>
+      <c r="E5" s="150"/>
+      <c r="F5" s="89" t="s">
+        <v>260</v>
+      </c>
+      <c r="G5" s="91"/>
+      <c r="H5" s="94"/>
+      <c r="I5" s="91"/>
+    </row>
+    <row r="6" spans="1:9" s="85" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="86" t="s">
+        <v>407</v>
+      </c>
+      <c r="B6" s="92">
+        <v>47</v>
+      </c>
+      <c r="C6" s="92">
+        <v>52</v>
+      </c>
+      <c r="D6" s="149" t="s">
+        <v>427</v>
+      </c>
+      <c r="E6" s="150"/>
+      <c r="F6" s="89" t="s">
+        <v>260</v>
+      </c>
+      <c r="G6" s="91"/>
+      <c r="H6" s="96"/>
+      <c r="I6" s="91"/>
+    </row>
+    <row r="7" spans="1:9" s="85" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="86" t="s">
+        <v>408</v>
+      </c>
+      <c r="B7" s="92">
+        <v>75</v>
+      </c>
+      <c r="C7" s="92">
+        <v>82</v>
+      </c>
+      <c r="D7" s="149" t="s">
+        <v>427</v>
+      </c>
+      <c r="E7" s="150"/>
+      <c r="F7" s="89" t="s">
+        <v>260</v>
+      </c>
+      <c r="G7" s="91"/>
+      <c r="H7" s="94"/>
+      <c r="I7" s="91"/>
+    </row>
+    <row r="8" spans="1:9" s="85" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="86" t="s">
+        <v>409</v>
+      </c>
+      <c r="B8" s="92">
+        <v>85</v>
+      </c>
+      <c r="C8" s="92">
+        <v>99</v>
+      </c>
+      <c r="D8" s="149" t="s">
         <v>426</v>
       </c>
-      <c r="C1" s="96" t="s">
+      <c r="E8" s="150"/>
+      <c r="F8" s="90"/>
+      <c r="G8" s="91"/>
+      <c r="H8" s="94"/>
+      <c r="I8" s="91"/>
+    </row>
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="86" t="s">
+        <v>410</v>
+      </c>
+      <c r="B9" s="92">
+        <v>15</v>
+      </c>
+      <c r="C9" s="92">
+        <v>23</v>
+      </c>
+      <c r="D9" s="149" t="s">
         <v>425</v>
       </c>
-      <c r="D1" s="145" t="s">
-        <v>271</v>
-      </c>
-      <c r="E1" s="145"/>
-      <c r="F1" s="105" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="93" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="9"/>
-      <c r="D2" s="147"/>
-      <c r="E2" s="147"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-    </row>
-    <row r="3" spans="1:9" s="93" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="94" t="s">
-        <v>406</v>
-      </c>
-      <c r="B3" s="100">
-        <v>62</v>
-      </c>
-      <c r="C3" s="100">
-        <v>55</v>
-      </c>
-      <c r="D3" s="146" t="s">
+      <c r="E9" s="150"/>
+      <c r="F9" s="89" t="s">
+        <v>260</v>
+      </c>
+      <c r="G9" s="91"/>
+      <c r="H9" s="94"/>
+      <c r="I9" s="91"/>
+    </row>
+    <row r="10" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="86" t="s">
+        <v>411</v>
+      </c>
+      <c r="B10" s="93"/>
+      <c r="C10" s="92"/>
+      <c r="D10" s="150"/>
+      <c r="E10" s="150"/>
+      <c r="F10" s="90"/>
+      <c r="G10" s="91"/>
+      <c r="H10" s="94"/>
+      <c r="I10" s="91"/>
+    </row>
+    <row r="11" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="86" t="s">
+        <v>412</v>
+      </c>
+      <c r="B11" s="94"/>
+      <c r="C11" s="92"/>
+      <c r="D11" s="150"/>
+      <c r="E11" s="150"/>
+      <c r="F11" s="90"/>
+      <c r="G11" s="91"/>
+      <c r="H11" s="94"/>
+      <c r="I11" s="91"/>
+    </row>
+    <row r="12" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="86" t="s">
+        <v>413</v>
+      </c>
+      <c r="B12" s="94">
+        <v>57</v>
+      </c>
+      <c r="C12" s="92">
+        <v>59</v>
+      </c>
+      <c r="D12" s="149" t="s">
+        <v>425</v>
+      </c>
+      <c r="E12" s="150"/>
+      <c r="F12" s="89" t="s">
+        <v>260</v>
+      </c>
+      <c r="G12" s="91"/>
+      <c r="H12" s="94"/>
+      <c r="I12" s="91"/>
+    </row>
+    <row r="13" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="86" t="s">
+        <v>414</v>
+      </c>
+      <c r="B13" s="94">
+        <v>37</v>
+      </c>
+      <c r="C13" s="92">
+        <v>56</v>
+      </c>
+      <c r="D13" s="149" t="s">
         <v>427</v>
       </c>
-      <c r="E3" s="147"/>
-      <c r="F3" s="97" t="s">
-        <v>261</v>
-      </c>
-      <c r="G3" s="99"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="99"/>
-    </row>
-    <row r="4" spans="1:9" s="93" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="94" t="s">
-        <v>407</v>
-      </c>
-      <c r="D4" s="147"/>
-      <c r="E4" s="147"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="102"/>
-      <c r="I4" s="99"/>
-    </row>
-    <row r="5" spans="1:9" s="93" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="94" t="s">
-        <v>408</v>
-      </c>
-      <c r="B5" s="100">
-        <v>44</v>
-      </c>
-      <c r="C5" s="100">
-        <v>43</v>
-      </c>
-      <c r="D5" s="147"/>
-      <c r="E5" s="147"/>
-      <c r="F5" s="97" t="s">
-        <v>261</v>
-      </c>
-      <c r="G5" s="99"/>
-      <c r="H5" s="102"/>
-      <c r="I5" s="99"/>
-    </row>
-    <row r="6" spans="1:9" s="93" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="94" t="s">
-        <v>409</v>
-      </c>
-      <c r="B6" s="100">
-        <v>47</v>
-      </c>
-      <c r="C6" s="100">
-        <v>52</v>
-      </c>
-      <c r="D6" s="146" t="s">
-        <v>429</v>
-      </c>
-      <c r="E6" s="147"/>
-      <c r="F6" s="97" t="s">
-        <v>261</v>
-      </c>
-      <c r="G6" s="99"/>
-      <c r="H6" s="104"/>
-      <c r="I6" s="99"/>
-    </row>
-    <row r="7" spans="1:9" s="93" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="94" t="s">
-        <v>410</v>
-      </c>
-      <c r="B7" s="100">
-        <v>75</v>
-      </c>
-      <c r="C7" s="100">
-        <v>82</v>
-      </c>
-      <c r="D7" s="146" t="s">
-        <v>429</v>
-      </c>
-      <c r="E7" s="147"/>
-      <c r="F7" s="97" t="s">
-        <v>261</v>
-      </c>
-      <c r="G7" s="99"/>
-      <c r="H7" s="102"/>
-      <c r="I7" s="99"/>
-    </row>
-    <row r="8" spans="1:9" s="93" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="94" t="s">
-        <v>411</v>
-      </c>
-      <c r="B8" s="100">
-        <v>85</v>
-      </c>
-      <c r="C8" s="100">
-        <v>99</v>
-      </c>
-      <c r="D8" s="146" t="s">
-        <v>428</v>
-      </c>
-      <c r="E8" s="147"/>
-      <c r="F8" s="98"/>
-      <c r="G8" s="99"/>
-      <c r="H8" s="102"/>
-      <c r="I8" s="99"/>
-    </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="94" t="s">
-        <v>412</v>
-      </c>
-      <c r="B9" s="100">
-        <v>15</v>
-      </c>
-      <c r="C9" s="100">
-        <v>23</v>
-      </c>
-      <c r="D9" s="146" t="s">
+      <c r="E13" s="150"/>
+      <c r="F13" s="89" t="s">
+        <v>260</v>
+      </c>
+      <c r="G13" s="91"/>
+      <c r="H13" s="96"/>
+      <c r="I13" s="91"/>
+    </row>
+    <row r="14" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="86" t="s">
+        <v>415</v>
+      </c>
+      <c r="B14" s="94">
+        <v>53</v>
+      </c>
+      <c r="C14" s="92">
+        <v>72</v>
+      </c>
+      <c r="D14" s="149" t="s">
         <v>427</v>
       </c>
-      <c r="E9" s="147"/>
-      <c r="F9" s="97" t="s">
-        <v>261</v>
-      </c>
-      <c r="G9" s="99"/>
-      <c r="H9" s="102"/>
-      <c r="I9" s="99"/>
-    </row>
-    <row r="10" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="94" t="s">
-        <v>413</v>
-      </c>
-      <c r="B10" s="101"/>
-      <c r="C10" s="100"/>
-      <c r="D10" s="147"/>
-      <c r="E10" s="147"/>
-      <c r="F10" s="98"/>
-      <c r="G10" s="99"/>
-      <c r="H10" s="102"/>
-      <c r="I10" s="99"/>
-    </row>
-    <row r="11" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="94" t="s">
-        <v>414</v>
-      </c>
-      <c r="B11" s="102"/>
-      <c r="C11" s="100"/>
-      <c r="D11" s="147"/>
-      <c r="E11" s="147"/>
-      <c r="F11" s="98"/>
-      <c r="G11" s="99"/>
-      <c r="H11" s="102"/>
-      <c r="I11" s="99"/>
-    </row>
-    <row r="12" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="94" t="s">
-        <v>415</v>
-      </c>
-      <c r="B12" s="102">
-        <v>57</v>
-      </c>
-      <c r="C12" s="100">
-        <v>59</v>
-      </c>
-      <c r="D12" s="146" t="s">
+      <c r="E14" s="150"/>
+      <c r="F14" s="89" t="s">
+        <v>260</v>
+      </c>
+      <c r="G14" s="91"/>
+      <c r="H14" s="94"/>
+      <c r="I14" s="91"/>
+    </row>
+    <row r="15" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="86" t="s">
+        <v>416</v>
+      </c>
+      <c r="B15" s="94">
+        <v>60</v>
+      </c>
+      <c r="C15" s="92">
+        <v>64</v>
+      </c>
+      <c r="D15" s="150"/>
+      <c r="E15" s="150"/>
+      <c r="F15" s="89" t="s">
+        <v>260</v>
+      </c>
+      <c r="G15" s="91"/>
+      <c r="H15" s="94"/>
+      <c r="I15" s="91"/>
+    </row>
+    <row r="16" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="86" t="s">
+        <v>417</v>
+      </c>
+      <c r="B16" s="92"/>
+      <c r="C16" s="92"/>
+      <c r="D16" s="150"/>
+      <c r="E16" s="150"/>
+      <c r="F16" s="90"/>
+      <c r="G16" s="91"/>
+      <c r="H16" s="94"/>
+      <c r="I16" s="91"/>
+    </row>
+    <row r="17" spans="1:9" s="85" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="86" t="s">
+        <v>418</v>
+      </c>
+      <c r="B17" s="92">
+        <v>16</v>
+      </c>
+      <c r="C17" s="92">
+        <v>17</v>
+      </c>
+      <c r="D17" s="150"/>
+      <c r="E17" s="150"/>
+      <c r="F17" s="120" t="s">
+        <v>260</v>
+      </c>
+      <c r="G17" s="91"/>
+      <c r="H17" s="94"/>
+      <c r="I17" s="91"/>
+    </row>
+    <row r="18" spans="1:9" s="85" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="86" t="s">
+        <v>419</v>
+      </c>
+      <c r="B18" s="92"/>
+      <c r="C18" s="92"/>
+      <c r="D18" s="150"/>
+      <c r="E18" s="150"/>
+      <c r="F18" s="90"/>
+      <c r="G18" s="91"/>
+      <c r="H18" s="94"/>
+      <c r="I18" s="91"/>
+    </row>
+    <row r="19" spans="1:9" s="85" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="86" t="s">
+        <v>420</v>
+      </c>
+      <c r="B19" s="92">
+        <v>18</v>
+      </c>
+      <c r="C19" s="92">
+        <v>40</v>
+      </c>
+      <c r="D19" s="149" t="s">
         <v>427</v>
       </c>
-      <c r="E12" s="147"/>
-      <c r="F12" s="97" t="s">
-        <v>261</v>
-      </c>
-      <c r="G12" s="99"/>
-      <c r="H12" s="102"/>
-      <c r="I12" s="99"/>
-    </row>
-    <row r="13" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="94" t="s">
-        <v>416</v>
-      </c>
-      <c r="B13" s="102">
-        <v>37</v>
-      </c>
-      <c r="C13" s="100">
-        <v>56</v>
-      </c>
-      <c r="D13" s="146" t="s">
-        <v>429</v>
-      </c>
-      <c r="E13" s="147"/>
-      <c r="F13" s="97" t="s">
-        <v>261</v>
-      </c>
-      <c r="G13" s="99"/>
-      <c r="H13" s="104"/>
-      <c r="I13" s="99"/>
-    </row>
-    <row r="14" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="94" t="s">
-        <v>417</v>
-      </c>
-      <c r="B14" s="102">
-        <v>53</v>
-      </c>
-      <c r="C14" s="100">
-        <v>72</v>
-      </c>
-      <c r="D14" s="146" t="s">
-        <v>429</v>
-      </c>
-      <c r="E14" s="147"/>
-      <c r="F14" s="97" t="s">
-        <v>261</v>
-      </c>
-      <c r="G14" s="99"/>
-      <c r="H14" s="102"/>
-      <c r="I14" s="99"/>
-    </row>
-    <row r="15" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="94" t="s">
-        <v>418</v>
-      </c>
-      <c r="B15" s="102">
-        <v>60</v>
-      </c>
-      <c r="C15" s="100">
-        <v>64</v>
-      </c>
-      <c r="D15" s="147"/>
-      <c r="E15" s="147"/>
-      <c r="F15" s="97" t="s">
-        <v>261</v>
-      </c>
-      <c r="G15" s="99"/>
-      <c r="H15" s="102"/>
-      <c r="I15" s="99"/>
-    </row>
-    <row r="16" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="94" t="s">
-        <v>419</v>
-      </c>
-      <c r="B16" s="100"/>
-      <c r="C16" s="100"/>
-      <c r="D16" s="147"/>
-      <c r="E16" s="147"/>
-      <c r="F16" s="98"/>
-      <c r="G16" s="99"/>
-      <c r="H16" s="102"/>
-      <c r="I16" s="99"/>
-    </row>
-    <row r="17" spans="1:9" s="93" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="94" t="s">
-        <v>420</v>
-      </c>
-      <c r="B17" s="100">
-        <v>16</v>
-      </c>
-      <c r="C17" s="100">
-        <v>17</v>
-      </c>
-      <c r="D17" s="147"/>
-      <c r="E17" s="147"/>
-      <c r="F17" s="130" t="s">
-        <v>261</v>
-      </c>
-      <c r="G17" s="99"/>
-      <c r="H17" s="102"/>
-      <c r="I17" s="99"/>
-    </row>
-    <row r="18" spans="1:9" s="93" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="94" t="s">
+      <c r="E19" s="150"/>
+      <c r="F19" s="89" t="s">
+        <v>260</v>
+      </c>
+      <c r="G19" s="91"/>
+      <c r="H19" s="94"/>
+      <c r="I19" s="91"/>
+    </row>
+    <row r="20" spans="1:9" s="85" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="86" t="s">
         <v>421</v>
       </c>
-      <c r="B18" s="100"/>
-      <c r="C18" s="100"/>
-      <c r="D18" s="147"/>
-      <c r="E18" s="147"/>
-      <c r="F18" s="98"/>
-      <c r="G18" s="99"/>
-      <c r="H18" s="102"/>
-      <c r="I18" s="99"/>
-    </row>
-    <row r="19" spans="1:9" s="93" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="94" t="s">
+      <c r="B20" s="92">
+        <v>45</v>
+      </c>
+      <c r="C20" s="92">
+        <v>48</v>
+      </c>
+      <c r="D20" s="149" t="s">
+        <v>427</v>
+      </c>
+      <c r="E20" s="150"/>
+      <c r="F20" s="89" t="s">
+        <v>260</v>
+      </c>
+      <c r="G20" s="91"/>
+      <c r="H20" s="94"/>
+      <c r="I20" s="91"/>
+    </row>
+    <row r="21" spans="1:9" s="85" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="86" t="s">
         <v>422</v>
       </c>
-      <c r="B19" s="100">
-        <v>18</v>
-      </c>
-      <c r="C19" s="100">
-        <v>40</v>
-      </c>
-      <c r="D19" s="146" t="s">
-        <v>429</v>
-      </c>
-      <c r="E19" s="147"/>
-      <c r="F19" s="97" t="s">
-        <v>261</v>
-      </c>
-      <c r="G19" s="99"/>
-      <c r="H19" s="102"/>
-      <c r="I19" s="99"/>
-    </row>
-    <row r="20" spans="1:9" s="93" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="94" t="s">
-        <v>423</v>
-      </c>
-      <c r="B20" s="100">
-        <v>45</v>
-      </c>
-      <c r="C20" s="100">
-        <v>48</v>
-      </c>
-      <c r="D20" s="146" t="s">
-        <v>429</v>
-      </c>
-      <c r="E20" s="147"/>
-      <c r="F20" s="97" t="s">
-        <v>261</v>
-      </c>
-      <c r="G20" s="99"/>
-      <c r="H20" s="102"/>
-      <c r="I20" s="99"/>
-    </row>
-    <row r="21" spans="1:9" s="93" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="94" t="s">
-        <v>424</v>
-      </c>
-      <c r="B21" s="100">
+      <c r="B21" s="92">
         <v>83</v>
       </c>
-      <c r="C21" s="100">
+      <c r="C21" s="92">
         <v>84</v>
       </c>
-      <c r="D21" s="146" t="s">
-        <v>429</v>
-      </c>
-      <c r="E21" s="147"/>
-      <c r="F21" s="97" t="s">
-        <v>434</v>
-      </c>
-      <c r="G21" s="99"/>
-      <c r="H21" s="102"/>
-      <c r="I21" s="99"/>
+      <c r="D21" s="149" t="s">
+        <v>427</v>
+      </c>
+      <c r="E21" s="150"/>
+      <c r="F21" s="89" t="s">
+        <v>436</v>
+      </c>
+      <c r="G21" s="91"/>
+      <c r="H21" s="94"/>
+      <c r="I21" s="91"/>
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G22" s="99"/>
-      <c r="H22" s="99"/>
-      <c r="I22" s="99"/>
+      <c r="G22" s="91"/>
+      <c r="H22" s="91"/>
+      <c r="I22" s="91"/>
     </row>
     <row r="23" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
-        <v>244</v>
-      </c>
-      <c r="G23" s="99"/>
-      <c r="H23" s="99"/>
-      <c r="I23" s="99"/>
+        <v>243</v>
+      </c>
+      <c r="G23" s="91"/>
+      <c r="H23" s="91"/>
+      <c r="I23" s="91"/>
     </row>
     <row r="25" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="C25" s="3" t="s">
         <v>246</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>249</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="C29" s="3" t="s">
         <v>253</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>256</v>
-      </c>
       <c r="C30" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B32" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>257</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B33" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" s="93" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="92"/>
-      <c r="B34" s="92"/>
-      <c r="C34" s="92"/>
-    </row>
-    <row r="35" spans="1:5" s="93" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="92" t="s">
-        <v>234</v>
-      </c>
-      <c r="B35" s="92" t="s">
-        <v>435</v>
-      </c>
-      <c r="C35" s="92" t="s">
+    </row>
+    <row r="34" spans="1:5" s="85" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="84"/>
+      <c r="B34" s="84"/>
+      <c r="C34" s="84"/>
+    </row>
+    <row r="35" spans="1:5" s="85" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="84" t="s">
+        <v>233</v>
+      </c>
+      <c r="B35" s="84" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" s="93" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="92" t="s">
-        <v>234</v>
-      </c>
-      <c r="B36" s="92" t="s">
-        <v>436</v>
-      </c>
-      <c r="C36" s="92" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" s="93" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="92"/>
-      <c r="B37" s="92"/>
-      <c r="C37" s="92"/>
-    </row>
-    <row r="38" spans="1:5" s="93" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="92" t="s">
+      <c r="C35" s="84" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" s="85" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="84" t="s">
+        <v>233</v>
+      </c>
+      <c r="B36" s="84" t="s">
         <v>438</v>
       </c>
-      <c r="B38" s="92" t="s">
-        <v>445</v>
-      </c>
-      <c r="C38" s="92" t="s">
+      <c r="C36" s="84" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="93" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="92" t="s">
-        <v>438</v>
-      </c>
-      <c r="B39" s="92" t="s">
-        <v>446</v>
-      </c>
-      <c r="C39" s="92" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" s="129" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="128"/>
-      <c r="B40" s="128"/>
-      <c r="C40" s="128"/>
-    </row>
-    <row r="41" spans="1:5" s="129" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="128" t="s">
-        <v>438</v>
-      </c>
-      <c r="B41" s="128" t="s">
-        <v>456</v>
-      </c>
-      <c r="C41" s="128" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" s="93" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="128" t="s">
-        <v>438</v>
-      </c>
-      <c r="B42" s="128" t="s">
-        <v>457</v>
-      </c>
-      <c r="C42" s="128" t="s">
-        <v>439</v>
-      </c>
-      <c r="D42" s="129"/>
-    </row>
-    <row r="43" spans="1:5" s="93" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="92"/>
-      <c r="B43" s="92"/>
-      <c r="C43" s="92"/>
+    <row r="37" spans="1:5" s="85" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="84"/>
+      <c r="B37" s="84"/>
+      <c r="C37" s="84"/>
+    </row>
+    <row r="38" spans="1:5" s="85" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="84" t="s">
+        <v>440</v>
+      </c>
+      <c r="B38" s="84" t="s">
+        <v>447</v>
+      </c>
+      <c r="C38" s="84" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" s="85" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="84" t="s">
+        <v>440</v>
+      </c>
+      <c r="B39" s="84" t="s">
+        <v>448</v>
+      </c>
+      <c r="C39" s="84" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" s="119" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="118"/>
+      <c r="B40" s="118"/>
+      <c r="C40" s="118"/>
+    </row>
+    <row r="41" spans="1:5" s="119" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="118" t="s">
+        <v>440</v>
+      </c>
+      <c r="B41" s="118" t="s">
+        <v>459</v>
+      </c>
+      <c r="C41" s="118" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" s="85" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="118" t="s">
+        <v>440</v>
+      </c>
+      <c r="B42" s="118" t="s">
+        <v>460</v>
+      </c>
+      <c r="C42" s="118" t="s">
+        <v>441</v>
+      </c>
+      <c r="D42" s="119"/>
+    </row>
+    <row r="43" spans="1:5" s="85" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="84"/>
+      <c r="B43" s="84"/>
+      <c r="C43" s="84"/>
     </row>
     <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="14" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="110"/>
-      <c r="B46" s="110"/>
-      <c r="C46" s="110"/>
-      <c r="D46" s="106"/>
-      <c r="E46" s="106"/>
+      <c r="A46" s="102"/>
+      <c r="B46" s="102"/>
+      <c r="C46" s="102"/>
+      <c r="D46" s="98"/>
+      <c r="E46" s="98"/>
     </row>
     <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="111"/>
-      <c r="B47" s="110"/>
-      <c r="C47" s="112"/>
-      <c r="D47" s="106"/>
-      <c r="E47" s="106"/>
+      <c r="A47" s="103"/>
+      <c r="B47" s="102"/>
+      <c r="C47" s="104"/>
+      <c r="D47" s="98"/>
+      <c r="E47" s="98"/>
     </row>
     <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="111" t="s">
-        <v>407</v>
-      </c>
-      <c r="B48" s="110" t="s">
-        <v>441</v>
-      </c>
-      <c r="C48" s="112"/>
-      <c r="D48" s="106"/>
-      <c r="E48" s="106"/>
+      <c r="A48" s="103" t="s">
+        <v>405</v>
+      </c>
+      <c r="B48" s="102" t="s">
+        <v>443</v>
+      </c>
+      <c r="C48" s="104"/>
+      <c r="D48" s="98"/>
+      <c r="E48" s="98"/>
     </row>
     <row r="49" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="113" t="s">
-        <v>407</v>
-      </c>
-      <c r="B49" s="110" t="s">
-        <v>442</v>
-      </c>
-      <c r="C49" s="110"/>
-      <c r="D49" s="106"/>
-      <c r="E49" s="106"/>
+      <c r="A49" s="105" t="s">
+        <v>405</v>
+      </c>
+      <c r="B49" s="102" t="s">
+        <v>444</v>
+      </c>
+      <c r="C49" s="102"/>
+      <c r="D49" s="98"/>
+      <c r="E49" s="98"/>
     </row>
     <row r="50" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="111"/>
-      <c r="B50" s="110"/>
-      <c r="C50" s="112"/>
-      <c r="D50" s="106"/>
-      <c r="E50" s="106"/>
+      <c r="A50" s="103"/>
+      <c r="B50" s="102"/>
+      <c r="C50" s="104"/>
+      <c r="D50" s="98"/>
+      <c r="E50" s="98"/>
     </row>
     <row r="51" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="111" t="s">
-        <v>413</v>
-      </c>
-      <c r="B51" s="110" t="s">
-        <v>443</v>
-      </c>
-      <c r="C51" s="112"/>
-      <c r="D51" s="106"/>
-      <c r="E51" s="106"/>
+      <c r="A51" s="103" t="s">
+        <v>411</v>
+      </c>
+      <c r="B51" s="102" t="s">
+        <v>445</v>
+      </c>
+      <c r="C51" s="104"/>
+      <c r="D51" s="98"/>
+      <c r="E51" s="98"/>
     </row>
     <row r="52" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="113" t="s">
-        <v>413</v>
-      </c>
-      <c r="B52" s="110" t="s">
-        <v>444</v>
-      </c>
-      <c r="C52" s="110"/>
-      <c r="D52" s="106"/>
-      <c r="E52" s="106"/>
-    </row>
-    <row r="53" spans="1:5" s="93" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="113"/>
-      <c r="B53" s="110"/>
-      <c r="C53" s="110"/>
-      <c r="D53" s="106"/>
-      <c r="E53" s="106"/>
+      <c r="A52" s="105" t="s">
+        <v>411</v>
+      </c>
+      <c r="B52" s="102" t="s">
+        <v>446</v>
+      </c>
+      <c r="C52" s="102"/>
+      <c r="D52" s="98"/>
+      <c r="E52" s="98"/>
+    </row>
+    <row r="53" spans="1:5" s="85" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="105"/>
+      <c r="B53" s="102"/>
+      <c r="C53" s="102"/>
+      <c r="D53" s="98"/>
+      <c r="E53" s="98"/>
     </row>
     <row r="54" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="111" t="s">
-        <v>414</v>
-      </c>
-      <c r="B54" s="110" t="s">
+      <c r="A54" s="103"/>
+      <c r="B54" s="102" t="s">
+        <v>261</v>
+      </c>
+      <c r="C54" s="102"/>
+      <c r="D54" s="98"/>
+      <c r="E54" s="98"/>
+    </row>
+    <row r="55" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="103"/>
+      <c r="B55" s="102" t="s">
         <v>262</v>
       </c>
-      <c r="C54" s="110"/>
-      <c r="D54" s="106"/>
-      <c r="E54" s="106"/>
-    </row>
-    <row r="55" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="111" t="s">
-        <v>414</v>
-      </c>
-      <c r="B55" s="110" t="s">
-        <v>263</v>
-      </c>
-      <c r="C55" s="110"/>
-      <c r="D55" s="106"/>
-      <c r="E55" s="106"/>
+      <c r="C55" s="102"/>
+      <c r="D55" s="98"/>
+      <c r="E55" s="98"/>
     </row>
     <row r="56" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="113"/>
-      <c r="B56" s="110"/>
-      <c r="C56" s="110"/>
-      <c r="D56" s="106"/>
-      <c r="E56" s="106"/>
+      <c r="A56" s="105"/>
+      <c r="B56" s="102"/>
+      <c r="C56" s="102"/>
+      <c r="D56" s="98"/>
+      <c r="E56" s="98"/>
     </row>
     <row r="57" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="108" t="s">
-        <v>419</v>
-      </c>
-      <c r="B57" s="107" t="s">
-        <v>246</v>
-      </c>
-      <c r="C57" s="89"/>
-      <c r="D57" s="106"/>
-      <c r="E57" s="106"/>
+      <c r="A57" s="100" t="s">
+        <v>417</v>
+      </c>
+      <c r="B57" s="99" t="s">
+        <v>245</v>
+      </c>
+      <c r="C57" s="81"/>
+      <c r="D57" s="98"/>
+      <c r="E57" s="98"/>
     </row>
     <row r="58" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="108" t="s">
-        <v>419</v>
-      </c>
-      <c r="B58" s="107" t="s">
-        <v>248</v>
-      </c>
-      <c r="C58" s="89"/>
-      <c r="D58" s="106"/>
-      <c r="E58" s="106"/>
+      <c r="A58" s="100" t="s">
+        <v>417</v>
+      </c>
+      <c r="B58" s="99" t="s">
+        <v>247</v>
+      </c>
+      <c r="C58" s="81"/>
+      <c r="D58" s="98"/>
+      <c r="E58" s="98"/>
     </row>
     <row r="59" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="109"/>
-      <c r="B59" s="106"/>
-      <c r="C59" s="106"/>
-      <c r="D59" s="106"/>
-      <c r="E59" s="106"/>
+      <c r="A59" s="101"/>
+      <c r="B59" s="98"/>
+      <c r="C59" s="98"/>
+      <c r="D59" s="98"/>
+      <c r="E59" s="98"/>
     </row>
     <row r="60" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="108"/>
-      <c r="B60" s="107"/>
-      <c r="C60" s="89"/>
-      <c r="D60" s="106"/>
-      <c r="E60" s="106"/>
+      <c r="A60" s="100"/>
+      <c r="B60" s="99"/>
+      <c r="C60" s="81"/>
+      <c r="D60" s="98"/>
+      <c r="E60" s="98"/>
     </row>
     <row r="61" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="108"/>
-      <c r="B61" s="107"/>
-      <c r="C61" s="89"/>
-      <c r="D61" s="106"/>
-      <c r="E61" s="106"/>
+      <c r="A61" s="100"/>
+      <c r="B61" s="99"/>
+      <c r="C61" s="81"/>
+      <c r="D61" s="98"/>
+      <c r="E61" s="98"/>
     </row>
     <row r="62" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="109"/>
-      <c r="B62" s="106"/>
-      <c r="C62" s="106"/>
-      <c r="D62" s="106"/>
-      <c r="E62" s="106"/>
+      <c r="A62" s="101"/>
+      <c r="B62" s="98"/>
+      <c r="C62" s="98"/>
+      <c r="D62" s="98"/>
+      <c r="E62" s="98"/>
     </row>
     <row r="63" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="108" t="s">
-        <v>421</v>
-      </c>
-      <c r="B63" s="107" t="s">
-        <v>264</v>
-      </c>
-      <c r="C63" s="89"/>
-      <c r="D63" s="106"/>
-      <c r="E63" s="106"/>
+      <c r="A63" s="100"/>
+      <c r="B63" s="99"/>
+      <c r="C63" s="81"/>
+      <c r="D63" s="98"/>
+      <c r="E63" s="98"/>
     </row>
     <row r="64" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="108" t="s">
-        <v>421</v>
-      </c>
-      <c r="B64" s="107" t="s">
-        <v>265</v>
-      </c>
-      <c r="C64" s="89"/>
-      <c r="D64" s="106"/>
-      <c r="E64" s="106"/>
+      <c r="A64" s="100"/>
+      <c r="B64" s="99"/>
+      <c r="C64" s="81"/>
+      <c r="D64" s="98"/>
+      <c r="E64" s="98"/>
     </row>
     <row r="65" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="109"/>
-      <c r="B65" s="106"/>
-      <c r="C65" s="106"/>
-      <c r="D65" s="106"/>
-      <c r="E65" s="106"/>
+      <c r="A65" s="101"/>
+      <c r="B65" s="98"/>
+      <c r="C65" s="98"/>
+      <c r="D65" s="98"/>
+      <c r="E65" s="98"/>
     </row>
     <row r="66" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="109"/>
-      <c r="B66" s="106"/>
-      <c r="C66" s="106"/>
-      <c r="D66" s="106"/>
-      <c r="E66" s="106"/>
+      <c r="A66" s="101"/>
+      <c r="B66" s="98"/>
+      <c r="C66" s="98"/>
+      <c r="D66" s="98"/>
+      <c r="E66" s="98"/>
     </row>
     <row r="67" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="114"/>
-      <c r="B67" s="106"/>
-      <c r="C67" s="106"/>
-      <c r="D67" s="106"/>
-      <c r="E67" s="106"/>
+      <c r="A67" s="106"/>
+      <c r="B67" s="98"/>
+      <c r="C67" s="98"/>
+      <c r="D67" s="98"/>
+      <c r="E67" s="98"/>
     </row>
     <row r="68" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="115"/>
+      <c r="A68" s="107"/>
     </row>
     <row r="69" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="116"/>
+      <c r="A69" s="108"/>
     </row>
     <row r="70" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="116"/>
+      <c r="A70" s="108"/>
     </row>
     <row r="71" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="115"/>
+      <c r="A71" s="107"/>
     </row>
     <row r="72" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="73" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9880,7 +9909,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   <ignoredErrors>
-    <ignoredError sqref="A3:A21 A48:B49 A51:A52 A54:A55 A57:A59" numberStoredAsText="1"/>
+    <ignoredError sqref="A3:A21 A48:B49 A51:A52 A57:A59" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -9904,883 +9933,883 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="46" t="s">
+        <v>263</v>
+      </c>
+      <c r="B1" s="46" t="s">
+        <v>264</v>
+      </c>
+      <c r="C1" s="46" t="s">
+        <v>265</v>
+      </c>
+      <c r="D1" s="46" t="s">
         <v>266</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="E1" s="46" t="s">
         <v>267</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="F1" s="46" t="s">
         <v>268</v>
       </c>
-      <c r="D1" s="50" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="46" t="s">
         <v>269</v>
       </c>
-      <c r="E1" s="50" t="s">
+      <c r="C2" s="46" t="s">
         <v>270</v>
       </c>
-      <c r="F1" s="50" t="s">
+      <c r="D2" s="46" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="50" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="50" t="s">
+      <c r="E2" s="46" t="s">
         <v>272</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="F2" s="46" t="s">
         <v>273</v>
       </c>
-      <c r="D2" s="50" t="s">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="47" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" s="47" t="s">
         <v>274</v>
       </c>
-      <c r="E2" s="50" t="s">
+      <c r="C3" s="47" t="s">
         <v>275</v>
       </c>
-      <c r="F2" s="50" t="s">
+      <c r="D3" s="47" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="51" t="s">
-        <v>97</v>
-      </c>
-      <c r="B3" s="51" t="s">
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="46" t="s">
         <v>277</v>
       </c>
-      <c r="C3" s="51" t="s">
+      <c r="C4" s="46" t="s">
+        <v>270</v>
+      </c>
+      <c r="D4" s="46" t="s">
+        <v>271</v>
+      </c>
+      <c r="E4" s="46" t="s">
         <v>278</v>
       </c>
-      <c r="D3" s="51" t="s">
+      <c r="F4" s="46" t="s">
         <v>279</v>
       </c>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="B4" s="50" t="s">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="46" t="s">
+        <v>142</v>
+      </c>
+      <c r="B5" s="46" t="s">
         <v>280</v>
       </c>
-      <c r="C4" s="50" t="s">
-        <v>273</v>
-      </c>
-      <c r="D4" s="50" t="s">
-        <v>274</v>
-      </c>
-      <c r="E4" s="50" t="s">
+      <c r="C5" s="46" t="s">
+        <v>275</v>
+      </c>
+      <c r="D5" s="46" t="s">
+        <v>271</v>
+      </c>
+      <c r="E5" s="46" t="s">
+        <v>272</v>
+      </c>
+      <c r="F5" s="49"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="46" t="s">
         <v>281</v>
       </c>
-      <c r="F4" s="50" t="s">
+      <c r="C6" s="46" t="s">
+        <v>275</v>
+      </c>
+      <c r="D6" s="46" t="s">
+        <v>281</v>
+      </c>
+      <c r="E6" s="46" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="50" t="s">
-        <v>142</v>
-      </c>
-      <c r="B5" s="50" t="s">
+      <c r="F6" s="49"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" s="46" t="s">
+        <v>178</v>
+      </c>
+      <c r="C7" s="46" t="s">
+        <v>275</v>
+      </c>
+      <c r="D7" s="46" t="s">
+        <v>178</v>
+      </c>
+      <c r="E7" s="46" t="s">
+        <v>282</v>
+      </c>
+      <c r="F7" s="49"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="46" t="s">
         <v>283</v>
       </c>
-      <c r="C5" s="50" t="s">
-        <v>278</v>
-      </c>
-      <c r="D5" s="50" t="s">
-        <v>274</v>
-      </c>
-      <c r="E5" s="50" t="s">
+      <c r="B8" s="46" t="s">
+        <v>284</v>
+      </c>
+      <c r="C8" s="46" t="s">
+        <v>285</v>
+      </c>
+      <c r="D8" s="46" t="s">
+        <v>286</v>
+      </c>
+      <c r="E8" s="46" t="s">
+        <v>287</v>
+      </c>
+      <c r="F8" s="46" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="46" t="s">
+        <v>106</v>
+      </c>
+      <c r="B9" s="46" t="s">
+        <v>289</v>
+      </c>
+      <c r="C9" s="46" t="s">
         <v>275</v>
       </c>
-      <c r="F5" s="53"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="50" t="s">
-        <v>58</v>
-      </c>
-      <c r="B6" s="50" t="s">
+      <c r="D9" s="46" t="s">
+        <v>271</v>
+      </c>
+      <c r="E9" s="46" t="s">
+        <v>272</v>
+      </c>
+      <c r="F9" s="49"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="46" t="s">
+        <v>290</v>
+      </c>
+      <c r="B10" s="46" t="s">
+        <v>180</v>
+      </c>
+      <c r="C10" s="46" t="s">
+        <v>275</v>
+      </c>
+      <c r="D10" s="46" t="s">
+        <v>286</v>
+      </c>
+      <c r="E10" s="46" t="s">
+        <v>272</v>
+      </c>
+      <c r="F10" s="46" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="46" t="s">
+        <v>292</v>
+      </c>
+      <c r="B11" s="46" t="s">
         <v>284</v>
       </c>
-      <c r="C6" s="50" t="s">
-        <v>278</v>
-      </c>
-      <c r="D6" s="50" t="s">
+      <c r="C11" s="46" t="s">
+        <v>285</v>
+      </c>
+      <c r="D11" s="46" t="s">
+        <v>271</v>
+      </c>
+      <c r="E11" s="46" t="s">
+        <v>272</v>
+      </c>
+      <c r="F11" s="46" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" s="46" t="s">
+        <v>294</v>
+      </c>
+      <c r="C12" s="46" t="s">
+        <v>275</v>
+      </c>
+      <c r="D12" s="46" t="s">
+        <v>271</v>
+      </c>
+      <c r="E12" s="46" t="s">
+        <v>295</v>
+      </c>
+      <c r="F12" s="46" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="47" t="s">
+        <v>297</v>
+      </c>
+      <c r="C13" s="47" t="s">
+        <v>275</v>
+      </c>
+      <c r="D13" s="47" t="s">
+        <v>276</v>
+      </c>
+      <c r="E13" s="47" t="s">
+        <v>298</v>
+      </c>
+      <c r="F13" s="48"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="46" t="s">
+        <v>166</v>
+      </c>
+      <c r="C14" s="46" t="s">
+        <v>275</v>
+      </c>
+      <c r="D14" s="46" t="s">
+        <v>166</v>
+      </c>
+      <c r="E14" s="46" t="s">
+        <v>282</v>
+      </c>
+      <c r="F14" s="46" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" s="46" t="s">
+        <v>300</v>
+      </c>
+      <c r="C15" s="46" t="s">
+        <v>270</v>
+      </c>
+      <c r="D15" s="46" t="s">
+        <v>271</v>
+      </c>
+      <c r="E15" s="46" t="s">
+        <v>272</v>
+      </c>
+      <c r="F15" s="49"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="46" t="s">
+        <v>301</v>
+      </c>
+      <c r="B16" s="46" t="s">
         <v>284</v>
       </c>
-      <c r="E6" s="50" t="s">
+      <c r="C16" s="46" t="s">
         <v>285</v>
       </c>
-      <c r="F6" s="53"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="50" t="s">
-        <v>78</v>
-      </c>
-      <c r="B7" s="50" t="s">
+      <c r="D16" s="46" t="s">
+        <v>271</v>
+      </c>
+      <c r="E16" s="46" t="s">
+        <v>272</v>
+      </c>
+      <c r="F16" s="46" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="46" t="s">
+        <v>93</v>
+      </c>
+      <c r="B17" s="46" t="s">
+        <v>303</v>
+      </c>
+      <c r="C17" s="46" t="s">
+        <v>275</v>
+      </c>
+      <c r="D17" s="46" t="s">
+        <v>304</v>
+      </c>
+      <c r="E17" s="46" t="s">
+        <v>272</v>
+      </c>
+      <c r="F17" s="46" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="46" t="s">
+        <v>306</v>
+      </c>
+      <c r="B18" s="46" t="s">
+        <v>167</v>
+      </c>
+      <c r="C18" s="46" t="s">
+        <v>307</v>
+      </c>
+      <c r="D18" s="46" t="s">
+        <v>286</v>
+      </c>
+      <c r="E18" s="46" t="s">
+        <v>287</v>
+      </c>
+      <c r="F18" s="46" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="50" t="s">
+        <v>308</v>
+      </c>
+      <c r="B19" s="50" t="s">
+        <v>284</v>
+      </c>
+      <c r="C19" s="50" t="s">
+        <v>285</v>
+      </c>
+      <c r="D19" s="50" t="s">
+        <v>309</v>
+      </c>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="46" t="s">
+        <v>140</v>
+      </c>
+      <c r="B20" s="46" t="s">
+        <v>310</v>
+      </c>
+      <c r="C20" s="46" t="s">
+        <v>275</v>
+      </c>
+      <c r="D20" s="46" t="s">
+        <v>271</v>
+      </c>
+      <c r="E20" s="46" t="s">
+        <v>272</v>
+      </c>
+      <c r="F20" s="46" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="46" t="s">
+        <v>311</v>
+      </c>
+      <c r="B21" s="46" t="s">
+        <v>284</v>
+      </c>
+      <c r="C21" s="46" t="s">
+        <v>285</v>
+      </c>
+      <c r="D21" s="46" t="s">
+        <v>170</v>
+      </c>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" s="46" t="s">
+        <v>312</v>
+      </c>
+      <c r="C22" s="46" t="s">
+        <v>270</v>
+      </c>
+      <c r="D22" s="46" t="s">
+        <v>286</v>
+      </c>
+      <c r="E22" s="46" t="s">
+        <v>313</v>
+      </c>
+      <c r="F22" s="46" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="46" t="s">
+        <v>314</v>
+      </c>
+      <c r="C23" s="46" t="s">
+        <v>275</v>
+      </c>
+      <c r="D23" s="46" t="s">
+        <v>314</v>
+      </c>
+      <c r="E23" s="46" t="s">
+        <v>282</v>
+      </c>
+      <c r="F23" s="46" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="50" t="s">
+        <v>316</v>
+      </c>
+      <c r="B24" s="50" t="s">
+        <v>284</v>
+      </c>
+      <c r="C24" s="50" t="s">
+        <v>285</v>
+      </c>
+      <c r="D24" s="50" t="s">
+        <v>309</v>
+      </c>
+      <c r="E24" s="51"/>
+      <c r="F24" s="51"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="46" t="s">
+        <v>317</v>
+      </c>
+      <c r="C25" s="46" t="s">
+        <v>270</v>
+      </c>
+      <c r="D25" s="46" t="s">
+        <v>271</v>
+      </c>
+      <c r="E25" s="46" t="s">
+        <v>272</v>
+      </c>
+      <c r="F25" s="46" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="46" t="s">
+        <v>319</v>
+      </c>
+      <c r="B26" s="46" t="s">
+        <v>284</v>
+      </c>
+      <c r="C26" s="46" t="s">
+        <v>285</v>
+      </c>
+      <c r="D26" s="46" t="s">
+        <v>271</v>
+      </c>
+      <c r="E26" s="46" t="s">
+        <v>295</v>
+      </c>
+      <c r="F26" s="46" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" s="46" t="s">
+        <v>173</v>
+      </c>
+      <c r="C27" s="46" t="s">
+        <v>275</v>
+      </c>
+      <c r="D27" s="46" t="s">
+        <v>173</v>
+      </c>
+      <c r="E27" s="46" t="s">
+        <v>282</v>
+      </c>
+      <c r="F27" s="49"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="46" t="s">
+        <v>103</v>
+      </c>
+      <c r="B28" s="46" t="s">
+        <v>321</v>
+      </c>
+      <c r="C28" s="46" t="s">
+        <v>270</v>
+      </c>
+      <c r="D28" s="46" t="s">
+        <v>286</v>
+      </c>
+      <c r="E28" s="46" t="s">
+        <v>295</v>
+      </c>
+      <c r="F28" s="46" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="46" t="s">
+        <v>323</v>
+      </c>
+      <c r="B29" s="46" t="s">
+        <v>284</v>
+      </c>
+      <c r="C29" s="46" t="s">
+        <v>285</v>
+      </c>
+      <c r="D29" s="46" t="s">
+        <v>271</v>
+      </c>
+      <c r="E29" s="46" t="s">
+        <v>295</v>
+      </c>
+      <c r="F29" s="46" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="B30" s="46" t="s">
+        <v>325</v>
+      </c>
+      <c r="C30" s="46" t="s">
+        <v>275</v>
+      </c>
+      <c r="D30" s="46" t="s">
+        <v>271</v>
+      </c>
+      <c r="E30" s="46" t="s">
+        <v>272</v>
+      </c>
+      <c r="F30" s="46" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="46" t="s">
+        <v>327</v>
+      </c>
+      <c r="B31" s="46" t="s">
+        <v>284</v>
+      </c>
+      <c r="C31" s="46" t="s">
+        <v>285</v>
+      </c>
+      <c r="D31" s="46" t="s">
+        <v>271</v>
+      </c>
+      <c r="E31" s="46" t="s">
+        <v>272</v>
+      </c>
+      <c r="F31" s="46" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="46" t="s">
+        <v>134</v>
+      </c>
+      <c r="B32" s="46" t="s">
+        <v>329</v>
+      </c>
+      <c r="C32" s="46" t="s">
+        <v>275</v>
+      </c>
+      <c r="D32" s="46" t="s">
+        <v>329</v>
+      </c>
+      <c r="E32" s="46" t="s">
+        <v>282</v>
+      </c>
+      <c r="F32" s="46" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="B33" s="46" t="s">
+        <v>331</v>
+      </c>
+      <c r="C33" s="46" t="s">
+        <v>270</v>
+      </c>
+      <c r="D33" s="46" t="s">
+        <v>286</v>
+      </c>
+      <c r="E33" s="52"/>
+      <c r="F33" s="46" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="46" t="s">
+        <v>127</v>
+      </c>
+      <c r="B34" s="46" t="s">
+        <v>333</v>
+      </c>
+      <c r="C34" s="46" t="s">
+        <v>270</v>
+      </c>
+      <c r="D34" s="46" t="s">
+        <v>271</v>
+      </c>
+      <c r="E34" s="46" t="s">
+        <v>272</v>
+      </c>
+      <c r="F34" s="49"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" s="46" t="s">
+        <v>334</v>
+      </c>
+      <c r="C35" s="46" t="s">
+        <v>275</v>
+      </c>
+      <c r="D35" s="46" t="s">
+        <v>271</v>
+      </c>
+      <c r="E35" s="46" t="s">
+        <v>272</v>
+      </c>
+      <c r="F35" s="46" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="B36" s="46" t="s">
+        <v>335</v>
+      </c>
+      <c r="C36" s="46" t="s">
+        <v>270</v>
+      </c>
+      <c r="D36" s="46" t="s">
+        <v>271</v>
+      </c>
+      <c r="E36" s="46" t="s">
+        <v>272</v>
+      </c>
+      <c r="F36" s="46" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="50" t="s">
+        <v>337</v>
+      </c>
+      <c r="B37" s="50" t="s">
+        <v>284</v>
+      </c>
+      <c r="C37" s="50" t="s">
+        <v>285</v>
+      </c>
+      <c r="D37" s="50" t="s">
+        <v>309</v>
+      </c>
+      <c r="E37" s="51"/>
+      <c r="F37" s="51"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="46" t="s">
+        <v>115</v>
+      </c>
+      <c r="B38" s="46" t="s">
+        <v>338</v>
+      </c>
+      <c r="C38" s="46" t="s">
+        <v>275</v>
+      </c>
+      <c r="D38" s="46" t="s">
+        <v>338</v>
+      </c>
+      <c r="E38" s="46" t="s">
+        <v>282</v>
+      </c>
+      <c r="F38" s="46" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="46" t="s">
+        <v>340</v>
+      </c>
+      <c r="B39" s="46" t="s">
+        <v>284</v>
+      </c>
+      <c r="C39" s="46" t="s">
+        <v>285</v>
+      </c>
+      <c r="D39" s="46" t="s">
+        <v>271</v>
+      </c>
+      <c r="E39" s="46" t="s">
+        <v>272</v>
+      </c>
+      <c r="F39" s="46" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" s="46" t="s">
+        <v>342</v>
+      </c>
+      <c r="C40" s="46" t="s">
+        <v>275</v>
+      </c>
+      <c r="D40" s="46" t="s">
+        <v>271</v>
+      </c>
+      <c r="E40" s="46" t="s">
+        <v>272</v>
+      </c>
+      <c r="F40" s="49"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="B41" s="46" t="s">
         <v>179</v>
       </c>
-      <c r="C7" s="50" t="s">
-        <v>278</v>
-      </c>
-      <c r="D7" s="50" t="s">
+      <c r="C41" s="46" t="s">
+        <v>275</v>
+      </c>
+      <c r="D41" s="46" t="s">
         <v>179</v>
       </c>
-      <c r="E7" s="50" t="s">
+      <c r="E41" s="46" t="s">
+        <v>282</v>
+      </c>
+      <c r="F41" s="46" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="B42" s="46" t="s">
+        <v>344</v>
+      </c>
+      <c r="C42" s="46" t="s">
+        <v>270</v>
+      </c>
+      <c r="D42" s="46" t="s">
+        <v>286</v>
+      </c>
+      <c r="E42" s="46" t="s">
+        <v>313</v>
+      </c>
+      <c r="F42" s="46" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="B43" s="46" t="s">
+        <v>345</v>
+      </c>
+      <c r="C43" s="46" t="s">
+        <v>270</v>
+      </c>
+      <c r="D43" s="46" t="s">
+        <v>271</v>
+      </c>
+      <c r="E43" s="46" t="s">
+        <v>272</v>
+      </c>
+      <c r="F43" s="49"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="46" t="s">
+        <v>346</v>
+      </c>
+      <c r="B44" s="46" t="s">
+        <v>284</v>
+      </c>
+      <c r="C44" s="46" t="s">
         <v>285</v>
       </c>
-      <c r="F7" s="53"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="50" t="s">
-        <v>286</v>
-      </c>
-      <c r="B8" s="50" t="s">
-        <v>287</v>
-      </c>
-      <c r="C8" s="50" t="s">
-        <v>288</v>
-      </c>
-      <c r="D8" s="50" t="s">
-        <v>289</v>
-      </c>
-      <c r="E8" s="50" t="s">
-        <v>290</v>
-      </c>
-      <c r="F8" s="50" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="50" t="s">
-        <v>106</v>
-      </c>
-      <c r="B9" s="50" t="s">
-        <v>292</v>
-      </c>
-      <c r="C9" s="50" t="s">
-        <v>278</v>
-      </c>
-      <c r="D9" s="50" t="s">
-        <v>274</v>
-      </c>
-      <c r="E9" s="50" t="s">
+      <c r="D44" s="46" t="s">
+        <v>271</v>
+      </c>
+      <c r="E44" s="46" t="s">
+        <v>272</v>
+      </c>
+      <c r="F44" s="49"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="B45" s="46" t="s">
+        <v>347</v>
+      </c>
+      <c r="C45" s="46" t="s">
+        <v>270</v>
+      </c>
+      <c r="D45" s="46" t="s">
+        <v>271</v>
+      </c>
+      <c r="E45" s="46" t="s">
+        <v>272</v>
+      </c>
+      <c r="F45" s="46" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="46" t="s">
+        <v>130</v>
+      </c>
+      <c r="B46" s="46" t="s">
+        <v>349</v>
+      </c>
+      <c r="C46" s="46" t="s">
         <v>275</v>
       </c>
-      <c r="F9" s="53"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="50" t="s">
-        <v>293</v>
-      </c>
-      <c r="B10" s="50" t="s">
-        <v>181</v>
-      </c>
-      <c r="C10" s="50" t="s">
-        <v>278</v>
-      </c>
-      <c r="D10" s="50" t="s">
-        <v>289</v>
-      </c>
-      <c r="E10" s="50" t="s">
-        <v>275</v>
-      </c>
-      <c r="F10" s="50" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="50" t="s">
-        <v>295</v>
-      </c>
-      <c r="B11" s="50" t="s">
-        <v>287</v>
-      </c>
-      <c r="C11" s="50" t="s">
-        <v>288</v>
-      </c>
-      <c r="D11" s="50" t="s">
-        <v>274</v>
-      </c>
-      <c r="E11" s="50" t="s">
-        <v>275</v>
-      </c>
-      <c r="F11" s="50" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="50" t="s">
-        <v>82</v>
-      </c>
-      <c r="B12" s="50" t="s">
-        <v>297</v>
-      </c>
-      <c r="C12" s="50" t="s">
-        <v>278</v>
-      </c>
-      <c r="D12" s="50" t="s">
-        <v>274</v>
-      </c>
-      <c r="E12" s="50" t="s">
-        <v>298</v>
-      </c>
-      <c r="F12" s="50" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="51" t="s">
-        <v>300</v>
-      </c>
-      <c r="C13" s="51" t="s">
-        <v>278</v>
-      </c>
-      <c r="D13" s="51" t="s">
-        <v>279</v>
-      </c>
-      <c r="E13" s="51" t="s">
-        <v>301</v>
-      </c>
-      <c r="F13" s="52"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="50" t="s">
-        <v>54</v>
-      </c>
-      <c r="B14" s="50" t="s">
-        <v>167</v>
-      </c>
-      <c r="C14" s="50" t="s">
-        <v>278</v>
-      </c>
-      <c r="D14" s="50" t="s">
-        <v>167</v>
-      </c>
-      <c r="E14" s="50" t="s">
-        <v>285</v>
-      </c>
-      <c r="F14" s="50" t="s">
+      <c r="D46" s="46" t="s">
+        <v>271</v>
+      </c>
+      <c r="E46" s="46" t="s">
+        <v>272</v>
+      </c>
+      <c r="F46" s="46" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="50" t="s">
-        <v>85</v>
-      </c>
-      <c r="B15" s="50" t="s">
-        <v>303</v>
-      </c>
-      <c r="C15" s="50" t="s">
-        <v>273</v>
-      </c>
-      <c r="D15" s="50" t="s">
-        <v>274</v>
-      </c>
-      <c r="E15" s="50" t="s">
-        <v>275</v>
-      </c>
-      <c r="F15" s="53"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="50" t="s">
-        <v>304</v>
-      </c>
-      <c r="B16" s="50" t="s">
-        <v>287</v>
-      </c>
-      <c r="C16" s="50" t="s">
-        <v>288</v>
-      </c>
-      <c r="D16" s="50" t="s">
-        <v>274</v>
-      </c>
-      <c r="E16" s="50" t="s">
-        <v>275</v>
-      </c>
-      <c r="F16" s="50" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="50" t="s">
-        <v>93</v>
-      </c>
-      <c r="B17" s="50" t="s">
-        <v>306</v>
-      </c>
-      <c r="C17" s="50" t="s">
-        <v>278</v>
-      </c>
-      <c r="D17" s="50" t="s">
-        <v>307</v>
-      </c>
-      <c r="E17" s="50" t="s">
-        <v>275</v>
-      </c>
-      <c r="F17" s="50" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="50" t="s">
-        <v>309</v>
-      </c>
-      <c r="B18" s="50" t="s">
-        <v>168</v>
-      </c>
-      <c r="C18" s="50" t="s">
-        <v>310</v>
-      </c>
-      <c r="D18" s="50" t="s">
-        <v>289</v>
-      </c>
-      <c r="E18" s="50" t="s">
-        <v>290</v>
-      </c>
-      <c r="F18" s="50" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="54" t="s">
-        <v>311</v>
-      </c>
-      <c r="B19" s="54" t="s">
-        <v>287</v>
-      </c>
-      <c r="C19" s="54" t="s">
-        <v>288</v>
-      </c>
-      <c r="D19" s="54" t="s">
-        <v>312</v>
-      </c>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="50" t="s">
-        <v>140</v>
-      </c>
-      <c r="B20" s="50" t="s">
-        <v>313</v>
-      </c>
-      <c r="C20" s="50" t="s">
-        <v>278</v>
-      </c>
-      <c r="D20" s="50" t="s">
-        <v>274</v>
-      </c>
-      <c r="E20" s="50" t="s">
-        <v>275</v>
-      </c>
-      <c r="F20" s="50" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="50" t="s">
-        <v>314</v>
-      </c>
-      <c r="B21" s="50" t="s">
-        <v>287</v>
-      </c>
-      <c r="C21" s="50" t="s">
-        <v>288</v>
-      </c>
-      <c r="D21" s="50" t="s">
-        <v>171</v>
-      </c>
-      <c r="E21" s="53"/>
-      <c r="F21" s="53"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="50" t="s">
-        <v>72</v>
-      </c>
-      <c r="B22" s="50" t="s">
-        <v>315</v>
-      </c>
-      <c r="C22" s="50" t="s">
-        <v>273</v>
-      </c>
-      <c r="D22" s="50" t="s">
-        <v>289</v>
-      </c>
-      <c r="E22" s="50" t="s">
-        <v>316</v>
-      </c>
-      <c r="F22" s="50" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="50" t="s">
-        <v>37</v>
-      </c>
-      <c r="B23" s="50" t="s">
-        <v>317</v>
-      </c>
-      <c r="C23" s="50" t="s">
-        <v>278</v>
-      </c>
-      <c r="D23" s="50" t="s">
-        <v>317</v>
-      </c>
-      <c r="E23" s="50" t="s">
-        <v>285</v>
-      </c>
-      <c r="F23" s="50" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="54" t="s">
-        <v>319</v>
-      </c>
-      <c r="B24" s="54" t="s">
-        <v>287</v>
-      </c>
-      <c r="C24" s="54" t="s">
-        <v>288</v>
-      </c>
-      <c r="D24" s="54" t="s">
-        <v>312</v>
-      </c>
-      <c r="E24" s="55"/>
-      <c r="F24" s="55"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="50" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25" s="50" t="s">
-        <v>320</v>
-      </c>
-      <c r="C25" s="50" t="s">
-        <v>273</v>
-      </c>
-      <c r="D25" s="50" t="s">
-        <v>274</v>
-      </c>
-      <c r="E25" s="50" t="s">
-        <v>275</v>
-      </c>
-      <c r="F25" s="50" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="50" t="s">
-        <v>322</v>
-      </c>
-      <c r="B26" s="50" t="s">
-        <v>287</v>
-      </c>
-      <c r="C26" s="50" t="s">
-        <v>288</v>
-      </c>
-      <c r="D26" s="50" t="s">
-        <v>274</v>
-      </c>
-      <c r="E26" s="50" t="s">
-        <v>298</v>
-      </c>
-      <c r="F26" s="50" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="50" t="s">
-        <v>51</v>
-      </c>
-      <c r="B27" s="50" t="s">
-        <v>174</v>
-      </c>
-      <c r="C27" s="50" t="s">
-        <v>278</v>
-      </c>
-      <c r="D27" s="50" t="s">
-        <v>174</v>
-      </c>
-      <c r="E27" s="50" t="s">
-        <v>285</v>
-      </c>
-      <c r="F27" s="53"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="50" t="s">
-        <v>103</v>
-      </c>
-      <c r="B28" s="50" t="s">
-        <v>324</v>
-      </c>
-      <c r="C28" s="50" t="s">
-        <v>273</v>
-      </c>
-      <c r="D28" s="50" t="s">
-        <v>289</v>
-      </c>
-      <c r="E28" s="50" t="s">
-        <v>298</v>
-      </c>
-      <c r="F28" s="50" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="50" t="s">
-        <v>326</v>
-      </c>
-      <c r="B29" s="50" t="s">
-        <v>287</v>
-      </c>
-      <c r="C29" s="50" t="s">
-        <v>288</v>
-      </c>
-      <c r="D29" s="50" t="s">
-        <v>274</v>
-      </c>
-      <c r="E29" s="50" t="s">
-        <v>298</v>
-      </c>
-      <c r="F29" s="50" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="50" t="s">
-        <v>68</v>
-      </c>
-      <c r="B30" s="50" t="s">
-        <v>328</v>
-      </c>
-      <c r="C30" s="50" t="s">
-        <v>278</v>
-      </c>
-      <c r="D30" s="50" t="s">
-        <v>274</v>
-      </c>
-      <c r="E30" s="50" t="s">
-        <v>275</v>
-      </c>
-      <c r="F30" s="50" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="50" t="s">
-        <v>330</v>
-      </c>
-      <c r="B31" s="50" t="s">
-        <v>287</v>
-      </c>
-      <c r="C31" s="50" t="s">
-        <v>288</v>
-      </c>
-      <c r="D31" s="50" t="s">
-        <v>274</v>
-      </c>
-      <c r="E31" s="50" t="s">
-        <v>275</v>
-      </c>
-      <c r="F31" s="50" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="50" t="s">
-        <v>134</v>
-      </c>
-      <c r="B32" s="50" t="s">
-        <v>332</v>
-      </c>
-      <c r="C32" s="50" t="s">
-        <v>278</v>
-      </c>
-      <c r="D32" s="50" t="s">
-        <v>332</v>
-      </c>
-      <c r="E32" s="50" t="s">
-        <v>285</v>
-      </c>
-      <c r="F32" s="50" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="50" t="s">
-        <v>75</v>
-      </c>
-      <c r="B33" s="50" t="s">
-        <v>334</v>
-      </c>
-      <c r="C33" s="50" t="s">
-        <v>273</v>
-      </c>
-      <c r="D33" s="50" t="s">
-        <v>289</v>
-      </c>
-      <c r="E33" s="56"/>
-      <c r="F33" s="50" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="50" t="s">
-        <v>127</v>
-      </c>
-      <c r="B34" s="50" t="s">
-        <v>336</v>
-      </c>
-      <c r="C34" s="50" t="s">
-        <v>273</v>
-      </c>
-      <c r="D34" s="50" t="s">
-        <v>274</v>
-      </c>
-      <c r="E34" s="50" t="s">
-        <v>275</v>
-      </c>
-      <c r="F34" s="53"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="B35" s="50" t="s">
-        <v>337</v>
-      </c>
-      <c r="C35" s="50" t="s">
-        <v>278</v>
-      </c>
-      <c r="D35" s="50" t="s">
-        <v>274</v>
-      </c>
-      <c r="E35" s="50" t="s">
-        <v>275</v>
-      </c>
-      <c r="F35" s="50" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="50" t="s">
-        <v>100</v>
-      </c>
-      <c r="B36" s="50" t="s">
-        <v>338</v>
-      </c>
-      <c r="C36" s="50" t="s">
-        <v>273</v>
-      </c>
-      <c r="D36" s="50" t="s">
-        <v>274</v>
-      </c>
-      <c r="E36" s="50" t="s">
-        <v>275</v>
-      </c>
-      <c r="F36" s="50" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="54" t="s">
-        <v>340</v>
-      </c>
-      <c r="B37" s="54" t="s">
-        <v>287</v>
-      </c>
-      <c r="C37" s="54" t="s">
-        <v>288</v>
-      </c>
-      <c r="D37" s="54" t="s">
-        <v>312</v>
-      </c>
-      <c r="E37" s="55"/>
-      <c r="F37" s="55"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="50" t="s">
-        <v>115</v>
-      </c>
-      <c r="B38" s="50" t="s">
-        <v>341</v>
-      </c>
-      <c r="C38" s="50" t="s">
-        <v>278</v>
-      </c>
-      <c r="D38" s="50" t="s">
-        <v>341</v>
-      </c>
-      <c r="E38" s="50" t="s">
-        <v>285</v>
-      </c>
-      <c r="F38" s="50" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="50" t="s">
-        <v>343</v>
-      </c>
-      <c r="B39" s="50" t="s">
-        <v>287</v>
-      </c>
-      <c r="C39" s="50" t="s">
-        <v>288</v>
-      </c>
-      <c r="D39" s="50" t="s">
-        <v>274</v>
-      </c>
-      <c r="E39" s="50" t="s">
-        <v>275</v>
-      </c>
-      <c r="F39" s="50" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="50" t="s">
-        <v>44</v>
-      </c>
-      <c r="B40" s="50" t="s">
-        <v>345</v>
-      </c>
-      <c r="C40" s="50" t="s">
-        <v>278</v>
-      </c>
-      <c r="D40" s="50" t="s">
-        <v>274</v>
-      </c>
-      <c r="E40" s="50" t="s">
-        <v>275</v>
-      </c>
-      <c r="F40" s="53"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="B41" s="50" t="s">
-        <v>180</v>
-      </c>
-      <c r="C41" s="50" t="s">
-        <v>278</v>
-      </c>
-      <c r="D41" s="50" t="s">
-        <v>180</v>
-      </c>
-      <c r="E41" s="50" t="s">
-        <v>285</v>
-      </c>
-      <c r="F41" s="50" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="50" t="s">
-        <v>65</v>
-      </c>
-      <c r="B42" s="50" t="s">
-        <v>347</v>
-      </c>
-      <c r="C42" s="50" t="s">
-        <v>273</v>
-      </c>
-      <c r="D42" s="50" t="s">
-        <v>289</v>
-      </c>
-      <c r="E42" s="50" t="s">
-        <v>316</v>
-      </c>
-      <c r="F42" s="50" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="50" t="s">
-        <v>124</v>
-      </c>
-      <c r="B43" s="50" t="s">
-        <v>348</v>
-      </c>
-      <c r="C43" s="50" t="s">
-        <v>273</v>
-      </c>
-      <c r="D43" s="50" t="s">
-        <v>274</v>
-      </c>
-      <c r="E43" s="50" t="s">
-        <v>275</v>
-      </c>
-      <c r="F43" s="53"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="50" t="s">
-        <v>349</v>
-      </c>
-      <c r="B44" s="50" t="s">
-        <v>287</v>
-      </c>
-      <c r="C44" s="50" t="s">
-        <v>288</v>
-      </c>
-      <c r="D44" s="50" t="s">
-        <v>274</v>
-      </c>
-      <c r="E44" s="50" t="s">
-        <v>275</v>
-      </c>
-      <c r="F44" s="53"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="50" t="s">
-        <v>88</v>
-      </c>
-      <c r="B45" s="50" t="s">
-        <v>350</v>
-      </c>
-      <c r="C45" s="50" t="s">
-        <v>273</v>
-      </c>
-      <c r="D45" s="50" t="s">
-        <v>274</v>
-      </c>
-      <c r="E45" s="50" t="s">
-        <v>275</v>
-      </c>
-      <c r="F45" s="50" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="50" t="s">
-        <v>130</v>
-      </c>
-      <c r="B46" s="50" t="s">
-        <v>352</v>
-      </c>
-      <c r="C46" s="50" t="s">
-        <v>278</v>
-      </c>
-      <c r="D46" s="50" t="s">
-        <v>274</v>
-      </c>
-      <c r="E46" s="50" t="s">
-        <v>275</v>
-      </c>
-      <c r="F46" s="50" t="s">
-        <v>305</v>
-      </c>
-    </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="57"/>
+      <c r="A47" s="53"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Antonio-Feed/__FeedPartsInventory.xlsx
+++ b/Antonio-Feed/__FeedPartsInventory.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pollak/Documents/GitHub/Front-Page/Antonio-Feed/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarah/Documents/GitHub/Front-Page/Antonio-Feed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7F8EAC3-48D2-C54F-8084-FF01F9B6D07A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4850137B-B0C0-134A-9407-8A430DD47DCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="70120" yWindow="460" windowWidth="35840" windowHeight="19760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parts At ATA" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="471">
   <si>
     <t>Antenna Inventory</t>
   </si>
@@ -552,28 +552,13 @@
     <t>5C4-007</t>
   </si>
   <si>
-    <t>Feed Lab (1G)</t>
-  </si>
-  <si>
     <t>Minex</t>
   </si>
   <si>
-    <t>Feed Lab (2B)</t>
-  </si>
-  <si>
-    <t>Feed Lab (3L)</t>
-  </si>
-  <si>
     <t>1K</t>
   </si>
   <si>
     <t>NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Feed Lab (1H) </t>
-  </si>
-  <si>
-    <t>Feed Lab (2J)</t>
   </si>
   <si>
     <t>5C4-016</t>
@@ -1166,9 +1151,6 @@
     <t>X=0.09 Y=0.04 Z=0.16</t>
   </si>
   <si>
-    <t>(---) 83 / 84</t>
-  </si>
-  <si>
     <t>X=0.05 Y=0.05 Z=0.12</t>
   </si>
   <si>
@@ -1244,9 +1226,6 @@
     <t>(014) 60 / 64</t>
   </si>
   <si>
-    <t>(---) 75 / 82</t>
-  </si>
-  <si>
     <t>CB-0022</t>
   </si>
   <si>
@@ -1334,18 +1313,6 @@
     <t>no number on pyramid</t>
   </si>
   <si>
-    <t>(---) 53 / 72</t>
-  </si>
-  <si>
-    <t>(---) 37 / 56</t>
-  </si>
-  <si>
-    <t>(---) 18 / 40</t>
-  </si>
-  <si>
-    <t>(---) 47 / 52</t>
-  </si>
-  <si>
     <t>Pyramid SN / LNAs</t>
   </si>
   <si>
@@ -1418,9 +1385,6 @@
     <t>YES</t>
   </si>
   <si>
-    <t>(---) 45 / 48</t>
-  </si>
-  <si>
     <t>CB-0050</t>
   </si>
   <si>
@@ -1473,6 +1437,30 @@
   </si>
   <si>
     <t>(007) 41 / 99</t>
+  </si>
+  <si>
+    <t>(005) 47 / 52</t>
+  </si>
+  <si>
+    <t>Pyramid not labeled</t>
+  </si>
+  <si>
+    <t>(006) 75 / 82</t>
+  </si>
+  <si>
+    <t>(012) 37 / 56</t>
+  </si>
+  <si>
+    <t>(013) 53 / 72</t>
+  </si>
+  <si>
+    <t>(018) 18 / 40</t>
+  </si>
+  <si>
+    <t>(015) 45 / 48</t>
+  </si>
+  <si>
+    <t>(020) 83 / 84</t>
   </si>
 </sst>
 </file>
@@ -1643,7 +1631,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="20">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1755,6 +1743,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1986,7 +1980,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="156">
+  <cellXfs count="157">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2079,7 +2073,6 @@
     <xf numFmtId="0" fontId="21" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2208,6 +2201,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2241,22 +2241,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2500,25 +2495,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="135" t="s">
+      <c r="A1" s="139" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="136"/>
-      <c r="C1" s="136"/>
-      <c r="D1" s="136"/>
-      <c r="E1" s="136"/>
-      <c r="F1" s="136"/>
-      <c r="G1" s="136"/>
-      <c r="H1" s="137"/>
-      <c r="I1" s="138"/>
-      <c r="J1" s="138"/>
-      <c r="K1" s="137"/>
-      <c r="L1" s="138"/>
-      <c r="M1" s="138"/>
-      <c r="N1" s="138"/>
-      <c r="O1" s="138"/>
-      <c r="P1" s="138"/>
-      <c r="Q1" s="138"/>
+      <c r="B1" s="140"/>
+      <c r="C1" s="140"/>
+      <c r="D1" s="140"/>
+      <c r="E1" s="140"/>
+      <c r="F1" s="140"/>
+      <c r="G1" s="140"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
+      <c r="K1" s="141"/>
+      <c r="L1" s="142"/>
+      <c r="M1" s="142"/>
+      <c r="N1" s="142"/>
+      <c r="O1" s="142"/>
+      <c r="P1" s="142"/>
+      <c r="Q1" s="142"/>
     </row>
     <row r="2" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -2542,16 +2537,16 @@
       <c r="G2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="71"/>
-      <c r="N2" s="71"/>
-      <c r="O2" s="71"/>
-      <c r="P2" s="71"/>
-      <c r="Q2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="71"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="70"/>
     </row>
     <row r="3" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="str">
@@ -2573,16 +2568,16 @@
       <c r="F3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="70"/>
-      <c r="K3" s="70"/>
-      <c r="L3" s="70"/>
-      <c r="M3" s="70"/>
-      <c r="N3" s="70"/>
-      <c r="O3" s="70"/>
-      <c r="P3" s="70"/>
-      <c r="Q3" s="70"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="69"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="69"/>
+      <c r="O3" s="69"/>
+      <c r="P3" s="69"/>
+      <c r="Q3" s="69"/>
     </row>
     <row r="4" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="str">
@@ -2598,16 +2593,16 @@
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70"/>
-      <c r="K4" s="70"/>
-      <c r="L4" s="70"/>
-      <c r="M4" s="70"/>
-      <c r="N4" s="70"/>
-      <c r="O4" s="70"/>
-      <c r="P4" s="70"/>
-      <c r="Q4" s="70"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="69"/>
+      <c r="N4" s="69"/>
+      <c r="O4" s="69"/>
+      <c r="P4" s="69"/>
+      <c r="Q4" s="69"/>
     </row>
     <row r="5" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="str">
@@ -2631,16 +2626,16 @@
         <v>27</v>
       </c>
       <c r="G5" s="9"/>
-      <c r="H5" s="70"/>
-      <c r="I5" s="70"/>
-      <c r="J5" s="70"/>
-      <c r="K5" s="70"/>
-      <c r="L5" s="70"/>
-      <c r="M5" s="70"/>
-      <c r="N5" s="70"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="70"/>
-      <c r="Q5" s="70"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="69"/>
+      <c r="K5" s="69"/>
+      <c r="L5" s="69"/>
+      <c r="M5" s="69"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="69"/>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="69"/>
     </row>
     <row r="6" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="str">
@@ -2653,19 +2648,19 @@
       <c r="C6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="70"/>
-      <c r="J6" s="70"/>
-      <c r="K6" s="70"/>
-      <c r="L6" s="70"/>
-      <c r="M6" s="70"/>
-      <c r="N6" s="70"/>
-      <c r="O6" s="70"/>
-      <c r="P6" s="70"/>
-      <c r="Q6" s="70"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="69"/>
+      <c r="M6" s="69"/>
+      <c r="N6" s="69"/>
+      <c r="O6" s="69"/>
+      <c r="P6" s="69"/>
+      <c r="Q6" s="69"/>
     </row>
     <row r="7" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="str">
@@ -2678,24 +2673,24 @@
       <c r="C7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="129" t="s">
-        <v>241</v>
+      <c r="D7" s="128" t="s">
+        <v>236</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="F7" s="80"/>
+      <c r="F7" s="79"/>
       <c r="G7" s="9"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="70"/>
-      <c r="J7" s="70"/>
-      <c r="K7" s="70"/>
-      <c r="L7" s="70"/>
-      <c r="M7" s="70"/>
-      <c r="N7" s="70"/>
-      <c r="O7" s="70"/>
-      <c r="P7" s="70"/>
-      <c r="Q7" s="70"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="69"/>
+      <c r="J7" s="69"/>
+      <c r="K7" s="69"/>
+      <c r="L7" s="69"/>
+      <c r="M7" s="69"/>
+      <c r="N7" s="69"/>
+      <c r="O7" s="69"/>
+      <c r="P7" s="69"/>
+      <c r="Q7" s="69"/>
     </row>
     <row r="8" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="str">
@@ -2717,16 +2712,16 @@
       <c r="F8" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="70"/>
-      <c r="I8" s="70"/>
-      <c r="J8" s="70"/>
-      <c r="K8" s="70"/>
-      <c r="L8" s="70"/>
-      <c r="M8" s="70"/>
-      <c r="N8" s="70"/>
-      <c r="O8" s="70"/>
-      <c r="P8" s="70"/>
-      <c r="Q8" s="70"/>
+      <c r="H8" s="69"/>
+      <c r="I8" s="69"/>
+      <c r="J8" s="69"/>
+      <c r="K8" s="69"/>
+      <c r="L8" s="69"/>
+      <c r="M8" s="69"/>
+      <c r="N8" s="69"/>
+      <c r="O8" s="69"/>
+      <c r="P8" s="69"/>
+      <c r="Q8" s="69"/>
     </row>
     <row r="9" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="str">
@@ -2740,23 +2735,23 @@
         <v>40</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="70"/>
-      <c r="J9" s="70"/>
-      <c r="K9" s="70"/>
-      <c r="L9" s="70"/>
-      <c r="M9" s="70"/>
-      <c r="N9" s="70"/>
-      <c r="O9" s="70"/>
-      <c r="P9" s="70"/>
-      <c r="Q9" s="70"/>
+      <c r="H9" s="69"/>
+      <c r="I9" s="69"/>
+      <c r="J9" s="69"/>
+      <c r="K9" s="69"/>
+      <c r="L9" s="69"/>
+      <c r="M9" s="69"/>
+      <c r="N9" s="69"/>
+      <c r="O9" s="69"/>
+      <c r="P9" s="69"/>
+      <c r="Q9" s="69"/>
     </row>
     <row r="10" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="str">
@@ -2779,16 +2774,16 @@
       <c r="F10" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H10" s="70"/>
-      <c r="I10" s="70"/>
-      <c r="J10" s="70"/>
-      <c r="K10" s="70"/>
-      <c r="L10" s="70"/>
-      <c r="M10" s="70"/>
-      <c r="N10" s="70"/>
-      <c r="O10" s="70"/>
-      <c r="P10" s="70"/>
-      <c r="Q10" s="70"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="69"/>
+      <c r="J10" s="69"/>
+      <c r="K10" s="69"/>
+      <c r="L10" s="69"/>
+      <c r="M10" s="69"/>
+      <c r="N10" s="69"/>
+      <c r="O10" s="69"/>
+      <c r="P10" s="69"/>
+      <c r="Q10" s="69"/>
     </row>
     <row r="11" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="str">
@@ -2805,16 +2800,16 @@
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
-      <c r="H11" s="70"/>
-      <c r="I11" s="70"/>
-      <c r="J11" s="70"/>
-      <c r="K11" s="70"/>
-      <c r="L11" s="70"/>
-      <c r="M11" s="70"/>
-      <c r="N11" s="70"/>
-      <c r="O11" s="70"/>
-      <c r="P11" s="70"/>
-      <c r="Q11" s="70"/>
+      <c r="H11" s="69"/>
+      <c r="I11" s="69"/>
+      <c r="J11" s="69"/>
+      <c r="K11" s="69"/>
+      <c r="L11" s="69"/>
+      <c r="M11" s="69"/>
+      <c r="N11" s="69"/>
+      <c r="O11" s="69"/>
+      <c r="P11" s="69"/>
+      <c r="Q11" s="69"/>
     </row>
     <row r="12" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="str">
@@ -2837,16 +2832,16 @@
       <c r="F12" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="H12" s="70"/>
-      <c r="I12" s="70"/>
-      <c r="J12" s="70"/>
-      <c r="K12" s="70"/>
-      <c r="L12" s="70"/>
-      <c r="M12" s="70"/>
-      <c r="N12" s="70"/>
-      <c r="O12" s="70"/>
-      <c r="P12" s="70"/>
-      <c r="Q12" s="70"/>
+      <c r="H12" s="69"/>
+      <c r="I12" s="69"/>
+      <c r="J12" s="69"/>
+      <c r="K12" s="69"/>
+      <c r="L12" s="69"/>
+      <c r="M12" s="69"/>
+      <c r="N12" s="69"/>
+      <c r="O12" s="69"/>
+      <c r="P12" s="69"/>
+      <c r="Q12" s="69"/>
     </row>
     <row r="13" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="str">
@@ -2854,7 +2849,7 @@
         <v>2A</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>53</v>
@@ -2869,16 +2864,16 @@
       <c r="F13" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="H13" s="70"/>
-      <c r="I13" s="70"/>
-      <c r="J13" s="70"/>
-      <c r="K13" s="70"/>
-      <c r="L13" s="70"/>
-      <c r="M13" s="70"/>
-      <c r="N13" s="70"/>
-      <c r="O13" s="70"/>
-      <c r="P13" s="70"/>
-      <c r="Q13" s="70"/>
+      <c r="H13" s="69"/>
+      <c r="I13" s="69"/>
+      <c r="J13" s="69"/>
+      <c r="K13" s="69"/>
+      <c r="L13" s="69"/>
+      <c r="M13" s="69"/>
+      <c r="N13" s="69"/>
+      <c r="O13" s="69"/>
+      <c r="P13" s="69"/>
+      <c r="Q13" s="69"/>
     </row>
     <row r="14" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="str">
@@ -2901,17 +2896,17 @@
       <c r="F14" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="G14" s="127"/>
-      <c r="H14" s="70"/>
-      <c r="I14" s="70"/>
-      <c r="J14" s="70"/>
-      <c r="K14" s="70"/>
-      <c r="L14" s="70"/>
-      <c r="M14" s="70"/>
-      <c r="N14" s="70"/>
-      <c r="O14" s="70"/>
-      <c r="P14" s="70"/>
-      <c r="Q14" s="70"/>
+      <c r="G14" s="126"/>
+      <c r="H14" s="69"/>
+      <c r="I14" s="69"/>
+      <c r="J14" s="69"/>
+      <c r="K14" s="69"/>
+      <c r="L14" s="69"/>
+      <c r="M14" s="69"/>
+      <c r="N14" s="69"/>
+      <c r="O14" s="69"/>
+      <c r="P14" s="69"/>
+      <c r="Q14" s="69"/>
     </row>
     <row r="15" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="str">
@@ -2925,22 +2920,22 @@
         <v>61</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>41</v>
       </c>
       <c r="F15" s="4"/>
-      <c r="H15" s="70"/>
-      <c r="I15" s="70"/>
-      <c r="J15" s="70"/>
-      <c r="K15" s="70"/>
-      <c r="L15" s="70"/>
-      <c r="M15" s="70"/>
-      <c r="N15" s="70"/>
-      <c r="O15" s="70"/>
-      <c r="P15" s="70"/>
-      <c r="Q15" s="70"/>
+      <c r="H15" s="69"/>
+      <c r="I15" s="69"/>
+      <c r="J15" s="69"/>
+      <c r="K15" s="69"/>
+      <c r="L15" s="69"/>
+      <c r="M15" s="69"/>
+      <c r="N15" s="69"/>
+      <c r="O15" s="69"/>
+      <c r="P15" s="69"/>
+      <c r="Q15" s="69"/>
     </row>
     <row r="16" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="str">
@@ -2956,16 +2951,16 @@
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
-      <c r="H16" s="70"/>
-      <c r="I16" s="70"/>
-      <c r="J16" s="70"/>
-      <c r="K16" s="70"/>
-      <c r="L16" s="70"/>
-      <c r="M16" s="70"/>
-      <c r="N16" s="70"/>
-      <c r="O16" s="70"/>
-      <c r="P16" s="70"/>
-      <c r="Q16" s="70"/>
+      <c r="H16" s="69"/>
+      <c r="I16" s="69"/>
+      <c r="J16" s="69"/>
+      <c r="K16" s="69"/>
+      <c r="L16" s="69"/>
+      <c r="M16" s="69"/>
+      <c r="N16" s="69"/>
+      <c r="O16" s="69"/>
+      <c r="P16" s="69"/>
+      <c r="Q16" s="69"/>
     </row>
     <row r="17" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="str">
@@ -2979,7 +2974,7 @@
         <v>67</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>68</v>
@@ -2987,16 +2982,16 @@
       <c r="F17" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="H17" s="70"/>
-      <c r="I17" s="70"/>
-      <c r="J17" s="70"/>
-      <c r="K17" s="70"/>
-      <c r="L17" s="70"/>
-      <c r="M17" s="70"/>
-      <c r="N17" s="70"/>
-      <c r="O17" s="70"/>
-      <c r="P17" s="70"/>
-      <c r="Q17" s="70"/>
+      <c r="H17" s="69"/>
+      <c r="I17" s="69"/>
+      <c r="J17" s="69"/>
+      <c r="K17" s="69"/>
+      <c r="L17" s="69"/>
+      <c r="M17" s="69"/>
+      <c r="N17" s="69"/>
+      <c r="O17" s="69"/>
+      <c r="P17" s="69"/>
+      <c r="Q17" s="69"/>
     </row>
     <row r="18" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="str">
@@ -3012,16 +3007,16 @@
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
-      <c r="H18" s="70"/>
-      <c r="I18" s="70"/>
-      <c r="J18" s="70"/>
-      <c r="K18" s="70"/>
-      <c r="L18" s="70"/>
-      <c r="M18" s="70"/>
-      <c r="N18" s="70"/>
-      <c r="O18" s="70"/>
-      <c r="P18" s="70"/>
-      <c r="Q18" s="70"/>
+      <c r="H18" s="69"/>
+      <c r="I18" s="69"/>
+      <c r="J18" s="69"/>
+      <c r="K18" s="69"/>
+      <c r="L18" s="69"/>
+      <c r="M18" s="69"/>
+      <c r="N18" s="69"/>
+      <c r="O18" s="69"/>
+      <c r="P18" s="69"/>
+      <c r="Q18" s="69"/>
     </row>
     <row r="19" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="str">
@@ -3038,16 +3033,16 @@
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
-      <c r="H19" s="70"/>
-      <c r="I19" s="70"/>
-      <c r="J19" s="70"/>
-      <c r="K19" s="70"/>
-      <c r="L19" s="70"/>
-      <c r="M19" s="70"/>
-      <c r="N19" s="70"/>
-      <c r="O19" s="70"/>
-      <c r="P19" s="70"/>
-      <c r="Q19" s="70"/>
+      <c r="H19" s="69"/>
+      <c r="I19" s="69"/>
+      <c r="J19" s="69"/>
+      <c r="K19" s="69"/>
+      <c r="L19" s="69"/>
+      <c r="M19" s="69"/>
+      <c r="N19" s="69"/>
+      <c r="O19" s="69"/>
+      <c r="P19" s="69"/>
+      <c r="Q19" s="69"/>
     </row>
     <row r="20" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="str">
@@ -3055,13 +3050,13 @@
         <v>2H</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>76</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>78</v>
@@ -3069,16 +3064,16 @@
       <c r="F20" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="H20" s="70"/>
-      <c r="I20" s="70"/>
-      <c r="J20" s="70"/>
-      <c r="K20" s="70"/>
-      <c r="L20" s="70"/>
-      <c r="M20" s="70"/>
-      <c r="N20" s="70"/>
-      <c r="O20" s="70"/>
-      <c r="P20" s="70"/>
-      <c r="Q20" s="70"/>
+      <c r="H20" s="69"/>
+      <c r="I20" s="69"/>
+      <c r="J20" s="69"/>
+      <c r="K20" s="69"/>
+      <c r="L20" s="69"/>
+      <c r="M20" s="69"/>
+      <c r="N20" s="69"/>
+      <c r="O20" s="69"/>
+      <c r="P20" s="69"/>
+      <c r="Q20" s="69"/>
     </row>
     <row r="21" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="str">
@@ -3091,23 +3086,23 @@
       <c r="C21" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D21" s="83" t="s">
-        <v>357</v>
-      </c>
-      <c r="E21" s="80" t="s">
+      <c r="D21" s="82" t="s">
+        <v>352</v>
+      </c>
+      <c r="E21" s="79" t="s">
         <v>130</v>
       </c>
-      <c r="F21" s="80"/>
-      <c r="H21" s="70"/>
-      <c r="I21" s="70"/>
-      <c r="J21" s="70"/>
-      <c r="K21" s="70"/>
-      <c r="L21" s="70"/>
-      <c r="M21" s="70"/>
-      <c r="N21" s="70"/>
-      <c r="O21" s="70"/>
-      <c r="P21" s="70"/>
-      <c r="Q21" s="70"/>
+      <c r="F21" s="79"/>
+      <c r="H21" s="69"/>
+      <c r="I21" s="69"/>
+      <c r="J21" s="69"/>
+      <c r="K21" s="69"/>
+      <c r="L21" s="69"/>
+      <c r="M21" s="69"/>
+      <c r="N21" s="69"/>
+      <c r="O21" s="69"/>
+      <c r="P21" s="69"/>
+      <c r="Q21" s="69"/>
     </row>
     <row r="22" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="str">
@@ -3120,19 +3115,19 @@
       <c r="C22" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D22" s="80"/>
-      <c r="E22" s="80"/>
-      <c r="F22" s="80"/>
-      <c r="H22" s="70"/>
-      <c r="I22" s="70"/>
-      <c r="J22" s="70"/>
-      <c r="K22" s="70"/>
-      <c r="L22" s="70"/>
-      <c r="M22" s="70"/>
-      <c r="N22" s="70"/>
-      <c r="O22" s="70"/>
-      <c r="P22" s="70"/>
-      <c r="Q22" s="70"/>
+      <c r="D22" s="79"/>
+      <c r="E22" s="79"/>
+      <c r="F22" s="79"/>
+      <c r="H22" s="69"/>
+      <c r="I22" s="69"/>
+      <c r="J22" s="69"/>
+      <c r="K22" s="69"/>
+      <c r="L22" s="69"/>
+      <c r="M22" s="69"/>
+      <c r="N22" s="69"/>
+      <c r="O22" s="69"/>
+      <c r="P22" s="69"/>
+      <c r="Q22" s="69"/>
     </row>
     <row r="23" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="str">
@@ -3145,23 +3140,23 @@
       <c r="C23" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D23" s="80" t="s">
-        <v>449</v>
-      </c>
-      <c r="E23" s="153" t="s">
-        <v>340</v>
-      </c>
-      <c r="F23" s="80"/>
-      <c r="H23" s="70"/>
-      <c r="I23" s="70"/>
-      <c r="J23" s="70"/>
-      <c r="K23" s="70"/>
-      <c r="L23" s="70"/>
-      <c r="M23" s="70"/>
-      <c r="N23" s="70"/>
-      <c r="O23" s="70"/>
-      <c r="P23" s="70"/>
-      <c r="Q23" s="70"/>
+      <c r="D23" s="79" t="s">
+        <v>438</v>
+      </c>
+      <c r="E23" s="134" t="s">
+        <v>335</v>
+      </c>
+      <c r="F23" s="79"/>
+      <c r="H23" s="69"/>
+      <c r="I23" s="69"/>
+      <c r="J23" s="69"/>
+      <c r="K23" s="69"/>
+      <c r="L23" s="69"/>
+      <c r="M23" s="69"/>
+      <c r="N23" s="69"/>
+      <c r="O23" s="69"/>
+      <c r="P23" s="69"/>
+      <c r="Q23" s="69"/>
     </row>
     <row r="24" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="str">
@@ -3174,24 +3169,24 @@
       <c r="C24" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D24" s="83" t="s">
-        <v>354</v>
-      </c>
-      <c r="E24" s="82" t="s">
-        <v>301</v>
-      </c>
-      <c r="F24" s="80"/>
+      <c r="D24" s="82" t="s">
+        <v>349</v>
+      </c>
+      <c r="E24" s="81" t="s">
+        <v>296</v>
+      </c>
+      <c r="F24" s="79"/>
       <c r="G24" s="9"/>
-      <c r="H24" s="70"/>
-      <c r="I24" s="70"/>
-      <c r="J24" s="70"/>
-      <c r="K24" s="70"/>
-      <c r="L24" s="70"/>
-      <c r="M24" s="70"/>
-      <c r="N24" s="70"/>
-      <c r="O24" s="70"/>
-      <c r="P24" s="70"/>
-      <c r="Q24" s="70"/>
+      <c r="H24" s="69"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="69"/>
+      <c r="K24" s="69"/>
+      <c r="L24" s="69"/>
+      <c r="M24" s="69"/>
+      <c r="N24" s="69"/>
+      <c r="O24" s="69"/>
+      <c r="P24" s="69"/>
+      <c r="Q24" s="69"/>
     </row>
     <row r="25" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="str">
@@ -3204,7 +3199,7 @@
       <c r="C25" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D25" s="126" t="str">
+      <c r="D25" s="125" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1wMVARUxnYHeiTbbEodCmZFb_vx9FkRVr","5C4-020")</f>
         <v>5C4-020</v>
       </c>
@@ -3214,16 +3209,16 @@
       <c r="F25" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="H25" s="70"/>
-      <c r="I25" s="70"/>
-      <c r="J25" s="70"/>
-      <c r="K25" s="70"/>
-      <c r="L25" s="70"/>
-      <c r="M25" s="70"/>
-      <c r="N25" s="70"/>
-      <c r="O25" s="70"/>
-      <c r="P25" s="70"/>
-      <c r="Q25" s="70"/>
+      <c r="H25" s="69"/>
+      <c r="I25" s="69"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="69"/>
+      <c r="L25" s="69"/>
+      <c r="M25" s="69"/>
+      <c r="N25" s="69"/>
+      <c r="O25" s="69"/>
+      <c r="P25" s="69"/>
+      <c r="Q25" s="69"/>
     </row>
     <row r="26" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="str">
@@ -3236,24 +3231,24 @@
       <c r="C26" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D26" s="83" t="s">
-        <v>242</v>
-      </c>
-      <c r="E26" s="80" t="s">
+      <c r="D26" s="82" t="s">
+        <v>237</v>
+      </c>
+      <c r="E26" s="79" t="s">
         <v>140</v>
       </c>
-      <c r="F26" s="80"/>
+      <c r="F26" s="79"/>
       <c r="G26" s="9"/>
-      <c r="H26" s="70"/>
-      <c r="I26" s="70"/>
-      <c r="J26" s="70"/>
-      <c r="K26" s="70"/>
-      <c r="L26" s="70"/>
-      <c r="M26" s="70"/>
-      <c r="N26" s="70"/>
-      <c r="O26" s="70"/>
-      <c r="P26" s="70"/>
-      <c r="Q26" s="70"/>
+      <c r="H26" s="69"/>
+      <c r="I26" s="69"/>
+      <c r="J26" s="69"/>
+      <c r="K26" s="69"/>
+      <c r="L26" s="69"/>
+      <c r="M26" s="69"/>
+      <c r="N26" s="69"/>
+      <c r="O26" s="69"/>
+      <c r="P26" s="69"/>
+      <c r="Q26" s="69"/>
     </row>
     <row r="27" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="str">
@@ -3266,19 +3261,19 @@
       <c r="C27" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="D27" s="80"/>
-      <c r="E27" s="80"/>
-      <c r="F27" s="81"/>
-      <c r="H27" s="70"/>
-      <c r="I27" s="70"/>
-      <c r="J27" s="70"/>
-      <c r="K27" s="70"/>
-      <c r="L27" s="70"/>
-      <c r="M27" s="70"/>
-      <c r="N27" s="70"/>
-      <c r="O27" s="70"/>
-      <c r="P27" s="70"/>
-      <c r="Q27" s="70"/>
+      <c r="D27" s="79"/>
+      <c r="E27" s="79"/>
+      <c r="F27" s="80"/>
+      <c r="H27" s="69"/>
+      <c r="I27" s="69"/>
+      <c r="J27" s="69"/>
+      <c r="K27" s="69"/>
+      <c r="L27" s="69"/>
+      <c r="M27" s="69"/>
+      <c r="N27" s="69"/>
+      <c r="O27" s="69"/>
+      <c r="P27" s="69"/>
+      <c r="Q27" s="69"/>
     </row>
     <row r="28" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="str">
@@ -3301,16 +3296,16 @@
         <v>48</v>
       </c>
       <c r="G28" s="3"/>
-      <c r="H28" s="70"/>
-      <c r="I28" s="70"/>
-      <c r="J28" s="70"/>
-      <c r="K28" s="70"/>
-      <c r="L28" s="70"/>
-      <c r="M28" s="70"/>
-      <c r="N28" s="70"/>
-      <c r="O28" s="70"/>
-      <c r="P28" s="70"/>
-      <c r="Q28" s="70"/>
+      <c r="H28" s="69"/>
+      <c r="I28" s="69"/>
+      <c r="J28" s="69"/>
+      <c r="K28" s="69"/>
+      <c r="L28" s="69"/>
+      <c r="M28" s="69"/>
+      <c r="N28" s="69"/>
+      <c r="O28" s="69"/>
+      <c r="P28" s="69"/>
+      <c r="Q28" s="69"/>
     </row>
     <row r="29" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="str">
@@ -3333,16 +3328,16 @@
         <v>48</v>
       </c>
       <c r="G29" s="4"/>
-      <c r="H29" s="70"/>
-      <c r="I29" s="70"/>
-      <c r="J29" s="70"/>
-      <c r="K29" s="70"/>
-      <c r="L29" s="70"/>
-      <c r="M29" s="70"/>
-      <c r="N29" s="70"/>
-      <c r="O29" s="70"/>
-      <c r="P29" s="70"/>
-      <c r="Q29" s="70"/>
+      <c r="H29" s="69"/>
+      <c r="I29" s="69"/>
+      <c r="J29" s="69"/>
+      <c r="K29" s="69"/>
+      <c r="L29" s="69"/>
+      <c r="M29" s="69"/>
+      <c r="N29" s="69"/>
+      <c r="O29" s="69"/>
+      <c r="P29" s="69"/>
+      <c r="Q29" s="69"/>
     </row>
     <row r="30" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="str">
@@ -3365,16 +3360,16 @@
         <v>48</v>
       </c>
       <c r="G30" s="4"/>
-      <c r="H30" s="70"/>
-      <c r="I30" s="70"/>
-      <c r="J30" s="70"/>
-      <c r="K30" s="70"/>
-      <c r="L30" s="70"/>
-      <c r="M30" s="70"/>
-      <c r="N30" s="70"/>
-      <c r="O30" s="70"/>
-      <c r="P30" s="70"/>
-      <c r="Q30" s="70"/>
+      <c r="H30" s="69"/>
+      <c r="I30" s="69"/>
+      <c r="J30" s="69"/>
+      <c r="K30" s="69"/>
+      <c r="L30" s="69"/>
+      <c r="M30" s="69"/>
+      <c r="N30" s="69"/>
+      <c r="O30" s="69"/>
+      <c r="P30" s="69"/>
+      <c r="Q30" s="69"/>
     </row>
     <row r="31" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="str">
@@ -3390,16 +3385,16 @@
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
-      <c r="H31" s="70"/>
-      <c r="I31" s="70"/>
-      <c r="J31" s="70"/>
-      <c r="K31" s="70"/>
-      <c r="L31" s="70"/>
-      <c r="M31" s="70"/>
-      <c r="N31" s="70"/>
-      <c r="O31" s="70"/>
-      <c r="P31" s="70"/>
-      <c r="Q31" s="70"/>
+      <c r="H31" s="69"/>
+      <c r="I31" s="69"/>
+      <c r="J31" s="69"/>
+      <c r="K31" s="69"/>
+      <c r="L31" s="69"/>
+      <c r="M31" s="69"/>
+      <c r="N31" s="69"/>
+      <c r="O31" s="69"/>
+      <c r="P31" s="69"/>
+      <c r="Q31" s="69"/>
     </row>
     <row r="32" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="str">
@@ -3421,16 +3416,16 @@
       <c r="F32" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="H32" s="70"/>
-      <c r="I32" s="70"/>
-      <c r="J32" s="70"/>
-      <c r="K32" s="70"/>
-      <c r="L32" s="70"/>
-      <c r="M32" s="70"/>
-      <c r="N32" s="70"/>
-      <c r="O32" s="70"/>
-      <c r="P32" s="70"/>
-      <c r="Q32" s="70"/>
+      <c r="H32" s="69"/>
+      <c r="I32" s="69"/>
+      <c r="J32" s="69"/>
+      <c r="K32" s="69"/>
+      <c r="L32" s="69"/>
+      <c r="M32" s="69"/>
+      <c r="N32" s="69"/>
+      <c r="O32" s="69"/>
+      <c r="P32" s="69"/>
+      <c r="Q32" s="69"/>
     </row>
     <row r="33" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="str">
@@ -3447,16 +3442,16 @@
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
-      <c r="H33" s="70"/>
-      <c r="I33" s="70"/>
-      <c r="J33" s="70"/>
-      <c r="K33" s="70"/>
-      <c r="L33" s="70"/>
-      <c r="M33" s="70"/>
-      <c r="N33" s="70"/>
-      <c r="O33" s="70"/>
-      <c r="P33" s="70"/>
-      <c r="Q33" s="70"/>
+      <c r="H33" s="69"/>
+      <c r="I33" s="69"/>
+      <c r="J33" s="69"/>
+      <c r="K33" s="69"/>
+      <c r="L33" s="69"/>
+      <c r="M33" s="69"/>
+      <c r="N33" s="69"/>
+      <c r="O33" s="69"/>
+      <c r="P33" s="69"/>
+      <c r="Q33" s="69"/>
     </row>
     <row r="34" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="str">
@@ -3473,16 +3468,16 @@
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
-      <c r="H34" s="70"/>
-      <c r="I34" s="70"/>
-      <c r="J34" s="70"/>
-      <c r="K34" s="70"/>
-      <c r="L34" s="70"/>
-      <c r="M34" s="70"/>
-      <c r="N34" s="70"/>
-      <c r="O34" s="70"/>
-      <c r="P34" s="70"/>
-      <c r="Q34" s="70"/>
+      <c r="H34" s="69"/>
+      <c r="I34" s="69"/>
+      <c r="J34" s="69"/>
+      <c r="K34" s="69"/>
+      <c r="L34" s="69"/>
+      <c r="M34" s="69"/>
+      <c r="N34" s="69"/>
+      <c r="O34" s="69"/>
+      <c r="P34" s="69"/>
+      <c r="Q34" s="69"/>
     </row>
     <row r="35" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="str">
@@ -3504,16 +3499,16 @@
       <c r="F35" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="H35" s="70"/>
-      <c r="I35" s="70"/>
-      <c r="J35" s="70"/>
-      <c r="K35" s="70"/>
-      <c r="L35" s="70"/>
-      <c r="M35" s="70"/>
-      <c r="N35" s="70"/>
-      <c r="O35" s="70"/>
-      <c r="P35" s="70"/>
-      <c r="Q35" s="70"/>
+      <c r="H35" s="69"/>
+      <c r="I35" s="69"/>
+      <c r="J35" s="69"/>
+      <c r="K35" s="69"/>
+      <c r="L35" s="69"/>
+      <c r="M35" s="69"/>
+      <c r="N35" s="69"/>
+      <c r="O35" s="69"/>
+      <c r="P35" s="69"/>
+      <c r="Q35" s="69"/>
     </row>
     <row r="36" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="str">
@@ -3530,16 +3525,16 @@
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
-      <c r="H36" s="70"/>
-      <c r="I36" s="70"/>
-      <c r="J36" s="70"/>
-      <c r="K36" s="70"/>
-      <c r="L36" s="70"/>
-      <c r="M36" s="70"/>
-      <c r="N36" s="70"/>
-      <c r="O36" s="70"/>
-      <c r="P36" s="70"/>
-      <c r="Q36" s="70"/>
+      <c r="H36" s="69"/>
+      <c r="I36" s="69"/>
+      <c r="J36" s="69"/>
+      <c r="K36" s="69"/>
+      <c r="L36" s="69"/>
+      <c r="M36" s="69"/>
+      <c r="N36" s="69"/>
+      <c r="O36" s="69"/>
+      <c r="P36" s="69"/>
+      <c r="Q36" s="69"/>
     </row>
     <row r="37" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="str">
@@ -3562,16 +3557,16 @@
       <c r="F37" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="H37" s="70"/>
-      <c r="I37" s="70"/>
-      <c r="J37" s="70"/>
-      <c r="K37" s="70"/>
-      <c r="L37" s="70"/>
-      <c r="M37" s="70"/>
-      <c r="N37" s="70"/>
-      <c r="O37" s="70"/>
-      <c r="P37" s="70"/>
-      <c r="Q37" s="70"/>
+      <c r="H37" s="69"/>
+      <c r="I37" s="69"/>
+      <c r="J37" s="69"/>
+      <c r="K37" s="69"/>
+      <c r="L37" s="69"/>
+      <c r="M37" s="69"/>
+      <c r="N37" s="69"/>
+      <c r="O37" s="69"/>
+      <c r="P37" s="69"/>
+      <c r="Q37" s="69"/>
     </row>
     <row r="38" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="str">
@@ -3587,16 +3582,16 @@
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
-      <c r="H38" s="70"/>
-      <c r="I38" s="70"/>
-      <c r="J38" s="70"/>
-      <c r="K38" s="70"/>
-      <c r="L38" s="70"/>
-      <c r="M38" s="70"/>
-      <c r="N38" s="70"/>
-      <c r="O38" s="70"/>
-      <c r="P38" s="70"/>
-      <c r="Q38" s="70"/>
+      <c r="H38" s="69"/>
+      <c r="I38" s="69"/>
+      <c r="J38" s="69"/>
+      <c r="K38" s="69"/>
+      <c r="L38" s="69"/>
+      <c r="M38" s="69"/>
+      <c r="N38" s="69"/>
+      <c r="O38" s="69"/>
+      <c r="P38" s="69"/>
+      <c r="Q38" s="69"/>
     </row>
     <row r="39" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="str">
@@ -3612,16 +3607,16 @@
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
-      <c r="H39" s="70"/>
-      <c r="I39" s="70"/>
-      <c r="J39" s="70"/>
-      <c r="K39" s="70"/>
-      <c r="L39" s="70"/>
-      <c r="M39" s="70"/>
-      <c r="N39" s="70"/>
-      <c r="O39" s="70"/>
-      <c r="P39" s="70"/>
-      <c r="Q39" s="70"/>
+      <c r="H39" s="69"/>
+      <c r="I39" s="69"/>
+      <c r="J39" s="69"/>
+      <c r="K39" s="69"/>
+      <c r="L39" s="69"/>
+      <c r="M39" s="69"/>
+      <c r="N39" s="69"/>
+      <c r="O39" s="69"/>
+      <c r="P39" s="69"/>
+      <c r="Q39" s="69"/>
     </row>
     <row r="40" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="str">
@@ -3635,22 +3630,22 @@
         <v>129</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>31</v>
       </c>
       <c r="F40" s="4"/>
-      <c r="H40" s="70"/>
-      <c r="I40" s="70"/>
-      <c r="J40" s="70"/>
-      <c r="K40" s="70"/>
-      <c r="L40" s="70"/>
-      <c r="M40" s="70"/>
-      <c r="N40" s="70"/>
-      <c r="O40" s="70"/>
-      <c r="P40" s="70"/>
-      <c r="Q40" s="70"/>
+      <c r="H40" s="69"/>
+      <c r="I40" s="69"/>
+      <c r="J40" s="69"/>
+      <c r="K40" s="69"/>
+      <c r="L40" s="69"/>
+      <c r="M40" s="69"/>
+      <c r="N40" s="69"/>
+      <c r="O40" s="69"/>
+      <c r="P40" s="69"/>
+      <c r="Q40" s="69"/>
     </row>
     <row r="41" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="str">
@@ -3672,16 +3667,16 @@
       <c r="F41" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="H41" s="70"/>
-      <c r="I41" s="70"/>
-      <c r="J41" s="70"/>
-      <c r="K41" s="70"/>
-      <c r="L41" s="70"/>
-      <c r="M41" s="70"/>
-      <c r="N41" s="70"/>
-      <c r="O41" s="70"/>
-      <c r="P41" s="70"/>
-      <c r="Q41" s="70"/>
+      <c r="H41" s="69"/>
+      <c r="I41" s="69"/>
+      <c r="J41" s="69"/>
+      <c r="K41" s="69"/>
+      <c r="L41" s="69"/>
+      <c r="M41" s="69"/>
+      <c r="N41" s="69"/>
+      <c r="O41" s="69"/>
+      <c r="P41" s="69"/>
+      <c r="Q41" s="69"/>
     </row>
     <row r="42" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="str">
@@ -3697,16 +3692,16 @@
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
-      <c r="H42" s="70"/>
-      <c r="I42" s="70"/>
-      <c r="J42" s="70"/>
-      <c r="K42" s="70"/>
-      <c r="L42" s="70"/>
-      <c r="M42" s="70"/>
-      <c r="N42" s="70"/>
-      <c r="O42" s="70"/>
-      <c r="P42" s="70"/>
-      <c r="Q42" s="70"/>
+      <c r="H42" s="69"/>
+      <c r="I42" s="69"/>
+      <c r="J42" s="69"/>
+      <c r="K42" s="69"/>
+      <c r="L42" s="69"/>
+      <c r="M42" s="69"/>
+      <c r="N42" s="69"/>
+      <c r="O42" s="69"/>
+      <c r="P42" s="69"/>
+      <c r="Q42" s="69"/>
     </row>
     <row r="43" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="str">
@@ -3722,16 +3717,16 @@
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
-      <c r="H43" s="70"/>
-      <c r="I43" s="70"/>
-      <c r="J43" s="70"/>
-      <c r="K43" s="70"/>
-      <c r="L43" s="70"/>
-      <c r="M43" s="70"/>
-      <c r="N43" s="70"/>
-      <c r="O43" s="70"/>
-      <c r="P43" s="70"/>
-      <c r="Q43" s="70"/>
+      <c r="H43" s="69"/>
+      <c r="I43" s="69"/>
+      <c r="J43" s="69"/>
+      <c r="K43" s="69"/>
+      <c r="L43" s="69"/>
+      <c r="M43" s="69"/>
+      <c r="N43" s="69"/>
+      <c r="O43" s="69"/>
+      <c r="P43" s="69"/>
+      <c r="Q43" s="69"/>
     </row>
     <row r="44" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="str">
@@ -3739,7 +3734,7 @@
         <v>5H</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>141</v>
@@ -3747,16 +3742,16 @@
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
-      <c r="H44" s="70"/>
-      <c r="I44" s="70"/>
-      <c r="J44" s="70"/>
-      <c r="K44" s="70"/>
-      <c r="L44" s="70"/>
-      <c r="M44" s="70"/>
-      <c r="N44" s="70"/>
-      <c r="O44" s="70"/>
-      <c r="P44" s="70"/>
-      <c r="Q44" s="70"/>
+      <c r="H44" s="69"/>
+      <c r="I44" s="69"/>
+      <c r="J44" s="69"/>
+      <c r="K44" s="69"/>
+      <c r="L44" s="69"/>
+      <c r="M44" s="69"/>
+      <c r="N44" s="69"/>
+      <c r="O44" s="69"/>
+      <c r="P44" s="69"/>
+      <c r="Q44" s="69"/>
     </row>
     <row r="45" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K45" s="5"/>
@@ -3837,38 +3832,38 @@
       <c r="A58" s="9"/>
     </row>
     <row r="59" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="139" t="s">
+      <c r="A59" s="143" t="s">
         <v>157</v>
       </c>
-      <c r="B59" s="134"/>
-      <c r="C59" s="134"/>
+      <c r="B59" s="138"/>
+      <c r="C59" s="138"/>
     </row>
     <row r="60" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="12"/>
     </row>
     <row r="61" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="133" t="s">
+      <c r="A61" s="137" t="s">
         <v>149</v>
       </c>
-      <c r="B61" s="134"/>
-      <c r="C61" s="133" t="s">
+      <c r="B61" s="138"/>
+      <c r="C61" s="137" t="s">
         <v>158</v>
       </c>
-      <c r="D61" s="134"/>
-      <c r="E61" s="134"/>
-      <c r="F61" s="134"/>
+      <c r="D61" s="138"/>
+      <c r="E61" s="138"/>
+      <c r="F61" s="138"/>
     </row>
     <row r="62" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="133" t="s">
+      <c r="A62" s="137" t="s">
         <v>159</v>
       </c>
-      <c r="B62" s="134"/>
-      <c r="C62" s="133" t="s">
+      <c r="B62" s="138"/>
+      <c r="C62" s="137" t="s">
         <v>160</v>
       </c>
-      <c r="D62" s="134"/>
-      <c r="E62" s="134"/>
-      <c r="F62" s="134"/>
+      <c r="D62" s="138"/>
+      <c r="E62" s="138"/>
+      <c r="F62" s="138"/>
     </row>
     <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="64" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4835,8 +4830,8 @@
   </sheetPr>
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection sqref="A1:J22"/>
+    <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4849,66 +4844,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="144" t="s">
         <v>161</v>
       </c>
-      <c r="B1" s="141"/>
-      <c r="C1" s="142" t="s">
+      <c r="B1" s="145"/>
+      <c r="C1" s="146" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
-      <c r="G1" s="143"/>
-      <c r="H1" s="143"/>
-      <c r="I1" s="143"/>
-      <c r="J1" s="143"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
+      <c r="G1" s="147"/>
+      <c r="H1" s="147"/>
+      <c r="I1" s="147"/>
+      <c r="J1" s="147"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
     </row>
     <row r="2" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="121" t="s">
+      <c r="A2" s="120" t="s">
         <v>162</v>
       </c>
-      <c r="B2" s="121" t="s">
+      <c r="B2" s="120" t="s">
         <v>163</v>
       </c>
-      <c r="C2" s="121" t="s">
+      <c r="C2" s="120" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="122" t="s">
+      <c r="D2" s="121" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="121" t="s">
+      <c r="E2" s="120" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="121" t="s">
+      <c r="F2" s="120" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="121" t="s">
+      <c r="G2" s="120" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="121" t="s">
+      <c r="H2" s="120" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="123" t="s">
+      <c r="I2" s="122" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="123" t="s">
+      <c r="J2" s="122" t="s">
         <v>164</v>
       </c>
       <c r="K2" s="15" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="L2" s="15" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" s="110" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="109" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="21" t="s">
-        <v>449</v>
-      </c>
-      <c r="B3" s="155" t="s">
+        <v>438</v>
+      </c>
+      <c r="B3" s="136" t="s">
         <v>165</v>
       </c>
       <c r="C3" s="20" t="s">
@@ -4935,18 +4930,18 @@
       <c r="J3" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="73" t="s">
-        <v>473</v>
-      </c>
-      <c r="L3" s="73"/>
+      <c r="K3" s="72" t="s">
+        <v>461</v>
+      </c>
+      <c r="L3" s="72"/>
     </row>
     <row r="4" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1G8ecO5ODQmn8FX8jzQ962D928BpQ6iUm","5C4-002")</f>
         <v>5C4-002</v>
       </c>
-      <c r="B4" s="78" t="s">
-        <v>178</v>
+      <c r="B4" s="77" t="s">
+        <v>173</v>
       </c>
       <c r="C4" s="20" t="s">
         <v>28</v>
@@ -4972,8 +4967,8 @@
       <c r="J4" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="73" t="s">
-        <v>465</v>
+      <c r="K4" s="72" t="s">
+        <v>453</v>
       </c>
       <c r="L4" s="17"/>
     </row>
@@ -4982,8 +4977,8 @@
         <f>HYPERLINK("https://drive.google.com/drive/folders/1X_yNido1T9NRAtsXoJ-h2bFXlpLfFW-N","5C4-003")</f>
         <v>5C4-003</v>
       </c>
-      <c r="B5" s="78" t="s">
-        <v>334</v>
+      <c r="B5" s="77" t="s">
+        <v>329</v>
       </c>
       <c r="C5" s="20" t="s">
         <v>28</v>
@@ -5009,18 +5004,18 @@
       <c r="J5" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="73" t="s">
-        <v>474</v>
-      </c>
-      <c r="L5" s="73"/>
+      <c r="K5" s="72" t="s">
+        <v>462</v>
+      </c>
+      <c r="L5" s="72"/>
     </row>
     <row r="6" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1WeIiiMAp6TYYdsybsr5MvXeiX_cVX9j0","5C4-004")</f>
         <v>5C4-004</v>
       </c>
-      <c r="B6" s="74" t="s">
-        <v>281</v>
+      <c r="B6" s="73" t="s">
+        <v>276</v>
       </c>
       <c r="C6" s="20" t="s">
         <v>28</v>
@@ -5046,11 +5041,11 @@
       <c r="J6" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="K6" s="73" t="s">
-        <v>434</v>
-      </c>
-      <c r="L6" s="73" t="s">
-        <v>395</v>
+      <c r="K6" s="72" t="s">
+        <v>423</v>
+      </c>
+      <c r="L6" s="72" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -5062,33 +5057,35 @@
         <v>166</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G7" s="25" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="I7" s="25" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="J7" s="25" t="s">
-        <v>174</v>
-      </c>
-      <c r="K7" s="95" t="s">
-        <v>431</v>
-      </c>
-      <c r="L7" s="73"/>
+        <v>171</v>
+      </c>
+      <c r="K7" s="94" t="s">
+        <v>463</v>
+      </c>
+      <c r="L7" s="72" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="8" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="str">
@@ -5122,17 +5119,19 @@
       <c r="J8" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="K8" s="73" t="s">
-        <v>398</v>
-      </c>
-      <c r="L8" s="73"/>
+      <c r="K8" s="72" t="s">
+        <v>465</v>
+      </c>
+      <c r="L8" s="72" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="9" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="B9" s="78" t="s">
-        <v>289</v>
+      <c r="B9" s="77" t="s">
+        <v>284</v>
       </c>
       <c r="C9" s="20" t="s">
         <v>28</v>
@@ -5158,18 +5157,18 @@
       <c r="J9" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="K9" s="73" t="s">
-        <v>435</v>
-      </c>
-      <c r="L9" s="73"/>
+      <c r="K9" s="72" t="s">
+        <v>424</v>
+      </c>
+      <c r="L9" s="72"/>
     </row>
     <row r="10" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1-3h2_HbCYYPIJxLORcasFd7NqbLvOw-C","5C4-008")</f>
         <v>5C4-008</v>
       </c>
-      <c r="B10" s="74" t="s">
-        <v>402</v>
+      <c r="B10" s="73" t="s">
+        <v>395</v>
       </c>
       <c r="C10" s="20" t="s">
         <v>28</v>
@@ -5195,11 +5194,11 @@
       <c r="J10" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="K10" s="73" t="s">
-        <v>401</v>
-      </c>
-      <c r="L10" s="73" t="s">
-        <v>395</v>
+      <c r="K10" s="72" t="s">
+        <v>394</v>
+      </c>
+      <c r="L10" s="72" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -5207,10 +5206,10 @@
         <f>HYPERLINK("https://drive.google.com/drive/folders/1EhIIjKRxAQ858Wo2OYQq3GdqbI2ok5Af","5C4-009")</f>
         <v>5C4-009</v>
       </c>
-      <c r="B11" s="132" t="s">
+      <c r="B11" s="131" t="s">
         <v>165</v>
       </c>
-      <c r="C11" s="73"/>
+      <c r="C11" s="72"/>
       <c r="D11" s="20" t="s">
         <v>28</v>
       </c>
@@ -5226,18 +5225,18 @@
       <c r="H11" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="I11" s="73"/>
-      <c r="J11" s="73"/>
-      <c r="K11" s="73"/>
-      <c r="L11" s="73"/>
+      <c r="I11" s="72"/>
+      <c r="J11" s="72"/>
+      <c r="K11" s="72"/>
+      <c r="L11" s="72"/>
     </row>
     <row r="12" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1FrnQUGPHDhAq4DHWLuBTTfQpLNsdUckc","5C4-010")</f>
         <v>5C4-010</v>
       </c>
-      <c r="B12" s="74" t="s">
-        <v>277</v>
+      <c r="B12" s="73" t="s">
+        <v>272</v>
       </c>
       <c r="C12" s="20" t="s">
         <v>28</v>
@@ -5263,18 +5262,18 @@
       <c r="J12" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="K12" s="73" t="s">
-        <v>464</v>
-      </c>
-      <c r="L12" s="73"/>
+      <c r="K12" s="72" t="s">
+        <v>452</v>
+      </c>
+      <c r="L12" s="72"/>
     </row>
     <row r="13" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1hJ1DyO35m4DO0phNhkoobK76R8Ql-DTn","5C4-011")</f>
         <v>5C4-011</v>
       </c>
-      <c r="B13" s="74" t="s">
-        <v>294</v>
+      <c r="B13" s="73" t="s">
+        <v>289</v>
       </c>
       <c r="C13" s="20" t="s">
         <v>28</v>
@@ -5300,11 +5299,11 @@
       <c r="J13" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="K13" s="73" t="s">
-        <v>393</v>
-      </c>
-      <c r="L13" s="73" t="s">
-        <v>395</v>
+      <c r="K13" s="72" t="s">
+        <v>387</v>
+      </c>
+      <c r="L13" s="72" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -5313,7 +5312,7 @@
         <v>5C4-012</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C14" s="22" t="s">
         <v>28</v>
@@ -5336,13 +5335,15 @@
       <c r="I14" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="J14" s="124" t="s">
-        <v>174</v>
-      </c>
-      <c r="K14" s="95" t="s">
-        <v>429</v>
-      </c>
-      <c r="L14" s="73"/>
+      <c r="J14" s="123" t="s">
+        <v>171</v>
+      </c>
+      <c r="K14" s="94" t="s">
+        <v>466</v>
+      </c>
+      <c r="L14" s="72" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="15" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="18" t="str">
@@ -5350,7 +5351,7 @@
         <v>5C4-013</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="C15" s="20" t="s">
         <v>28</v>
@@ -5376,10 +5377,12 @@
       <c r="J15" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="K15" s="73" t="s">
-        <v>428</v>
-      </c>
-      <c r="L15" s="73"/>
+      <c r="K15" s="72" t="s">
+        <v>467</v>
+      </c>
+      <c r="L15" s="72" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="16" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="18" t="str">
@@ -5387,7 +5390,7 @@
         <v>5C4-014</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="C16" s="20" t="s">
         <v>28</v>
@@ -5413,11 +5416,11 @@
       <c r="J16" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="K16" s="73" t="s">
-        <v>397</v>
-      </c>
-      <c r="L16" s="73" t="s">
-        <v>396</v>
+      <c r="K16" s="72" t="s">
+        <v>391</v>
+      </c>
+      <c r="L16" s="72" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -5425,8 +5428,8 @@
         <f>HYPERLINK("https://drive.google.com/drive/folders/1GhnG5G_BN5lBSXzegcxU-3TuUUTEd6xm","5C4-015")</f>
         <v>5C4-015</v>
       </c>
-      <c r="B17" s="74" t="s">
-        <v>471</v>
+      <c r="B17" s="73" t="s">
+        <v>459</v>
       </c>
       <c r="C17" s="20" t="s">
         <v>28</v>
@@ -5452,17 +5455,17 @@
       <c r="J17" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="K17" s="73" t="s">
-        <v>470</v>
-      </c>
-      <c r="L17" s="73"/>
+      <c r="K17" s="72" t="s">
+        <v>458</v>
+      </c>
+      <c r="L17" s="72"/>
     </row>
     <row r="18" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="B18" s="74" t="s">
-        <v>349</v>
+        <v>172</v>
+      </c>
+      <c r="B18" s="73" t="s">
+        <v>344</v>
       </c>
       <c r="C18" s="20" t="s">
         <v>28</v>
@@ -5488,18 +5491,18 @@
       <c r="J18" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="K18" s="73" t="s">
-        <v>458</v>
-      </c>
-      <c r="L18" s="73"/>
+      <c r="K18" s="72" t="s">
+        <v>446</v>
+      </c>
+      <c r="L18" s="72"/>
     </row>
     <row r="19" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="18" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1wcHyiuVUbBeL9ODgyYP-lyy7yM1vMH3u","5C4-017")</f>
         <v>5C4-017</v>
       </c>
-      <c r="B19" s="74" t="s">
-        <v>274</v>
+      <c r="B19" s="73" t="s">
+        <v>269</v>
       </c>
       <c r="C19" s="20" t="s">
         <v>28</v>
@@ -5525,16 +5528,16 @@
       <c r="J19" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="K19" s="73" t="s">
-        <v>463</v>
-      </c>
-      <c r="L19" s="73"/>
+      <c r="K19" s="72" t="s">
+        <v>451</v>
+      </c>
+      <c r="L19" s="72"/>
     </row>
     <row r="20" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="B20" s="152" t="s">
+      <c r="B20" s="133" t="s">
         <v>165</v>
       </c>
       <c r="C20" s="22" t="s">
@@ -5558,13 +5561,15 @@
       <c r="I20" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="J20" s="151" t="s">
-        <v>174</v>
-      </c>
-      <c r="K20" s="73" t="s">
-        <v>430</v>
-      </c>
-      <c r="L20" s="73"/>
+      <c r="J20" s="132" t="s">
+        <v>171</v>
+      </c>
+      <c r="K20" s="72" t="s">
+        <v>468</v>
+      </c>
+      <c r="L20" s="72" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="21" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="18" t="str">
@@ -5572,10 +5577,10 @@
         <v>5C4-019</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D21" s="20" t="s">
         <v>28</v>
@@ -5590,28 +5595,30 @@
         <v>28</v>
       </c>
       <c r="H21" s="25" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="I21" s="25" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="J21" s="25" t="s">
-        <v>174</v>
-      </c>
-      <c r="K21" s="73" t="s">
-        <v>456</v>
-      </c>
-      <c r="L21" s="73"/>
+        <v>171</v>
+      </c>
+      <c r="K21" s="72" t="s">
+        <v>469</v>
+      </c>
+      <c r="L21" s="72" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="22" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1wMVARUxnYHeiTbbEodCmZFb_vx9FkRVr","5C4-020")</f>
         <v>5C4-020</v>
       </c>
-      <c r="B22" s="154" t="s">
-        <v>180</v>
-      </c>
-      <c r="C22" s="130" t="s">
+      <c r="B22" s="135" t="s">
+        <v>175</v>
+      </c>
+      <c r="C22" s="129" t="s">
         <v>28</v>
       </c>
       <c r="D22" s="20" t="s">
@@ -5623,7 +5630,7 @@
       <c r="F22" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="G22" s="131" t="s">
+      <c r="G22" s="130" t="s">
         <v>28</v>
       </c>
       <c r="H22" s="20" t="s">
@@ -5635,10 +5642,12 @@
       <c r="J22" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="K22" s="73" t="s">
-        <v>372</v>
-      </c>
-      <c r="L22" s="73"/>
+      <c r="K22" s="72" t="s">
+        <v>470</v>
+      </c>
+      <c r="L22" s="72" t="s">
+        <v>464</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5655,8 +5664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9CEE8EE-E616-9C40-8E50-615D9D9C3993}">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5666,426 +5675,426 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="144" t="s">
+      <c r="A1" s="148" t="s">
         <v>161</v>
       </c>
-      <c r="B1" s="145"/>
-      <c r="C1" s="144" t="s">
-        <v>363</v>
-      </c>
-      <c r="D1" s="146"/>
-      <c r="E1" s="146"/>
-      <c r="F1" s="146"/>
-      <c r="G1" s="146"/>
-      <c r="H1" s="146"/>
-      <c r="I1" s="146"/>
-      <c r="J1" s="145"/>
+      <c r="B1" s="149"/>
+      <c r="C1" s="148" t="s">
+        <v>358</v>
+      </c>
+      <c r="D1" s="150"/>
+      <c r="E1" s="150"/>
+      <c r="F1" s="150"/>
+      <c r="G1" s="150"/>
+      <c r="H1" s="150"/>
+      <c r="I1" s="150"/>
+      <c r="J1" s="149"/>
     </row>
     <row r="2" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="66" t="s">
         <v>162</v>
       </c>
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="66" t="s">
         <v>163</v>
       </c>
-      <c r="C2" s="67" t="s">
-        <v>364</v>
-      </c>
-      <c r="D2" s="67" t="s">
-        <v>365</v>
-      </c>
-      <c r="E2" s="67" t="s">
-        <v>366</v>
-      </c>
-      <c r="F2" s="67"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-    </row>
-    <row r="3" spans="1:10" s="128" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C2" s="66" t="s">
+        <v>359</v>
+      </c>
+      <c r="D2" s="66" t="s">
+        <v>360</v>
+      </c>
+      <c r="E2" s="66" t="s">
+        <v>361</v>
+      </c>
+      <c r="F2" s="66"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+    </row>
+    <row r="3" spans="1:10" s="127" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="54" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="B3" s="55" t="s">
         <v>165</v>
       </c>
-      <c r="C3" s="64"/>
-      <c r="D3" s="62" t="s">
-        <v>472</v>
-      </c>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="61" t="s">
+        <v>460</v>
+      </c>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="54" t="s">
-        <v>240</v>
-      </c>
-      <c r="B4" s="55" t="s">
-        <v>165</v>
-      </c>
-      <c r="C4" s="64" t="s">
-        <v>462</v>
-      </c>
-      <c r="D4" s="62" t="s">
-        <v>461</v>
-      </c>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
+        <v>235</v>
+      </c>
+      <c r="B4" s="74" t="s">
+        <v>173</v>
+      </c>
+      <c r="C4" s="63" t="s">
+        <v>450</v>
+      </c>
+      <c r="D4" s="61" t="s">
+        <v>449</v>
+      </c>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="54" t="s">
-        <v>350</v>
-      </c>
-      <c r="B5" s="55" t="s">
-        <v>165</v>
-      </c>
-      <c r="C5" s="64" t="s">
-        <v>390</v>
-      </c>
-      <c r="D5" s="62" t="s">
-        <v>373</v>
-      </c>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="62"/>
+        <v>345</v>
+      </c>
+      <c r="B5" s="74" t="s">
+        <v>329</v>
+      </c>
+      <c r="C5" s="63" t="s">
+        <v>384</v>
+      </c>
+      <c r="D5" s="61" t="s">
+        <v>367</v>
+      </c>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="61"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="54" t="s">
-        <v>351</v>
-      </c>
-      <c r="B6" s="75" t="s">
-        <v>281</v>
-      </c>
-      <c r="C6" s="64" t="s">
-        <v>389</v>
-      </c>
-      <c r="D6" s="62" t="s">
-        <v>384</v>
-      </c>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
+        <v>346</v>
+      </c>
+      <c r="B6" s="74" t="s">
+        <v>276</v>
+      </c>
+      <c r="C6" s="63" t="s">
+        <v>383</v>
+      </c>
+      <c r="D6" s="61" t="s">
+        <v>378</v>
+      </c>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="61"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="54" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="B7" s="56" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="66"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="62"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="61"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="54" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="B8" s="56" t="s">
         <v>167</v>
       </c>
-      <c r="C8" s="64"/>
-      <c r="D8" s="62" t="s">
-        <v>369</v>
-      </c>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="62"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="61" t="s">
+        <v>364</v>
+      </c>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="61"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="57" t="s">
         <v>168</v>
       </c>
-      <c r="B9" s="55" t="s">
-        <v>165</v>
-      </c>
-      <c r="C9" s="62" t="s">
-        <v>376</v>
-      </c>
-      <c r="D9" s="62" t="s">
-        <v>377</v>
-      </c>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="63"/>
-      <c r="J9" s="64"/>
+      <c r="B9" s="74" t="s">
+        <v>284</v>
+      </c>
+      <c r="C9" s="61" t="s">
+        <v>370</v>
+      </c>
+      <c r="D9" s="61" t="s">
+        <v>371</v>
+      </c>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="61"/>
+      <c r="I9" s="62"/>
+      <c r="J9" s="63"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="54" t="s">
-        <v>354</v>
-      </c>
-      <c r="B10" s="55" t="s">
-        <v>169</v>
-      </c>
-      <c r="C10" s="62" t="s">
-        <v>370</v>
-      </c>
-      <c r="D10" s="69" t="s">
-        <v>371</v>
-      </c>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="62"/>
-      <c r="I10" s="65"/>
-      <c r="J10" s="62"/>
+        <v>349</v>
+      </c>
+      <c r="B10" s="74" t="s">
+        <v>395</v>
+      </c>
+      <c r="C10" s="61" t="s">
+        <v>365</v>
+      </c>
+      <c r="D10" s="68" t="s">
+        <v>366</v>
+      </c>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="61"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="61"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="54" t="s">
-        <v>355</v>
-      </c>
-      <c r="B11" s="58" t="s">
-        <v>170</v>
-      </c>
-      <c r="C11" s="62" t="s">
-        <v>374</v>
-      </c>
-      <c r="D11" s="69" t="s">
-        <v>375</v>
-      </c>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="62"/>
-      <c r="I11" s="62"/>
-      <c r="J11" s="62"/>
+        <v>350</v>
+      </c>
+      <c r="B11" s="156" t="s">
+        <v>165</v>
+      </c>
+      <c r="C11" s="61" t="s">
+        <v>368</v>
+      </c>
+      <c r="D11" s="68" t="s">
+        <v>369</v>
+      </c>
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="61"/>
+      <c r="I11" s="61"/>
+      <c r="J11" s="61"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="54" t="s">
-        <v>356</v>
-      </c>
-      <c r="B12" s="55" t="s">
-        <v>171</v>
-      </c>
-      <c r="C12" s="64" t="s">
-        <v>388</v>
-      </c>
-      <c r="D12" s="62" t="s">
-        <v>383</v>
-      </c>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="62"/>
-      <c r="I12" s="62"/>
-      <c r="J12" s="62"/>
+        <v>351</v>
+      </c>
+      <c r="B12" s="74" t="s">
+        <v>272</v>
+      </c>
+      <c r="C12" s="63" t="s">
+        <v>382</v>
+      </c>
+      <c r="D12" s="61" t="s">
+        <v>377</v>
+      </c>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="61"/>
+      <c r="I12" s="61"/>
+      <c r="J12" s="61"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="54" t="s">
-        <v>357</v>
-      </c>
-      <c r="B13" s="55" t="s">
-        <v>172</v>
-      </c>
-      <c r="C13" s="64" t="s">
-        <v>387</v>
-      </c>
-      <c r="D13" s="62" t="s">
-        <v>382</v>
-      </c>
-      <c r="E13" s="62"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="62"/>
-      <c r="H13" s="62"/>
-      <c r="I13" s="62"/>
-      <c r="J13" s="62"/>
+        <v>352</v>
+      </c>
+      <c r="B13" s="74" t="s">
+        <v>289</v>
+      </c>
+      <c r="C13" s="63" t="s">
+        <v>381</v>
+      </c>
+      <c r="D13" s="61" t="s">
+        <v>376</v>
+      </c>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="61"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="54" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="B14" s="56" t="s">
-        <v>173</v>
-      </c>
-      <c r="C14" s="66"/>
-      <c r="D14" s="62" t="s">
-        <v>367</v>
-      </c>
-      <c r="E14" s="62"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="62"/>
-      <c r="I14" s="62"/>
-      <c r="J14" s="62"/>
+        <v>170</v>
+      </c>
+      <c r="C14" s="65"/>
+      <c r="D14" s="61" t="s">
+        <v>362</v>
+      </c>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="61"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="54" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="B15" s="56" t="s">
-        <v>175</v>
-      </c>
-      <c r="C15" s="64"/>
-      <c r="D15" s="62" t="s">
-        <v>368</v>
-      </c>
-      <c r="E15" s="62"/>
-      <c r="F15" s="62"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="62"/>
-      <c r="I15" s="62"/>
-      <c r="J15" s="62"/>
+        <v>337</v>
+      </c>
+      <c r="C15" s="63"/>
+      <c r="D15" s="61" t="s">
+        <v>363</v>
+      </c>
+      <c r="E15" s="61"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="61"/>
+      <c r="I15" s="61"/>
+      <c r="J15" s="61"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="54" t="s">
-        <v>360</v>
-      </c>
-      <c r="B16" s="55" t="s">
-        <v>176</v>
-      </c>
-      <c r="C16" s="64" t="s">
-        <v>386</v>
-      </c>
-      <c r="D16" s="64" t="s">
-        <v>381</v>
-      </c>
-      <c r="E16" s="62"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="62"/>
-      <c r="H16" s="62"/>
-      <c r="I16" s="62"/>
-      <c r="J16" s="62"/>
+        <v>355</v>
+      </c>
+      <c r="B16" s="74" t="s">
+        <v>320</v>
+      </c>
+      <c r="C16" s="63" t="s">
+        <v>380</v>
+      </c>
+      <c r="D16" s="63" t="s">
+        <v>375</v>
+      </c>
+      <c r="E16" s="61"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="61"/>
+      <c r="H16" s="61"/>
+      <c r="I16" s="61"/>
+      <c r="J16" s="61"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="54" t="s">
-        <v>241</v>
-      </c>
-      <c r="B17" s="58" t="s">
-        <v>170</v>
-      </c>
-      <c r="C17" s="64" t="s">
-        <v>378</v>
-      </c>
-      <c r="D17" s="79" t="s">
+        <v>236</v>
+      </c>
+      <c r="B17" s="155" t="s">
+        <v>459</v>
+      </c>
+      <c r="C17" s="63" t="s">
+        <v>372</v>
+      </c>
+      <c r="D17" s="78" t="s">
+        <v>373</v>
+      </c>
+      <c r="E17" s="61"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="61"/>
+      <c r="J17" s="61"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="58" t="s">
+        <v>172</v>
+      </c>
+      <c r="B18" s="155" t="s">
+        <v>344</v>
+      </c>
+      <c r="C18" s="63" t="s">
         <v>379</v>
       </c>
-      <c r="E17" s="62"/>
-      <c r="F17" s="62"/>
-      <c r="G17" s="62"/>
-      <c r="H17" s="62"/>
-      <c r="I17" s="62"/>
-      <c r="J17" s="62"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="59" t="s">
-        <v>177</v>
-      </c>
-      <c r="B18" s="58" t="s">
-        <v>170</v>
-      </c>
-      <c r="C18" s="64" t="s">
-        <v>385</v>
-      </c>
-      <c r="D18" s="64" t="s">
-        <v>380</v>
-      </c>
-      <c r="E18" s="62"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="62"/>
-      <c r="H18" s="62"/>
-      <c r="I18" s="62"/>
-      <c r="J18" s="62"/>
+      <c r="D18" s="63" t="s">
+        <v>374</v>
+      </c>
+      <c r="E18" s="61"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="61"/>
+      <c r="J18" s="61"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="54" t="s">
-        <v>242</v>
-      </c>
-      <c r="B19" s="58" t="s">
-        <v>170</v>
-      </c>
-      <c r="C19" s="64" t="s">
-        <v>392</v>
-      </c>
-      <c r="D19" s="62" t="s">
-        <v>391</v>
-      </c>
-      <c r="E19" s="62"/>
-      <c r="F19" s="62"/>
-      <c r="G19" s="62"/>
-      <c r="H19" s="62"/>
-      <c r="I19" s="62"/>
-      <c r="J19" s="62"/>
+        <v>237</v>
+      </c>
+      <c r="B19" s="155" t="s">
+        <v>269</v>
+      </c>
+      <c r="C19" s="63" t="s">
+        <v>386</v>
+      </c>
+      <c r="D19" s="61" t="s">
+        <v>385</v>
+      </c>
+      <c r="E19" s="61"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="61"/>
+      <c r="H19" s="61"/>
+      <c r="I19" s="61"/>
+      <c r="J19" s="61"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="57" t="s">
         <v>77</v>
       </c>
-      <c r="B20" s="125" t="s">
+      <c r="B20" s="124" t="s">
         <v>165</v>
       </c>
-      <c r="C20" s="66" t="s">
-        <v>467</v>
-      </c>
-      <c r="D20" s="62" t="s">
-        <v>466</v>
-      </c>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="62"/>
-      <c r="H20" s="62"/>
-      <c r="I20" s="62"/>
-      <c r="J20" s="62"/>
+      <c r="C20" s="65" t="s">
+        <v>455</v>
+      </c>
+      <c r="D20" s="61" t="s">
+        <v>454</v>
+      </c>
+      <c r="E20" s="61"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="61"/>
+      <c r="H20" s="61"/>
+      <c r="I20" s="61"/>
+      <c r="J20" s="61"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="54" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="B21" s="56" t="s">
-        <v>179</v>
-      </c>
-      <c r="C21" s="66"/>
-      <c r="D21" s="62"/>
-      <c r="E21" s="62"/>
-      <c r="F21" s="62"/>
-      <c r="G21" s="62"/>
-      <c r="H21" s="62"/>
-      <c r="I21" s="62"/>
-      <c r="J21" s="62"/>
+        <v>174</v>
+      </c>
+      <c r="C21" s="65"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="61"/>
+      <c r="H21" s="61"/>
+      <c r="I21" s="61"/>
+      <c r="J21" s="61"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="54" t="s">
-        <v>362</v>
-      </c>
-      <c r="B22" s="76" t="s">
-        <v>180</v>
-      </c>
-      <c r="C22" s="66" t="s">
-        <v>468</v>
-      </c>
-      <c r="D22" s="66" t="s">
-        <v>469</v>
-      </c>
-      <c r="E22" s="62"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="62"/>
-      <c r="H22" s="62"/>
-      <c r="I22" s="62"/>
-      <c r="J22" s="62"/>
+        <v>357</v>
+      </c>
+      <c r="B22" s="75" t="s">
+        <v>175</v>
+      </c>
+      <c r="C22" s="65" t="s">
+        <v>456</v>
+      </c>
+      <c r="D22" s="65" t="s">
+        <v>457</v>
+      </c>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="61"/>
+      <c r="H22" s="61"/>
+      <c r="I22" s="61"/>
+      <c r="J22" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6138,32 +6147,32 @@
   <sheetData>
     <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="26" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D1" s="26" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="27" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C2" s="27"/>
       <c r="D2" s="27"/>
       <c r="E2" s="9" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -6171,25 +6180,25 @@
         <v>110</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C3" s="29"/>
       <c r="D3" s="29"/>
       <c r="E3" s="30" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="28" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C4" s="29"/>
       <c r="D4" s="29"/>
       <c r="E4" s="30" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -6197,20 +6206,20 @@
         <v>34</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C5" s="29"/>
       <c r="D5" s="29"/>
       <c r="E5" s="30" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="31" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C6" s="27"/>
       <c r="D6" s="27"/>
@@ -6218,10 +6227,10 @@
     </row>
     <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="31" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C7" s="27"/>
       <c r="D7" s="27"/>
@@ -6229,10 +6238,10 @@
     </row>
     <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="31" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C8" s="27"/>
       <c r="D8" s="27"/>
@@ -6247,16 +6256,16 @@
     </row>
     <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="29" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="E10" s="33"/>
     </row>
@@ -6265,121 +6274,121 @@
         <v>109</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="E11" s="34" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="29" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="E12" s="34" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A13" s="29" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D13" s="29" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="27" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E14" s="32" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="29" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D15" s="29" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="E15" s="33"/>
     </row>
     <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="29" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C16" s="29" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D16" s="29" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="E16" s="35" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="29" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C17" s="36" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D17" s="29" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="E17" s="37" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="28" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C18" s="38"/>
       <c r="D18" s="27"/>
@@ -6390,16 +6399,16 @@
         <v>64</v>
       </c>
       <c r="B19" s="40" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C19" s="41" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="E19" s="42" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -6411,18 +6420,18 @@
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="44" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="B21" s="31" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="44" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B22" s="31" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6431,74 +6440,74 @@
     </row>
     <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="45" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="B24" s="28" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="34" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B25" s="28" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="32" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="32" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="32" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="32" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="32" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="32" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="32" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7492,128 +7501,128 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="135" t="s">
-        <v>450</v>
-      </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="147"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
+      <c r="A1" s="139" t="s">
+        <v>439</v>
+      </c>
+      <c r="B1" s="151"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="72" t="s">
-        <v>452</v>
-      </c>
-      <c r="C2" s="72" t="s">
-        <v>451</v>
-      </c>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
+      <c r="B2" s="71" t="s">
+        <v>441</v>
+      </c>
+      <c r="C2" s="71" t="s">
+        <v>440</v>
+      </c>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="112" t="str">
+      <c r="A3" s="111" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1h79fqthLoRJDjhC2klnjbkG8MB2JL2Hy","1A")</f>
         <v>1A</v>
       </c>
-      <c r="B3" s="114" t="s">
-        <v>453</v>
-      </c>
-      <c r="C3" s="116" t="s">
-        <v>455</v>
-      </c>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="91"/>
+      <c r="B3" s="113" t="s">
+        <v>442</v>
+      </c>
+      <c r="C3" s="115" t="s">
+        <v>444</v>
+      </c>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="90"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="112" t="str">
+      <c r="A4" s="111" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1OPl2VmHH1ZeMZjQWNCCkQkA6bOfyIeqj","1B")</f>
         <v>1B</v>
       </c>
-      <c r="B4" s="114" t="s">
-        <v>453</v>
-      </c>
-      <c r="C4" s="116" t="s">
+      <c r="B4" s="113" t="s">
+        <v>442</v>
+      </c>
+      <c r="C4" s="115" t="s">
         <v>48</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
-      <c r="F4" s="110"/>
+      <c r="F4" s="109"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="113" t="str">
+      <c r="A5" s="112" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1_67Lwh4ATjaUkKTpdhqNA2vhhSxMhfoh","1C")</f>
         <v>1C</v>
       </c>
-      <c r="B5" s="115" t="s">
-        <v>454</v>
-      </c>
-      <c r="C5" s="116" t="s">
-        <v>455</v>
+      <c r="B5" s="114" t="s">
+        <v>443</v>
+      </c>
+      <c r="C5" s="115" t="s">
+        <v>444</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="113" t="str">
+      <c r="A6" s="112" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1RDZathABUe1AxNllos18oBRUGkUw-BAb","1D")</f>
         <v>1D</v>
       </c>
-      <c r="B6" s="114" t="s">
-        <v>453</v>
-      </c>
-      <c r="C6" s="116" t="s">
+      <c r="B6" s="113" t="s">
+        <v>442</v>
+      </c>
+      <c r="C6" s="115" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="110"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="109"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="113" t="str">
+      <c r="A7" s="112" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1B7jEgQfvgjZIKbfW8eR9qm2PDLYRcFFX","1E")</f>
         <v>1E</v>
       </c>
-      <c r="B7" s="115" t="s">
-        <v>454</v>
-      </c>
-      <c r="C7" s="117" t="s">
+      <c r="B7" s="114" t="s">
+        <v>443</v>
+      </c>
+      <c r="C7" s="116" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="80"/>
-      <c r="E7" s="80"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
       <c r="F7" s="9"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="113" t="str">
+      <c r="A8" s="112" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1y8psJsldf8GOPKXdI3_7jAN-0VefmuVb","1F")</f>
         <v>1F</v>
       </c>
-      <c r="B8" s="114" t="s">
-        <v>453</v>
-      </c>
-      <c r="C8" s="116" t="s">
-        <v>455</v>
+      <c r="B8" s="113" t="s">
+        <v>442</v>
+      </c>
+      <c r="C8" s="115" t="s">
+        <v>444</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
-      <c r="F8" s="110"/>
+      <c r="F8" s="109"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="112" t="str">
+      <c r="A9" s="111" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1Ak0bagtonjeBe0T45ml7mh9V5vKH_FoI","1G")</f>
         <v>1G</v>
       </c>
-      <c r="B9" s="115" t="s">
-        <v>454</v>
-      </c>
-      <c r="C9" s="117" t="s">
+      <c r="B9" s="114" t="s">
+        <v>443</v>
+      </c>
+      <c r="C9" s="116" t="s">
         <v>48</v>
       </c>
       <c r="D9" s="9"/>
@@ -7621,29 +7630,29 @@
       <c r="F9" s="9"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="112" t="str">
+      <c r="A10" s="111" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=15tp_vGgbK5-4zzthz0W8wuq2zgKokja6","1H")</f>
         <v>1H</v>
       </c>
-      <c r="B10" s="115" t="s">
-        <v>454</v>
-      </c>
-      <c r="C10" s="116" t="s">
-        <v>455</v>
+      <c r="B10" s="114" t="s">
+        <v>443</v>
+      </c>
+      <c r="C10" s="115" t="s">
+        <v>444</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
-      <c r="F10" s="110"/>
+      <c r="F10" s="109"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="112" t="str">
+      <c r="A11" s="111" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1EMft8Du0dvrSSlstsShqV16Nnrlb4EO_","1J")</f>
         <v>1J</v>
       </c>
-      <c r="B11" s="114" t="s">
-        <v>453</v>
-      </c>
-      <c r="C11" s="116" t="s">
+      <c r="B11" s="113" t="s">
+        <v>442</v>
+      </c>
+      <c r="C11" s="115" t="s">
         <v>48</v>
       </c>
       <c r="D11" s="9"/>
@@ -7651,119 +7660,119 @@
       <c r="F11" s="9"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="112" t="str">
+      <c r="A12" s="111" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1B-AwkTkUdHQS0dThuP6mM5L_0XIFZ2QS","1K")</f>
         <v>1K</v>
       </c>
-      <c r="B12" s="115" t="s">
-        <v>454</v>
-      </c>
-      <c r="C12" s="116" t="s">
-        <v>455</v>
+      <c r="B12" s="114" t="s">
+        <v>443</v>
+      </c>
+      <c r="C12" s="115" t="s">
+        <v>444</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
-      <c r="F12" s="110"/>
+      <c r="F12" s="109"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="112" t="str">
+      <c r="A13" s="111" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1XILFfrJerwAeHeN4xKdQH-99VN9y0QS7","2A")</f>
         <v>2A</v>
       </c>
-      <c r="B13" s="115" t="s">
-        <v>454</v>
-      </c>
-      <c r="C13" s="116" t="s">
-        <v>455</v>
+      <c r="B13" s="114" t="s">
+        <v>443</v>
+      </c>
+      <c r="C13" s="115" t="s">
+        <v>444</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
-      <c r="F13" s="110"/>
+      <c r="F13" s="109"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="112" t="str">
+      <c r="A14" s="111" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1i7lErxBcw13LxRubiAB_0upxTGrTLBvi","2B")</f>
         <v>2B</v>
       </c>
-      <c r="B14" s="115" t="s">
-        <v>454</v>
-      </c>
-      <c r="C14" s="116" t="s">
-        <v>455</v>
+      <c r="B14" s="114" t="s">
+        <v>443</v>
+      </c>
+      <c r="C14" s="115" t="s">
+        <v>444</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
-      <c r="F14" s="110"/>
+      <c r="F14" s="109"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="112" t="str">
+      <c r="A15" s="111" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1HmSkhlRiy_w_xIcPrlD-Gu21Q1sHCajk","2C")</f>
         <v>2C</v>
       </c>
-      <c r="B15" s="115" t="s">
-        <v>454</v>
-      </c>
-      <c r="C15" s="116" t="s">
+      <c r="B15" s="114" t="s">
+        <v>443</v>
+      </c>
+      <c r="C15" s="115" t="s">
         <v>48</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
-      <c r="F15" s="110"/>
+      <c r="F15" s="109"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="112" t="str">
+      <c r="A16" s="111" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1ih9AM9nSu6WpURV8EnXu6Q1HkOh5dSXM","2D")</f>
         <v>2D</v>
       </c>
-      <c r="B16" s="114" t="s">
-        <v>453</v>
-      </c>
-      <c r="C16" s="116" t="s">
+      <c r="B16" s="113" t="s">
+        <v>442</v>
+      </c>
+      <c r="C16" s="115" t="s">
         <v>48</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
-      <c r="F16" s="110"/>
+      <c r="F16" s="109"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="112" t="str">
+      <c r="A17" s="111" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1ilbwUzFLn2Zr9CQ_v673T9KjSALf_GzB","2E")</f>
         <v>2E</v>
       </c>
-      <c r="B17" s="115" t="s">
-        <v>454</v>
-      </c>
-      <c r="C17" s="116" t="s">
-        <v>455</v>
+      <c r="B17" s="114" t="s">
+        <v>443</v>
+      </c>
+      <c r="C17" s="115" t="s">
+        <v>444</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
-      <c r="F17" s="110"/>
+      <c r="F17" s="109"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="112" t="str">
+      <c r="A18" s="111" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1H2B7fJmOymk8ZeyITqVgqJIR9EbewGjs","2F")</f>
         <v>2F</v>
       </c>
-      <c r="B18" s="114" t="s">
-        <v>453</v>
-      </c>
-      <c r="C18" s="116" t="s">
+      <c r="B18" s="113" t="s">
+        <v>442</v>
+      </c>
+      <c r="C18" s="115" t="s">
         <v>48</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
-      <c r="F18" s="110"/>
+      <c r="F18" s="109"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="112" t="str">
+      <c r="A19" s="111" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1GXDi1coA9HtIo5F2GTLcPhpAh_IiHrmJ","2G")</f>
         <v>2G</v>
       </c>
-      <c r="B19" s="114" t="s">
-        <v>453</v>
-      </c>
-      <c r="C19" s="116" t="s">
+      <c r="B19" s="113" t="s">
+        <v>442</v>
+      </c>
+      <c r="C19" s="115" t="s">
         <v>48</v>
       </c>
       <c r="D19" s="9"/>
@@ -7771,149 +7780,149 @@
       <c r="F19" s="9"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="112" t="str">
+      <c r="A20" s="111" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=18itspidwzvb4KFHkqj1122TxuhHxILwX","2H")</f>
         <v>2H</v>
       </c>
-      <c r="B20" s="115" t="s">
-        <v>454</v>
-      </c>
-      <c r="C20" s="116" t="s">
-        <v>455</v>
-      </c>
-      <c r="D20" s="109"/>
+      <c r="B20" s="114" t="s">
+        <v>443</v>
+      </c>
+      <c r="C20" s="115" t="s">
+        <v>444</v>
+      </c>
+      <c r="D20" s="108"/>
       <c r="E20" s="9"/>
-      <c r="F20" s="110"/>
+      <c r="F20" s="109"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="112" t="str">
+      <c r="A21" s="111" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=12YgGEJrua5a-agu15lV4vezflw1cOjQ4","2J")</f>
         <v>2J</v>
       </c>
-      <c r="B21" s="115" t="s">
-        <v>454</v>
-      </c>
-      <c r="C21" s="116" t="s">
-        <v>455</v>
-      </c>
-      <c r="D21" s="80"/>
-      <c r="E21" s="80"/>
-      <c r="F21" s="110"/>
+      <c r="B21" s="114" t="s">
+        <v>443</v>
+      </c>
+      <c r="C21" s="115" t="s">
+        <v>444</v>
+      </c>
+      <c r="D21" s="79"/>
+      <c r="E21" s="79"/>
+      <c r="F21" s="109"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="112" t="str">
+      <c r="A22" s="111" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1mdMrKj4CCNPy7BlChSDOU2hQAJONhZzU","2K")</f>
         <v>2K</v>
       </c>
-      <c r="B22" s="115" t="s">
-        <v>454</v>
-      </c>
-      <c r="C22" s="116" t="s">
+      <c r="B22" s="114" t="s">
+        <v>443</v>
+      </c>
+      <c r="C22" s="115" t="s">
         <v>48</v>
       </c>
-      <c r="D22" s="80"/>
-      <c r="E22" s="80"/>
-      <c r="F22" s="110"/>
+      <c r="D22" s="79"/>
+      <c r="E22" s="79"/>
+      <c r="F22" s="109"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="112" t="str">
+      <c r="A23" s="111" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=14mzIl-szkFL_WWXlsFZ9T_x3Mt5RAOn0","2L")</f>
         <v>2L</v>
       </c>
-      <c r="B23" s="115" t="s">
-        <v>454</v>
-      </c>
-      <c r="C23" s="116" t="s">
+      <c r="B23" s="114" t="s">
+        <v>443</v>
+      </c>
+      <c r="C23" s="115" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="80"/>
-      <c r="E23" s="80"/>
-      <c r="F23" s="110"/>
+      <c r="D23" s="79"/>
+      <c r="E23" s="79"/>
+      <c r="F23" s="109"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="112" t="str">
+      <c r="A24" s="111" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1-X_VRvOqUUm_bcQ792NJw8TTxR5Kl3lr","2M")</f>
         <v>2M</v>
       </c>
-      <c r="B24" s="115" t="s">
-        <v>454</v>
-      </c>
-      <c r="C24" s="116" t="s">
-        <v>455</v>
-      </c>
-      <c r="D24" s="109"/>
-      <c r="E24" s="80"/>
+      <c r="B24" s="114" t="s">
+        <v>443</v>
+      </c>
+      <c r="C24" s="115" t="s">
+        <v>444</v>
+      </c>
+      <c r="D24" s="108"/>
+      <c r="E24" s="79"/>
       <c r="F24" s="9"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="112" t="str">
+      <c r="A25" s="111" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1ofYuI7zJYOx0Em5kOgymDe9L2TWaIZ-_","3C")</f>
         <v>3C</v>
       </c>
-      <c r="B25" s="115" t="s">
-        <v>454</v>
-      </c>
-      <c r="C25" s="116" t="s">
-        <v>455</v>
-      </c>
-      <c r="D25" s="109"/>
+      <c r="B25" s="114" t="s">
+        <v>443</v>
+      </c>
+      <c r="C25" s="115" t="s">
+        <v>444</v>
+      </c>
+      <c r="D25" s="108"/>
       <c r="E25" s="9"/>
-      <c r="F25" s="110"/>
+      <c r="F25" s="109"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="112" t="str">
+      <c r="A26" s="111" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1X9eTLHcdh-lSX2OXG4OLDNwPRG5eoz9l","3D")</f>
         <v>3D</v>
       </c>
-      <c r="B26" s="115" t="s">
-        <v>454</v>
-      </c>
-      <c r="C26" s="117" t="s">
+      <c r="B26" s="114" t="s">
+        <v>443</v>
+      </c>
+      <c r="C26" s="116" t="s">
         <v>48</v>
       </c>
-      <c r="D26" s="80"/>
-      <c r="E26" s="80"/>
+      <c r="D26" s="79"/>
+      <c r="E26" s="79"/>
       <c r="F26" s="9"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="112" t="str">
+      <c r="A27" s="111" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1m_ACLfEw9sFFcCd16wQnkI9wa3WI7gK9","3E")</f>
         <v>3E</v>
       </c>
-      <c r="B27" s="114" t="s">
-        <v>453</v>
-      </c>
-      <c r="C27" s="116" t="s">
+      <c r="B27" s="113" t="s">
+        <v>442</v>
+      </c>
+      <c r="C27" s="115" t="s">
         <v>48</v>
       </c>
-      <c r="D27" s="80"/>
-      <c r="E27" s="81"/>
-      <c r="F27" s="110"/>
+      <c r="D27" s="79"/>
+      <c r="E27" s="80"/>
+      <c r="F27" s="109"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="112" t="str">
+      <c r="A28" s="111" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1CIBdXiHhWBrM6LwlY-yGooPill1DRTQ7","3F")</f>
         <v>3F</v>
       </c>
-      <c r="B28" s="116" t="s">
+      <c r="B28" s="115" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="116" t="s">
+      <c r="C28" s="115" t="s">
         <v>48</v>
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
-      <c r="F28" s="109"/>
+      <c r="F28" s="108"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="112" t="str">
+      <c r="A29" s="111" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1c2xmouFbs4cNAvpeHuAdgNreh8kFEC2V","3G")</f>
         <v>3G</v>
       </c>
-      <c r="B29" s="116" t="s">
+      <c r="B29" s="115" t="s">
         <v>48</v>
       </c>
-      <c r="C29" s="116" t="s">
+      <c r="C29" s="115" t="s">
         <v>48</v>
       </c>
       <c r="D29" s="9"/>
@@ -7921,14 +7930,14 @@
       <c r="F29" s="9"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="112" t="str">
+      <c r="A30" s="111" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1t7wkFvS4sGjdMU60zYacdFSrl4pYayl_","3H")</f>
         <v>3H</v>
       </c>
-      <c r="B30" s="116" t="s">
+      <c r="B30" s="115" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="116" t="s">
+      <c r="C30" s="115" t="s">
         <v>48</v>
       </c>
       <c r="D30" s="9"/>
@@ -7936,44 +7945,44 @@
       <c r="F30" s="9"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="112" t="str">
+      <c r="A31" s="111" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1N0-R1KTkpoZjXWmN7r0U_myR9XBY5SDj","3J")</f>
         <v>3J</v>
       </c>
-      <c r="B31" s="114" t="s">
-        <v>453</v>
-      </c>
-      <c r="C31" s="116" t="s">
+      <c r="B31" s="113" t="s">
+        <v>442</v>
+      </c>
+      <c r="C31" s="115" t="s">
         <v>48</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
-      <c r="F31" s="110"/>
+      <c r="F31" s="109"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="112" t="str">
+      <c r="A32" s="111" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=13pmWKIsTMFsSuBTJ-HZb5DVIowIXTS_s","3L")</f>
         <v>3L</v>
       </c>
-      <c r="B32" s="115" t="s">
-        <v>454</v>
-      </c>
-      <c r="C32" s="116" t="s">
-        <v>455</v>
+      <c r="B32" s="114" t="s">
+        <v>443</v>
+      </c>
+      <c r="C32" s="115" t="s">
+        <v>444</v>
       </c>
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
-      <c r="F32" s="110"/>
+      <c r="F32" s="109"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="112" t="str">
+      <c r="A33" s="111" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=16nGNQgv2r19h9agxYjXmQ8rC4v330dYf","4E")</f>
         <v>4E</v>
       </c>
-      <c r="B33" s="114" t="s">
-        <v>453</v>
-      </c>
-      <c r="C33" s="116" t="s">
+      <c r="B33" s="113" t="s">
+        <v>442</v>
+      </c>
+      <c r="C33" s="115" t="s">
         <v>48</v>
       </c>
       <c r="D33" s="9"/>
@@ -7981,14 +7990,14 @@
       <c r="F33" s="9"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="112" t="str">
+      <c r="A34" s="111" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1bmJc7h6PrfobWHjtATEPhVDZqxi3ORaa","4F")</f>
         <v>4F</v>
       </c>
-      <c r="B34" s="114" t="s">
-        <v>453</v>
-      </c>
-      <c r="C34" s="116" t="s">
+      <c r="B34" s="113" t="s">
+        <v>442</v>
+      </c>
+      <c r="C34" s="115" t="s">
         <v>48</v>
       </c>
       <c r="D34" s="9"/>
@@ -7996,29 +8005,29 @@
       <c r="F34" s="9"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="112" t="str">
+      <c r="A35" s="111" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1nHAP6VZOPX4PWClDeQpEHh4MuzIQchEa","4G")</f>
         <v>4G</v>
       </c>
-      <c r="B35" s="114" t="s">
-        <v>453</v>
-      </c>
-      <c r="C35" s="116" t="s">
-        <v>455</v>
+      <c r="B35" s="113" t="s">
+        <v>442</v>
+      </c>
+      <c r="C35" s="115" t="s">
+        <v>444</v>
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
-      <c r="F35" s="110"/>
+      <c r="F35" s="109"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="112" t="str">
+      <c r="A36" s="111" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1a78u8iOyRFbuJtQlj9X51FknS9EfCDih","4H")</f>
         <v>4H</v>
       </c>
-      <c r="B36" s="114" t="s">
-        <v>453</v>
-      </c>
-      <c r="C36" s="116" t="s">
+      <c r="B36" s="113" t="s">
+        <v>442</v>
+      </c>
+      <c r="C36" s="115" t="s">
         <v>48</v>
       </c>
       <c r="D36" s="9"/>
@@ -8026,124 +8035,124 @@
       <c r="F36" s="9"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="112" t="str">
+      <c r="A37" s="111" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1zZjefBVzFC9BP-YmMKfQZMWa1XGkqomj","4J")</f>
         <v>4J</v>
       </c>
-      <c r="B37" s="115" t="s">
-        <v>454</v>
-      </c>
-      <c r="C37" s="116" t="s">
-        <v>455</v>
-      </c>
-      <c r="D37" s="109"/>
+      <c r="B37" s="114" t="s">
+        <v>443</v>
+      </c>
+      <c r="C37" s="115" t="s">
+        <v>444</v>
+      </c>
+      <c r="D37" s="108"/>
       <c r="E37" s="9"/>
-      <c r="F37" s="110"/>
+      <c r="F37" s="109"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="112" t="str">
+      <c r="A38" s="111" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1qWFlabv0TeVOBvOIJQuvHlR1H3AMOPvN","4K")</f>
         <v>4K</v>
       </c>
-      <c r="B38" s="114" t="s">
-        <v>453</v>
-      </c>
-      <c r="C38" s="116" t="s">
+      <c r="B38" s="113" t="s">
+        <v>442</v>
+      </c>
+      <c r="C38" s="115" t="s">
         <v>48</v>
       </c>
       <c r="D38" s="9"/>
       <c r="E38" s="9"/>
-      <c r="F38" s="110"/>
+      <c r="F38" s="109"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="112" t="str">
+      <c r="A39" s="111" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=176NV2NM9yvfuW1EMU3iBS768FxgmXjUS","4L")</f>
         <v>4L</v>
       </c>
-      <c r="B39" s="114" t="s">
-        <v>453</v>
-      </c>
-      <c r="C39" s="116" t="s">
+      <c r="B39" s="113" t="s">
+        <v>442</v>
+      </c>
+      <c r="C39" s="115" t="s">
         <v>48</v>
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="9"/>
-      <c r="F39" s="110"/>
+      <c r="F39" s="109"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="112" t="str">
+      <c r="A40" s="111" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1cC0P-G66cPSNnf6v6z8opZCNyporo74Y","5B")</f>
         <v>5B</v>
       </c>
-      <c r="B40" s="115" t="s">
-        <v>454</v>
-      </c>
-      <c r="C40" s="117" t="s">
+      <c r="B40" s="114" t="s">
+        <v>443</v>
+      </c>
+      <c r="C40" s="116" t="s">
         <v>48</v>
       </c>
-      <c r="D40" s="109"/>
+      <c r="D40" s="108"/>
       <c r="E40" s="9"/>
-      <c r="F40" s="110"/>
+      <c r="F40" s="109"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="112" t="str">
+      <c r="A41" s="111" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1q_N74b1OZrCze7zuXy5fm0ASU07tWzh3","5C")</f>
         <v>5C</v>
       </c>
-      <c r="B41" s="114" t="s">
-        <v>453</v>
-      </c>
-      <c r="C41" s="116" t="s">
-        <v>455</v>
+      <c r="B41" s="113" t="s">
+        <v>442</v>
+      </c>
+      <c r="C41" s="115" t="s">
+        <v>444</v>
       </c>
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
-      <c r="F41" s="110"/>
+      <c r="F41" s="109"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="112" t="str">
+      <c r="A42" s="111" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1aKSCelAY002Ihje9mdJi7jFh0OB4j8XZ","5E")</f>
         <v>5E</v>
       </c>
-      <c r="B42" s="114" t="s">
-        <v>453</v>
-      </c>
-      <c r="C42" s="116" t="s">
+      <c r="B42" s="113" t="s">
+        <v>442</v>
+      </c>
+      <c r="C42" s="115" t="s">
         <v>48</v>
       </c>
       <c r="D42" s="9"/>
       <c r="E42" s="9"/>
-      <c r="F42" s="110"/>
+      <c r="F42" s="109"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="112" t="str">
+      <c r="A43" s="111" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1ghdX_COwJq4oYlhj-qYPypK_2GlrWyQZ","5G")</f>
         <v>5G</v>
       </c>
-      <c r="B43" s="114" t="s">
-        <v>453</v>
-      </c>
-      <c r="C43" s="116" t="s">
+      <c r="B43" s="113" t="s">
+        <v>442</v>
+      </c>
+      <c r="C43" s="115" t="s">
         <v>48</v>
       </c>
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
-      <c r="F43" s="110"/>
+      <c r="F43" s="109"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="112" t="str">
+      <c r="A44" s="111" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1MR24L4GDI5x861k8SMrgm71xRfm55Hiv","5H")</f>
         <v>5H</v>
       </c>
-      <c r="B44" s="114" t="s">
-        <v>453</v>
-      </c>
-      <c r="C44" s="116" t="s">
+      <c r="B44" s="113" t="s">
+        <v>442</v>
+      </c>
+      <c r="C44" s="115" t="s">
         <v>48</v>
       </c>
       <c r="D44" s="9"/>
       <c r="E44" s="9"/>
-      <c r="F44" s="110"/>
+      <c r="F44" s="109"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8173,761 +8182,761 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="86" t="s">
+        <v>396</v>
+      </c>
+      <c r="B1" s="87" t="s">
+        <v>417</v>
+      </c>
+      <c r="C1" s="87" t="s">
+        <v>416</v>
+      </c>
+      <c r="D1" s="154" t="s">
+        <v>263</v>
+      </c>
+      <c r="E1" s="154"/>
+      <c r="F1" s="96" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="84" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="9"/>
+      <c r="D2" s="153"/>
+      <c r="E2" s="153"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+    </row>
+    <row r="3" spans="1:9" s="84" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="85" t="s">
+        <v>397</v>
+      </c>
+      <c r="B3" s="91">
+        <v>62</v>
+      </c>
+      <c r="C3" s="91">
+        <v>55</v>
+      </c>
+      <c r="D3" s="152" t="s">
+        <v>418</v>
+      </c>
+      <c r="E3" s="153"/>
+      <c r="F3" s="88" t="s">
+        <v>255</v>
+      </c>
+      <c r="G3" s="90"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="90"/>
+    </row>
+    <row r="4" spans="1:9" s="84" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="85" t="s">
+        <v>398</v>
+      </c>
+      <c r="D4" s="153"/>
+      <c r="E4" s="153"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="93"/>
+      <c r="I4" s="90"/>
+    </row>
+    <row r="5" spans="1:9" s="84" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="85" t="s">
+        <v>399</v>
+      </c>
+      <c r="B5" s="91">
+        <v>44</v>
+      </c>
+      <c r="C5" s="91">
+        <v>43</v>
+      </c>
+      <c r="D5" s="153"/>
+      <c r="E5" s="153"/>
+      <c r="F5" s="88" t="s">
+        <v>255</v>
+      </c>
+      <c r="G5" s="90"/>
+      <c r="H5" s="93"/>
+      <c r="I5" s="90"/>
+    </row>
+    <row r="6" spans="1:9" s="84" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="85" t="s">
+        <v>400</v>
+      </c>
+      <c r="B6" s="91">
+        <v>47</v>
+      </c>
+      <c r="C6" s="91">
+        <v>52</v>
+      </c>
+      <c r="D6" s="152" t="s">
+        <v>420</v>
+      </c>
+      <c r="E6" s="153"/>
+      <c r="F6" s="88" t="s">
+        <v>255</v>
+      </c>
+      <c r="G6" s="90"/>
+      <c r="H6" s="95"/>
+      <c r="I6" s="90"/>
+    </row>
+    <row r="7" spans="1:9" s="84" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="85" t="s">
+        <v>401</v>
+      </c>
+      <c r="B7" s="91">
+        <v>75</v>
+      </c>
+      <c r="C7" s="91">
+        <v>82</v>
+      </c>
+      <c r="D7" s="152" t="s">
+        <v>420</v>
+      </c>
+      <c r="E7" s="153"/>
+      <c r="F7" s="88" t="s">
+        <v>255</v>
+      </c>
+      <c r="G7" s="90"/>
+      <c r="H7" s="93"/>
+      <c r="I7" s="90"/>
+    </row>
+    <row r="8" spans="1:9" s="84" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="85" t="s">
+        <v>402</v>
+      </c>
+      <c r="B8" s="91">
+        <v>85</v>
+      </c>
+      <c r="C8" s="91">
+        <v>99</v>
+      </c>
+      <c r="D8" s="152" t="s">
+        <v>419</v>
+      </c>
+      <c r="E8" s="153"/>
+      <c r="F8" s="89"/>
+      <c r="G8" s="90"/>
+      <c r="H8" s="93"/>
+      <c r="I8" s="90"/>
+    </row>
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="85" t="s">
         <v>403</v>
       </c>
-      <c r="B1" s="88" t="s">
-        <v>424</v>
-      </c>
-      <c r="C1" s="88" t="s">
-        <v>423</v>
-      </c>
-      <c r="D1" s="148" t="s">
-        <v>268</v>
-      </c>
-      <c r="E1" s="148"/>
-      <c r="F1" s="97" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="85" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="9"/>
-      <c r="D2" s="150"/>
-      <c r="E2" s="150"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
-    </row>
-    <row r="3" spans="1:9" s="85" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="86" t="s">
+      <c r="B9" s="91">
+        <v>15</v>
+      </c>
+      <c r="C9" s="91">
+        <v>23</v>
+      </c>
+      <c r="D9" s="152" t="s">
+        <v>418</v>
+      </c>
+      <c r="E9" s="153"/>
+      <c r="F9" s="88" t="s">
+        <v>255</v>
+      </c>
+      <c r="G9" s="90"/>
+      <c r="H9" s="93"/>
+      <c r="I9" s="90"/>
+    </row>
+    <row r="10" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="85" t="s">
         <v>404</v>
       </c>
-      <c r="B3" s="92">
-        <v>62</v>
-      </c>
-      <c r="C3" s="92">
-        <v>55</v>
-      </c>
-      <c r="D3" s="149" t="s">
+      <c r="B10" s="92"/>
+      <c r="C10" s="91"/>
+      <c r="D10" s="153"/>
+      <c r="E10" s="153"/>
+      <c r="F10" s="89"/>
+      <c r="G10" s="90"/>
+      <c r="H10" s="93"/>
+      <c r="I10" s="90"/>
+    </row>
+    <row r="11" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="85" t="s">
+        <v>405</v>
+      </c>
+      <c r="B11" s="93"/>
+      <c r="C11" s="91"/>
+      <c r="D11" s="153"/>
+      <c r="E11" s="153"/>
+      <c r="F11" s="89"/>
+      <c r="G11" s="90"/>
+      <c r="H11" s="93"/>
+      <c r="I11" s="90"/>
+    </row>
+    <row r="12" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="85" t="s">
+        <v>406</v>
+      </c>
+      <c r="B12" s="93">
+        <v>57</v>
+      </c>
+      <c r="C12" s="91">
+        <v>59</v>
+      </c>
+      <c r="D12" s="152" t="s">
+        <v>418</v>
+      </c>
+      <c r="E12" s="153"/>
+      <c r="F12" s="88" t="s">
+        <v>255</v>
+      </c>
+      <c r="G12" s="90"/>
+      <c r="H12" s="93"/>
+      <c r="I12" s="90"/>
+    </row>
+    <row r="13" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="85" t="s">
+        <v>407</v>
+      </c>
+      <c r="B13" s="93">
+        <v>37</v>
+      </c>
+      <c r="C13" s="91">
+        <v>56</v>
+      </c>
+      <c r="D13" s="152" t="s">
+        <v>420</v>
+      </c>
+      <c r="E13" s="153"/>
+      <c r="F13" s="88" t="s">
+        <v>255</v>
+      </c>
+      <c r="G13" s="90"/>
+      <c r="H13" s="95"/>
+      <c r="I13" s="90"/>
+    </row>
+    <row r="14" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="85" t="s">
+        <v>408</v>
+      </c>
+      <c r="B14" s="93">
+        <v>53</v>
+      </c>
+      <c r="C14" s="91">
+        <v>72</v>
+      </c>
+      <c r="D14" s="152" t="s">
+        <v>420</v>
+      </c>
+      <c r="E14" s="153"/>
+      <c r="F14" s="88" t="s">
+        <v>255</v>
+      </c>
+      <c r="G14" s="90"/>
+      <c r="H14" s="93"/>
+      <c r="I14" s="90"/>
+    </row>
+    <row r="15" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="85" t="s">
+        <v>409</v>
+      </c>
+      <c r="B15" s="93">
+        <v>60</v>
+      </c>
+      <c r="C15" s="91">
+        <v>64</v>
+      </c>
+      <c r="D15" s="153"/>
+      <c r="E15" s="153"/>
+      <c r="F15" s="88" t="s">
+        <v>255</v>
+      </c>
+      <c r="G15" s="90"/>
+      <c r="H15" s="93"/>
+      <c r="I15" s="90"/>
+    </row>
+    <row r="16" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="85" t="s">
+        <v>410</v>
+      </c>
+      <c r="B16" s="91"/>
+      <c r="C16" s="91"/>
+      <c r="D16" s="153"/>
+      <c r="E16" s="153"/>
+      <c r="F16" s="89"/>
+      <c r="G16" s="90"/>
+      <c r="H16" s="93"/>
+      <c r="I16" s="90"/>
+    </row>
+    <row r="17" spans="1:9" s="84" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="85" t="s">
+        <v>411</v>
+      </c>
+      <c r="B17" s="91">
+        <v>16</v>
+      </c>
+      <c r="C17" s="91">
+        <v>17</v>
+      </c>
+      <c r="D17" s="153"/>
+      <c r="E17" s="153"/>
+      <c r="F17" s="119" t="s">
+        <v>255</v>
+      </c>
+      <c r="G17" s="90"/>
+      <c r="H17" s="93"/>
+      <c r="I17" s="90"/>
+    </row>
+    <row r="18" spans="1:9" s="84" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="85" t="s">
+        <v>412</v>
+      </c>
+      <c r="B18" s="91"/>
+      <c r="C18" s="91"/>
+      <c r="D18" s="153"/>
+      <c r="E18" s="153"/>
+      <c r="F18" s="89"/>
+      <c r="G18" s="90"/>
+      <c r="H18" s="93"/>
+      <c r="I18" s="90"/>
+    </row>
+    <row r="19" spans="1:9" s="84" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="85" t="s">
+        <v>413</v>
+      </c>
+      <c r="B19" s="91">
+        <v>18</v>
+      </c>
+      <c r="C19" s="91">
+        <v>40</v>
+      </c>
+      <c r="D19" s="152" t="s">
+        <v>420</v>
+      </c>
+      <c r="E19" s="153"/>
+      <c r="F19" s="88" t="s">
+        <v>255</v>
+      </c>
+      <c r="G19" s="90"/>
+      <c r="H19" s="93"/>
+      <c r="I19" s="90"/>
+    </row>
+    <row r="20" spans="1:9" s="84" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="85" t="s">
+        <v>414</v>
+      </c>
+      <c r="B20" s="91">
+        <v>45</v>
+      </c>
+      <c r="C20" s="91">
+        <v>48</v>
+      </c>
+      <c r="D20" s="152" t="s">
+        <v>420</v>
+      </c>
+      <c r="E20" s="153"/>
+      <c r="F20" s="88" t="s">
+        <v>255</v>
+      </c>
+      <c r="G20" s="90"/>
+      <c r="H20" s="93"/>
+      <c r="I20" s="90"/>
+    </row>
+    <row r="21" spans="1:9" s="84" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="85" t="s">
+        <v>415</v>
+      </c>
+      <c r="B21" s="91">
+        <v>83</v>
+      </c>
+      <c r="C21" s="91">
+        <v>84</v>
+      </c>
+      <c r="D21" s="152" t="s">
+        <v>420</v>
+      </c>
+      <c r="E21" s="153"/>
+      <c r="F21" s="88" t="s">
         <v>425</v>
       </c>
-      <c r="E3" s="150"/>
-      <c r="F3" s="89" t="s">
-        <v>260</v>
-      </c>
-      <c r="G3" s="91"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="91"/>
-    </row>
-    <row r="4" spans="1:9" s="85" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="86" t="s">
-        <v>405</v>
-      </c>
-      <c r="D4" s="150"/>
-      <c r="E4" s="150"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="91"/>
-      <c r="H4" s="94"/>
-      <c r="I4" s="91"/>
-    </row>
-    <row r="5" spans="1:9" s="85" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="86" t="s">
-        <v>406</v>
-      </c>
-      <c r="B5" s="92">
-        <v>44</v>
-      </c>
-      <c r="C5" s="92">
-        <v>43</v>
-      </c>
-      <c r="D5" s="150"/>
-      <c r="E5" s="150"/>
-      <c r="F5" s="89" t="s">
-        <v>260</v>
-      </c>
-      <c r="G5" s="91"/>
-      <c r="H5" s="94"/>
-      <c r="I5" s="91"/>
-    </row>
-    <row r="6" spans="1:9" s="85" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="86" t="s">
-        <v>407</v>
-      </c>
-      <c r="B6" s="92">
-        <v>47</v>
-      </c>
-      <c r="C6" s="92">
-        <v>52</v>
-      </c>
-      <c r="D6" s="149" t="s">
-        <v>427</v>
-      </c>
-      <c r="E6" s="150"/>
-      <c r="F6" s="89" t="s">
-        <v>260</v>
-      </c>
-      <c r="G6" s="91"/>
-      <c r="H6" s="96"/>
-      <c r="I6" s="91"/>
-    </row>
-    <row r="7" spans="1:9" s="85" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="86" t="s">
-        <v>408</v>
-      </c>
-      <c r="B7" s="92">
-        <v>75</v>
-      </c>
-      <c r="C7" s="92">
-        <v>82</v>
-      </c>
-      <c r="D7" s="149" t="s">
-        <v>427</v>
-      </c>
-      <c r="E7" s="150"/>
-      <c r="F7" s="89" t="s">
-        <v>260</v>
-      </c>
-      <c r="G7" s="91"/>
-      <c r="H7" s="94"/>
-      <c r="I7" s="91"/>
-    </row>
-    <row r="8" spans="1:9" s="85" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="86" t="s">
-        <v>409</v>
-      </c>
-      <c r="B8" s="92">
-        <v>85</v>
-      </c>
-      <c r="C8" s="92">
-        <v>99</v>
-      </c>
-      <c r="D8" s="149" t="s">
-        <v>426</v>
-      </c>
-      <c r="E8" s="150"/>
-      <c r="F8" s="90"/>
-      <c r="G8" s="91"/>
-      <c r="H8" s="94"/>
-      <c r="I8" s="91"/>
-    </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="86" t="s">
-        <v>410</v>
-      </c>
-      <c r="B9" s="92">
-        <v>15</v>
-      </c>
-      <c r="C9" s="92">
-        <v>23</v>
-      </c>
-      <c r="D9" s="149" t="s">
-        <v>425</v>
-      </c>
-      <c r="E9" s="150"/>
-      <c r="F9" s="89" t="s">
-        <v>260</v>
-      </c>
-      <c r="G9" s="91"/>
-      <c r="H9" s="94"/>
-      <c r="I9" s="91"/>
-    </row>
-    <row r="10" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="86" t="s">
-        <v>411</v>
-      </c>
-      <c r="B10" s="93"/>
-      <c r="C10" s="92"/>
-      <c r="D10" s="150"/>
-      <c r="E10" s="150"/>
-      <c r="F10" s="90"/>
-      <c r="G10" s="91"/>
-      <c r="H10" s="94"/>
-      <c r="I10" s="91"/>
-    </row>
-    <row r="11" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="86" t="s">
-        <v>412</v>
-      </c>
-      <c r="B11" s="94"/>
-      <c r="C11" s="92"/>
-      <c r="D11" s="150"/>
-      <c r="E11" s="150"/>
-      <c r="F11" s="90"/>
-      <c r="G11" s="91"/>
-      <c r="H11" s="94"/>
-      <c r="I11" s="91"/>
-    </row>
-    <row r="12" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="86" t="s">
-        <v>413</v>
-      </c>
-      <c r="B12" s="94">
-        <v>57</v>
-      </c>
-      <c r="C12" s="92">
-        <v>59</v>
-      </c>
-      <c r="D12" s="149" t="s">
-        <v>425</v>
-      </c>
-      <c r="E12" s="150"/>
-      <c r="F12" s="89" t="s">
-        <v>260</v>
-      </c>
-      <c r="G12" s="91"/>
-      <c r="H12" s="94"/>
-      <c r="I12" s="91"/>
-    </row>
-    <row r="13" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="86" t="s">
-        <v>414</v>
-      </c>
-      <c r="B13" s="94">
-        <v>37</v>
-      </c>
-      <c r="C13" s="92">
-        <v>56</v>
-      </c>
-      <c r="D13" s="149" t="s">
-        <v>427</v>
-      </c>
-      <c r="E13" s="150"/>
-      <c r="F13" s="89" t="s">
-        <v>260</v>
-      </c>
-      <c r="G13" s="91"/>
-      <c r="H13" s="96"/>
-      <c r="I13" s="91"/>
-    </row>
-    <row r="14" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="86" t="s">
-        <v>415</v>
-      </c>
-      <c r="B14" s="94">
-        <v>53</v>
-      </c>
-      <c r="C14" s="92">
-        <v>72</v>
-      </c>
-      <c r="D14" s="149" t="s">
-        <v>427</v>
-      </c>
-      <c r="E14" s="150"/>
-      <c r="F14" s="89" t="s">
-        <v>260</v>
-      </c>
-      <c r="G14" s="91"/>
-      <c r="H14" s="94"/>
-      <c r="I14" s="91"/>
-    </row>
-    <row r="15" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="86" t="s">
-        <v>416</v>
-      </c>
-      <c r="B15" s="94">
-        <v>60</v>
-      </c>
-      <c r="C15" s="92">
-        <v>64</v>
-      </c>
-      <c r="D15" s="150"/>
-      <c r="E15" s="150"/>
-      <c r="F15" s="89" t="s">
-        <v>260</v>
-      </c>
-      <c r="G15" s="91"/>
-      <c r="H15" s="94"/>
-      <c r="I15" s="91"/>
-    </row>
-    <row r="16" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="86" t="s">
-        <v>417</v>
-      </c>
-      <c r="B16" s="92"/>
-      <c r="C16" s="92"/>
-      <c r="D16" s="150"/>
-      <c r="E16" s="150"/>
-      <c r="F16" s="90"/>
-      <c r="G16" s="91"/>
-      <c r="H16" s="94"/>
-      <c r="I16" s="91"/>
-    </row>
-    <row r="17" spans="1:9" s="85" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="86" t="s">
-        <v>418</v>
-      </c>
-      <c r="B17" s="92">
-        <v>16</v>
-      </c>
-      <c r="C17" s="92">
-        <v>17</v>
-      </c>
-      <c r="D17" s="150"/>
-      <c r="E17" s="150"/>
-      <c r="F17" s="120" t="s">
-        <v>260</v>
-      </c>
-      <c r="G17" s="91"/>
-      <c r="H17" s="94"/>
-      <c r="I17" s="91"/>
-    </row>
-    <row r="18" spans="1:9" s="85" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="86" t="s">
-        <v>419</v>
-      </c>
-      <c r="B18" s="92"/>
-      <c r="C18" s="92"/>
-      <c r="D18" s="150"/>
-      <c r="E18" s="150"/>
-      <c r="F18" s="90"/>
-      <c r="G18" s="91"/>
-      <c r="H18" s="94"/>
-      <c r="I18" s="91"/>
-    </row>
-    <row r="19" spans="1:9" s="85" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="86" t="s">
-        <v>420</v>
-      </c>
-      <c r="B19" s="92">
-        <v>18</v>
-      </c>
-      <c r="C19" s="92">
-        <v>40</v>
-      </c>
-      <c r="D19" s="149" t="s">
-        <v>427</v>
-      </c>
-      <c r="E19" s="150"/>
-      <c r="F19" s="89" t="s">
-        <v>260</v>
-      </c>
-      <c r="G19" s="91"/>
-      <c r="H19" s="94"/>
-      <c r="I19" s="91"/>
-    </row>
-    <row r="20" spans="1:9" s="85" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="86" t="s">
-        <v>421</v>
-      </c>
-      <c r="B20" s="92">
-        <v>45</v>
-      </c>
-      <c r="C20" s="92">
-        <v>48</v>
-      </c>
-      <c r="D20" s="149" t="s">
-        <v>427</v>
-      </c>
-      <c r="E20" s="150"/>
-      <c r="F20" s="89" t="s">
-        <v>260</v>
-      </c>
-      <c r="G20" s="91"/>
-      <c r="H20" s="94"/>
-      <c r="I20" s="91"/>
-    </row>
-    <row r="21" spans="1:9" s="85" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="86" t="s">
-        <v>422</v>
-      </c>
-      <c r="B21" s="92">
-        <v>83</v>
-      </c>
-      <c r="C21" s="92">
-        <v>84</v>
-      </c>
-      <c r="D21" s="149" t="s">
-        <v>427</v>
-      </c>
-      <c r="E21" s="150"/>
-      <c r="F21" s="89" t="s">
-        <v>436</v>
-      </c>
-      <c r="G21" s="91"/>
-      <c r="H21" s="94"/>
-      <c r="I21" s="91"/>
+      <c r="G21" s="90"/>
+      <c r="H21" s="93"/>
+      <c r="I21" s="90"/>
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G22" s="91"/>
-      <c r="H22" s="91"/>
-      <c r="I22" s="91"/>
+      <c r="G22" s="90"/>
+      <c r="H22" s="90"/>
+      <c r="I22" s="90"/>
     </row>
     <row r="23" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
-        <v>243</v>
-      </c>
-      <c r="G23" s="91"/>
-      <c r="H23" s="91"/>
-      <c r="I23" s="91"/>
+        <v>238</v>
+      </c>
+      <c r="G23" s="90"/>
+      <c r="H23" s="90"/>
+      <c r="I23" s="90"/>
     </row>
     <row r="25" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" s="85" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="84"/>
-      <c r="B34" s="84"/>
-      <c r="C34" s="84"/>
-    </row>
-    <row r="35" spans="1:5" s="85" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="84" t="s">
-        <v>233</v>
-      </c>
-      <c r="B35" s="84" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" s="84" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="83"/>
+      <c r="B34" s="83"/>
+      <c r="C34" s="83"/>
+    </row>
+    <row r="35" spans="1:5" s="84" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="83" t="s">
+        <v>228</v>
+      </c>
+      <c r="B35" s="83" t="s">
+        <v>426</v>
+      </c>
+      <c r="C35" s="83" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" s="84" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="83" t="s">
+        <v>228</v>
+      </c>
+      <c r="B36" s="83" t="s">
+        <v>427</v>
+      </c>
+      <c r="C36" s="83" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" s="84" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="83"/>
+      <c r="B37" s="83"/>
+      <c r="C37" s="83"/>
+    </row>
+    <row r="38" spans="1:5" s="84" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="83" t="s">
+        <v>429</v>
+      </c>
+      <c r="B38" s="83" t="s">
+        <v>436</v>
+      </c>
+      <c r="C38" s="83" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" s="84" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="83" t="s">
+        <v>429</v>
+      </c>
+      <c r="B39" s="83" t="s">
         <v>437</v>
       </c>
-      <c r="C35" s="84" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" s="85" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="84" t="s">
-        <v>233</v>
-      </c>
-      <c r="B36" s="84" t="s">
-        <v>438</v>
-      </c>
-      <c r="C36" s="84" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" s="85" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="84"/>
-      <c r="B37" s="84"/>
-      <c r="C37" s="84"/>
-    </row>
-    <row r="38" spans="1:5" s="85" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="84" t="s">
-        <v>440</v>
-      </c>
-      <c r="B38" s="84" t="s">
+      <c r="C39" s="83" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" s="118" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="117"/>
+      <c r="B40" s="117"/>
+      <c r="C40" s="117"/>
+    </row>
+    <row r="41" spans="1:5" s="118" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="117" t="s">
+        <v>429</v>
+      </c>
+      <c r="B41" s="117" t="s">
         <v>447</v>
       </c>
-      <c r="C38" s="84" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" s="85" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="84" t="s">
-        <v>440</v>
-      </c>
-      <c r="B39" s="84" t="s">
+      <c r="C41" s="117" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" s="84" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="117" t="s">
+        <v>429</v>
+      </c>
+      <c r="B42" s="117" t="s">
         <v>448</v>
       </c>
-      <c r="C39" s="84" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" s="119" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="118"/>
-      <c r="B40" s="118"/>
-      <c r="C40" s="118"/>
-    </row>
-    <row r="41" spans="1:5" s="119" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="118" t="s">
-        <v>440</v>
-      </c>
-      <c r="B41" s="118" t="s">
-        <v>459</v>
-      </c>
-      <c r="C41" s="118" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" s="85" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="118" t="s">
-        <v>440</v>
-      </c>
-      <c r="B42" s="118" t="s">
-        <v>460</v>
-      </c>
-      <c r="C42" s="118" t="s">
-        <v>441</v>
-      </c>
-      <c r="D42" s="119"/>
-    </row>
-    <row r="43" spans="1:5" s="85" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="84"/>
-      <c r="B43" s="84"/>
-      <c r="C43" s="84"/>
+      <c r="C42" s="117" t="s">
+        <v>430</v>
+      </c>
+      <c r="D42" s="118"/>
+    </row>
+    <row r="43" spans="1:5" s="84" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="83"/>
+      <c r="B43" s="83"/>
+      <c r="C43" s="83"/>
     </row>
     <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="14" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="102"/>
-      <c r="B46" s="102"/>
-      <c r="C46" s="102"/>
-      <c r="D46" s="98"/>
-      <c r="E46" s="98"/>
+      <c r="A46" s="101"/>
+      <c r="B46" s="101"/>
+      <c r="C46" s="101"/>
+      <c r="D46" s="97"/>
+      <c r="E46" s="97"/>
     </row>
     <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="103"/>
-      <c r="B47" s="102"/>
-      <c r="C47" s="104"/>
-      <c r="D47" s="98"/>
-      <c r="E47" s="98"/>
+      <c r="A47" s="102"/>
+      <c r="B47" s="101"/>
+      <c r="C47" s="103"/>
+      <c r="D47" s="97"/>
+      <c r="E47" s="97"/>
     </row>
     <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="103" t="s">
-        <v>405</v>
-      </c>
-      <c r="B48" s="102" t="s">
-        <v>443</v>
-      </c>
-      <c r="C48" s="104"/>
-      <c r="D48" s="98"/>
-      <c r="E48" s="98"/>
+      <c r="A48" s="102" t="s">
+        <v>398</v>
+      </c>
+      <c r="B48" s="101" t="s">
+        <v>432</v>
+      </c>
+      <c r="C48" s="103"/>
+      <c r="D48" s="97"/>
+      <c r="E48" s="97"/>
     </row>
     <row r="49" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="105" t="s">
-        <v>405</v>
-      </c>
-      <c r="B49" s="102" t="s">
-        <v>444</v>
-      </c>
-      <c r="C49" s="102"/>
-      <c r="D49" s="98"/>
-      <c r="E49" s="98"/>
+      <c r="A49" s="104" t="s">
+        <v>398</v>
+      </c>
+      <c r="B49" s="101" t="s">
+        <v>433</v>
+      </c>
+      <c r="C49" s="101"/>
+      <c r="D49" s="97"/>
+      <c r="E49" s="97"/>
     </row>
     <row r="50" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="103"/>
-      <c r="B50" s="102"/>
-      <c r="C50" s="104"/>
-      <c r="D50" s="98"/>
-      <c r="E50" s="98"/>
+      <c r="A50" s="102"/>
+      <c r="B50" s="101"/>
+      <c r="C50" s="103"/>
+      <c r="D50" s="97"/>
+      <c r="E50" s="97"/>
     </row>
     <row r="51" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="103" t="s">
-        <v>411</v>
-      </c>
-      <c r="B51" s="102" t="s">
-        <v>445</v>
-      </c>
-      <c r="C51" s="104"/>
-      <c r="D51" s="98"/>
-      <c r="E51" s="98"/>
+      <c r="A51" s="102" t="s">
+        <v>404</v>
+      </c>
+      <c r="B51" s="101" t="s">
+        <v>434</v>
+      </c>
+      <c r="C51" s="103"/>
+      <c r="D51" s="97"/>
+      <c r="E51" s="97"/>
     </row>
     <row r="52" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="105" t="s">
-        <v>411</v>
-      </c>
-      <c r="B52" s="102" t="s">
-        <v>446</v>
-      </c>
-      <c r="C52" s="102"/>
-      <c r="D52" s="98"/>
-      <c r="E52" s="98"/>
-    </row>
-    <row r="53" spans="1:5" s="85" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="105"/>
-      <c r="B53" s="102"/>
-      <c r="C53" s="102"/>
-      <c r="D53" s="98"/>
-      <c r="E53" s="98"/>
+      <c r="A52" s="104" t="s">
+        <v>404</v>
+      </c>
+      <c r="B52" s="101" t="s">
+        <v>435</v>
+      </c>
+      <c r="C52" s="101"/>
+      <c r="D52" s="97"/>
+      <c r="E52" s="97"/>
+    </row>
+    <row r="53" spans="1:5" s="84" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="104"/>
+      <c r="B53" s="101"/>
+      <c r="C53" s="101"/>
+      <c r="D53" s="97"/>
+      <c r="E53" s="97"/>
     </row>
     <row r="54" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="103"/>
-      <c r="B54" s="102" t="s">
-        <v>261</v>
-      </c>
-      <c r="C54" s="102"/>
-      <c r="D54" s="98"/>
-      <c r="E54" s="98"/>
+      <c r="A54" s="102"/>
+      <c r="B54" s="101" t="s">
+        <v>256</v>
+      </c>
+      <c r="C54" s="101"/>
+      <c r="D54" s="97"/>
+      <c r="E54" s="97"/>
     </row>
     <row r="55" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="103"/>
-      <c r="B55" s="102" t="s">
-        <v>262</v>
-      </c>
-      <c r="C55" s="102"/>
-      <c r="D55" s="98"/>
-      <c r="E55" s="98"/>
+      <c r="A55" s="102"/>
+      <c r="B55" s="101" t="s">
+        <v>257</v>
+      </c>
+      <c r="C55" s="101"/>
+      <c r="D55" s="97"/>
+      <c r="E55" s="97"/>
     </row>
     <row r="56" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="105"/>
-      <c r="B56" s="102"/>
-      <c r="C56" s="102"/>
-      <c r="D56" s="98"/>
-      <c r="E56" s="98"/>
+      <c r="A56" s="104"/>
+      <c r="B56" s="101"/>
+      <c r="C56" s="101"/>
+      <c r="D56" s="97"/>
+      <c r="E56" s="97"/>
     </row>
     <row r="57" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="100" t="s">
-        <v>417</v>
-      </c>
-      <c r="B57" s="99" t="s">
-        <v>245</v>
-      </c>
-      <c r="C57" s="81"/>
-      <c r="D57" s="98"/>
-      <c r="E57" s="98"/>
+      <c r="A57" s="99" t="s">
+        <v>410</v>
+      </c>
+      <c r="B57" s="98" t="s">
+        <v>240</v>
+      </c>
+      <c r="C57" s="80"/>
+      <c r="D57" s="97"/>
+      <c r="E57" s="97"/>
     </row>
     <row r="58" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="100" t="s">
-        <v>417</v>
-      </c>
-      <c r="B58" s="99" t="s">
-        <v>247</v>
-      </c>
-      <c r="C58" s="81"/>
-      <c r="D58" s="98"/>
-      <c r="E58" s="98"/>
+      <c r="A58" s="99" t="s">
+        <v>410</v>
+      </c>
+      <c r="B58" s="98" t="s">
+        <v>242</v>
+      </c>
+      <c r="C58" s="80"/>
+      <c r="D58" s="97"/>
+      <c r="E58" s="97"/>
     </row>
     <row r="59" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="101"/>
-      <c r="B59" s="98"/>
-      <c r="C59" s="98"/>
-      <c r="D59" s="98"/>
-      <c r="E59" s="98"/>
+      <c r="A59" s="100"/>
+      <c r="B59" s="97"/>
+      <c r="C59" s="97"/>
+      <c r="D59" s="97"/>
+      <c r="E59" s="97"/>
     </row>
     <row r="60" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="100"/>
-      <c r="B60" s="99"/>
-      <c r="C60" s="81"/>
-      <c r="D60" s="98"/>
-      <c r="E60" s="98"/>
+      <c r="A60" s="99"/>
+      <c r="B60" s="98"/>
+      <c r="C60" s="80"/>
+      <c r="D60" s="97"/>
+      <c r="E60" s="97"/>
     </row>
     <row r="61" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="100"/>
-      <c r="B61" s="99"/>
-      <c r="C61" s="81"/>
-      <c r="D61" s="98"/>
-      <c r="E61" s="98"/>
+      <c r="A61" s="99"/>
+      <c r="B61" s="98"/>
+      <c r="C61" s="80"/>
+      <c r="D61" s="97"/>
+      <c r="E61" s="97"/>
     </row>
     <row r="62" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="101"/>
-      <c r="B62" s="98"/>
-      <c r="C62" s="98"/>
-      <c r="D62" s="98"/>
-      <c r="E62" s="98"/>
+      <c r="A62" s="100"/>
+      <c r="B62" s="97"/>
+      <c r="C62" s="97"/>
+      <c r="D62" s="97"/>
+      <c r="E62" s="97"/>
     </row>
     <row r="63" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="100"/>
-      <c r="B63" s="99"/>
-      <c r="C63" s="81"/>
-      <c r="D63" s="98"/>
-      <c r="E63" s="98"/>
+      <c r="A63" s="99"/>
+      <c r="B63" s="98"/>
+      <c r="C63" s="80"/>
+      <c r="D63" s="97"/>
+      <c r="E63" s="97"/>
     </row>
     <row r="64" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="100"/>
-      <c r="B64" s="99"/>
-      <c r="C64" s="81"/>
-      <c r="D64" s="98"/>
-      <c r="E64" s="98"/>
+      <c r="A64" s="99"/>
+      <c r="B64" s="98"/>
+      <c r="C64" s="80"/>
+      <c r="D64" s="97"/>
+      <c r="E64" s="97"/>
     </row>
     <row r="65" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="101"/>
-      <c r="B65" s="98"/>
-      <c r="C65" s="98"/>
-      <c r="D65" s="98"/>
-      <c r="E65" s="98"/>
+      <c r="A65" s="100"/>
+      <c r="B65" s="97"/>
+      <c r="C65" s="97"/>
+      <c r="D65" s="97"/>
+      <c r="E65" s="97"/>
     </row>
     <row r="66" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="101"/>
-      <c r="B66" s="98"/>
-      <c r="C66" s="98"/>
-      <c r="D66" s="98"/>
-      <c r="E66" s="98"/>
+      <c r="A66" s="100"/>
+      <c r="B66" s="97"/>
+      <c r="C66" s="97"/>
+      <c r="D66" s="97"/>
+      <c r="E66" s="97"/>
     </row>
     <row r="67" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="106"/>
-      <c r="B67" s="98"/>
-      <c r="C67" s="98"/>
-      <c r="D67" s="98"/>
-      <c r="E67" s="98"/>
+      <c r="A67" s="105"/>
+      <c r="B67" s="97"/>
+      <c r="C67" s="97"/>
+      <c r="D67" s="97"/>
+      <c r="E67" s="97"/>
     </row>
     <row r="68" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="107"/>
+      <c r="A68" s="106"/>
     </row>
     <row r="69" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="108"/>
+      <c r="A69" s="107"/>
     </row>
     <row r="70" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="108"/>
+      <c r="A70" s="107"/>
     </row>
     <row r="71" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="107"/>
+      <c r="A71" s="106"/>
     </row>
     <row r="72" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="73" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9883,6 +9892,11 @@
     <row r="1023" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="D2:E2"/>
@@ -9899,11 +9913,6 @@
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9934,22 +9943,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="46" t="s">
+        <v>258</v>
+      </c>
+      <c r="B1" s="46" t="s">
+        <v>259</v>
+      </c>
+      <c r="C1" s="46" t="s">
+        <v>260</v>
+      </c>
+      <c r="D1" s="46" t="s">
+        <v>261</v>
+      </c>
+      <c r="E1" s="46" t="s">
+        <v>262</v>
+      </c>
+      <c r="F1" s="46" t="s">
         <v>263</v>
-      </c>
-      <c r="B1" s="46" t="s">
-        <v>264</v>
-      </c>
-      <c r="C1" s="46" t="s">
-        <v>265</v>
-      </c>
-      <c r="D1" s="46" t="s">
-        <v>266</v>
-      </c>
-      <c r="E1" s="46" t="s">
-        <v>267</v>
-      </c>
-      <c r="F1" s="46" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -9957,19 +9966,19 @@
         <v>23</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C2" s="46" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="D2" s="46" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="E2" s="46" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="F2" s="46" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -9977,13 +9986,13 @@
         <v>97</v>
       </c>
       <c r="B3" s="47" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="C3" s="47" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="D3" s="47" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="E3" s="48"/>
       <c r="F3" s="48"/>
@@ -9993,19 +10002,19 @@
         <v>62</v>
       </c>
       <c r="B4" s="46" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C4" s="46" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="D4" s="46" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="E4" s="46" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="F4" s="46" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -10013,16 +10022,16 @@
         <v>142</v>
       </c>
       <c r="B5" s="46" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="C5" s="46" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="D5" s="46" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="E5" s="46" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="F5" s="49"/>
     </row>
@@ -10031,16 +10040,16 @@
         <v>58</v>
       </c>
       <c r="B6" s="46" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="C6" s="46" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="D6" s="46" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="E6" s="46" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="F6" s="49"/>
     </row>
@@ -10049,37 +10058,37 @@
         <v>78</v>
       </c>
       <c r="B7" s="46" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C7" s="46" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="D7" s="46" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="E7" s="46" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="F7" s="49"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="46" t="s">
+        <v>278</v>
+      </c>
+      <c r="B8" s="46" t="s">
+        <v>279</v>
+      </c>
+      <c r="C8" s="46" t="s">
+        <v>280</v>
+      </c>
+      <c r="D8" s="46" t="s">
+        <v>281</v>
+      </c>
+      <c r="E8" s="46" t="s">
+        <v>282</v>
+      </c>
+      <c r="F8" s="46" t="s">
         <v>283</v>
-      </c>
-      <c r="B8" s="46" t="s">
-        <v>284</v>
-      </c>
-      <c r="C8" s="46" t="s">
-        <v>285</v>
-      </c>
-      <c r="D8" s="46" t="s">
-        <v>286</v>
-      </c>
-      <c r="E8" s="46" t="s">
-        <v>287</v>
-      </c>
-      <c r="F8" s="46" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -10087,57 +10096,57 @@
         <v>106</v>
       </c>
       <c r="B9" s="46" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="C9" s="46" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="D9" s="46" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="E9" s="46" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="F9" s="49"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="46" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="B10" s="46" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C10" s="46" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="D10" s="46" t="s">
+        <v>281</v>
+      </c>
+      <c r="E10" s="46" t="s">
+        <v>267</v>
+      </c>
+      <c r="F10" s="46" t="s">
         <v>286</v>
-      </c>
-      <c r="E10" s="46" t="s">
-        <v>272</v>
-      </c>
-      <c r="F10" s="46" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="46" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="B11" s="46" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="C11" s="46" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="D11" s="46" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="E11" s="46" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="F11" s="46" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -10145,19 +10154,19 @@
         <v>82</v>
       </c>
       <c r="B12" s="46" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="C12" s="46" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="D12" s="46" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="E12" s="46" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="F12" s="46" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -10165,16 +10174,16 @@
         <v>19</v>
       </c>
       <c r="B13" s="47" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="C13" s="47" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="D13" s="47" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="E13" s="47" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="F13" s="48"/>
     </row>
@@ -10186,16 +10195,16 @@
         <v>166</v>
       </c>
       <c r="C14" s="46" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="D14" s="46" t="s">
         <v>166</v>
       </c>
       <c r="E14" s="46" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="F14" s="46" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -10203,37 +10212,37 @@
         <v>85</v>
       </c>
       <c r="B15" s="46" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C15" s="46" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="D15" s="46" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="E15" s="46" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="F15" s="49"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="46" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="B16" s="46" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="C16" s="46" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="D16" s="46" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="E16" s="46" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="F16" s="46" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -10241,53 +10250,53 @@
         <v>93</v>
       </c>
       <c r="B17" s="46" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="C17" s="46" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="D17" s="46" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="E17" s="46" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="F17" s="46" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="46" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="B18" s="46" t="s">
         <v>167</v>
       </c>
       <c r="C18" s="46" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="D18" s="46" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="E18" s="46" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="F18" s="46" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="50" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="B19" s="50" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="C19" s="50" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="D19" s="50" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="E19" s="51"/>
       <c r="F19" s="51"/>
@@ -10297,33 +10306,33 @@
         <v>140</v>
       </c>
       <c r="B20" s="46" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C20" s="46" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="D20" s="46" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="E20" s="46" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="F20" s="46" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="46" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="B21" s="46" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="C21" s="46" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="D21" s="46" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E21" s="49"/>
       <c r="F21" s="49"/>
@@ -10333,19 +10342,19 @@
         <v>72</v>
       </c>
       <c r="B22" s="46" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="C22" s="46" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="D22" s="46" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="E22" s="46" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F22" s="46" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -10353,33 +10362,33 @@
         <v>37</v>
       </c>
       <c r="B23" s="46" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="C23" s="46" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="D23" s="46" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="E23" s="46" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="F23" s="46" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="50" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="B24" s="50" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="C24" s="50" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="D24" s="50" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="E24" s="51"/>
       <c r="F24" s="51"/>
@@ -10389,39 +10398,39 @@
         <v>31</v>
       </c>
       <c r="B25" s="46" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="C25" s="46" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="D25" s="46" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="E25" s="46" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="F25" s="46" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="46" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="B26" s="46" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="C26" s="46" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="D26" s="46" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="E26" s="46" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="F26" s="46" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -10429,16 +10438,16 @@
         <v>51</v>
       </c>
       <c r="B27" s="46" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C27" s="46" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="D27" s="46" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E27" s="46" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="F27" s="49"/>
     </row>
@@ -10447,39 +10456,39 @@
         <v>103</v>
       </c>
       <c r="B28" s="46" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="C28" s="46" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="D28" s="46" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="E28" s="46" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="F28" s="46" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="46" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="B29" s="46" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="C29" s="46" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="D29" s="46" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="E29" s="46" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="F29" s="46" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -10487,39 +10496,39 @@
         <v>68</v>
       </c>
       <c r="B30" s="46" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="C30" s="46" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="D30" s="46" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="E30" s="46" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="F30" s="46" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="46" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="B31" s="46" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="C31" s="46" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="D31" s="46" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="E31" s="46" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="F31" s="46" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -10527,19 +10536,19 @@
         <v>134</v>
       </c>
       <c r="B32" s="46" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="C32" s="46" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="D32" s="46" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="E32" s="46" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="F32" s="46" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -10547,17 +10556,17 @@
         <v>75</v>
       </c>
       <c r="B33" s="46" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="C33" s="46" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="D33" s="46" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="E33" s="52"/>
       <c r="F33" s="46" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -10565,16 +10574,16 @@
         <v>127</v>
       </c>
       <c r="B34" s="46" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="C34" s="46" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="D34" s="46" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="E34" s="46" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="F34" s="49"/>
     </row>
@@ -10583,19 +10592,19 @@
         <v>41</v>
       </c>
       <c r="B35" s="46" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="C35" s="46" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="D35" s="46" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="E35" s="46" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="F35" s="46" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -10603,33 +10612,33 @@
         <v>100</v>
       </c>
       <c r="B36" s="46" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="C36" s="46" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="D36" s="46" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="E36" s="46" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="F36" s="46" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="50" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="B37" s="50" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="C37" s="50" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="D37" s="50" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="E37" s="51"/>
       <c r="F37" s="51"/>
@@ -10639,39 +10648,39 @@
         <v>115</v>
       </c>
       <c r="B38" s="46" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="C38" s="46" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="D38" s="46" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="E38" s="46" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="F38" s="46" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="46" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="B39" s="46" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="C39" s="46" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="D39" s="46" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="E39" s="46" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="F39" s="46" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -10679,16 +10688,16 @@
         <v>44</v>
       </c>
       <c r="B40" s="46" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="C40" s="46" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="D40" s="46" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="E40" s="46" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="F40" s="49"/>
     </row>
@@ -10697,19 +10706,19 @@
         <v>26</v>
       </c>
       <c r="B41" s="46" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C41" s="46" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="D41" s="46" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="E41" s="46" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="F41" s="46" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
@@ -10717,19 +10726,19 @@
         <v>65</v>
       </c>
       <c r="B42" s="46" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="C42" s="46" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="D42" s="46" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="E42" s="46" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F42" s="46" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
@@ -10737,34 +10746,34 @@
         <v>124</v>
       </c>
       <c r="B43" s="46" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="C43" s="46" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="D43" s="46" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="E43" s="46" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="F43" s="49"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="46" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="B44" s="46" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="C44" s="46" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="D44" s="46" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="E44" s="46" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="F44" s="49"/>
     </row>
@@ -10773,19 +10782,19 @@
         <v>88</v>
       </c>
       <c r="B45" s="46" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="C45" s="46" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="D45" s="46" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="E45" s="46" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="F45" s="46" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
@@ -10793,19 +10802,19 @@
         <v>130</v>
       </c>
       <c r="B46" s="46" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="C46" s="46" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="D46" s="46" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="E46" s="46" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="F46" s="46" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">

--- a/Antonio-Feed/__FeedPartsInventory.xlsx
+++ b/Antonio-Feed/__FeedPartsInventory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarah/Documents/GitHub/Front-Page/Antonio-Feed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4850137B-B0C0-134A-9407-8A430DD47DCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5260866F-82E5-AE49-B3DE-DDB961F0222F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20400" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parts At ATA" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="470">
   <si>
     <t>Antenna Inventory</t>
   </si>
@@ -550,9 +550,6 @@
   </si>
   <si>
     <t>5C4-007</t>
-  </si>
-  <si>
-    <t>Minex</t>
   </si>
   <si>
     <t>1K</t>
@@ -1980,7 +1977,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="157">
+  <cellXfs count="158">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2063,9 +2060,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2208,6 +2202,8 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="19" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2241,17 +2237,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2495,25 +2495,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="139" t="s">
+      <c r="A1" s="140" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="140"/>
-      <c r="D1" s="140"/>
-      <c r="E1" s="140"/>
-      <c r="F1" s="140"/>
-      <c r="G1" s="140"/>
-      <c r="H1" s="141"/>
-      <c r="I1" s="142"/>
-      <c r="J1" s="142"/>
-      <c r="K1" s="141"/>
-      <c r="L1" s="142"/>
-      <c r="M1" s="142"/>
-      <c r="N1" s="142"/>
-      <c r="O1" s="142"/>
-      <c r="P1" s="142"/>
-      <c r="Q1" s="142"/>
+      <c r="B1" s="141"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="143"/>
+      <c r="J1" s="143"/>
+      <c r="K1" s="142"/>
+      <c r="L1" s="143"/>
+      <c r="M1" s="143"/>
+      <c r="N1" s="143"/>
+      <c r="O1" s="143"/>
+      <c r="P1" s="143"/>
+      <c r="Q1" s="143"/>
     </row>
     <row r="2" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -2537,16 +2537,16 @@
       <c r="G2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="70"/>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="69"/>
+      <c r="O2" s="69"/>
+      <c r="P2" s="69"/>
+      <c r="Q2" s="69"/>
     </row>
     <row r="3" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="str">
@@ -2568,16 +2568,16 @@
       <c r="F3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="69"/>
-      <c r="N3" s="69"/>
-      <c r="O3" s="69"/>
-      <c r="P3" s="69"/>
-      <c r="Q3" s="69"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="68"/>
+      <c r="N3" s="68"/>
+      <c r="O3" s="68"/>
+      <c r="P3" s="68"/>
+      <c r="Q3" s="68"/>
     </row>
     <row r="4" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="str">
@@ -2593,16 +2593,16 @@
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="69"/>
-      <c r="M4" s="69"/>
-      <c r="N4" s="69"/>
-      <c r="O4" s="69"/>
-      <c r="P4" s="69"/>
-      <c r="Q4" s="69"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="68"/>
+      <c r="M4" s="68"/>
+      <c r="N4" s="68"/>
+      <c r="O4" s="68"/>
+      <c r="P4" s="68"/>
+      <c r="Q4" s="68"/>
     </row>
     <row r="5" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="str">
@@ -2626,16 +2626,16 @@
         <v>27</v>
       </c>
       <c r="G5" s="9"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="69"/>
-      <c r="K5" s="69"/>
-      <c r="L5" s="69"/>
-      <c r="M5" s="69"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="69"/>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="69"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="68"/>
+      <c r="L5" s="68"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="68"/>
+      <c r="Q5" s="68"/>
     </row>
     <row r="6" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="str">
@@ -2648,19 +2648,19 @@
       <c r="C6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="69"/>
-      <c r="L6" s="69"/>
-      <c r="M6" s="69"/>
-      <c r="N6" s="69"/>
-      <c r="O6" s="69"/>
-      <c r="P6" s="69"/>
-      <c r="Q6" s="69"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
+      <c r="H6" s="68"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="68"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="68"/>
+      <c r="M6" s="68"/>
+      <c r="N6" s="68"/>
+      <c r="O6" s="68"/>
+      <c r="P6" s="68"/>
+      <c r="Q6" s="68"/>
     </row>
     <row r="7" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="str">
@@ -2673,24 +2673,24 @@
       <c r="C7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="128" t="s">
-        <v>236</v>
+      <c r="D7" s="127" t="s">
+        <v>235</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="F7" s="79"/>
+      <c r="F7" s="78"/>
       <c r="G7" s="9"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="69"/>
-      <c r="K7" s="69"/>
-      <c r="L7" s="69"/>
-      <c r="M7" s="69"/>
-      <c r="N7" s="69"/>
-      <c r="O7" s="69"/>
-      <c r="P7" s="69"/>
-      <c r="Q7" s="69"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="68"/>
+      <c r="K7" s="68"/>
+      <c r="L7" s="68"/>
+      <c r="M7" s="68"/>
+      <c r="N7" s="68"/>
+      <c r="O7" s="68"/>
+      <c r="P7" s="68"/>
+      <c r="Q7" s="68"/>
     </row>
     <row r="8" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="str">
@@ -2712,16 +2712,16 @@
       <c r="F8" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="69"/>
-      <c r="I8" s="69"/>
-      <c r="J8" s="69"/>
-      <c r="K8" s="69"/>
-      <c r="L8" s="69"/>
-      <c r="M8" s="69"/>
-      <c r="N8" s="69"/>
-      <c r="O8" s="69"/>
-      <c r="P8" s="69"/>
-      <c r="Q8" s="69"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="68"/>
+      <c r="K8" s="68"/>
+      <c r="L8" s="68"/>
+      <c r="M8" s="68"/>
+      <c r="N8" s="68"/>
+      <c r="O8" s="68"/>
+      <c r="P8" s="68"/>
+      <c r="Q8" s="68"/>
     </row>
     <row r="9" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="str">
@@ -2735,23 +2735,23 @@
         <v>40</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
-      <c r="H9" s="69"/>
-      <c r="I9" s="69"/>
-      <c r="J9" s="69"/>
-      <c r="K9" s="69"/>
-      <c r="L9" s="69"/>
-      <c r="M9" s="69"/>
-      <c r="N9" s="69"/>
-      <c r="O9" s="69"/>
-      <c r="P9" s="69"/>
-      <c r="Q9" s="69"/>
+      <c r="H9" s="68"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="68"/>
+      <c r="K9" s="68"/>
+      <c r="L9" s="68"/>
+      <c r="M9" s="68"/>
+      <c r="N9" s="68"/>
+      <c r="O9" s="68"/>
+      <c r="P9" s="68"/>
+      <c r="Q9" s="68"/>
     </row>
     <row r="10" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="str">
@@ -2774,16 +2774,16 @@
       <c r="F10" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H10" s="69"/>
-      <c r="I10" s="69"/>
-      <c r="J10" s="69"/>
-      <c r="K10" s="69"/>
-      <c r="L10" s="69"/>
-      <c r="M10" s="69"/>
-      <c r="N10" s="69"/>
-      <c r="O10" s="69"/>
-      <c r="P10" s="69"/>
-      <c r="Q10" s="69"/>
+      <c r="H10" s="68"/>
+      <c r="I10" s="68"/>
+      <c r="J10" s="68"/>
+      <c r="K10" s="68"/>
+      <c r="L10" s="68"/>
+      <c r="M10" s="68"/>
+      <c r="N10" s="68"/>
+      <c r="O10" s="68"/>
+      <c r="P10" s="68"/>
+      <c r="Q10" s="68"/>
     </row>
     <row r="11" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="str">
@@ -2800,16 +2800,16 @@
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
-      <c r="H11" s="69"/>
-      <c r="I11" s="69"/>
-      <c r="J11" s="69"/>
-      <c r="K11" s="69"/>
-      <c r="L11" s="69"/>
-      <c r="M11" s="69"/>
-      <c r="N11" s="69"/>
-      <c r="O11" s="69"/>
-      <c r="P11" s="69"/>
-      <c r="Q11" s="69"/>
+      <c r="H11" s="68"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="68"/>
+      <c r="K11" s="68"/>
+      <c r="L11" s="68"/>
+      <c r="M11" s="68"/>
+      <c r="N11" s="68"/>
+      <c r="O11" s="68"/>
+      <c r="P11" s="68"/>
+      <c r="Q11" s="68"/>
     </row>
     <row r="12" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="str">
@@ -2832,16 +2832,16 @@
       <c r="F12" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="H12" s="69"/>
-      <c r="I12" s="69"/>
-      <c r="J12" s="69"/>
-      <c r="K12" s="69"/>
-      <c r="L12" s="69"/>
-      <c r="M12" s="69"/>
-      <c r="N12" s="69"/>
-      <c r="O12" s="69"/>
-      <c r="P12" s="69"/>
-      <c r="Q12" s="69"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="68"/>
+      <c r="K12" s="68"/>
+      <c r="L12" s="68"/>
+      <c r="M12" s="68"/>
+      <c r="N12" s="68"/>
+      <c r="O12" s="68"/>
+      <c r="P12" s="68"/>
+      <c r="Q12" s="68"/>
     </row>
     <row r="13" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="str">
@@ -2849,7 +2849,7 @@
         <v>2A</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>53</v>
@@ -2864,16 +2864,16 @@
       <c r="F13" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="H13" s="69"/>
-      <c r="I13" s="69"/>
-      <c r="J13" s="69"/>
-      <c r="K13" s="69"/>
-      <c r="L13" s="69"/>
-      <c r="M13" s="69"/>
-      <c r="N13" s="69"/>
-      <c r="O13" s="69"/>
-      <c r="P13" s="69"/>
-      <c r="Q13" s="69"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="68"/>
+      <c r="K13" s="68"/>
+      <c r="L13" s="68"/>
+      <c r="M13" s="68"/>
+      <c r="N13" s="68"/>
+      <c r="O13" s="68"/>
+      <c r="P13" s="68"/>
+      <c r="Q13" s="68"/>
     </row>
     <row r="14" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="str">
@@ -2896,17 +2896,17 @@
       <c r="F14" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="G14" s="126"/>
-      <c r="H14" s="69"/>
-      <c r="I14" s="69"/>
-      <c r="J14" s="69"/>
-      <c r="K14" s="69"/>
-      <c r="L14" s="69"/>
-      <c r="M14" s="69"/>
-      <c r="N14" s="69"/>
-      <c r="O14" s="69"/>
-      <c r="P14" s="69"/>
-      <c r="Q14" s="69"/>
+      <c r="G14" s="125"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="68"/>
+      <c r="K14" s="68"/>
+      <c r="L14" s="68"/>
+      <c r="M14" s="68"/>
+      <c r="N14" s="68"/>
+      <c r="O14" s="68"/>
+      <c r="P14" s="68"/>
+      <c r="Q14" s="68"/>
     </row>
     <row r="15" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="str">
@@ -2920,22 +2920,22 @@
         <v>61</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>41</v>
       </c>
       <c r="F15" s="4"/>
-      <c r="H15" s="69"/>
-      <c r="I15" s="69"/>
-      <c r="J15" s="69"/>
-      <c r="K15" s="69"/>
-      <c r="L15" s="69"/>
-      <c r="M15" s="69"/>
-      <c r="N15" s="69"/>
-      <c r="O15" s="69"/>
-      <c r="P15" s="69"/>
-      <c r="Q15" s="69"/>
+      <c r="H15" s="68"/>
+      <c r="I15" s="68"/>
+      <c r="J15" s="68"/>
+      <c r="K15" s="68"/>
+      <c r="L15" s="68"/>
+      <c r="M15" s="68"/>
+      <c r="N15" s="68"/>
+      <c r="O15" s="68"/>
+      <c r="P15" s="68"/>
+      <c r="Q15" s="68"/>
     </row>
     <row r="16" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="str">
@@ -2951,16 +2951,16 @@
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
-      <c r="H16" s="69"/>
-      <c r="I16" s="69"/>
-      <c r="J16" s="69"/>
-      <c r="K16" s="69"/>
-      <c r="L16" s="69"/>
-      <c r="M16" s="69"/>
-      <c r="N16" s="69"/>
-      <c r="O16" s="69"/>
-      <c r="P16" s="69"/>
-      <c r="Q16" s="69"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="68"/>
+      <c r="K16" s="68"/>
+      <c r="L16" s="68"/>
+      <c r="M16" s="68"/>
+      <c r="N16" s="68"/>
+      <c r="O16" s="68"/>
+      <c r="P16" s="68"/>
+      <c r="Q16" s="68"/>
     </row>
     <row r="17" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="str">
@@ -2974,7 +2974,7 @@
         <v>67</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>68</v>
@@ -2982,16 +2982,16 @@
       <c r="F17" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="H17" s="69"/>
-      <c r="I17" s="69"/>
-      <c r="J17" s="69"/>
-      <c r="K17" s="69"/>
-      <c r="L17" s="69"/>
-      <c r="M17" s="69"/>
-      <c r="N17" s="69"/>
-      <c r="O17" s="69"/>
-      <c r="P17" s="69"/>
-      <c r="Q17" s="69"/>
+      <c r="H17" s="68"/>
+      <c r="I17" s="68"/>
+      <c r="J17" s="68"/>
+      <c r="K17" s="68"/>
+      <c r="L17" s="68"/>
+      <c r="M17" s="68"/>
+      <c r="N17" s="68"/>
+      <c r="O17" s="68"/>
+      <c r="P17" s="68"/>
+      <c r="Q17" s="68"/>
     </row>
     <row r="18" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="str">
@@ -3007,16 +3007,16 @@
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
-      <c r="H18" s="69"/>
-      <c r="I18" s="69"/>
-      <c r="J18" s="69"/>
-      <c r="K18" s="69"/>
-      <c r="L18" s="69"/>
-      <c r="M18" s="69"/>
-      <c r="N18" s="69"/>
-      <c r="O18" s="69"/>
-      <c r="P18" s="69"/>
-      <c r="Q18" s="69"/>
+      <c r="H18" s="68"/>
+      <c r="I18" s="68"/>
+      <c r="J18" s="68"/>
+      <c r="K18" s="68"/>
+      <c r="L18" s="68"/>
+      <c r="M18" s="68"/>
+      <c r="N18" s="68"/>
+      <c r="O18" s="68"/>
+      <c r="P18" s="68"/>
+      <c r="Q18" s="68"/>
     </row>
     <row r="19" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="str">
@@ -3033,16 +3033,16 @@
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
-      <c r="H19" s="69"/>
-      <c r="I19" s="69"/>
-      <c r="J19" s="69"/>
-      <c r="K19" s="69"/>
-      <c r="L19" s="69"/>
-      <c r="M19" s="69"/>
-      <c r="N19" s="69"/>
-      <c r="O19" s="69"/>
-      <c r="P19" s="69"/>
-      <c r="Q19" s="69"/>
+      <c r="H19" s="68"/>
+      <c r="I19" s="68"/>
+      <c r="J19" s="68"/>
+      <c r="K19" s="68"/>
+      <c r="L19" s="68"/>
+      <c r="M19" s="68"/>
+      <c r="N19" s="68"/>
+      <c r="O19" s="68"/>
+      <c r="P19" s="68"/>
+      <c r="Q19" s="68"/>
     </row>
     <row r="20" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="str">
@@ -3050,13 +3050,13 @@
         <v>2H</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>76</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>78</v>
@@ -3064,16 +3064,16 @@
       <c r="F20" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="H20" s="69"/>
-      <c r="I20" s="69"/>
-      <c r="J20" s="69"/>
-      <c r="K20" s="69"/>
-      <c r="L20" s="69"/>
-      <c r="M20" s="69"/>
-      <c r="N20" s="69"/>
-      <c r="O20" s="69"/>
-      <c r="P20" s="69"/>
-      <c r="Q20" s="69"/>
+      <c r="H20" s="68"/>
+      <c r="I20" s="68"/>
+      <c r="J20" s="68"/>
+      <c r="K20" s="68"/>
+      <c r="L20" s="68"/>
+      <c r="M20" s="68"/>
+      <c r="N20" s="68"/>
+      <c r="O20" s="68"/>
+      <c r="P20" s="68"/>
+      <c r="Q20" s="68"/>
     </row>
     <row r="21" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="str">
@@ -3086,23 +3086,23 @@
       <c r="C21" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D21" s="82" t="s">
-        <v>352</v>
-      </c>
-      <c r="E21" s="79" t="s">
+      <c r="D21" s="81" t="s">
+        <v>351</v>
+      </c>
+      <c r="E21" s="78" t="s">
         <v>130</v>
       </c>
-      <c r="F21" s="79"/>
-      <c r="H21" s="69"/>
-      <c r="I21" s="69"/>
-      <c r="J21" s="69"/>
-      <c r="K21" s="69"/>
-      <c r="L21" s="69"/>
-      <c r="M21" s="69"/>
-      <c r="N21" s="69"/>
-      <c r="O21" s="69"/>
-      <c r="P21" s="69"/>
-      <c r="Q21" s="69"/>
+      <c r="F21" s="78"/>
+      <c r="H21" s="68"/>
+      <c r="I21" s="68"/>
+      <c r="J21" s="68"/>
+      <c r="K21" s="68"/>
+      <c r="L21" s="68"/>
+      <c r="M21" s="68"/>
+      <c r="N21" s="68"/>
+      <c r="O21" s="68"/>
+      <c r="P21" s="68"/>
+      <c r="Q21" s="68"/>
     </row>
     <row r="22" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="str">
@@ -3115,19 +3115,19 @@
       <c r="C22" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D22" s="79"/>
-      <c r="E22" s="79"/>
-      <c r="F22" s="79"/>
-      <c r="H22" s="69"/>
-      <c r="I22" s="69"/>
-      <c r="J22" s="69"/>
-      <c r="K22" s="69"/>
-      <c r="L22" s="69"/>
-      <c r="M22" s="69"/>
-      <c r="N22" s="69"/>
-      <c r="O22" s="69"/>
-      <c r="P22" s="69"/>
-      <c r="Q22" s="69"/>
+      <c r="D22" s="78"/>
+      <c r="E22" s="78"/>
+      <c r="F22" s="78"/>
+      <c r="H22" s="68"/>
+      <c r="I22" s="68"/>
+      <c r="J22" s="68"/>
+      <c r="K22" s="68"/>
+      <c r="L22" s="68"/>
+      <c r="M22" s="68"/>
+      <c r="N22" s="68"/>
+      <c r="O22" s="68"/>
+      <c r="P22" s="68"/>
+      <c r="Q22" s="68"/>
     </row>
     <row r="23" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="str">
@@ -3140,23 +3140,23 @@
       <c r="C23" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D23" s="79" t="s">
-        <v>438</v>
-      </c>
-      <c r="E23" s="134" t="s">
-        <v>335</v>
-      </c>
-      <c r="F23" s="79"/>
-      <c r="H23" s="69"/>
-      <c r="I23" s="69"/>
-      <c r="J23" s="69"/>
-      <c r="K23" s="69"/>
-      <c r="L23" s="69"/>
-      <c r="M23" s="69"/>
-      <c r="N23" s="69"/>
-      <c r="O23" s="69"/>
-      <c r="P23" s="69"/>
-      <c r="Q23" s="69"/>
+      <c r="D23" s="78" t="s">
+        <v>437</v>
+      </c>
+      <c r="E23" s="133" t="s">
+        <v>334</v>
+      </c>
+      <c r="F23" s="78"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="68"/>
+      <c r="J23" s="68"/>
+      <c r="K23" s="68"/>
+      <c r="L23" s="68"/>
+      <c r="M23" s="68"/>
+      <c r="N23" s="68"/>
+      <c r="O23" s="68"/>
+      <c r="P23" s="68"/>
+      <c r="Q23" s="68"/>
     </row>
     <row r="24" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="str">
@@ -3169,24 +3169,24 @@
       <c r="C24" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D24" s="82" t="s">
-        <v>349</v>
-      </c>
-      <c r="E24" s="81" t="s">
-        <v>296</v>
-      </c>
-      <c r="F24" s="79"/>
+      <c r="D24" s="81" t="s">
+        <v>348</v>
+      </c>
+      <c r="E24" s="80" t="s">
+        <v>295</v>
+      </c>
+      <c r="F24" s="78"/>
       <c r="G24" s="9"/>
-      <c r="H24" s="69"/>
-      <c r="I24" s="69"/>
-      <c r="J24" s="69"/>
-      <c r="K24" s="69"/>
-      <c r="L24" s="69"/>
-      <c r="M24" s="69"/>
-      <c r="N24" s="69"/>
-      <c r="O24" s="69"/>
-      <c r="P24" s="69"/>
-      <c r="Q24" s="69"/>
+      <c r="H24" s="68"/>
+      <c r="I24" s="68"/>
+      <c r="J24" s="68"/>
+      <c r="K24" s="68"/>
+      <c r="L24" s="68"/>
+      <c r="M24" s="68"/>
+      <c r="N24" s="68"/>
+      <c r="O24" s="68"/>
+      <c r="P24" s="68"/>
+      <c r="Q24" s="68"/>
     </row>
     <row r="25" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="str">
@@ -3199,7 +3199,7 @@
       <c r="C25" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D25" s="125" t="str">
+      <c r="D25" s="124" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1wMVARUxnYHeiTbbEodCmZFb_vx9FkRVr","5C4-020")</f>
         <v>5C4-020</v>
       </c>
@@ -3209,16 +3209,16 @@
       <c r="F25" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="H25" s="69"/>
-      <c r="I25" s="69"/>
-      <c r="J25" s="69"/>
-      <c r="K25" s="69"/>
-      <c r="L25" s="69"/>
-      <c r="M25" s="69"/>
-      <c r="N25" s="69"/>
-      <c r="O25" s="69"/>
-      <c r="P25" s="69"/>
-      <c r="Q25" s="69"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="68"/>
+      <c r="J25" s="68"/>
+      <c r="K25" s="68"/>
+      <c r="L25" s="68"/>
+      <c r="M25" s="68"/>
+      <c r="N25" s="68"/>
+      <c r="O25" s="68"/>
+      <c r="P25" s="68"/>
+      <c r="Q25" s="68"/>
     </row>
     <row r="26" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="str">
@@ -3231,24 +3231,24 @@
       <c r="C26" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D26" s="82" t="s">
-        <v>237</v>
-      </c>
-      <c r="E26" s="79" t="s">
+      <c r="D26" s="81" t="s">
+        <v>236</v>
+      </c>
+      <c r="E26" s="78" t="s">
         <v>140</v>
       </c>
-      <c r="F26" s="79"/>
+      <c r="F26" s="78"/>
       <c r="G26" s="9"/>
-      <c r="H26" s="69"/>
-      <c r="I26" s="69"/>
-      <c r="J26" s="69"/>
-      <c r="K26" s="69"/>
-      <c r="L26" s="69"/>
-      <c r="M26" s="69"/>
-      <c r="N26" s="69"/>
-      <c r="O26" s="69"/>
-      <c r="P26" s="69"/>
-      <c r="Q26" s="69"/>
+      <c r="H26" s="68"/>
+      <c r="I26" s="68"/>
+      <c r="J26" s="68"/>
+      <c r="K26" s="68"/>
+      <c r="L26" s="68"/>
+      <c r="M26" s="68"/>
+      <c r="N26" s="68"/>
+      <c r="O26" s="68"/>
+      <c r="P26" s="68"/>
+      <c r="Q26" s="68"/>
     </row>
     <row r="27" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="str">
@@ -3261,19 +3261,19 @@
       <c r="C27" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="D27" s="79"/>
-      <c r="E27" s="79"/>
-      <c r="F27" s="80"/>
-      <c r="H27" s="69"/>
-      <c r="I27" s="69"/>
-      <c r="J27" s="69"/>
-      <c r="K27" s="69"/>
-      <c r="L27" s="69"/>
-      <c r="M27" s="69"/>
-      <c r="N27" s="69"/>
-      <c r="O27" s="69"/>
-      <c r="P27" s="69"/>
-      <c r="Q27" s="69"/>
+      <c r="D27" s="78"/>
+      <c r="E27" s="78"/>
+      <c r="F27" s="79"/>
+      <c r="H27" s="68"/>
+      <c r="I27" s="68"/>
+      <c r="J27" s="68"/>
+      <c r="K27" s="68"/>
+      <c r="L27" s="68"/>
+      <c r="M27" s="68"/>
+      <c r="N27" s="68"/>
+      <c r="O27" s="68"/>
+      <c r="P27" s="68"/>
+      <c r="Q27" s="68"/>
     </row>
     <row r="28" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="str">
@@ -3296,16 +3296,16 @@
         <v>48</v>
       </c>
       <c r="G28" s="3"/>
-      <c r="H28" s="69"/>
-      <c r="I28" s="69"/>
-      <c r="J28" s="69"/>
-      <c r="K28" s="69"/>
-      <c r="L28" s="69"/>
-      <c r="M28" s="69"/>
-      <c r="N28" s="69"/>
-      <c r="O28" s="69"/>
-      <c r="P28" s="69"/>
-      <c r="Q28" s="69"/>
+      <c r="H28" s="68"/>
+      <c r="I28" s="68"/>
+      <c r="J28" s="68"/>
+      <c r="K28" s="68"/>
+      <c r="L28" s="68"/>
+      <c r="M28" s="68"/>
+      <c r="N28" s="68"/>
+      <c r="O28" s="68"/>
+      <c r="P28" s="68"/>
+      <c r="Q28" s="68"/>
     </row>
     <row r="29" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="str">
@@ -3328,16 +3328,16 @@
         <v>48</v>
       </c>
       <c r="G29" s="4"/>
-      <c r="H29" s="69"/>
-      <c r="I29" s="69"/>
-      <c r="J29" s="69"/>
-      <c r="K29" s="69"/>
-      <c r="L29" s="69"/>
-      <c r="M29" s="69"/>
-      <c r="N29" s="69"/>
-      <c r="O29" s="69"/>
-      <c r="P29" s="69"/>
-      <c r="Q29" s="69"/>
+      <c r="H29" s="68"/>
+      <c r="I29" s="68"/>
+      <c r="J29" s="68"/>
+      <c r="K29" s="68"/>
+      <c r="L29" s="68"/>
+      <c r="M29" s="68"/>
+      <c r="N29" s="68"/>
+      <c r="O29" s="68"/>
+      <c r="P29" s="68"/>
+      <c r="Q29" s="68"/>
     </row>
     <row r="30" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="str">
@@ -3360,16 +3360,16 @@
         <v>48</v>
       </c>
       <c r="G30" s="4"/>
-      <c r="H30" s="69"/>
-      <c r="I30" s="69"/>
-      <c r="J30" s="69"/>
-      <c r="K30" s="69"/>
-      <c r="L30" s="69"/>
-      <c r="M30" s="69"/>
-      <c r="N30" s="69"/>
-      <c r="O30" s="69"/>
-      <c r="P30" s="69"/>
-      <c r="Q30" s="69"/>
+      <c r="H30" s="68"/>
+      <c r="I30" s="68"/>
+      <c r="J30" s="68"/>
+      <c r="K30" s="68"/>
+      <c r="L30" s="68"/>
+      <c r="M30" s="68"/>
+      <c r="N30" s="68"/>
+      <c r="O30" s="68"/>
+      <c r="P30" s="68"/>
+      <c r="Q30" s="68"/>
     </row>
     <row r="31" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="str">
@@ -3385,16 +3385,16 @@
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
-      <c r="H31" s="69"/>
-      <c r="I31" s="69"/>
-      <c r="J31" s="69"/>
-      <c r="K31" s="69"/>
-      <c r="L31" s="69"/>
-      <c r="M31" s="69"/>
-      <c r="N31" s="69"/>
-      <c r="O31" s="69"/>
-      <c r="P31" s="69"/>
-      <c r="Q31" s="69"/>
+      <c r="H31" s="68"/>
+      <c r="I31" s="68"/>
+      <c r="J31" s="68"/>
+      <c r="K31" s="68"/>
+      <c r="L31" s="68"/>
+      <c r="M31" s="68"/>
+      <c r="N31" s="68"/>
+      <c r="O31" s="68"/>
+      <c r="P31" s="68"/>
+      <c r="Q31" s="68"/>
     </row>
     <row r="32" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="str">
@@ -3416,16 +3416,16 @@
       <c r="F32" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="H32" s="69"/>
-      <c r="I32" s="69"/>
-      <c r="J32" s="69"/>
-      <c r="K32" s="69"/>
-      <c r="L32" s="69"/>
-      <c r="M32" s="69"/>
-      <c r="N32" s="69"/>
-      <c r="O32" s="69"/>
-      <c r="P32" s="69"/>
-      <c r="Q32" s="69"/>
+      <c r="H32" s="68"/>
+      <c r="I32" s="68"/>
+      <c r="J32" s="68"/>
+      <c r="K32" s="68"/>
+      <c r="L32" s="68"/>
+      <c r="M32" s="68"/>
+      <c r="N32" s="68"/>
+      <c r="O32" s="68"/>
+      <c r="P32" s="68"/>
+      <c r="Q32" s="68"/>
     </row>
     <row r="33" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="str">
@@ -3442,16 +3442,16 @@
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
-      <c r="H33" s="69"/>
-      <c r="I33" s="69"/>
-      <c r="J33" s="69"/>
-      <c r="K33" s="69"/>
-      <c r="L33" s="69"/>
-      <c r="M33" s="69"/>
-      <c r="N33" s="69"/>
-      <c r="O33" s="69"/>
-      <c r="P33" s="69"/>
-      <c r="Q33" s="69"/>
+      <c r="H33" s="68"/>
+      <c r="I33" s="68"/>
+      <c r="J33" s="68"/>
+      <c r="K33" s="68"/>
+      <c r="L33" s="68"/>
+      <c r="M33" s="68"/>
+      <c r="N33" s="68"/>
+      <c r="O33" s="68"/>
+      <c r="P33" s="68"/>
+      <c r="Q33" s="68"/>
     </row>
     <row r="34" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="str">
@@ -3468,16 +3468,16 @@
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
-      <c r="H34" s="69"/>
-      <c r="I34" s="69"/>
-      <c r="J34" s="69"/>
-      <c r="K34" s="69"/>
-      <c r="L34" s="69"/>
-      <c r="M34" s="69"/>
-      <c r="N34" s="69"/>
-      <c r="O34" s="69"/>
-      <c r="P34" s="69"/>
-      <c r="Q34" s="69"/>
+      <c r="H34" s="68"/>
+      <c r="I34" s="68"/>
+      <c r="J34" s="68"/>
+      <c r="K34" s="68"/>
+      <c r="L34" s="68"/>
+      <c r="M34" s="68"/>
+      <c r="N34" s="68"/>
+      <c r="O34" s="68"/>
+      <c r="P34" s="68"/>
+      <c r="Q34" s="68"/>
     </row>
     <row r="35" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="str">
@@ -3499,16 +3499,16 @@
       <c r="F35" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="H35" s="69"/>
-      <c r="I35" s="69"/>
-      <c r="J35" s="69"/>
-      <c r="K35" s="69"/>
-      <c r="L35" s="69"/>
-      <c r="M35" s="69"/>
-      <c r="N35" s="69"/>
-      <c r="O35" s="69"/>
-      <c r="P35" s="69"/>
-      <c r="Q35" s="69"/>
+      <c r="H35" s="68"/>
+      <c r="I35" s="68"/>
+      <c r="J35" s="68"/>
+      <c r="K35" s="68"/>
+      <c r="L35" s="68"/>
+      <c r="M35" s="68"/>
+      <c r="N35" s="68"/>
+      <c r="O35" s="68"/>
+      <c r="P35" s="68"/>
+      <c r="Q35" s="68"/>
     </row>
     <row r="36" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="str">
@@ -3525,16 +3525,16 @@
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
-      <c r="H36" s="69"/>
-      <c r="I36" s="69"/>
-      <c r="J36" s="69"/>
-      <c r="K36" s="69"/>
-      <c r="L36" s="69"/>
-      <c r="M36" s="69"/>
-      <c r="N36" s="69"/>
-      <c r="O36" s="69"/>
-      <c r="P36" s="69"/>
-      <c r="Q36" s="69"/>
+      <c r="H36" s="68"/>
+      <c r="I36" s="68"/>
+      <c r="J36" s="68"/>
+      <c r="K36" s="68"/>
+      <c r="L36" s="68"/>
+      <c r="M36" s="68"/>
+      <c r="N36" s="68"/>
+      <c r="O36" s="68"/>
+      <c r="P36" s="68"/>
+      <c r="Q36" s="68"/>
     </row>
     <row r="37" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="str">
@@ -3557,16 +3557,16 @@
       <c r="F37" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="H37" s="69"/>
-      <c r="I37" s="69"/>
-      <c r="J37" s="69"/>
-      <c r="K37" s="69"/>
-      <c r="L37" s="69"/>
-      <c r="M37" s="69"/>
-      <c r="N37" s="69"/>
-      <c r="O37" s="69"/>
-      <c r="P37" s="69"/>
-      <c r="Q37" s="69"/>
+      <c r="H37" s="68"/>
+      <c r="I37" s="68"/>
+      <c r="J37" s="68"/>
+      <c r="K37" s="68"/>
+      <c r="L37" s="68"/>
+      <c r="M37" s="68"/>
+      <c r="N37" s="68"/>
+      <c r="O37" s="68"/>
+      <c r="P37" s="68"/>
+      <c r="Q37" s="68"/>
     </row>
     <row r="38" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="str">
@@ -3582,16 +3582,16 @@
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
-      <c r="H38" s="69"/>
-      <c r="I38" s="69"/>
-      <c r="J38" s="69"/>
-      <c r="K38" s="69"/>
-      <c r="L38" s="69"/>
-      <c r="M38" s="69"/>
-      <c r="N38" s="69"/>
-      <c r="O38" s="69"/>
-      <c r="P38" s="69"/>
-      <c r="Q38" s="69"/>
+      <c r="H38" s="68"/>
+      <c r="I38" s="68"/>
+      <c r="J38" s="68"/>
+      <c r="K38" s="68"/>
+      <c r="L38" s="68"/>
+      <c r="M38" s="68"/>
+      <c r="N38" s="68"/>
+      <c r="O38" s="68"/>
+      <c r="P38" s="68"/>
+      <c r="Q38" s="68"/>
     </row>
     <row r="39" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="str">
@@ -3607,16 +3607,16 @@
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
-      <c r="H39" s="69"/>
-      <c r="I39" s="69"/>
-      <c r="J39" s="69"/>
-      <c r="K39" s="69"/>
-      <c r="L39" s="69"/>
-      <c r="M39" s="69"/>
-      <c r="N39" s="69"/>
-      <c r="O39" s="69"/>
-      <c r="P39" s="69"/>
-      <c r="Q39" s="69"/>
+      <c r="H39" s="68"/>
+      <c r="I39" s="68"/>
+      <c r="J39" s="68"/>
+      <c r="K39" s="68"/>
+      <c r="L39" s="68"/>
+      <c r="M39" s="68"/>
+      <c r="N39" s="68"/>
+      <c r="O39" s="68"/>
+      <c r="P39" s="68"/>
+      <c r="Q39" s="68"/>
     </row>
     <row r="40" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="str">
@@ -3630,22 +3630,22 @@
         <v>129</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>31</v>
       </c>
       <c r="F40" s="4"/>
-      <c r="H40" s="69"/>
-      <c r="I40" s="69"/>
-      <c r="J40" s="69"/>
-      <c r="K40" s="69"/>
-      <c r="L40" s="69"/>
-      <c r="M40" s="69"/>
-      <c r="N40" s="69"/>
-      <c r="O40" s="69"/>
-      <c r="P40" s="69"/>
-      <c r="Q40" s="69"/>
+      <c r="H40" s="68"/>
+      <c r="I40" s="68"/>
+      <c r="J40" s="68"/>
+      <c r="K40" s="68"/>
+      <c r="L40" s="68"/>
+      <c r="M40" s="68"/>
+      <c r="N40" s="68"/>
+      <c r="O40" s="68"/>
+      <c r="P40" s="68"/>
+      <c r="Q40" s="68"/>
     </row>
     <row r="41" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="str">
@@ -3667,16 +3667,16 @@
       <c r="F41" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="H41" s="69"/>
-      <c r="I41" s="69"/>
-      <c r="J41" s="69"/>
-      <c r="K41" s="69"/>
-      <c r="L41" s="69"/>
-      <c r="M41" s="69"/>
-      <c r="N41" s="69"/>
-      <c r="O41" s="69"/>
-      <c r="P41" s="69"/>
-      <c r="Q41" s="69"/>
+      <c r="H41" s="68"/>
+      <c r="I41" s="68"/>
+      <c r="J41" s="68"/>
+      <c r="K41" s="68"/>
+      <c r="L41" s="68"/>
+      <c r="M41" s="68"/>
+      <c r="N41" s="68"/>
+      <c r="O41" s="68"/>
+      <c r="P41" s="68"/>
+      <c r="Q41" s="68"/>
     </row>
     <row r="42" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="str">
@@ -3692,16 +3692,16 @@
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
-      <c r="H42" s="69"/>
-      <c r="I42" s="69"/>
-      <c r="J42" s="69"/>
-      <c r="K42" s="69"/>
-      <c r="L42" s="69"/>
-      <c r="M42" s="69"/>
-      <c r="N42" s="69"/>
-      <c r="O42" s="69"/>
-      <c r="P42" s="69"/>
-      <c r="Q42" s="69"/>
+      <c r="H42" s="68"/>
+      <c r="I42" s="68"/>
+      <c r="J42" s="68"/>
+      <c r="K42" s="68"/>
+      <c r="L42" s="68"/>
+      <c r="M42" s="68"/>
+      <c r="N42" s="68"/>
+      <c r="O42" s="68"/>
+      <c r="P42" s="68"/>
+      <c r="Q42" s="68"/>
     </row>
     <row r="43" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="str">
@@ -3717,16 +3717,16 @@
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
-      <c r="H43" s="69"/>
-      <c r="I43" s="69"/>
-      <c r="J43" s="69"/>
-      <c r="K43" s="69"/>
-      <c r="L43" s="69"/>
-      <c r="M43" s="69"/>
-      <c r="N43" s="69"/>
-      <c r="O43" s="69"/>
-      <c r="P43" s="69"/>
-      <c r="Q43" s="69"/>
+      <c r="H43" s="68"/>
+      <c r="I43" s="68"/>
+      <c r="J43" s="68"/>
+      <c r="K43" s="68"/>
+      <c r="L43" s="68"/>
+      <c r="M43" s="68"/>
+      <c r="N43" s="68"/>
+      <c r="O43" s="68"/>
+      <c r="P43" s="68"/>
+      <c r="Q43" s="68"/>
     </row>
     <row r="44" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="str">
@@ -3734,7 +3734,7 @@
         <v>5H</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>141</v>
@@ -3742,16 +3742,16 @@
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
-      <c r="H44" s="69"/>
-      <c r="I44" s="69"/>
-      <c r="J44" s="69"/>
-      <c r="K44" s="69"/>
-      <c r="L44" s="69"/>
-      <c r="M44" s="69"/>
-      <c r="N44" s="69"/>
-      <c r="O44" s="69"/>
-      <c r="P44" s="69"/>
-      <c r="Q44" s="69"/>
+      <c r="H44" s="68"/>
+      <c r="I44" s="68"/>
+      <c r="J44" s="68"/>
+      <c r="K44" s="68"/>
+      <c r="L44" s="68"/>
+      <c r="M44" s="68"/>
+      <c r="N44" s="68"/>
+      <c r="O44" s="68"/>
+      <c r="P44" s="68"/>
+      <c r="Q44" s="68"/>
     </row>
     <row r="45" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K45" s="5"/>
@@ -3832,38 +3832,38 @@
       <c r="A58" s="9"/>
     </row>
     <row r="59" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="143" t="s">
+      <c r="A59" s="144" t="s">
         <v>157</v>
       </c>
-      <c r="B59" s="138"/>
-      <c r="C59" s="138"/>
+      <c r="B59" s="139"/>
+      <c r="C59" s="139"/>
     </row>
     <row r="60" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="12"/>
     </row>
     <row r="61" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="137" t="s">
+      <c r="A61" s="138" t="s">
         <v>149</v>
       </c>
-      <c r="B61" s="138"/>
-      <c r="C61" s="137" t="s">
+      <c r="B61" s="139"/>
+      <c r="C61" s="138" t="s">
         <v>158</v>
       </c>
-      <c r="D61" s="138"/>
-      <c r="E61" s="138"/>
-      <c r="F61" s="138"/>
+      <c r="D61" s="139"/>
+      <c r="E61" s="139"/>
+      <c r="F61" s="139"/>
     </row>
     <row r="62" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="137" t="s">
+      <c r="A62" s="138" t="s">
         <v>159</v>
       </c>
-      <c r="B62" s="138"/>
-      <c r="C62" s="137" t="s">
+      <c r="B62" s="139"/>
+      <c r="C62" s="138" t="s">
         <v>160</v>
       </c>
-      <c r="D62" s="138"/>
-      <c r="E62" s="138"/>
-      <c r="F62" s="138"/>
+      <c r="D62" s="139"/>
+      <c r="E62" s="139"/>
+      <c r="F62" s="139"/>
     </row>
     <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="64" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4844,66 +4844,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="144" t="s">
+      <c r="A1" s="145" t="s">
         <v>161</v>
       </c>
-      <c r="B1" s="145"/>
-      <c r="C1" s="146" t="s">
+      <c r="B1" s="146"/>
+      <c r="C1" s="147" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
-      <c r="G1" s="147"/>
-      <c r="H1" s="147"/>
-      <c r="I1" s="147"/>
-      <c r="J1" s="147"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
+      <c r="D1" s="148"/>
+      <c r="E1" s="148"/>
+      <c r="F1" s="148"/>
+      <c r="G1" s="148"/>
+      <c r="H1" s="148"/>
+      <c r="I1" s="148"/>
+      <c r="J1" s="148"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
     </row>
     <row r="2" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="120" t="s">
+      <c r="A2" s="119" t="s">
         <v>162</v>
       </c>
-      <c r="B2" s="120" t="s">
+      <c r="B2" s="119" t="s">
         <v>163</v>
       </c>
-      <c r="C2" s="120" t="s">
+      <c r="C2" s="119" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="121" t="s">
+      <c r="D2" s="120" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="120" t="s">
+      <c r="E2" s="119" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="120" t="s">
+      <c r="F2" s="119" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="120" t="s">
+      <c r="G2" s="119" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="120" t="s">
+      <c r="H2" s="119" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="122" t="s">
+      <c r="I2" s="121" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="122" t="s">
+      <c r="J2" s="121" t="s">
         <v>164</v>
       </c>
       <c r="K2" s="15" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="L2" s="15" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" s="109" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="108" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="21" t="s">
-        <v>438</v>
-      </c>
-      <c r="B3" s="136" t="s">
+        <v>437</v>
+      </c>
+      <c r="B3" s="135" t="s">
         <v>165</v>
       </c>
       <c r="C3" s="20" t="s">
@@ -4930,18 +4930,18 @@
       <c r="J3" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="72" t="s">
-        <v>461</v>
-      </c>
-      <c r="L3" s="72"/>
+      <c r="K3" s="71" t="s">
+        <v>460</v>
+      </c>
+      <c r="L3" s="71"/>
     </row>
     <row r="4" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1G8ecO5ODQmn8FX8jzQ962D928BpQ6iUm","5C4-002")</f>
         <v>5C4-002</v>
       </c>
-      <c r="B4" s="77" t="s">
-        <v>173</v>
+      <c r="B4" s="76" t="s">
+        <v>172</v>
       </c>
       <c r="C4" s="20" t="s">
         <v>28</v>
@@ -4967,8 +4967,8 @@
       <c r="J4" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="72" t="s">
-        <v>453</v>
+      <c r="K4" s="71" t="s">
+        <v>452</v>
       </c>
       <c r="L4" s="17"/>
     </row>
@@ -4977,8 +4977,8 @@
         <f>HYPERLINK("https://drive.google.com/drive/folders/1X_yNido1T9NRAtsXoJ-h2bFXlpLfFW-N","5C4-003")</f>
         <v>5C4-003</v>
       </c>
-      <c r="B5" s="77" t="s">
-        <v>329</v>
+      <c r="B5" s="76" t="s">
+        <v>328</v>
       </c>
       <c r="C5" s="20" t="s">
         <v>28</v>
@@ -5004,18 +5004,18 @@
       <c r="J5" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="72" t="s">
-        <v>462</v>
-      </c>
-      <c r="L5" s="72"/>
+      <c r="K5" s="71" t="s">
+        <v>461</v>
+      </c>
+      <c r="L5" s="71"/>
     </row>
     <row r="6" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1WeIiiMAp6TYYdsybsr5MvXeiX_cVX9j0","5C4-004")</f>
         <v>5C4-004</v>
       </c>
-      <c r="B6" s="73" t="s">
-        <v>276</v>
+      <c r="B6" s="72" t="s">
+        <v>275</v>
       </c>
       <c r="C6" s="20" t="s">
         <v>28</v>
@@ -5041,11 +5041,11 @@
       <c r="J6" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="K6" s="72" t="s">
-        <v>423</v>
-      </c>
-      <c r="L6" s="72" t="s">
-        <v>389</v>
+      <c r="K6" s="71" t="s">
+        <v>422</v>
+      </c>
+      <c r="L6" s="71" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -5057,34 +5057,34 @@
         <v>166</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G7" s="25" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I7" s="25" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J7" s="25" t="s">
-        <v>171</v>
-      </c>
-      <c r="K7" s="94" t="s">
+        <v>170</v>
+      </c>
+      <c r="K7" s="93" t="s">
+        <v>462</v>
+      </c>
+      <c r="L7" s="71" t="s">
         <v>463</v>
-      </c>
-      <c r="L7" s="72" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -5119,19 +5119,19 @@
       <c r="J8" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="K8" s="72" t="s">
-        <v>465</v>
-      </c>
-      <c r="L8" s="72" t="s">
+      <c r="K8" s="71" t="s">
         <v>464</v>
+      </c>
+      <c r="L8" s="71" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="B9" s="77" t="s">
-        <v>284</v>
+      <c r="B9" s="76" t="s">
+        <v>283</v>
       </c>
       <c r="C9" s="20" t="s">
         <v>28</v>
@@ -5157,18 +5157,18 @@
       <c r="J9" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="K9" s="72" t="s">
-        <v>424</v>
-      </c>
-      <c r="L9" s="72"/>
+      <c r="K9" s="71" t="s">
+        <v>423</v>
+      </c>
+      <c r="L9" s="71"/>
     </row>
     <row r="10" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1-3h2_HbCYYPIJxLORcasFd7NqbLvOw-C","5C4-008")</f>
         <v>5C4-008</v>
       </c>
-      <c r="B10" s="73" t="s">
-        <v>395</v>
+      <c r="B10" s="72" t="s">
+        <v>394</v>
       </c>
       <c r="C10" s="20" t="s">
         <v>28</v>
@@ -5194,11 +5194,11 @@
       <c r="J10" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="K10" s="72" t="s">
-        <v>394</v>
-      </c>
-      <c r="L10" s="72" t="s">
-        <v>389</v>
+      <c r="K10" s="71" t="s">
+        <v>393</v>
+      </c>
+      <c r="L10" s="71" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -5206,10 +5206,10 @@
         <f>HYPERLINK("https://drive.google.com/drive/folders/1EhIIjKRxAQ858Wo2OYQq3GdqbI2ok5Af","5C4-009")</f>
         <v>5C4-009</v>
       </c>
-      <c r="B11" s="131" t="s">
+      <c r="B11" s="130" t="s">
         <v>165</v>
       </c>
-      <c r="C11" s="72"/>
+      <c r="C11" s="71"/>
       <c r="D11" s="20" t="s">
         <v>28</v>
       </c>
@@ -5225,18 +5225,18 @@
       <c r="H11" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="I11" s="72"/>
-      <c r="J11" s="72"/>
-      <c r="K11" s="72"/>
-      <c r="L11" s="72"/>
+      <c r="I11" s="71"/>
+      <c r="J11" s="71"/>
+      <c r="K11" s="71"/>
+      <c r="L11" s="71"/>
     </row>
     <row r="12" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1FrnQUGPHDhAq4DHWLuBTTfQpLNsdUckc","5C4-010")</f>
         <v>5C4-010</v>
       </c>
-      <c r="B12" s="73" t="s">
-        <v>272</v>
+      <c r="B12" s="72" t="s">
+        <v>271</v>
       </c>
       <c r="C12" s="20" t="s">
         <v>28</v>
@@ -5262,18 +5262,18 @@
       <c r="J12" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="K12" s="72" t="s">
-        <v>452</v>
-      </c>
-      <c r="L12" s="72"/>
+      <c r="K12" s="71" t="s">
+        <v>451</v>
+      </c>
+      <c r="L12" s="71"/>
     </row>
     <row r="13" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1hJ1DyO35m4DO0phNhkoobK76R8Ql-DTn","5C4-011")</f>
         <v>5C4-011</v>
       </c>
-      <c r="B13" s="73" t="s">
-        <v>289</v>
+      <c r="B13" s="72" t="s">
+        <v>288</v>
       </c>
       <c r="C13" s="20" t="s">
         <v>28</v>
@@ -5299,11 +5299,11 @@
       <c r="J13" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="K13" s="72" t="s">
-        <v>387</v>
-      </c>
-      <c r="L13" s="72" t="s">
-        <v>389</v>
+      <c r="K13" s="71" t="s">
+        <v>386</v>
+      </c>
+      <c r="L13" s="71" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -5312,37 +5312,37 @@
         <v>5C4-012</v>
       </c>
       <c r="B14" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="J14" s="122" t="s">
         <v>170</v>
       </c>
-      <c r="C14" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="G14" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="H14" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="I14" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="J14" s="123" t="s">
-        <v>171</v>
-      </c>
-      <c r="K14" s="94" t="s">
-        <v>466</v>
-      </c>
-      <c r="L14" s="72" t="s">
-        <v>464</v>
+      <c r="K14" s="93" t="s">
+        <v>465</v>
+      </c>
+      <c r="L14" s="71" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -5351,7 +5351,7 @@
         <v>5C4-013</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C15" s="20" t="s">
         <v>28</v>
@@ -5377,11 +5377,11 @@
       <c r="J15" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="K15" s="72" t="s">
-        <v>467</v>
-      </c>
-      <c r="L15" s="72" t="s">
-        <v>464</v>
+      <c r="K15" s="71" t="s">
+        <v>466</v>
+      </c>
+      <c r="L15" s="71" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -5390,7 +5390,7 @@
         <v>5C4-014</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C16" s="20" t="s">
         <v>28</v>
@@ -5416,11 +5416,11 @@
       <c r="J16" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="K16" s="72" t="s">
-        <v>391</v>
-      </c>
-      <c r="L16" s="72" t="s">
+      <c r="K16" s="71" t="s">
         <v>390</v>
+      </c>
+      <c r="L16" s="71" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -5428,8 +5428,8 @@
         <f>HYPERLINK("https://drive.google.com/drive/folders/1GhnG5G_BN5lBSXzegcxU-3TuUUTEd6xm","5C4-015")</f>
         <v>5C4-015</v>
       </c>
-      <c r="B17" s="73" t="s">
-        <v>459</v>
+      <c r="B17" s="72" t="s">
+        <v>458</v>
       </c>
       <c r="C17" s="20" t="s">
         <v>28</v>
@@ -5455,17 +5455,17 @@
       <c r="J17" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="K17" s="72" t="s">
-        <v>458</v>
-      </c>
-      <c r="L17" s="72"/>
+      <c r="K17" s="71" t="s">
+        <v>457</v>
+      </c>
+      <c r="L17" s="71"/>
     </row>
     <row r="18" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="B18" s="73" t="s">
-        <v>344</v>
+        <v>171</v>
+      </c>
+      <c r="B18" s="72" t="s">
+        <v>343</v>
       </c>
       <c r="C18" s="20" t="s">
         <v>28</v>
@@ -5491,18 +5491,18 @@
       <c r="J18" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="K18" s="72" t="s">
-        <v>446</v>
-      </c>
-      <c r="L18" s="72"/>
+      <c r="K18" s="71" t="s">
+        <v>445</v>
+      </c>
+      <c r="L18" s="71"/>
     </row>
     <row r="19" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="18" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1wcHyiuVUbBeL9ODgyYP-lyy7yM1vMH3u","5C4-017")</f>
         <v>5C4-017</v>
       </c>
-      <c r="B19" s="73" t="s">
-        <v>269</v>
+      <c r="B19" s="72" t="s">
+        <v>268</v>
       </c>
       <c r="C19" s="20" t="s">
         <v>28</v>
@@ -5528,16 +5528,16 @@
       <c r="J19" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="K19" s="72" t="s">
-        <v>451</v>
-      </c>
-      <c r="L19" s="72"/>
+      <c r="K19" s="71" t="s">
+        <v>450</v>
+      </c>
+      <c r="L19" s="71"/>
     </row>
     <row r="20" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="B20" s="133" t="s">
+      <c r="B20" s="132" t="s">
         <v>165</v>
       </c>
       <c r="C20" s="22" t="s">
@@ -5561,14 +5561,14 @@
       <c r="I20" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="J20" s="132" t="s">
-        <v>171</v>
-      </c>
-      <c r="K20" s="72" t="s">
-        <v>468</v>
-      </c>
-      <c r="L20" s="72" t="s">
-        <v>464</v>
+      <c r="J20" s="131" t="s">
+        <v>170</v>
+      </c>
+      <c r="K20" s="71" t="s">
+        <v>467</v>
+      </c>
+      <c r="L20" s="71" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -5577,10 +5577,10 @@
         <v>5C4-019</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D21" s="20" t="s">
         <v>28</v>
@@ -5595,19 +5595,19 @@
         <v>28</v>
       </c>
       <c r="H21" s="25" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I21" s="25" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J21" s="25" t="s">
-        <v>171</v>
-      </c>
-      <c r="K21" s="72" t="s">
-        <v>469</v>
-      </c>
-      <c r="L21" s="72" t="s">
-        <v>464</v>
+        <v>170</v>
+      </c>
+      <c r="K21" s="71" t="s">
+        <v>468</v>
+      </c>
+      <c r="L21" s="71" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -5615,10 +5615,10 @@
         <f>HYPERLINK("https://drive.google.com/drive/folders/1wMVARUxnYHeiTbbEodCmZFb_vx9FkRVr","5C4-020")</f>
         <v>5C4-020</v>
       </c>
-      <c r="B22" s="135" t="s">
-        <v>175</v>
-      </c>
-      <c r="C22" s="129" t="s">
+      <c r="B22" s="134" t="s">
+        <v>174</v>
+      </c>
+      <c r="C22" s="128" t="s">
         <v>28</v>
       </c>
       <c r="D22" s="20" t="s">
@@ -5630,7 +5630,7 @@
       <c r="F22" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="G22" s="130" t="s">
+      <c r="G22" s="129" t="s">
         <v>28</v>
       </c>
       <c r="H22" s="20" t="s">
@@ -5642,11 +5642,11 @@
       <c r="J22" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="K22" s="72" t="s">
-        <v>470</v>
-      </c>
-      <c r="L22" s="72" t="s">
-        <v>464</v>
+      <c r="K22" s="71" t="s">
+        <v>469</v>
+      </c>
+      <c r="L22" s="71" t="s">
+        <v>463</v>
       </c>
     </row>
   </sheetData>
@@ -5664,7 +5664,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9CEE8EE-E616-9C40-8E50-615D9D9C3993}">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -5675,426 +5675,426 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="148" t="s">
+      <c r="A1" s="149" t="s">
         <v>161</v>
       </c>
-      <c r="B1" s="149"/>
-      <c r="C1" s="148" t="s">
+      <c r="B1" s="150"/>
+      <c r="C1" s="149" t="s">
+        <v>357</v>
+      </c>
+      <c r="D1" s="151"/>
+      <c r="E1" s="151"/>
+      <c r="F1" s="151"/>
+      <c r="G1" s="151"/>
+      <c r="H1" s="151"/>
+      <c r="I1" s="151"/>
+      <c r="J1" s="150"/>
+    </row>
+    <row r="2" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="65" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" s="65" t="s">
+        <v>163</v>
+      </c>
+      <c r="C2" s="65" t="s">
         <v>358</v>
       </c>
-      <c r="D1" s="150"/>
-      <c r="E1" s="150"/>
-      <c r="F1" s="150"/>
-      <c r="G1" s="150"/>
-      <c r="H1" s="150"/>
-      <c r="I1" s="150"/>
-      <c r="J1" s="149"/>
-    </row>
-    <row r="2" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="66" t="s">
-        <v>162</v>
-      </c>
-      <c r="B2" s="66" t="s">
-        <v>163</v>
-      </c>
-      <c r="C2" s="66" t="s">
+      <c r="D2" s="65" t="s">
         <v>359</v>
       </c>
-      <c r="D2" s="66" t="s">
+      <c r="E2" s="65" t="s">
         <v>360</v>
       </c>
-      <c r="E2" s="66" t="s">
+      <c r="F2" s="65"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+    </row>
+    <row r="3" spans="1:10" s="126" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="53" t="s">
+        <v>437</v>
+      </c>
+      <c r="B3" s="54" t="s">
+        <v>165</v>
+      </c>
+      <c r="C3" s="62"/>
+      <c r="D3" s="60" t="s">
+        <v>459</v>
+      </c>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="53" t="s">
+        <v>234</v>
+      </c>
+      <c r="B4" s="73" t="s">
+        <v>172</v>
+      </c>
+      <c r="C4" s="62" t="s">
+        <v>449</v>
+      </c>
+      <c r="D4" s="60" t="s">
+        <v>448</v>
+      </c>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="53" t="s">
+        <v>344</v>
+      </c>
+      <c r="B5" s="73" t="s">
+        <v>328</v>
+      </c>
+      <c r="C5" s="62" t="s">
+        <v>383</v>
+      </c>
+      <c r="D5" s="60" t="s">
+        <v>366</v>
+      </c>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="53" t="s">
+        <v>345</v>
+      </c>
+      <c r="B6" s="73" t="s">
+        <v>275</v>
+      </c>
+      <c r="C6" s="62" t="s">
+        <v>382</v>
+      </c>
+      <c r="D6" s="60" t="s">
+        <v>377</v>
+      </c>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="60"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="53" t="s">
+        <v>346</v>
+      </c>
+      <c r="B7" s="55" t="s">
+        <v>166</v>
+      </c>
+      <c r="C7" s="64"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="53" t="s">
+        <v>347</v>
+      </c>
+      <c r="B8" s="55" t="s">
+        <v>167</v>
+      </c>
+      <c r="C8" s="62"/>
+      <c r="D8" s="60" t="s">
+        <v>363</v>
+      </c>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="60"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="56" t="s">
+        <v>168</v>
+      </c>
+      <c r="B9" s="73" t="s">
+        <v>283</v>
+      </c>
+      <c r="C9" s="60" t="s">
+        <v>369</v>
+      </c>
+      <c r="D9" s="60" t="s">
+        <v>370</v>
+      </c>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="62"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="53" t="s">
+        <v>348</v>
+      </c>
+      <c r="B10" s="73" t="s">
+        <v>394</v>
+      </c>
+      <c r="C10" s="60" t="s">
+        <v>364</v>
+      </c>
+      <c r="D10" s="67" t="s">
+        <v>365</v>
+      </c>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="60"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="53" t="s">
+        <v>349</v>
+      </c>
+      <c r="B11" s="137" t="s">
+        <v>165</v>
+      </c>
+      <c r="C11" s="60" t="s">
+        <v>367</v>
+      </c>
+      <c r="D11" s="67" t="s">
+        <v>368</v>
+      </c>
+      <c r="E11" s="60"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="60"/>
+      <c r="J11" s="60"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="53" t="s">
+        <v>350</v>
+      </c>
+      <c r="B12" s="73" t="s">
+        <v>271</v>
+      </c>
+      <c r="C12" s="62" t="s">
+        <v>381</v>
+      </c>
+      <c r="D12" s="60" t="s">
+        <v>376</v>
+      </c>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="53" t="s">
+        <v>351</v>
+      </c>
+      <c r="B13" s="73" t="s">
+        <v>288</v>
+      </c>
+      <c r="C13" s="62" t="s">
+        <v>380</v>
+      </c>
+      <c r="D13" s="60" t="s">
+        <v>375</v>
+      </c>
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="60"/>
+      <c r="J13" s="60"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="53" t="s">
+        <v>352</v>
+      </c>
+      <c r="B14" s="55" t="s">
+        <v>169</v>
+      </c>
+      <c r="C14" s="64"/>
+      <c r="D14" s="60" t="s">
         <v>361</v>
       </c>
-      <c r="F2" s="66"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-    </row>
-    <row r="3" spans="1:10" s="127" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="54" t="s">
-        <v>438</v>
-      </c>
-      <c r="B3" s="55" t="s">
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="53" t="s">
+        <v>353</v>
+      </c>
+      <c r="B15" s="55" t="s">
+        <v>336</v>
+      </c>
+      <c r="C15" s="62"/>
+      <c r="D15" s="60" t="s">
+        <v>362</v>
+      </c>
+      <c r="E15" s="60"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="60"/>
+      <c r="I15" s="60"/>
+      <c r="J15" s="60"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="53" t="s">
+        <v>354</v>
+      </c>
+      <c r="B16" s="73" t="s">
+        <v>319</v>
+      </c>
+      <c r="C16" s="62" t="s">
+        <v>379</v>
+      </c>
+      <c r="D16" s="62" t="s">
+        <v>374</v>
+      </c>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="53" t="s">
+        <v>235</v>
+      </c>
+      <c r="B17" s="136" t="s">
+        <v>458</v>
+      </c>
+      <c r="C17" s="62" t="s">
+        <v>371</v>
+      </c>
+      <c r="D17" s="77" t="s">
+        <v>372</v>
+      </c>
+      <c r="E17" s="60"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="60"/>
+      <c r="J17" s="60"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="57" t="s">
+        <v>171</v>
+      </c>
+      <c r="B18" s="136" t="s">
+        <v>343</v>
+      </c>
+      <c r="C18" s="62" t="s">
+        <v>378</v>
+      </c>
+      <c r="D18" s="62" t="s">
+        <v>373</v>
+      </c>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="53" t="s">
+        <v>236</v>
+      </c>
+      <c r="B19" s="136" t="s">
+        <v>268</v>
+      </c>
+      <c r="C19" s="62" t="s">
+        <v>385</v>
+      </c>
+      <c r="D19" s="60" t="s">
+        <v>384</v>
+      </c>
+      <c r="E19" s="60"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="60"/>
+      <c r="J19" s="60"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="56" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20" s="123" t="s">
         <v>165</v>
       </c>
-      <c r="C3" s="63"/>
-      <c r="D3" s="61" t="s">
-        <v>460</v>
-      </c>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="54" t="s">
-        <v>235</v>
-      </c>
-      <c r="B4" s="74" t="s">
+      <c r="C20" s="64" t="s">
+        <v>454</v>
+      </c>
+      <c r="D20" s="60" t="s">
+        <v>453</v>
+      </c>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="53" t="s">
+        <v>355</v>
+      </c>
+      <c r="B21" s="55" t="s">
         <v>173</v>
       </c>
-      <c r="C4" s="63" t="s">
-        <v>450</v>
-      </c>
-      <c r="D4" s="61" t="s">
-        <v>449</v>
-      </c>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="54" t="s">
-        <v>345</v>
-      </c>
-      <c r="B5" s="74" t="s">
-        <v>329</v>
-      </c>
-      <c r="C5" s="63" t="s">
-        <v>384</v>
-      </c>
-      <c r="D5" s="61" t="s">
-        <v>367</v>
-      </c>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="61"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="54" t="s">
-        <v>346</v>
-      </c>
-      <c r="B6" s="74" t="s">
-        <v>276</v>
-      </c>
-      <c r="C6" s="63" t="s">
-        <v>383</v>
-      </c>
-      <c r="D6" s="61" t="s">
-        <v>378</v>
-      </c>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="61"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="54" t="s">
-        <v>347</v>
-      </c>
-      <c r="B7" s="56" t="s">
-        <v>166</v>
-      </c>
-      <c r="C7" s="65"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="61"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="54" t="s">
-        <v>348</v>
-      </c>
-      <c r="B8" s="56" t="s">
-        <v>167</v>
-      </c>
-      <c r="C8" s="63"/>
-      <c r="D8" s="61" t="s">
-        <v>364</v>
-      </c>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="61"/>
-      <c r="H8" s="61"/>
-      <c r="I8" s="61"/>
-      <c r="J8" s="61"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="57" t="s">
-        <v>168</v>
-      </c>
-      <c r="B9" s="74" t="s">
-        <v>284</v>
-      </c>
-      <c r="C9" s="61" t="s">
-        <v>370</v>
-      </c>
-      <c r="D9" s="61" t="s">
-        <v>371</v>
-      </c>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="63"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="54" t="s">
-        <v>349</v>
-      </c>
-      <c r="B10" s="74" t="s">
-        <v>395</v>
-      </c>
-      <c r="C10" s="61" t="s">
-        <v>365</v>
-      </c>
-      <c r="D10" s="68" t="s">
-        <v>366</v>
-      </c>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="61"/>
-      <c r="I10" s="64"/>
-      <c r="J10" s="61"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="54" t="s">
-        <v>350</v>
-      </c>
-      <c r="B11" s="156" t="s">
-        <v>165</v>
-      </c>
-      <c r="C11" s="61" t="s">
-        <v>368</v>
-      </c>
-      <c r="D11" s="68" t="s">
-        <v>369</v>
-      </c>
-      <c r="E11" s="61"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="61"/>
-      <c r="H11" s="61"/>
-      <c r="I11" s="61"/>
-      <c r="J11" s="61"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="54" t="s">
-        <v>351</v>
-      </c>
-      <c r="B12" s="74" t="s">
-        <v>272</v>
-      </c>
-      <c r="C12" s="63" t="s">
-        <v>382</v>
-      </c>
-      <c r="D12" s="61" t="s">
-        <v>377</v>
-      </c>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="61"/>
-      <c r="I12" s="61"/>
-      <c r="J12" s="61"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="54" t="s">
-        <v>352</v>
-      </c>
-      <c r="B13" s="74" t="s">
-        <v>289</v>
-      </c>
-      <c r="C13" s="63" t="s">
-        <v>381</v>
-      </c>
-      <c r="D13" s="61" t="s">
-        <v>376</v>
-      </c>
-      <c r="E13" s="61"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="61"/>
-      <c r="I13" s="61"/>
-      <c r="J13" s="61"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="54" t="s">
-        <v>353</v>
-      </c>
-      <c r="B14" s="56" t="s">
-        <v>170</v>
-      </c>
-      <c r="C14" s="65"/>
-      <c r="D14" s="61" t="s">
-        <v>362</v>
-      </c>
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="61"/>
-      <c r="H14" s="61"/>
-      <c r="I14" s="61"/>
-      <c r="J14" s="61"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="54" t="s">
-        <v>354</v>
-      </c>
-      <c r="B15" s="56" t="s">
-        <v>337</v>
-      </c>
-      <c r="C15" s="63"/>
-      <c r="D15" s="61" t="s">
-        <v>363</v>
-      </c>
-      <c r="E15" s="61"/>
-      <c r="F15" s="61"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="61"/>
-      <c r="I15" s="61"/>
-      <c r="J15" s="61"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="54" t="s">
-        <v>355</v>
-      </c>
-      <c r="B16" s="74" t="s">
-        <v>320</v>
-      </c>
-      <c r="C16" s="63" t="s">
-        <v>380</v>
-      </c>
-      <c r="D16" s="63" t="s">
-        <v>375</v>
-      </c>
-      <c r="E16" s="61"/>
-      <c r="F16" s="61"/>
-      <c r="G16" s="61"/>
-      <c r="H16" s="61"/>
-      <c r="I16" s="61"/>
-      <c r="J16" s="61"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="54" t="s">
-        <v>236</v>
-      </c>
-      <c r="B17" s="155" t="s">
-        <v>459</v>
-      </c>
-      <c r="C17" s="63" t="s">
-        <v>372</v>
-      </c>
-      <c r="D17" s="78" t="s">
-        <v>373</v>
-      </c>
-      <c r="E17" s="61"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="61"/>
-      <c r="H17" s="61"/>
-      <c r="I17" s="61"/>
-      <c r="J17" s="61"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="58" t="s">
-        <v>172</v>
-      </c>
-      <c r="B18" s="155" t="s">
-        <v>344</v>
-      </c>
-      <c r="C18" s="63" t="s">
-        <v>379</v>
-      </c>
-      <c r="D18" s="63" t="s">
-        <v>374</v>
-      </c>
-      <c r="E18" s="61"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="61"/>
-      <c r="J18" s="61"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="54" t="s">
-        <v>237</v>
-      </c>
-      <c r="B19" s="155" t="s">
-        <v>269</v>
-      </c>
-      <c r="C19" s="63" t="s">
-        <v>386</v>
-      </c>
-      <c r="D19" s="61" t="s">
-        <v>385</v>
-      </c>
-      <c r="E19" s="61"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="61"/>
-      <c r="I19" s="61"/>
-      <c r="J19" s="61"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="57" t="s">
-        <v>77</v>
-      </c>
-      <c r="B20" s="124" t="s">
-        <v>165</v>
-      </c>
-      <c r="C20" s="65" t="s">
+      <c r="C21" s="64"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="60"/>
+      <c r="G21" s="60"/>
+      <c r="H21" s="60"/>
+      <c r="I21" s="60"/>
+      <c r="J21" s="60"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="53" t="s">
+        <v>356</v>
+      </c>
+      <c r="B22" s="74" t="s">
+        <v>174</v>
+      </c>
+      <c r="C22" s="64" t="s">
         <v>455</v>
       </c>
-      <c r="D20" s="61" t="s">
-        <v>454</v>
-      </c>
-      <c r="E20" s="61"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="61"/>
-      <c r="H20" s="61"/>
-      <c r="I20" s="61"/>
-      <c r="J20" s="61"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="54" t="s">
-        <v>356</v>
-      </c>
-      <c r="B21" s="56" t="s">
-        <v>174</v>
-      </c>
-      <c r="C21" s="65"/>
-      <c r="D21" s="61"/>
-      <c r="E21" s="61"/>
-      <c r="F21" s="61"/>
-      <c r="G21" s="61"/>
-      <c r="H21" s="61"/>
-      <c r="I21" s="61"/>
-      <c r="J21" s="61"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="54" t="s">
-        <v>357</v>
-      </c>
-      <c r="B22" s="75" t="s">
-        <v>175</v>
-      </c>
-      <c r="C22" s="65" t="s">
+      <c r="D22" s="64" t="s">
         <v>456</v>
       </c>
-      <c r="D22" s="65" t="s">
-        <v>457</v>
-      </c>
-      <c r="E22" s="61"/>
-      <c r="F22" s="61"/>
-      <c r="G22" s="61"/>
-      <c r="H22" s="61"/>
-      <c r="I22" s="61"/>
-      <c r="J22" s="61"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="60"/>
+      <c r="G22" s="60"/>
+      <c r="H22" s="60"/>
+      <c r="I22" s="60"/>
+      <c r="J22" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6147,32 +6147,32 @@
   <sheetData>
     <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="B1" s="26" t="s">
         <v>176</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="C1" s="26" t="s">
         <v>177</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="D1" s="26" t="s">
         <v>178</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="E1" s="9" t="s">
         <v>179</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="B2" s="27" t="s">
         <v>181</v>
-      </c>
-      <c r="B2" s="27" t="s">
-        <v>182</v>
       </c>
       <c r="C2" s="27"/>
       <c r="D2" s="27"/>
       <c r="E2" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -6180,25 +6180,25 @@
         <v>110</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C3" s="29"/>
       <c r="D3" s="29"/>
       <c r="E3" s="30" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="28" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C4" s="29"/>
       <c r="D4" s="29"/>
       <c r="E4" s="30" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -6206,20 +6206,20 @@
         <v>34</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C5" s="29"/>
       <c r="D5" s="29"/>
       <c r="E5" s="30" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="B6" s="31" t="s">
         <v>187</v>
-      </c>
-      <c r="B6" s="31" t="s">
-        <v>188</v>
       </c>
       <c r="C6" s="27"/>
       <c r="D6" s="27"/>
@@ -6227,10 +6227,10 @@
     </row>
     <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="B7" s="31" t="s">
         <v>189</v>
-      </c>
-      <c r="B7" s="31" t="s">
-        <v>190</v>
       </c>
       <c r="C7" s="27"/>
       <c r="D7" s="27"/>
@@ -6238,10 +6238,10 @@
     </row>
     <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="31" t="s">
+        <v>190</v>
+      </c>
+      <c r="B8" s="31" t="s">
         <v>191</v>
-      </c>
-      <c r="B8" s="31" t="s">
-        <v>192</v>
       </c>
       <c r="C8" s="27"/>
       <c r="D8" s="27"/>
@@ -6256,16 +6256,16 @@
     </row>
     <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="C10" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="B10" s="28" t="s">
-        <v>184</v>
-      </c>
-      <c r="C10" s="29" t="s">
+      <c r="D10" s="29" t="s">
         <v>194</v>
-      </c>
-      <c r="D10" s="29" t="s">
-        <v>195</v>
       </c>
       <c r="E10" s="33"/>
     </row>
@@ -6274,121 +6274,121 @@
         <v>109</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C11" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="D11" s="29" t="s">
         <v>196</v>
       </c>
-      <c r="D11" s="29" t="s">
+      <c r="E11" s="34" t="s">
         <v>197</v>
-      </c>
-      <c r="E11" s="34" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>193</v>
+      </c>
+      <c r="D12" s="29" t="s">
         <v>199</v>
       </c>
-      <c r="B12" s="28" t="s">
-        <v>184</v>
-      </c>
-      <c r="C12" s="29" t="s">
-        <v>194</v>
-      </c>
-      <c r="D12" s="29" t="s">
+      <c r="E12" s="34" t="s">
         <v>200</v>
-      </c>
-      <c r="E12" s="34" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A13" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="C13" s="29" t="s">
         <v>202</v>
       </c>
-      <c r="B13" s="28" t="s">
-        <v>184</v>
-      </c>
-      <c r="C13" s="29" t="s">
+      <c r="D13" s="29" t="s">
         <v>203</v>
-      </c>
-      <c r="D13" s="29" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="27" t="s">
+        <v>204</v>
+      </c>
+      <c r="B14" s="31" t="s">
         <v>205</v>
       </c>
-      <c r="B14" s="31" t="s">
+      <c r="C14" s="27" t="s">
         <v>206</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="D14" s="27" t="s">
         <v>207</v>
       </c>
-      <c r="D14" s="27" t="s">
+      <c r="E14" s="32" t="s">
         <v>208</v>
-      </c>
-      <c r="E14" s="32" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="29" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C15" s="29" t="s">
+        <v>193</v>
+      </c>
+      <c r="D15" s="29" t="s">
         <v>194</v>
-      </c>
-      <c r="D15" s="29" t="s">
-        <v>195</v>
       </c>
       <c r="E15" s="33"/>
     </row>
     <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="29" t="s">
+        <v>210</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="C16" s="29" t="s">
         <v>211</v>
       </c>
-      <c r="B16" s="28" t="s">
-        <v>184</v>
-      </c>
-      <c r="C16" s="29" t="s">
+      <c r="D16" s="29" t="s">
         <v>212</v>
       </c>
-      <c r="D16" s="29" t="s">
+      <c r="E16" s="35" t="s">
         <v>213</v>
-      </c>
-      <c r="E16" s="35" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="29" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C17" s="36" t="s">
+        <v>214</v>
+      </c>
+      <c r="D17" s="29" t="s">
         <v>215</v>
       </c>
-      <c r="D17" s="29" t="s">
+      <c r="E17" s="37" t="s">
         <v>216</v>
-      </c>
-      <c r="E17" s="37" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="28" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C18" s="38"/>
       <c r="D18" s="27"/>
@@ -6399,16 +6399,16 @@
         <v>64</v>
       </c>
       <c r="B19" s="40" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C19" s="41" t="s">
+        <v>218</v>
+      </c>
+      <c r="D19" s="28" t="s">
         <v>219</v>
       </c>
-      <c r="D19" s="28" t="s">
+      <c r="E19" s="42" t="s">
         <v>220</v>
-      </c>
-      <c r="E19" s="42" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -6420,18 +6420,18 @@
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="44" t="s">
+        <v>221</v>
+      </c>
+      <c r="B21" s="31" t="s">
         <v>222</v>
-      </c>
-      <c r="B21" s="31" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="44" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B22" s="31" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6440,74 +6440,74 @@
     </row>
     <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="45" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B24" s="28" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="34" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B25" s="28" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="32" t="s">
+        <v>226</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>227</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="32" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="32" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="32" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="32" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="32" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="32" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7501,128 +7501,128 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="139" t="s">
+      <c r="A1" s="140" t="s">
+        <v>438</v>
+      </c>
+      <c r="B1" s="152"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="70" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="70" t="s">
+        <v>440</v>
+      </c>
+      <c r="C2" s="70" t="s">
         <v>439</v>
       </c>
-      <c r="B1" s="151"/>
-      <c r="C1" s="151"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="71" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="71" t="s">
-        <v>441</v>
-      </c>
-      <c r="C2" s="71" t="s">
-        <v>440</v>
-      </c>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="111" t="str">
+      <c r="A3" s="110" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1h79fqthLoRJDjhC2klnjbkG8MB2JL2Hy","1A")</f>
         <v>1A</v>
       </c>
-      <c r="B3" s="113" t="s">
-        <v>442</v>
-      </c>
-      <c r="C3" s="115" t="s">
-        <v>444</v>
-      </c>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="90"/>
+      <c r="B3" s="112" t="s">
+        <v>441</v>
+      </c>
+      <c r="C3" s="114" t="s">
+        <v>443</v>
+      </c>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="89"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="111" t="str">
+      <c r="A4" s="110" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1OPl2VmHH1ZeMZjQWNCCkQkA6bOfyIeqj","1B")</f>
         <v>1B</v>
       </c>
-      <c r="B4" s="113" t="s">
-        <v>442</v>
-      </c>
-      <c r="C4" s="115" t="s">
+      <c r="B4" s="112" t="s">
+        <v>441</v>
+      </c>
+      <c r="C4" s="114" t="s">
         <v>48</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
-      <c r="F4" s="109"/>
+      <c r="F4" s="108"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="112" t="str">
+      <c r="A5" s="111" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1_67Lwh4ATjaUkKTpdhqNA2vhhSxMhfoh","1C")</f>
         <v>1C</v>
       </c>
-      <c r="B5" s="114" t="s">
+      <c r="B5" s="113" t="s">
+        <v>442</v>
+      </c>
+      <c r="C5" s="114" t="s">
         <v>443</v>
-      </c>
-      <c r="C5" s="115" t="s">
-        <v>444</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="112" t="str">
+      <c r="A6" s="111" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1RDZathABUe1AxNllos18oBRUGkUw-BAb","1D")</f>
         <v>1D</v>
       </c>
-      <c r="B6" s="113" t="s">
-        <v>442</v>
-      </c>
-      <c r="C6" s="115" t="s">
+      <c r="B6" s="112" t="s">
+        <v>441</v>
+      </c>
+      <c r="C6" s="114" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="109"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="108"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="112" t="str">
+      <c r="A7" s="111" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1B7jEgQfvgjZIKbfW8eR9qm2PDLYRcFFX","1E")</f>
         <v>1E</v>
       </c>
-      <c r="B7" s="114" t="s">
-        <v>443</v>
-      </c>
-      <c r="C7" s="116" t="s">
+      <c r="B7" s="113" t="s">
+        <v>442</v>
+      </c>
+      <c r="C7" s="115" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
       <c r="F7" s="9"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="112" t="str">
+      <c r="A8" s="111" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1y8psJsldf8GOPKXdI3_7jAN-0VefmuVb","1F")</f>
         <v>1F</v>
       </c>
-      <c r="B8" s="113" t="s">
-        <v>442</v>
-      </c>
-      <c r="C8" s="115" t="s">
-        <v>444</v>
+      <c r="B8" s="112" t="s">
+        <v>441</v>
+      </c>
+      <c r="C8" s="114" t="s">
+        <v>443</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
-      <c r="F8" s="109"/>
+      <c r="F8" s="108"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="111" t="str">
+      <c r="A9" s="110" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1Ak0bagtonjeBe0T45ml7mh9V5vKH_FoI","1G")</f>
         <v>1G</v>
       </c>
-      <c r="B9" s="114" t="s">
-        <v>443</v>
-      </c>
-      <c r="C9" s="116" t="s">
+      <c r="B9" s="113" t="s">
+        <v>442</v>
+      </c>
+      <c r="C9" s="115" t="s">
         <v>48</v>
       </c>
       <c r="D9" s="9"/>
@@ -7630,29 +7630,29 @@
       <c r="F9" s="9"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="111" t="str">
+      <c r="A10" s="110" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=15tp_vGgbK5-4zzthz0W8wuq2zgKokja6","1H")</f>
         <v>1H</v>
       </c>
-      <c r="B10" s="114" t="s">
+      <c r="B10" s="113" t="s">
+        <v>442</v>
+      </c>
+      <c r="C10" s="114" t="s">
         <v>443</v>
-      </c>
-      <c r="C10" s="115" t="s">
-        <v>444</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
-      <c r="F10" s="109"/>
+      <c r="F10" s="108"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="111" t="str">
+      <c r="A11" s="110" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1EMft8Du0dvrSSlstsShqV16Nnrlb4EO_","1J")</f>
         <v>1J</v>
       </c>
-      <c r="B11" s="113" t="s">
-        <v>442</v>
-      </c>
-      <c r="C11" s="115" t="s">
+      <c r="B11" s="112" t="s">
+        <v>441</v>
+      </c>
+      <c r="C11" s="114" t="s">
         <v>48</v>
       </c>
       <c r="D11" s="9"/>
@@ -7660,119 +7660,119 @@
       <c r="F11" s="9"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="111" t="str">
+      <c r="A12" s="110" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1B-AwkTkUdHQS0dThuP6mM5L_0XIFZ2QS","1K")</f>
         <v>1K</v>
       </c>
-      <c r="B12" s="114" t="s">
+      <c r="B12" s="113" t="s">
+        <v>442</v>
+      </c>
+      <c r="C12" s="114" t="s">
         <v>443</v>
-      </c>
-      <c r="C12" s="115" t="s">
-        <v>444</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
-      <c r="F12" s="109"/>
+      <c r="F12" s="108"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="111" t="str">
+      <c r="A13" s="110" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1XILFfrJerwAeHeN4xKdQH-99VN9y0QS7","2A")</f>
         <v>2A</v>
       </c>
-      <c r="B13" s="114" t="s">
+      <c r="B13" s="113" t="s">
+        <v>442</v>
+      </c>
+      <c r="C13" s="114" t="s">
         <v>443</v>
-      </c>
-      <c r="C13" s="115" t="s">
-        <v>444</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
-      <c r="F13" s="109"/>
+      <c r="F13" s="108"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="111" t="str">
+      <c r="A14" s="110" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1i7lErxBcw13LxRubiAB_0upxTGrTLBvi","2B")</f>
         <v>2B</v>
       </c>
-      <c r="B14" s="114" t="s">
+      <c r="B14" s="113" t="s">
+        <v>442</v>
+      </c>
+      <c r="C14" s="114" t="s">
         <v>443</v>
-      </c>
-      <c r="C14" s="115" t="s">
-        <v>444</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
-      <c r="F14" s="109"/>
+      <c r="F14" s="108"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="111" t="str">
+      <c r="A15" s="110" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1HmSkhlRiy_w_xIcPrlD-Gu21Q1sHCajk","2C")</f>
         <v>2C</v>
       </c>
-      <c r="B15" s="114" t="s">
-        <v>443</v>
-      </c>
-      <c r="C15" s="115" t="s">
+      <c r="B15" s="113" t="s">
+        <v>442</v>
+      </c>
+      <c r="C15" s="114" t="s">
         <v>48</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
-      <c r="F15" s="109"/>
+      <c r="F15" s="108"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="111" t="str">
+      <c r="A16" s="110" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1ih9AM9nSu6WpURV8EnXu6Q1HkOh5dSXM","2D")</f>
         <v>2D</v>
       </c>
-      <c r="B16" s="113" t="s">
-        <v>442</v>
-      </c>
-      <c r="C16" s="115" t="s">
+      <c r="B16" s="112" t="s">
+        <v>441</v>
+      </c>
+      <c r="C16" s="114" t="s">
         <v>48</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
-      <c r="F16" s="109"/>
+      <c r="F16" s="108"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="111" t="str">
+      <c r="A17" s="110" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1ilbwUzFLn2Zr9CQ_v673T9KjSALf_GzB","2E")</f>
         <v>2E</v>
       </c>
-      <c r="B17" s="114" t="s">
+      <c r="B17" s="113" t="s">
+        <v>442</v>
+      </c>
+      <c r="C17" s="114" t="s">
         <v>443</v>
-      </c>
-      <c r="C17" s="115" t="s">
-        <v>444</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
-      <c r="F17" s="109"/>
+      <c r="F17" s="108"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="111" t="str">
+      <c r="A18" s="110" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1H2B7fJmOymk8ZeyITqVgqJIR9EbewGjs","2F")</f>
         <v>2F</v>
       </c>
-      <c r="B18" s="113" t="s">
-        <v>442</v>
-      </c>
-      <c r="C18" s="115" t="s">
+      <c r="B18" s="112" t="s">
+        <v>441</v>
+      </c>
+      <c r="C18" s="114" t="s">
         <v>48</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
-      <c r="F18" s="109"/>
+      <c r="F18" s="108"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="111" t="str">
+      <c r="A19" s="110" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1GXDi1coA9HtIo5F2GTLcPhpAh_IiHrmJ","2G")</f>
         <v>2G</v>
       </c>
-      <c r="B19" s="113" t="s">
-        <v>442</v>
-      </c>
-      <c r="C19" s="115" t="s">
+      <c r="B19" s="112" t="s">
+        <v>441</v>
+      </c>
+      <c r="C19" s="114" t="s">
         <v>48</v>
       </c>
       <c r="D19" s="9"/>
@@ -7780,149 +7780,149 @@
       <c r="F19" s="9"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="111" t="str">
+      <c r="A20" s="110" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=18itspidwzvb4KFHkqj1122TxuhHxILwX","2H")</f>
         <v>2H</v>
       </c>
-      <c r="B20" s="114" t="s">
+      <c r="B20" s="113" t="s">
+        <v>442</v>
+      </c>
+      <c r="C20" s="114" t="s">
         <v>443</v>
       </c>
-      <c r="C20" s="115" t="s">
-        <v>444</v>
-      </c>
-      <c r="D20" s="108"/>
+      <c r="D20" s="107"/>
       <c r="E20" s="9"/>
-      <c r="F20" s="109"/>
+      <c r="F20" s="108"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="111" t="str">
+      <c r="A21" s="110" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=12YgGEJrua5a-agu15lV4vezflw1cOjQ4","2J")</f>
         <v>2J</v>
       </c>
-      <c r="B21" s="114" t="s">
+      <c r="B21" s="113" t="s">
+        <v>442</v>
+      </c>
+      <c r="C21" s="114" t="s">
         <v>443</v>
       </c>
-      <c r="C21" s="115" t="s">
-        <v>444</v>
-      </c>
-      <c r="D21" s="79"/>
-      <c r="E21" s="79"/>
-      <c r="F21" s="109"/>
+      <c r="D21" s="78"/>
+      <c r="E21" s="78"/>
+      <c r="F21" s="108"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="111" t="str">
+      <c r="A22" s="110" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1mdMrKj4CCNPy7BlChSDOU2hQAJONhZzU","2K")</f>
         <v>2K</v>
       </c>
-      <c r="B22" s="114" t="s">
-        <v>443</v>
-      </c>
-      <c r="C22" s="115" t="s">
+      <c r="B22" s="113" t="s">
+        <v>442</v>
+      </c>
+      <c r="C22" s="114" t="s">
         <v>48</v>
       </c>
-      <c r="D22" s="79"/>
-      <c r="E22" s="79"/>
-      <c r="F22" s="109"/>
+      <c r="D22" s="78"/>
+      <c r="E22" s="78"/>
+      <c r="F22" s="108"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="111" t="str">
+      <c r="A23" s="110" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=14mzIl-szkFL_WWXlsFZ9T_x3Mt5RAOn0","2L")</f>
         <v>2L</v>
       </c>
-      <c r="B23" s="114" t="s">
-        <v>443</v>
-      </c>
-      <c r="C23" s="115" t="s">
+      <c r="B23" s="113" t="s">
+        <v>442</v>
+      </c>
+      <c r="C23" s="114" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="79"/>
-      <c r="E23" s="79"/>
-      <c r="F23" s="109"/>
+      <c r="D23" s="78"/>
+      <c r="E23" s="78"/>
+      <c r="F23" s="108"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="111" t="str">
+      <c r="A24" s="110" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1-X_VRvOqUUm_bcQ792NJw8TTxR5Kl3lr","2M")</f>
         <v>2M</v>
       </c>
-      <c r="B24" s="114" t="s">
+      <c r="B24" s="113" t="s">
+        <v>442</v>
+      </c>
+      <c r="C24" s="114" t="s">
         <v>443</v>
       </c>
-      <c r="C24" s="115" t="s">
-        <v>444</v>
-      </c>
-      <c r="D24" s="108"/>
-      <c r="E24" s="79"/>
+      <c r="D24" s="107"/>
+      <c r="E24" s="78"/>
       <c r="F24" s="9"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="111" t="str">
+      <c r="A25" s="110" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1ofYuI7zJYOx0Em5kOgymDe9L2TWaIZ-_","3C")</f>
         <v>3C</v>
       </c>
-      <c r="B25" s="114" t="s">
+      <c r="B25" s="113" t="s">
+        <v>442</v>
+      </c>
+      <c r="C25" s="114" t="s">
         <v>443</v>
       </c>
-      <c r="C25" s="115" t="s">
-        <v>444</v>
-      </c>
-      <c r="D25" s="108"/>
+      <c r="D25" s="107"/>
       <c r="E25" s="9"/>
-      <c r="F25" s="109"/>
+      <c r="F25" s="108"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="111" t="str">
+      <c r="A26" s="110" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1X9eTLHcdh-lSX2OXG4OLDNwPRG5eoz9l","3D")</f>
         <v>3D</v>
       </c>
-      <c r="B26" s="114" t="s">
-        <v>443</v>
-      </c>
-      <c r="C26" s="116" t="s">
+      <c r="B26" s="113" t="s">
+        <v>442</v>
+      </c>
+      <c r="C26" s="115" t="s">
         <v>48</v>
       </c>
-      <c r="D26" s="79"/>
-      <c r="E26" s="79"/>
+      <c r="D26" s="78"/>
+      <c r="E26" s="78"/>
       <c r="F26" s="9"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="111" t="str">
+      <c r="A27" s="110" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1m_ACLfEw9sFFcCd16wQnkI9wa3WI7gK9","3E")</f>
         <v>3E</v>
       </c>
-      <c r="B27" s="113" t="s">
-        <v>442</v>
-      </c>
-      <c r="C27" s="115" t="s">
+      <c r="B27" s="112" t="s">
+        <v>441</v>
+      </c>
+      <c r="C27" s="114" t="s">
         <v>48</v>
       </c>
-      <c r="D27" s="79"/>
-      <c r="E27" s="80"/>
-      <c r="F27" s="109"/>
+      <c r="D27" s="78"/>
+      <c r="E27" s="79"/>
+      <c r="F27" s="108"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="111" t="str">
+      <c r="A28" s="110" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1CIBdXiHhWBrM6LwlY-yGooPill1DRTQ7","3F")</f>
         <v>3F</v>
       </c>
-      <c r="B28" s="115" t="s">
+      <c r="B28" s="114" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="115" t="s">
+      <c r="C28" s="114" t="s">
         <v>48</v>
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
-      <c r="F28" s="108"/>
+      <c r="F28" s="107"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="111" t="str">
+      <c r="A29" s="110" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1c2xmouFbs4cNAvpeHuAdgNreh8kFEC2V","3G")</f>
         <v>3G</v>
       </c>
-      <c r="B29" s="115" t="s">
+      <c r="B29" s="114" t="s">
         <v>48</v>
       </c>
-      <c r="C29" s="115" t="s">
+      <c r="C29" s="114" t="s">
         <v>48</v>
       </c>
       <c r="D29" s="9"/>
@@ -7930,14 +7930,14 @@
       <c r="F29" s="9"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="111" t="str">
+      <c r="A30" s="110" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1t7wkFvS4sGjdMU60zYacdFSrl4pYayl_","3H")</f>
         <v>3H</v>
       </c>
-      <c r="B30" s="115" t="s">
+      <c r="B30" s="114" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="115" t="s">
+      <c r="C30" s="114" t="s">
         <v>48</v>
       </c>
       <c r="D30" s="9"/>
@@ -7945,44 +7945,44 @@
       <c r="F30" s="9"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="111" t="str">
+      <c r="A31" s="110" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1N0-R1KTkpoZjXWmN7r0U_myR9XBY5SDj","3J")</f>
         <v>3J</v>
       </c>
-      <c r="B31" s="113" t="s">
-        <v>442</v>
-      </c>
-      <c r="C31" s="115" t="s">
+      <c r="B31" s="112" t="s">
+        <v>441</v>
+      </c>
+      <c r="C31" s="114" t="s">
         <v>48</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
-      <c r="F31" s="109"/>
+      <c r="F31" s="108"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="111" t="str">
+      <c r="A32" s="110" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=13pmWKIsTMFsSuBTJ-HZb5DVIowIXTS_s","3L")</f>
         <v>3L</v>
       </c>
-      <c r="B32" s="114" t="s">
+      <c r="B32" s="113" t="s">
+        <v>442</v>
+      </c>
+      <c r="C32" s="114" t="s">
         <v>443</v>
-      </c>
-      <c r="C32" s="115" t="s">
-        <v>444</v>
       </c>
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
-      <c r="F32" s="109"/>
+      <c r="F32" s="108"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="111" t="str">
+      <c r="A33" s="110" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=16nGNQgv2r19h9agxYjXmQ8rC4v330dYf","4E")</f>
         <v>4E</v>
       </c>
-      <c r="B33" s="113" t="s">
-        <v>442</v>
-      </c>
-      <c r="C33" s="115" t="s">
+      <c r="B33" s="112" t="s">
+        <v>441</v>
+      </c>
+      <c r="C33" s="114" t="s">
         <v>48</v>
       </c>
       <c r="D33" s="9"/>
@@ -7990,14 +7990,14 @@
       <c r="F33" s="9"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="111" t="str">
+      <c r="A34" s="110" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1bmJc7h6PrfobWHjtATEPhVDZqxi3ORaa","4F")</f>
         <v>4F</v>
       </c>
-      <c r="B34" s="113" t="s">
-        <v>442</v>
-      </c>
-      <c r="C34" s="115" t="s">
+      <c r="B34" s="112" t="s">
+        <v>441</v>
+      </c>
+      <c r="C34" s="114" t="s">
         <v>48</v>
       </c>
       <c r="D34" s="9"/>
@@ -8005,29 +8005,29 @@
       <c r="F34" s="9"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="111" t="str">
+      <c r="A35" s="110" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1nHAP6VZOPX4PWClDeQpEHh4MuzIQchEa","4G")</f>
         <v>4G</v>
       </c>
-      <c r="B35" s="113" t="s">
-        <v>442</v>
-      </c>
-      <c r="C35" s="115" t="s">
-        <v>444</v>
+      <c r="B35" s="112" t="s">
+        <v>441</v>
+      </c>
+      <c r="C35" s="114" t="s">
+        <v>443</v>
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
-      <c r="F35" s="109"/>
+      <c r="F35" s="108"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="111" t="str">
+      <c r="A36" s="110" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1a78u8iOyRFbuJtQlj9X51FknS9EfCDih","4H")</f>
         <v>4H</v>
       </c>
-      <c r="B36" s="113" t="s">
-        <v>442</v>
-      </c>
-      <c r="C36" s="115" t="s">
+      <c r="B36" s="112" t="s">
+        <v>441</v>
+      </c>
+      <c r="C36" s="114" t="s">
         <v>48</v>
       </c>
       <c r="D36" s="9"/>
@@ -8035,124 +8035,124 @@
       <c r="F36" s="9"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="111" t="str">
+      <c r="A37" s="110" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1zZjefBVzFC9BP-YmMKfQZMWa1XGkqomj","4J")</f>
         <v>4J</v>
       </c>
-      <c r="B37" s="114" t="s">
+      <c r="B37" s="113" t="s">
+        <v>442</v>
+      </c>
+      <c r="C37" s="114" t="s">
         <v>443</v>
       </c>
-      <c r="C37" s="115" t="s">
-        <v>444</v>
-      </c>
-      <c r="D37" s="108"/>
+      <c r="D37" s="107"/>
       <c r="E37" s="9"/>
-      <c r="F37" s="109"/>
+      <c r="F37" s="108"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="111" t="str">
+      <c r="A38" s="110" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1qWFlabv0TeVOBvOIJQuvHlR1H3AMOPvN","4K")</f>
         <v>4K</v>
       </c>
-      <c r="B38" s="113" t="s">
-        <v>442</v>
-      </c>
-      <c r="C38" s="115" t="s">
+      <c r="B38" s="112" t="s">
+        <v>441</v>
+      </c>
+      <c r="C38" s="114" t="s">
         <v>48</v>
       </c>
       <c r="D38" s="9"/>
       <c r="E38" s="9"/>
-      <c r="F38" s="109"/>
+      <c r="F38" s="108"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="111" t="str">
+      <c r="A39" s="110" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=176NV2NM9yvfuW1EMU3iBS768FxgmXjUS","4L")</f>
         <v>4L</v>
       </c>
-      <c r="B39" s="113" t="s">
-        <v>442</v>
-      </c>
-      <c r="C39" s="115" t="s">
+      <c r="B39" s="112" t="s">
+        <v>441</v>
+      </c>
+      <c r="C39" s="114" t="s">
         <v>48</v>
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="9"/>
-      <c r="F39" s="109"/>
+      <c r="F39" s="108"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="111" t="str">
+      <c r="A40" s="110" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1cC0P-G66cPSNnf6v6z8opZCNyporo74Y","5B")</f>
         <v>5B</v>
       </c>
-      <c r="B40" s="114" t="s">
-        <v>443</v>
-      </c>
-      <c r="C40" s="116" t="s">
+      <c r="B40" s="113" t="s">
+        <v>442</v>
+      </c>
+      <c r="C40" s="115" t="s">
         <v>48</v>
       </c>
-      <c r="D40" s="108"/>
+      <c r="D40" s="107"/>
       <c r="E40" s="9"/>
-      <c r="F40" s="109"/>
+      <c r="F40" s="108"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="111" t="str">
+      <c r="A41" s="110" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1q_N74b1OZrCze7zuXy5fm0ASU07tWzh3","5C")</f>
         <v>5C</v>
       </c>
-      <c r="B41" s="113" t="s">
-        <v>442</v>
-      </c>
-      <c r="C41" s="115" t="s">
-        <v>444</v>
+      <c r="B41" s="112" t="s">
+        <v>441</v>
+      </c>
+      <c r="C41" s="114" t="s">
+        <v>443</v>
       </c>
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
-      <c r="F41" s="109"/>
+      <c r="F41" s="108"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="111" t="str">
+      <c r="A42" s="110" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1aKSCelAY002Ihje9mdJi7jFh0OB4j8XZ","5E")</f>
         <v>5E</v>
       </c>
-      <c r="B42" s="113" t="s">
-        <v>442</v>
-      </c>
-      <c r="C42" s="115" t="s">
+      <c r="B42" s="112" t="s">
+        <v>441</v>
+      </c>
+      <c r="C42" s="114" t="s">
         <v>48</v>
       </c>
       <c r="D42" s="9"/>
       <c r="E42" s="9"/>
-      <c r="F42" s="109"/>
+      <c r="F42" s="108"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="111" t="str">
+      <c r="A43" s="110" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1ghdX_COwJq4oYlhj-qYPypK_2GlrWyQZ","5G")</f>
         <v>5G</v>
       </c>
-      <c r="B43" s="113" t="s">
-        <v>442</v>
-      </c>
-      <c r="C43" s="115" t="s">
+      <c r="B43" s="112" t="s">
+        <v>441</v>
+      </c>
+      <c r="C43" s="114" t="s">
         <v>48</v>
       </c>
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
-      <c r="F43" s="109"/>
+      <c r="F43" s="108"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="111" t="str">
+      <c r="A44" s="110" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1MR24L4GDI5x861k8SMrgm71xRfm55Hiv","5H")</f>
         <v>5H</v>
       </c>
-      <c r="B44" s="113" t="s">
-        <v>442</v>
-      </c>
-      <c r="C44" s="115" t="s">
+      <c r="B44" s="112" t="s">
+        <v>441</v>
+      </c>
+      <c r="C44" s="114" t="s">
         <v>48</v>
       </c>
       <c r="D44" s="9"/>
       <c r="E44" s="9"/>
-      <c r="F44" s="109"/>
+      <c r="F44" s="108"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8182,761 +8182,761 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="85" t="s">
+        <v>395</v>
+      </c>
+      <c r="B1" s="86" t="s">
+        <v>416</v>
+      </c>
+      <c r="C1" s="86" t="s">
+        <v>415</v>
+      </c>
+      <c r="D1" s="153" t="s">
+        <v>262</v>
+      </c>
+      <c r="E1" s="153"/>
+      <c r="F1" s="95" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="83" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="9"/>
+      <c r="D2" s="155"/>
+      <c r="E2" s="155"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+    </row>
+    <row r="3" spans="1:9" s="83" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="84" t="s">
         <v>396</v>
       </c>
-      <c r="B1" s="87" t="s">
+      <c r="B3" s="90">
+        <v>62</v>
+      </c>
+      <c r="C3" s="90">
+        <v>55</v>
+      </c>
+      <c r="D3" s="154" t="s">
         <v>417</v>
       </c>
-      <c r="C1" s="87" t="s">
-        <v>416</v>
-      </c>
-      <c r="D1" s="154" t="s">
-        <v>263</v>
-      </c>
-      <c r="E1" s="154"/>
-      <c r="F1" s="96" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="84" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="9"/>
-      <c r="D2" s="153"/>
-      <c r="E2" s="153"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-    </row>
-    <row r="3" spans="1:9" s="84" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="85" t="s">
+      <c r="E3" s="155"/>
+      <c r="F3" s="87" t="s">
+        <v>254</v>
+      </c>
+      <c r="G3" s="89"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="89"/>
+    </row>
+    <row r="4" spans="1:9" s="83" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="84" t="s">
         <v>397</v>
       </c>
-      <c r="B3" s="91">
-        <v>62</v>
-      </c>
-      <c r="C3" s="91">
-        <v>55</v>
-      </c>
-      <c r="D3" s="152" t="s">
+      <c r="D4" s="155"/>
+      <c r="E4" s="155"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="92"/>
+      <c r="I4" s="89"/>
+    </row>
+    <row r="5" spans="1:9" s="83" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="84" t="s">
+        <v>398</v>
+      </c>
+      <c r="B5" s="90">
+        <v>44</v>
+      </c>
+      <c r="C5" s="90">
+        <v>43</v>
+      </c>
+      <c r="D5" s="155"/>
+      <c r="E5" s="155"/>
+      <c r="F5" s="87" t="s">
+        <v>254</v>
+      </c>
+      <c r="G5" s="89"/>
+      <c r="H5" s="92"/>
+      <c r="I5" s="89"/>
+    </row>
+    <row r="6" spans="1:9" s="83" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="84" t="s">
+        <v>399</v>
+      </c>
+      <c r="B6" s="90">
+        <v>47</v>
+      </c>
+      <c r="C6" s="90">
+        <v>52</v>
+      </c>
+      <c r="D6" s="154" t="s">
+        <v>419</v>
+      </c>
+      <c r="E6" s="155"/>
+      <c r="F6" s="87" t="s">
+        <v>254</v>
+      </c>
+      <c r="G6" s="89"/>
+      <c r="H6" s="94"/>
+      <c r="I6" s="89"/>
+    </row>
+    <row r="7" spans="1:9" s="83" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="84" t="s">
+        <v>400</v>
+      </c>
+      <c r="B7" s="90">
+        <v>75</v>
+      </c>
+      <c r="C7" s="90">
+        <v>82</v>
+      </c>
+      <c r="D7" s="154" t="s">
+        <v>419</v>
+      </c>
+      <c r="E7" s="155"/>
+      <c r="F7" s="87" t="s">
+        <v>254</v>
+      </c>
+      <c r="G7" s="89"/>
+      <c r="H7" s="92"/>
+      <c r="I7" s="89"/>
+    </row>
+    <row r="8" spans="1:9" s="83" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="84" t="s">
+        <v>401</v>
+      </c>
+      <c r="B8" s="90">
+        <v>85</v>
+      </c>
+      <c r="C8" s="90">
+        <v>99</v>
+      </c>
+      <c r="D8" s="154" t="s">
         <v>418</v>
       </c>
-      <c r="E3" s="153"/>
-      <c r="F3" s="88" t="s">
-        <v>255</v>
-      </c>
-      <c r="G3" s="90"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="90"/>
-    </row>
-    <row r="4" spans="1:9" s="84" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="85" t="s">
-        <v>398</v>
-      </c>
-      <c r="D4" s="153"/>
-      <c r="E4" s="153"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="93"/>
-      <c r="I4" s="90"/>
-    </row>
-    <row r="5" spans="1:9" s="84" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="85" t="s">
-        <v>399</v>
-      </c>
-      <c r="B5" s="91">
-        <v>44</v>
-      </c>
-      <c r="C5" s="91">
-        <v>43</v>
-      </c>
-      <c r="D5" s="153"/>
-      <c r="E5" s="153"/>
-      <c r="F5" s="88" t="s">
-        <v>255</v>
-      </c>
-      <c r="G5" s="90"/>
-      <c r="H5" s="93"/>
-      <c r="I5" s="90"/>
-    </row>
-    <row r="6" spans="1:9" s="84" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="85" t="s">
-        <v>400</v>
-      </c>
-      <c r="B6" s="91">
-        <v>47</v>
-      </c>
-      <c r="C6" s="91">
-        <v>52</v>
-      </c>
-      <c r="D6" s="152" t="s">
-        <v>420</v>
-      </c>
-      <c r="E6" s="153"/>
-      <c r="F6" s="88" t="s">
-        <v>255</v>
-      </c>
-      <c r="G6" s="90"/>
-      <c r="H6" s="95"/>
-      <c r="I6" s="90"/>
-    </row>
-    <row r="7" spans="1:9" s="84" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="85" t="s">
-        <v>401</v>
-      </c>
-      <c r="B7" s="91">
-        <v>75</v>
-      </c>
-      <c r="C7" s="91">
-        <v>82</v>
-      </c>
-      <c r="D7" s="152" t="s">
-        <v>420</v>
-      </c>
-      <c r="E7" s="153"/>
-      <c r="F7" s="88" t="s">
-        <v>255</v>
-      </c>
-      <c r="G7" s="90"/>
-      <c r="H7" s="93"/>
-      <c r="I7" s="90"/>
-    </row>
-    <row r="8" spans="1:9" s="84" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="85" t="s">
+      <c r="E8" s="155"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="89"/>
+      <c r="H8" s="92"/>
+      <c r="I8" s="89"/>
+    </row>
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="84" t="s">
         <v>402</v>
       </c>
-      <c r="B8" s="91">
-        <v>85</v>
-      </c>
-      <c r="C8" s="91">
-        <v>99</v>
-      </c>
-      <c r="D8" s="152" t="s">
+      <c r="B9" s="90">
+        <v>15</v>
+      </c>
+      <c r="C9" s="90">
+        <v>23</v>
+      </c>
+      <c r="D9" s="154" t="s">
+        <v>417</v>
+      </c>
+      <c r="E9" s="155"/>
+      <c r="F9" s="87" t="s">
+        <v>254</v>
+      </c>
+      <c r="G9" s="89"/>
+      <c r="H9" s="92"/>
+      <c r="I9" s="89"/>
+    </row>
+    <row r="10" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="84" t="s">
+        <v>403</v>
+      </c>
+      <c r="B10" s="91"/>
+      <c r="C10" s="90"/>
+      <c r="D10" s="155"/>
+      <c r="E10" s="155"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="89"/>
+      <c r="H10" s="92"/>
+      <c r="I10" s="89"/>
+    </row>
+    <row r="11" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="84" t="s">
+        <v>404</v>
+      </c>
+      <c r="B11" s="92"/>
+      <c r="C11" s="90"/>
+      <c r="D11" s="155"/>
+      <c r="E11" s="155"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="89"/>
+      <c r="H11" s="92"/>
+      <c r="I11" s="89"/>
+    </row>
+    <row r="12" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="84" t="s">
+        <v>405</v>
+      </c>
+      <c r="B12" s="92">
+        <v>57</v>
+      </c>
+      <c r="C12" s="90">
+        <v>59</v>
+      </c>
+      <c r="D12" s="154" t="s">
+        <v>417</v>
+      </c>
+      <c r="E12" s="155"/>
+      <c r="F12" s="87" t="s">
+        <v>254</v>
+      </c>
+      <c r="G12" s="89"/>
+      <c r="H12" s="92"/>
+      <c r="I12" s="89"/>
+    </row>
+    <row r="13" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="84" t="s">
+        <v>406</v>
+      </c>
+      <c r="B13" s="92">
+        <v>37</v>
+      </c>
+      <c r="C13" s="90">
+        <v>56</v>
+      </c>
+      <c r="D13" s="154" t="s">
         <v>419</v>
       </c>
-      <c r="E8" s="153"/>
-      <c r="F8" s="89"/>
-      <c r="G8" s="90"/>
-      <c r="H8" s="93"/>
-      <c r="I8" s="90"/>
-    </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="85" t="s">
-        <v>403</v>
-      </c>
-      <c r="B9" s="91">
-        <v>15</v>
-      </c>
-      <c r="C9" s="91">
-        <v>23</v>
-      </c>
-      <c r="D9" s="152" t="s">
-        <v>418</v>
-      </c>
-      <c r="E9" s="153"/>
-      <c r="F9" s="88" t="s">
-        <v>255</v>
-      </c>
-      <c r="G9" s="90"/>
-      <c r="H9" s="93"/>
-      <c r="I9" s="90"/>
-    </row>
-    <row r="10" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="85" t="s">
-        <v>404</v>
-      </c>
-      <c r="B10" s="92"/>
-      <c r="C10" s="91"/>
-      <c r="D10" s="153"/>
-      <c r="E10" s="153"/>
-      <c r="F10" s="89"/>
-      <c r="G10" s="90"/>
-      <c r="H10" s="93"/>
-      <c r="I10" s="90"/>
-    </row>
-    <row r="11" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="85" t="s">
-        <v>405</v>
-      </c>
-      <c r="B11" s="93"/>
-      <c r="C11" s="91"/>
-      <c r="D11" s="153"/>
-      <c r="E11" s="153"/>
-      <c r="F11" s="89"/>
-      <c r="G11" s="90"/>
-      <c r="H11" s="93"/>
-      <c r="I11" s="90"/>
-    </row>
-    <row r="12" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="85" t="s">
-        <v>406</v>
-      </c>
-      <c r="B12" s="93">
-        <v>57</v>
-      </c>
-      <c r="C12" s="91">
-        <v>59</v>
-      </c>
-      <c r="D12" s="152" t="s">
-        <v>418</v>
-      </c>
-      <c r="E12" s="153"/>
-      <c r="F12" s="88" t="s">
-        <v>255</v>
-      </c>
-      <c r="G12" s="90"/>
-      <c r="H12" s="93"/>
-      <c r="I12" s="90"/>
-    </row>
-    <row r="13" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="85" t="s">
+      <c r="E13" s="155"/>
+      <c r="F13" s="87" t="s">
+        <v>254</v>
+      </c>
+      <c r="G13" s="89"/>
+      <c r="H13" s="94"/>
+      <c r="I13" s="89"/>
+    </row>
+    <row r="14" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="84" t="s">
         <v>407</v>
       </c>
-      <c r="B13" s="93">
-        <v>37</v>
-      </c>
-      <c r="C13" s="91">
-        <v>56</v>
-      </c>
-      <c r="D13" s="152" t="s">
-        <v>420</v>
-      </c>
-      <c r="E13" s="153"/>
-      <c r="F13" s="88" t="s">
-        <v>255</v>
-      </c>
-      <c r="G13" s="90"/>
-      <c r="H13" s="95"/>
-      <c r="I13" s="90"/>
-    </row>
-    <row r="14" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="85" t="s">
+      <c r="B14" s="92">
+        <v>53</v>
+      </c>
+      <c r="C14" s="90">
+        <v>72</v>
+      </c>
+      <c r="D14" s="154" t="s">
+        <v>419</v>
+      </c>
+      <c r="E14" s="155"/>
+      <c r="F14" s="87" t="s">
+        <v>254</v>
+      </c>
+      <c r="G14" s="89"/>
+      <c r="H14" s="92"/>
+      <c r="I14" s="89"/>
+    </row>
+    <row r="15" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="84" t="s">
         <v>408</v>
       </c>
-      <c r="B14" s="93">
-        <v>53</v>
-      </c>
-      <c r="C14" s="91">
-        <v>72</v>
-      </c>
-      <c r="D14" s="152" t="s">
-        <v>420</v>
-      </c>
-      <c r="E14" s="153"/>
-      <c r="F14" s="88" t="s">
-        <v>255</v>
-      </c>
-      <c r="G14" s="90"/>
-      <c r="H14" s="93"/>
-      <c r="I14" s="90"/>
-    </row>
-    <row r="15" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="85" t="s">
+      <c r="B15" s="92">
+        <v>60</v>
+      </c>
+      <c r="C15" s="90">
+        <v>64</v>
+      </c>
+      <c r="D15" s="155"/>
+      <c r="E15" s="155"/>
+      <c r="F15" s="87" t="s">
+        <v>254</v>
+      </c>
+      <c r="G15" s="89"/>
+      <c r="H15" s="92"/>
+      <c r="I15" s="89"/>
+    </row>
+    <row r="16" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="84" t="s">
         <v>409</v>
       </c>
-      <c r="B15" s="93">
-        <v>60</v>
-      </c>
-      <c r="C15" s="91">
-        <v>64</v>
-      </c>
-      <c r="D15" s="153"/>
-      <c r="E15" s="153"/>
-      <c r="F15" s="88" t="s">
-        <v>255</v>
-      </c>
-      <c r="G15" s="90"/>
-      <c r="H15" s="93"/>
-      <c r="I15" s="90"/>
-    </row>
-    <row r="16" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="85" t="s">
+      <c r="B16" s="90"/>
+      <c r="C16" s="90"/>
+      <c r="D16" s="155"/>
+      <c r="E16" s="155"/>
+      <c r="F16" s="88"/>
+      <c r="G16" s="89"/>
+      <c r="H16" s="92"/>
+      <c r="I16" s="89"/>
+    </row>
+    <row r="17" spans="1:9" s="83" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="84" t="s">
         <v>410</v>
       </c>
-      <c r="B16" s="91"/>
-      <c r="C16" s="91"/>
-      <c r="D16" s="153"/>
-      <c r="E16" s="153"/>
-      <c r="F16" s="89"/>
-      <c r="G16" s="90"/>
-      <c r="H16" s="93"/>
-      <c r="I16" s="90"/>
-    </row>
-    <row r="17" spans="1:9" s="84" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="85" t="s">
+      <c r="B17" s="90">
+        <v>16</v>
+      </c>
+      <c r="C17" s="90">
+        <v>17</v>
+      </c>
+      <c r="D17" s="155"/>
+      <c r="E17" s="155"/>
+      <c r="F17" s="118" t="s">
+        <v>254</v>
+      </c>
+      <c r="G17" s="89"/>
+      <c r="H17" s="92"/>
+      <c r="I17" s="89"/>
+    </row>
+    <row r="18" spans="1:9" s="83" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="84" t="s">
         <v>411</v>
       </c>
-      <c r="B17" s="91">
-        <v>16</v>
-      </c>
-      <c r="C17" s="91">
-        <v>17</v>
-      </c>
-      <c r="D17" s="153"/>
-      <c r="E17" s="153"/>
-      <c r="F17" s="119" t="s">
-        <v>255</v>
-      </c>
-      <c r="G17" s="90"/>
-      <c r="H17" s="93"/>
-      <c r="I17" s="90"/>
-    </row>
-    <row r="18" spans="1:9" s="84" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="85" t="s">
+      <c r="B18" s="90"/>
+      <c r="C18" s="90"/>
+      <c r="D18" s="155"/>
+      <c r="E18" s="155"/>
+      <c r="F18" s="88"/>
+      <c r="G18" s="89"/>
+      <c r="H18" s="92"/>
+      <c r="I18" s="89"/>
+    </row>
+    <row r="19" spans="1:9" s="83" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="84" t="s">
         <v>412</v>
       </c>
-      <c r="B18" s="91"/>
-      <c r="C18" s="91"/>
-      <c r="D18" s="153"/>
-      <c r="E18" s="153"/>
-      <c r="F18" s="89"/>
-      <c r="G18" s="90"/>
-      <c r="H18" s="93"/>
-      <c r="I18" s="90"/>
-    </row>
-    <row r="19" spans="1:9" s="84" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="85" t="s">
+      <c r="B19" s="90">
+        <v>18</v>
+      </c>
+      <c r="C19" s="90">
+        <v>40</v>
+      </c>
+      <c r="D19" s="154" t="s">
+        <v>419</v>
+      </c>
+      <c r="E19" s="155"/>
+      <c r="F19" s="87" t="s">
+        <v>254</v>
+      </c>
+      <c r="G19" s="89"/>
+      <c r="H19" s="92"/>
+      <c r="I19" s="89"/>
+    </row>
+    <row r="20" spans="1:9" s="83" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="84" t="s">
         <v>413</v>
       </c>
-      <c r="B19" s="91">
-        <v>18</v>
-      </c>
-      <c r="C19" s="91">
-        <v>40</v>
-      </c>
-      <c r="D19" s="152" t="s">
-        <v>420</v>
-      </c>
-      <c r="E19" s="153"/>
-      <c r="F19" s="88" t="s">
-        <v>255</v>
-      </c>
-      <c r="G19" s="90"/>
-      <c r="H19" s="93"/>
-      <c r="I19" s="90"/>
-    </row>
-    <row r="20" spans="1:9" s="84" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="85" t="s">
+      <c r="B20" s="90">
+        <v>45</v>
+      </c>
+      <c r="C20" s="90">
+        <v>48</v>
+      </c>
+      <c r="D20" s="154" t="s">
+        <v>419</v>
+      </c>
+      <c r="E20" s="155"/>
+      <c r="F20" s="87" t="s">
+        <v>254</v>
+      </c>
+      <c r="G20" s="89"/>
+      <c r="H20" s="92"/>
+      <c r="I20" s="89"/>
+    </row>
+    <row r="21" spans="1:9" s="83" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="84" t="s">
         <v>414</v>
       </c>
-      <c r="B20" s="91">
-        <v>45</v>
-      </c>
-      <c r="C20" s="91">
-        <v>48</v>
-      </c>
-      <c r="D20" s="152" t="s">
-        <v>420</v>
-      </c>
-      <c r="E20" s="153"/>
-      <c r="F20" s="88" t="s">
-        <v>255</v>
-      </c>
-      <c r="G20" s="90"/>
-      <c r="H20" s="93"/>
-      <c r="I20" s="90"/>
-    </row>
-    <row r="21" spans="1:9" s="84" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="85" t="s">
-        <v>415</v>
-      </c>
-      <c r="B21" s="91">
+      <c r="B21" s="90">
         <v>83</v>
       </c>
-      <c r="C21" s="91">
+      <c r="C21" s="90">
         <v>84</v>
       </c>
-      <c r="D21" s="152" t="s">
-        <v>420</v>
-      </c>
-      <c r="E21" s="153"/>
-      <c r="F21" s="88" t="s">
-        <v>425</v>
-      </c>
-      <c r="G21" s="90"/>
-      <c r="H21" s="93"/>
-      <c r="I21" s="90"/>
+      <c r="D21" s="154" t="s">
+        <v>419</v>
+      </c>
+      <c r="E21" s="155"/>
+      <c r="F21" s="87" t="s">
+        <v>424</v>
+      </c>
+      <c r="G21" s="89"/>
+      <c r="H21" s="92"/>
+      <c r="I21" s="89"/>
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G22" s="90"/>
-      <c r="H22" s="90"/>
-      <c r="I22" s="90"/>
+      <c r="G22" s="89"/>
+      <c r="H22" s="89"/>
+      <c r="I22" s="89"/>
     </row>
     <row r="23" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="G23" s="90"/>
-      <c r="H23" s="90"/>
-      <c r="I23" s="90"/>
+        <v>237</v>
+      </c>
+      <c r="G23" s="89"/>
+      <c r="H23" s="89"/>
+      <c r="I23" s="89"/>
     </row>
     <row r="25" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="C25" s="3" t="s">
         <v>240</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>243</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="C29" s="3" t="s">
         <v>247</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>250</v>
-      </c>
       <c r="C30" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B32" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>251</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B33" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" s="84" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="83"/>
-      <c r="B34" s="83"/>
-      <c r="C34" s="83"/>
-    </row>
-    <row r="35" spans="1:5" s="84" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="83" t="s">
-        <v>228</v>
-      </c>
-      <c r="B35" s="83" t="s">
+    </row>
+    <row r="34" spans="1:5" s="83" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="82"/>
+      <c r="B34" s="82"/>
+      <c r="C34" s="82"/>
+    </row>
+    <row r="35" spans="1:5" s="83" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="82" t="s">
+        <v>227</v>
+      </c>
+      <c r="B35" s="82" t="s">
+        <v>425</v>
+      </c>
+      <c r="C35" s="82" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" s="83" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="82" t="s">
+        <v>227</v>
+      </c>
+      <c r="B36" s="82" t="s">
         <v>426</v>
       </c>
-      <c r="C35" s="83" t="s">
+      <c r="C36" s="82" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" s="83" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="82"/>
+      <c r="B37" s="82"/>
+      <c r="C37" s="82"/>
+    </row>
+    <row r="38" spans="1:5" s="83" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="82" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" s="84" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="83" t="s">
-        <v>228</v>
-      </c>
-      <c r="B36" s="83" t="s">
-        <v>427</v>
-      </c>
-      <c r="C36" s="83" t="s">
+      <c r="B38" s="82" t="s">
+        <v>435</v>
+      </c>
+      <c r="C38" s="82" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" s="83" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="82" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" s="84" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="83"/>
-      <c r="B37" s="83"/>
-      <c r="C37" s="83"/>
-    </row>
-    <row r="38" spans="1:5" s="84" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="83" t="s">
+      <c r="B39" s="82" t="s">
+        <v>436</v>
+      </c>
+      <c r="C39" s="82" t="s">
         <v>429</v>
       </c>
-      <c r="B38" s="83" t="s">
-        <v>436</v>
-      </c>
-      <c r="C38" s="83" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" s="84" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="83" t="s">
+    </row>
+    <row r="40" spans="1:5" s="117" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="116"/>
+      <c r="B40" s="116"/>
+      <c r="C40" s="116"/>
+    </row>
+    <row r="41" spans="1:5" s="117" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="116" t="s">
+        <v>428</v>
+      </c>
+      <c r="B41" s="116" t="s">
+        <v>446</v>
+      </c>
+      <c r="C41" s="116" t="s">
         <v>429</v>
       </c>
-      <c r="B39" s="83" t="s">
-        <v>437</v>
-      </c>
-      <c r="C39" s="83" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" s="118" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="117"/>
-      <c r="B40" s="117"/>
-      <c r="C40" s="117"/>
-    </row>
-    <row r="41" spans="1:5" s="118" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="117" t="s">
+    </row>
+    <row r="42" spans="1:5" s="83" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="116" t="s">
+        <v>428</v>
+      </c>
+      <c r="B42" s="116" t="s">
+        <v>447</v>
+      </c>
+      <c r="C42" s="116" t="s">
         <v>429</v>
       </c>
-      <c r="B41" s="117" t="s">
-        <v>447</v>
-      </c>
-      <c r="C41" s="117" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" s="84" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="117" t="s">
-        <v>429</v>
-      </c>
-      <c r="B42" s="117" t="s">
-        <v>448</v>
-      </c>
-      <c r="C42" s="117" t="s">
-        <v>430</v>
-      </c>
-      <c r="D42" s="118"/>
-    </row>
-    <row r="43" spans="1:5" s="84" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="83"/>
-      <c r="B43" s="83"/>
-      <c r="C43" s="83"/>
+      <c r="D42" s="117"/>
+    </row>
+    <row r="43" spans="1:5" s="83" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="82"/>
+      <c r="B43" s="82"/>
+      <c r="C43" s="82"/>
     </row>
     <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="14" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="100"/>
+      <c r="B46" s="100"/>
+      <c r="C46" s="100"/>
+      <c r="D46" s="96"/>
+      <c r="E46" s="96"/>
+    </row>
+    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="101"/>
+      <c r="B47" s="100"/>
+      <c r="C47" s="102"/>
+      <c r="D47" s="96"/>
+      <c r="E47" s="96"/>
+    </row>
+    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="101" t="s">
+        <v>397</v>
+      </c>
+      <c r="B48" s="100" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="101"/>
-      <c r="B46" s="101"/>
-      <c r="C46" s="101"/>
-      <c r="D46" s="97"/>
-      <c r="E46" s="97"/>
-    </row>
-    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="102"/>
-      <c r="B47" s="101"/>
-      <c r="C47" s="103"/>
-      <c r="D47" s="97"/>
-      <c r="E47" s="97"/>
-    </row>
-    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="102" t="s">
-        <v>398</v>
-      </c>
-      <c r="B48" s="101" t="s">
+      <c r="C48" s="102"/>
+      <c r="D48" s="96"/>
+      <c r="E48" s="96"/>
+    </row>
+    <row r="49" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="103" t="s">
+        <v>397</v>
+      </c>
+      <c r="B49" s="100" t="s">
         <v>432</v>
       </c>
-      <c r="C48" s="103"/>
-      <c r="D48" s="97"/>
-      <c r="E48" s="97"/>
-    </row>
-    <row r="49" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="104" t="s">
-        <v>398</v>
-      </c>
-      <c r="B49" s="101" t="s">
+      <c r="C49" s="100"/>
+      <c r="D49" s="96"/>
+      <c r="E49" s="96"/>
+    </row>
+    <row r="50" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="101"/>
+      <c r="B50" s="100"/>
+      <c r="C50" s="102"/>
+      <c r="D50" s="96"/>
+      <c r="E50" s="96"/>
+    </row>
+    <row r="51" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="101" t="s">
+        <v>403</v>
+      </c>
+      <c r="B51" s="100" t="s">
         <v>433</v>
       </c>
-      <c r="C49" s="101"/>
-      <c r="D49" s="97"/>
-      <c r="E49" s="97"/>
-    </row>
-    <row r="50" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="102"/>
-      <c r="B50" s="101"/>
-      <c r="C50" s="103"/>
-      <c r="D50" s="97"/>
-      <c r="E50" s="97"/>
-    </row>
-    <row r="51" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="102" t="s">
-        <v>404</v>
-      </c>
-      <c r="B51" s="101" t="s">
+      <c r="C51" s="102"/>
+      <c r="D51" s="96"/>
+      <c r="E51" s="96"/>
+    </row>
+    <row r="52" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="103" t="s">
+        <v>403</v>
+      </c>
+      <c r="B52" s="100" t="s">
         <v>434</v>
       </c>
-      <c r="C51" s="103"/>
-      <c r="D51" s="97"/>
-      <c r="E51" s="97"/>
-    </row>
-    <row r="52" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="104" t="s">
-        <v>404</v>
-      </c>
-      <c r="B52" s="101" t="s">
-        <v>435</v>
-      </c>
-      <c r="C52" s="101"/>
-      <c r="D52" s="97"/>
-      <c r="E52" s="97"/>
-    </row>
-    <row r="53" spans="1:5" s="84" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="104"/>
-      <c r="B53" s="101"/>
-      <c r="C53" s="101"/>
-      <c r="D53" s="97"/>
-      <c r="E53" s="97"/>
+      <c r="C52" s="100"/>
+      <c r="D52" s="96"/>
+      <c r="E52" s="96"/>
+    </row>
+    <row r="53" spans="1:5" s="83" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="103"/>
+      <c r="B53" s="100"/>
+      <c r="C53" s="100"/>
+      <c r="D53" s="96"/>
+      <c r="E53" s="96"/>
     </row>
     <row r="54" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="102"/>
-      <c r="B54" s="101" t="s">
+      <c r="A54" s="101"/>
+      <c r="B54" s="100" t="s">
+        <v>255</v>
+      </c>
+      <c r="C54" s="100"/>
+      <c r="D54" s="96"/>
+      <c r="E54" s="96"/>
+    </row>
+    <row r="55" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="101"/>
+      <c r="B55" s="100" t="s">
         <v>256</v>
       </c>
-      <c r="C54" s="101"/>
-      <c r="D54" s="97"/>
-      <c r="E54" s="97"/>
-    </row>
-    <row r="55" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="102"/>
-      <c r="B55" s="101" t="s">
-        <v>257</v>
-      </c>
-      <c r="C55" s="101"/>
-      <c r="D55" s="97"/>
-      <c r="E55" s="97"/>
+      <c r="C55" s="100"/>
+      <c r="D55" s="96"/>
+      <c r="E55" s="96"/>
     </row>
     <row r="56" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="104"/>
-      <c r="B56" s="101"/>
-      <c r="C56" s="101"/>
-      <c r="D56" s="97"/>
-      <c r="E56" s="97"/>
+      <c r="A56" s="103"/>
+      <c r="B56" s="100"/>
+      <c r="C56" s="100"/>
+      <c r="D56" s="96"/>
+      <c r="E56" s="96"/>
     </row>
     <row r="57" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="99" t="s">
-        <v>410</v>
-      </c>
-      <c r="B57" s="98" t="s">
-        <v>240</v>
-      </c>
-      <c r="C57" s="80"/>
-      <c r="D57" s="97"/>
-      <c r="E57" s="97"/>
+      <c r="A57" s="98" t="s">
+        <v>409</v>
+      </c>
+      <c r="B57" s="97" t="s">
+        <v>239</v>
+      </c>
+      <c r="C57" s="79"/>
+      <c r="D57" s="96"/>
+      <c r="E57" s="96"/>
     </row>
     <row r="58" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="99" t="s">
-        <v>410</v>
-      </c>
-      <c r="B58" s="98" t="s">
-        <v>242</v>
-      </c>
-      <c r="C58" s="80"/>
-      <c r="D58" s="97"/>
-      <c r="E58" s="97"/>
+      <c r="A58" s="98" t="s">
+        <v>409</v>
+      </c>
+      <c r="B58" s="97" t="s">
+        <v>241</v>
+      </c>
+      <c r="C58" s="79"/>
+      <c r="D58" s="96"/>
+      <c r="E58" s="96"/>
     </row>
     <row r="59" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="100"/>
-      <c r="B59" s="97"/>
-      <c r="C59" s="97"/>
-      <c r="D59" s="97"/>
-      <c r="E59" s="97"/>
+      <c r="A59" s="99"/>
+      <c r="B59" s="96"/>
+      <c r="C59" s="96"/>
+      <c r="D59" s="96"/>
+      <c r="E59" s="96"/>
     </row>
     <row r="60" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="99"/>
-      <c r="B60" s="98"/>
-      <c r="C60" s="80"/>
-      <c r="D60" s="97"/>
-      <c r="E60" s="97"/>
+      <c r="A60" s="98"/>
+      <c r="B60" s="97"/>
+      <c r="C60" s="79"/>
+      <c r="D60" s="96"/>
+      <c r="E60" s="96"/>
     </row>
     <row r="61" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="99"/>
-      <c r="B61" s="98"/>
-      <c r="C61" s="80"/>
-      <c r="D61" s="97"/>
-      <c r="E61" s="97"/>
+      <c r="A61" s="98"/>
+      <c r="B61" s="97"/>
+      <c r="C61" s="79"/>
+      <c r="D61" s="96"/>
+      <c r="E61" s="96"/>
     </row>
     <row r="62" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="100"/>
-      <c r="B62" s="97"/>
-      <c r="C62" s="97"/>
-      <c r="D62" s="97"/>
-      <c r="E62" s="97"/>
+      <c r="A62" s="99"/>
+      <c r="B62" s="96"/>
+      <c r="C62" s="96"/>
+      <c r="D62" s="96"/>
+      <c r="E62" s="96"/>
     </row>
     <row r="63" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="99"/>
-      <c r="B63" s="98"/>
-      <c r="C63" s="80"/>
-      <c r="D63" s="97"/>
-      <c r="E63" s="97"/>
+      <c r="A63" s="98"/>
+      <c r="B63" s="97"/>
+      <c r="C63" s="79"/>
+      <c r="D63" s="96"/>
+      <c r="E63" s="96"/>
     </row>
     <row r="64" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="99"/>
-      <c r="B64" s="98"/>
-      <c r="C64" s="80"/>
-      <c r="D64" s="97"/>
-      <c r="E64" s="97"/>
+      <c r="A64" s="98"/>
+      <c r="B64" s="97"/>
+      <c r="C64" s="79"/>
+      <c r="D64" s="96"/>
+      <c r="E64" s="96"/>
     </row>
     <row r="65" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="100"/>
-      <c r="B65" s="97"/>
-      <c r="C65" s="97"/>
-      <c r="D65" s="97"/>
-      <c r="E65" s="97"/>
+      <c r="A65" s="99"/>
+      <c r="B65" s="96"/>
+      <c r="C65" s="96"/>
+      <c r="D65" s="96"/>
+      <c r="E65" s="96"/>
     </row>
     <row r="66" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="100"/>
-      <c r="B66" s="97"/>
-      <c r="C66" s="97"/>
-      <c r="D66" s="97"/>
-      <c r="E66" s="97"/>
+      <c r="A66" s="99"/>
+      <c r="B66" s="96"/>
+      <c r="C66" s="96"/>
+      <c r="D66" s="96"/>
+      <c r="E66" s="96"/>
     </row>
     <row r="67" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="105"/>
-      <c r="B67" s="97"/>
-      <c r="C67" s="97"/>
-      <c r="D67" s="97"/>
-      <c r="E67" s="97"/>
+      <c r="A67" s="104"/>
+      <c r="B67" s="96"/>
+      <c r="C67" s="96"/>
+      <c r="D67" s="96"/>
+      <c r="E67" s="96"/>
     </row>
     <row r="68" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="106"/>
+      <c r="A68" s="105"/>
     </row>
     <row r="69" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="107"/>
+      <c r="A69" s="106"/>
     </row>
     <row r="70" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="107"/>
+      <c r="A70" s="106"/>
     </row>
     <row r="71" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="106"/>
+      <c r="A71" s="105"/>
     </row>
     <row r="72" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="73" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9892,11 +9892,6 @@
     <row r="1023" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="D2:E2"/>
@@ -9913,6 +9908,11 @@
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9930,7 +9930,9 @@
   </sheetPr>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -9943,22 +9945,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="46" t="s">
+        <v>257</v>
+      </c>
+      <c r="B1" s="46" t="s">
         <v>258</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="C1" s="46" t="s">
         <v>259</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="D1" s="46" t="s">
         <v>260</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="E1" s="46" t="s">
         <v>261</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="F1" s="46" t="s">
         <v>262</v>
-      </c>
-      <c r="F1" s="46" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -9966,19 +9968,19 @@
         <v>23</v>
       </c>
       <c r="B2" s="46" t="s">
+        <v>263</v>
+      </c>
+      <c r="C2" s="46" t="s">
         <v>264</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="D2" s="46" t="s">
         <v>265</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="E2" s="46" t="s">
         <v>266</v>
       </c>
-      <c r="E2" s="46" t="s">
+      <c r="F2" s="46" t="s">
         <v>267</v>
-      </c>
-      <c r="F2" s="46" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -9986,13 +9988,13 @@
         <v>97</v>
       </c>
       <c r="B3" s="47" t="s">
+        <v>268</v>
+      </c>
+      <c r="C3" s="47" t="s">
         <v>269</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="D3" s="47" t="s">
         <v>270</v>
-      </c>
-      <c r="D3" s="47" t="s">
-        <v>271</v>
       </c>
       <c r="E3" s="48"/>
       <c r="F3" s="48"/>
@@ -10002,19 +10004,19 @@
         <v>62</v>
       </c>
       <c r="B4" s="46" t="s">
+        <v>271</v>
+      </c>
+      <c r="C4" s="46" t="s">
+        <v>264</v>
+      </c>
+      <c r="D4" s="46" t="s">
+        <v>265</v>
+      </c>
+      <c r="E4" s="46" t="s">
         <v>272</v>
       </c>
-      <c r="C4" s="46" t="s">
-        <v>265</v>
-      </c>
-      <c r="D4" s="46" t="s">
-        <v>266</v>
-      </c>
-      <c r="E4" s="46" t="s">
+      <c r="F4" s="46" t="s">
         <v>273</v>
-      </c>
-      <c r="F4" s="46" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -10022,16 +10024,16 @@
         <v>142</v>
       </c>
       <c r="B5" s="46" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C5" s="46" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D5" s="46" t="s">
+        <v>265</v>
+      </c>
+      <c r="E5" s="46" t="s">
         <v>266</v>
-      </c>
-      <c r="E5" s="46" t="s">
-        <v>267</v>
       </c>
       <c r="F5" s="49"/>
     </row>
@@ -10040,16 +10042,16 @@
         <v>58</v>
       </c>
       <c r="B6" s="46" t="s">
+        <v>275</v>
+      </c>
+      <c r="C6" s="46" t="s">
+        <v>269</v>
+      </c>
+      <c r="D6" s="46" t="s">
+        <v>275</v>
+      </c>
+      <c r="E6" s="46" t="s">
         <v>276</v>
-      </c>
-      <c r="C6" s="46" t="s">
-        <v>270</v>
-      </c>
-      <c r="D6" s="46" t="s">
-        <v>276</v>
-      </c>
-      <c r="E6" s="46" t="s">
-        <v>277</v>
       </c>
       <c r="F6" s="49"/>
     </row>
@@ -10058,37 +10060,37 @@
         <v>78</v>
       </c>
       <c r="B7" s="46" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C7" s="46" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D7" s="46" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E7" s="46" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F7" s="49"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="46" t="s">
+        <v>277</v>
+      </c>
+      <c r="B8" s="46" t="s">
         <v>278</v>
       </c>
-      <c r="B8" s="46" t="s">
+      <c r="C8" s="46" t="s">
         <v>279</v>
       </c>
-      <c r="C8" s="46" t="s">
+      <c r="D8" s="46" t="s">
         <v>280</v>
       </c>
-      <c r="D8" s="46" t="s">
+      <c r="E8" s="46" t="s">
         <v>281</v>
       </c>
-      <c r="E8" s="46" t="s">
+      <c r="F8" s="46" t="s">
         <v>282</v>
-      </c>
-      <c r="F8" s="46" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -10096,57 +10098,57 @@
         <v>106</v>
       </c>
       <c r="B9" s="46" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C9" s="46" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D9" s="46" t="s">
+        <v>265</v>
+      </c>
+      <c r="E9" s="46" t="s">
         <v>266</v>
-      </c>
-      <c r="E9" s="46" t="s">
-        <v>267</v>
       </c>
       <c r="F9" s="49"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="46" t="s">
+        <v>284</v>
+      </c>
+      <c r="B10" s="46" t="s">
+        <v>174</v>
+      </c>
+      <c r="C10" s="46" t="s">
+        <v>269</v>
+      </c>
+      <c r="D10" s="46" t="s">
+        <v>280</v>
+      </c>
+      <c r="E10" s="46" t="s">
+        <v>266</v>
+      </c>
+      <c r="F10" s="46" t="s">
         <v>285</v>
-      </c>
-      <c r="B10" s="46" t="s">
-        <v>175</v>
-      </c>
-      <c r="C10" s="46" t="s">
-        <v>270</v>
-      </c>
-      <c r="D10" s="46" t="s">
-        <v>281</v>
-      </c>
-      <c r="E10" s="46" t="s">
-        <v>267</v>
-      </c>
-      <c r="F10" s="46" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="46" t="s">
+        <v>286</v>
+      </c>
+      <c r="B11" s="46" t="s">
+        <v>278</v>
+      </c>
+      <c r="C11" s="46" t="s">
+        <v>279</v>
+      </c>
+      <c r="D11" s="46" t="s">
+        <v>265</v>
+      </c>
+      <c r="E11" s="46" t="s">
+        <v>266</v>
+      </c>
+      <c r="F11" s="46" t="s">
         <v>287</v>
-      </c>
-      <c r="B11" s="46" t="s">
-        <v>279</v>
-      </c>
-      <c r="C11" s="46" t="s">
-        <v>280</v>
-      </c>
-      <c r="D11" s="46" t="s">
-        <v>266</v>
-      </c>
-      <c r="E11" s="46" t="s">
-        <v>267</v>
-      </c>
-      <c r="F11" s="46" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -10154,19 +10156,19 @@
         <v>82</v>
       </c>
       <c r="B12" s="46" t="s">
+        <v>288</v>
+      </c>
+      <c r="C12" s="46" t="s">
+        <v>269</v>
+      </c>
+      <c r="D12" s="46" t="s">
+        <v>265</v>
+      </c>
+      <c r="E12" s="46" t="s">
         <v>289</v>
       </c>
-      <c r="C12" s="46" t="s">
-        <v>270</v>
-      </c>
-      <c r="D12" s="46" t="s">
-        <v>266</v>
-      </c>
-      <c r="E12" s="46" t="s">
+      <c r="F12" s="46" t="s">
         <v>290</v>
-      </c>
-      <c r="F12" s="46" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -10174,16 +10176,16 @@
         <v>19</v>
       </c>
       <c r="B13" s="47" t="s">
+        <v>291</v>
+      </c>
+      <c r="C13" s="47" t="s">
+        <v>269</v>
+      </c>
+      <c r="D13" s="47" t="s">
+        <v>270</v>
+      </c>
+      <c r="E13" s="47" t="s">
         <v>292</v>
-      </c>
-      <c r="C13" s="47" t="s">
-        <v>270</v>
-      </c>
-      <c r="D13" s="47" t="s">
-        <v>271</v>
-      </c>
-      <c r="E13" s="47" t="s">
-        <v>293</v>
       </c>
       <c r="F13" s="48"/>
     </row>
@@ -10195,16 +10197,16 @@
         <v>166</v>
       </c>
       <c r="C14" s="46" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D14" s="46" t="s">
         <v>166</v>
       </c>
       <c r="E14" s="46" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F14" s="46" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -10212,37 +10214,37 @@
         <v>85</v>
       </c>
       <c r="B15" s="46" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C15" s="46" t="s">
+        <v>264</v>
+      </c>
+      <c r="D15" s="46" t="s">
         <v>265</v>
       </c>
-      <c r="D15" s="46" t="s">
+      <c r="E15" s="46" t="s">
         <v>266</v>
-      </c>
-      <c r="E15" s="46" t="s">
-        <v>267</v>
       </c>
       <c r="F15" s="49"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="46" t="s">
+        <v>295</v>
+      </c>
+      <c r="B16" s="46" t="s">
+        <v>278</v>
+      </c>
+      <c r="C16" s="46" t="s">
+        <v>279</v>
+      </c>
+      <c r="D16" s="46" t="s">
+        <v>265</v>
+      </c>
+      <c r="E16" s="46" t="s">
+        <v>266</v>
+      </c>
+      <c r="F16" s="46" t="s">
         <v>296</v>
-      </c>
-      <c r="B16" s="46" t="s">
-        <v>279</v>
-      </c>
-      <c r="C16" s="46" t="s">
-        <v>280</v>
-      </c>
-      <c r="D16" s="46" t="s">
-        <v>266</v>
-      </c>
-      <c r="E16" s="46" t="s">
-        <v>267</v>
-      </c>
-      <c r="F16" s="46" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -10250,53 +10252,53 @@
         <v>93</v>
       </c>
       <c r="B17" s="46" t="s">
+        <v>297</v>
+      </c>
+      <c r="C17" s="46" t="s">
+        <v>269</v>
+      </c>
+      <c r="D17" s="46" t="s">
         <v>298</v>
       </c>
-      <c r="C17" s="46" t="s">
-        <v>270</v>
-      </c>
-      <c r="D17" s="46" t="s">
+      <c r="E17" s="46" t="s">
+        <v>266</v>
+      </c>
+      <c r="F17" s="46" t="s">
         <v>299</v>
-      </c>
-      <c r="E17" s="46" t="s">
-        <v>267</v>
-      </c>
-      <c r="F17" s="46" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="46" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B18" s="46" t="s">
         <v>167</v>
       </c>
       <c r="C18" s="46" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D18" s="46" t="s">
+        <v>280</v>
+      </c>
+      <c r="E18" s="46" t="s">
         <v>281</v>
       </c>
-      <c r="E18" s="46" t="s">
+      <c r="F18" s="46" t="s">
         <v>282</v>
-      </c>
-      <c r="F18" s="46" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="50" t="s">
+        <v>302</v>
+      </c>
+      <c r="B19" s="50" t="s">
+        <v>278</v>
+      </c>
+      <c r="C19" s="50" t="s">
+        <v>279</v>
+      </c>
+      <c r="D19" s="50" t="s">
         <v>303</v>
-      </c>
-      <c r="B19" s="50" t="s">
-        <v>279</v>
-      </c>
-      <c r="C19" s="50" t="s">
-        <v>280</v>
-      </c>
-      <c r="D19" s="50" t="s">
-        <v>304</v>
       </c>
       <c r="E19" s="51"/>
       <c r="F19" s="51"/>
@@ -10306,55 +10308,55 @@
         <v>140</v>
       </c>
       <c r="B20" s="46" t="s">
+        <v>304</v>
+      </c>
+      <c r="C20" s="46" t="s">
+        <v>269</v>
+      </c>
+      <c r="D20" s="46" t="s">
+        <v>265</v>
+      </c>
+      <c r="E20" s="46" t="s">
+        <v>266</v>
+      </c>
+      <c r="F20" s="46" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="156" t="s">
         <v>305</v>
       </c>
-      <c r="C20" s="46" t="s">
-        <v>270</v>
-      </c>
-      <c r="D20" s="46" t="s">
-        <v>266</v>
-      </c>
-      <c r="E20" s="46" t="s">
-        <v>267</v>
-      </c>
-      <c r="F20" s="46" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="46" t="s">
-        <v>306</v>
-      </c>
-      <c r="B21" s="46" t="s">
+      <c r="B21" s="156" t="s">
+        <v>278</v>
+      </c>
+      <c r="C21" s="156" t="s">
         <v>279</v>
       </c>
-      <c r="C21" s="46" t="s">
-        <v>280</v>
-      </c>
-      <c r="D21" s="46" t="s">
-        <v>169</v>
-      </c>
-      <c r="E21" s="49"/>
-      <c r="F21" s="49"/>
+      <c r="D21" s="156" t="s">
+        <v>298</v>
+      </c>
+      <c r="E21" s="157"/>
+      <c r="F21" s="157"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="46" t="s">
         <v>72</v>
       </c>
       <c r="B22" s="46" t="s">
+        <v>306</v>
+      </c>
+      <c r="C22" s="46" t="s">
+        <v>264</v>
+      </c>
+      <c r="D22" s="46" t="s">
+        <v>280</v>
+      </c>
+      <c r="E22" s="46" t="s">
         <v>307</v>
       </c>
-      <c r="C22" s="46" t="s">
-        <v>265</v>
-      </c>
-      <c r="D22" s="46" t="s">
-        <v>281</v>
-      </c>
-      <c r="E22" s="46" t="s">
-        <v>308</v>
-      </c>
       <c r="F22" s="46" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -10362,33 +10364,33 @@
         <v>37</v>
       </c>
       <c r="B23" s="46" t="s">
+        <v>308</v>
+      </c>
+      <c r="C23" s="46" t="s">
+        <v>269</v>
+      </c>
+      <c r="D23" s="46" t="s">
+        <v>308</v>
+      </c>
+      <c r="E23" s="46" t="s">
+        <v>276</v>
+      </c>
+      <c r="F23" s="46" t="s">
         <v>309</v>
-      </c>
-      <c r="C23" s="46" t="s">
-        <v>270</v>
-      </c>
-      <c r="D23" s="46" t="s">
-        <v>309</v>
-      </c>
-      <c r="E23" s="46" t="s">
-        <v>277</v>
-      </c>
-      <c r="F23" s="46" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="50" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B24" s="50" t="s">
+        <v>278</v>
+      </c>
+      <c r="C24" s="50" t="s">
         <v>279</v>
       </c>
-      <c r="C24" s="50" t="s">
-        <v>280</v>
-      </c>
       <c r="D24" s="50" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E24" s="51"/>
       <c r="F24" s="51"/>
@@ -10398,39 +10400,39 @@
         <v>31</v>
       </c>
       <c r="B25" s="46" t="s">
+        <v>311</v>
+      </c>
+      <c r="C25" s="46" t="s">
+        <v>264</v>
+      </c>
+      <c r="D25" s="46" t="s">
+        <v>265</v>
+      </c>
+      <c r="E25" s="46" t="s">
+        <v>266</v>
+      </c>
+      <c r="F25" s="46" t="s">
         <v>312</v>
-      </c>
-      <c r="C25" s="46" t="s">
-        <v>265</v>
-      </c>
-      <c r="D25" s="46" t="s">
-        <v>266</v>
-      </c>
-      <c r="E25" s="46" t="s">
-        <v>267</v>
-      </c>
-      <c r="F25" s="46" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="46" t="s">
+        <v>313</v>
+      </c>
+      <c r="B26" s="46" t="s">
+        <v>278</v>
+      </c>
+      <c r="C26" s="46" t="s">
+        <v>279</v>
+      </c>
+      <c r="D26" s="46" t="s">
+        <v>265</v>
+      </c>
+      <c r="E26" s="46" t="s">
+        <v>289</v>
+      </c>
+      <c r="F26" s="46" t="s">
         <v>314</v>
-      </c>
-      <c r="B26" s="46" t="s">
-        <v>279</v>
-      </c>
-      <c r="C26" s="46" t="s">
-        <v>280</v>
-      </c>
-      <c r="D26" s="46" t="s">
-        <v>266</v>
-      </c>
-      <c r="E26" s="46" t="s">
-        <v>290</v>
-      </c>
-      <c r="F26" s="46" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -10438,16 +10440,16 @@
         <v>51</v>
       </c>
       <c r="B27" s="46" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C27" s="46" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D27" s="46" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E27" s="46" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F27" s="49"/>
     </row>
@@ -10456,39 +10458,39 @@
         <v>103</v>
       </c>
       <c r="B28" s="46" t="s">
+        <v>315</v>
+      </c>
+      <c r="C28" s="46" t="s">
+        <v>264</v>
+      </c>
+      <c r="D28" s="46" t="s">
+        <v>280</v>
+      </c>
+      <c r="E28" s="46" t="s">
+        <v>289</v>
+      </c>
+      <c r="F28" s="46" t="s">
         <v>316</v>
-      </c>
-      <c r="C28" s="46" t="s">
-        <v>265</v>
-      </c>
-      <c r="D28" s="46" t="s">
-        <v>281</v>
-      </c>
-      <c r="E28" s="46" t="s">
-        <v>290</v>
-      </c>
-      <c r="F28" s="46" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="46" t="s">
+        <v>317</v>
+      </c>
+      <c r="B29" s="46" t="s">
+        <v>278</v>
+      </c>
+      <c r="C29" s="46" t="s">
+        <v>279</v>
+      </c>
+      <c r="D29" s="46" t="s">
+        <v>265</v>
+      </c>
+      <c r="E29" s="46" t="s">
+        <v>289</v>
+      </c>
+      <c r="F29" s="46" t="s">
         <v>318</v>
-      </c>
-      <c r="B29" s="46" t="s">
-        <v>279</v>
-      </c>
-      <c r="C29" s="46" t="s">
-        <v>280</v>
-      </c>
-      <c r="D29" s="46" t="s">
-        <v>266</v>
-      </c>
-      <c r="E29" s="46" t="s">
-        <v>290</v>
-      </c>
-      <c r="F29" s="46" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -10496,39 +10498,39 @@
         <v>68</v>
       </c>
       <c r="B30" s="46" t="s">
+        <v>319</v>
+      </c>
+      <c r="C30" s="46" t="s">
+        <v>269</v>
+      </c>
+      <c r="D30" s="46" t="s">
+        <v>265</v>
+      </c>
+      <c r="E30" s="46" t="s">
+        <v>266</v>
+      </c>
+      <c r="F30" s="46" t="s">
         <v>320</v>
-      </c>
-      <c r="C30" s="46" t="s">
-        <v>270</v>
-      </c>
-      <c r="D30" s="46" t="s">
-        <v>266</v>
-      </c>
-      <c r="E30" s="46" t="s">
-        <v>267</v>
-      </c>
-      <c r="F30" s="46" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="46" t="s">
+        <v>321</v>
+      </c>
+      <c r="B31" s="46" t="s">
+        <v>278</v>
+      </c>
+      <c r="C31" s="46" t="s">
+        <v>279</v>
+      </c>
+      <c r="D31" s="46" t="s">
+        <v>265</v>
+      </c>
+      <c r="E31" s="46" t="s">
+        <v>266</v>
+      </c>
+      <c r="F31" s="46" t="s">
         <v>322</v>
-      </c>
-      <c r="B31" s="46" t="s">
-        <v>279</v>
-      </c>
-      <c r="C31" s="46" t="s">
-        <v>280</v>
-      </c>
-      <c r="D31" s="46" t="s">
-        <v>266</v>
-      </c>
-      <c r="E31" s="46" t="s">
-        <v>267</v>
-      </c>
-      <c r="F31" s="46" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -10536,19 +10538,19 @@
         <v>134</v>
       </c>
       <c r="B32" s="46" t="s">
+        <v>323</v>
+      </c>
+      <c r="C32" s="46" t="s">
+        <v>269</v>
+      </c>
+      <c r="D32" s="46" t="s">
+        <v>323</v>
+      </c>
+      <c r="E32" s="46" t="s">
+        <v>276</v>
+      </c>
+      <c r="F32" s="46" t="s">
         <v>324</v>
-      </c>
-      <c r="C32" s="46" t="s">
-        <v>270</v>
-      </c>
-      <c r="D32" s="46" t="s">
-        <v>324</v>
-      </c>
-      <c r="E32" s="46" t="s">
-        <v>277</v>
-      </c>
-      <c r="F32" s="46" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -10556,17 +10558,19 @@
         <v>75</v>
       </c>
       <c r="B33" s="46" t="s">
+        <v>325</v>
+      </c>
+      <c r="C33" s="46" t="s">
+        <v>264</v>
+      </c>
+      <c r="D33" s="46" t="s">
+        <v>280</v>
+      </c>
+      <c r="E33" s="46" t="s">
+        <v>307</v>
+      </c>
+      <c r="F33" s="46" t="s">
         <v>326</v>
-      </c>
-      <c r="C33" s="46" t="s">
-        <v>265</v>
-      </c>
-      <c r="D33" s="46" t="s">
-        <v>281</v>
-      </c>
-      <c r="E33" s="52"/>
-      <c r="F33" s="46" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -10574,16 +10578,16 @@
         <v>127</v>
       </c>
       <c r="B34" s="46" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C34" s="46" t="s">
+        <v>264</v>
+      </c>
+      <c r="D34" s="46" t="s">
         <v>265</v>
       </c>
-      <c r="D34" s="46" t="s">
+      <c r="E34" s="46" t="s">
         <v>266</v>
-      </c>
-      <c r="E34" s="46" t="s">
-        <v>267</v>
       </c>
       <c r="F34" s="49"/>
     </row>
@@ -10592,19 +10596,19 @@
         <v>41</v>
       </c>
       <c r="B35" s="46" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C35" s="46" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D35" s="46" t="s">
+        <v>265</v>
+      </c>
+      <c r="E35" s="46" t="s">
         <v>266</v>
       </c>
-      <c r="E35" s="46" t="s">
-        <v>267</v>
-      </c>
       <c r="F35" s="46" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -10612,75 +10616,75 @@
         <v>100</v>
       </c>
       <c r="B36" s="46" t="s">
+        <v>329</v>
+      </c>
+      <c r="C36" s="46" t="s">
+        <v>264</v>
+      </c>
+      <c r="D36" s="46" t="s">
+        <v>265</v>
+      </c>
+      <c r="E36" s="46" t="s">
+        <v>266</v>
+      </c>
+      <c r="F36" s="46" t="s">
         <v>330</v>
       </c>
-      <c r="C36" s="46" t="s">
-        <v>265</v>
-      </c>
-      <c r="D36" s="46" t="s">
-        <v>266</v>
-      </c>
-      <c r="E36" s="46" t="s">
-        <v>267</v>
-      </c>
-      <c r="F36" s="46" t="s">
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="156" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="50" t="s">
-        <v>332</v>
-      </c>
-      <c r="B37" s="50" t="s">
+      <c r="B37" s="156" t="s">
+        <v>278</v>
+      </c>
+      <c r="C37" s="156" t="s">
         <v>279</v>
       </c>
-      <c r="C37" s="50" t="s">
-        <v>280</v>
-      </c>
-      <c r="D37" s="50" t="s">
-        <v>304</v>
-      </c>
-      <c r="E37" s="51"/>
-      <c r="F37" s="51"/>
+      <c r="D37" s="156" t="s">
+        <v>298</v>
+      </c>
+      <c r="E37" s="157"/>
+      <c r="F37" s="157"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="46" t="s">
         <v>115</v>
       </c>
       <c r="B38" s="46" t="s">
+        <v>332</v>
+      </c>
+      <c r="C38" s="46" t="s">
+        <v>269</v>
+      </c>
+      <c r="D38" s="46" t="s">
+        <v>332</v>
+      </c>
+      <c r="E38" s="46" t="s">
+        <v>276</v>
+      </c>
+      <c r="F38" s="46" t="s">
         <v>333</v>
-      </c>
-      <c r="C38" s="46" t="s">
-        <v>270</v>
-      </c>
-      <c r="D38" s="46" t="s">
-        <v>333</v>
-      </c>
-      <c r="E38" s="46" t="s">
-        <v>277</v>
-      </c>
-      <c r="F38" s="46" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="46" t="s">
+        <v>334</v>
+      </c>
+      <c r="B39" s="46" t="s">
+        <v>278</v>
+      </c>
+      <c r="C39" s="46" t="s">
+        <v>279</v>
+      </c>
+      <c r="D39" s="46" t="s">
+        <v>265</v>
+      </c>
+      <c r="E39" s="46" t="s">
+        <v>266</v>
+      </c>
+      <c r="F39" s="46" t="s">
         <v>335</v>
-      </c>
-      <c r="B39" s="46" t="s">
-        <v>279</v>
-      </c>
-      <c r="C39" s="46" t="s">
-        <v>280</v>
-      </c>
-      <c r="D39" s="46" t="s">
-        <v>266</v>
-      </c>
-      <c r="E39" s="46" t="s">
-        <v>267</v>
-      </c>
-      <c r="F39" s="46" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -10688,16 +10692,16 @@
         <v>44</v>
       </c>
       <c r="B40" s="46" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C40" s="46" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D40" s="46" t="s">
+        <v>265</v>
+      </c>
+      <c r="E40" s="46" t="s">
         <v>266</v>
-      </c>
-      <c r="E40" s="46" t="s">
-        <v>267</v>
       </c>
       <c r="F40" s="49"/>
     </row>
@@ -10706,19 +10710,19 @@
         <v>26</v>
       </c>
       <c r="B41" s="46" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C41" s="46" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D41" s="46" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E41" s="46" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F41" s="46" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
@@ -10726,19 +10730,19 @@
         <v>65</v>
       </c>
       <c r="B42" s="46" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C42" s="46" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D42" s="46" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E42" s="46" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F42" s="46" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
@@ -10746,34 +10750,34 @@
         <v>124</v>
       </c>
       <c r="B43" s="46" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C43" s="46" t="s">
+        <v>264</v>
+      </c>
+      <c r="D43" s="46" t="s">
         <v>265</v>
       </c>
-      <c r="D43" s="46" t="s">
+      <c r="E43" s="46" t="s">
         <v>266</v>
-      </c>
-      <c r="E43" s="46" t="s">
-        <v>267</v>
       </c>
       <c r="F43" s="49"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="46" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B44" s="46" t="s">
+        <v>278</v>
+      </c>
+      <c r="C44" s="46" t="s">
         <v>279</v>
       </c>
-      <c r="C44" s="46" t="s">
-        <v>280</v>
-      </c>
       <c r="D44" s="46" t="s">
+        <v>265</v>
+      </c>
+      <c r="E44" s="46" t="s">
         <v>266</v>
-      </c>
-      <c r="E44" s="46" t="s">
-        <v>267</v>
       </c>
       <c r="F44" s="49"/>
     </row>
@@ -10782,19 +10786,19 @@
         <v>88</v>
       </c>
       <c r="B45" s="46" t="s">
+        <v>341</v>
+      </c>
+      <c r="C45" s="46" t="s">
+        <v>264</v>
+      </c>
+      <c r="D45" s="46" t="s">
+        <v>265</v>
+      </c>
+      <c r="E45" s="46" t="s">
+        <v>266</v>
+      </c>
+      <c r="F45" s="46" t="s">
         <v>342</v>
-      </c>
-      <c r="C45" s="46" t="s">
-        <v>265</v>
-      </c>
-      <c r="D45" s="46" t="s">
-        <v>266</v>
-      </c>
-      <c r="E45" s="46" t="s">
-        <v>267</v>
-      </c>
-      <c r="F45" s="46" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
@@ -10802,23 +10806,23 @@
         <v>130</v>
       </c>
       <c r="B46" s="46" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C46" s="46" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D46" s="46" t="s">
+        <v>265</v>
+      </c>
+      <c r="E46" s="46" t="s">
         <v>266</v>
       </c>
-      <c r="E46" s="46" t="s">
-        <v>267</v>
-      </c>
       <c r="F46" s="46" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="53"/>
+      <c r="A47" s="52"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Antonio-Feed/__FeedPartsInventory.xlsx
+++ b/Antonio-Feed/__FeedPartsInventory.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarah/Documents/GitHub/Front-Page/Antonio-Feed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5260866F-82E5-AE49-B3DE-DDB961F0222F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B249F9E-9EA4-874F-8F7A-C1C5CA2063D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20400" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20340" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parts At ATA" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="470">
   <si>
     <t>Antenna Inventory</t>
   </si>
@@ -2204,6 +2204,12 @@
     <xf numFmtId="0" fontId="4" fillId="19" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2237,20 +2243,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2495,25 +2495,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="142" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="141"/>
-      <c r="C1" s="141"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="141"/>
-      <c r="H1" s="142"/>
-      <c r="I1" s="143"/>
-      <c r="J1" s="143"/>
-      <c r="K1" s="142"/>
-      <c r="L1" s="143"/>
-      <c r="M1" s="143"/>
-      <c r="N1" s="143"/>
-      <c r="O1" s="143"/>
-      <c r="P1" s="143"/>
-      <c r="Q1" s="143"/>
+      <c r="B1" s="143"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
+      <c r="G1" s="143"/>
+      <c r="H1" s="144"/>
+      <c r="I1" s="145"/>
+      <c r="J1" s="145"/>
+      <c r="K1" s="144"/>
+      <c r="L1" s="145"/>
+      <c r="M1" s="145"/>
+      <c r="N1" s="145"/>
+      <c r="O1" s="145"/>
+      <c r="P1" s="145"/>
+      <c r="Q1" s="145"/>
     </row>
     <row r="2" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -3832,38 +3832,38 @@
       <c r="A58" s="9"/>
     </row>
     <row r="59" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="144" t="s">
+      <c r="A59" s="146" t="s">
         <v>157</v>
       </c>
-      <c r="B59" s="139"/>
-      <c r="C59" s="139"/>
+      <c r="B59" s="141"/>
+      <c r="C59" s="141"/>
     </row>
     <row r="60" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="12"/>
     </row>
     <row r="61" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="138" t="s">
+      <c r="A61" s="140" t="s">
         <v>149</v>
       </c>
-      <c r="B61" s="139"/>
-      <c r="C61" s="138" t="s">
+      <c r="B61" s="141"/>
+      <c r="C61" s="140" t="s">
         <v>158</v>
       </c>
-      <c r="D61" s="139"/>
-      <c r="E61" s="139"/>
-      <c r="F61" s="139"/>
+      <c r="D61" s="141"/>
+      <c r="E61" s="141"/>
+      <c r="F61" s="141"/>
     </row>
     <row r="62" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="138" t="s">
+      <c r="A62" s="140" t="s">
         <v>159</v>
       </c>
-      <c r="B62" s="139"/>
-      <c r="C62" s="138" t="s">
+      <c r="B62" s="141"/>
+      <c r="C62" s="140" t="s">
         <v>160</v>
       </c>
-      <c r="D62" s="139"/>
-      <c r="E62" s="139"/>
-      <c r="F62" s="139"/>
+      <c r="D62" s="141"/>
+      <c r="E62" s="141"/>
+      <c r="F62" s="141"/>
     </row>
     <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="64" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4844,20 +4844,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="145" t="s">
+      <c r="A1" s="147" t="s">
         <v>161</v>
       </c>
-      <c r="B1" s="146"/>
-      <c r="C1" s="147" t="s">
+      <c r="B1" s="148"/>
+      <c r="C1" s="149" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="148"/>
-      <c r="E1" s="148"/>
-      <c r="F1" s="148"/>
-      <c r="G1" s="148"/>
-      <c r="H1" s="148"/>
-      <c r="I1" s="148"/>
-      <c r="J1" s="148"/>
+      <c r="D1" s="150"/>
+      <c r="E1" s="150"/>
+      <c r="F1" s="150"/>
+      <c r="G1" s="150"/>
+      <c r="H1" s="150"/>
+      <c r="I1" s="150"/>
+      <c r="J1" s="150"/>
       <c r="K1" s="75"/>
       <c r="L1" s="75"/>
     </row>
@@ -5675,20 +5675,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="149" t="s">
+      <c r="A1" s="151" t="s">
         <v>161</v>
       </c>
-      <c r="B1" s="150"/>
-      <c r="C1" s="149" t="s">
+      <c r="B1" s="152"/>
+      <c r="C1" s="151" t="s">
         <v>357</v>
       </c>
-      <c r="D1" s="151"/>
-      <c r="E1" s="151"/>
-      <c r="F1" s="151"/>
-      <c r="G1" s="151"/>
-      <c r="H1" s="151"/>
-      <c r="I1" s="151"/>
-      <c r="J1" s="150"/>
+      <c r="D1" s="153"/>
+      <c r="E1" s="153"/>
+      <c r="F1" s="153"/>
+      <c r="G1" s="153"/>
+      <c r="H1" s="153"/>
+      <c r="I1" s="153"/>
+      <c r="J1" s="152"/>
     </row>
     <row r="2" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="65" t="s">
@@ -7501,11 +7501,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="142" t="s">
         <v>438</v>
       </c>
-      <c r="B1" s="152"/>
-      <c r="C1" s="152"/>
+      <c r="B1" s="154"/>
+      <c r="C1" s="154"/>
       <c r="D1" s="109"/>
       <c r="E1" s="109"/>
       <c r="F1" s="109"/>
@@ -8191,18 +8191,18 @@
       <c r="C1" s="86" t="s">
         <v>415</v>
       </c>
-      <c r="D1" s="153" t="s">
+      <c r="D1" s="157" t="s">
         <v>262</v>
       </c>
-      <c r="E1" s="153"/>
+      <c r="E1" s="157"/>
       <c r="F1" s="95" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="83" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="9"/>
-      <c r="D2" s="155"/>
-      <c r="E2" s="155"/>
+      <c r="D2" s="156"/>
+      <c r="E2" s="156"/>
       <c r="G2" s="89"/>
       <c r="H2" s="89"/>
       <c r="I2" s="89"/>
@@ -8217,10 +8217,10 @@
       <c r="C3" s="90">
         <v>55</v>
       </c>
-      <c r="D3" s="154" t="s">
+      <c r="D3" s="155" t="s">
         <v>417</v>
       </c>
-      <c r="E3" s="155"/>
+      <c r="E3" s="156"/>
       <c r="F3" s="87" t="s">
         <v>254</v>
       </c>
@@ -8232,8 +8232,8 @@
       <c r="A4" s="84" t="s">
         <v>397</v>
       </c>
-      <c r="D4" s="155"/>
-      <c r="E4" s="155"/>
+      <c r="D4" s="156"/>
+      <c r="E4" s="156"/>
       <c r="F4" s="88"/>
       <c r="G4" s="89"/>
       <c r="H4" s="92"/>
@@ -8249,8 +8249,8 @@
       <c r="C5" s="90">
         <v>43</v>
       </c>
-      <c r="D5" s="155"/>
-      <c r="E5" s="155"/>
+      <c r="D5" s="156"/>
+      <c r="E5" s="156"/>
       <c r="F5" s="87" t="s">
         <v>254</v>
       </c>
@@ -8268,10 +8268,10 @@
       <c r="C6" s="90">
         <v>52</v>
       </c>
-      <c r="D6" s="154" t="s">
+      <c r="D6" s="155" t="s">
         <v>419</v>
       </c>
-      <c r="E6" s="155"/>
+      <c r="E6" s="156"/>
       <c r="F6" s="87" t="s">
         <v>254</v>
       </c>
@@ -8289,10 +8289,10 @@
       <c r="C7" s="90">
         <v>82</v>
       </c>
-      <c r="D7" s="154" t="s">
+      <c r="D7" s="155" t="s">
         <v>419</v>
       </c>
-      <c r="E7" s="155"/>
+      <c r="E7" s="156"/>
       <c r="F7" s="87" t="s">
         <v>254</v>
       </c>
@@ -8310,10 +8310,10 @@
       <c r="C8" s="90">
         <v>99</v>
       </c>
-      <c r="D8" s="154" t="s">
+      <c r="D8" s="155" t="s">
         <v>418</v>
       </c>
-      <c r="E8" s="155"/>
+      <c r="E8" s="156"/>
       <c r="F8" s="88"/>
       <c r="G8" s="89"/>
       <c r="H8" s="92"/>
@@ -8329,10 +8329,10 @@
       <c r="C9" s="90">
         <v>23</v>
       </c>
-      <c r="D9" s="154" t="s">
+      <c r="D9" s="155" t="s">
         <v>417</v>
       </c>
-      <c r="E9" s="155"/>
+      <c r="E9" s="156"/>
       <c r="F9" s="87" t="s">
         <v>254</v>
       </c>
@@ -8346,8 +8346,8 @@
       </c>
       <c r="B10" s="91"/>
       <c r="C10" s="90"/>
-      <c r="D10" s="155"/>
-      <c r="E10" s="155"/>
+      <c r="D10" s="156"/>
+      <c r="E10" s="156"/>
       <c r="F10" s="88"/>
       <c r="G10" s="89"/>
       <c r="H10" s="92"/>
@@ -8359,8 +8359,8 @@
       </c>
       <c r="B11" s="92"/>
       <c r="C11" s="90"/>
-      <c r="D11" s="155"/>
-      <c r="E11" s="155"/>
+      <c r="D11" s="156"/>
+      <c r="E11" s="156"/>
       <c r="F11" s="88"/>
       <c r="G11" s="89"/>
       <c r="H11" s="92"/>
@@ -8376,10 +8376,10 @@
       <c r="C12" s="90">
         <v>59</v>
       </c>
-      <c r="D12" s="154" t="s">
+      <c r="D12" s="155" t="s">
         <v>417</v>
       </c>
-      <c r="E12" s="155"/>
+      <c r="E12" s="156"/>
       <c r="F12" s="87" t="s">
         <v>254</v>
       </c>
@@ -8397,10 +8397,10 @@
       <c r="C13" s="90">
         <v>56</v>
       </c>
-      <c r="D13" s="154" t="s">
+      <c r="D13" s="155" t="s">
         <v>419</v>
       </c>
-      <c r="E13" s="155"/>
+      <c r="E13" s="156"/>
       <c r="F13" s="87" t="s">
         <v>254</v>
       </c>
@@ -8418,10 +8418,10 @@
       <c r="C14" s="90">
         <v>72</v>
       </c>
-      <c r="D14" s="154" t="s">
+      <c r="D14" s="155" t="s">
         <v>419</v>
       </c>
-      <c r="E14" s="155"/>
+      <c r="E14" s="156"/>
       <c r="F14" s="87" t="s">
         <v>254</v>
       </c>
@@ -8439,8 +8439,8 @@
       <c r="C15" s="90">
         <v>64</v>
       </c>
-      <c r="D15" s="155"/>
-      <c r="E15" s="155"/>
+      <c r="D15" s="156"/>
+      <c r="E15" s="156"/>
       <c r="F15" s="87" t="s">
         <v>254</v>
       </c>
@@ -8454,8 +8454,8 @@
       </c>
       <c r="B16" s="90"/>
       <c r="C16" s="90"/>
-      <c r="D16" s="155"/>
-      <c r="E16" s="155"/>
+      <c r="D16" s="156"/>
+      <c r="E16" s="156"/>
       <c r="F16" s="88"/>
       <c r="G16" s="89"/>
       <c r="H16" s="92"/>
@@ -8471,8 +8471,8 @@
       <c r="C17" s="90">
         <v>17</v>
       </c>
-      <c r="D17" s="155"/>
-      <c r="E17" s="155"/>
+      <c r="D17" s="156"/>
+      <c r="E17" s="156"/>
       <c r="F17" s="118" t="s">
         <v>254</v>
       </c>
@@ -8486,8 +8486,8 @@
       </c>
       <c r="B18" s="90"/>
       <c r="C18" s="90"/>
-      <c r="D18" s="155"/>
-      <c r="E18" s="155"/>
+      <c r="D18" s="156"/>
+      <c r="E18" s="156"/>
       <c r="F18" s="88"/>
       <c r="G18" s="89"/>
       <c r="H18" s="92"/>
@@ -8503,10 +8503,10 @@
       <c r="C19" s="90">
         <v>40</v>
       </c>
-      <c r="D19" s="154" t="s">
+      <c r="D19" s="155" t="s">
         <v>419</v>
       </c>
-      <c r="E19" s="155"/>
+      <c r="E19" s="156"/>
       <c r="F19" s="87" t="s">
         <v>254</v>
       </c>
@@ -8524,10 +8524,10 @@
       <c r="C20" s="90">
         <v>48</v>
       </c>
-      <c r="D20" s="154" t="s">
+      <c r="D20" s="155" t="s">
         <v>419</v>
       </c>
-      <c r="E20" s="155"/>
+      <c r="E20" s="156"/>
       <c r="F20" s="87" t="s">
         <v>254</v>
       </c>
@@ -8545,10 +8545,10 @@
       <c r="C21" s="90">
         <v>84</v>
       </c>
-      <c r="D21" s="154" t="s">
+      <c r="D21" s="155" t="s">
         <v>419</v>
       </c>
-      <c r="E21" s="155"/>
+      <c r="E21" s="156"/>
       <c r="F21" s="87" t="s">
         <v>424</v>
       </c>
@@ -9892,6 +9892,11 @@
     <row r="1023" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="D2:E2"/>
@@ -9908,11 +9913,6 @@
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9931,7 +9931,7 @@
   <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="M47" sqref="M47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10324,20 +10324,20 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="156" t="s">
+      <c r="A21" s="138" t="s">
         <v>305</v>
       </c>
-      <c r="B21" s="156" t="s">
+      <c r="B21" s="138" t="s">
         <v>278</v>
       </c>
-      <c r="C21" s="156" t="s">
+      <c r="C21" s="138" t="s">
         <v>279</v>
       </c>
-      <c r="D21" s="156" t="s">
+      <c r="D21" s="138" t="s">
         <v>298</v>
       </c>
-      <c r="E21" s="157"/>
-      <c r="F21" s="157"/>
+      <c r="E21" s="139"/>
+      <c r="F21" s="139"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="46" t="s">
@@ -10632,20 +10632,22 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="156" t="s">
+      <c r="A37" s="138" t="s">
         <v>331</v>
       </c>
-      <c r="B37" s="156" t="s">
+      <c r="B37" s="138" t="s">
         <v>278</v>
       </c>
-      <c r="C37" s="156" t="s">
+      <c r="C37" s="138" t="s">
         <v>279</v>
       </c>
-      <c r="D37" s="156" t="s">
-        <v>298</v>
-      </c>
-      <c r="E37" s="157"/>
-      <c r="F37" s="157"/>
+      <c r="D37" s="138" t="s">
+        <v>280</v>
+      </c>
+      <c r="E37" s="46" t="s">
+        <v>272</v>
+      </c>
+      <c r="F37" s="139"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="46" t="s">

--- a/Antonio-Feed/__FeedPartsInventory.xlsx
+++ b/Antonio-Feed/__FeedPartsInventory.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarah/Documents/GitHub/Front-Page/Antonio-Feed/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pollak/Documents/GitHub/Front-Page/Antonio-Feed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B249F9E-9EA4-874F-8F7A-C1C5CA2063D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAE366C2-04AE-FD47-BDBE-4DF362DF5F4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20340" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="72780" yWindow="460" windowWidth="35840" windowHeight="19700" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parts At ATA" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="473">
   <si>
     <t>Antenna Inventory</t>
   </si>
@@ -1458,6 +1458,15 @@
   </si>
   <si>
     <t>(020) 83 / 84</t>
+  </si>
+  <si>
+    <t>5C4-021</t>
+  </si>
+  <si>
+    <t>5C4-022</t>
+  </si>
+  <si>
+    <t>5C4-023</t>
   </si>
 </sst>
 </file>
@@ -1628,7 +1637,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="21">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1722,18 +1731,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor rgb="FF00FF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor theme="0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor rgb="FF00FF00"/>
       </patternFill>
     </fill>
@@ -1977,7 +1974,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="158">
+  <cellXfs count="157">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2195,15 +2192,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -2243,13 +2236,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2471,7 +2467,7 @@
   <dimension ref="A1:Q1001"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2495,25 +2491,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="142" t="s">
+      <c r="A1" s="140" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
-      <c r="G1" s="143"/>
-      <c r="H1" s="144"/>
-      <c r="I1" s="145"/>
-      <c r="J1" s="145"/>
-      <c r="K1" s="144"/>
-      <c r="L1" s="145"/>
-      <c r="M1" s="145"/>
-      <c r="N1" s="145"/>
-      <c r="O1" s="145"/>
-      <c r="P1" s="145"/>
-      <c r="Q1" s="145"/>
+      <c r="B1" s="141"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="143"/>
+      <c r="J1" s="143"/>
+      <c r="K1" s="142"/>
+      <c r="L1" s="143"/>
+      <c r="M1" s="143"/>
+      <c r="N1" s="143"/>
+      <c r="O1" s="143"/>
+      <c r="P1" s="143"/>
+      <c r="Q1" s="143"/>
     </row>
     <row r="2" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -3141,10 +3137,10 @@
         <v>87</v>
       </c>
       <c r="D23" s="78" t="s">
-        <v>437</v>
-      </c>
-      <c r="E23" s="133" t="s">
-        <v>334</v>
+        <v>77</v>
+      </c>
+      <c r="E23" s="131" t="s">
+        <v>103</v>
       </c>
       <c r="F23" s="78"/>
       <c r="H23" s="68"/>
@@ -3832,38 +3828,38 @@
       <c r="A58" s="9"/>
     </row>
     <row r="59" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="146" t="s">
+      <c r="A59" s="144" t="s">
         <v>157</v>
       </c>
-      <c r="B59" s="141"/>
-      <c r="C59" s="141"/>
+      <c r="B59" s="139"/>
+      <c r="C59" s="139"/>
     </row>
     <row r="60" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="12"/>
     </row>
     <row r="61" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="140" t="s">
+      <c r="A61" s="138" t="s">
         <v>149</v>
       </c>
-      <c r="B61" s="141"/>
-      <c r="C61" s="140" t="s">
+      <c r="B61" s="139"/>
+      <c r="C61" s="138" t="s">
         <v>158</v>
       </c>
-      <c r="D61" s="141"/>
-      <c r="E61" s="141"/>
-      <c r="F61" s="141"/>
+      <c r="D61" s="139"/>
+      <c r="E61" s="139"/>
+      <c r="F61" s="139"/>
     </row>
     <row r="62" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="140" t="s">
+      <c r="A62" s="138" t="s">
         <v>159</v>
       </c>
-      <c r="B62" s="141"/>
-      <c r="C62" s="140" t="s">
+      <c r="B62" s="139"/>
+      <c r="C62" s="138" t="s">
         <v>160</v>
       </c>
-      <c r="D62" s="141"/>
-      <c r="E62" s="141"/>
-      <c r="F62" s="141"/>
+      <c r="D62" s="139"/>
+      <c r="E62" s="139"/>
+      <c r="F62" s="139"/>
     </row>
     <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="64" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4828,10 +4824,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4844,20 +4840,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="147" t="s">
+      <c r="A1" s="145" t="s">
         <v>161</v>
       </c>
-      <c r="B1" s="148"/>
-      <c r="C1" s="149" t="s">
+      <c r="B1" s="146"/>
+      <c r="C1" s="147" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="150"/>
-      <c r="E1" s="150"/>
-      <c r="F1" s="150"/>
-      <c r="G1" s="150"/>
-      <c r="H1" s="150"/>
-      <c r="I1" s="150"/>
-      <c r="J1" s="150"/>
+      <c r="D1" s="148"/>
+      <c r="E1" s="148"/>
+      <c r="F1" s="148"/>
+      <c r="G1" s="148"/>
+      <c r="H1" s="148"/>
+      <c r="I1" s="148"/>
+      <c r="J1" s="148"/>
       <c r="K1" s="75"/>
       <c r="L1" s="75"/>
     </row>
@@ -4903,7 +4899,7 @@
       <c r="A3" s="21" t="s">
         <v>437</v>
       </c>
-      <c r="B3" s="135" t="s">
+      <c r="B3" s="133" t="s">
         <v>165</v>
       </c>
       <c r="C3" s="20" t="s">
@@ -5130,8 +5126,8 @@
       <c r="A9" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="B9" s="76" t="s">
-        <v>283</v>
+      <c r="B9" s="133" t="s">
+        <v>165</v>
       </c>
       <c r="C9" s="20" t="s">
         <v>28</v>
@@ -5537,8 +5533,8 @@
       <c r="A20" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="B20" s="132" t="s">
-        <v>165</v>
+      <c r="B20" s="72" t="s">
+        <v>341</v>
       </c>
       <c r="C20" s="22" t="s">
         <v>28</v>
@@ -5561,8 +5557,8 @@
       <c r="I20" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="J20" s="131" t="s">
-        <v>170</v>
+      <c r="J20" s="20" t="s">
+        <v>28</v>
       </c>
       <c r="K20" s="71" t="s">
         <v>467</v>
@@ -5615,7 +5611,7 @@
         <f>HYPERLINK("https://drive.google.com/drive/folders/1wMVARUxnYHeiTbbEodCmZFb_vx9FkRVr","5C4-020")</f>
         <v>5C4-020</v>
       </c>
-      <c r="B22" s="134" t="s">
+      <c r="B22" s="132" t="s">
         <v>174</v>
       </c>
       <c r="C22" s="128" t="s">
@@ -5648,6 +5644,54 @@
       <c r="L22" s="71" t="s">
         <v>463</v>
       </c>
+    </row>
+    <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="24" t="s">
+        <v>470</v>
+      </c>
+      <c r="B23" s="130"/>
+      <c r="C23" s="156"/>
+      <c r="D23" s="71"/>
+      <c r="E23" s="71"/>
+      <c r="F23" s="71"/>
+      <c r="G23" s="71"/>
+      <c r="H23" s="71"/>
+      <c r="I23" s="71"/>
+      <c r="J23" s="71"/>
+      <c r="K23" s="71"/>
+      <c r="L23" s="71"/>
+    </row>
+    <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="24" t="s">
+        <v>471</v>
+      </c>
+      <c r="B24" s="130"/>
+      <c r="C24" s="156"/>
+      <c r="D24" s="71"/>
+      <c r="E24" s="71"/>
+      <c r="F24" s="71"/>
+      <c r="G24" s="71"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="71"/>
+      <c r="J24" s="71"/>
+      <c r="K24" s="71"/>
+      <c r="L24" s="71"/>
+    </row>
+    <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="24" t="s">
+        <v>472</v>
+      </c>
+      <c r="B25" s="130"/>
+      <c r="C25" s="156"/>
+      <c r="D25" s="71"/>
+      <c r="E25" s="71"/>
+      <c r="F25" s="71"/>
+      <c r="G25" s="71"/>
+      <c r="H25" s="71"/>
+      <c r="I25" s="71"/>
+      <c r="J25" s="71"/>
+      <c r="K25" s="71"/>
+      <c r="L25" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5675,20 +5719,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="151" t="s">
+      <c r="A1" s="149" t="s">
         <v>161</v>
       </c>
-      <c r="B1" s="152"/>
-      <c r="C1" s="151" t="s">
+      <c r="B1" s="150"/>
+      <c r="C1" s="149" t="s">
         <v>357</v>
       </c>
-      <c r="D1" s="153"/>
-      <c r="E1" s="153"/>
-      <c r="F1" s="153"/>
-      <c r="G1" s="153"/>
-      <c r="H1" s="153"/>
-      <c r="I1" s="153"/>
-      <c r="J1" s="152"/>
+      <c r="D1" s="151"/>
+      <c r="E1" s="151"/>
+      <c r="F1" s="151"/>
+      <c r="G1" s="151"/>
+      <c r="H1" s="151"/>
+      <c r="I1" s="151"/>
+      <c r="J1" s="150"/>
     </row>
     <row r="2" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="65" t="s">
@@ -5868,7 +5912,7 @@
       <c r="A11" s="53" t="s">
         <v>349</v>
       </c>
-      <c r="B11" s="137" t="s">
+      <c r="B11" s="135" t="s">
         <v>165</v>
       </c>
       <c r="C11" s="60" t="s">
@@ -5984,7 +6028,7 @@
       <c r="A17" s="53" t="s">
         <v>235</v>
       </c>
-      <c r="B17" s="136" t="s">
+      <c r="B17" s="134" t="s">
         <v>458</v>
       </c>
       <c r="C17" s="62" t="s">
@@ -6004,7 +6048,7 @@
       <c r="A18" s="57" t="s">
         <v>171</v>
       </c>
-      <c r="B18" s="136" t="s">
+      <c r="B18" s="134" t="s">
         <v>343</v>
       </c>
       <c r="C18" s="62" t="s">
@@ -6024,7 +6068,7 @@
       <c r="A19" s="53" t="s">
         <v>236</v>
       </c>
-      <c r="B19" s="136" t="s">
+      <c r="B19" s="134" t="s">
         <v>268</v>
       </c>
       <c r="C19" s="62" t="s">
@@ -7501,11 +7545,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="142" t="s">
+      <c r="A1" s="140" t="s">
         <v>438</v>
       </c>
-      <c r="B1" s="154"/>
-      <c r="C1" s="154"/>
+      <c r="B1" s="152"/>
+      <c r="C1" s="152"/>
       <c r="D1" s="109"/>
       <c r="E1" s="109"/>
       <c r="F1" s="109"/>
@@ -8191,18 +8235,18 @@
       <c r="C1" s="86" t="s">
         <v>415</v>
       </c>
-      <c r="D1" s="157" t="s">
+      <c r="D1" s="153" t="s">
         <v>262</v>
       </c>
-      <c r="E1" s="157"/>
+      <c r="E1" s="153"/>
       <c r="F1" s="95" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="83" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="9"/>
-      <c r="D2" s="156"/>
-      <c r="E2" s="156"/>
+      <c r="D2" s="155"/>
+      <c r="E2" s="155"/>
       <c r="G2" s="89"/>
       <c r="H2" s="89"/>
       <c r="I2" s="89"/>
@@ -8217,10 +8261,10 @@
       <c r="C3" s="90">
         <v>55</v>
       </c>
-      <c r="D3" s="155" t="s">
+      <c r="D3" s="154" t="s">
         <v>417</v>
       </c>
-      <c r="E3" s="156"/>
+      <c r="E3" s="155"/>
       <c r="F3" s="87" t="s">
         <v>254</v>
       </c>
@@ -8232,8 +8276,8 @@
       <c r="A4" s="84" t="s">
         <v>397</v>
       </c>
-      <c r="D4" s="156"/>
-      <c r="E4" s="156"/>
+      <c r="D4" s="155"/>
+      <c r="E4" s="155"/>
       <c r="F4" s="88"/>
       <c r="G4" s="89"/>
       <c r="H4" s="92"/>
@@ -8249,8 +8293,8 @@
       <c r="C5" s="90">
         <v>43</v>
       </c>
-      <c r="D5" s="156"/>
-      <c r="E5" s="156"/>
+      <c r="D5" s="155"/>
+      <c r="E5" s="155"/>
       <c r="F5" s="87" t="s">
         <v>254</v>
       </c>
@@ -8268,10 +8312,10 @@
       <c r="C6" s="90">
         <v>52</v>
       </c>
-      <c r="D6" s="155" t="s">
+      <c r="D6" s="154" t="s">
         <v>419</v>
       </c>
-      <c r="E6" s="156"/>
+      <c r="E6" s="155"/>
       <c r="F6" s="87" t="s">
         <v>254</v>
       </c>
@@ -8289,10 +8333,10 @@
       <c r="C7" s="90">
         <v>82</v>
       </c>
-      <c r="D7" s="155" t="s">
+      <c r="D7" s="154" t="s">
         <v>419</v>
       </c>
-      <c r="E7" s="156"/>
+      <c r="E7" s="155"/>
       <c r="F7" s="87" t="s">
         <v>254</v>
       </c>
@@ -8310,10 +8354,10 @@
       <c r="C8" s="90">
         <v>99</v>
       </c>
-      <c r="D8" s="155" t="s">
+      <c r="D8" s="154" t="s">
         <v>418</v>
       </c>
-      <c r="E8" s="156"/>
+      <c r="E8" s="155"/>
       <c r="F8" s="88"/>
       <c r="G8" s="89"/>
       <c r="H8" s="92"/>
@@ -8329,10 +8373,10 @@
       <c r="C9" s="90">
         <v>23</v>
       </c>
-      <c r="D9" s="155" t="s">
+      <c r="D9" s="154" t="s">
         <v>417</v>
       </c>
-      <c r="E9" s="156"/>
+      <c r="E9" s="155"/>
       <c r="F9" s="87" t="s">
         <v>254</v>
       </c>
@@ -8346,8 +8390,8 @@
       </c>
       <c r="B10" s="91"/>
       <c r="C10" s="90"/>
-      <c r="D10" s="156"/>
-      <c r="E10" s="156"/>
+      <c r="D10" s="155"/>
+      <c r="E10" s="155"/>
       <c r="F10" s="88"/>
       <c r="G10" s="89"/>
       <c r="H10" s="92"/>
@@ -8359,8 +8403,8 @@
       </c>
       <c r="B11" s="92"/>
       <c r="C11" s="90"/>
-      <c r="D11" s="156"/>
-      <c r="E11" s="156"/>
+      <c r="D11" s="155"/>
+      <c r="E11" s="155"/>
       <c r="F11" s="88"/>
       <c r="G11" s="89"/>
       <c r="H11" s="92"/>
@@ -8376,10 +8420,10 @@
       <c r="C12" s="90">
         <v>59</v>
       </c>
-      <c r="D12" s="155" t="s">
+      <c r="D12" s="154" t="s">
         <v>417</v>
       </c>
-      <c r="E12" s="156"/>
+      <c r="E12" s="155"/>
       <c r="F12" s="87" t="s">
         <v>254</v>
       </c>
@@ -8397,10 +8441,10 @@
       <c r="C13" s="90">
         <v>56</v>
       </c>
-      <c r="D13" s="155" t="s">
+      <c r="D13" s="154" t="s">
         <v>419</v>
       </c>
-      <c r="E13" s="156"/>
+      <c r="E13" s="155"/>
       <c r="F13" s="87" t="s">
         <v>254</v>
       </c>
@@ -8418,10 +8462,10 @@
       <c r="C14" s="90">
         <v>72</v>
       </c>
-      <c r="D14" s="155" t="s">
+      <c r="D14" s="154" t="s">
         <v>419</v>
       </c>
-      <c r="E14" s="156"/>
+      <c r="E14" s="155"/>
       <c r="F14" s="87" t="s">
         <v>254</v>
       </c>
@@ -8439,8 +8483,8 @@
       <c r="C15" s="90">
         <v>64</v>
       </c>
-      <c r="D15" s="156"/>
-      <c r="E15" s="156"/>
+      <c r="D15" s="155"/>
+      <c r="E15" s="155"/>
       <c r="F15" s="87" t="s">
         <v>254</v>
       </c>
@@ -8454,8 +8498,8 @@
       </c>
       <c r="B16" s="90"/>
       <c r="C16" s="90"/>
-      <c r="D16" s="156"/>
-      <c r="E16" s="156"/>
+      <c r="D16" s="155"/>
+      <c r="E16" s="155"/>
       <c r="F16" s="88"/>
       <c r="G16" s="89"/>
       <c r="H16" s="92"/>
@@ -8471,8 +8515,8 @@
       <c r="C17" s="90">
         <v>17</v>
       </c>
-      <c r="D17" s="156"/>
-      <c r="E17" s="156"/>
+      <c r="D17" s="155"/>
+      <c r="E17" s="155"/>
       <c r="F17" s="118" t="s">
         <v>254</v>
       </c>
@@ -8486,8 +8530,8 @@
       </c>
       <c r="B18" s="90"/>
       <c r="C18" s="90"/>
-      <c r="D18" s="156"/>
-      <c r="E18" s="156"/>
+      <c r="D18" s="155"/>
+      <c r="E18" s="155"/>
       <c r="F18" s="88"/>
       <c r="G18" s="89"/>
       <c r="H18" s="92"/>
@@ -8503,10 +8547,10 @@
       <c r="C19" s="90">
         <v>40</v>
       </c>
-      <c r="D19" s="155" t="s">
+      <c r="D19" s="154" t="s">
         <v>419</v>
       </c>
-      <c r="E19" s="156"/>
+      <c r="E19" s="155"/>
       <c r="F19" s="87" t="s">
         <v>254</v>
       </c>
@@ -8524,10 +8568,10 @@
       <c r="C20" s="90">
         <v>48</v>
       </c>
-      <c r="D20" s="155" t="s">
+      <c r="D20" s="154" t="s">
         <v>419</v>
       </c>
-      <c r="E20" s="156"/>
+      <c r="E20" s="155"/>
       <c r="F20" s="87" t="s">
         <v>254</v>
       </c>
@@ -8545,10 +8589,10 @@
       <c r="C21" s="90">
         <v>84</v>
       </c>
-      <c r="D21" s="155" t="s">
+      <c r="D21" s="154" t="s">
         <v>419</v>
       </c>
-      <c r="E21" s="156"/>
+      <c r="E21" s="155"/>
       <c r="F21" s="87" t="s">
         <v>424</v>
       </c>
@@ -9892,11 +9936,6 @@
     <row r="1023" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="D2:E2"/>
@@ -9913,6 +9952,11 @@
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9930,7 +9974,7 @@
   </sheetPr>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M47" sqref="M47"/>
     </sheetView>
   </sheetViews>
@@ -10324,20 +10368,20 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="138" t="s">
+      <c r="A21" s="136" t="s">
         <v>305</v>
       </c>
-      <c r="B21" s="138" t="s">
+      <c r="B21" s="136" t="s">
         <v>278</v>
       </c>
-      <c r="C21" s="138" t="s">
+      <c r="C21" s="136" t="s">
         <v>279</v>
       </c>
-      <c r="D21" s="138" t="s">
+      <c r="D21" s="136" t="s">
         <v>298</v>
       </c>
-      <c r="E21" s="139"/>
-      <c r="F21" s="139"/>
+      <c r="E21" s="137"/>
+      <c r="F21" s="137"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="46" t="s">
@@ -10632,22 +10676,22 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="138" t="s">
+      <c r="A37" s="136" t="s">
         <v>331</v>
       </c>
-      <c r="B37" s="138" t="s">
+      <c r="B37" s="136" t="s">
         <v>278</v>
       </c>
-      <c r="C37" s="138" t="s">
+      <c r="C37" s="136" t="s">
         <v>279</v>
       </c>
-      <c r="D37" s="138" t="s">
+      <c r="D37" s="136" t="s">
         <v>280</v>
       </c>
       <c r="E37" s="46" t="s">
         <v>272</v>
       </c>
-      <c r="F37" s="139"/>
+      <c r="F37" s="137"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="46" t="s">

--- a/Antonio-Feed/__FeedPartsInventory.xlsx
+++ b/Antonio-Feed/__FeedPartsInventory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pollak/Documents/GitHub/Front-Page/Antonio-Feed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAE366C2-04AE-FD47-BDBE-4DF362DF5F4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F35A365-E7A6-A24C-83FD-750DEFB2F25E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="72780" yWindow="460" windowWidth="35840" windowHeight="19700" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2203,6 +2203,9 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2236,16 +2239,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2491,25 +2491,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="141" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="141"/>
-      <c r="C1" s="141"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="141"/>
-      <c r="H1" s="142"/>
-      <c r="I1" s="143"/>
-      <c r="J1" s="143"/>
-      <c r="K1" s="142"/>
-      <c r="L1" s="143"/>
-      <c r="M1" s="143"/>
-      <c r="N1" s="143"/>
-      <c r="O1" s="143"/>
-      <c r="P1" s="143"/>
-      <c r="Q1" s="143"/>
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="143"/>
+      <c r="I1" s="144"/>
+      <c r="J1" s="144"/>
+      <c r="K1" s="143"/>
+      <c r="L1" s="144"/>
+      <c r="M1" s="144"/>
+      <c r="N1" s="144"/>
+      <c r="O1" s="144"/>
+      <c r="P1" s="144"/>
+      <c r="Q1" s="144"/>
     </row>
     <row r="2" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -3828,38 +3828,38 @@
       <c r="A58" s="9"/>
     </row>
     <row r="59" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="144" t="s">
+      <c r="A59" s="145" t="s">
         <v>157</v>
       </c>
-      <c r="B59" s="139"/>
-      <c r="C59" s="139"/>
+      <c r="B59" s="140"/>
+      <c r="C59" s="140"/>
     </row>
     <row r="60" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="12"/>
     </row>
     <row r="61" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="138" t="s">
+      <c r="A61" s="139" t="s">
         <v>149</v>
       </c>
-      <c r="B61" s="139"/>
-      <c r="C61" s="138" t="s">
+      <c r="B61" s="140"/>
+      <c r="C61" s="139" t="s">
         <v>158</v>
       </c>
-      <c r="D61" s="139"/>
-      <c r="E61" s="139"/>
-      <c r="F61" s="139"/>
+      <c r="D61" s="140"/>
+      <c r="E61" s="140"/>
+      <c r="F61" s="140"/>
     </row>
     <row r="62" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="138" t="s">
+      <c r="A62" s="139" t="s">
         <v>159</v>
       </c>
-      <c r="B62" s="139"/>
-      <c r="C62" s="138" t="s">
+      <c r="B62" s="140"/>
+      <c r="C62" s="139" t="s">
         <v>160</v>
       </c>
-      <c r="D62" s="139"/>
-      <c r="E62" s="139"/>
-      <c r="F62" s="139"/>
+      <c r="D62" s="140"/>
+      <c r="E62" s="140"/>
+      <c r="F62" s="140"/>
     </row>
     <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="64" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4827,7 +4827,7 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="J42" sqref="J42"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4840,20 +4840,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="145" t="s">
+      <c r="A1" s="146" t="s">
         <v>161</v>
       </c>
-      <c r="B1" s="146"/>
-      <c r="C1" s="147" t="s">
+      <c r="B1" s="147"/>
+      <c r="C1" s="148" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="148"/>
-      <c r="E1" s="148"/>
-      <c r="F1" s="148"/>
-      <c r="G1" s="148"/>
-      <c r="H1" s="148"/>
-      <c r="I1" s="148"/>
-      <c r="J1" s="148"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="149"/>
+      <c r="F1" s="149"/>
+      <c r="G1" s="149"/>
+      <c r="H1" s="149"/>
+      <c r="I1" s="149"/>
+      <c r="J1" s="149"/>
       <c r="K1" s="75"/>
       <c r="L1" s="75"/>
     </row>
@@ -4899,8 +4899,8 @@
       <c r="A3" s="21" t="s">
         <v>437</v>
       </c>
-      <c r="B3" s="133" t="s">
-        <v>165</v>
+      <c r="B3" s="76" t="s">
+        <v>294</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>28</v>
@@ -5650,7 +5650,7 @@
         <v>470</v>
       </c>
       <c r="B23" s="130"/>
-      <c r="C23" s="156"/>
+      <c r="C23" s="138"/>
       <c r="D23" s="71"/>
       <c r="E23" s="71"/>
       <c r="F23" s="71"/>
@@ -5666,7 +5666,7 @@
         <v>471</v>
       </c>
       <c r="B24" s="130"/>
-      <c r="C24" s="156"/>
+      <c r="C24" s="138"/>
       <c r="D24" s="71"/>
       <c r="E24" s="71"/>
       <c r="F24" s="71"/>
@@ -5682,7 +5682,7 @@
         <v>472</v>
       </c>
       <c r="B25" s="130"/>
-      <c r="C25" s="156"/>
+      <c r="C25" s="138"/>
       <c r="D25" s="71"/>
       <c r="E25" s="71"/>
       <c r="F25" s="71"/>
@@ -5719,20 +5719,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="149" t="s">
+      <c r="A1" s="150" t="s">
         <v>161</v>
       </c>
-      <c r="B1" s="150"/>
-      <c r="C1" s="149" t="s">
+      <c r="B1" s="151"/>
+      <c r="C1" s="150" t="s">
         <v>357</v>
       </c>
-      <c r="D1" s="151"/>
-      <c r="E1" s="151"/>
-      <c r="F1" s="151"/>
-      <c r="G1" s="151"/>
-      <c r="H1" s="151"/>
-      <c r="I1" s="151"/>
-      <c r="J1" s="150"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="152"/>
+      <c r="F1" s="152"/>
+      <c r="G1" s="152"/>
+      <c r="H1" s="152"/>
+      <c r="I1" s="152"/>
+      <c r="J1" s="151"/>
     </row>
     <row r="2" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="65" t="s">
@@ -7545,11 +7545,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="141" t="s">
         <v>438</v>
       </c>
-      <c r="B1" s="152"/>
-      <c r="C1" s="152"/>
+      <c r="B1" s="153"/>
+      <c r="C1" s="153"/>
       <c r="D1" s="109"/>
       <c r="E1" s="109"/>
       <c r="F1" s="109"/>
@@ -8235,10 +8235,10 @@
       <c r="C1" s="86" t="s">
         <v>415</v>
       </c>
-      <c r="D1" s="153" t="s">
+      <c r="D1" s="156" t="s">
         <v>262</v>
       </c>
-      <c r="E1" s="153"/>
+      <c r="E1" s="156"/>
       <c r="F1" s="95" t="s">
         <v>421</v>
       </c>
@@ -9936,6 +9936,11 @@
     <row r="1023" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="D2:E2"/>
@@ -9952,11 +9957,6 @@
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Antonio-Feed/__FeedPartsInventory.xlsx
+++ b/Antonio-Feed/__FeedPartsInventory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pollak/Documents/GitHub/Front-Page/Antonio-Feed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F35A365-E7A6-A24C-83FD-750DEFB2F25E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{042106DA-629E-A640-BB50-38512919C795}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="72780" yWindow="460" windowWidth="35840" windowHeight="19700" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1637,7 +1637,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1736,14 +1736,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor rgb="FF00FF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -1974,7 +1980,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="157">
+  <cellXfs count="158">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2194,9 +2200,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -2239,13 +2244,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2491,25 +2500,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="141" t="s">
+      <c r="A1" s="140" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="142"/>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="142"/>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="143"/>
-      <c r="I1" s="144"/>
-      <c r="J1" s="144"/>
-      <c r="K1" s="143"/>
-      <c r="L1" s="144"/>
-      <c r="M1" s="144"/>
-      <c r="N1" s="144"/>
-      <c r="O1" s="144"/>
-      <c r="P1" s="144"/>
-      <c r="Q1" s="144"/>
+      <c r="B1" s="141"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="143"/>
+      <c r="J1" s="143"/>
+      <c r="K1" s="142"/>
+      <c r="L1" s="143"/>
+      <c r="M1" s="143"/>
+      <c r="N1" s="143"/>
+      <c r="O1" s="143"/>
+      <c r="P1" s="143"/>
+      <c r="Q1" s="143"/>
     </row>
     <row r="2" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -3828,38 +3837,38 @@
       <c r="A58" s="9"/>
     </row>
     <row r="59" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="145" t="s">
+      <c r="A59" s="144" t="s">
         <v>157</v>
       </c>
-      <c r="B59" s="140"/>
-      <c r="C59" s="140"/>
+      <c r="B59" s="139"/>
+      <c r="C59" s="139"/>
     </row>
     <row r="60" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="12"/>
     </row>
     <row r="61" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="139" t="s">
+      <c r="A61" s="138" t="s">
         <v>149</v>
       </c>
-      <c r="B61" s="140"/>
-      <c r="C61" s="139" t="s">
+      <c r="B61" s="139"/>
+      <c r="C61" s="138" t="s">
         <v>158</v>
       </c>
-      <c r="D61" s="140"/>
-      <c r="E61" s="140"/>
-      <c r="F61" s="140"/>
+      <c r="D61" s="139"/>
+      <c r="E61" s="139"/>
+      <c r="F61" s="139"/>
     </row>
     <row r="62" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="139" t="s">
+      <c r="A62" s="138" t="s">
         <v>159</v>
       </c>
-      <c r="B62" s="140"/>
-      <c r="C62" s="139" t="s">
+      <c r="B62" s="139"/>
+      <c r="C62" s="138" t="s">
         <v>160</v>
       </c>
-      <c r="D62" s="140"/>
-      <c r="E62" s="140"/>
-      <c r="F62" s="140"/>
+      <c r="D62" s="139"/>
+      <c r="E62" s="139"/>
+      <c r="F62" s="139"/>
     </row>
     <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="64" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4827,7 +4836,7 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection sqref="A1:J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4840,20 +4849,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="146" t="s">
+      <c r="A1" s="145" t="s">
         <v>161</v>
       </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="148" t="s">
+      <c r="B1" s="146"/>
+      <c r="C1" s="147" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="149"/>
-      <c r="E1" s="149"/>
-      <c r="F1" s="149"/>
-      <c r="G1" s="149"/>
-      <c r="H1" s="149"/>
-      <c r="I1" s="149"/>
-      <c r="J1" s="149"/>
+      <c r="D1" s="148"/>
+      <c r="E1" s="148"/>
+      <c r="F1" s="148"/>
+      <c r="G1" s="148"/>
+      <c r="H1" s="148"/>
+      <c r="I1" s="148"/>
+      <c r="J1" s="148"/>
       <c r="K1" s="75"/>
       <c r="L1" s="75"/>
     </row>
@@ -5126,7 +5135,7 @@
       <c r="A9" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="B9" s="133" t="s">
+      <c r="B9" s="156" t="s">
         <v>165</v>
       </c>
       <c r="C9" s="20" t="s">
@@ -5141,7 +5150,7 @@
       <c r="F9" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="G9" s="157" t="s">
         <v>28</v>
       </c>
       <c r="H9" s="20" t="s">
@@ -5650,7 +5659,7 @@
         <v>470</v>
       </c>
       <c r="B23" s="130"/>
-      <c r="C23" s="138"/>
+      <c r="C23" s="137"/>
       <c r="D23" s="71"/>
       <c r="E23" s="71"/>
       <c r="F23" s="71"/>
@@ -5666,7 +5675,7 @@
         <v>471</v>
       </c>
       <c r="B24" s="130"/>
-      <c r="C24" s="138"/>
+      <c r="C24" s="137"/>
       <c r="D24" s="71"/>
       <c r="E24" s="71"/>
       <c r="F24" s="71"/>
@@ -5682,7 +5691,7 @@
         <v>472</v>
       </c>
       <c r="B25" s="130"/>
-      <c r="C25" s="138"/>
+      <c r="C25" s="137"/>
       <c r="D25" s="71"/>
       <c r="E25" s="71"/>
       <c r="F25" s="71"/>
@@ -5719,20 +5728,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="150" t="s">
+      <c r="A1" s="149" t="s">
         <v>161</v>
       </c>
-      <c r="B1" s="151"/>
-      <c r="C1" s="150" t="s">
+      <c r="B1" s="150"/>
+      <c r="C1" s="149" t="s">
         <v>357</v>
       </c>
-      <c r="D1" s="152"/>
-      <c r="E1" s="152"/>
-      <c r="F1" s="152"/>
-      <c r="G1" s="152"/>
-      <c r="H1" s="152"/>
-      <c r="I1" s="152"/>
-      <c r="J1" s="151"/>
+      <c r="D1" s="151"/>
+      <c r="E1" s="151"/>
+      <c r="F1" s="151"/>
+      <c r="G1" s="151"/>
+      <c r="H1" s="151"/>
+      <c r="I1" s="151"/>
+      <c r="J1" s="150"/>
     </row>
     <row r="2" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="65" t="s">
@@ -5912,7 +5921,7 @@
       <c r="A11" s="53" t="s">
         <v>349</v>
       </c>
-      <c r="B11" s="135" t="s">
+      <c r="B11" s="134" t="s">
         <v>165</v>
       </c>
       <c r="C11" s="60" t="s">
@@ -6028,7 +6037,7 @@
       <c r="A17" s="53" t="s">
         <v>235</v>
       </c>
-      <c r="B17" s="134" t="s">
+      <c r="B17" s="133" t="s">
         <v>458</v>
       </c>
       <c r="C17" s="62" t="s">
@@ -6048,7 +6057,7 @@
       <c r="A18" s="57" t="s">
         <v>171</v>
       </c>
-      <c r="B18" s="134" t="s">
+      <c r="B18" s="133" t="s">
         <v>343</v>
       </c>
       <c r="C18" s="62" t="s">
@@ -6068,7 +6077,7 @@
       <c r="A19" s="53" t="s">
         <v>236</v>
       </c>
-      <c r="B19" s="134" t="s">
+      <c r="B19" s="133" t="s">
         <v>268</v>
       </c>
       <c r="C19" s="62" t="s">
@@ -7545,11 +7554,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="141" t="s">
+      <c r="A1" s="140" t="s">
         <v>438</v>
       </c>
-      <c r="B1" s="153"/>
-      <c r="C1" s="153"/>
+      <c r="B1" s="152"/>
+      <c r="C1" s="152"/>
       <c r="D1" s="109"/>
       <c r="E1" s="109"/>
       <c r="F1" s="109"/>
@@ -8235,10 +8244,10 @@
       <c r="C1" s="86" t="s">
         <v>415</v>
       </c>
-      <c r="D1" s="156" t="s">
+      <c r="D1" s="153" t="s">
         <v>262</v>
       </c>
-      <c r="E1" s="156"/>
+      <c r="E1" s="153"/>
       <c r="F1" s="95" t="s">
         <v>421</v>
       </c>
@@ -9936,11 +9945,6 @@
     <row r="1023" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="D2:E2"/>
@@ -9957,6 +9961,11 @@
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10368,20 +10377,20 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="136" t="s">
+      <c r="A21" s="135" t="s">
         <v>305</v>
       </c>
-      <c r="B21" s="136" t="s">
+      <c r="B21" s="135" t="s">
         <v>278</v>
       </c>
-      <c r="C21" s="136" t="s">
+      <c r="C21" s="135" t="s">
         <v>279</v>
       </c>
-      <c r="D21" s="136" t="s">
+      <c r="D21" s="135" t="s">
         <v>298</v>
       </c>
-      <c r="E21" s="137"/>
-      <c r="F21" s="137"/>
+      <c r="E21" s="136"/>
+      <c r="F21" s="136"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="46" t="s">
@@ -10676,22 +10685,22 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="136" t="s">
+      <c r="A37" s="135" t="s">
         <v>331</v>
       </c>
-      <c r="B37" s="136" t="s">
+      <c r="B37" s="135" t="s">
         <v>278</v>
       </c>
-      <c r="C37" s="136" t="s">
+      <c r="C37" s="135" t="s">
         <v>279</v>
       </c>
-      <c r="D37" s="136" t="s">
+      <c r="D37" s="135" t="s">
         <v>280</v>
       </c>
       <c r="E37" s="46" t="s">
         <v>272</v>
       </c>
-      <c r="F37" s="137"/>
+      <c r="F37" s="136"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="46" t="s">

--- a/Antonio-Feed/__FeedPartsInventory.xlsx
+++ b/Antonio-Feed/__FeedPartsInventory.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pollak/Documents/GitHub/Front-Page/Antonio-Feed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{042106DA-629E-A640-BB50-38512919C795}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED16211-316E-0749-8544-385CA4B48528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="72780" yWindow="460" windowWidth="35840" windowHeight="19700" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="71000" yWindow="460" windowWidth="35840" windowHeight="19700" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parts At ATA" sheetId="1" r:id="rId1"/>
     <sheet name="Feed Retrofit Overview" sheetId="2" r:id="rId2"/>
-    <sheet name="Vibration Measurements" sheetId="7" r:id="rId3"/>
-    <sheet name="Parts at SRI" sheetId="3" r:id="rId4"/>
-    <sheet name="Antenna Retrofit" sheetId="8" r:id="rId5"/>
-    <sheet name="LNAs" sheetId="4" r:id="rId6"/>
-    <sheet name="PAX Boxes" sheetId="6" r:id="rId7"/>
+    <sheet name="PY" sheetId="9" r:id="rId3"/>
+    <sheet name="Vibration Measurements" sheetId="7" r:id="rId4"/>
+    <sheet name="Parts at SRI" sheetId="3" r:id="rId5"/>
+    <sheet name="Antenna Retrofit" sheetId="8" r:id="rId6"/>
+    <sheet name="LNAs" sheetId="4" r:id="rId7"/>
+    <sheet name="PAX Boxes" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="xx_1" localSheetId="0">'Parts At ATA'!$A$2:$G$44</definedName>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="485">
   <si>
     <t>Antenna Inventory</t>
   </si>
@@ -93,9 +94,6 @@
     <t>Gold-Plated</t>
   </si>
   <si>
-    <t>CB-0016</t>
-  </si>
-  <si>
     <t>DB-016</t>
   </si>
   <si>
@@ -117,9 +115,6 @@
     <t>PB-001</t>
   </si>
   <si>
-    <t>CB-0028</t>
-  </si>
-  <si>
     <t>DB-025</t>
   </si>
   <si>
@@ -141,9 +136,6 @@
     <t>PB-024</t>
   </si>
   <si>
-    <t>CB-0029</t>
-  </si>
-  <si>
     <t>DB-039</t>
   </si>
   <si>
@@ -162,18 +154,12 @@
     <t>RFCB-042</t>
   </si>
   <si>
-    <t>CB-0004</t>
-  </si>
-  <si>
     <t>DB-019</t>
   </si>
   <si>
     <t>PB-034</t>
   </si>
   <si>
-    <t>CB-0034</t>
-  </si>
-  <si>
     <t>DB-041</t>
   </si>
   <si>
@@ -234,9 +220,6 @@
     <t>PB-003</t>
   </si>
   <si>
-    <t>CB-0051</t>
-  </si>
-  <si>
     <t>DB-0002</t>
   </si>
   <si>
@@ -285,9 +268,6 @@
     <t>RFCB-035</t>
   </si>
   <si>
-    <t>CB-0018</t>
-  </si>
-  <si>
     <t>DB-009</t>
   </si>
   <si>
@@ -427,9 +407,6 @@
   </si>
   <si>
     <t>PB-033</t>
-  </si>
-  <si>
-    <t>CB-0031</t>
   </si>
   <si>
     <t>DB-043</t>
@@ -812,9 +789,6 @@
     <t>broken wirebond</t>
   </si>
   <si>
-    <t>ok</t>
-  </si>
-  <si>
     <t>sn0075A</t>
   </si>
   <si>
@@ -1223,9 +1197,6 @@
     <t>(014) 60 / 64</t>
   </si>
   <si>
-    <t>CB-0022</t>
-  </si>
-  <si>
     <t>5c4-014</t>
   </si>
   <si>
@@ -1235,96 +1206,24 @@
     <t>2M</t>
   </si>
   <si>
-    <t>Pyramid SN</t>
-  </si>
-  <si>
-    <t>002</t>
-  </si>
-  <si>
     <t>003</t>
   </si>
   <si>
-    <t>004</t>
-  </si>
-  <si>
-    <t>005</t>
-  </si>
-  <si>
-    <t>006</t>
-  </si>
-  <si>
-    <t>007</t>
-  </si>
-  <si>
-    <t>008</t>
-  </si>
-  <si>
     <t>009</t>
   </si>
   <si>
-    <t>010</t>
-  </si>
-  <si>
-    <t>011</t>
-  </si>
-  <si>
-    <t>012</t>
-  </si>
-  <si>
-    <t>013</t>
-  </si>
-  <si>
-    <t>014</t>
-  </si>
-  <si>
     <t>015</t>
   </si>
   <si>
-    <t>016</t>
-  </si>
-  <si>
-    <t>017</t>
-  </si>
-  <si>
-    <t>018</t>
-  </si>
-  <si>
-    <t>019</t>
-  </si>
-  <si>
-    <t>020</t>
-  </si>
-  <si>
-    <t>LNA-Y</t>
-  </si>
-  <si>
-    <t>LNA-X</t>
-  </si>
-  <si>
-    <t>X-Y pol switched</t>
-  </si>
-  <si>
-    <t>might be broken</t>
-  </si>
-  <si>
-    <t>no number on pyramid</t>
-  </si>
-  <si>
     <t>Pyramid SN / LNAs</t>
   </si>
   <si>
-    <t>STATE</t>
-  </si>
-  <si>
     <t>(002) 62 / 55</t>
   </si>
   <si>
     <t>(004) 44 / 43</t>
   </si>
   <si>
-    <t>y-oscilates</t>
-  </si>
-  <si>
     <t>sn0028A</t>
   </si>
   <si>
@@ -1467,13 +1366,151 @@
   </si>
   <si>
     <t>5C4-023</t>
+  </si>
+  <si>
+    <t>Pyramid Overview</t>
+  </si>
+  <si>
+    <t>LNA X</t>
+  </si>
+  <si>
+    <t>LNA Y</t>
+  </si>
+  <si>
+    <t>Bias ID</t>
+  </si>
+  <si>
+    <t>PY-001</t>
+  </si>
+  <si>
+    <t>PY-002</t>
+  </si>
+  <si>
+    <t>PY-003</t>
+  </si>
+  <si>
+    <t>PY-004</t>
+  </si>
+  <si>
+    <t>PY-005</t>
+  </si>
+  <si>
+    <t>PY-006</t>
+  </si>
+  <si>
+    <t>PY-007</t>
+  </si>
+  <si>
+    <t>PY-008</t>
+  </si>
+  <si>
+    <t>PY-009</t>
+  </si>
+  <si>
+    <t>PY-010</t>
+  </si>
+  <si>
+    <t>PY-011</t>
+  </si>
+  <si>
+    <t>PY-012</t>
+  </si>
+  <si>
+    <t>PY-013</t>
+  </si>
+  <si>
+    <t>PY-014</t>
+  </si>
+  <si>
+    <t>PY-015</t>
+  </si>
+  <si>
+    <t>PY-016</t>
+  </si>
+  <si>
+    <t>PY-017</t>
+  </si>
+  <si>
+    <t>PY-018</t>
+  </si>
+  <si>
+    <t>PY-019</t>
+  </si>
+  <si>
+    <t>PY-020</t>
+  </si>
+  <si>
+    <t>PY-021</t>
+  </si>
+  <si>
+    <t>PY-022</t>
+  </si>
+  <si>
+    <t>PY-023</t>
+  </si>
+  <si>
+    <t>PY-024</t>
+  </si>
+  <si>
+    <t>PY-025</t>
+  </si>
+  <si>
+    <t>Labeled</t>
+  </si>
+  <si>
+    <t>25mA</t>
+  </si>
+  <si>
+    <t>F66</t>
+  </si>
+  <si>
+    <t>F67</t>
+  </si>
+  <si>
+    <t>60mA</t>
+  </si>
+  <si>
+    <t>Control Box</t>
+  </si>
+  <si>
+    <t>OLD</t>
+  </si>
+  <si>
+    <t>CB-0017</t>
+  </si>
+  <si>
+    <t>CB-0006</t>
+  </si>
+  <si>
+    <t>CB-0015</t>
+  </si>
+  <si>
+    <t>CB-0034</t>
+  </si>
+  <si>
+    <t>CB-0029</t>
+  </si>
+  <si>
+    <t>CB-0016</t>
+  </si>
+  <si>
+    <t>CB-0028</t>
+  </si>
+  <si>
+    <t>X=0.22 Y=0.15 Z=0.28</t>
+  </si>
+  <si>
+    <t>X=0.11 Y=0.10 Z=0.11</t>
+  </si>
+  <si>
+    <t>Followup tuned value</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -1636,8 +1673,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="20">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1712,12 +1754,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1746,14 +1782,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor rgb="FF00FF00"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -1975,12 +2005,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="158">
+  <cellXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2115,36 +2156,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -2172,36 +2188,30 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -2211,6 +2221,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2222,14 +2242,14 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2241,20 +2261,10 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2475,8 +2485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q1001"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2500,25 +2510,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="135" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="141"/>
-      <c r="C1" s="141"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="141"/>
-      <c r="H1" s="142"/>
-      <c r="I1" s="143"/>
-      <c r="J1" s="143"/>
-      <c r="K1" s="142"/>
-      <c r="L1" s="143"/>
-      <c r="M1" s="143"/>
-      <c r="N1" s="143"/>
-      <c r="O1" s="143"/>
-      <c r="P1" s="143"/>
-      <c r="Q1" s="143"/>
+      <c r="B1" s="136"/>
+      <c r="C1" s="136"/>
+      <c r="D1" s="136"/>
+      <c r="E1" s="136"/>
+      <c r="F1" s="136"/>
+      <c r="G1" s="136"/>
+      <c r="H1" s="137"/>
+      <c r="I1" s="138"/>
+      <c r="J1" s="138"/>
+      <c r="K1" s="137"/>
+      <c r="L1" s="138"/>
+      <c r="M1" s="138"/>
+      <c r="N1" s="138"/>
+      <c r="O1" s="138"/>
+      <c r="P1" s="138"/>
+      <c r="Q1" s="138"/>
     </row>
     <row r="2" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -2559,19 +2569,19 @@
         <v>1A</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>20</v>
       </c>
       <c r="H3" s="68"/>
       <c r="I3" s="68"/>
@@ -2590,10 +2600,10 @@
         <v>1B</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -2615,20 +2625,20 @@
         <v>1C</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>24</v>
+        <v>182</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D5" s="8" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1x-FjLa7p2gJDSbRaODzjs8ijaA9SGLtW","5C4-019")</f>
         <v>5C4-019</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="68"/>
@@ -2648,10 +2658,10 @@
         <v>1D</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D6" s="78"/>
       <c r="E6" s="78"/>
@@ -2673,16 +2683,16 @@
         <v>1E</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>32</v>
+        <v>476</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="127" t="s">
-        <v>235</v>
+        <v>30</v>
+      </c>
+      <c r="D7" s="116" t="s">
+        <v>227</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="F7" s="78"/>
       <c r="G7" s="9"/>
@@ -2703,19 +2713,19 @@
         <v>1F</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>38</v>
       </c>
       <c r="H8" s="68"/>
       <c r="I8" s="68"/>
@@ -2734,16 +2744,16 @@
         <v>1G</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>39</v>
+        <v>477</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
@@ -2764,20 +2774,20 @@
         <v>1H</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D10" s="10" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/19GonN6xbnfrGARLvh-LLFUsxF-EngP3u","5C4-013")</f>
         <v>5C4-013</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H10" s="68"/>
       <c r="I10" s="68"/>
@@ -2796,10 +2806,10 @@
         <v>1J</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
@@ -2822,20 +2832,20 @@
         <v>1K</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D12" s="10" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1MyuBrs08Ryi2pvVUeI0hW4p24qsMsUL4","5C4-012")</f>
         <v>5C4-012</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="H12" s="68"/>
       <c r="I12" s="68"/>
@@ -2854,20 +2864,20 @@
         <v>2A</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>391</v>
+        <v>481</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D13" s="10" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1rFsrgDjf_nAuKofi6JoxLvoaGo8A4adh","5C4-005")</f>
         <v>5C4-005</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H13" s="68"/>
       <c r="I13" s="68"/>
@@ -2886,22 +2896,22 @@
         <v>2B</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D14" s="10" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1WeIiiMAp6TYYdsybsr5MvXeiX_cVX9j0","5C4-004")</f>
         <v>5C4-004</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="G14" s="125"/>
+        <v>54</v>
+      </c>
+      <c r="G14" s="114"/>
       <c r="H14" s="68"/>
       <c r="I14" s="68"/>
       <c r="J14" s="68"/>
@@ -2919,16 +2929,16 @@
         <v>2C</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F15" s="4"/>
       <c r="H15" s="68"/>
@@ -2948,10 +2958,10 @@
         <v>2D</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>63</v>
+        <v>478</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -2973,19 +2983,19 @@
         <v>2E</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="H17" s="68"/>
       <c r="I17" s="68"/>
@@ -3004,10 +3014,10 @@
         <v>2F</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -3029,10 +3039,10 @@
         <v>2G</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
@@ -3055,19 +3065,19 @@
         <v>2H</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>444</v>
+        <v>410</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H20" s="68"/>
       <c r="I20" s="68"/>
@@ -3086,16 +3096,16 @@
         <v>2J</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>80</v>
+        <v>480</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D21" s="81" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="E21" s="78" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="F21" s="78"/>
       <c r="H21" s="68"/>
@@ -3115,10 +3125,10 @@
         <v>2K</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D22" s="78"/>
       <c r="E22" s="78"/>
@@ -3140,16 +3150,16 @@
         <v>2L</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D23" s="78" t="s">
-        <v>77</v>
-      </c>
-      <c r="E23" s="131" t="s">
-        <v>103</v>
+        <v>71</v>
+      </c>
+      <c r="E23" s="120" t="s">
+        <v>96</v>
       </c>
       <c r="F23" s="78"/>
       <c r="H23" s="68"/>
@@ -3169,16 +3179,16 @@
         <v>2M</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="D24" s="81" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="E24" s="80" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="F24" s="78"/>
       <c r="G24" s="9"/>
@@ -3199,20 +3209,20 @@
         <v>3C</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D25" s="124" t="str">
+        <v>85</v>
+      </c>
+      <c r="D25" s="113" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1wMVARUxnYHeiTbbEodCmZFb_vx9FkRVr","5C4-020")</f>
         <v>5C4-020</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="H25" s="68"/>
       <c r="I25" s="68"/>
@@ -3231,16 +3241,16 @@
         <v>3D</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="D26" s="81" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E26" s="78" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="F26" s="78"/>
       <c r="G26" s="9"/>
@@ -3261,10 +3271,10 @@
         <v>3E</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="D27" s="78"/>
       <c r="E27" s="78"/>
@@ -3286,19 +3296,19 @@
         <v>3F</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G28" s="3"/>
       <c r="H28" s="68"/>
@@ -3318,19 +3328,19 @@
         <v>3G</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="68"/>
@@ -3350,19 +3360,19 @@
         <v>3H</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G30" s="4"/>
       <c r="H30" s="68"/>
@@ -3382,10 +3392,10 @@
         <v>3J</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
@@ -3407,19 +3417,19 @@
         <v>3L</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="H32" s="68"/>
       <c r="I32" s="68"/>
@@ -3438,10 +3448,10 @@
         <v>4E</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
@@ -3464,10 +3474,10 @@
         <v>4F</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
@@ -3490,19 +3500,19 @@
         <v>4G</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="H35" s="68"/>
       <c r="I35" s="68"/>
@@ -3521,10 +3531,10 @@
         <v>4H</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
@@ -3547,20 +3557,20 @@
         <v>4J</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="D37" s="10" t="str">
         <f>HYPERLINK("https://drive.google.com/drive/folders/1vHgkPcaz684Ip98C0QpWVB-bTK7EvvdW","5C4-006")</f>
         <v>5C4-006</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="H37" s="68"/>
       <c r="I37" s="68"/>
@@ -3579,10 +3589,10 @@
         <v>4K</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
@@ -3604,10 +3614,10 @@
         <v>4L</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
@@ -3629,16 +3639,16 @@
         <v>5B</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>128</v>
+        <v>479</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F40" s="4"/>
       <c r="H40" s="68"/>
@@ -3658,19 +3668,19 @@
         <v>5C</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="H41" s="68"/>
       <c r="I41" s="68"/>
@@ -3689,10 +3699,10 @@
         <v>5E</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
@@ -3714,10 +3724,10 @@
         <v>5G</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
@@ -3739,10 +3749,10 @@
         <v>5H</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
@@ -3770,33 +3780,33 @@
     <row r="46" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="47" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="9" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
     </row>
     <row r="48" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="9" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="9" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="9" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="53" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="12" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3805,70 +3815,70 @@
     </row>
     <row r="55" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="13" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="9"/>
     </row>
     <row r="59" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="144" t="s">
-        <v>157</v>
-      </c>
-      <c r="B59" s="139"/>
-      <c r="C59" s="139"/>
+      <c r="A59" s="139" t="s">
+        <v>149</v>
+      </c>
+      <c r="B59" s="134"/>
+      <c r="C59" s="134"/>
     </row>
     <row r="60" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="12"/>
     </row>
     <row r="61" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="138" t="s">
-        <v>149</v>
-      </c>
-      <c r="B61" s="139"/>
-      <c r="C61" s="138" t="s">
-        <v>158</v>
-      </c>
-      <c r="D61" s="139"/>
-      <c r="E61" s="139"/>
-      <c r="F61" s="139"/>
+      <c r="A61" s="133" t="s">
+        <v>141</v>
+      </c>
+      <c r="B61" s="134"/>
+      <c r="C61" s="133" t="s">
+        <v>150</v>
+      </c>
+      <c r="D61" s="134"/>
+      <c r="E61" s="134"/>
+      <c r="F61" s="134"/>
     </row>
     <row r="62" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="138" t="s">
-        <v>159</v>
-      </c>
-      <c r="B62" s="139"/>
-      <c r="C62" s="138" t="s">
-        <v>160</v>
-      </c>
-      <c r="D62" s="139"/>
-      <c r="E62" s="139"/>
-      <c r="F62" s="139"/>
+      <c r="A62" s="133" t="s">
+        <v>151</v>
+      </c>
+      <c r="B62" s="134"/>
+      <c r="C62" s="133" t="s">
+        <v>152</v>
+      </c>
+      <c r="D62" s="134"/>
+      <c r="E62" s="134"/>
+      <c r="F62" s="134"/>
     </row>
     <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="64" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4835,7 +4845,7 @@
   </sheetPr>
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+    <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
       <selection sqref="A1:J25"/>
     </sheetView>
   </sheetViews>
@@ -4849,94 +4859,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="145" t="s">
-        <v>161</v>
-      </c>
-      <c r="B1" s="146"/>
-      <c r="C1" s="147" t="s">
+      <c r="A1" s="140" t="s">
+        <v>153</v>
+      </c>
+      <c r="B1" s="141"/>
+      <c r="C1" s="142" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="148"/>
-      <c r="E1" s="148"/>
-      <c r="F1" s="148"/>
-      <c r="G1" s="148"/>
-      <c r="H1" s="148"/>
-      <c r="I1" s="148"/>
-      <c r="J1" s="148"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
+      <c r="G1" s="143"/>
+      <c r="H1" s="143"/>
+      <c r="I1" s="143"/>
+      <c r="J1" s="143"/>
       <c r="K1" s="75"/>
       <c r="L1" s="75"/>
     </row>
     <row r="2" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="119" t="s">
-        <v>162</v>
-      </c>
-      <c r="B2" s="119" t="s">
-        <v>163</v>
-      </c>
-      <c r="C2" s="119" t="s">
+      <c r="A2" s="108" t="s">
+        <v>154</v>
+      </c>
+      <c r="B2" s="108" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2" s="108" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="120" t="s">
+      <c r="D2" s="109" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="119" t="s">
+      <c r="E2" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="119" t="s">
+      <c r="F2" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="119" t="s">
+      <c r="G2" s="108" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="119" t="s">
+      <c r="H2" s="108" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="121" t="s">
+      <c r="I2" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="121" t="s">
-        <v>164</v>
+      <c r="J2" s="110" t="s">
+        <v>156</v>
       </c>
       <c r="K2" s="15" t="s">
-        <v>420</v>
+        <v>388</v>
       </c>
       <c r="L2" s="15" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" s="108" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="99" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="21" t="s">
-        <v>437</v>
+        <v>403</v>
       </c>
       <c r="B3" s="76" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H3" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I3" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J3" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K3" s="71" t="s">
-        <v>460</v>
+        <v>426</v>
       </c>
       <c r="L3" s="71"/>
     </row>
@@ -4946,34 +4956,34 @@
         <v>5C4-002</v>
       </c>
       <c r="B4" s="76" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H4" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I4" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J4" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K4" s="71" t="s">
-        <v>452</v>
+        <v>418</v>
       </c>
       <c r="L4" s="17"/>
     </row>
@@ -4983,34 +4993,34 @@
         <v>5C4-003</v>
       </c>
       <c r="B5" s="76" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H5" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I5" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J5" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K5" s="71" t="s">
-        <v>461</v>
+        <v>427</v>
       </c>
       <c r="L5" s="71"/>
     </row>
@@ -5020,37 +5030,37 @@
         <v>5C4-004</v>
       </c>
       <c r="B6" s="72" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H6" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I6" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J6" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K6" s="71" t="s">
-        <v>422</v>
+        <v>389</v>
       </c>
       <c r="L6" s="71" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -5059,37 +5069,37 @@
         <v>5C4-005</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="G7" s="25" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="I7" s="25" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="J7" s="25" t="s">
-        <v>170</v>
-      </c>
-      <c r="K7" s="93" t="s">
-        <v>462</v>
+        <v>162</v>
+      </c>
+      <c r="K7" s="86" t="s">
+        <v>428</v>
       </c>
       <c r="L7" s="71" t="s">
-        <v>463</v>
+        <v>429</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -5098,72 +5108,72 @@
         <v>5C4-006</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G8" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H8" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I8" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J8" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K8" s="71" t="s">
-        <v>464</v>
+        <v>430</v>
       </c>
       <c r="L8" s="71" t="s">
-        <v>463</v>
+        <v>429</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="21" t="s">
-        <v>168</v>
-      </c>
-      <c r="B9" s="156" t="s">
-        <v>165</v>
+        <v>160</v>
+      </c>
+      <c r="B9" s="127" t="s">
+        <v>274</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="157" t="s">
-        <v>28</v>
+        <v>26</v>
+      </c>
+      <c r="G9" s="118" t="s">
+        <v>26</v>
       </c>
       <c r="H9" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I9" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J9" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K9" s="71" t="s">
-        <v>423</v>
+        <v>390</v>
       </c>
       <c r="L9" s="71"/>
     </row>
@@ -5173,37 +5183,37 @@
         <v>5C4-008</v>
       </c>
       <c r="B10" s="72" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H10" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I10" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J10" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K10" s="71" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="L10" s="71" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -5211,24 +5221,24 @@
         <f>HYPERLINK("https://drive.google.com/drive/folders/1EhIIjKRxAQ858Wo2OYQq3GdqbI2ok5Af","5C4-009")</f>
         <v>5C4-009</v>
       </c>
-      <c r="B11" s="130" t="s">
-        <v>165</v>
+      <c r="B11" s="119" t="s">
+        <v>157</v>
       </c>
       <c r="C11" s="71"/>
       <c r="D11" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H11" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I11" s="71"/>
       <c r="J11" s="71"/>
@@ -5241,34 +5251,34 @@
         <v>5C4-010</v>
       </c>
       <c r="B12" s="72" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G12" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H12" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I12" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J12" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K12" s="71" t="s">
-        <v>451</v>
+        <v>417</v>
       </c>
       <c r="L12" s="71"/>
     </row>
@@ -5278,37 +5288,37 @@
         <v>5C4-011</v>
       </c>
       <c r="B13" s="72" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H13" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I13" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J13" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K13" s="71" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="L13" s="71" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -5317,37 +5327,37 @@
         <v>5C4-012</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G14" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H14" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I14" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="J14" s="122" t="s">
-        <v>170</v>
-      </c>
-      <c r="K14" s="93" t="s">
-        <v>465</v>
+        <v>26</v>
+      </c>
+      <c r="J14" s="111" t="s">
+        <v>162</v>
+      </c>
+      <c r="K14" s="86" t="s">
+        <v>431</v>
       </c>
       <c r="L14" s="71" t="s">
-        <v>463</v>
+        <v>429</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -5356,37 +5366,37 @@
         <v>5C4-013</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G15" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H15" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I15" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J15" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K15" s="71" t="s">
-        <v>466</v>
+        <v>432</v>
       </c>
       <c r="L15" s="71" t="s">
-        <v>463</v>
+        <v>429</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -5395,37 +5405,37 @@
         <v>5C4-014</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G16" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H16" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I16" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J16" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K16" s="71" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="L16" s="71" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -5434,70 +5444,70 @@
         <v>5C4-015</v>
       </c>
       <c r="B17" s="72" t="s">
-        <v>458</v>
+        <v>424</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F17" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G17" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H17" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I17" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J17" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K17" s="71" t="s">
-        <v>457</v>
+        <v>423</v>
       </c>
       <c r="L17" s="71"/>
     </row>
     <row r="18" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="23" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="B18" s="72" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F18" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G18" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H18" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I18" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J18" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K18" s="71" t="s">
-        <v>445</v>
+        <v>411</v>
       </c>
       <c r="L18" s="71"/>
     </row>
@@ -5507,73 +5517,73 @@
         <v>5C4-017</v>
       </c>
       <c r="B19" s="72" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="C19" s="2